--- a/config_debug/task_zajindan_server.xlsx
+++ b/config_debug/task_zajindan_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\JyQipai_doc\config_3D\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TTHLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4698" uniqueCount="1219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4699" uniqueCount="1220">
   <si>
     <t>id|任务id</t>
   </si>
@@ -7146,6 +7146,10 @@
   </si>
   <si>
     <t>250</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_auto_get_award|是否自动领取(0或空不自动，1自动领)</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -22296,10 +22300,10 @@
   <dimension ref="A1:K367"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C177" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F182" sqref="F182"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -22341,7 +22345,9 @@
       <c r="I1" s="5" t="s">
         <v>918</v>
       </c>
-      <c r="J1" s="5"/>
+      <c r="J1" s="5" t="s">
+        <v>1219</v>
+      </c>
       <c r="K1" s="38"/>
     </row>
     <row r="2" spans="1:11" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">

--- a/config_debug/task_zajindan_server.xlsx
+++ b/config_debug/task_zajindan_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -7963,11 +7963,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T367"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D165" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D182" sqref="D182"/>
+      <selection pane="bottomRight" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8487,7 +8487,7 @@
         <v>110</v>
       </c>
       <c r="B13" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="49" t="s">
         <v>31</v>
@@ -8565,7 +8565,7 @@
         <v>112</v>
       </c>
       <c r="B15" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" s="49" t="s">
         <v>37</v>
@@ -8604,7 +8604,7 @@
         <v>113</v>
       </c>
       <c r="B16" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" s="49" t="s">
         <v>39</v>
@@ -8643,7 +8643,7 @@
         <v>114</v>
       </c>
       <c r="B17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" s="49" t="s">
         <v>39</v>
@@ -8682,7 +8682,7 @@
         <v>115</v>
       </c>
       <c r="B18" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" s="49" t="s">
         <v>39</v>
@@ -8721,7 +8721,7 @@
         <v>116</v>
       </c>
       <c r="B19" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" s="49" t="s">
         <v>39</v>
@@ -8760,7 +8760,7 @@
         <v>117</v>
       </c>
       <c r="B20" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" s="49" t="s">
         <v>39</v>
@@ -8799,7 +8799,7 @@
         <v>118</v>
       </c>
       <c r="B21" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" s="49" t="s">
         <v>39</v>
@@ -8838,7 +8838,7 @@
         <v>119</v>
       </c>
       <c r="B22" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" s="49" t="s">
         <v>39</v>
@@ -8877,7 +8877,7 @@
         <v>120</v>
       </c>
       <c r="B23" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" s="49" t="s">
         <v>39</v>
@@ -22299,7 +22299,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K367"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>

--- a/config_debug/task_zajindan_server.xlsx
+++ b/config_debug/task_zajindan_server.xlsx
@@ -7967,7 +7967,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B24" sqref="B24"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10905,7 +10905,7 @@
         <v>21016</v>
       </c>
       <c r="B69" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C69" s="16" t="s">
         <v>105</v>
@@ -10944,7 +10944,7 @@
         <v>21017</v>
       </c>
       <c r="B70" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C70" s="16" t="s">
         <v>109</v>
@@ -19366,7 +19366,7 @@
         <v>21238</v>
       </c>
       <c r="B291" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C291" s="16" t="s">
         <v>371</v>
@@ -19404,7 +19404,7 @@
         <v>21239</v>
       </c>
       <c r="B292" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C292" s="16" t="s">
         <v>371</v>
@@ -19442,7 +19442,7 @@
         <v>21240</v>
       </c>
       <c r="B293" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C293" s="16" t="s">
         <v>371</v>
@@ -19480,7 +19480,7 @@
         <v>21241</v>
       </c>
       <c r="B294" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C294" s="16" t="s">
         <v>371</v>
@@ -19518,7 +19518,7 @@
         <v>21242</v>
       </c>
       <c r="B295" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C295" s="16" t="s">
         <v>371</v>
@@ -19556,7 +19556,7 @@
         <v>21243</v>
       </c>
       <c r="B296" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C296" s="12" t="s">
         <v>851</v>
@@ -19594,7 +19594,7 @@
         <v>21244</v>
       </c>
       <c r="B297" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C297" s="16" t="s">
         <v>851</v>
@@ -19632,7 +19632,7 @@
         <v>21245</v>
       </c>
       <c r="B298" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C298" s="16" t="s">
         <v>941</v>
@@ -19670,7 +19670,7 @@
         <v>21246</v>
       </c>
       <c r="B299" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C299" s="16" t="s">
         <v>891</v>
@@ -19708,7 +19708,7 @@
         <v>21247</v>
       </c>
       <c r="B300" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C300" s="12" t="s">
         <v>901</v>
@@ -19746,7 +19746,7 @@
         <v>21248</v>
       </c>
       <c r="B301" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C301" s="16" t="s">
         <v>908</v>
@@ -19784,7 +19784,7 @@
         <v>21249</v>
       </c>
       <c r="B302" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C302" s="16" t="s">
         <v>908</v>
@@ -19822,7 +19822,7 @@
         <v>21250</v>
       </c>
       <c r="B303" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C303" s="16" t="s">
         <v>909</v>
@@ -19860,7 +19860,7 @@
         <v>21251</v>
       </c>
       <c r="B304" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C304" s="16" t="s">
         <v>909</v>
@@ -21418,7 +21418,7 @@
         <v>21292</v>
       </c>
       <c r="B345" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C345" s="16" t="s">
         <v>1135</v>
@@ -21456,7 +21456,7 @@
         <v>21293</v>
       </c>
       <c r="B346" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C346" s="16" t="s">
         <v>1106</v>
@@ -21494,7 +21494,7 @@
         <v>21294</v>
       </c>
       <c r="B347" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C347" s="16" t="s">
         <v>1107</v>
@@ -21532,7 +21532,7 @@
         <v>21295</v>
       </c>
       <c r="B348" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C348" s="16" t="s">
         <v>1108</v>
@@ -21570,7 +21570,7 @@
         <v>21296</v>
       </c>
       <c r="B349" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C349" s="16" t="s">
         <v>1107</v>
@@ -21608,7 +21608,7 @@
         <v>21297</v>
       </c>
       <c r="B350" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C350" s="16" t="s">
         <v>1107</v>
@@ -21646,7 +21646,7 @@
         <v>21298</v>
       </c>
       <c r="B351" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C351" s="16" t="s">
         <v>1107</v>
@@ -21684,7 +21684,7 @@
         <v>21299</v>
       </c>
       <c r="B352" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C352" s="16" t="s">
         <v>1105</v>
@@ -21722,7 +21722,7 @@
         <v>21300</v>
       </c>
       <c r="B353" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C353" s="16" t="s">
         <v>1106</v>
@@ -21760,7 +21760,7 @@
         <v>21301</v>
       </c>
       <c r="B354" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C354" s="16" t="s">
         <v>1106</v>
@@ -21798,7 +21798,7 @@
         <v>21302</v>
       </c>
       <c r="B355" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C355" s="16" t="s">
         <v>1108</v>
@@ -21836,7 +21836,7 @@
         <v>21303</v>
       </c>
       <c r="B356" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C356" s="16" t="s">
         <v>1134</v>
@@ -21874,7 +21874,7 @@
         <v>21304</v>
       </c>
       <c r="B357" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C357" s="16" t="s">
         <v>1139</v>
@@ -21912,7 +21912,7 @@
         <v>21305</v>
       </c>
       <c r="B358" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C358" s="16" t="s">
         <v>1139</v>
@@ -21950,7 +21950,7 @@
         <v>21306</v>
       </c>
       <c r="B359" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C359" s="16" t="s">
         <v>1139</v>
@@ -21988,7 +21988,7 @@
         <v>21307</v>
       </c>
       <c r="B360" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C360" s="16" t="s">
         <v>1139</v>
@@ -22026,7 +22026,7 @@
         <v>21308</v>
       </c>
       <c r="B361" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C361" s="16" t="s">
         <v>1139</v>
@@ -22064,7 +22064,7 @@
         <v>21309</v>
       </c>
       <c r="B362" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C362" s="16" t="s">
         <v>1139</v>
@@ -22102,7 +22102,7 @@
         <v>21310</v>
       </c>
       <c r="B363" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C363" s="16" t="s">
         <v>1139</v>
@@ -22140,7 +22140,7 @@
         <v>21311</v>
       </c>
       <c r="B364" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C364" s="16" t="s">
         <v>1139</v>
@@ -22178,7 +22178,7 @@
         <v>21312</v>
       </c>
       <c r="B365" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C365" s="16" t="s">
         <v>1139</v>
@@ -22216,7 +22216,7 @@
         <v>21313</v>
       </c>
       <c r="B366" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C366" s="16" t="s">
         <v>1139</v>
@@ -22254,7 +22254,7 @@
         <v>21314</v>
       </c>
       <c r="B367" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C367" s="16" t="s">
         <v>1177</v>

--- a/config_debug/task_zajindan_server.xlsx
+++ b/config_debug/task_zajindan_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4699" uniqueCount="1220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4784" uniqueCount="1266">
   <si>
     <t>id|任务id</t>
   </si>
@@ -7121,10 +7121,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>buyu_3d_target_yu</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>3D捕鱼中捕获任意50条鱼</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -7150,6 +7146,469 @@
   </si>
   <si>
     <t>is_auto_get_award|是否自动领取(0或空不自动，1自动领)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>神秘海域</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>海底宝藏</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>藏宝海湾</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>深海沉船</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>开炮送红包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_3dbuyu_goldsumtest</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyu_3d_spend</t>
+  </si>
+  <si>
+    <t>buyu_3d_spend</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>fish_game_id</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>fish_game_id</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>random</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>random</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>250000,2000000,5000000,15000000,40000000,100000000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>2500000,20000000,50000000,150000000,400000000,1000000000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>25000000,200000000,500000000,1500000000,4000000000,10000000000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>250000000,2000000000,5000000000,15000000000,40000000000,100000000000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>568</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,569,570,571,572,573</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>74,575,576,577,578,579</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>80,581,582,583,584,585</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>86,587,588,589,590,591</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>40,80</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>400,500</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1400</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>140</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>200</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>400</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>40,50</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,6</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,8</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,20</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>40,60</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,200</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>400,600</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>400,800</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000,2000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000,5000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10000,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>140</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>20000,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>400</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000,6000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000,8000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000,20000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>40000,50000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>100000,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>140</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>200000,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>400</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -7157,7 +7616,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7233,15 +7692,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="15">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7298,25 +7750,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7368,7 +7802,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7555,9 +7989,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -7573,88 +8004,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -7665,17 +8038,19 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -7961,13 +8336,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T367"/>
+  <dimension ref="A1:T371"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D353" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="K375" sqref="K375"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -15099,16 +15474,16 @@
       <c r="B179" s="61">
         <v>1</v>
       </c>
-      <c r="C179" s="109" t="s">
+      <c r="C179" s="84" t="s">
         <v>1199</v>
       </c>
-      <c r="D179" s="109" t="s">
+      <c r="D179" s="84" t="s">
         <v>1209</v>
       </c>
-      <c r="E179" s="109" t="s">
+      <c r="E179" s="84" t="s">
         <v>132</v>
       </c>
-      <c r="F179" s="109" t="s">
+      <c r="F179" s="84" t="s">
         <v>13</v>
       </c>
       <c r="G179" s="61">
@@ -15138,16 +15513,16 @@
       <c r="B180" s="61">
         <v>1</v>
       </c>
-      <c r="C180" s="109" t="s">
+      <c r="C180" s="84" t="s">
         <v>1199</v>
       </c>
-      <c r="D180" s="109" t="s">
-        <v>1213</v>
-      </c>
-      <c r="E180" s="109" t="s">
+      <c r="D180" s="84" t="s">
+        <v>1212</v>
+      </c>
+      <c r="E180" s="84" t="s">
         <v>132</v>
       </c>
-      <c r="F180" s="109" t="s">
+      <c r="F180" s="84" t="s">
         <v>13</v>
       </c>
       <c r="G180" s="61">
@@ -15177,16 +15552,16 @@
       <c r="B181" s="61">
         <v>1</v>
       </c>
-      <c r="C181" s="109" t="s">
+      <c r="C181" s="84" t="s">
         <v>1199</v>
       </c>
-      <c r="D181" s="109" t="s">
-        <v>1214</v>
-      </c>
-      <c r="E181" s="109" t="s">
+      <c r="D181" s="84" t="s">
+        <v>1213</v>
+      </c>
+      <c r="E181" s="84" t="s">
         <v>132</v>
       </c>
-      <c r="F181" s="109" t="s">
+      <c r="F181" s="84" t="s">
         <v>13</v>
       </c>
       <c r="G181" s="61">
@@ -15216,16 +15591,16 @@
       <c r="B182" s="61">
         <v>1</v>
       </c>
-      <c r="C182" s="109" t="s">
+      <c r="C182" s="84" t="s">
         <v>1199</v>
       </c>
-      <c r="D182" s="109" t="s">
-        <v>1215</v>
-      </c>
-      <c r="E182" s="109" t="s">
+      <c r="D182" s="84" t="s">
+        <v>1214</v>
+      </c>
+      <c r="E182" s="84" t="s">
         <v>132</v>
       </c>
-      <c r="F182" s="109" t="s">
+      <c r="F182" s="84" t="s">
         <v>13</v>
       </c>
       <c r="G182" s="61">
@@ -15255,16 +15630,16 @@
       <c r="B183" s="61">
         <v>1</v>
       </c>
-      <c r="C183" s="109" t="s">
+      <c r="C183" s="84" t="s">
         <v>1199</v>
       </c>
       <c r="D183" s="61" t="s">
         <v>1200</v>
       </c>
-      <c r="E183" s="109" t="s">
+      <c r="E183" s="84" t="s">
         <v>132</v>
       </c>
-      <c r="F183" s="109" t="s">
+      <c r="F183" s="84" t="s">
         <v>13</v>
       </c>
       <c r="G183" s="61">
@@ -15294,16 +15669,16 @@
       <c r="B184" s="61">
         <v>1</v>
       </c>
-      <c r="C184" s="109" t="s">
+      <c r="C184" s="84" t="s">
         <v>1199</v>
       </c>
       <c r="D184" s="61" t="s">
         <v>1201</v>
       </c>
-      <c r="E184" s="109" t="s">
+      <c r="E184" s="84" t="s">
         <v>132</v>
       </c>
-      <c r="F184" s="109" t="s">
+      <c r="F184" s="84" t="s">
         <v>236</v>
       </c>
       <c r="G184" s="61">
@@ -15333,16 +15708,16 @@
       <c r="B185" s="61">
         <v>1</v>
       </c>
-      <c r="C185" s="109" t="s">
+      <c r="C185" s="84" t="s">
         <v>1199</v>
       </c>
       <c r="D185" s="61" t="s">
         <v>1202</v>
       </c>
-      <c r="E185" s="109" t="s">
+      <c r="E185" s="84" t="s">
         <v>132</v>
       </c>
-      <c r="F185" s="109" t="s">
+      <c r="F185" s="84" t="s">
         <v>13</v>
       </c>
       <c r="G185" s="61">
@@ -15372,16 +15747,16 @@
       <c r="B186" s="61">
         <v>1</v>
       </c>
-      <c r="C186" s="109" t="s">
+      <c r="C186" s="84" t="s">
         <v>1199</v>
       </c>
       <c r="D186" s="61" t="s">
         <v>1203</v>
       </c>
-      <c r="E186" s="109" t="s">
+      <c r="E186" s="84" t="s">
         <v>132</v>
       </c>
-      <c r="F186" s="109" t="s">
+      <c r="F186" s="84" t="s">
         <v>13</v>
       </c>
       <c r="G186" s="61">
@@ -15411,16 +15786,16 @@
       <c r="B187" s="61">
         <v>1</v>
       </c>
-      <c r="C187" s="109" t="s">
+      <c r="C187" s="84" t="s">
         <v>1199</v>
       </c>
       <c r="D187" s="61" t="s">
         <v>1204</v>
       </c>
-      <c r="E187" s="109" t="s">
+      <c r="E187" s="84" t="s">
         <v>132</v>
       </c>
-      <c r="F187" s="109" t="s">
+      <c r="F187" s="84" t="s">
         <v>13</v>
       </c>
       <c r="G187" s="61">
@@ -15450,16 +15825,16 @@
       <c r="B188" s="61">
         <v>1</v>
       </c>
-      <c r="C188" s="109" t="s">
+      <c r="C188" s="84" t="s">
         <v>1199</v>
       </c>
       <c r="D188" s="61" t="s">
         <v>1205</v>
       </c>
-      <c r="E188" s="109" t="s">
+      <c r="E188" s="84" t="s">
         <v>132</v>
       </c>
-      <c r="F188" s="109" t="s">
+      <c r="F188" s="84" t="s">
         <v>13</v>
       </c>
       <c r="G188" s="61">
@@ -15489,16 +15864,16 @@
       <c r="B189" s="61">
         <v>1</v>
       </c>
-      <c r="C189" s="109" t="s">
+      <c r="C189" s="84" t="s">
         <v>1199</v>
       </c>
       <c r="D189" s="61" t="s">
         <v>1206</v>
       </c>
-      <c r="E189" s="109" t="s">
+      <c r="E189" s="84" t="s">
         <v>132</v>
       </c>
-      <c r="F189" s="109" t="s">
+      <c r="F189" s="84" t="s">
         <v>13</v>
       </c>
       <c r="G189" s="61">
@@ -15528,16 +15903,16 @@
       <c r="B190" s="61">
         <v>1</v>
       </c>
-      <c r="C190" s="109" t="s">
+      <c r="C190" s="84" t="s">
         <v>1199</v>
       </c>
       <c r="D190" s="61" t="s">
         <v>1207</v>
       </c>
-      <c r="E190" s="109" t="s">
+      <c r="E190" s="84" t="s">
         <v>132</v>
       </c>
-      <c r="F190" s="109" t="s">
+      <c r="F190" s="84" t="s">
         <v>13</v>
       </c>
       <c r="G190" s="61">
@@ -15567,16 +15942,16 @@
       <c r="B191" s="61">
         <v>1</v>
       </c>
-      <c r="C191" s="109" t="s">
+      <c r="C191" s="84" t="s">
         <v>1199</v>
       </c>
       <c r="D191" s="61" t="s">
         <v>1208</v>
       </c>
-      <c r="E191" s="109" t="s">
+      <c r="E191" s="84" t="s">
         <v>132</v>
       </c>
-      <c r="F191" s="109" t="s">
+      <c r="F191" s="84" t="s">
         <v>13</v>
       </c>
       <c r="G191" s="61">
@@ -17164,16 +17539,16 @@
       <c r="B233" s="61">
         <v>1</v>
       </c>
-      <c r="C233" s="109" t="s">
+      <c r="C233" s="84" t="s">
         <v>235</v>
       </c>
-      <c r="D233" s="109" t="s">
+      <c r="D233" s="84" t="s">
         <v>292</v>
       </c>
-      <c r="E233" s="109" t="s">
+      <c r="E233" s="84" t="s">
         <v>132</v>
       </c>
-      <c r="F233" s="109" t="s">
+      <c r="F233" s="84" t="s">
         <v>13</v>
       </c>
       <c r="G233" s="61">
@@ -17202,16 +17577,16 @@
       <c r="B234" s="61">
         <v>1</v>
       </c>
-      <c r="C234" s="109" t="s">
+      <c r="C234" s="84" t="s">
         <v>235</v>
       </c>
-      <c r="D234" s="109" t="s">
+      <c r="D234" s="84" t="s">
         <v>293</v>
       </c>
-      <c r="E234" s="109" t="s">
+      <c r="E234" s="84" t="s">
         <v>132</v>
       </c>
-      <c r="F234" s="109" t="s">
+      <c r="F234" s="84" t="s">
         <v>13</v>
       </c>
       <c r="G234" s="61">
@@ -17240,16 +17615,16 @@
       <c r="B235" s="61">
         <v>1</v>
       </c>
-      <c r="C235" s="109" t="s">
+      <c r="C235" s="84" t="s">
         <v>235</v>
       </c>
-      <c r="D235" s="109" t="s">
+      <c r="D235" s="84" t="s">
         <v>294</v>
       </c>
-      <c r="E235" s="109" t="s">
+      <c r="E235" s="84" t="s">
         <v>132</v>
       </c>
-      <c r="F235" s="109" t="s">
+      <c r="F235" s="84" t="s">
         <v>13</v>
       </c>
       <c r="G235" s="61">
@@ -19599,7 +19974,7 @@
       <c r="C297" s="16" t="s">
         <v>851</v>
       </c>
-      <c r="D297" s="67" t="s">
+      <c r="D297" s="66" t="s">
         <v>855</v>
       </c>
       <c r="E297" s="16" t="s">
@@ -22284,6 +22659,158 @@
         <v>32503651200</v>
       </c>
       <c r="L367" s="12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A368" s="9">
+        <v>21315</v>
+      </c>
+      <c r="B368" s="9">
+        <v>1</v>
+      </c>
+      <c r="C368" s="51" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D368" s="86" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E368" s="51" t="s">
+        <v>1224</v>
+      </c>
+      <c r="F368" s="51" t="s">
+        <v>856</v>
+      </c>
+      <c r="G368" s="9">
+        <v>21315</v>
+      </c>
+      <c r="H368" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I368" s="9">
+        <v>1</v>
+      </c>
+      <c r="J368" s="9">
+        <v>1593554400</v>
+      </c>
+      <c r="K368" s="9">
+        <v>32503651200</v>
+      </c>
+      <c r="L368" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A369" s="9">
+        <v>21316</v>
+      </c>
+      <c r="B369" s="9">
+        <v>1</v>
+      </c>
+      <c r="C369" s="51" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D369" s="86" t="s">
+        <v>1220</v>
+      </c>
+      <c r="E369" s="51" t="s">
+        <v>1224</v>
+      </c>
+      <c r="F369" s="51" t="s">
+        <v>856</v>
+      </c>
+      <c r="G369" s="9">
+        <v>21316</v>
+      </c>
+      <c r="H369" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I369" s="9">
+        <v>1</v>
+      </c>
+      <c r="J369" s="9">
+        <v>1593554400</v>
+      </c>
+      <c r="K369" s="9">
+        <v>32503651200</v>
+      </c>
+      <c r="L369" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A370" s="9">
+        <v>21317</v>
+      </c>
+      <c r="B370" s="9">
+        <v>1</v>
+      </c>
+      <c r="C370" s="51" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D370" s="51" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E370" s="51" t="s">
+        <v>1224</v>
+      </c>
+      <c r="F370" s="51" t="s">
+        <v>856</v>
+      </c>
+      <c r="G370" s="9">
+        <v>21317</v>
+      </c>
+      <c r="H370" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I370" s="9">
+        <v>1</v>
+      </c>
+      <c r="J370" s="9">
+        <v>1593554400</v>
+      </c>
+      <c r="K370" s="9">
+        <v>32503651200</v>
+      </c>
+      <c r="L370" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A371" s="9">
+        <v>21318</v>
+      </c>
+      <c r="B371" s="9">
+        <v>1</v>
+      </c>
+      <c r="C371" s="51" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D371" s="51" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E371" s="51" t="s">
+        <v>1224</v>
+      </c>
+      <c r="F371" s="51" t="s">
+        <v>856</v>
+      </c>
+      <c r="G371" s="9">
+        <v>21318</v>
+      </c>
+      <c r="H371" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I371" s="9">
+        <v>1</v>
+      </c>
+      <c r="J371" s="9">
+        <v>1593554400</v>
+      </c>
+      <c r="K371" s="9">
+        <v>32503651200</v>
+      </c>
+      <c r="L371" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -22297,13 +22824,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K367"/>
+  <dimension ref="A1:K371"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="F356" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomRight" activeCell="H376" sqref="H376"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -22346,7 +22873,7 @@
         <v>918</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="K1" s="38"/>
     </row>
@@ -24154,7 +24681,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="69" spans="1:10" s="104" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" s="81" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="10">
         <v>68</v>
       </c>
@@ -24170,18 +24697,18 @@
       <c r="E69" s="10">
         <v>0</v>
       </c>
-      <c r="F69" s="102" t="s">
+      <c r="F69" s="79" t="s">
         <v>442</v>
       </c>
-      <c r="G69" s="102"/>
-      <c r="H69" s="103" t="s">
+      <c r="G69" s="79"/>
+      <c r="H69" s="80" t="s">
         <v>443</v>
       </c>
       <c r="I69" s="10" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="70" spans="1:10" s="104" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" s="81" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="10">
         <v>69</v>
       </c>
@@ -24197,11 +24724,11 @@
       <c r="E70" s="10">
         <v>0</v>
       </c>
-      <c r="F70" s="102" t="s">
+      <c r="F70" s="79" t="s">
         <v>442</v>
       </c>
-      <c r="G70" s="102"/>
-      <c r="H70" s="103" t="s">
+      <c r="G70" s="79"/>
+      <c r="H70" s="80" t="s">
         <v>444</v>
       </c>
       <c r="I70" s="10" t="s">
@@ -27114,520 +27641,520 @@
       </c>
     </row>
     <row r="179" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="61">
+      <c r="A179" s="12">
         <v>178</v>
       </c>
-      <c r="B179" s="61">
+      <c r="B179" s="12">
         <v>21126</v>
       </c>
-      <c r="C179" s="110"/>
-      <c r="D179" s="60">
+      <c r="C179" s="13"/>
+      <c r="D179" s="11">
         <v>178</v>
       </c>
-      <c r="E179" s="60">
+      <c r="E179" s="11">
         <v>120</v>
       </c>
-      <c r="F179" s="62" t="s">
+      <c r="F179" s="40" t="s">
         <v>1188</v>
       </c>
-      <c r="G179" s="63"/>
-      <c r="H179" s="64" t="s">
+      <c r="G179" s="35"/>
+      <c r="H179" s="15" t="s">
         <v>567</v>
       </c>
-      <c r="I179" s="110" t="s">
+      <c r="I179" s="13" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="180" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="60">
+      <c r="A180" s="11">
         <v>179</v>
       </c>
-      <c r="B180" s="61">
+      <c r="B180" s="12">
         <v>21127</v>
       </c>
-      <c r="C180" s="110"/>
-      <c r="D180" s="60">
+      <c r="C180" s="13"/>
+      <c r="D180" s="11">
         <v>179</v>
       </c>
-      <c r="E180" s="60">
+      <c r="E180" s="11">
         <v>121</v>
       </c>
-      <c r="F180" s="62" t="s">
+      <c r="F180" s="40" t="s">
+        <v>1215</v>
+      </c>
+      <c r="G180" s="35"/>
+      <c r="H180" s="15" t="s">
+        <v>568</v>
+      </c>
+      <c r="I180" s="13" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A181" s="12">
+        <v>180</v>
+      </c>
+      <c r="B181" s="12">
+        <v>21128</v>
+      </c>
+      <c r="C181" s="13"/>
+      <c r="D181" s="11">
+        <v>180</v>
+      </c>
+      <c r="E181" s="11">
+        <v>122</v>
+      </c>
+      <c r="F181" s="40" t="s">
         <v>1216</v>
       </c>
-      <c r="G180" s="63"/>
-      <c r="H180" s="64" t="s">
-        <v>568</v>
-      </c>
-      <c r="I180" s="110" t="s">
+      <c r="G181" s="35"/>
+      <c r="H181" s="15" t="s">
+        <v>569</v>
+      </c>
+      <c r="I181" s="13" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="181" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="61">
-        <v>180</v>
-      </c>
-      <c r="B181" s="61">
-        <v>21128</v>
-      </c>
-      <c r="C181" s="110"/>
-      <c r="D181" s="60">
-        <v>180</v>
-      </c>
-      <c r="E181" s="60">
-        <v>122</v>
-      </c>
-      <c r="F181" s="62" t="s">
+    <row r="182" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A182" s="11">
+        <v>181</v>
+      </c>
+      <c r="B182" s="12">
+        <v>21129</v>
+      </c>
+      <c r="C182" s="13"/>
+      <c r="D182" s="11">
+        <v>181</v>
+      </c>
+      <c r="E182" s="11">
+        <v>123</v>
+      </c>
+      <c r="F182" s="40" t="s">
         <v>1217</v>
       </c>
-      <c r="G181" s="63"/>
-      <c r="H181" s="64" t="s">
-        <v>569</v>
-      </c>
-      <c r="I181" s="110" t="s">
+      <c r="G182" s="35"/>
+      <c r="H182" s="15" t="s">
+        <v>570</v>
+      </c>
+      <c r="I182" s="13" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="182" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="60">
-        <v>181</v>
-      </c>
-      <c r="B182" s="61">
-        <v>21129</v>
-      </c>
-      <c r="C182" s="110"/>
-      <c r="D182" s="60">
-        <v>181</v>
-      </c>
-      <c r="E182" s="60">
-        <v>123</v>
-      </c>
-      <c r="F182" s="62" t="s">
-        <v>1218</v>
-      </c>
-      <c r="G182" s="63"/>
-      <c r="H182" s="64" t="s">
-        <v>570</v>
-      </c>
-      <c r="I182" s="110" t="s">
+    <row r="183" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A183" s="12">
+        <v>182</v>
+      </c>
+      <c r="B183" s="12">
+        <v>21130</v>
+      </c>
+      <c r="C183" s="13" t="s">
+        <v>482</v>
+      </c>
+      <c r="D183" s="11">
+        <v>182</v>
+      </c>
+      <c r="E183" s="11">
+        <v>0</v>
+      </c>
+      <c r="F183" s="11">
+        <v>1</v>
+      </c>
+      <c r="G183" s="35"/>
+      <c r="H183" s="15" t="s">
+        <v>571</v>
+      </c>
+      <c r="I183" s="13" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="183" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="61">
-        <v>182</v>
-      </c>
-      <c r="B183" s="61">
-        <v>21130</v>
-      </c>
-      <c r="C183" s="110" t="s">
-        <v>482</v>
-      </c>
-      <c r="D183" s="60">
-        <v>182</v>
-      </c>
-      <c r="E183" s="60">
-        <v>0</v>
-      </c>
-      <c r="F183" s="60">
-        <v>1</v>
-      </c>
-      <c r="G183" s="63"/>
-      <c r="H183" s="64" t="s">
-        <v>571</v>
-      </c>
-      <c r="I183" s="110" t="s">
+    <row r="184" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A184" s="11">
+        <v>183</v>
+      </c>
+      <c r="B184" s="12">
+        <v>21131</v>
+      </c>
+      <c r="C184" s="13" t="s">
+        <v>485</v>
+      </c>
+      <c r="D184" s="11">
+        <v>183</v>
+      </c>
+      <c r="E184" s="11">
+        <v>0</v>
+      </c>
+      <c r="F184" s="40" t="s">
+        <v>451</v>
+      </c>
+      <c r="G184" s="35"/>
+      <c r="H184" s="15" t="s">
+        <v>572</v>
+      </c>
+      <c r="I184" s="13" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="184" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="60">
-        <v>183</v>
-      </c>
-      <c r="B184" s="61">
-        <v>21131</v>
-      </c>
-      <c r="C184" s="110" t="s">
-        <v>485</v>
-      </c>
-      <c r="D184" s="60">
-        <v>183</v>
-      </c>
-      <c r="E184" s="60">
-        <v>0</v>
-      </c>
-      <c r="F184" s="62" t="s">
+    <row r="185" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A185" s="12">
+        <v>184</v>
+      </c>
+      <c r="B185" s="12">
+        <v>21132</v>
+      </c>
+      <c r="C185" s="13" t="s">
+        <v>545</v>
+      </c>
+      <c r="D185" s="11">
+        <v>184</v>
+      </c>
+      <c r="E185" s="12">
+        <v>0</v>
+      </c>
+      <c r="F185" s="40" t="s">
+        <v>504</v>
+      </c>
+      <c r="G185" s="35"/>
+      <c r="H185" s="15" t="s">
+        <v>573</v>
+      </c>
+      <c r="I185" s="13" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A186" s="11">
+        <v>185</v>
+      </c>
+      <c r="B186" s="12">
+        <v>21133</v>
+      </c>
+      <c r="C186" s="13" t="s">
+        <v>545</v>
+      </c>
+      <c r="D186" s="11">
+        <v>185</v>
+      </c>
+      <c r="E186" s="12">
+        <v>0</v>
+      </c>
+      <c r="F186" s="40" t="s">
+        <v>574</v>
+      </c>
+      <c r="G186" s="35"/>
+      <c r="H186" s="15" t="s">
+        <v>575</v>
+      </c>
+      <c r="I186" s="13" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A187" s="12">
+        <v>186</v>
+      </c>
+      <c r="B187" s="12">
+        <v>21134</v>
+      </c>
+      <c r="C187" s="13" t="s">
+        <v>545</v>
+      </c>
+      <c r="D187" s="11">
+        <v>186</v>
+      </c>
+      <c r="E187" s="12">
+        <v>0</v>
+      </c>
+      <c r="F187" s="40" t="s">
+        <v>493</v>
+      </c>
+      <c r="G187" s="35"/>
+      <c r="H187" s="15" t="s">
+        <v>576</v>
+      </c>
+      <c r="I187" s="13" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A188" s="11">
+        <v>187</v>
+      </c>
+      <c r="B188" s="12">
+        <v>21135</v>
+      </c>
+      <c r="C188" s="13" t="s">
+        <v>545</v>
+      </c>
+      <c r="D188" s="11">
+        <v>187</v>
+      </c>
+      <c r="E188" s="12">
+        <v>0</v>
+      </c>
+      <c r="F188" s="40" t="s">
+        <v>525</v>
+      </c>
+      <c r="G188" s="35"/>
+      <c r="H188" s="15" t="s">
+        <v>577</v>
+      </c>
+      <c r="I188" s="13" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A189" s="12">
+        <v>188</v>
+      </c>
+      <c r="B189" s="12">
+        <v>21136</v>
+      </c>
+      <c r="C189" s="13" t="s">
+        <v>545</v>
+      </c>
+      <c r="D189" s="11">
+        <v>188</v>
+      </c>
+      <c r="E189" s="12">
+        <v>0</v>
+      </c>
+      <c r="F189" s="40" t="s">
+        <v>578</v>
+      </c>
+      <c r="G189" s="35"/>
+      <c r="H189" s="15" t="s">
+        <v>579</v>
+      </c>
+      <c r="I189" s="13" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A190" s="11">
+        <v>189</v>
+      </c>
+      <c r="B190" s="12">
+        <v>21137</v>
+      </c>
+      <c r="C190" s="13" t="s">
+        <v>545</v>
+      </c>
+      <c r="D190" s="11">
+        <v>189</v>
+      </c>
+      <c r="E190" s="12">
+        <v>0</v>
+      </c>
+      <c r="F190" s="40" t="s">
+        <v>580</v>
+      </c>
+      <c r="G190" s="35"/>
+      <c r="H190" s="15" t="s">
+        <v>581</v>
+      </c>
+      <c r="I190" s="13" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A191" s="12">
+        <v>190</v>
+      </c>
+      <c r="B191" s="12">
+        <v>21138</v>
+      </c>
+      <c r="C191" s="13" t="s">
+        <v>545</v>
+      </c>
+      <c r="D191" s="11">
+        <v>190</v>
+      </c>
+      <c r="E191" s="12">
+        <v>0</v>
+      </c>
+      <c r="F191" s="40" t="s">
+        <v>582</v>
+      </c>
+      <c r="G191" s="35"/>
+      <c r="H191" s="15" t="s">
+        <v>583</v>
+      </c>
+      <c r="I191" s="13" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="11">
+        <v>191</v>
+      </c>
+      <c r="B192" s="12">
+        <v>21139</v>
+      </c>
+      <c r="C192" s="13"/>
+      <c r="D192" s="11">
+        <v>191</v>
+      </c>
+      <c r="E192" s="11">
+        <v>0</v>
+      </c>
+      <c r="F192" s="40" t="s">
         <v>451</v>
       </c>
-      <c r="G184" s="63"/>
-      <c r="H184" s="64" t="s">
-        <v>572</v>
-      </c>
-      <c r="I184" s="110" t="s">
+      <c r="G192" s="35"/>
+      <c r="H192" s="15" t="s">
+        <v>584</v>
+      </c>
+      <c r="I192" s="13" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="185" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="61">
-        <v>184</v>
-      </c>
-      <c r="B185" s="61">
-        <v>21132</v>
-      </c>
-      <c r="C185" s="110" t="s">
-        <v>545</v>
-      </c>
-      <c r="D185" s="60">
-        <v>184</v>
-      </c>
-      <c r="E185" s="61">
-        <v>0</v>
-      </c>
-      <c r="F185" s="62" t="s">
-        <v>504</v>
-      </c>
-      <c r="G185" s="63"/>
-      <c r="H185" s="64" t="s">
-        <v>573</v>
-      </c>
-      <c r="I185" s="110" t="s">
+    <row r="193" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A193" s="12">
+        <v>192</v>
+      </c>
+      <c r="B193" s="12">
+        <v>21140</v>
+      </c>
+      <c r="C193" s="13"/>
+      <c r="D193" s="11">
+        <v>192</v>
+      </c>
+      <c r="E193" s="11">
+        <v>0</v>
+      </c>
+      <c r="F193" s="40" t="s">
+        <v>1188</v>
+      </c>
+      <c r="G193" s="35"/>
+      <c r="H193" s="15" t="s">
+        <v>585</v>
+      </c>
+      <c r="I193" s="13" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="186" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="60">
-        <v>185</v>
-      </c>
-      <c r="B186" s="61">
-        <v>21133</v>
-      </c>
-      <c r="C186" s="110" t="s">
-        <v>545</v>
-      </c>
-      <c r="D186" s="60">
-        <v>185</v>
-      </c>
-      <c r="E186" s="61">
-        <v>0</v>
-      </c>
-      <c r="F186" s="62" t="s">
-        <v>574</v>
-      </c>
-      <c r="G186" s="63"/>
-      <c r="H186" s="64" t="s">
-        <v>575</v>
-      </c>
-      <c r="I186" s="110" t="s">
+    <row r="194" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A194" s="11">
+        <v>193</v>
+      </c>
+      <c r="B194" s="12">
+        <v>21141</v>
+      </c>
+      <c r="C194" s="13"/>
+      <c r="D194" s="11">
+        <v>193</v>
+      </c>
+      <c r="E194" s="11">
+        <v>0</v>
+      </c>
+      <c r="F194" s="40" t="s">
+        <v>1189</v>
+      </c>
+      <c r="G194" s="35"/>
+      <c r="H194" s="15" t="s">
+        <v>586</v>
+      </c>
+      <c r="I194" s="13" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="187" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="61">
-        <v>186</v>
-      </c>
-      <c r="B187" s="61">
-        <v>21134</v>
-      </c>
-      <c r="C187" s="110" t="s">
-        <v>545</v>
-      </c>
-      <c r="D187" s="60">
-        <v>186</v>
-      </c>
-      <c r="E187" s="61">
-        <v>0</v>
-      </c>
-      <c r="F187" s="62" t="s">
-        <v>493</v>
-      </c>
-      <c r="G187" s="63"/>
-      <c r="H187" s="64" t="s">
-        <v>576</v>
-      </c>
-      <c r="I187" s="110" t="s">
+    <row r="195" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A195" s="12">
+        <v>194</v>
+      </c>
+      <c r="B195" s="12">
+        <v>21142</v>
+      </c>
+      <c r="C195" s="13"/>
+      <c r="D195" s="11">
+        <v>194</v>
+      </c>
+      <c r="E195" s="11">
+        <v>0</v>
+      </c>
+      <c r="F195" s="40" t="s">
+        <v>1190</v>
+      </c>
+      <c r="G195" s="35"/>
+      <c r="H195" s="15" t="s">
+        <v>587</v>
+      </c>
+      <c r="I195" s="13" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="188" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="60">
-        <v>187</v>
-      </c>
-      <c r="B188" s="61">
-        <v>21135</v>
-      </c>
-      <c r="C188" s="110" t="s">
-        <v>545</v>
-      </c>
-      <c r="D188" s="60">
-        <v>187</v>
-      </c>
-      <c r="E188" s="61">
-        <v>0</v>
-      </c>
-      <c r="F188" s="62" t="s">
-        <v>525</v>
-      </c>
-      <c r="G188" s="63"/>
-      <c r="H188" s="64" t="s">
-        <v>577</v>
-      </c>
-      <c r="I188" s="110" t="s">
+    <row r="196" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A196" s="11">
+        <v>195</v>
+      </c>
+      <c r="B196" s="12">
+        <v>21143</v>
+      </c>
+      <c r="C196" s="13"/>
+      <c r="D196" s="11">
+        <v>195</v>
+      </c>
+      <c r="E196" s="11">
+        <v>0</v>
+      </c>
+      <c r="F196" s="40" t="s">
+        <v>1191</v>
+      </c>
+      <c r="G196" s="35"/>
+      <c r="H196" s="15" t="s">
+        <v>588</v>
+      </c>
+      <c r="I196" s="13" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="189" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="61">
-        <v>188</v>
-      </c>
-      <c r="B189" s="61">
-        <v>21136</v>
-      </c>
-      <c r="C189" s="110" t="s">
-        <v>545</v>
-      </c>
-      <c r="D189" s="60">
-        <v>188</v>
-      </c>
-      <c r="E189" s="61">
-        <v>0</v>
-      </c>
-      <c r="F189" s="62" t="s">
-        <v>578</v>
-      </c>
-      <c r="G189" s="63"/>
-      <c r="H189" s="64" t="s">
-        <v>579</v>
-      </c>
-      <c r="I189" s="110" t="s">
+    <row r="197" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A197" s="12">
+        <v>196</v>
+      </c>
+      <c r="B197" s="12">
+        <v>21144</v>
+      </c>
+      <c r="C197" s="13"/>
+      <c r="D197" s="11">
+        <v>196</v>
+      </c>
+      <c r="E197" s="11">
+        <v>0</v>
+      </c>
+      <c r="F197" s="40" t="s">
+        <v>1192</v>
+      </c>
+      <c r="G197" s="35"/>
+      <c r="H197" s="15" t="s">
+        <v>589</v>
+      </c>
+      <c r="I197" s="13" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="190" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="60">
-        <v>189</v>
-      </c>
-      <c r="B190" s="61">
-        <v>21137</v>
-      </c>
-      <c r="C190" s="110" t="s">
-        <v>545</v>
-      </c>
-      <c r="D190" s="60">
-        <v>189</v>
-      </c>
-      <c r="E190" s="61">
-        <v>0</v>
-      </c>
-      <c r="F190" s="62" t="s">
-        <v>580</v>
-      </c>
-      <c r="G190" s="63"/>
-      <c r="H190" s="64" t="s">
-        <v>581</v>
-      </c>
-      <c r="I190" s="110" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="61">
-        <v>190</v>
-      </c>
-      <c r="B191" s="61">
-        <v>21138</v>
-      </c>
-      <c r="C191" s="110" t="s">
-        <v>545</v>
-      </c>
-      <c r="D191" s="60">
-        <v>190</v>
-      </c>
-      <c r="E191" s="61">
-        <v>0</v>
-      </c>
-      <c r="F191" s="62" t="s">
-        <v>582</v>
-      </c>
-      <c r="G191" s="63"/>
-      <c r="H191" s="64" t="s">
-        <v>583</v>
-      </c>
-      <c r="I191" s="110" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="10">
-        <v>191</v>
-      </c>
-      <c r="B192" s="9">
-        <v>21139</v>
-      </c>
-      <c r="C192" s="19"/>
-      <c r="D192" s="10">
-        <v>191</v>
-      </c>
-      <c r="E192" s="10">
-        <v>0</v>
-      </c>
-      <c r="F192" s="105" t="s">
-        <v>451</v>
-      </c>
-      <c r="G192" s="102"/>
-      <c r="H192" s="107" t="s">
-        <v>584</v>
-      </c>
-      <c r="I192" s="19" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="9">
-        <v>192</v>
-      </c>
-      <c r="B193" s="9">
-        <v>21140</v>
-      </c>
-      <c r="C193" s="19"/>
-      <c r="D193" s="10">
-        <v>192</v>
-      </c>
-      <c r="E193" s="10">
-        <v>0</v>
-      </c>
-      <c r="F193" s="105" t="s">
-        <v>1188</v>
-      </c>
-      <c r="G193" s="102"/>
-      <c r="H193" s="107" t="s">
-        <v>585</v>
-      </c>
-      <c r="I193" s="19" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="10">
-        <v>193</v>
-      </c>
-      <c r="B194" s="9">
-        <v>21141</v>
-      </c>
-      <c r="C194" s="19"/>
-      <c r="D194" s="10">
-        <v>193</v>
-      </c>
-      <c r="E194" s="10">
-        <v>0</v>
-      </c>
-      <c r="F194" s="105" t="s">
-        <v>1189</v>
-      </c>
-      <c r="G194" s="102"/>
-      <c r="H194" s="107" t="s">
-        <v>586</v>
-      </c>
-      <c r="I194" s="19" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="9">
-        <v>194</v>
-      </c>
-      <c r="B195" s="9">
-        <v>21142</v>
-      </c>
-      <c r="C195" s="19"/>
-      <c r="D195" s="10">
-        <v>194</v>
-      </c>
-      <c r="E195" s="10">
-        <v>0</v>
-      </c>
-      <c r="F195" s="105" t="s">
-        <v>1190</v>
-      </c>
-      <c r="G195" s="102"/>
-      <c r="H195" s="107" t="s">
-        <v>587</v>
-      </c>
-      <c r="I195" s="19" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="10">
-        <v>195</v>
-      </c>
-      <c r="B196" s="9">
-        <v>21143</v>
-      </c>
-      <c r="C196" s="19"/>
-      <c r="D196" s="10">
-        <v>195</v>
-      </c>
-      <c r="E196" s="10">
-        <v>0</v>
-      </c>
-      <c r="F196" s="105" t="s">
-        <v>1191</v>
-      </c>
-      <c r="G196" s="102"/>
-      <c r="H196" s="107" t="s">
-        <v>588</v>
-      </c>
-      <c r="I196" s="19" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="9">
-        <v>196</v>
-      </c>
-      <c r="B197" s="9">
-        <v>21144</v>
-      </c>
-      <c r="C197" s="19"/>
-      <c r="D197" s="10">
-        <v>196</v>
-      </c>
-      <c r="E197" s="10">
-        <v>0</v>
-      </c>
-      <c r="F197" s="105" t="s">
-        <v>1192</v>
-      </c>
-      <c r="G197" s="102"/>
-      <c r="H197" s="107" t="s">
-        <v>589</v>
-      </c>
-      <c r="I197" s="19" t="s">
-        <v>388</v>
-      </c>
-    </row>
     <row r="198" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="10">
+      <c r="A198" s="11">
         <v>197</v>
       </c>
-      <c r="B198" s="9">
+      <c r="B198" s="12">
         <v>21145</v>
       </c>
-      <c r="C198" s="19"/>
-      <c r="D198" s="10">
+      <c r="C198" s="13"/>
+      <c r="D198" s="11">
         <v>197</v>
       </c>
-      <c r="E198" s="10">
-        <v>0</v>
-      </c>
-      <c r="F198" s="105" t="s">
+      <c r="E198" s="11">
+        <v>0</v>
+      </c>
+      <c r="F198" s="40" t="s">
         <v>1193</v>
       </c>
-      <c r="G198" s="102"/>
-      <c r="H198" s="107" t="s">
+      <c r="G198" s="35"/>
+      <c r="H198" s="15" t="s">
         <v>590</v>
       </c>
-      <c r="I198" s="19" t="s">
+      <c r="I198" s="13" t="s">
         <v>388</v>
       </c>
     </row>
@@ -30210,11 +30737,11 @@
         <v>295</v>
       </c>
       <c r="E296" s="11"/>
-      <c r="F296" s="68" t="s">
+      <c r="F296" s="67" t="s">
         <v>890</v>
       </c>
       <c r="G296" s="43"/>
-      <c r="H296" s="68" t="s">
+      <c r="H296" s="67" t="s">
         <v>889</v>
       </c>
       <c r="I296" s="59" t="s">
@@ -30233,11 +30760,11 @@
         <v>296</v>
       </c>
       <c r="E297" s="11"/>
-      <c r="F297" s="69" t="s">
+      <c r="F297" s="68" t="s">
         <v>862</v>
       </c>
       <c r="G297" s="35"/>
-      <c r="H297" s="70" t="s">
+      <c r="H297" s="69" t="s">
         <v>887</v>
       </c>
       <c r="I297" s="13" t="s">
@@ -30428,160 +30955,184 @@
         <v>857</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A306" s="12">
         <v>305</v>
       </c>
-      <c r="B306" s="7">
+      <c r="B306" s="12">
         <v>21253</v>
       </c>
-      <c r="D306" s="29">
+      <c r="C306" s="11"/>
+      <c r="D306" s="11">
         <v>305</v>
       </c>
-      <c r="F306" s="65" t="s">
+      <c r="E306" s="11"/>
+      <c r="F306" s="40" t="s">
         <v>956</v>
       </c>
-      <c r="H306" s="66" t="s">
+      <c r="G306" s="35"/>
+      <c r="H306" s="15" t="s">
         <v>958</v>
       </c>
       <c r="I306" s="16" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A307" s="12">
         <v>306</v>
       </c>
-      <c r="B307" s="7">
+      <c r="B307" s="12">
         <v>21254</v>
       </c>
-      <c r="D307" s="29">
+      <c r="C307" s="11"/>
+      <c r="D307" s="11">
         <v>306</v>
       </c>
-      <c r="F307" s="65" t="s">
+      <c r="E307" s="11"/>
+      <c r="F307" s="40" t="s">
         <v>956</v>
       </c>
-      <c r="H307" s="66" t="s">
+      <c r="G307" s="35"/>
+      <c r="H307" s="15" t="s">
         <v>959</v>
       </c>
       <c r="I307" s="16" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A308" s="12">
         <v>307</v>
       </c>
-      <c r="B308" s="7">
+      <c r="B308" s="12">
         <v>21255</v>
       </c>
-      <c r="D308" s="29">
+      <c r="C308" s="11"/>
+      <c r="D308" s="11">
         <v>307</v>
       </c>
-      <c r="F308" s="65" t="s">
+      <c r="E308" s="11"/>
+      <c r="F308" s="40" t="s">
         <v>956</v>
       </c>
-      <c r="H308" s="66" t="s">
+      <c r="G308" s="35"/>
+      <c r="H308" s="15" t="s">
         <v>960</v>
       </c>
       <c r="I308" s="16" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A309" s="12">
         <v>308</v>
       </c>
-      <c r="B309" s="7">
+      <c r="B309" s="12">
         <v>21256</v>
       </c>
-      <c r="D309" s="29">
+      <c r="C309" s="11"/>
+      <c r="D309" s="11">
         <v>308</v>
       </c>
-      <c r="F309" s="65" t="s">
+      <c r="E309" s="11"/>
+      <c r="F309" s="40" t="s">
         <v>956</v>
       </c>
-      <c r="H309" s="66" t="s">
+      <c r="G309" s="35"/>
+      <c r="H309" s="15" t="s">
         <v>961</v>
       </c>
       <c r="I309" s="16" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A310" s="12">
         <v>309</v>
       </c>
-      <c r="B310" s="7">
+      <c r="B310" s="12">
         <v>21257</v>
       </c>
-      <c r="D310" s="29">
+      <c r="C310" s="11"/>
+      <c r="D310" s="11">
         <v>309</v>
       </c>
-      <c r="F310" s="65" t="s">
+      <c r="E310" s="11"/>
+      <c r="F310" s="40" t="s">
         <v>956</v>
       </c>
-      <c r="H310" s="66" t="s">
+      <c r="G310" s="35"/>
+      <c r="H310" s="15" t="s">
         <v>962</v>
       </c>
       <c r="I310" s="16" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A311" s="12">
         <v>310</v>
       </c>
-      <c r="B311" s="7">
+      <c r="B311" s="12">
         <v>21258</v>
       </c>
-      <c r="D311" s="29">
+      <c r="C311" s="11"/>
+      <c r="D311" s="11">
         <v>310</v>
       </c>
-      <c r="F311" s="65" t="s">
+      <c r="E311" s="11"/>
+      <c r="F311" s="40" t="s">
         <v>956</v>
       </c>
-      <c r="H311" s="66" t="s">
+      <c r="G311" s="35"/>
+      <c r="H311" s="15" t="s">
         <v>963</v>
       </c>
       <c r="I311" s="16" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A312" s="12">
         <v>311</v>
       </c>
-      <c r="B312" s="7">
+      <c r="B312" s="12">
         <v>21259</v>
       </c>
-      <c r="D312" s="29">
+      <c r="C312" s="11"/>
+      <c r="D312" s="11">
         <v>311</v>
       </c>
-      <c r="F312" s="65" t="s">
+      <c r="E312" s="11"/>
+      <c r="F312" s="40" t="s">
         <v>956</v>
       </c>
-      <c r="H312" s="66" t="s">
+      <c r="G312" s="35"/>
+      <c r="H312" s="15" t="s">
         <v>964</v>
       </c>
       <c r="I312" s="16" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A313" s="12">
         <v>312</v>
       </c>
-      <c r="B313" s="7">
+      <c r="B313" s="12">
         <v>21260</v>
       </c>
-      <c r="D313" s="29">
+      <c r="C313" s="11"/>
+      <c r="D313" s="11">
         <v>312</v>
       </c>
-      <c r="F313" s="65" t="s">
+      <c r="E313" s="11"/>
+      <c r="F313" s="40" t="s">
         <v>956</v>
       </c>
-      <c r="H313" s="66" t="s">
+      <c r="G313" s="35"/>
+      <c r="H313" s="15" t="s">
         <v>965</v>
       </c>
       <c r="I313" s="16" t="s">
@@ -31071,787 +31622,879 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="335" spans="1:9" s="79" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A335" s="76">
+    <row r="335" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A335" s="13">
         <v>334</v>
       </c>
-      <c r="B335" s="75">
+      <c r="B335" s="12">
         <v>21282</v>
       </c>
-      <c r="C335" s="76" t="s">
+      <c r="C335" s="13" t="s">
         <v>1032</v>
       </c>
-      <c r="D335" s="77">
+      <c r="D335" s="11">
         <v>334</v>
       </c>
-      <c r="E335" s="77"/>
-      <c r="F335" s="84" t="s">
+      <c r="E335" s="11"/>
+      <c r="F335" s="40" t="s">
         <v>1072</v>
       </c>
-      <c r="G335" s="78"/>
-      <c r="H335" s="87" t="s">
+      <c r="G335" s="35"/>
+      <c r="H335" s="15" t="s">
         <v>1080</v>
       </c>
-      <c r="I335" s="76" t="s">
+      <c r="I335" s="13" t="s">
         <v>1090</v>
       </c>
     </row>
-    <row r="336" spans="1:9" s="79" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A336" s="76">
+    <row r="336" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A336" s="13">
         <v>335</v>
       </c>
-      <c r="B336" s="75">
+      <c r="B336" s="12">
         <v>21283</v>
       </c>
-      <c r="C336" s="76" t="s">
+      <c r="C336" s="13" t="s">
         <v>1071</v>
       </c>
-      <c r="D336" s="77">
+      <c r="D336" s="11">
         <v>335</v>
       </c>
-      <c r="E336" s="77"/>
-      <c r="F336" s="84" t="s">
+      <c r="E336" s="11"/>
+      <c r="F336" s="40" t="s">
         <v>1073</v>
       </c>
-      <c r="G336" s="78"/>
-      <c r="H336" s="87" t="s">
+      <c r="G336" s="35"/>
+      <c r="H336" s="15" t="s">
         <v>1081</v>
       </c>
-      <c r="I336" s="76" t="s">
+      <c r="I336" s="13" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="337" spans="1:9" s="79" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A337" s="76">
+    <row r="337" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A337" s="13">
         <v>336</v>
       </c>
-      <c r="B337" s="75">
+      <c r="B337" s="12">
         <v>21284</v>
       </c>
-      <c r="C337" s="76" t="s">
+      <c r="C337" s="13" t="s">
         <v>1071</v>
       </c>
-      <c r="D337" s="77">
+      <c r="D337" s="11">
         <v>336</v>
       </c>
-      <c r="E337" s="77"/>
-      <c r="F337" s="84" t="s">
+      <c r="E337" s="11"/>
+      <c r="F337" s="40" t="s">
         <v>1073</v>
       </c>
-      <c r="G337" s="78"/>
-      <c r="H337" s="87" t="s">
+      <c r="G337" s="35"/>
+      <c r="H337" s="15" t="s">
         <v>1082</v>
       </c>
-      <c r="I337" s="76" t="s">
+      <c r="I337" s="13" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="338" spans="1:9" s="79" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A338" s="76">
+    <row r="338" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A338" s="13">
         <v>337</v>
       </c>
-      <c r="B338" s="75">
+      <c r="B338" s="12">
         <v>21285</v>
       </c>
-      <c r="C338" s="76" t="s">
+      <c r="C338" s="13" t="s">
         <v>1071</v>
       </c>
-      <c r="D338" s="77">
+      <c r="D338" s="11">
         <v>337</v>
       </c>
-      <c r="E338" s="77"/>
-      <c r="F338" s="84" t="s">
+      <c r="E338" s="11"/>
+      <c r="F338" s="40" t="s">
         <v>1073</v>
       </c>
-      <c r="G338" s="78"/>
-      <c r="H338" s="87" t="s">
+      <c r="G338" s="35"/>
+      <c r="H338" s="15" t="s">
         <v>1083</v>
       </c>
-      <c r="I338" s="76" t="s">
+      <c r="I338" s="13" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="339" spans="1:9" s="79" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A339" s="76">
+    <row r="339" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A339" s="13">
         <v>338</v>
       </c>
-      <c r="B339" s="75">
+      <c r="B339" s="12">
         <v>21286</v>
       </c>
-      <c r="C339" s="76" t="s">
+      <c r="C339" s="13" t="s">
         <v>1071</v>
       </c>
-      <c r="D339" s="77">
+      <c r="D339" s="11">
         <v>338</v>
       </c>
-      <c r="E339" s="77"/>
-      <c r="F339" s="84" t="s">
+      <c r="E339" s="11"/>
+      <c r="F339" s="40" t="s">
         <v>1073</v>
       </c>
-      <c r="G339" s="78"/>
-      <c r="H339" s="87" t="s">
+      <c r="G339" s="35"/>
+      <c r="H339" s="15" t="s">
         <v>1084</v>
       </c>
-      <c r="I339" s="76" t="s">
+      <c r="I339" s="13" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="340" spans="1:9" s="83" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A340" s="80">
+    <row r="340" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A340" s="13">
         <v>339</v>
       </c>
-      <c r="B340" s="74">
+      <c r="B340" s="12">
         <v>21287</v>
       </c>
-      <c r="C340" s="80" t="s">
+      <c r="C340" s="13" t="s">
         <v>1071</v>
       </c>
-      <c r="D340" s="81">
+      <c r="D340" s="11">
         <v>339</v>
       </c>
-      <c r="E340" s="81"/>
-      <c r="F340" s="85" t="s">
+      <c r="E340" s="11"/>
+      <c r="F340" s="40" t="s">
         <v>1074</v>
       </c>
-      <c r="G340" s="82"/>
-      <c r="H340" s="86" t="s">
+      <c r="G340" s="35"/>
+      <c r="H340" s="15" t="s">
         <v>1085</v>
       </c>
-      <c r="I340" s="80" t="s">
+      <c r="I340" s="13" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="341" spans="1:9" s="83" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A341" s="80">
+    <row r="341" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A341" s="13">
         <v>340</v>
       </c>
-      <c r="B341" s="74">
+      <c r="B341" s="12">
         <v>21288</v>
       </c>
-      <c r="C341" s="80" t="s">
+      <c r="C341" s="13" t="s">
         <v>1071</v>
       </c>
-      <c r="D341" s="81">
+      <c r="D341" s="11">
         <v>340</v>
       </c>
-      <c r="E341" s="81"/>
-      <c r="F341" s="85" t="s">
+      <c r="E341" s="11"/>
+      <c r="F341" s="40" t="s">
         <v>1073</v>
       </c>
-      <c r="G341" s="82"/>
-      <c r="H341" s="86" t="s">
+      <c r="G341" s="35"/>
+      <c r="H341" s="15" t="s">
         <v>1086</v>
       </c>
-      <c r="I341" s="80" t="s">
+      <c r="I341" s="13" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="342" spans="1:9" s="83" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A342" s="80">
+    <row r="342" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A342" s="13">
         <v>341</v>
       </c>
-      <c r="B342" s="74">
+      <c r="B342" s="12">
         <v>21289</v>
       </c>
-      <c r="C342" s="80" t="s">
+      <c r="C342" s="13" t="s">
         <v>1071</v>
       </c>
-      <c r="D342" s="81">
+      <c r="D342" s="11">
         <v>341</v>
       </c>
-      <c r="E342" s="81"/>
-      <c r="F342" s="85" t="s">
+      <c r="E342" s="11"/>
+      <c r="F342" s="40" t="s">
         <v>1075</v>
       </c>
-      <c r="G342" s="82"/>
-      <c r="H342" s="86" t="s">
+      <c r="G342" s="35"/>
+      <c r="H342" s="15" t="s">
         <v>1087</v>
       </c>
-      <c r="I342" s="80" t="s">
+      <c r="I342" s="13" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="343" spans="1:9" s="83" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A343" s="80">
+    <row r="343" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A343" s="13">
         <v>342</v>
       </c>
-      <c r="B343" s="74">
+      <c r="B343" s="12">
         <v>21290</v>
       </c>
-      <c r="C343" s="80" t="s">
+      <c r="C343" s="13" t="s">
         <v>1071</v>
       </c>
-      <c r="D343" s="81">
+      <c r="D343" s="11">
         <v>342</v>
       </c>
-      <c r="E343" s="81"/>
-      <c r="F343" s="85" t="s">
+      <c r="E343" s="11"/>
+      <c r="F343" s="40" t="s">
         <v>1074</v>
       </c>
-      <c r="G343" s="82"/>
-      <c r="H343" s="86" t="s">
+      <c r="G343" s="35"/>
+      <c r="H343" s="15" t="s">
         <v>1088</v>
       </c>
-      <c r="I343" s="80" t="s">
+      <c r="I343" s="13" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="344" spans="1:9" s="83" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A344" s="80">
+    <row r="344" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A344" s="13">
         <v>343</v>
       </c>
-      <c r="B344" s="74">
+      <c r="B344" s="12">
         <v>21291</v>
       </c>
-      <c r="C344" s="80" t="s">
+      <c r="C344" s="13" t="s">
         <v>1071</v>
       </c>
-      <c r="D344" s="81">
+      <c r="D344" s="11">
         <v>343</v>
       </c>
-      <c r="E344" s="81"/>
-      <c r="F344" s="85" t="s">
+      <c r="E344" s="11"/>
+      <c r="F344" s="40" t="s">
         <v>1076</v>
       </c>
-      <c r="G344" s="82"/>
-      <c r="H344" s="86" t="s">
+      <c r="G344" s="35"/>
+      <c r="H344" s="15" t="s">
         <v>1089</v>
       </c>
-      <c r="I344" s="80" t="s">
+      <c r="I344" s="13" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="345" spans="1:9" s="95" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A345" s="90">
+    <row r="345" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A345" s="11">
         <v>344</v>
       </c>
-      <c r="B345" s="89">
+      <c r="B345" s="12">
         <v>21292</v>
       </c>
-      <c r="C345" s="90"/>
-      <c r="D345" s="90">
+      <c r="C345" s="11"/>
+      <c r="D345" s="11">
         <v>344</v>
       </c>
-      <c r="E345" s="90"/>
-      <c r="F345" s="91" t="s">
+      <c r="E345" s="11"/>
+      <c r="F345" s="40" t="s">
         <v>892</v>
       </c>
-      <c r="G345" s="92"/>
-      <c r="H345" s="93" t="s">
+      <c r="G345" s="35"/>
+      <c r="H345" s="15" t="s">
         <v>1123</v>
       </c>
-      <c r="I345" s="94" t="s">
+      <c r="I345" s="13" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="346" spans="1:9" s="95" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A346" s="90">
+    <row r="346" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A346" s="11">
         <v>345</v>
       </c>
-      <c r="B346" s="89">
+      <c r="B346" s="12">
         <v>21293</v>
       </c>
-      <c r="C346" s="90"/>
-      <c r="D346" s="90">
+      <c r="C346" s="11"/>
+      <c r="D346" s="11">
         <v>345</v>
       </c>
-      <c r="E346" s="90"/>
-      <c r="F346" s="91" t="s">
+      <c r="E346" s="11"/>
+      <c r="F346" s="40" t="s">
         <v>967</v>
       </c>
-      <c r="G346" s="92"/>
-      <c r="H346" s="93" t="s">
+      <c r="G346" s="35"/>
+      <c r="H346" s="15" t="s">
         <v>1124</v>
       </c>
-      <c r="I346" s="94" t="s">
+      <c r="I346" s="13" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="347" spans="1:9" s="95" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A347" s="90">
+    <row r="347" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A347" s="11">
         <v>346</v>
       </c>
-      <c r="B347" s="89">
+      <c r="B347" s="12">
         <v>21294</v>
       </c>
-      <c r="C347" s="90"/>
-      <c r="D347" s="90">
+      <c r="C347" s="11"/>
+      <c r="D347" s="11">
         <v>346</v>
       </c>
-      <c r="E347" s="90"/>
-      <c r="F347" s="91" t="s">
+      <c r="E347" s="11"/>
+      <c r="F347" s="40" t="s">
         <v>1010</v>
       </c>
-      <c r="G347" s="92"/>
-      <c r="H347" s="90">
+      <c r="G347" s="35"/>
+      <c r="H347" s="11">
         <v>537</v>
       </c>
-      <c r="I347" s="94" t="s">
+      <c r="I347" s="13" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="348" spans="1:9" s="95" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A348" s="90">
+    <row r="348" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A348" s="11">
         <v>347</v>
       </c>
-      <c r="B348" s="89">
+      <c r="B348" s="12">
         <v>21295</v>
       </c>
-      <c r="C348" s="90"/>
-      <c r="D348" s="90">
+      <c r="C348" s="11"/>
+      <c r="D348" s="11">
         <v>347</v>
       </c>
-      <c r="E348" s="90"/>
-      <c r="F348" s="91" t="s">
+      <c r="E348" s="11"/>
+      <c r="F348" s="40" t="s">
         <v>1010</v>
       </c>
-      <c r="G348" s="92"/>
-      <c r="H348" s="90">
+      <c r="G348" s="35"/>
+      <c r="H348" s="11">
         <v>538</v>
       </c>
-      <c r="I348" s="94" t="s">
+      <c r="I348" s="13" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="349" spans="1:9" s="95" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A349" s="90">
+    <row r="349" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A349" s="11">
         <v>348</v>
       </c>
-      <c r="B349" s="89">
+      <c r="B349" s="12">
         <v>21296</v>
       </c>
-      <c r="C349" s="90"/>
-      <c r="D349" s="90">
+      <c r="C349" s="11"/>
+      <c r="D349" s="11">
         <v>348</v>
       </c>
-      <c r="E349" s="90"/>
-      <c r="F349" s="91" t="s">
+      <c r="E349" s="11"/>
+      <c r="F349" s="40" t="s">
         <v>1010</v>
       </c>
-      <c r="G349" s="92"/>
-      <c r="H349" s="90">
+      <c r="G349" s="35"/>
+      <c r="H349" s="11">
         <v>539</v>
       </c>
-      <c r="I349" s="94" t="s">
+      <c r="I349" s="13" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="350" spans="1:9" s="95" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A350" s="90">
+    <row r="350" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A350" s="11">
         <v>349</v>
       </c>
-      <c r="B350" s="89">
+      <c r="B350" s="12">
         <v>21297</v>
       </c>
-      <c r="C350" s="90"/>
-      <c r="D350" s="90">
+      <c r="C350" s="11"/>
+      <c r="D350" s="11">
         <v>349</v>
       </c>
-      <c r="E350" s="90"/>
-      <c r="F350" s="91" t="s">
+      <c r="E350" s="11"/>
+      <c r="F350" s="40" t="s">
         <v>1010</v>
       </c>
-      <c r="G350" s="92"/>
-      <c r="H350" s="90">
+      <c r="G350" s="35"/>
+      <c r="H350" s="11">
         <v>540</v>
       </c>
-      <c r="I350" s="94" t="s">
+      <c r="I350" s="13" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="351" spans="1:9" s="95" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A351" s="90">
+    <row r="351" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A351" s="11">
         <v>350</v>
       </c>
-      <c r="B351" s="89">
+      <c r="B351" s="12">
         <v>21298</v>
       </c>
-      <c r="C351" s="90"/>
-      <c r="D351" s="90">
+      <c r="C351" s="11"/>
+      <c r="D351" s="11">
         <v>350</v>
       </c>
-      <c r="E351" s="90"/>
-      <c r="F351" s="91" t="s">
+      <c r="E351" s="11"/>
+      <c r="F351" s="40" t="s">
         <v>1010</v>
       </c>
-      <c r="G351" s="92"/>
-      <c r="H351" s="90">
+      <c r="G351" s="35"/>
+      <c r="H351" s="11">
         <v>541</v>
       </c>
-      <c r="I351" s="94" t="s">
+      <c r="I351" s="13" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="352" spans="1:9" s="95" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A352" s="90">
+    <row r="352" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A352" s="11">
         <v>351</v>
       </c>
-      <c r="B352" s="89">
+      <c r="B352" s="12">
         <v>21299</v>
       </c>
-      <c r="C352" s="90"/>
-      <c r="D352" s="90">
+      <c r="C352" s="11"/>
+      <c r="D352" s="11">
         <v>351</v>
       </c>
-      <c r="E352" s="90"/>
-      <c r="F352" s="91" t="s">
+      <c r="E352" s="11"/>
+      <c r="F352" s="40" t="s">
         <v>1010</v>
       </c>
-      <c r="G352" s="92"/>
-      <c r="H352" s="90">
+      <c r="G352" s="35"/>
+      <c r="H352" s="11">
         <v>542</v>
       </c>
-      <c r="I352" s="94" t="s">
+      <c r="I352" s="13" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="353" spans="1:9" s="95" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A353" s="90">
+    <row r="353" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A353" s="11">
         <v>352</v>
       </c>
-      <c r="B353" s="89">
+      <c r="B353" s="12">
         <v>21300</v>
       </c>
-      <c r="C353" s="90"/>
-      <c r="D353" s="90">
+      <c r="C353" s="11"/>
+      <c r="D353" s="11">
         <v>352</v>
       </c>
-      <c r="E353" s="90"/>
-      <c r="F353" s="91" t="s">
+      <c r="E353" s="11"/>
+      <c r="F353" s="40" t="s">
         <v>1010</v>
       </c>
-      <c r="G353" s="92"/>
-      <c r="H353" s="90">
+      <c r="G353" s="35"/>
+      <c r="H353" s="11">
         <v>543</v>
       </c>
-      <c r="I353" s="94" t="s">
+      <c r="I353" s="13" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="354" spans="1:9" s="95" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A354" s="90">
+    <row r="354" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A354" s="11">
         <v>353</v>
       </c>
-      <c r="B354" s="89">
+      <c r="B354" s="12">
         <v>21301</v>
       </c>
-      <c r="C354" s="90"/>
-      <c r="D354" s="90">
+      <c r="C354" s="11"/>
+      <c r="D354" s="11">
         <v>353</v>
       </c>
-      <c r="E354" s="90"/>
-      <c r="F354" s="91" t="s">
+      <c r="E354" s="11"/>
+      <c r="F354" s="40" t="s">
         <v>1010</v>
       </c>
-      <c r="G354" s="92"/>
-      <c r="H354" s="90">
+      <c r="G354" s="35"/>
+      <c r="H354" s="11">
         <v>544</v>
       </c>
-      <c r="I354" s="94" t="s">
+      <c r="I354" s="13" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="355" spans="1:9" s="95" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A355" s="90">
+    <row r="355" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A355" s="11">
         <v>354</v>
       </c>
-      <c r="B355" s="89">
+      <c r="B355" s="12">
         <v>21302</v>
       </c>
-      <c r="C355" s="90"/>
-      <c r="D355" s="90">
+      <c r="C355" s="11"/>
+      <c r="D355" s="11">
         <v>354</v>
       </c>
-      <c r="E355" s="90"/>
-      <c r="F355" s="91" t="s">
+      <c r="E355" s="11"/>
+      <c r="F355" s="40" t="s">
         <v>1010</v>
       </c>
-      <c r="G355" s="92"/>
-      <c r="H355" s="90">
+      <c r="G355" s="35"/>
+      <c r="H355" s="11">
         <v>545</v>
       </c>
-      <c r="I355" s="94" t="s">
+      <c r="I355" s="13" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="356" spans="1:9" s="79" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A356" s="76">
+    <row r="356" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A356" s="13">
         <v>355</v>
       </c>
-      <c r="B356" s="75">
+      <c r="B356" s="12">
         <v>21303</v>
       </c>
-      <c r="C356" s="76" t="s">
+      <c r="C356" s="13" t="s">
         <v>1032</v>
       </c>
-      <c r="D356" s="77">
+      <c r="D356" s="11">
         <v>355</v>
       </c>
-      <c r="E356" s="77"/>
-      <c r="F356" s="84" t="s">
+      <c r="E356" s="11"/>
+      <c r="F356" s="40" t="s">
         <v>969</v>
       </c>
-      <c r="G356" s="78"/>
-      <c r="H356" s="87" t="s">
+      <c r="G356" s="35"/>
+      <c r="H356" s="15" t="s">
         <v>1128</v>
       </c>
-      <c r="I356" s="76" t="s">
+      <c r="I356" s="13" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="357" spans="1:9" s="101" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A357" s="98">
+    <row r="357" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A357" s="11">
         <v>356</v>
       </c>
-      <c r="B357" s="96">
+      <c r="B357" s="12">
         <v>21304</v>
       </c>
-      <c r="C357" s="98"/>
-      <c r="D357" s="98">
+      <c r="C357" s="11"/>
+      <c r="D357" s="11">
         <v>356</v>
       </c>
-      <c r="E357" s="98"/>
-      <c r="F357" s="99" t="s">
+      <c r="E357" s="11"/>
+      <c r="F357" s="40" t="s">
         <v>1142</v>
       </c>
-      <c r="G357" s="100"/>
-      <c r="H357" s="98">
+      <c r="G357" s="35"/>
+      <c r="H357" s="11">
         <v>547</v>
       </c>
-      <c r="I357" s="97" t="s">
+      <c r="I357" s="13" t="s">
         <v>1147</v>
       </c>
     </row>
-    <row r="358" spans="1:9" s="101" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A358" s="97">
+    <row r="358" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A358" s="13">
         <v>357</v>
       </c>
-      <c r="B358" s="96">
+      <c r="B358" s="12">
         <v>21305</v>
       </c>
-      <c r="C358" s="98"/>
-      <c r="D358" s="98">
+      <c r="C358" s="11"/>
+      <c r="D358" s="11">
         <v>357</v>
       </c>
-      <c r="E358" s="98"/>
-      <c r="F358" s="99" t="s">
+      <c r="E358" s="11"/>
+      <c r="F358" s="40" t="s">
         <v>1143</v>
       </c>
-      <c r="G358" s="100"/>
-      <c r="H358" s="98">
+      <c r="G358" s="35"/>
+      <c r="H358" s="11">
         <v>548</v>
       </c>
-      <c r="I358" s="97" t="s">
+      <c r="I358" s="13" t="s">
         <v>1148</v>
       </c>
     </row>
-    <row r="359" spans="1:9" s="101" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A359" s="98">
+    <row r="359" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A359" s="11">
         <v>358</v>
       </c>
-      <c r="B359" s="96">
+      <c r="B359" s="12">
         <v>21306</v>
       </c>
-      <c r="C359" s="98"/>
-      <c r="D359" s="98">
+      <c r="C359" s="11"/>
+      <c r="D359" s="11">
         <v>358</v>
       </c>
-      <c r="E359" s="98"/>
-      <c r="F359" s="99" t="s">
+      <c r="E359" s="11"/>
+      <c r="F359" s="40" t="s">
         <v>1144</v>
       </c>
-      <c r="G359" s="100"/>
-      <c r="H359" s="98">
+      <c r="G359" s="35"/>
+      <c r="H359" s="11">
         <v>549</v>
       </c>
-      <c r="I359" s="97" t="s">
+      <c r="I359" s="13" t="s">
         <v>1149</v>
       </c>
     </row>
-    <row r="360" spans="1:9" s="101" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A360" s="97">
+    <row r="360" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A360" s="13">
         <v>359</v>
       </c>
-      <c r="B360" s="96">
+      <c r="B360" s="12">
         <v>21307</v>
       </c>
-      <c r="C360" s="98"/>
-      <c r="D360" s="98">
+      <c r="C360" s="11"/>
+      <c r="D360" s="11">
         <v>359</v>
       </c>
-      <c r="E360" s="98"/>
-      <c r="F360" s="99" t="s">
+      <c r="E360" s="11"/>
+      <c r="F360" s="40" t="s">
         <v>1143</v>
       </c>
-      <c r="G360" s="100"/>
-      <c r="H360" s="98">
+      <c r="G360" s="35"/>
+      <c r="H360" s="11">
         <v>560</v>
       </c>
-      <c r="I360" s="97" t="s">
+      <c r="I360" s="13" t="s">
         <v>1150</v>
       </c>
     </row>
-    <row r="361" spans="1:9" s="101" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A361" s="98">
+    <row r="361" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A361" s="11">
         <v>360</v>
       </c>
-      <c r="B361" s="96">
+      <c r="B361" s="12">
         <v>21308</v>
       </c>
-      <c r="C361" s="98"/>
-      <c r="D361" s="98">
+      <c r="C361" s="11"/>
+      <c r="D361" s="11">
         <v>360</v>
       </c>
-      <c r="E361" s="98"/>
-      <c r="F361" s="99" t="s">
+      <c r="E361" s="11"/>
+      <c r="F361" s="40" t="s">
         <v>1143</v>
       </c>
-      <c r="G361" s="100"/>
-      <c r="H361" s="98">
+      <c r="G361" s="35"/>
+      <c r="H361" s="11">
         <v>561</v>
       </c>
-      <c r="I361" s="97" t="s">
+      <c r="I361" s="13" t="s">
         <v>1151</v>
       </c>
     </row>
-    <row r="362" spans="1:9" s="104" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A362" s="19">
+    <row r="362" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A362" s="13">
         <v>361</v>
       </c>
-      <c r="B362" s="9">
+      <c r="B362" s="12">
         <v>21309</v>
       </c>
-      <c r="C362" s="10"/>
-      <c r="D362" s="10">
+      <c r="C362" s="11"/>
+      <c r="D362" s="11">
         <v>361</v>
       </c>
-      <c r="E362" s="10"/>
-      <c r="F362" s="105" t="s">
+      <c r="E362" s="11"/>
+      <c r="F362" s="40" t="s">
         <v>1145</v>
       </c>
-      <c r="G362" s="102"/>
-      <c r="H362" s="10">
+      <c r="G362" s="35"/>
+      <c r="H362" s="11">
         <v>562</v>
       </c>
-      <c r="I362" s="19" t="s">
+      <c r="I362" s="13" t="s">
         <v>1151</v>
       </c>
     </row>
-    <row r="363" spans="1:9" s="104" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A363" s="10">
+    <row r="363" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A363" s="11">
         <v>362</v>
       </c>
-      <c r="B363" s="9">
+      <c r="B363" s="12">
         <v>21310</v>
       </c>
-      <c r="C363" s="10"/>
-      <c r="D363" s="10">
+      <c r="C363" s="11"/>
+      <c r="D363" s="11">
         <v>362</v>
       </c>
-      <c r="E363" s="10"/>
-      <c r="F363" s="105" t="s">
+      <c r="E363" s="11"/>
+      <c r="F363" s="40" t="s">
         <v>1143</v>
       </c>
-      <c r="G363" s="102"/>
-      <c r="H363" s="10">
+      <c r="G363" s="35"/>
+      <c r="H363" s="11">
         <v>563</v>
       </c>
-      <c r="I363" s="19" t="s">
+      <c r="I363" s="13" t="s">
         <v>1152</v>
       </c>
     </row>
-    <row r="364" spans="1:9" s="104" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A364" s="19">
+    <row r="364" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A364" s="13">
         <v>363</v>
       </c>
-      <c r="B364" s="9">
+      <c r="B364" s="12">
         <v>21311</v>
       </c>
-      <c r="C364" s="10"/>
-      <c r="D364" s="10">
+      <c r="C364" s="11"/>
+      <c r="D364" s="11">
         <v>363</v>
       </c>
-      <c r="E364" s="10"/>
-      <c r="F364" s="105" t="s">
+      <c r="E364" s="11"/>
+      <c r="F364" s="40" t="s">
         <v>1144</v>
       </c>
-      <c r="G364" s="102"/>
-      <c r="H364" s="10">
+      <c r="G364" s="35"/>
+      <c r="H364" s="11">
         <v>564</v>
       </c>
-      <c r="I364" s="19" t="s">
+      <c r="I364" s="13" t="s">
         <v>1151</v>
       </c>
     </row>
-    <row r="365" spans="1:9" s="104" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A365" s="10">
+    <row r="365" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A365" s="11">
         <v>364</v>
       </c>
-      <c r="B365" s="9">
+      <c r="B365" s="12">
         <v>21312</v>
       </c>
-      <c r="C365" s="10"/>
-      <c r="D365" s="10">
+      <c r="C365" s="11"/>
+      <c r="D365" s="11">
         <v>364</v>
       </c>
-      <c r="E365" s="10"/>
-      <c r="F365" s="105" t="s">
+      <c r="E365" s="11"/>
+      <c r="F365" s="40" t="s">
         <v>1143</v>
       </c>
-      <c r="G365" s="102"/>
-      <c r="H365" s="10">
+      <c r="G365" s="35"/>
+      <c r="H365" s="11">
         <v>565</v>
       </c>
-      <c r="I365" s="19" t="s">
+      <c r="I365" s="13" t="s">
         <v>1151</v>
       </c>
     </row>
-    <row r="366" spans="1:9" s="104" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A366" s="19">
+    <row r="366" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A366" s="13">
         <v>365</v>
       </c>
-      <c r="B366" s="9">
+      <c r="B366" s="12">
         <v>21313</v>
       </c>
-      <c r="C366" s="10"/>
-      <c r="D366" s="10">
+      <c r="C366" s="11"/>
+      <c r="D366" s="11">
         <v>365</v>
       </c>
-      <c r="E366" s="10"/>
-      <c r="F366" s="105" t="s">
+      <c r="E366" s="11"/>
+      <c r="F366" s="40" t="s">
         <v>1146</v>
       </c>
-      <c r="G366" s="102"/>
-      <c r="H366" s="10">
+      <c r="G366" s="35"/>
+      <c r="H366" s="11">
         <v>566</v>
       </c>
-      <c r="I366" s="19" t="s">
+      <c r="I366" s="13" t="s">
         <v>1151</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A367" s="60">
+    <row r="367" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A367" s="11">
         <v>366</v>
       </c>
-      <c r="B367" s="61">
+      <c r="B367" s="12">
         <v>21314</v>
       </c>
-      <c r="C367" s="60" t="s">
+      <c r="C367" s="11" t="s">
         <v>413</v>
       </c>
-      <c r="D367" s="60">
+      <c r="D367" s="11">
         <v>366</v>
       </c>
-      <c r="E367" s="60"/>
-      <c r="F367" s="63" t="s">
+      <c r="E367" s="11"/>
+      <c r="F367" s="35" t="s">
         <v>442</v>
       </c>
-      <c r="G367" s="63"/>
-      <c r="H367" s="64" t="s">
+      <c r="G367" s="35"/>
+      <c r="H367" s="15" t="s">
         <v>1180</v>
       </c>
-      <c r="I367" s="60" t="s">
+      <c r="I367" s="11" t="s">
         <v>388</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A368" s="10">
+        <v>367</v>
+      </c>
+      <c r="B368" s="9">
+        <v>21315</v>
+      </c>
+      <c r="C368" s="10"/>
+      <c r="D368" s="10">
+        <v>367</v>
+      </c>
+      <c r="E368" s="10"/>
+      <c r="F368" s="82" t="s">
+        <v>1232</v>
+      </c>
+      <c r="G368" s="79"/>
+      <c r="H368" s="83" t="s">
+        <v>1238</v>
+      </c>
+      <c r="I368" s="19" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="369" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A369" s="19">
+        <v>368</v>
+      </c>
+      <c r="B369" s="9">
+        <v>21316</v>
+      </c>
+      <c r="C369" s="10"/>
+      <c r="D369" s="10">
+        <v>368</v>
+      </c>
+      <c r="E369" s="10"/>
+      <c r="F369" s="82" t="s">
+        <v>1233</v>
+      </c>
+      <c r="G369" s="79"/>
+      <c r="H369" s="83" t="s">
+        <v>1239</v>
+      </c>
+      <c r="I369" s="19" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="370" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A370" s="10">
+        <v>369</v>
+      </c>
+      <c r="B370" s="9">
+        <v>21317</v>
+      </c>
+      <c r="C370" s="10"/>
+      <c r="D370" s="10">
+        <v>369</v>
+      </c>
+      <c r="E370" s="10"/>
+      <c r="F370" s="82" t="s">
+        <v>1234</v>
+      </c>
+      <c r="G370" s="79"/>
+      <c r="H370" s="83" t="s">
+        <v>1240</v>
+      </c>
+      <c r="I370" s="19" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="371" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A371" s="10">
+        <v>370</v>
+      </c>
+      <c r="B371" s="9">
+        <v>21318</v>
+      </c>
+      <c r="C371" s="10"/>
+      <c r="D371" s="10">
+        <v>370</v>
+      </c>
+      <c r="E371" s="10"/>
+      <c r="F371" s="82" t="s">
+        <v>1235</v>
+      </c>
+      <c r="G371" s="79"/>
+      <c r="H371" s="83" t="s">
+        <v>1241</v>
+      </c>
+      <c r="I371" s="19" t="s">
+        <v>1231</v>
       </c>
     </row>
   </sheetData>
@@ -31863,10 +32506,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I516"/>
+  <dimension ref="A1:I520"/>
   <sheetViews>
-    <sheetView topLeftCell="A219" workbookViewId="0">
-      <selection activeCell="F238" sqref="F238"/>
+    <sheetView topLeftCell="A494" workbookViewId="0">
+      <selection activeCell="F520" sqref="F520"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -35076,7 +35719,7 @@
       <c r="B224" s="60">
         <v>178</v>
       </c>
-      <c r="C224" s="110" t="s">
+      <c r="C224" s="85" t="s">
         <v>1210</v>
       </c>
       <c r="D224" s="60">
@@ -35090,7 +35733,7 @@
       <c r="B225" s="60">
         <v>179</v>
       </c>
-      <c r="C225" s="110" t="s">
+      <c r="C225" s="85" t="s">
         <v>1211</v>
       </c>
       <c r="D225" s="60">
@@ -35104,7 +35747,7 @@
       <c r="B226" s="60">
         <v>180</v>
       </c>
-      <c r="C226" s="110" t="s">
+      <c r="C226" s="85" t="s">
         <v>1211</v>
       </c>
       <c r="D226" s="60">
@@ -35118,8 +35761,8 @@
       <c r="B227" s="60">
         <v>181</v>
       </c>
-      <c r="C227" s="110" t="s">
-        <v>1212</v>
+      <c r="C227" s="85" t="s">
+        <v>1194</v>
       </c>
       <c r="D227" s="60">
         <v>0</v>
@@ -35929,7 +36572,7 @@
       <c r="D279" s="10">
         <v>0</v>
       </c>
-      <c r="E279" s="104"/>
+      <c r="E279" s="81"/>
     </row>
     <row r="280" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A280" s="10">
@@ -35944,7 +36587,7 @@
       <c r="D280" s="10">
         <v>247</v>
       </c>
-      <c r="E280" s="104"/>
+      <c r="E280" s="81"/>
     </row>
     <row r="281" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A281" s="10">
@@ -35974,7 +36617,7 @@
       <c r="D282" s="10">
         <v>249</v>
       </c>
-      <c r="E282" s="104"/>
+      <c r="E282" s="81"/>
     </row>
     <row r="283" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A283" s="10">
@@ -36004,7 +36647,7 @@
       <c r="D284" s="10">
         <v>251</v>
       </c>
-      <c r="E284" s="104"/>
+      <c r="E284" s="81"/>
     </row>
     <row r="285" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A285" s="10">
@@ -38826,360 +39469,351 @@
         <v>226</v>
       </c>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A482" s="11">
         <v>481</v>
       </c>
-      <c r="B482" s="71">
+      <c r="B482" s="11">
         <v>344</v>
       </c>
-      <c r="C482" s="72" t="s">
+      <c r="C482" s="23" t="s">
         <v>394</v>
       </c>
-      <c r="D482" s="71">
-        <v>0</v>
-      </c>
-      <c r="E482" s="71"/>
-    </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D482" s="11">
+        <v>0</v>
+      </c>
+      <c r="E482" s="11"/>
+    </row>
+    <row r="483" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A483" s="11">
         <v>482</v>
       </c>
-      <c r="B483" s="71">
+      <c r="B483" s="11">
         <v>344</v>
       </c>
-      <c r="C483" s="71" t="s">
+      <c r="C483" s="11" t="s">
         <v>439</v>
       </c>
-      <c r="D483" s="71">
-        <v>0</v>
-      </c>
-      <c r="E483" s="71"/>
-    </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D483" s="11">
+        <v>0</v>
+      </c>
+      <c r="E483" s="11"/>
+    </row>
+    <row r="484" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A484" s="11">
         <v>483</v>
       </c>
-      <c r="B484" s="71">
+      <c r="B484" s="11">
         <v>344</v>
       </c>
-      <c r="C484" s="71" t="s">
+      <c r="C484" s="11" t="s">
         <v>665</v>
       </c>
-      <c r="D484" s="71">
-        <v>0</v>
-      </c>
-      <c r="E484" s="71"/>
-    </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D484" s="11">
+        <v>0</v>
+      </c>
+      <c r="E484" s="11"/>
+    </row>
+    <row r="485" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A485" s="11">
         <v>484</v>
       </c>
-      <c r="B485" s="71">
+      <c r="B485" s="11">
         <v>344</v>
       </c>
-      <c r="C485" s="71" t="s">
+      <c r="C485" s="11" t="s">
         <v>666</v>
       </c>
-      <c r="D485" s="71">
-        <v>0</v>
-      </c>
-      <c r="E485" s="71"/>
-    </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D485" s="11">
+        <v>0</v>
+      </c>
+      <c r="E485" s="11"/>
+    </row>
+    <row r="486" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A486" s="11">
         <v>485</v>
       </c>
-      <c r="B486" s="71">
+      <c r="B486" s="11">
         <v>344</v>
       </c>
-      <c r="C486" s="71" t="s">
+      <c r="C486" s="11" t="s">
         <v>385</v>
       </c>
-      <c r="D486" s="71">
-        <v>0</v>
-      </c>
-      <c r="E486" s="71"/>
-    </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D486" s="11">
+        <v>0</v>
+      </c>
+      <c r="E486" s="11"/>
+    </row>
+    <row r="487" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A487" s="11">
         <v>486</v>
       </c>
-      <c r="B487" s="71">
+      <c r="B487" s="11">
         <v>344</v>
       </c>
-      <c r="C487" s="71" t="s">
+      <c r="C487" s="11" t="s">
         <v>390</v>
       </c>
-      <c r="D487" s="71">
-        <v>0</v>
-      </c>
-      <c r="E487" s="71">
+      <c r="D487" s="11">
+        <v>0</v>
+      </c>
+      <c r="E487" s="11">
         <v>0.5</v>
       </c>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A488" s="11">
         <v>487</v>
       </c>
-      <c r="B488" s="71">
+      <c r="B488" s="11">
         <v>344</v>
       </c>
-      <c r="C488" s="71" t="s">
+      <c r="C488" s="11" t="s">
         <v>667</v>
       </c>
-      <c r="D488" s="71">
-        <v>0</v>
-      </c>
-      <c r="E488" s="71">
+      <c r="D488" s="11">
+        <v>0</v>
+      </c>
+      <c r="E488" s="11">
         <v>0.5</v>
       </c>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A489" s="11">
         <v>488</v>
       </c>
-      <c r="B489" s="71">
+      <c r="B489" s="11">
         <v>345</v>
       </c>
-      <c r="C489" s="72" t="s">
+      <c r="C489" s="23" t="s">
         <v>394</v>
       </c>
-      <c r="D489" s="71">
-        <v>0</v>
-      </c>
-      <c r="E489" s="71"/>
-    </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D489" s="11">
+        <v>0</v>
+      </c>
+      <c r="E489" s="11"/>
+    </row>
+    <row r="490" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A490" s="11">
         <v>489</v>
       </c>
-      <c r="B490" s="71">
+      <c r="B490" s="11">
         <v>345</v>
       </c>
-      <c r="C490" s="71" t="s">
+      <c r="C490" s="11" t="s">
         <v>439</v>
       </c>
-      <c r="D490" s="71">
-        <v>0</v>
-      </c>
-      <c r="E490" s="71"/>
-    </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D490" s="11">
+        <v>0</v>
+      </c>
+      <c r="E490" s="11"/>
+    </row>
+    <row r="491" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A491" s="11">
         <v>490</v>
       </c>
-      <c r="B491" s="71">
+      <c r="B491" s="11">
         <v>345</v>
       </c>
-      <c r="C491" s="71" t="s">
+      <c r="C491" s="11" t="s">
         <v>665</v>
       </c>
-      <c r="D491" s="71">
-        <v>0</v>
-      </c>
-      <c r="E491" s="71"/>
-    </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D491" s="11">
+        <v>0</v>
+      </c>
+      <c r="E491" s="11"/>
+    </row>
+    <row r="492" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A492" s="11">
         <v>491</v>
       </c>
-      <c r="B492" s="71">
+      <c r="B492" s="11">
         <v>345</v>
       </c>
-      <c r="C492" s="71" t="s">
+      <c r="C492" s="11" t="s">
         <v>666</v>
       </c>
-      <c r="D492" s="71">
-        <v>0</v>
-      </c>
-      <c r="E492" s="71"/>
-    </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D492" s="11">
+        <v>0</v>
+      </c>
+      <c r="E492" s="11"/>
+    </row>
+    <row r="493" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A493" s="11">
         <v>492</v>
       </c>
-      <c r="B493" s="71">
+      <c r="B493" s="11">
         <v>345</v>
       </c>
-      <c r="C493" s="71" t="s">
+      <c r="C493" s="11" t="s">
         <v>385</v>
       </c>
-      <c r="D493" s="71">
-        <v>0</v>
-      </c>
-      <c r="E493" s="71"/>
-    </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D493" s="11">
+        <v>0</v>
+      </c>
+      <c r="E493" s="11"/>
+    </row>
+    <row r="494" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A494" s="11">
         <v>493</v>
       </c>
-      <c r="B494" s="71">
+      <c r="B494" s="11">
         <v>345</v>
       </c>
-      <c r="C494" s="71" t="s">
+      <c r="C494" s="11" t="s">
         <v>390</v>
       </c>
-      <c r="D494" s="71">
-        <v>0</v>
-      </c>
-      <c r="E494" s="71">
+      <c r="D494" s="11">
+        <v>0</v>
+      </c>
+      <c r="E494" s="11">
         <v>0.5</v>
       </c>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A495" s="11">
         <v>494</v>
       </c>
-      <c r="B495" s="71">
+      <c r="B495" s="11">
         <v>345</v>
       </c>
-      <c r="C495" s="71" t="s">
+      <c r="C495" s="11" t="s">
         <v>667</v>
       </c>
-      <c r="D495" s="71">
-        <v>0</v>
-      </c>
-      <c r="E495" s="71">
+      <c r="D495" s="11">
+        <v>0</v>
+      </c>
+      <c r="E495" s="11">
         <v>0.5</v>
       </c>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A496" s="11">
         <v>495</v>
       </c>
-      <c r="B496" s="71">
+      <c r="B496" s="11">
         <v>346</v>
       </c>
-      <c r="C496" s="71" t="s">
+      <c r="C496" s="11" t="s">
         <v>1032</v>
       </c>
-      <c r="D496" s="71">
+      <c r="D496" s="11">
         <v>227</v>
       </c>
-      <c r="E496" s="73"/>
-    </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="497" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A497" s="11">
         <v>496</v>
       </c>
-      <c r="B497" s="71">
+      <c r="B497" s="11">
         <v>347</v>
       </c>
-      <c r="C497" s="71" t="s">
+      <c r="C497" s="11" t="s">
         <v>1032</v>
       </c>
-      <c r="D497" s="71">
+      <c r="D497" s="11">
         <v>228</v>
       </c>
-      <c r="E497" s="73"/>
-    </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="498" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A498" s="11">
         <v>497</v>
       </c>
-      <c r="B498" s="71">
+      <c r="B498" s="11">
         <v>348</v>
       </c>
-      <c r="C498" s="71" t="s">
+      <c r="C498" s="11" t="s">
         <v>1032</v>
       </c>
-      <c r="D498" s="71">
+      <c r="D498" s="11">
         <v>229</v>
       </c>
-      <c r="E498" s="73"/>
-    </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="499" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A499" s="11">
         <v>498</v>
       </c>
-      <c r="B499" s="71">
+      <c r="B499" s="11">
         <v>349</v>
       </c>
-      <c r="C499" s="71" t="s">
+      <c r="C499" s="11" t="s">
         <v>1032</v>
       </c>
-      <c r="D499" s="71">
+      <c r="D499" s="11">
         <v>230</v>
       </c>
-      <c r="E499" s="73"/>
-    </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="500" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A500" s="11">
         <v>499</v>
       </c>
-      <c r="B500" s="71">
+      <c r="B500" s="11">
         <v>350</v>
       </c>
-      <c r="C500" s="71" t="s">
+      <c r="C500" s="11" t="s">
         <v>1032</v>
       </c>
-      <c r="D500" s="71">
+      <c r="D500" s="11">
         <v>231</v>
       </c>
-      <c r="E500" s="73"/>
-    </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="501" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A501" s="11">
         <v>500</v>
       </c>
-      <c r="B501" s="71">
+      <c r="B501" s="11">
         <v>351</v>
       </c>
-      <c r="C501" s="71" t="s">
+      <c r="C501" s="11" t="s">
         <v>1032</v>
       </c>
-      <c r="D501" s="71">
+      <c r="D501" s="11">
         <v>232</v>
       </c>
-      <c r="E501" s="73"/>
-    </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="502" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A502" s="11">
         <v>501</v>
       </c>
-      <c r="B502" s="71">
+      <c r="B502" s="11">
         <v>352</v>
       </c>
-      <c r="C502" s="71" t="s">
+      <c r="C502" s="11" t="s">
         <v>1032</v>
       </c>
-      <c r="D502" s="71">
+      <c r="D502" s="11">
         <v>233</v>
       </c>
-      <c r="E502" s="73"/>
-    </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="503" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A503" s="11">
         <v>502</v>
       </c>
-      <c r="B503" s="71">
+      <c r="B503" s="11">
         <v>353</v>
       </c>
-      <c r="C503" s="71" t="s">
+      <c r="C503" s="11" t="s">
         <v>1032</v>
       </c>
-      <c r="D503" s="71">
+      <c r="D503" s="11">
         <v>234</v>
       </c>
-      <c r="E503" s="73"/>
-    </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="504" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A504" s="11">
         <v>503</v>
       </c>
-      <c r="B504" s="71">
+      <c r="B504" s="11">
         <v>354</v>
       </c>
-      <c r="C504" s="71" t="s">
+      <c r="C504" s="11" t="s">
         <v>1032</v>
       </c>
-      <c r="D504" s="71">
+      <c r="D504" s="11">
         <v>235</v>
       </c>
-      <c r="E504" s="73"/>
-    </row>
-    <row r="505" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="505" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A505" s="11">
         <v>504</v>
       </c>
@@ -39193,158 +39827,214 @@
         <v>236</v>
       </c>
     </row>
-    <row r="506" spans="1:5" s="101" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A506" s="11">
         <v>505</v>
       </c>
-      <c r="B506" s="98">
+      <c r="B506" s="11">
         <v>356</v>
       </c>
-      <c r="C506" s="98" t="s">
+      <c r="C506" s="11" t="s">
         <v>1032</v>
       </c>
-      <c r="D506" s="96">
+      <c r="D506" s="12">
         <v>237</v>
       </c>
     </row>
-    <row r="507" spans="1:5" s="101" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A507" s="11">
         <v>506</v>
       </c>
-      <c r="B507" s="98">
+      <c r="B507" s="11">
         <v>357</v>
       </c>
-      <c r="C507" s="106" t="s">
+      <c r="C507" s="23" t="s">
         <v>1032</v>
       </c>
-      <c r="D507" s="96">
+      <c r="D507" s="12">
         <v>238</v>
       </c>
     </row>
-    <row r="508" spans="1:5" s="101" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A508" s="11">
         <v>507</v>
       </c>
-      <c r="B508" s="98">
+      <c r="B508" s="11">
         <v>358</v>
       </c>
-      <c r="C508" s="98" t="s">
+      <c r="C508" s="11" t="s">
         <v>1032</v>
       </c>
-      <c r="D508" s="96">
+      <c r="D508" s="12">
         <v>239</v>
       </c>
     </row>
-    <row r="509" spans="1:5" s="101" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A509" s="11">
         <v>508</v>
       </c>
-      <c r="B509" s="98">
+      <c r="B509" s="11">
         <v>359</v>
       </c>
-      <c r="C509" s="106" t="s">
+      <c r="C509" s="23" t="s">
         <v>1032</v>
       </c>
-      <c r="D509" s="96">
+      <c r="D509" s="12">
         <v>240</v>
       </c>
     </row>
-    <row r="510" spans="1:5" s="101" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A510" s="11">
         <v>509</v>
       </c>
-      <c r="B510" s="98">
+      <c r="B510" s="11">
         <v>360</v>
       </c>
-      <c r="C510" s="98" t="s">
+      <c r="C510" s="11" t="s">
         <v>1032</v>
       </c>
-      <c r="D510" s="96">
+      <c r="D510" s="12">
         <v>241</v>
       </c>
     </row>
-    <row r="511" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A511" s="11">
         <v>510</v>
       </c>
-      <c r="B511" s="10">
+      <c r="B511" s="11">
         <v>361</v>
       </c>
-      <c r="C511" s="26" t="s">
+      <c r="C511" s="23" t="s">
         <v>1032</v>
       </c>
-      <c r="D511" s="9">
+      <c r="D511" s="12">
         <v>242</v>
       </c>
     </row>
-    <row r="512" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A512" s="11">
         <v>511</v>
       </c>
-      <c r="B512" s="10">
+      <c r="B512" s="11">
         <v>362</v>
       </c>
-      <c r="C512" s="10" t="s">
+      <c r="C512" s="11" t="s">
         <v>1032</v>
       </c>
-      <c r="D512" s="9">
+      <c r="D512" s="12">
         <v>243</v>
       </c>
     </row>
-    <row r="513" spans="1:4" s="104" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A513" s="11">
         <v>512</v>
       </c>
-      <c r="B513" s="10">
+      <c r="B513" s="11">
         <v>363</v>
       </c>
-      <c r="C513" s="26" t="s">
+      <c r="C513" s="23" t="s">
         <v>1032</v>
       </c>
-      <c r="D513" s="9">
+      <c r="D513" s="12">
         <v>244</v>
       </c>
     </row>
-    <row r="514" spans="1:4" s="104" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A514" s="11">
         <v>513</v>
       </c>
-      <c r="B514" s="10">
+      <c r="B514" s="11">
         <v>364</v>
       </c>
-      <c r="C514" s="10" t="s">
+      <c r="C514" s="11" t="s">
         <v>1032</v>
       </c>
-      <c r="D514" s="9">
+      <c r="D514" s="12">
         <v>245</v>
       </c>
     </row>
-    <row r="515" spans="1:4" s="104" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A515" s="11">
         <v>514</v>
       </c>
-      <c r="B515" s="10">
+      <c r="B515" s="11">
         <v>365</v>
       </c>
-      <c r="C515" s="26" t="s">
+      <c r="C515" s="23" t="s">
         <v>1032</v>
       </c>
-      <c r="D515" s="9">
+      <c r="D515" s="12">
         <v>246</v>
       </c>
     </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A516" s="11">
         <v>515</v>
       </c>
-      <c r="B516" s="60">
+      <c r="B516" s="11">
         <v>366</v>
       </c>
-      <c r="C516" s="60" t="s">
+      <c r="C516" s="11" t="s">
         <v>413</v>
       </c>
-      <c r="D516" s="60">
-        <v>0</v>
+      <c r="D516" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A517" s="10">
+        <v>516</v>
+      </c>
+      <c r="B517" s="10">
+        <v>367</v>
+      </c>
+      <c r="C517" s="87" t="s">
+        <v>1226</v>
+      </c>
+      <c r="D517" s="10">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A518" s="10">
+        <v>517</v>
+      </c>
+      <c r="B518" s="10">
+        <v>368</v>
+      </c>
+      <c r="C518" s="87" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D518" s="10">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A519" s="10">
+        <v>518</v>
+      </c>
+      <c r="B519" s="10">
+        <v>369</v>
+      </c>
+      <c r="C519" s="87" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D519" s="10">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A520" s="10">
+        <v>519</v>
+      </c>
+      <c r="B520" s="10">
+        <v>370</v>
+      </c>
+      <c r="C520" s="87" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D520" s="10">
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -39356,13 +40046,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M365"/>
+  <dimension ref="A1:M368"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C348" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C375" sqref="C375"/>
+      <selection pane="bottomRight" activeCell="B365" sqref="B365:B368"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -44788,23 +45478,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="284" spans="1:6" s="83" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A284" s="74">
+    <row r="284" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A284" s="70">
         <v>307</v>
       </c>
-      <c r="B284" s="81">
+      <c r="B284" s="72">
         <v>172</v>
       </c>
-      <c r="C284" s="80" t="s">
+      <c r="C284" s="71" t="s">
         <v>1079</v>
       </c>
-      <c r="D284" s="86" t="s">
+      <c r="D284" s="74" t="s">
         <v>709</v>
       </c>
-      <c r="E284" s="81">
+      <c r="E284" s="72">
         <v>2</v>
       </c>
-      <c r="F284" s="81"/>
+      <c r="F284" s="72"/>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A285" s="12">
@@ -45554,185 +46244,185 @@
         <v>2</v>
       </c>
     </row>
-    <row r="329" spans="1:6" s="83" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A329" s="81">
+    <row r="329" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A329" s="72">
         <v>358</v>
       </c>
-      <c r="B329" s="74">
+      <c r="B329" s="70">
         <v>217</v>
       </c>
-      <c r="C329" s="80" t="s">
+      <c r="C329" s="71" t="s">
         <v>682</v>
       </c>
-      <c r="D329" s="86" t="s">
+      <c r="D329" s="74" t="s">
         <v>1102</v>
       </c>
-      <c r="E329" s="81">
+      <c r="E329" s="72">
         <v>2</v>
       </c>
-      <c r="F329" s="81"/>
-    </row>
-    <row r="330" spans="1:6" s="83" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A330" s="81">
+      <c r="F329" s="72"/>
+    </row>
+    <row r="330" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A330" s="72">
         <v>359</v>
       </c>
-      <c r="B330" s="74">
+      <c r="B330" s="70">
         <v>218</v>
       </c>
-      <c r="C330" s="80" t="s">
+      <c r="C330" s="71" t="s">
         <v>682</v>
       </c>
-      <c r="D330" s="86" t="s">
+      <c r="D330" s="74" t="s">
         <v>1166</v>
       </c>
-      <c r="E330" s="81">
+      <c r="E330" s="72">
         <v>2</v>
       </c>
-      <c r="F330" s="81"/>
-    </row>
-    <row r="331" spans="1:6" s="83" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A331" s="81">
+      <c r="F330" s="72"/>
+    </row>
+    <row r="331" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A331" s="72">
         <v>360</v>
       </c>
-      <c r="B331" s="74">
+      <c r="B331" s="70">
         <v>219</v>
       </c>
-      <c r="C331" s="80" t="s">
+      <c r="C331" s="71" t="s">
         <v>682</v>
       </c>
-      <c r="D331" s="86" t="s">
+      <c r="D331" s="74" t="s">
         <v>1101</v>
       </c>
-      <c r="E331" s="81">
+      <c r="E331" s="72">
         <v>2</v>
       </c>
-      <c r="F331" s="81"/>
-    </row>
-    <row r="332" spans="1:6" s="83" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A332" s="81">
+      <c r="F331" s="72"/>
+    </row>
+    <row r="332" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A332" s="72">
         <v>361</v>
       </c>
-      <c r="B332" s="74">
+      <c r="B332" s="70">
         <v>220</v>
       </c>
-      <c r="C332" s="80" t="s">
+      <c r="C332" s="71" t="s">
         <v>682</v>
       </c>
-      <c r="D332" s="86" t="s">
+      <c r="D332" s="74" t="s">
         <v>1100</v>
       </c>
-      <c r="E332" s="81">
+      <c r="E332" s="72">
         <v>2</v>
       </c>
-      <c r="F332" s="81"/>
-    </row>
-    <row r="333" spans="1:6" s="83" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A333" s="81">
+      <c r="F332" s="72"/>
+    </row>
+    <row r="333" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A333" s="72">
         <v>362</v>
       </c>
-      <c r="B333" s="74">
+      <c r="B333" s="70">
         <v>221</v>
       </c>
-      <c r="C333" s="80" t="s">
+      <c r="C333" s="71" t="s">
         <v>682</v>
       </c>
-      <c r="D333" s="86" t="s">
+      <c r="D333" s="74" t="s">
         <v>1103</v>
       </c>
-      <c r="E333" s="81">
+      <c r="E333" s="72">
         <v>2</v>
       </c>
-      <c r="F333" s="81"/>
-    </row>
-    <row r="334" spans="1:6" s="83" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A334" s="81">
+      <c r="F333" s="72"/>
+    </row>
+    <row r="334" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A334" s="72">
         <v>363</v>
       </c>
-      <c r="B334" s="74">
+      <c r="B334" s="70">
         <v>222</v>
       </c>
-      <c r="C334" s="80" t="s">
+      <c r="C334" s="71" t="s">
         <v>682</v>
       </c>
-      <c r="D334" s="88" t="s">
+      <c r="D334" s="75" t="s">
         <v>1096</v>
       </c>
-      <c r="E334" s="81">
+      <c r="E334" s="72">
         <v>2</v>
       </c>
-      <c r="F334" s="81"/>
-    </row>
-    <row r="335" spans="1:6" s="83" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A335" s="81">
+      <c r="F334" s="72"/>
+    </row>
+    <row r="335" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A335" s="72">
         <v>364</v>
       </c>
-      <c r="B335" s="74">
+      <c r="B335" s="70">
         <v>223</v>
       </c>
-      <c r="C335" s="80" t="s">
+      <c r="C335" s="71" t="s">
         <v>682</v>
       </c>
-      <c r="D335" s="88" t="s">
+      <c r="D335" s="75" t="s">
         <v>1097</v>
       </c>
-      <c r="E335" s="81">
+      <c r="E335" s="72">
         <v>2</v>
       </c>
-      <c r="F335" s="81"/>
-    </row>
-    <row r="336" spans="1:6" s="83" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A336" s="81">
+      <c r="F335" s="72"/>
+    </row>
+    <row r="336" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A336" s="72">
         <v>365</v>
       </c>
-      <c r="B336" s="74">
+      <c r="B336" s="70">
         <v>224</v>
       </c>
-      <c r="C336" s="80" t="s">
+      <c r="C336" s="71" t="s">
         <v>682</v>
       </c>
-      <c r="D336" s="88" t="s">
+      <c r="D336" s="75" t="s">
         <v>1098</v>
       </c>
-      <c r="E336" s="81">
+      <c r="E336" s="72">
         <v>2</v>
       </c>
-      <c r="F336" s="81"/>
-    </row>
-    <row r="337" spans="1:6" s="83" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A337" s="81">
+      <c r="F336" s="72"/>
+    </row>
+    <row r="337" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A337" s="72">
         <v>366</v>
       </c>
-      <c r="B337" s="74">
+      <c r="B337" s="70">
         <v>225</v>
       </c>
-      <c r="C337" s="80" t="s">
+      <c r="C337" s="71" t="s">
         <v>682</v>
       </c>
-      <c r="D337" s="88" t="s">
+      <c r="D337" s="75" t="s">
         <v>1099</v>
       </c>
-      <c r="E337" s="81">
+      <c r="E337" s="72">
         <v>2</v>
       </c>
-      <c r="F337" s="81"/>
-    </row>
-    <row r="338" spans="1:6" s="83" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A338" s="81">
+      <c r="F337" s="72"/>
+    </row>
+    <row r="338" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A338" s="72">
         <v>367</v>
       </c>
-      <c r="B338" s="74">
+      <c r="B338" s="70">
         <v>226</v>
       </c>
-      <c r="C338" s="80" t="s">
+      <c r="C338" s="71" t="s">
         <v>682</v>
       </c>
-      <c r="D338" s="86" t="s">
+      <c r="D338" s="74" t="s">
         <v>1104</v>
       </c>
-      <c r="E338" s="81">
+      <c r="E338" s="72">
         <v>2</v>
       </c>
-      <c r="F338" s="81"/>
+      <c r="F338" s="72"/>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A339" s="11">
@@ -46075,109 +46765,174 @@
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A359" s="10">
+      <c r="A359" s="11">
         <v>388</v>
       </c>
-      <c r="B359" s="10">
+      <c r="B359" s="11">
         <v>247</v>
       </c>
-      <c r="C359" s="10" t="s">
+      <c r="C359" s="11" t="s">
         <v>689</v>
       </c>
-      <c r="D359" s="10">
+      <c r="D359" s="11">
         <v>3</v>
       </c>
-      <c r="E359" s="10">
+      <c r="E359" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A360" s="10">
+      <c r="A360" s="11">
         <v>389</v>
       </c>
-      <c r="B360" s="10">
+      <c r="B360" s="11">
         <v>248</v>
       </c>
-      <c r="C360" s="10" t="s">
+      <c r="C360" s="11" t="s">
         <v>689</v>
       </c>
-      <c r="D360" s="107" t="s">
+      <c r="D360" s="15" t="s">
         <v>1195</v>
       </c>
-      <c r="E360" s="10">
+      <c r="E360" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A361" s="10">
+      <c r="A361" s="11">
         <v>390</v>
       </c>
-      <c r="B361" s="10">
+      <c r="B361" s="11">
         <v>249</v>
       </c>
-      <c r="C361" s="10" t="s">
+      <c r="C361" s="11" t="s">
         <v>689</v>
       </c>
-      <c r="D361" s="107" t="s">
+      <c r="D361" s="15" t="s">
         <v>1196</v>
       </c>
-      <c r="E361" s="10">
+      <c r="E361" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A362" s="10">
+      <c r="A362" s="11">
         <v>391</v>
       </c>
-      <c r="B362" s="10">
+      <c r="B362" s="11">
         <v>250</v>
       </c>
-      <c r="C362" s="10" t="s">
+      <c r="C362" s="11" t="s">
         <v>689</v>
       </c>
-      <c r="D362" s="107" t="s">
+      <c r="D362" s="15" t="s">
         <v>1195</v>
       </c>
-      <c r="E362" s="10">
+      <c r="E362" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A363" s="10">
+      <c r="A363" s="11">
         <v>392</v>
       </c>
-      <c r="B363" s="10">
+      <c r="B363" s="11">
         <v>251</v>
       </c>
-      <c r="C363" s="10" t="s">
+      <c r="C363" s="11" t="s">
         <v>689</v>
       </c>
-      <c r="D363" s="107" t="s">
+      <c r="D363" s="15" t="s">
         <v>1196</v>
       </c>
-      <c r="E363" s="10">
+      <c r="E363" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A364" s="10">
+      <c r="A364" s="11">
         <v>393</v>
       </c>
-      <c r="B364" s="10">
+      <c r="B364" s="11">
         <v>252</v>
       </c>
-      <c r="C364" s="10" t="s">
+      <c r="C364" s="11" t="s">
         <v>689</v>
       </c>
-      <c r="D364" s="107" t="s">
+      <c r="D364" s="15" t="s">
         <v>1197</v>
       </c>
-      <c r="E364" s="10">
+      <c r="E364" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D365" s="15"/>
+      <c r="A365" s="10">
+        <v>394</v>
+      </c>
+      <c r="B365" s="10">
+        <v>253</v>
+      </c>
+      <c r="C365" s="19" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D365" s="83" t="s">
+        <v>1229</v>
+      </c>
+      <c r="E365" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A366" s="10">
+        <v>395</v>
+      </c>
+      <c r="B366" s="10">
+        <v>254</v>
+      </c>
+      <c r="C366" s="19" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D366" s="10">
+        <v>3</v>
+      </c>
+      <c r="E366" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A367" s="10">
+        <v>396</v>
+      </c>
+      <c r="B367" s="10">
+        <v>255</v>
+      </c>
+      <c r="C367" s="19" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D367" s="10">
+        <v>4</v>
+      </c>
+      <c r="E367" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A368" s="10">
+        <v>397</v>
+      </c>
+      <c r="B368" s="10">
+        <v>256</v>
+      </c>
+      <c r="C368" s="19" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D368" s="10">
+        <v>5</v>
+      </c>
+      <c r="E368" s="10">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
@@ -46188,13 +46943,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W781"/>
+  <dimension ref="A1:W798"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C442" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C769" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G456" sqref="G456"/>
+      <selection pane="bottomRight" activeCell="H790" sqref="H790"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -52107,20 +52862,20 @@
       <c r="I266" s="11"/>
     </row>
     <row r="267" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A267" s="96">
+      <c r="A267" s="76">
         <v>266</v>
       </c>
-      <c r="B267" s="98">
+      <c r="B267" s="78">
         <v>152</v>
       </c>
-      <c r="C267" s="98"/>
-      <c r="D267" s="98" t="s">
+      <c r="C267" s="78"/>
+      <c r="D267" s="78" t="s">
         <v>767</v>
       </c>
-      <c r="E267" s="98">
+      <c r="E267" s="78">
         <v>66000</v>
       </c>
-      <c r="F267" s="98">
+      <c r="F267" s="78">
         <v>1</v>
       </c>
       <c r="G267" s="11"/>
@@ -52128,20 +52883,20 @@
       <c r="I267" s="11"/>
     </row>
     <row r="268" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A268" s="96">
+      <c r="A268" s="76">
         <v>267</v>
       </c>
-      <c r="B268" s="98">
+      <c r="B268" s="78">
         <v>152</v>
       </c>
-      <c r="C268" s="98"/>
-      <c r="D268" s="97" t="s">
+      <c r="C268" s="78"/>
+      <c r="D268" s="77" t="s">
         <v>1176</v>
       </c>
-      <c r="E268" s="98">
+      <c r="E268" s="78">
         <v>10</v>
       </c>
-      <c r="F268" s="98">
+      <c r="F268" s="78">
         <v>1</v>
       </c>
       <c r="G268" s="11"/>
@@ -52149,20 +52904,20 @@
       <c r="I268" s="11"/>
     </row>
     <row r="269" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A269" s="96">
+      <c r="A269" s="76">
         <v>268</v>
       </c>
-      <c r="B269" s="98">
+      <c r="B269" s="78">
         <v>152</v>
       </c>
-      <c r="C269" s="98"/>
-      <c r="D269" s="98" t="s">
+      <c r="C269" s="78"/>
+      <c r="D269" s="78" t="s">
         <v>777</v>
       </c>
-      <c r="E269" s="98">
-        <v>1</v>
-      </c>
-      <c r="F269" s="98">
+      <c r="E269" s="78">
+        <v>1</v>
+      </c>
+      <c r="F269" s="78">
         <v>1</v>
       </c>
       <c r="G269" s="11"/>
@@ -55684,7 +56439,7 @@
       <c r="H448" s="11"/>
       <c r="I448" s="11"/>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A449" s="12">
         <v>448</v>
       </c>
@@ -55701,7 +56456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A450" s="12">
         <v>449</v>
       </c>
@@ -55718,7 +56473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A451" s="12">
         <v>450</v>
       </c>
@@ -55735,7 +56490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A452" s="12">
         <v>451</v>
       </c>
@@ -55752,7 +56507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A453" s="12">
         <v>452</v>
       </c>
@@ -55766,394 +56521,427 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A454" s="61">
+    <row r="454" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A454" s="12">
         <v>453</v>
       </c>
-      <c r="B454" s="64" t="s">
+      <c r="B454" s="15" t="s">
         <v>567</v>
       </c>
-      <c r="C454" s="110"/>
-      <c r="D454" s="110" t="s">
+      <c r="C454" s="13"/>
+      <c r="D454" s="13" t="s">
         <v>759</v>
       </c>
-      <c r="E454" s="60">
+      <c r="E454" s="11">
         <v>30</v>
       </c>
-      <c r="F454" s="60">
-        <v>1</v>
-      </c>
-      <c r="G454" s="29"/>
-    </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A455" s="61">
+      <c r="F454" s="11">
+        <v>1</v>
+      </c>
+      <c r="G454" s="11"/>
+      <c r="H454" s="11"/>
+      <c r="I454" s="11"/>
+    </row>
+    <row r="455" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A455" s="12">
         <v>454</v>
       </c>
-      <c r="B455" s="64" t="s">
+      <c r="B455" s="15" t="s">
         <v>568</v>
       </c>
-      <c r="C455" s="110"/>
-      <c r="D455" s="110" t="s">
+      <c r="C455" s="13"/>
+      <c r="D455" s="13" t="s">
         <v>774</v>
       </c>
-      <c r="E455" s="60">
+      <c r="E455" s="11">
         <v>10000</v>
       </c>
-      <c r="F455" s="60">
-        <v>1</v>
-      </c>
-      <c r="G455" s="29"/>
-    </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A456" s="61">
+      <c r="F455" s="11">
+        <v>1</v>
+      </c>
+      <c r="G455" s="11"/>
+      <c r="H455" s="11"/>
+      <c r="I455" s="11"/>
+    </row>
+    <row r="456" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A456" s="12">
         <v>455</v>
       </c>
-      <c r="B456" s="64" t="s">
+      <c r="B456" s="15" t="s">
         <v>569</v>
       </c>
-      <c r="C456" s="110"/>
-      <c r="D456" s="110" t="s">
+      <c r="C456" s="13"/>
+      <c r="D456" s="13" t="s">
         <v>759</v>
       </c>
-      <c r="E456" s="60">
+      <c r="E456" s="11">
         <v>20</v>
       </c>
-      <c r="F456" s="60">
-        <v>1</v>
-      </c>
-      <c r="G456" s="29"/>
-    </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A457" s="61">
+      <c r="F456" s="11">
+        <v>1</v>
+      </c>
+      <c r="G456" s="11"/>
+      <c r="H456" s="11"/>
+      <c r="I456" s="11"/>
+    </row>
+    <row r="457" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A457" s="12">
         <v>456</v>
       </c>
-      <c r="B457" s="64" t="s">
+      <c r="B457" s="15" t="s">
         <v>570</v>
       </c>
-      <c r="C457" s="110"/>
-      <c r="D457" s="110" t="s">
+      <c r="C457" s="13"/>
+      <c r="D457" s="13" t="s">
         <v>774</v>
       </c>
-      <c r="E457" s="60">
+      <c r="E457" s="11">
         <v>60000</v>
       </c>
-      <c r="F457" s="60">
-        <v>1</v>
-      </c>
-      <c r="G457" s="29"/>
-    </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A458" s="61">
+      <c r="F457" s="11">
+        <v>1</v>
+      </c>
+      <c r="G457" s="11"/>
+      <c r="H457" s="11"/>
+      <c r="I457" s="11"/>
+    </row>
+    <row r="458" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A458" s="12">
         <v>457</v>
       </c>
-      <c r="B458" s="64" t="s">
+      <c r="B458" s="15" t="s">
         <v>571</v>
       </c>
-      <c r="C458" s="110"/>
-      <c r="D458" s="110" t="s">
+      <c r="C458" s="13"/>
+      <c r="D458" s="13" t="s">
         <v>759</v>
       </c>
-      <c r="E458" s="60">
+      <c r="E458" s="11">
         <v>50</v>
       </c>
-      <c r="F458" s="60">
-        <v>1</v>
-      </c>
-      <c r="G458" s="29"/>
-    </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A459" s="61">
+      <c r="F458" s="11">
+        <v>1</v>
+      </c>
+      <c r="G458" s="11"/>
+      <c r="H458" s="11"/>
+      <c r="I458" s="11"/>
+    </row>
+    <row r="459" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A459" s="12">
         <v>458</v>
       </c>
-      <c r="B459" s="64" t="s">
+      <c r="B459" s="15" t="s">
         <v>572</v>
       </c>
-      <c r="C459" s="110"/>
-      <c r="D459" s="110" t="s">
+      <c r="C459" s="13"/>
+      <c r="D459" s="13" t="s">
         <v>759</v>
       </c>
-      <c r="E459" s="60">
+      <c r="E459" s="11">
         <v>20</v>
       </c>
-      <c r="F459" s="60">
-        <v>1</v>
-      </c>
-      <c r="G459" s="29"/>
-    </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A460" s="61">
+      <c r="F459" s="11">
+        <v>1</v>
+      </c>
+      <c r="G459" s="11"/>
+      <c r="H459" s="11"/>
+      <c r="I459" s="11"/>
+    </row>
+    <row r="460" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A460" s="12">
         <v>459</v>
       </c>
-      <c r="B460" s="64" t="s">
+      <c r="B460" s="15" t="s">
         <v>573</v>
       </c>
-      <c r="C460" s="110"/>
-      <c r="D460" s="110" t="s">
+      <c r="C460" s="13"/>
+      <c r="D460" s="13" t="s">
         <v>759</v>
       </c>
-      <c r="E460" s="60">
+      <c r="E460" s="11">
         <v>10</v>
       </c>
-      <c r="F460" s="60">
-        <v>1</v>
-      </c>
-      <c r="G460" s="29"/>
-    </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A461" s="61">
+      <c r="F460" s="11">
+        <v>1</v>
+      </c>
+      <c r="G460" s="11"/>
+      <c r="H460" s="11"/>
+      <c r="I460" s="11"/>
+    </row>
+    <row r="461" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A461" s="12">
         <v>460</v>
       </c>
-      <c r="B461" s="64" t="s">
+      <c r="B461" s="15" t="s">
         <v>575</v>
       </c>
-      <c r="C461" s="110"/>
-      <c r="D461" s="110" t="s">
+      <c r="C461" s="13"/>
+      <c r="D461" s="13" t="s">
         <v>759</v>
       </c>
-      <c r="E461" s="60">
+      <c r="E461" s="11">
         <v>30</v>
       </c>
-      <c r="F461" s="60">
-        <v>1</v>
-      </c>
-      <c r="G461" s="29"/>
-    </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A462" s="61">
+      <c r="F461" s="11">
+        <v>1</v>
+      </c>
+      <c r="G461" s="11"/>
+      <c r="H461" s="11"/>
+      <c r="I461" s="11"/>
+    </row>
+    <row r="462" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A462" s="12">
         <v>461</v>
       </c>
-      <c r="B462" s="64" t="s">
+      <c r="B462" s="15" t="s">
         <v>576</v>
       </c>
-      <c r="C462" s="110"/>
-      <c r="D462" s="110" t="s">
+      <c r="C462" s="13"/>
+      <c r="D462" s="13" t="s">
         <v>759</v>
       </c>
-      <c r="E462" s="60">
+      <c r="E462" s="11">
         <v>60</v>
       </c>
-      <c r="F462" s="60">
-        <v>1</v>
-      </c>
-      <c r="G462" s="29"/>
-    </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A463" s="61">
+      <c r="F462" s="11">
+        <v>1</v>
+      </c>
+      <c r="G462" s="11"/>
+      <c r="H462" s="11"/>
+      <c r="I462" s="11"/>
+    </row>
+    <row r="463" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A463" s="12">
         <v>462</v>
       </c>
-      <c r="B463" s="64" t="s">
+      <c r="B463" s="15" t="s">
         <v>577</v>
       </c>
-      <c r="C463" s="110"/>
-      <c r="D463" s="110" t="s">
+      <c r="C463" s="13"/>
+      <c r="D463" s="13" t="s">
         <v>759</v>
       </c>
-      <c r="E463" s="60">
+      <c r="E463" s="11">
         <v>150</v>
       </c>
-      <c r="F463" s="60">
-        <v>1</v>
-      </c>
-      <c r="G463" s="29"/>
-    </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A464" s="61">
+      <c r="F463" s="11">
+        <v>1</v>
+      </c>
+      <c r="G463" s="11"/>
+      <c r="H463" s="11"/>
+      <c r="I463" s="11"/>
+    </row>
+    <row r="464" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A464" s="12">
         <v>463</v>
       </c>
-      <c r="B464" s="64" t="s">
+      <c r="B464" s="15" t="s">
         <v>579</v>
       </c>
-      <c r="C464" s="110"/>
-      <c r="D464" s="110" t="s">
+      <c r="C464" s="13"/>
+      <c r="D464" s="13" t="s">
         <v>759</v>
       </c>
-      <c r="E464" s="60">
+      <c r="E464" s="11">
         <v>300</v>
       </c>
-      <c r="F464" s="60">
-        <v>1</v>
-      </c>
-      <c r="G464" s="29"/>
-    </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A465" s="61">
+      <c r="F464" s="11">
+        <v>1</v>
+      </c>
+      <c r="G464" s="11"/>
+      <c r="H464" s="11"/>
+      <c r="I464" s="11"/>
+    </row>
+    <row r="465" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A465" s="12">
         <v>464</v>
       </c>
-      <c r="B465" s="64" t="s">
+      <c r="B465" s="15" t="s">
         <v>581</v>
       </c>
-      <c r="C465" s="110"/>
-      <c r="D465" s="110" t="s">
+      <c r="C465" s="13"/>
+      <c r="D465" s="13" t="s">
         <v>759</v>
       </c>
-      <c r="E465" s="60">
+      <c r="E465" s="11">
         <v>600</v>
       </c>
-      <c r="F465" s="60">
-        <v>1</v>
-      </c>
-      <c r="G465" s="29"/>
-    </row>
-    <row r="466" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A466" s="61">
+      <c r="F465" s="11">
+        <v>1</v>
+      </c>
+      <c r="G465" s="11"/>
+      <c r="H465" s="11"/>
+      <c r="I465" s="11"/>
+    </row>
+    <row r="466" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A466" s="12">
         <v>465</v>
       </c>
-      <c r="B466" s="64" t="s">
+      <c r="B466" s="15" t="s">
         <v>583</v>
       </c>
-      <c r="C466" s="110"/>
-      <c r="D466" s="110" t="s">
+      <c r="C466" s="13"/>
+      <c r="D466" s="13" t="s">
         <v>759</v>
       </c>
-      <c r="E466" s="60">
+      <c r="E466" s="11">
         <v>1800</v>
       </c>
-      <c r="F466" s="60">
-        <v>1</v>
-      </c>
-      <c r="G466" s="29"/>
-    </row>
-    <row r="467" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A467" s="9">
+      <c r="F466" s="11">
+        <v>1</v>
+      </c>
+      <c r="G466" s="11"/>
+      <c r="H466" s="11"/>
+      <c r="I466" s="11"/>
+    </row>
+    <row r="467" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A467" s="12">
         <v>466</v>
       </c>
-      <c r="B467" s="107" t="s">
+      <c r="B467" s="15" t="s">
         <v>584</v>
       </c>
-      <c r="C467" s="19"/>
-      <c r="D467" s="19" t="s">
+      <c r="C467" s="13"/>
+      <c r="D467" s="13" t="s">
         <v>774</v>
       </c>
-      <c r="E467" s="10">
+      <c r="E467" s="11">
         <v>20000</v>
       </c>
-      <c r="F467" s="10">
-        <v>1</v>
-      </c>
-      <c r="G467" s="29"/>
-      <c r="H467" s="29"/>
-    </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A468" s="9">
+      <c r="F467" s="11">
+        <v>1</v>
+      </c>
+      <c r="G467" s="11"/>
+      <c r="H467" s="11"/>
+      <c r="I467" s="11"/>
+    </row>
+    <row r="468" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A468" s="12">
         <v>467</v>
       </c>
-      <c r="B468" s="107" t="s">
+      <c r="B468" s="15" t="s">
         <v>585</v>
       </c>
-      <c r="C468" s="19"/>
-      <c r="D468" s="19" t="s">
+      <c r="C468" s="13"/>
+      <c r="D468" s="13" t="s">
         <v>759</v>
       </c>
-      <c r="E468" s="10">
+      <c r="E468" s="11">
         <v>20</v>
       </c>
-      <c r="F468" s="10">
-        <v>1</v>
-      </c>
-      <c r="G468" s="29"/>
-      <c r="H468" s="29"/>
-    </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A469" s="9">
+      <c r="F468" s="11">
+        <v>1</v>
+      </c>
+      <c r="G468" s="11"/>
+      <c r="H468" s="11"/>
+      <c r="I468" s="11"/>
+    </row>
+    <row r="469" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A469" s="12">
         <v>468</v>
       </c>
-      <c r="B469" s="107" t="s">
+      <c r="B469" s="15" t="s">
         <v>586</v>
       </c>
-      <c r="C469" s="19"/>
-      <c r="D469" s="19" t="s">
+      <c r="C469" s="13"/>
+      <c r="D469" s="13" t="s">
         <v>774</v>
       </c>
-      <c r="E469" s="10">
+      <c r="E469" s="11">
         <v>50000</v>
       </c>
-      <c r="F469" s="10">
-        <v>1</v>
-      </c>
-      <c r="G469" s="29"/>
-      <c r="H469" s="29"/>
-    </row>
-    <row r="470" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A470" s="9">
+      <c r="F469" s="11">
+        <v>1</v>
+      </c>
+      <c r="G469" s="11"/>
+      <c r="H469" s="11"/>
+      <c r="I469" s="11"/>
+    </row>
+    <row r="470" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A470" s="12">
         <v>469</v>
       </c>
-      <c r="B470" s="107" t="s">
+      <c r="B470" s="15" t="s">
         <v>587</v>
       </c>
-      <c r="C470" s="19"/>
-      <c r="D470" s="19" t="s">
+      <c r="C470" s="13"/>
+      <c r="D470" s="13" t="s">
         <v>759</v>
       </c>
-      <c r="E470" s="10">
+      <c r="E470" s="11">
         <v>50</v>
       </c>
-      <c r="F470" s="10">
+      <c r="F470" s="11">
         <v>1</v>
       </c>
       <c r="G470" s="11"/>
-      <c r="H470" s="29"/>
-    </row>
-    <row r="471" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A471" s="9">
+      <c r="H470" s="11"/>
+      <c r="I470" s="11"/>
+    </row>
+    <row r="471" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A471" s="12">
         <v>470</v>
       </c>
-      <c r="B471" s="107" t="s">
+      <c r="B471" s="15" t="s">
         <v>588</v>
       </c>
-      <c r="C471" s="19"/>
-      <c r="D471" s="19" t="s">
+      <c r="C471" s="13"/>
+      <c r="D471" s="13" t="s">
         <v>774</v>
       </c>
-      <c r="E471" s="10">
+      <c r="E471" s="11">
         <v>80000</v>
       </c>
-      <c r="F471" s="10">
+      <c r="F471" s="11">
         <v>1</v>
       </c>
       <c r="G471" s="11"/>
-      <c r="H471" s="29"/>
-    </row>
-    <row r="472" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A472" s="9">
+      <c r="H471" s="11"/>
+      <c r="I471" s="11"/>
+    </row>
+    <row r="472" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A472" s="12">
         <v>471</v>
       </c>
-      <c r="B472" s="107" t="s">
+      <c r="B472" s="15" t="s">
         <v>589</v>
       </c>
-      <c r="C472" s="19"/>
-      <c r="D472" s="19" t="s">
+      <c r="C472" s="13"/>
+      <c r="D472" s="13" t="s">
         <v>759</v>
       </c>
-      <c r="E472" s="10">
+      <c r="E472" s="11">
         <v>80</v>
       </c>
-      <c r="F472" s="10">
+      <c r="F472" s="11">
         <v>1</v>
       </c>
       <c r="G472" s="11"/>
-      <c r="H472" s="29"/>
-    </row>
-    <row r="473" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A473" s="9">
+      <c r="H472" s="11"/>
+      <c r="I472" s="11"/>
+    </row>
+    <row r="473" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A473" s="12">
         <v>472</v>
       </c>
-      <c r="B473" s="107" t="s">
+      <c r="B473" s="15" t="s">
         <v>590</v>
       </c>
-      <c r="C473" s="19"/>
-      <c r="D473" s="19" t="s">
+      <c r="C473" s="13"/>
+      <c r="D473" s="13" t="s">
         <v>1198</v>
       </c>
-      <c r="E473" s="10">
+      <c r="E473" s="11">
         <v>604800</v>
       </c>
-      <c r="F473" s="10">
+      <c r="F473" s="11">
         <v>1</v>
       </c>
       <c r="G473" s="11">
         <v>1</v>
       </c>
-      <c r="H473" s="29"/>
+      <c r="H473" s="11"/>
+      <c r="I473" s="11"/>
     </row>
     <row r="474" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A474" s="12">
@@ -60090,7 +60878,7 @@
       <c r="A662" s="12">
         <v>661</v>
       </c>
-      <c r="B662" s="70" t="s">
+      <c r="B662" s="69" t="s">
         <v>888</v>
       </c>
       <c r="C662" s="11"/>
@@ -60262,8 +61050,8 @@
         <v>870</v>
       </c>
       <c r="C670" s="11"/>
-      <c r="D670" s="59" t="s">
-        <v>882</v>
+      <c r="D670" s="13" t="s">
+        <v>1236</v>
       </c>
       <c r="E670" s="11">
         <v>12000</v>
@@ -60939,7 +61727,7 @@
       <c r="A703" s="12">
         <v>702</v>
       </c>
-      <c r="B703" s="66" t="s">
+      <c r="B703" s="65" t="s">
         <v>957</v>
       </c>
       <c r="D703" s="14" t="s">
@@ -60956,7 +61744,7 @@
       <c r="A704" s="12">
         <v>703</v>
       </c>
-      <c r="B704" s="66" t="s">
+      <c r="B704" s="65" t="s">
         <v>958</v>
       </c>
       <c r="D704" s="14" t="s">
@@ -60973,7 +61761,7 @@
       <c r="A705" s="12">
         <v>704</v>
       </c>
-      <c r="B705" s="66" t="s">
+      <c r="B705" s="65" t="s">
         <v>959</v>
       </c>
       <c r="D705" s="14" t="s">
@@ -60990,7 +61778,7 @@
       <c r="A706" s="12">
         <v>705</v>
       </c>
-      <c r="B706" s="66" t="s">
+      <c r="B706" s="65" t="s">
         <v>960</v>
       </c>
       <c r="D706" s="14" t="s">
@@ -61007,7 +61795,7 @@
       <c r="A707" s="12">
         <v>706</v>
       </c>
-      <c r="B707" s="66" t="s">
+      <c r="B707" s="65" t="s">
         <v>961</v>
       </c>
       <c r="D707" s="14" t="s">
@@ -61024,7 +61812,7 @@
       <c r="A708" s="12">
         <v>707</v>
       </c>
-      <c r="B708" s="66" t="s">
+      <c r="B708" s="65" t="s">
         <v>962</v>
       </c>
       <c r="D708" s="14" t="s">
@@ -61041,7 +61829,7 @@
       <c r="A709" s="12">
         <v>708</v>
       </c>
-      <c r="B709" s="66" t="s">
+      <c r="B709" s="65" t="s">
         <v>963</v>
       </c>
       <c r="D709" s="14" t="s">
@@ -61058,7 +61846,7 @@
       <c r="A710" s="12">
         <v>709</v>
       </c>
-      <c r="B710" s="66" t="s">
+      <c r="B710" s="65" t="s">
         <v>964</v>
       </c>
       <c r="D710" s="14" t="s">
@@ -61075,7 +61863,7 @@
       <c r="A711" s="12">
         <v>710</v>
       </c>
-      <c r="B711" s="66" t="s">
+      <c r="B711" s="65" t="s">
         <v>965</v>
       </c>
       <c r="D711" s="14" t="s">
@@ -62411,8 +63199,425 @@
       <c r="H774" s="11"/>
       <c r="I774" s="11"/>
     </row>
-    <row r="781" spans="1:9" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D781" s="108"/>
+    <row r="775" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A775" s="9">
+        <v>774</v>
+      </c>
+      <c r="B775" s="10">
+        <v>568</v>
+      </c>
+      <c r="C775" s="10"/>
+      <c r="D775" s="19" t="s">
+        <v>1237</v>
+      </c>
+      <c r="E775" s="83" t="s">
+        <v>1249</v>
+      </c>
+      <c r="F775" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="776" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A776" s="9">
+        <v>775</v>
+      </c>
+      <c r="B776" s="10">
+        <v>569</v>
+      </c>
+      <c r="C776" s="10"/>
+      <c r="D776" s="19" t="s">
+        <v>1237</v>
+      </c>
+      <c r="E776" s="83" t="s">
+        <v>1250</v>
+      </c>
+      <c r="F776" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="777" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A777" s="9">
+        <v>776</v>
+      </c>
+      <c r="B777" s="10">
+        <v>570</v>
+      </c>
+      <c r="C777" s="10"/>
+      <c r="D777" s="19" t="s">
+        <v>1237</v>
+      </c>
+      <c r="E777" s="83" t="s">
+        <v>1251</v>
+      </c>
+      <c r="F777" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="778" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A778" s="9">
+        <v>777</v>
+      </c>
+      <c r="B778" s="10">
+        <v>571</v>
+      </c>
+      <c r="C778" s="10"/>
+      <c r="D778" s="19" t="s">
+        <v>1237</v>
+      </c>
+      <c r="E778" s="83" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F778" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="779" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A779" s="9">
+        <v>778</v>
+      </c>
+      <c r="B779" s="10">
+        <v>572</v>
+      </c>
+      <c r="C779" s="10"/>
+      <c r="D779" s="19" t="s">
+        <v>1237</v>
+      </c>
+      <c r="E779" s="83" t="s">
+        <v>1246</v>
+      </c>
+      <c r="F779" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="780" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A780" s="9">
+        <v>779</v>
+      </c>
+      <c r="B780" s="10">
+        <v>573</v>
+      </c>
+      <c r="C780" s="10"/>
+      <c r="D780" s="19" t="s">
+        <v>1237</v>
+      </c>
+      <c r="E780" s="83" t="s">
+        <v>1247</v>
+      </c>
+      <c r="F780" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="781" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A781" s="12">
+        <v>780</v>
+      </c>
+      <c r="B781" s="29">
+        <v>574</v>
+      </c>
+      <c r="D781" s="13" t="s">
+        <v>1237</v>
+      </c>
+      <c r="E781" s="83" t="s">
+        <v>1252</v>
+      </c>
+      <c r="F781" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="782" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A782" s="12">
+        <v>781</v>
+      </c>
+      <c r="B782" s="29">
+        <v>575</v>
+      </c>
+      <c r="D782" s="13" t="s">
+        <v>1237</v>
+      </c>
+      <c r="E782" s="83" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F782" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="783" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A783" s="12">
+        <v>782</v>
+      </c>
+      <c r="B783" s="29">
+        <v>576</v>
+      </c>
+      <c r="D783" s="13" t="s">
+        <v>1237</v>
+      </c>
+      <c r="E783" s="83" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F783" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="784" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A784" s="12">
+        <v>783</v>
+      </c>
+      <c r="B784" s="29">
+        <v>577</v>
+      </c>
+      <c r="D784" s="13" t="s">
+        <v>1237</v>
+      </c>
+      <c r="E784" s="83" t="s">
+        <v>1243</v>
+      </c>
+      <c r="F784" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="785" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A785" s="12">
+        <v>784</v>
+      </c>
+      <c r="B785" s="29">
+        <v>578</v>
+      </c>
+      <c r="D785" s="13" t="s">
+        <v>1237</v>
+      </c>
+      <c r="E785" s="83" t="s">
+        <v>1244</v>
+      </c>
+      <c r="F785" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="786" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A786" s="12">
+        <v>785</v>
+      </c>
+      <c r="B786" s="29">
+        <v>579</v>
+      </c>
+      <c r="D786" s="13" t="s">
+        <v>1237</v>
+      </c>
+      <c r="E786" s="83" t="s">
+        <v>1245</v>
+      </c>
+      <c r="F786" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="787" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A787" s="9">
+        <v>786</v>
+      </c>
+      <c r="B787" s="10">
+        <v>580</v>
+      </c>
+      <c r="C787" s="10"/>
+      <c r="D787" s="19" t="s">
+        <v>1237</v>
+      </c>
+      <c r="E787" s="83" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F787" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="788" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A788" s="9">
+        <v>787</v>
+      </c>
+      <c r="B788" s="10">
+        <v>581</v>
+      </c>
+      <c r="C788" s="10"/>
+      <c r="D788" s="19" t="s">
+        <v>1237</v>
+      </c>
+      <c r="E788" s="83" t="s">
+        <v>1255</v>
+      </c>
+      <c r="F788" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="789" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A789" s="9">
+        <v>788</v>
+      </c>
+      <c r="B789" s="10">
+        <v>582</v>
+      </c>
+      <c r="C789" s="10"/>
+      <c r="D789" s="19" t="s">
+        <v>1237</v>
+      </c>
+      <c r="E789" s="83" t="s">
+        <v>1256</v>
+      </c>
+      <c r="F789" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="790" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A790" s="9">
+        <v>789</v>
+      </c>
+      <c r="B790" s="10">
+        <v>583</v>
+      </c>
+      <c r="C790" s="10"/>
+      <c r="D790" s="19" t="s">
+        <v>1237</v>
+      </c>
+      <c r="E790" s="83" t="s">
+        <v>1257</v>
+      </c>
+      <c r="F790" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="791" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A791" s="9">
+        <v>790</v>
+      </c>
+      <c r="B791" s="10">
+        <v>584</v>
+      </c>
+      <c r="C791" s="10"/>
+      <c r="D791" s="19" t="s">
+        <v>1237</v>
+      </c>
+      <c r="E791" s="83" t="s">
+        <v>1258</v>
+      </c>
+      <c r="F791" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="792" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A792" s="9">
+        <v>791</v>
+      </c>
+      <c r="B792" s="10">
+        <v>585</v>
+      </c>
+      <c r="C792" s="10"/>
+      <c r="D792" s="19" t="s">
+        <v>1237</v>
+      </c>
+      <c r="E792" s="83" t="s">
+        <v>1259</v>
+      </c>
+      <c r="F792" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="793" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A793" s="12">
+        <v>792</v>
+      </c>
+      <c r="B793" s="29">
+        <v>586</v>
+      </c>
+      <c r="D793" s="13" t="s">
+        <v>1237</v>
+      </c>
+      <c r="E793" s="83" t="s">
+        <v>1260</v>
+      </c>
+      <c r="F793" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="794" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A794" s="12">
+        <v>793</v>
+      </c>
+      <c r="B794" s="29">
+        <v>587</v>
+      </c>
+      <c r="D794" s="13" t="s">
+        <v>1237</v>
+      </c>
+      <c r="E794" s="83" t="s">
+        <v>1261</v>
+      </c>
+      <c r="F794" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="795" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A795" s="12">
+        <v>794</v>
+      </c>
+      <c r="B795" s="29">
+        <v>588</v>
+      </c>
+      <c r="D795" s="13" t="s">
+        <v>1237</v>
+      </c>
+      <c r="E795" s="83" t="s">
+        <v>1262</v>
+      </c>
+      <c r="F795" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="796" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A796" s="12">
+        <v>795</v>
+      </c>
+      <c r="B796" s="29">
+        <v>589</v>
+      </c>
+      <c r="D796" s="13" t="s">
+        <v>1237</v>
+      </c>
+      <c r="E796" s="83" t="s">
+        <v>1263</v>
+      </c>
+      <c r="F796" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="797" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A797" s="12">
+        <v>796</v>
+      </c>
+      <c r="B797" s="29">
+        <v>590</v>
+      </c>
+      <c r="D797" s="13" t="s">
+        <v>1237</v>
+      </c>
+      <c r="E797" s="83" t="s">
+        <v>1264</v>
+      </c>
+      <c r="F797" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="798" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A798" s="12">
+        <v>797</v>
+      </c>
+      <c r="B798" s="29">
+        <v>591</v>
+      </c>
+      <c r="D798" s="13" t="s">
+        <v>1237</v>
+      </c>
+      <c r="E798" s="83" t="s">
+        <v>1265</v>
+      </c>
+      <c r="F798" s="11">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>

--- a/config_debug/task_zajindan_server.xlsx
+++ b/config_debug/task_zajindan_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TTHLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -22,12 +22,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">task!$B$1:$B$367</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4784" uniqueCount="1266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4791" uniqueCount="1268">
   <si>
     <t>id|任务id</t>
   </si>
@@ -7088,27 +7088,6 @@
     <t>体验一次红包大转盘</t>
   </si>
   <si>
-    <t>任意小游戏累计赢金50万</t>
-  </si>
-  <si>
-    <t>任意小游戏累计赢金100万</t>
-  </si>
-  <si>
-    <t>任意小游戏累计赢金200万</t>
-  </si>
-  <si>
-    <t>任意小游戏累计赢金500万</t>
-  </si>
-  <si>
-    <t>任意小游戏累计赢金1000万</t>
-  </si>
-  <si>
-    <t>任意小游戏累计赢金2000万</t>
-  </si>
-  <si>
-    <t>任意小游戏累计赢金5000万</t>
-  </si>
-  <si>
     <t>3D捕鱼中捕获任意10条鱼</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -7319,6 +7298,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -7346,6 +7326,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -7373,6 +7354,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -7400,6 +7382,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -7456,6 +7439,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -7477,6 +7461,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -7493,6 +7478,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -7514,6 +7500,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -7546,6 +7533,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -7567,6 +7555,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -7583,6 +7572,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -7604,12 +7594,49 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>0</t>
     </r>
     <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>little_game_award_half_buyu</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyu_3d_award</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意游戏累计赢金50万</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意游戏累计赢金100万</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意游戏累计赢金200万</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意游戏累计赢金500万</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意游戏累计赢金1000万</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意游戏累计赢金2000万</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意游戏累计赢金5000万</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -8339,10 +8366,10 @@
   <dimension ref="A1:T371"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D353" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="F167" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K375" sqref="K375"/>
+      <selection pane="bottomRight" activeCell="G185" sqref="G185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -15478,7 +15505,7 @@
         <v>1199</v>
       </c>
       <c r="D179" s="84" t="s">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="E179" s="84" t="s">
         <v>132</v>
@@ -15517,7 +15544,7 @@
         <v>1199</v>
       </c>
       <c r="D180" s="84" t="s">
-        <v>1212</v>
+        <v>1205</v>
       </c>
       <c r="E180" s="84" t="s">
         <v>132</v>
@@ -15556,7 +15583,7 @@
         <v>1199</v>
       </c>
       <c r="D181" s="84" t="s">
-        <v>1213</v>
+        <v>1206</v>
       </c>
       <c r="E181" s="84" t="s">
         <v>132</v>
@@ -15595,7 +15622,7 @@
         <v>1199</v>
       </c>
       <c r="D182" s="84" t="s">
-        <v>1214</v>
+        <v>1207</v>
       </c>
       <c r="E182" s="84" t="s">
         <v>132</v>
@@ -15711,8 +15738,8 @@
       <c r="C185" s="84" t="s">
         <v>1199</v>
       </c>
-      <c r="D185" s="61" t="s">
-        <v>1202</v>
+      <c r="D185" s="84" t="s">
+        <v>1261</v>
       </c>
       <c r="E185" s="84" t="s">
         <v>132</v>
@@ -15750,8 +15777,8 @@
       <c r="C186" s="84" t="s">
         <v>1199</v>
       </c>
-      <c r="D186" s="61" t="s">
-        <v>1203</v>
+      <c r="D186" s="84" t="s">
+        <v>1262</v>
       </c>
       <c r="E186" s="84" t="s">
         <v>132</v>
@@ -15789,8 +15816,8 @@
       <c r="C187" s="84" t="s">
         <v>1199</v>
       </c>
-      <c r="D187" s="61" t="s">
-        <v>1204</v>
+      <c r="D187" s="84" t="s">
+        <v>1263</v>
       </c>
       <c r="E187" s="84" t="s">
         <v>132</v>
@@ -15828,8 +15855,8 @@
       <c r="C188" s="84" t="s">
         <v>1199</v>
       </c>
-      <c r="D188" s="61" t="s">
-        <v>1205</v>
+      <c r="D188" s="84" t="s">
+        <v>1264</v>
       </c>
       <c r="E188" s="84" t="s">
         <v>132</v>
@@ -15867,8 +15894,8 @@
       <c r="C189" s="84" t="s">
         <v>1199</v>
       </c>
-      <c r="D189" s="61" t="s">
-        <v>1206</v>
+      <c r="D189" s="84" t="s">
+        <v>1265</v>
       </c>
       <c r="E189" s="84" t="s">
         <v>132</v>
@@ -15906,8 +15933,8 @@
       <c r="C190" s="84" t="s">
         <v>1199</v>
       </c>
-      <c r="D190" s="61" t="s">
-        <v>1207</v>
+      <c r="D190" s="84" t="s">
+        <v>1266</v>
       </c>
       <c r="E190" s="84" t="s">
         <v>132</v>
@@ -15945,8 +15972,8 @@
       <c r="C191" s="84" t="s">
         <v>1199</v>
       </c>
-      <c r="D191" s="61" t="s">
-        <v>1208</v>
+      <c r="D191" s="84" t="s">
+        <v>1267</v>
       </c>
       <c r="E191" s="84" t="s">
         <v>132</v>
@@ -22670,13 +22697,13 @@
         <v>1</v>
       </c>
       <c r="C368" s="51" t="s">
-        <v>1223</v>
+        <v>1216</v>
       </c>
       <c r="D368" s="86" t="s">
-        <v>1219</v>
+        <v>1212</v>
       </c>
       <c r="E368" s="51" t="s">
-        <v>1224</v>
+        <v>1217</v>
       </c>
       <c r="F368" s="51" t="s">
         <v>856</v>
@@ -22708,13 +22735,13 @@
         <v>1</v>
       </c>
       <c r="C369" s="51" t="s">
-        <v>1223</v>
+        <v>1216</v>
       </c>
       <c r="D369" s="86" t="s">
-        <v>1220</v>
+        <v>1213</v>
       </c>
       <c r="E369" s="51" t="s">
-        <v>1224</v>
+        <v>1217</v>
       </c>
       <c r="F369" s="51" t="s">
         <v>856</v>
@@ -22746,13 +22773,13 @@
         <v>1</v>
       </c>
       <c r="C370" s="51" t="s">
-        <v>1223</v>
+        <v>1216</v>
       </c>
       <c r="D370" s="51" t="s">
-        <v>1221</v>
+        <v>1214</v>
       </c>
       <c r="E370" s="51" t="s">
-        <v>1224</v>
+        <v>1217</v>
       </c>
       <c r="F370" s="51" t="s">
         <v>856</v>
@@ -22784,13 +22811,13 @@
         <v>1</v>
       </c>
       <c r="C371" s="51" t="s">
-        <v>1223</v>
+        <v>1216</v>
       </c>
       <c r="D371" s="51" t="s">
-        <v>1222</v>
+        <v>1215</v>
       </c>
       <c r="E371" s="51" t="s">
-        <v>1224</v>
+        <v>1217</v>
       </c>
       <c r="F371" s="51" t="s">
         <v>856</v>
@@ -22826,11 +22853,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K371"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F356" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C167" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H376" sqref="H376"/>
+      <selection pane="bottomRight" activeCell="C185" sqref="C185:F191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -22873,7 +22900,7 @@
         <v>918</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>1218</v>
+        <v>1211</v>
       </c>
       <c r="K1" s="38"/>
     </row>
@@ -27680,7 +27707,7 @@
         <v>121</v>
       </c>
       <c r="F180" s="40" t="s">
-        <v>1215</v>
+        <v>1208</v>
       </c>
       <c r="G180" s="35"/>
       <c r="H180" s="15" t="s">
@@ -27705,7 +27732,7 @@
         <v>122</v>
       </c>
       <c r="F181" s="40" t="s">
-        <v>1216</v>
+        <v>1209</v>
       </c>
       <c r="G181" s="35"/>
       <c r="H181" s="15" t="s">
@@ -27730,7 +27757,7 @@
         <v>123</v>
       </c>
       <c r="F182" s="40" t="s">
-        <v>1217</v>
+        <v>1210</v>
       </c>
       <c r="G182" s="35"/>
       <c r="H182" s="15" t="s">
@@ -27802,7 +27829,7 @@
         <v>21132</v>
       </c>
       <c r="C185" s="13" t="s">
-        <v>545</v>
+        <v>1259</v>
       </c>
       <c r="D185" s="11">
         <v>184</v>
@@ -32418,14 +32445,14 @@
       </c>
       <c r="E368" s="10"/>
       <c r="F368" s="82" t="s">
-        <v>1232</v>
+        <v>1225</v>
       </c>
       <c r="G368" s="79"/>
       <c r="H368" s="83" t="s">
-        <v>1238</v>
+        <v>1231</v>
       </c>
       <c r="I368" s="19" t="s">
-        <v>1230</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="369" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -32441,14 +32468,14 @@
       </c>
       <c r="E369" s="10"/>
       <c r="F369" s="82" t="s">
-        <v>1233</v>
+        <v>1226</v>
       </c>
       <c r="G369" s="79"/>
       <c r="H369" s="83" t="s">
-        <v>1239</v>
+        <v>1232</v>
       </c>
       <c r="I369" s="19" t="s">
-        <v>1231</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="370" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -32464,14 +32491,14 @@
       </c>
       <c r="E370" s="10"/>
       <c r="F370" s="82" t="s">
-        <v>1234</v>
+        <v>1227</v>
       </c>
       <c r="G370" s="79"/>
       <c r="H370" s="83" t="s">
-        <v>1240</v>
+        <v>1233</v>
       </c>
       <c r="I370" s="19" t="s">
-        <v>1231</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="371" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -32487,14 +32514,14 @@
       </c>
       <c r="E371" s="10"/>
       <c r="F371" s="82" t="s">
-        <v>1235</v>
+        <v>1228</v>
       </c>
       <c r="G371" s="79"/>
       <c r="H371" s="83" t="s">
-        <v>1241</v>
+        <v>1234</v>
       </c>
       <c r="I371" s="19" t="s">
-        <v>1231</v>
+        <v>1224</v>
       </c>
     </row>
   </sheetData>
@@ -32506,10 +32533,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I520"/>
+  <dimension ref="A1:I527"/>
   <sheetViews>
-    <sheetView topLeftCell="A494" workbookViewId="0">
-      <selection activeCell="F520" sqref="F520"/>
+    <sheetView tabSelected="1" topLeftCell="A391" workbookViewId="0">
+      <selection activeCell="A242" sqref="A242:A527"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -35720,7 +35747,7 @@
         <v>178</v>
       </c>
       <c r="C224" s="85" t="s">
-        <v>1210</v>
+        <v>1203</v>
       </c>
       <c r="D224" s="60">
         <v>0</v>
@@ -35734,7 +35761,7 @@
         <v>179</v>
       </c>
       <c r="C225" s="85" t="s">
-        <v>1211</v>
+        <v>1204</v>
       </c>
       <c r="D225" s="60">
         <v>0</v>
@@ -35748,7 +35775,7 @@
         <v>180</v>
       </c>
       <c r="C226" s="85" t="s">
-        <v>1211</v>
+        <v>1204</v>
       </c>
       <c r="D226" s="60">
         <v>0</v>
@@ -35910,15 +35937,17 @@
         <v>236</v>
       </c>
       <c r="B237" s="11">
-        <v>185</v>
-      </c>
-      <c r="C237" s="23" t="s">
-        <v>394</v>
+        <v>184</v>
+      </c>
+      <c r="C237" s="13" t="s">
+        <v>1260</v>
       </c>
       <c r="D237" s="11">
         <v>0</v>
       </c>
-      <c r="E237" s="11"/>
+      <c r="E237" s="11">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="238" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A238" s="11">
@@ -35927,8 +35956,8 @@
       <c r="B238" s="11">
         <v>185</v>
       </c>
-      <c r="C238" s="11" t="s">
-        <v>439</v>
+      <c r="C238" s="23" t="s">
+        <v>394</v>
       </c>
       <c r="D238" s="11">
         <v>0</v>
@@ -35943,7 +35972,7 @@
         <v>185</v>
       </c>
       <c r="C239" s="11" t="s">
-        <v>665</v>
+        <v>439</v>
       </c>
       <c r="D239" s="11">
         <v>0</v>
@@ -35958,7 +35987,7 @@
         <v>185</v>
       </c>
       <c r="C240" s="11" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D240" s="11">
         <v>0</v>
@@ -35973,7 +36002,7 @@
         <v>185</v>
       </c>
       <c r="C241" s="11" t="s">
-        <v>385</v>
+        <v>666</v>
       </c>
       <c r="D241" s="11">
         <v>0</v>
@@ -35988,14 +36017,12 @@
         <v>185</v>
       </c>
       <c r="C242" s="11" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D242" s="11">
         <v>0</v>
       </c>
-      <c r="E242" s="11">
-        <v>0.5</v>
-      </c>
+      <c r="E242" s="11"/>
     </row>
     <row r="243" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A243" s="11">
@@ -36005,7 +36032,7 @@
         <v>185</v>
       </c>
       <c r="C243" s="11" t="s">
-        <v>667</v>
+        <v>390</v>
       </c>
       <c r="D243" s="11">
         <v>0</v>
@@ -36019,29 +36046,29 @@
         <v>243</v>
       </c>
       <c r="B244" s="11">
-        <v>186</v>
-      </c>
-      <c r="C244" s="23" t="s">
-        <v>394</v>
+        <v>185</v>
+      </c>
+      <c r="C244" s="11" t="s">
+        <v>667</v>
       </c>
       <c r="D244" s="11">
         <v>0</v>
       </c>
-      <c r="E244" s="11"/>
+      <c r="E244" s="11">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="245" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A245" s="11">
         <v>244</v>
       </c>
       <c r="B245" s="11">
-        <v>186</v>
-      </c>
-      <c r="C245" s="11" t="s">
-        <v>439</v>
-      </c>
-      <c r="D245" s="11">
-        <v>0</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="C245" s="13" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D245" s="11"/>
       <c r="E245" s="11"/>
     </row>
     <row r="246" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -36051,8 +36078,8 @@
       <c r="B246" s="11">
         <v>186</v>
       </c>
-      <c r="C246" s="11" t="s">
-        <v>665</v>
+      <c r="C246" s="23" t="s">
+        <v>394</v>
       </c>
       <c r="D246" s="11">
         <v>0</v>
@@ -36067,7 +36094,7 @@
         <v>186</v>
       </c>
       <c r="C247" s="11" t="s">
-        <v>666</v>
+        <v>439</v>
       </c>
       <c r="D247" s="11">
         <v>0</v>
@@ -36082,7 +36109,7 @@
         <v>186</v>
       </c>
       <c r="C248" s="11" t="s">
-        <v>385</v>
+        <v>665</v>
       </c>
       <c r="D248" s="11">
         <v>0</v>
@@ -36097,14 +36124,12 @@
         <v>186</v>
       </c>
       <c r="C249" s="11" t="s">
-        <v>390</v>
+        <v>666</v>
       </c>
       <c r="D249" s="11">
         <v>0</v>
       </c>
-      <c r="E249" s="11">
-        <v>0.5</v>
-      </c>
+      <c r="E249" s="11"/>
     </row>
     <row r="250" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A250" s="11">
@@ -36114,58 +36139,58 @@
         <v>186</v>
       </c>
       <c r="C250" s="11" t="s">
-        <v>667</v>
+        <v>385</v>
       </c>
       <c r="D250" s="11">
         <v>0</v>
       </c>
-      <c r="E250" s="11">
-        <v>0.5</v>
-      </c>
+      <c r="E250" s="11"/>
     </row>
     <row r="251" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A251" s="11">
         <v>250</v>
       </c>
       <c r="B251" s="11">
-        <v>187</v>
-      </c>
-      <c r="C251" s="23" t="s">
-        <v>394</v>
+        <v>186</v>
+      </c>
+      <c r="C251" s="11" t="s">
+        <v>390</v>
       </c>
       <c r="D251" s="11">
         <v>0</v>
       </c>
-      <c r="E251" s="11"/>
+      <c r="E251" s="11">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="252" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A252" s="11">
         <v>251</v>
       </c>
       <c r="B252" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C252" s="11" t="s">
-        <v>439</v>
+        <v>667</v>
       </c>
       <c r="D252" s="11">
         <v>0</v>
       </c>
-      <c r="E252" s="11"/>
+      <c r="E252" s="11">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="253" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A253" s="11">
         <v>252</v>
       </c>
       <c r="B253" s="11">
-        <v>187</v>
-      </c>
-      <c r="C253" s="11" t="s">
-        <v>665</v>
-      </c>
-      <c r="D253" s="11">
-        <v>0</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="C253" s="13" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D253" s="11"/>
       <c r="E253" s="11"/>
     </row>
     <row r="254" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -36175,8 +36200,8 @@
       <c r="B254" s="11">
         <v>187</v>
       </c>
-      <c r="C254" s="11" t="s">
-        <v>666</v>
+      <c r="C254" s="23" t="s">
+        <v>394</v>
       </c>
       <c r="D254" s="11">
         <v>0</v>
@@ -36191,7 +36216,7 @@
         <v>187</v>
       </c>
       <c r="C255" s="11" t="s">
-        <v>385</v>
+        <v>439</v>
       </c>
       <c r="D255" s="11">
         <v>0</v>
@@ -36206,14 +36231,12 @@
         <v>187</v>
       </c>
       <c r="C256" s="11" t="s">
-        <v>390</v>
+        <v>665</v>
       </c>
       <c r="D256" s="11">
         <v>0</v>
       </c>
-      <c r="E256" s="11">
-        <v>0.5</v>
-      </c>
+      <c r="E256" s="11"/>
     </row>
     <row r="257" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A257" s="11">
@@ -36223,24 +36246,22 @@
         <v>187</v>
       </c>
       <c r="C257" s="11" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D257" s="11">
         <v>0</v>
       </c>
-      <c r="E257" s="11">
-        <v>0.5</v>
-      </c>
+      <c r="E257" s="11"/>
     </row>
     <row r="258" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A258" s="11">
         <v>257</v>
       </c>
       <c r="B258" s="11">
-        <v>188</v>
-      </c>
-      <c r="C258" s="23" t="s">
-        <v>394</v>
+        <v>187</v>
+      </c>
+      <c r="C258" s="11" t="s">
+        <v>385</v>
       </c>
       <c r="D258" s="11">
         <v>0</v>
@@ -36252,44 +36273,46 @@
         <v>258</v>
       </c>
       <c r="B259" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C259" s="11" t="s">
-        <v>439</v>
+        <v>390</v>
       </c>
       <c r="D259" s="11">
         <v>0</v>
       </c>
-      <c r="E259" s="11"/>
+      <c r="E259" s="11">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="260" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A260" s="11">
         <v>259</v>
       </c>
       <c r="B260" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C260" s="11" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="D260" s="11">
         <v>0</v>
       </c>
-      <c r="E260" s="11"/>
+      <c r="E260" s="11">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="261" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A261" s="11">
         <v>260</v>
       </c>
       <c r="B261" s="11">
-        <v>188</v>
-      </c>
-      <c r="C261" s="11" t="s">
-        <v>666</v>
-      </c>
-      <c r="D261" s="11">
-        <v>0</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="C261" s="13" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D261" s="11"/>
       <c r="E261" s="11"/>
     </row>
     <row r="262" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -36299,8 +36322,8 @@
       <c r="B262" s="11">
         <v>188</v>
       </c>
-      <c r="C262" s="11" t="s">
-        <v>385</v>
+      <c r="C262" s="23" t="s">
+        <v>394</v>
       </c>
       <c r="D262" s="11">
         <v>0</v>
@@ -36315,14 +36338,12 @@
         <v>188</v>
       </c>
       <c r="C263" s="11" t="s">
-        <v>390</v>
+        <v>439</v>
       </c>
       <c r="D263" s="11">
         <v>0</v>
       </c>
-      <c r="E263" s="11">
-        <v>0.5</v>
-      </c>
+      <c r="E263" s="11"/>
     </row>
     <row r="264" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A264" s="11">
@@ -36332,24 +36353,22 @@
         <v>188</v>
       </c>
       <c r="C264" s="11" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="D264" s="11">
         <v>0</v>
       </c>
-      <c r="E264" s="11">
-        <v>0.5</v>
-      </c>
+      <c r="E264" s="11"/>
     </row>
     <row r="265" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A265" s="11">
         <v>264</v>
       </c>
       <c r="B265" s="11">
-        <v>189</v>
-      </c>
-      <c r="C265" s="23" t="s">
-        <v>394</v>
+        <v>188</v>
+      </c>
+      <c r="C265" s="11" t="s">
+        <v>666</v>
       </c>
       <c r="D265" s="11">
         <v>0</v>
@@ -36361,10 +36380,10 @@
         <v>265</v>
       </c>
       <c r="B266" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C266" s="11" t="s">
-        <v>439</v>
+        <v>385</v>
       </c>
       <c r="D266" s="11">
         <v>0</v>
@@ -36376,44 +36395,46 @@
         <v>266</v>
       </c>
       <c r="B267" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C267" s="11" t="s">
-        <v>665</v>
+        <v>390</v>
       </c>
       <c r="D267" s="11">
         <v>0</v>
       </c>
-      <c r="E267" s="11"/>
+      <c r="E267" s="11">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="268" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A268" s="11">
         <v>267</v>
       </c>
       <c r="B268" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C268" s="11" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D268" s="11">
         <v>0</v>
       </c>
-      <c r="E268" s="11"/>
+      <c r="E268" s="11">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="269" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A269" s="11">
         <v>268</v>
       </c>
       <c r="B269" s="11">
-        <v>189</v>
-      </c>
-      <c r="C269" s="11" t="s">
-        <v>385</v>
-      </c>
-      <c r="D269" s="11">
-        <v>0</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="C269" s="13" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D269" s="11"/>
       <c r="E269" s="11"/>
     </row>
     <row r="270" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -36423,15 +36444,13 @@
       <c r="B270" s="11">
         <v>189</v>
       </c>
-      <c r="C270" s="11" t="s">
-        <v>390</v>
+      <c r="C270" s="23" t="s">
+        <v>394</v>
       </c>
       <c r="D270" s="11">
         <v>0</v>
       </c>
-      <c r="E270" s="11">
-        <v>0.5</v>
-      </c>
+      <c r="E270" s="11"/>
     </row>
     <row r="271" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A271" s="11">
@@ -36441,24 +36460,22 @@
         <v>189</v>
       </c>
       <c r="C271" s="11" t="s">
-        <v>667</v>
+        <v>439</v>
       </c>
       <c r="D271" s="11">
         <v>0</v>
       </c>
-      <c r="E271" s="11">
-        <v>0.5</v>
-      </c>
+      <c r="E271" s="11"/>
     </row>
     <row r="272" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A272" s="11">
         <v>271</v>
       </c>
       <c r="B272" s="11">
-        <v>190</v>
-      </c>
-      <c r="C272" s="23" t="s">
-        <v>394</v>
+        <v>189</v>
+      </c>
+      <c r="C272" s="11" t="s">
+        <v>665</v>
       </c>
       <c r="D272" s="11">
         <v>0</v>
@@ -36470,10 +36487,10 @@
         <v>272</v>
       </c>
       <c r="B273" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C273" s="11" t="s">
-        <v>439</v>
+        <v>666</v>
       </c>
       <c r="D273" s="11">
         <v>0</v>
@@ -36485,10 +36502,10 @@
         <v>273</v>
       </c>
       <c r="B274" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C274" s="11" t="s">
-        <v>665</v>
+        <v>385</v>
       </c>
       <c r="D274" s="11">
         <v>0</v>
@@ -36500,47 +36517,47 @@
         <v>274</v>
       </c>
       <c r="B275" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C275" s="11" t="s">
-        <v>666</v>
+        <v>390</v>
       </c>
       <c r="D275" s="11">
         <v>0</v>
       </c>
-      <c r="E275" s="11"/>
+      <c r="E275" s="11">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="276" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A276" s="11">
         <v>275</v>
       </c>
       <c r="B276" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C276" s="11" t="s">
-        <v>385</v>
+        <v>667</v>
       </c>
       <c r="D276" s="11">
         <v>0</v>
       </c>
-      <c r="E276" s="11"/>
+      <c r="E276" s="11">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="277" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A277" s="11">
         <v>276</v>
       </c>
       <c r="B277" s="11">
-        <v>190</v>
-      </c>
-      <c r="C277" s="11" t="s">
-        <v>390</v>
-      </c>
-      <c r="D277" s="11">
-        <v>0</v>
-      </c>
-      <c r="E277" s="11">
-        <v>0.5</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="C277" s="13" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D277" s="11"/>
+      <c r="E277" s="11"/>
     </row>
     <row r="278" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A278" s="11">
@@ -36549,383 +36566,390 @@
       <c r="B278" s="11">
         <v>190</v>
       </c>
-      <c r="C278" s="11" t="s">
+      <c r="C278" s="23" t="s">
+        <v>394</v>
+      </c>
+      <c r="D278" s="11">
+        <v>0</v>
+      </c>
+      <c r="E278" s="11"/>
+    </row>
+    <row r="279" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A279" s="11">
+        <v>278</v>
+      </c>
+      <c r="B279" s="11">
+        <v>190</v>
+      </c>
+      <c r="C279" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="D279" s="11">
+        <v>0</v>
+      </c>
+      <c r="E279" s="11"/>
+    </row>
+    <row r="280" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A280" s="11">
+        <v>279</v>
+      </c>
+      <c r="B280" s="11">
+        <v>190</v>
+      </c>
+      <c r="C280" s="11" t="s">
+        <v>665</v>
+      </c>
+      <c r="D280" s="11">
+        <v>0</v>
+      </c>
+      <c r="E280" s="11"/>
+    </row>
+    <row r="281" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A281" s="11">
+        <v>280</v>
+      </c>
+      <c r="B281" s="11">
+        <v>190</v>
+      </c>
+      <c r="C281" s="11" t="s">
+        <v>666</v>
+      </c>
+      <c r="D281" s="11">
+        <v>0</v>
+      </c>
+      <c r="E281" s="11"/>
+    </row>
+    <row r="282" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A282" s="11">
+        <v>281</v>
+      </c>
+      <c r="B282" s="11">
+        <v>190</v>
+      </c>
+      <c r="C282" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="D282" s="11">
+        <v>0</v>
+      </c>
+      <c r="E282" s="11"/>
+    </row>
+    <row r="283" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A283" s="11">
+        <v>282</v>
+      </c>
+      <c r="B283" s="11">
+        <v>190</v>
+      </c>
+      <c r="C283" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="D283" s="11">
+        <v>0</v>
+      </c>
+      <c r="E283" s="11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A284" s="11">
+        <v>283</v>
+      </c>
+      <c r="B284" s="11">
+        <v>190</v>
+      </c>
+      <c r="C284" s="11" t="s">
         <v>667</v>
       </c>
-      <c r="D278" s="11">
-        <v>0</v>
-      </c>
-      <c r="E278" s="11">
+      <c r="D284" s="11">
+        <v>0</v>
+      </c>
+      <c r="E284" s="11">
         <v>0.5</v>
       </c>
     </row>
-    <row r="279" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A279" s="10">
-        <v>278</v>
-      </c>
-      <c r="B279" s="10">
-        <v>191</v>
-      </c>
-      <c r="C279" s="19" t="s">
-        <v>413</v>
-      </c>
-      <c r="D279" s="10">
-        <v>0</v>
-      </c>
-      <c r="E279" s="81"/>
-    </row>
-    <row r="280" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A280" s="10">
-        <v>279</v>
-      </c>
-      <c r="B280" s="10">
-        <v>192</v>
-      </c>
-      <c r="C280" s="19" t="s">
-        <v>1194</v>
-      </c>
-      <c r="D280" s="10">
-        <v>247</v>
-      </c>
-      <c r="E280" s="81"/>
-    </row>
-    <row r="281" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A281" s="10">
-        <v>280</v>
-      </c>
-      <c r="B281" s="10">
-        <v>193</v>
-      </c>
-      <c r="C281" s="19" t="s">
-        <v>1194</v>
-      </c>
-      <c r="D281" s="10">
-        <v>248</v>
-      </c>
-      <c r="E281" s="10"/>
-    </row>
-    <row r="282" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A282" s="10">
-        <v>281</v>
-      </c>
-      <c r="B282" s="10">
-        <v>194</v>
-      </c>
-      <c r="C282" s="19" t="s">
-        <v>1194</v>
-      </c>
-      <c r="D282" s="10">
-        <v>249</v>
-      </c>
-      <c r="E282" s="81"/>
-    </row>
-    <row r="283" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A283" s="10">
-        <v>282</v>
-      </c>
-      <c r="B283" s="10">
-        <v>195</v>
-      </c>
-      <c r="C283" s="19" t="s">
-        <v>1194</v>
-      </c>
-      <c r="D283" s="10">
-        <v>250</v>
-      </c>
-      <c r="E283" s="10"/>
-    </row>
-    <row r="284" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A284" s="10">
-        <v>283</v>
-      </c>
-      <c r="B284" s="10">
-        <v>196</v>
-      </c>
-      <c r="C284" s="19" t="s">
-        <v>1194</v>
-      </c>
-      <c r="D284" s="10">
-        <v>251</v>
-      </c>
-      <c r="E284" s="81"/>
-    </row>
     <row r="285" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A285" s="10">
+      <c r="A285" s="11">
         <v>284</v>
       </c>
-      <c r="B285" s="10">
-        <v>197</v>
-      </c>
-      <c r="C285" s="19" t="s">
-        <v>1194</v>
-      </c>
-      <c r="D285" s="10">
-        <v>252</v>
-      </c>
-      <c r="E285" s="10"/>
+      <c r="B285" s="11">
+        <v>190</v>
+      </c>
+      <c r="C285" s="13" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D285" s="11"/>
+      <c r="E285" s="11"/>
     </row>
     <row r="286" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A286" s="11">
         <v>285</v>
       </c>
-      <c r="B286" s="11">
-        <v>198</v>
-      </c>
-      <c r="C286" s="11"/>
-      <c r="D286" s="11">
-        <v>0</v>
-      </c>
+      <c r="B286" s="10">
+        <v>191</v>
+      </c>
+      <c r="C286" s="19" t="s">
+        <v>413</v>
+      </c>
+      <c r="D286" s="10">
+        <v>0</v>
+      </c>
+      <c r="E286" s="81"/>
     </row>
     <row r="287" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A287" s="11">
         <v>286</v>
       </c>
-      <c r="B287" s="11">
-        <v>199</v>
-      </c>
-      <c r="C287" s="13" t="s">
-        <v>420</v>
-      </c>
-      <c r="D287" s="11">
-        <v>0</v>
-      </c>
+      <c r="B287" s="10">
+        <v>192</v>
+      </c>
+      <c r="C287" s="19" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D287" s="10">
+        <v>247</v>
+      </c>
+      <c r="E287" s="81"/>
     </row>
     <row r="288" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A288" s="11">
         <v>287</v>
       </c>
-      <c r="B288" s="11">
-        <v>200</v>
-      </c>
-      <c r="C288" s="13" t="s">
-        <v>420</v>
-      </c>
-      <c r="D288" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B288" s="10">
+        <v>193</v>
+      </c>
+      <c r="C288" s="19" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D288" s="10">
+        <v>248</v>
+      </c>
+      <c r="E288" s="10"/>
+    </row>
+    <row r="289" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A289" s="11">
         <v>288</v>
       </c>
-      <c r="B289" s="11">
-        <v>201</v>
-      </c>
-      <c r="C289" s="11" t="s">
-        <v>420</v>
-      </c>
-      <c r="D289" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B289" s="10">
+        <v>194</v>
+      </c>
+      <c r="C289" s="19" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D289" s="10">
+        <v>249</v>
+      </c>
+      <c r="E289" s="81"/>
+    </row>
+    <row r="290" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A290" s="11">
         <v>289</v>
       </c>
-      <c r="B290" s="11">
-        <v>202</v>
-      </c>
-      <c r="C290" s="13" t="s">
-        <v>420</v>
-      </c>
-      <c r="D290" s="11">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B290" s="10">
+        <v>195</v>
+      </c>
+      <c r="C290" s="19" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D290" s="10">
+        <v>250</v>
+      </c>
+      <c r="E290" s="10"/>
+    </row>
+    <row r="291" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A291" s="11">
         <v>290</v>
       </c>
-      <c r="B291" s="11">
-        <v>203</v>
-      </c>
-      <c r="C291" s="11" t="s">
-        <v>420</v>
-      </c>
-      <c r="D291" s="11">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B291" s="10">
+        <v>196</v>
+      </c>
+      <c r="C291" s="19" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D291" s="10">
+        <v>251</v>
+      </c>
+      <c r="E291" s="81"/>
+    </row>
+    <row r="292" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A292" s="11">
         <v>291</v>
       </c>
-      <c r="B292" s="11">
-        <v>204</v>
-      </c>
-      <c r="C292" s="11" t="s">
-        <v>420</v>
-      </c>
-      <c r="D292" s="11">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B292" s="10">
+        <v>197</v>
+      </c>
+      <c r="C292" s="19" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D292" s="10">
+        <v>252</v>
+      </c>
+      <c r="E292" s="10"/>
+    </row>
+    <row r="293" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A293" s="11">
         <v>292</v>
       </c>
       <c r="B293" s="11">
-        <v>205</v>
-      </c>
-      <c r="C293" s="11" t="s">
-        <v>420</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="C293" s="11"/>
       <c r="D293" s="11">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A294" s="11">
         <v>293</v>
       </c>
       <c r="B294" s="11">
-        <v>206</v>
-      </c>
-      <c r="C294" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="C294" s="13" t="s">
         <v>420</v>
       </c>
       <c r="D294" s="11">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A295" s="11">
         <v>294</v>
       </c>
       <c r="B295" s="11">
-        <v>207</v>
-      </c>
-      <c r="C295" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="C295" s="13" t="s">
         <v>420</v>
       </c>
       <c r="D295" s="11">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A296" s="11">
         <v>295</v>
       </c>
       <c r="B296" s="11">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C296" s="11" t="s">
         <v>420</v>
       </c>
       <c r="D296" s="11">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A297" s="11">
         <v>296</v>
       </c>
       <c r="B297" s="11">
-        <v>209</v>
-      </c>
-      <c r="C297" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="C297" s="13" t="s">
         <v>420</v>
       </c>
       <c r="D297" s="11">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A298" s="11">
         <v>297</v>
       </c>
       <c r="B298" s="11">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C298" s="11" t="s">
         <v>420</v>
       </c>
       <c r="D298" s="11">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A299" s="11">
         <v>298</v>
       </c>
       <c r="B299" s="11">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C299" s="11" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="D299" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A300" s="11">
         <v>299</v>
       </c>
       <c r="B300" s="11">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C300" s="11" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D300" s="11">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A301" s="11">
         <v>300</v>
       </c>
       <c r="B301" s="11">
-        <v>213</v>
-      </c>
-      <c r="C301" s="13" t="s">
-        <v>603</v>
+        <v>206</v>
+      </c>
+      <c r="C301" s="11" t="s">
+        <v>420</v>
       </c>
       <c r="D301" s="11">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A302" s="11">
         <v>301</v>
       </c>
       <c r="B302" s="11">
-        <v>214</v>
-      </c>
-      <c r="C302" s="13" t="s">
-        <v>605</v>
+        <v>207</v>
+      </c>
+      <c r="C302" s="11" t="s">
+        <v>420</v>
       </c>
       <c r="D302" s="11">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A303" s="11">
         <v>302</v>
       </c>
       <c r="B303" s="11">
-        <v>215</v>
-      </c>
-      <c r="C303" s="13" t="s">
-        <v>605</v>
+        <v>208</v>
+      </c>
+      <c r="C303" s="11" t="s">
+        <v>420</v>
       </c>
       <c r="D303" s="11">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A304" s="11">
         <v>303</v>
       </c>
       <c r="B304" s="11">
-        <v>216</v>
-      </c>
-      <c r="C304" s="13" t="s">
-        <v>605</v>
+        <v>209</v>
+      </c>
+      <c r="C304" s="11" t="s">
+        <v>420</v>
       </c>
       <c r="D304" s="11">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="305" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -36933,13 +36957,13 @@
         <v>304</v>
       </c>
       <c r="B305" s="11">
-        <v>217</v>
-      </c>
-      <c r="C305" s="13" t="s">
-        <v>605</v>
+        <v>210</v>
+      </c>
+      <c r="C305" s="11" t="s">
+        <v>420</v>
       </c>
       <c r="D305" s="11">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="306" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -36947,13 +36971,13 @@
         <v>305</v>
       </c>
       <c r="B306" s="11">
-        <v>218</v>
-      </c>
-      <c r="C306" s="13" t="s">
-        <v>605</v>
+        <v>211</v>
+      </c>
+      <c r="C306" s="11" t="s">
+        <v>413</v>
       </c>
       <c r="D306" s="11">
-        <v>133</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -36961,13 +36985,13 @@
         <v>306</v>
       </c>
       <c r="B307" s="11">
-        <v>219</v>
-      </c>
-      <c r="C307" s="16" t="s">
-        <v>543</v>
-      </c>
-      <c r="D307" s="12">
-        <v>134</v>
+        <v>212</v>
+      </c>
+      <c r="C307" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="D307" s="11">
+        <v>127</v>
       </c>
     </row>
     <row r="308" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -36975,13 +36999,13 @@
         <v>307</v>
       </c>
       <c r="B308" s="11">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C308" s="13" t="s">
-        <v>543</v>
+        <v>603</v>
       </c>
       <c r="D308" s="11">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="309" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -36989,13 +37013,13 @@
         <v>308</v>
       </c>
       <c r="B309" s="11">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C309" s="13" t="s">
-        <v>543</v>
+        <v>605</v>
       </c>
       <c r="D309" s="11">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="310" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -37003,13 +37027,13 @@
         <v>309</v>
       </c>
       <c r="B310" s="11">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C310" s="13" t="s">
-        <v>469</v>
+        <v>605</v>
       </c>
       <c r="D310" s="11">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="311" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -37017,13 +37041,13 @@
         <v>310</v>
       </c>
       <c r="B311" s="11">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C311" s="13" t="s">
-        <v>547</v>
-      </c>
-      <c r="D311" s="12">
-        <v>138</v>
+        <v>605</v>
+      </c>
+      <c r="D311" s="11">
+        <v>131</v>
       </c>
     </row>
     <row r="312" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -37031,13 +37055,13 @@
         <v>311</v>
       </c>
       <c r="B312" s="11">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="C312" s="13" t="s">
-        <v>547</v>
-      </c>
-      <c r="D312" s="12">
-        <v>139</v>
+        <v>605</v>
+      </c>
+      <c r="D312" s="11">
+        <v>132</v>
       </c>
     </row>
     <row r="313" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -37045,13 +37069,13 @@
         <v>312</v>
       </c>
       <c r="B313" s="11">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C313" s="13" t="s">
-        <v>547</v>
-      </c>
-      <c r="D313" s="12">
-        <v>140</v>
+        <v>605</v>
+      </c>
+      <c r="D313" s="11">
+        <v>133</v>
       </c>
     </row>
     <row r="314" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -37059,13 +37083,13 @@
         <v>313</v>
       </c>
       <c r="B314" s="11">
-        <v>226</v>
-      </c>
-      <c r="C314" s="13" t="s">
-        <v>547</v>
+        <v>219</v>
+      </c>
+      <c r="C314" s="16" t="s">
+        <v>543</v>
       </c>
       <c r="D314" s="12">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="315" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -37073,13 +37097,13 @@
         <v>314</v>
       </c>
       <c r="B315" s="11">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C315" s="13" t="s">
-        <v>547</v>
-      </c>
-      <c r="D315" s="12">
-        <v>142</v>
+        <v>543</v>
+      </c>
+      <c r="D315" s="11">
+        <v>135</v>
       </c>
     </row>
     <row r="316" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -37087,13 +37111,13 @@
         <v>315</v>
       </c>
       <c r="B316" s="11">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="C316" s="13" t="s">
-        <v>547</v>
-      </c>
-      <c r="D316" s="12">
-        <v>143</v>
+        <v>543</v>
+      </c>
+      <c r="D316" s="11">
+        <v>136</v>
       </c>
     </row>
     <row r="317" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -37101,13 +37125,13 @@
         <v>316</v>
       </c>
       <c r="B317" s="11">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C317" s="13" t="s">
-        <v>547</v>
-      </c>
-      <c r="D317" s="12">
-        <v>144</v>
+        <v>469</v>
+      </c>
+      <c r="D317" s="11">
+        <v>137</v>
       </c>
     </row>
     <row r="318" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -37115,13 +37139,13 @@
         <v>317</v>
       </c>
       <c r="B318" s="11">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C318" s="13" t="s">
         <v>547</v>
       </c>
       <c r="D318" s="12">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="319" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -37129,13 +37153,13 @@
         <v>318</v>
       </c>
       <c r="B319" s="11">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="C319" s="13" t="s">
-        <v>469</v>
-      </c>
-      <c r="D319" s="11">
-        <v>146</v>
+        <v>547</v>
+      </c>
+      <c r="D319" s="12">
+        <v>139</v>
       </c>
     </row>
     <row r="320" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -37143,13 +37167,13 @@
         <v>319</v>
       </c>
       <c r="B320" s="11">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C320" s="13" t="s">
-        <v>419</v>
+        <v>547</v>
       </c>
       <c r="D320" s="12">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="321" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -37157,13 +37181,13 @@
         <v>320</v>
       </c>
       <c r="B321" s="11">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C321" s="13" t="s">
-        <v>419</v>
+        <v>547</v>
       </c>
       <c r="D321" s="12">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="322" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -37171,13 +37195,13 @@
         <v>321</v>
       </c>
       <c r="B322" s="11">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="C322" s="13" t="s">
-        <v>419</v>
+        <v>547</v>
       </c>
       <c r="D322" s="12">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="323" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -37185,13 +37209,13 @@
         <v>322</v>
       </c>
       <c r="B323" s="11">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C323" s="13" t="s">
         <v>547</v>
       </c>
       <c r="D323" s="12">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="324" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -37199,13 +37223,13 @@
         <v>323</v>
       </c>
       <c r="B324" s="11">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="C324" s="13" t="s">
         <v>547</v>
       </c>
       <c r="D324" s="12">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="325" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -37213,13 +37237,13 @@
         <v>324</v>
       </c>
       <c r="B325" s="11">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C325" s="13" t="s">
         <v>547</v>
       </c>
       <c r="D325" s="12">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="326" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -37227,13 +37251,13 @@
         <v>325</v>
       </c>
       <c r="B326" s="11">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C326" s="13" t="s">
-        <v>547</v>
-      </c>
-      <c r="D326" s="12">
-        <v>141</v>
+        <v>469</v>
+      </c>
+      <c r="D326" s="11">
+        <v>146</v>
       </c>
     </row>
     <row r="327" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -37241,13 +37265,13 @@
         <v>326</v>
       </c>
       <c r="B327" s="11">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C327" s="13" t="s">
-        <v>615</v>
-      </c>
-      <c r="D327" s="11">
-        <v>150</v>
+        <v>419</v>
+      </c>
+      <c r="D327" s="12">
+        <v>147</v>
       </c>
     </row>
     <row r="328" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -37255,13 +37279,13 @@
         <v>327</v>
       </c>
       <c r="B328" s="11">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C328" s="13" t="s">
-        <v>615</v>
-      </c>
-      <c r="D328" s="11">
-        <v>151</v>
+        <v>419</v>
+      </c>
+      <c r="D328" s="12">
+        <v>148</v>
       </c>
     </row>
     <row r="329" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -37269,13 +37293,13 @@
         <v>328</v>
       </c>
       <c r="B329" s="11">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C329" s="13" t="s">
-        <v>615</v>
-      </c>
-      <c r="D329" s="11">
-        <v>152</v>
+        <v>419</v>
+      </c>
+      <c r="D329" s="12">
+        <v>149</v>
       </c>
     </row>
     <row r="330" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -37283,13 +37307,13 @@
         <v>329</v>
       </c>
       <c r="B330" s="11">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C330" s="13" t="s">
-        <v>615</v>
-      </c>
-      <c r="D330" s="11">
-        <v>153</v>
+        <v>547</v>
+      </c>
+      <c r="D330" s="12">
+        <v>138</v>
       </c>
     </row>
     <row r="331" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -37297,13 +37321,13 @@
         <v>330</v>
       </c>
       <c r="B331" s="11">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C331" s="13" t="s">
-        <v>615</v>
-      </c>
-      <c r="D331" s="11">
-        <v>154</v>
+        <v>547</v>
+      </c>
+      <c r="D331" s="12">
+        <v>139</v>
       </c>
     </row>
     <row r="332" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -37311,13 +37335,13 @@
         <v>331</v>
       </c>
       <c r="B332" s="11">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C332" s="13" t="s">
-        <v>615</v>
-      </c>
-      <c r="D332" s="11">
-        <v>155</v>
+        <v>547</v>
+      </c>
+      <c r="D332" s="12">
+        <v>140</v>
       </c>
     </row>
     <row r="333" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -37325,13 +37349,13 @@
         <v>332</v>
       </c>
       <c r="B333" s="11">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C333" s="13" t="s">
-        <v>615</v>
-      </c>
-      <c r="D333" s="11">
-        <v>156</v>
+        <v>547</v>
+      </c>
+      <c r="D333" s="12">
+        <v>141</v>
       </c>
     </row>
     <row r="334" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -37339,13 +37363,13 @@
         <v>333</v>
       </c>
       <c r="B334" s="11">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C334" s="13" t="s">
         <v>615</v>
       </c>
       <c r="D334" s="11">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="335" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -37353,13 +37377,13 @@
         <v>334</v>
       </c>
       <c r="B335" s="11">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C335" s="13" t="s">
         <v>615</v>
       </c>
       <c r="D335" s="11">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="336" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -37367,13 +37391,13 @@
         <v>335</v>
       </c>
       <c r="B336" s="11">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="C336" s="13" t="s">
         <v>615</v>
       </c>
       <c r="D336" s="11">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="337" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -37381,13 +37405,13 @@
         <v>336</v>
       </c>
       <c r="B337" s="11">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C337" s="13" t="s">
         <v>615</v>
       </c>
       <c r="D337" s="11">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="338" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -37395,13 +37419,13 @@
         <v>337</v>
       </c>
       <c r="B338" s="11">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C338" s="13" t="s">
         <v>615</v>
       </c>
       <c r="D338" s="11">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="339" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -37409,13 +37433,13 @@
         <v>338</v>
       </c>
       <c r="B339" s="11">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="C339" s="13" t="s">
-        <v>410</v>
-      </c>
-      <c r="D339" s="12">
-        <v>0</v>
+        <v>615</v>
+      </c>
+      <c r="D339" s="11">
+        <v>155</v>
       </c>
     </row>
     <row r="340" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -37423,13 +37447,13 @@
         <v>339</v>
       </c>
       <c r="B340" s="11">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C340" s="13" t="s">
-        <v>410</v>
-      </c>
-      <c r="D340" s="12">
-        <v>0</v>
+        <v>615</v>
+      </c>
+      <c r="D340" s="11">
+        <v>156</v>
       </c>
     </row>
     <row r="341" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -37437,13 +37461,13 @@
         <v>340</v>
       </c>
       <c r="B341" s="11">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="C341" s="13" t="s">
-        <v>410</v>
-      </c>
-      <c r="D341" s="12">
-        <v>0</v>
+        <v>615</v>
+      </c>
+      <c r="D341" s="11">
+        <v>157</v>
       </c>
     </row>
     <row r="342" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -37451,13 +37475,13 @@
         <v>341</v>
       </c>
       <c r="B342" s="11">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="C342" s="13" t="s">
-        <v>410</v>
-      </c>
-      <c r="D342" s="12">
-        <v>0</v>
+        <v>615</v>
+      </c>
+      <c r="D342" s="11">
+        <v>158</v>
       </c>
     </row>
     <row r="343" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -37465,13 +37489,13 @@
         <v>342</v>
       </c>
       <c r="B343" s="11">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C343" s="13" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="D343" s="11">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="344" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -37479,13 +37503,13 @@
         <v>343</v>
       </c>
       <c r="B344" s="11">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C344" s="13" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="D344" s="11">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="345" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -37493,91 +37517,83 @@
         <v>344</v>
       </c>
       <c r="B345" s="11">
-        <v>257</v>
-      </c>
-      <c r="C345" s="23" t="s">
-        <v>394</v>
+        <v>250</v>
+      </c>
+      <c r="C345" s="13" t="s">
+        <v>615</v>
       </c>
       <c r="D345" s="11">
-        <v>0</v>
-      </c>
-      <c r="E345" s="11"/>
+        <v>161</v>
+      </c>
     </row>
     <row r="346" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A346" s="11">
         <v>345</v>
       </c>
       <c r="B346" s="11">
-        <v>257</v>
-      </c>
-      <c r="C346" s="11" t="s">
-        <v>439</v>
-      </c>
-      <c r="D346" s="11">
-        <v>0</v>
-      </c>
-      <c r="E346" s="11"/>
+        <v>251</v>
+      </c>
+      <c r="C346" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="D346" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="347" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A347" s="11">
         <v>346</v>
       </c>
       <c r="B347" s="11">
-        <v>257</v>
-      </c>
-      <c r="C347" s="11" t="s">
-        <v>665</v>
-      </c>
-      <c r="D347" s="11">
-        <v>0</v>
-      </c>
-      <c r="E347" s="11"/>
+        <v>252</v>
+      </c>
+      <c r="C347" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="D347" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="348" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A348" s="11">
         <v>347</v>
       </c>
       <c r="B348" s="11">
-        <v>257</v>
-      </c>
-      <c r="C348" s="11" t="s">
-        <v>666</v>
-      </c>
-      <c r="D348" s="11">
-        <v>0</v>
-      </c>
-      <c r="E348" s="11"/>
+        <v>253</v>
+      </c>
+      <c r="C348" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="D348" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="349" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A349" s="11">
         <v>348</v>
       </c>
       <c r="B349" s="11">
-        <v>257</v>
-      </c>
-      <c r="C349" s="11" t="s">
-        <v>385</v>
-      </c>
-      <c r="D349" s="11">
-        <v>0</v>
-      </c>
-      <c r="E349" s="11"/>
+        <v>254</v>
+      </c>
+      <c r="C349" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="D349" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="350" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A350" s="11">
         <v>349</v>
       </c>
       <c r="B350" s="11">
-        <v>257</v>
-      </c>
-      <c r="C350" s="11" t="s">
-        <v>390</v>
+        <v>255</v>
+      </c>
+      <c r="C350" s="13" t="s">
+        <v>619</v>
       </c>
       <c r="D350" s="11">
-        <v>0</v>
-      </c>
-      <c r="E350" s="11">
-        <v>0.5</v>
+        <v>166</v>
       </c>
     </row>
     <row r="351" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -37585,16 +37601,13 @@
         <v>350</v>
       </c>
       <c r="B351" s="11">
-        <v>257</v>
-      </c>
-      <c r="C351" s="11" t="s">
-        <v>667</v>
+        <v>256</v>
+      </c>
+      <c r="C351" s="13" t="s">
+        <v>621</v>
       </c>
       <c r="D351" s="11">
-        <v>0</v>
-      </c>
-      <c r="E351" s="11">
-        <v>0.5</v>
+        <v>167</v>
       </c>
     </row>
     <row r="352" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -37602,235 +37615,246 @@
         <v>351</v>
       </c>
       <c r="B352" s="11">
-        <v>258</v>
-      </c>
-      <c r="C352" s="13"/>
+        <v>257</v>
+      </c>
+      <c r="C352" s="23" t="s">
+        <v>394</v>
+      </c>
       <c r="D352" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="353" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E352" s="11"/>
+    </row>
+    <row r="353" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A353" s="11">
         <v>352</v>
       </c>
       <c r="B353" s="11">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C353" s="11" t="s">
-        <v>419</v>
+        <v>439</v>
       </c>
       <c r="D353" s="11">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="354" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="E353" s="11"/>
+    </row>
+    <row r="354" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A354" s="11">
         <v>353</v>
       </c>
       <c r="B354" s="11">
-        <v>260</v>
-      </c>
-      <c r="C354" s="13" t="s">
-        <v>436</v>
+        <v>257</v>
+      </c>
+      <c r="C354" s="11" t="s">
+        <v>665</v>
       </c>
       <c r="D354" s="11">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="355" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="E354" s="11"/>
+    </row>
+    <row r="355" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A355" s="11">
         <v>354</v>
       </c>
       <c r="B355" s="11">
-        <v>261</v>
-      </c>
-      <c r="C355" s="13" t="s">
-        <v>436</v>
+        <v>257</v>
+      </c>
+      <c r="C355" s="11" t="s">
+        <v>666</v>
       </c>
       <c r="D355" s="11">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="356" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="E355" s="11"/>
+    </row>
+    <row r="356" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A356" s="11">
         <v>355</v>
       </c>
       <c r="B356" s="11">
-        <v>262</v>
-      </c>
-      <c r="C356" s="13" t="s">
-        <v>436</v>
+        <v>257</v>
+      </c>
+      <c r="C356" s="11" t="s">
+        <v>385</v>
       </c>
       <c r="D356" s="11">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="357" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="E356" s="11"/>
+    </row>
+    <row r="357" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A357" s="11">
         <v>356</v>
       </c>
       <c r="B357" s="11">
-        <v>263</v>
-      </c>
-      <c r="C357" s="13" t="s">
-        <v>628</v>
+        <v>257</v>
+      </c>
+      <c r="C357" s="11" t="s">
+        <v>390</v>
       </c>
       <c r="D357" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="358" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E357" s="11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A358" s="11">
         <v>357</v>
       </c>
       <c r="B358" s="11">
-        <v>264</v>
-      </c>
-      <c r="C358" s="13" t="s">
-        <v>1071</v>
+        <v>257</v>
+      </c>
+      <c r="C358" s="11" t="s">
+        <v>667</v>
       </c>
       <c r="D358" s="11">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="359" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="E358" s="11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A359" s="11">
         <v>358</v>
       </c>
       <c r="B359" s="11">
-        <v>265</v>
-      </c>
-      <c r="C359" s="13" t="s">
-        <v>436</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="C359" s="13"/>
       <c r="D359" s="11">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="360" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A360" s="11">
         <v>359</v>
       </c>
       <c r="B360" s="11">
-        <v>266</v>
-      </c>
-      <c r="C360" s="13" t="s">
-        <v>436</v>
+        <v>259</v>
+      </c>
+      <c r="C360" s="11" t="s">
+        <v>419</v>
       </c>
       <c r="D360" s="11">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="361" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A361" s="11">
         <v>360</v>
       </c>
       <c r="B361" s="11">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C361" s="13" t="s">
         <v>436</v>
       </c>
       <c r="D361" s="11">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="362" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A362" s="11">
         <v>361</v>
       </c>
       <c r="B362" s="11">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C362" s="13" t="s">
-        <v>631</v>
+        <v>436</v>
       </c>
       <c r="D362" s="11">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="363" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A363" s="11">
         <v>362</v>
       </c>
       <c r="B363" s="11">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="C363" s="13" t="s">
-        <v>631</v>
+        <v>436</v>
       </c>
       <c r="D363" s="11">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="364" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A364" s="11">
         <v>363</v>
       </c>
       <c r="B364" s="11">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C364" s="13" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="D364" s="11">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="365" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A365" s="11">
         <v>364</v>
       </c>
       <c r="B365" s="11">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C365" s="13" t="s">
-        <v>469</v>
-      </c>
-      <c r="D365" s="12">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="366" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1071</v>
+      </c>
+      <c r="D365" s="11">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A366" s="11">
         <v>365</v>
       </c>
       <c r="B366" s="11">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="C366" s="13" t="s">
         <v>436</v>
       </c>
-      <c r="D366" s="12">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="367" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D366" s="11">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A367" s="11">
         <v>366</v>
       </c>
       <c r="B367" s="11">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C367" s="13" t="s">
         <v>436</v>
       </c>
-      <c r="D367" s="12">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="368" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D367" s="11">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A368" s="11">
         <v>367</v>
       </c>
       <c r="B368" s="11">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C368" s="13" t="s">
         <v>436</v>
       </c>
-      <c r="D368" s="12">
-        <v>182</v>
+      <c r="D368" s="11">
+        <v>175</v>
       </c>
     </row>
     <row r="369" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -37838,11 +37862,13 @@
         <v>368</v>
       </c>
       <c r="B369" s="11">
-        <v>275</v>
-      </c>
-      <c r="C369" s="11"/>
-      <c r="D369" s="12">
-        <v>0</v>
+        <v>268</v>
+      </c>
+      <c r="C369" s="13" t="s">
+        <v>631</v>
+      </c>
+      <c r="D369" s="11">
+        <v>176</v>
       </c>
     </row>
     <row r="370" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -37850,11 +37876,13 @@
         <v>369</v>
       </c>
       <c r="B370" s="11">
-        <v>276</v>
-      </c>
-      <c r="C370" s="11"/>
-      <c r="D370" s="12">
-        <v>0</v>
+        <v>269</v>
+      </c>
+      <c r="C370" s="13" t="s">
+        <v>631</v>
+      </c>
+      <c r="D370" s="11">
+        <v>177</v>
       </c>
     </row>
     <row r="371" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -37862,11 +37890,13 @@
         <v>370</v>
       </c>
       <c r="B371" s="11">
-        <v>277</v>
-      </c>
-      <c r="C371" s="11"/>
-      <c r="D371" s="12">
-        <v>0</v>
+        <v>270</v>
+      </c>
+      <c r="C371" s="13" t="s">
+        <v>631</v>
+      </c>
+      <c r="D371" s="11">
+        <v>178</v>
       </c>
     </row>
     <row r="372" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -37874,11 +37904,13 @@
         <v>371</v>
       </c>
       <c r="B372" s="11">
-        <v>278</v>
-      </c>
-      <c r="C372" s="11"/>
+        <v>271</v>
+      </c>
+      <c r="C372" s="13" t="s">
+        <v>469</v>
+      </c>
       <c r="D372" s="12">
-        <v>0</v>
+        <v>179</v>
       </c>
     </row>
     <row r="373" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -37886,11 +37918,13 @@
         <v>372</v>
       </c>
       <c r="B373" s="11">
-        <v>279</v>
-      </c>
-      <c r="C373" s="11"/>
+        <v>272</v>
+      </c>
+      <c r="C373" s="13" t="s">
+        <v>436</v>
+      </c>
       <c r="D373" s="12">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="374" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -37898,11 +37932,13 @@
         <v>373</v>
       </c>
       <c r="B374" s="11">
-        <v>280</v>
-      </c>
-      <c r="C374" s="11"/>
+        <v>273</v>
+      </c>
+      <c r="C374" s="13" t="s">
+        <v>436</v>
+      </c>
       <c r="D374" s="12">
-        <v>0</v>
+        <v>181</v>
       </c>
     </row>
     <row r="375" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -37910,11 +37946,13 @@
         <v>374</v>
       </c>
       <c r="B375" s="11">
-        <v>281</v>
-      </c>
-      <c r="C375" s="11"/>
+        <v>274</v>
+      </c>
+      <c r="C375" s="13" t="s">
+        <v>436</v>
+      </c>
       <c r="D375" s="12">
-        <v>0</v>
+        <v>182</v>
       </c>
     </row>
     <row r="376" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -37922,7 +37960,7 @@
         <v>375</v>
       </c>
       <c r="B376" s="11">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="C376" s="11"/>
       <c r="D376" s="12">
@@ -37934,7 +37972,7 @@
         <v>376</v>
       </c>
       <c r="B377" s="11">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="C377" s="11"/>
       <c r="D377" s="12">
@@ -37946,7 +37984,7 @@
         <v>377</v>
       </c>
       <c r="B378" s="11">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C378" s="11"/>
       <c r="D378" s="12">
@@ -37958,7 +37996,7 @@
         <v>378</v>
       </c>
       <c r="B379" s="11">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C379" s="11"/>
       <c r="D379" s="12">
@@ -37970,7 +38008,7 @@
         <v>379</v>
       </c>
       <c r="B380" s="11">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="C380" s="11"/>
       <c r="D380" s="12">
@@ -37982,7 +38020,7 @@
         <v>380</v>
       </c>
       <c r="B381" s="11">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C381" s="11"/>
       <c r="D381" s="12">
@@ -37994,7 +38032,7 @@
         <v>381</v>
       </c>
       <c r="B382" s="11">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="C382" s="11"/>
       <c r="D382" s="12">
@@ -38006,7 +38044,7 @@
         <v>382</v>
       </c>
       <c r="B383" s="11">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C383" s="11"/>
       <c r="D383" s="12">
@@ -38018,13 +38056,11 @@
         <v>383</v>
       </c>
       <c r="B384" s="11">
-        <v>290</v>
-      </c>
-      <c r="C384" s="13" t="s">
-        <v>436</v>
-      </c>
-      <c r="D384" s="11">
-        <v>183</v>
+        <v>283</v>
+      </c>
+      <c r="C384" s="11"/>
+      <c r="D384" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -38032,13 +38068,11 @@
         <v>384</v>
       </c>
       <c r="B385" s="11">
-        <v>291</v>
-      </c>
-      <c r="C385" s="13" t="s">
-        <v>436</v>
-      </c>
-      <c r="D385" s="11">
-        <v>184</v>
+        <v>284</v>
+      </c>
+      <c r="C385" s="11"/>
+      <c r="D385" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -38046,13 +38080,11 @@
         <v>385</v>
       </c>
       <c r="B386" s="11">
-        <v>292</v>
-      </c>
-      <c r="C386" s="13" t="s">
-        <v>436</v>
-      </c>
-      <c r="D386" s="11">
-        <v>185</v>
+        <v>285</v>
+      </c>
+      <c r="C386" s="11"/>
+      <c r="D386" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -38060,13 +38092,11 @@
         <v>386</v>
       </c>
       <c r="B387" s="11">
-        <v>293</v>
-      </c>
-      <c r="C387" s="13" t="s">
-        <v>436</v>
-      </c>
-      <c r="D387" s="11">
-        <v>186</v>
+        <v>286</v>
+      </c>
+      <c r="C387" s="11"/>
+      <c r="D387" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -38074,13 +38104,11 @@
         <v>387</v>
       </c>
       <c r="B388" s="11">
-        <v>294</v>
-      </c>
-      <c r="C388" s="13" t="s">
-        <v>436</v>
-      </c>
-      <c r="D388" s="11">
-        <v>187</v>
+        <v>287</v>
+      </c>
+      <c r="C388" s="11"/>
+      <c r="D388" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -38088,12 +38116,10 @@
         <v>388</v>
       </c>
       <c r="B389" s="11">
-        <v>295</v>
-      </c>
-      <c r="C389" s="11" t="s">
-        <v>664</v>
-      </c>
-      <c r="D389" s="11">
+        <v>288</v>
+      </c>
+      <c r="C389" s="11"/>
+      <c r="D389" s="12">
         <v>0</v>
       </c>
     </row>
@@ -38102,91 +38128,81 @@
         <v>389</v>
       </c>
       <c r="B390" s="11">
-        <v>295</v>
-      </c>
-      <c r="C390" s="23" t="s">
-        <v>394</v>
-      </c>
-      <c r="D390" s="11">
-        <v>0</v>
-      </c>
-      <c r="E390" s="11"/>
+        <v>289</v>
+      </c>
+      <c r="C390" s="11"/>
+      <c r="D390" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="391" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A391" s="11">
         <v>390</v>
       </c>
       <c r="B391" s="11">
-        <v>295</v>
-      </c>
-      <c r="C391" s="11" t="s">
-        <v>439</v>
+        <v>290</v>
+      </c>
+      <c r="C391" s="13" t="s">
+        <v>436</v>
       </c>
       <c r="D391" s="11">
-        <v>0</v>
-      </c>
-      <c r="E391" s="11"/>
+        <v>183</v>
+      </c>
     </row>
     <row r="392" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A392" s="11">
         <v>391</v>
       </c>
       <c r="B392" s="11">
-        <v>295</v>
-      </c>
-      <c r="C392" s="11" t="s">
-        <v>665</v>
+        <v>291</v>
+      </c>
+      <c r="C392" s="13" t="s">
+        <v>436</v>
       </c>
       <c r="D392" s="11">
-        <v>0</v>
-      </c>
-      <c r="E392" s="11"/>
+        <v>184</v>
+      </c>
     </row>
     <row r="393" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A393" s="11">
         <v>392</v>
       </c>
       <c r="B393" s="11">
-        <v>295</v>
-      </c>
-      <c r="C393" s="11" t="s">
-        <v>666</v>
+        <v>292</v>
+      </c>
+      <c r="C393" s="13" t="s">
+        <v>436</v>
       </c>
       <c r="D393" s="11">
-        <v>0</v>
-      </c>
-      <c r="E393" s="11"/>
+        <v>185</v>
+      </c>
     </row>
     <row r="394" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A394" s="11">
         <v>393</v>
       </c>
       <c r="B394" s="11">
-        <v>295</v>
-      </c>
-      <c r="C394" s="11" t="s">
-        <v>385</v>
+        <v>293</v>
+      </c>
+      <c r="C394" s="13" t="s">
+        <v>436</v>
       </c>
       <c r="D394" s="11">
-        <v>0</v>
-      </c>
-      <c r="E394" s="11"/>
+        <v>186</v>
+      </c>
     </row>
     <row r="395" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A395" s="11">
         <v>394</v>
       </c>
       <c r="B395" s="11">
-        <v>295</v>
-      </c>
-      <c r="C395" s="11" t="s">
-        <v>390</v>
+        <v>294</v>
+      </c>
+      <c r="C395" s="13" t="s">
+        <v>436</v>
       </c>
       <c r="D395" s="11">
-        <v>0</v>
-      </c>
-      <c r="E395" s="11">
-        <v>0.5</v>
+        <v>187</v>
       </c>
     </row>
     <row r="396" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -38197,13 +38213,10 @@
         <v>295</v>
       </c>
       <c r="C396" s="11" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="D396" s="11">
         <v>0</v>
-      </c>
-      <c r="E396" s="11">
-        <v>0.5</v>
       </c>
     </row>
     <row r="397" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -38211,24 +38224,25 @@
         <v>396</v>
       </c>
       <c r="B397" s="11">
-        <v>296</v>
-      </c>
-      <c r="C397" s="13" t="s">
-        <v>922</v>
-      </c>
-      <c r="D397" s="12">
-        <v>188</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="C397" s="23" t="s">
+        <v>394</v>
+      </c>
+      <c r="D397" s="11">
+        <v>0</v>
+      </c>
+      <c r="E397" s="11"/>
     </row>
     <row r="398" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A398" s="11">
         <v>397</v>
       </c>
       <c r="B398" s="11">
-        <v>297</v>
-      </c>
-      <c r="C398" s="23" t="s">
-        <v>394</v>
+        <v>295</v>
+      </c>
+      <c r="C398" s="11" t="s">
+        <v>439</v>
       </c>
       <c r="D398" s="11">
         <v>0</v>
@@ -38240,10 +38254,10 @@
         <v>398</v>
       </c>
       <c r="B399" s="11">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C399" s="11" t="s">
-        <v>439</v>
+        <v>665</v>
       </c>
       <c r="D399" s="11">
         <v>0</v>
@@ -38255,10 +38269,10 @@
         <v>399</v>
       </c>
       <c r="B400" s="11">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C400" s="11" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="D400" s="11">
         <v>0</v>
@@ -38270,10 +38284,10 @@
         <v>400</v>
       </c>
       <c r="B401" s="11">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C401" s="11" t="s">
-        <v>666</v>
+        <v>385</v>
       </c>
       <c r="D401" s="11">
         <v>0</v>
@@ -38285,25 +38299,27 @@
         <v>401</v>
       </c>
       <c r="B402" s="11">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C402" s="11" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="D402" s="11">
         <v>0</v>
       </c>
-      <c r="E402" s="11"/>
+      <c r="E402" s="11">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="403" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A403" s="11">
         <v>402</v>
       </c>
       <c r="B403" s="11">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C403" s="11" t="s">
-        <v>390</v>
+        <v>667</v>
       </c>
       <c r="D403" s="11">
         <v>0</v>
@@ -38317,16 +38333,13 @@
         <v>403</v>
       </c>
       <c r="B404" s="11">
-        <v>297</v>
-      </c>
-      <c r="C404" s="11" t="s">
-        <v>667</v>
-      </c>
-      <c r="D404" s="11">
-        <v>0</v>
-      </c>
-      <c r="E404" s="11">
-        <v>0.5</v>
+        <v>296</v>
+      </c>
+      <c r="C404" s="13" t="s">
+        <v>922</v>
+      </c>
+      <c r="D404" s="12">
+        <v>188</v>
       </c>
     </row>
     <row r="405" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -38334,7 +38347,7 @@
         <v>404</v>
       </c>
       <c r="B405" s="11">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C405" s="23" t="s">
         <v>394</v>
@@ -38349,7 +38362,7 @@
         <v>405</v>
       </c>
       <c r="B406" s="11">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C406" s="11" t="s">
         <v>439</v>
@@ -38364,7 +38377,7 @@
         <v>406</v>
       </c>
       <c r="B407" s="11">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C407" s="11" t="s">
         <v>665</v>
@@ -38379,7 +38392,7 @@
         <v>407</v>
       </c>
       <c r="B408" s="11">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C408" s="11" t="s">
         <v>666</v>
@@ -38394,7 +38407,7 @@
         <v>408</v>
       </c>
       <c r="B409" s="11">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C409" s="11" t="s">
         <v>385</v>
@@ -38409,7 +38422,7 @@
         <v>409</v>
       </c>
       <c r="B410" s="11">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C410" s="11" t="s">
         <v>390</v>
@@ -38426,7 +38439,7 @@
         <v>410</v>
       </c>
       <c r="B411" s="11">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C411" s="11" t="s">
         <v>667</v>
@@ -38443,24 +38456,25 @@
         <v>411</v>
       </c>
       <c r="B412" s="11">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C412" s="23" t="s">
-        <v>906</v>
+        <v>394</v>
       </c>
       <c r="D412" s="11">
         <v>0</v>
       </c>
+      <c r="E412" s="11"/>
     </row>
     <row r="413" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A413" s="11">
         <v>412</v>
       </c>
       <c r="B413" s="11">
-        <v>299</v>
-      </c>
-      <c r="C413" s="23" t="s">
-        <v>394</v>
+        <v>298</v>
+      </c>
+      <c r="C413" s="11" t="s">
+        <v>439</v>
       </c>
       <c r="D413" s="11">
         <v>0</v>
@@ -38472,10 +38486,10 @@
         <v>413</v>
       </c>
       <c r="B414" s="11">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C414" s="11" t="s">
-        <v>439</v>
+        <v>665</v>
       </c>
       <c r="D414" s="11">
         <v>0</v>
@@ -38487,10 +38501,10 @@
         <v>414</v>
       </c>
       <c r="B415" s="11">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C415" s="11" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="D415" s="11">
         <v>0</v>
@@ -38502,10 +38516,10 @@
         <v>415</v>
       </c>
       <c r="B416" s="11">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C416" s="11" t="s">
-        <v>666</v>
+        <v>385</v>
       </c>
       <c r="D416" s="11">
         <v>0</v>
@@ -38517,25 +38531,27 @@
         <v>416</v>
       </c>
       <c r="B417" s="11">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C417" s="11" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="D417" s="11">
         <v>0</v>
       </c>
-      <c r="E417" s="11"/>
+      <c r="E417" s="11">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="418" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A418" s="11">
         <v>417</v>
       </c>
       <c r="B418" s="11">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C418" s="11" t="s">
-        <v>390</v>
+        <v>667</v>
       </c>
       <c r="D418" s="11">
         <v>0</v>
@@ -38551,14 +38567,11 @@
       <c r="B419" s="11">
         <v>299</v>
       </c>
-      <c r="C419" s="11" t="s">
-        <v>667</v>
+      <c r="C419" s="23" t="s">
+        <v>906</v>
       </c>
       <c r="D419" s="11">
         <v>0</v>
-      </c>
-      <c r="E419" s="11">
-        <v>0.5</v>
       </c>
     </row>
     <row r="420" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -38566,153 +38579,164 @@
         <v>419</v>
       </c>
       <c r="B420" s="11">
-        <v>300</v>
-      </c>
-      <c r="C420" s="13" t="s">
-        <v>925</v>
+        <v>299</v>
+      </c>
+      <c r="C420" s="23" t="s">
+        <v>394</v>
       </c>
       <c r="D420" s="11">
         <v>0</v>
       </c>
+      <c r="E420" s="11"/>
     </row>
     <row r="421" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A421" s="11">
         <v>420</v>
       </c>
       <c r="B421" s="11">
-        <v>301</v>
-      </c>
-      <c r="C421" s="13" t="s">
-        <v>923</v>
+        <v>299</v>
+      </c>
+      <c r="C421" s="11" t="s">
+        <v>439</v>
       </c>
       <c r="D421" s="11">
-        <v>189</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E421" s="11"/>
     </row>
     <row r="422" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A422" s="11">
         <v>421</v>
       </c>
       <c r="B422" s="11">
-        <v>302</v>
-      </c>
-      <c r="C422" s="13" t="s">
-        <v>413</v>
+        <v>299</v>
+      </c>
+      <c r="C422" s="11" t="s">
+        <v>665</v>
       </c>
       <c r="D422" s="11">
         <v>0</v>
       </c>
+      <c r="E422" s="11"/>
     </row>
     <row r="423" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A423" s="11">
         <v>422</v>
       </c>
       <c r="B423" s="11">
-        <v>303</v>
-      </c>
-      <c r="C423" s="13" t="s">
-        <v>924</v>
+        <v>299</v>
+      </c>
+      <c r="C423" s="11" t="s">
+        <v>666</v>
       </c>
       <c r="D423" s="11">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="E423" s="11"/>
+    </row>
+    <row r="424" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A424" s="11">
         <v>423</v>
       </c>
-      <c r="B424" s="29">
-        <v>304</v>
-      </c>
-      <c r="C424" s="13" t="s">
-        <v>436</v>
+      <c r="B424" s="11">
+        <v>299</v>
+      </c>
+      <c r="C424" s="11" t="s">
+        <v>385</v>
       </c>
       <c r="D424" s="11">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="E424" s="11"/>
+    </row>
+    <row r="425" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A425" s="11">
         <v>424</v>
       </c>
-      <c r="B425" s="29">
-        <v>305</v>
-      </c>
-      <c r="C425" s="13" t="s">
-        <v>436</v>
-      </c>
-      <c r="D425" s="12">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B425" s="11">
+        <v>299</v>
+      </c>
+      <c r="C425" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="D425" s="11">
+        <v>0</v>
+      </c>
+      <c r="E425" s="11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A426" s="11">
         <v>425</v>
       </c>
-      <c r="B426" s="29">
-        <v>306</v>
-      </c>
-      <c r="C426" s="13" t="s">
-        <v>436</v>
+      <c r="B426" s="11">
+        <v>299</v>
+      </c>
+      <c r="C426" s="11" t="s">
+        <v>667</v>
       </c>
       <c r="D426" s="11">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="E426" s="11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A427" s="11">
         <v>426</v>
       </c>
-      <c r="B427" s="29">
-        <v>307</v>
+      <c r="B427" s="11">
+        <v>300</v>
       </c>
       <c r="C427" s="13" t="s">
-        <v>436</v>
-      </c>
-      <c r="D427" s="12">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.2">
+        <v>925</v>
+      </c>
+      <c r="D427" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A428" s="11">
         <v>427</v>
       </c>
-      <c r="B428" s="29">
-        <v>308</v>
+      <c r="B428" s="11">
+        <v>301</v>
       </c>
       <c r="C428" s="13" t="s">
-        <v>436</v>
+        <v>923</v>
       </c>
       <c r="D428" s="11">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A429" s="11">
         <v>428</v>
       </c>
-      <c r="B429" s="29">
-        <v>309</v>
+      <c r="B429" s="11">
+        <v>302</v>
       </c>
       <c r="C429" s="13" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D429" s="12">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.2">
+        <v>413</v>
+      </c>
+      <c r="D429" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A430" s="11">
         <v>429</v>
       </c>
-      <c r="B430" s="29">
-        <v>310</v>
+      <c r="B430" s="11">
+        <v>303</v>
       </c>
       <c r="C430" s="13" t="s">
-        <v>436</v>
+        <v>924</v>
       </c>
       <c r="D430" s="11">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.2">
@@ -38720,13 +38744,13 @@
         <v>430</v>
       </c>
       <c r="B431" s="29">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="C431" s="13" t="s">
         <v>436</v>
       </c>
-      <c r="D431" s="12">
-        <v>198</v>
+      <c r="D431" s="11">
+        <v>191</v>
       </c>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.2">
@@ -38734,133 +38758,125 @@
         <v>431</v>
       </c>
       <c r="B432" s="29">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="C432" s="13" t="s">
         <v>436</v>
       </c>
-      <c r="D432" s="11">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="433" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D432" s="12">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A433" s="11">
         <v>432</v>
       </c>
-      <c r="B433" s="11">
-        <v>313</v>
+      <c r="B433" s="29">
+        <v>306</v>
       </c>
       <c r="C433" s="13" t="s">
-        <v>628</v>
+        <v>436</v>
       </c>
       <c r="D433" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="434" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A434" s="11">
         <v>433</v>
       </c>
-      <c r="B434" s="11">
-        <v>314</v>
+      <c r="B434" s="29">
+        <v>307</v>
       </c>
       <c r="C434" s="13" t="s">
-        <v>469</v>
+        <v>436</v>
       </c>
       <c r="D434" s="12">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="435" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A435" s="11">
         <v>434</v>
       </c>
-      <c r="B435" s="11">
-        <v>315</v>
-      </c>
-      <c r="C435" s="23" t="s">
-        <v>394</v>
+      <c r="B435" s="29">
+        <v>308</v>
+      </c>
+      <c r="C435" s="13" t="s">
+        <v>436</v>
       </c>
       <c r="D435" s="11">
-        <v>0</v>
-      </c>
-      <c r="E435" s="11"/>
-    </row>
-    <row r="436" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A436" s="11">
         <v>435</v>
       </c>
-      <c r="B436" s="11">
-        <v>315</v>
-      </c>
-      <c r="C436" s="11" t="s">
-        <v>439</v>
-      </c>
-      <c r="D436" s="11">
-        <v>0</v>
-      </c>
-      <c r="E436" s="11"/>
-    </row>
-    <row r="437" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B436" s="29">
+        <v>309</v>
+      </c>
+      <c r="C436" s="13" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D436" s="12">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A437" s="11">
         <v>436</v>
       </c>
-      <c r="B437" s="11">
-        <v>315</v>
-      </c>
-      <c r="C437" s="11" t="s">
-        <v>665</v>
+      <c r="B437" s="29">
+        <v>310</v>
+      </c>
+      <c r="C437" s="13" t="s">
+        <v>436</v>
       </c>
       <c r="D437" s="11">
-        <v>0</v>
-      </c>
-      <c r="E437" s="11"/>
-    </row>
-    <row r="438" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A438" s="11">
         <v>437</v>
       </c>
-      <c r="B438" s="11">
-        <v>315</v>
-      </c>
-      <c r="C438" s="11" t="s">
-        <v>666</v>
-      </c>
-      <c r="D438" s="11">
-        <v>0</v>
-      </c>
-      <c r="E438" s="11"/>
-    </row>
-    <row r="439" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B438" s="29">
+        <v>311</v>
+      </c>
+      <c r="C438" s="13" t="s">
+        <v>436</v>
+      </c>
+      <c r="D438" s="12">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A439" s="11">
         <v>438</v>
       </c>
-      <c r="B439" s="11">
-        <v>315</v>
-      </c>
-      <c r="C439" s="11" t="s">
-        <v>385</v>
+      <c r="B439" s="29">
+        <v>312</v>
+      </c>
+      <c r="C439" s="13" t="s">
+        <v>436</v>
       </c>
       <c r="D439" s="11">
-        <v>0</v>
-      </c>
-      <c r="E439" s="11"/>
+        <v>199</v>
+      </c>
     </row>
     <row r="440" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A440" s="11">
         <v>439</v>
       </c>
       <c r="B440" s="11">
-        <v>315</v>
-      </c>
-      <c r="C440" s="11" t="s">
-        <v>390</v>
+        <v>313</v>
+      </c>
+      <c r="C440" s="13" t="s">
+        <v>628</v>
       </c>
       <c r="D440" s="11">
         <v>0</v>
-      </c>
-      <c r="E440" s="11">
-        <v>0.5</v>
       </c>
     </row>
     <row r="441" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -38868,16 +38884,13 @@
         <v>440</v>
       </c>
       <c r="B441" s="11">
-        <v>315</v>
-      </c>
-      <c r="C441" s="11" t="s">
-        <v>667</v>
-      </c>
-      <c r="D441" s="11">
-        <v>0</v>
-      </c>
-      <c r="E441" s="11">
-        <v>0.5</v>
+        <v>314</v>
+      </c>
+      <c r="C441" s="13" t="s">
+        <v>469</v>
+      </c>
+      <c r="D441" s="12">
+        <v>200</v>
       </c>
     </row>
     <row r="442" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -38885,83 +38898,91 @@
         <v>441</v>
       </c>
       <c r="B442" s="11">
-        <v>316</v>
-      </c>
-      <c r="C442" s="13" t="s">
-        <v>436</v>
+        <v>315</v>
+      </c>
+      <c r="C442" s="23" t="s">
+        <v>394</v>
       </c>
       <c r="D442" s="11">
-        <v>201</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E442" s="11"/>
     </row>
     <row r="443" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A443" s="11">
         <v>442</v>
       </c>
       <c r="B443" s="11">
-        <v>317</v>
-      </c>
-      <c r="C443" s="13" t="s">
-        <v>436</v>
+        <v>315</v>
+      </c>
+      <c r="C443" s="11" t="s">
+        <v>439</v>
       </c>
       <c r="D443" s="11">
-        <v>202</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E443" s="11"/>
     </row>
     <row r="444" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A444" s="11">
         <v>443</v>
       </c>
       <c r="B444" s="11">
-        <v>318</v>
-      </c>
-      <c r="C444" s="13" t="s">
-        <v>436</v>
+        <v>315</v>
+      </c>
+      <c r="C444" s="11" t="s">
+        <v>665</v>
       </c>
       <c r="D444" s="11">
-        <v>203</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E444" s="11"/>
     </row>
     <row r="445" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A445" s="11">
         <v>444</v>
       </c>
       <c r="B445" s="11">
-        <v>319</v>
-      </c>
-      <c r="C445" s="13" t="s">
-        <v>436</v>
+        <v>315</v>
+      </c>
+      <c r="C445" s="11" t="s">
+        <v>666</v>
       </c>
       <c r="D445" s="11">
-        <v>204</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E445" s="11"/>
     </row>
     <row r="446" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A446" s="11">
         <v>445</v>
       </c>
       <c r="B446" s="11">
-        <v>320</v>
-      </c>
-      <c r="C446" s="13" t="s">
-        <v>436</v>
+        <v>315</v>
+      </c>
+      <c r="C446" s="11" t="s">
+        <v>385</v>
       </c>
       <c r="D446" s="11">
-        <v>205</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E446" s="11"/>
     </row>
     <row r="447" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A447" s="11">
         <v>446</v>
       </c>
       <c r="B447" s="11">
-        <v>321</v>
-      </c>
-      <c r="C447" s="13" t="s">
-        <v>436</v>
+        <v>315</v>
+      </c>
+      <c r="C447" s="11" t="s">
+        <v>390</v>
       </c>
       <c r="D447" s="11">
-        <v>206</v>
+        <v>0</v>
+      </c>
+      <c r="E447" s="11">
+        <v>0.5</v>
       </c>
     </row>
     <row r="448" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -38969,13 +38990,16 @@
         <v>447</v>
       </c>
       <c r="B448" s="11">
-        <v>322</v>
-      </c>
-      <c r="C448" s="13" t="s">
-        <v>436</v>
+        <v>315</v>
+      </c>
+      <c r="C448" s="11" t="s">
+        <v>667</v>
       </c>
       <c r="D448" s="11">
-        <v>207</v>
+        <v>0</v>
+      </c>
+      <c r="E448" s="11">
+        <v>0.5</v>
       </c>
     </row>
     <row r="449" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -38983,123 +39007,105 @@
         <v>448</v>
       </c>
       <c r="B449" s="11">
-        <v>323</v>
-      </c>
-      <c r="C449" s="23" t="s">
-        <v>394</v>
+        <v>316</v>
+      </c>
+      <c r="C449" s="13" t="s">
+        <v>436</v>
       </c>
       <c r="D449" s="11">
-        <v>0</v>
-      </c>
-      <c r="E449" s="11"/>
-      <c r="F449" s="11"/>
+        <v>201</v>
+      </c>
     </row>
     <row r="450" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A450" s="11">
         <v>449</v>
       </c>
       <c r="B450" s="11">
-        <v>323</v>
-      </c>
-      <c r="C450" s="11" t="s">
-        <v>439</v>
+        <v>317</v>
+      </c>
+      <c r="C450" s="13" t="s">
+        <v>436</v>
       </c>
       <c r="D450" s="11">
-        <v>0</v>
-      </c>
-      <c r="E450" s="11"/>
-      <c r="F450" s="11"/>
+        <v>202</v>
+      </c>
     </row>
     <row r="451" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A451" s="11">
         <v>450</v>
       </c>
       <c r="B451" s="11">
-        <v>323</v>
-      </c>
-      <c r="C451" s="11" t="s">
-        <v>665</v>
+        <v>318</v>
+      </c>
+      <c r="C451" s="13" t="s">
+        <v>436</v>
       </c>
       <c r="D451" s="11">
-        <v>0</v>
-      </c>
-      <c r="E451" s="11"/>
-      <c r="F451" s="11"/>
+        <v>203</v>
+      </c>
     </row>
     <row r="452" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A452" s="11">
         <v>451</v>
       </c>
       <c r="B452" s="11">
-        <v>323</v>
-      </c>
-      <c r="C452" s="11" t="s">
-        <v>666</v>
+        <v>319</v>
+      </c>
+      <c r="C452" s="13" t="s">
+        <v>436</v>
       </c>
       <c r="D452" s="11">
-        <v>0</v>
-      </c>
-      <c r="E452" s="11"/>
-      <c r="F452" s="11"/>
+        <v>204</v>
+      </c>
     </row>
     <row r="453" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A453" s="11">
         <v>452</v>
       </c>
       <c r="B453" s="11">
-        <v>323</v>
-      </c>
-      <c r="C453" s="11" t="s">
-        <v>385</v>
+        <v>320</v>
+      </c>
+      <c r="C453" s="13" t="s">
+        <v>436</v>
       </c>
       <c r="D453" s="11">
-        <v>0</v>
-      </c>
-      <c r="E453" s="11"/>
-      <c r="F453" s="11"/>
+        <v>205</v>
+      </c>
     </row>
     <row r="454" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A454" s="11">
         <v>453</v>
       </c>
       <c r="B454" s="11">
-        <v>323</v>
-      </c>
-      <c r="C454" s="11" t="s">
-        <v>390</v>
+        <v>321</v>
+      </c>
+      <c r="C454" s="13" t="s">
+        <v>436</v>
       </c>
       <c r="D454" s="11">
-        <v>0</v>
-      </c>
-      <c r="E454" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="F454" s="11"/>
+        <v>206</v>
+      </c>
     </row>
     <row r="455" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A455" s="11">
         <v>454</v>
       </c>
       <c r="B455" s="11">
-        <v>323</v>
-      </c>
-      <c r="C455" s="11" t="s">
-        <v>667</v>
+        <v>322</v>
+      </c>
+      <c r="C455" s="13" t="s">
+        <v>436</v>
       </c>
       <c r="D455" s="11">
-        <v>0</v>
-      </c>
-      <c r="E455" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="F455" s="11"/>
+        <v>207</v>
+      </c>
     </row>
     <row r="456" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A456" s="11">
         <v>455</v>
       </c>
       <c r="B456" s="11">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C456" s="23" t="s">
         <v>394</v>
@@ -39108,13 +39114,14 @@
         <v>0</v>
       </c>
       <c r="E456" s="11"/>
+      <c r="F456" s="11"/>
     </row>
     <row r="457" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A457" s="11">
         <v>456</v>
       </c>
       <c r="B457" s="11">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C457" s="11" t="s">
         <v>439</v>
@@ -39123,13 +39130,14 @@
         <v>0</v>
       </c>
       <c r="E457" s="11"/>
+      <c r="F457" s="11"/>
     </row>
     <row r="458" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A458" s="11">
         <v>457</v>
       </c>
       <c r="B458" s="11">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C458" s="11" t="s">
         <v>665</v>
@@ -39138,13 +39146,14 @@
         <v>0</v>
       </c>
       <c r="E458" s="11"/>
+      <c r="F458" s="11"/>
     </row>
     <row r="459" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A459" s="11">
         <v>458</v>
       </c>
       <c r="B459" s="11">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C459" s="11" t="s">
         <v>666</v>
@@ -39153,13 +39162,14 @@
         <v>0</v>
       </c>
       <c r="E459" s="11"/>
+      <c r="F459" s="11"/>
     </row>
     <row r="460" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A460" s="11">
         <v>459</v>
       </c>
       <c r="B460" s="11">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C460" s="11" t="s">
         <v>385</v>
@@ -39168,13 +39178,14 @@
         <v>0</v>
       </c>
       <c r="E460" s="11"/>
+      <c r="F460" s="11"/>
     </row>
     <row r="461" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A461" s="11">
         <v>460</v>
       </c>
       <c r="B461" s="11">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C461" s="11" t="s">
         <v>390</v>
@@ -39185,13 +39196,14 @@
       <c r="E461" s="11">
         <v>0.5</v>
       </c>
+      <c r="F461" s="11"/>
     </row>
     <row r="462" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A462" s="11">
         <v>461</v>
       </c>
       <c r="B462" s="11">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C462" s="11" t="s">
         <v>667</v>
@@ -39202,257 +39214,269 @@
       <c r="E462" s="11">
         <v>0.5</v>
       </c>
+      <c r="F462" s="11"/>
     </row>
     <row r="463" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A463" s="11">
         <v>462</v>
       </c>
       <c r="B463" s="11">
-        <v>325</v>
-      </c>
-      <c r="C463" s="11" t="s">
-        <v>1033</v>
+        <v>324</v>
+      </c>
+      <c r="C463" s="23" t="s">
+        <v>394</v>
       </c>
       <c r="D463" s="11">
-        <v>208</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E463" s="11"/>
     </row>
     <row r="464" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A464" s="11">
         <v>463</v>
       </c>
       <c r="B464" s="11">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C464" s="11" t="s">
-        <v>1033</v>
+        <v>439</v>
       </c>
       <c r="D464" s="11">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="465" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="E464" s="11"/>
+    </row>
+    <row r="465" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A465" s="11">
         <v>464</v>
       </c>
       <c r="B465" s="11">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C465" s="11" t="s">
-        <v>1033</v>
+        <v>665</v>
       </c>
       <c r="D465" s="11">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="466" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="E465" s="11"/>
+    </row>
+    <row r="466" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A466" s="11">
         <v>465</v>
       </c>
       <c r="B466" s="11">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C466" s="11" t="s">
-        <v>1033</v>
+        <v>666</v>
       </c>
       <c r="D466" s="11">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="467" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="E466" s="11"/>
+    </row>
+    <row r="467" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A467" s="11">
         <v>466</v>
       </c>
       <c r="B467" s="11">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C467" s="11" t="s">
-        <v>1033</v>
+        <v>385</v>
       </c>
       <c r="D467" s="11">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="468" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="E467" s="11"/>
+    </row>
+    <row r="468" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A468" s="11">
         <v>467</v>
       </c>
       <c r="B468" s="11">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C468" s="11" t="s">
-        <v>1033</v>
+        <v>390</v>
       </c>
       <c r="D468" s="11">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="469" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="E468" s="11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A469" s="11">
         <v>468</v>
       </c>
       <c r="B469" s="11">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="C469" s="11" t="s">
-        <v>1033</v>
+        <v>667</v>
       </c>
       <c r="D469" s="11">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="470" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="E469" s="11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A470" s="11">
         <v>469</v>
       </c>
       <c r="B470" s="11">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="C470" s="11" t="s">
         <v>1033</v>
       </c>
       <c r="D470" s="11">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="471" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A471" s="11">
         <v>470</v>
       </c>
       <c r="B471" s="11">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="C471" s="11" t="s">
         <v>1033</v>
       </c>
       <c r="D471" s="11">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="472" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A472" s="11">
         <v>471</v>
       </c>
       <c r="B472" s="11">
-        <v>334</v>
-      </c>
-      <c r="C472" s="23" t="s">
-        <v>1077</v>
+        <v>327</v>
+      </c>
+      <c r="C472" s="11" t="s">
+        <v>1033</v>
       </c>
       <c r="D472" s="11">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="473" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A473" s="11">
         <v>472</v>
       </c>
       <c r="B473" s="11">
-        <v>335</v>
-      </c>
-      <c r="C473" s="23" t="s">
-        <v>1077</v>
+        <v>328</v>
+      </c>
+      <c r="C473" s="11" t="s">
+        <v>1033</v>
       </c>
       <c r="D473" s="11">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="474" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A474" s="11">
         <v>473</v>
       </c>
       <c r="B474" s="11">
-        <v>336</v>
-      </c>
-      <c r="C474" s="23" t="s">
-        <v>1077</v>
+        <v>329</v>
+      </c>
+      <c r="C474" s="11" t="s">
+        <v>1033</v>
       </c>
       <c r="D474" s="11">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="475" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A475" s="11">
         <v>474</v>
       </c>
       <c r="B475" s="11">
-        <v>337</v>
-      </c>
-      <c r="C475" s="23" t="s">
-        <v>1077</v>
+        <v>330</v>
+      </c>
+      <c r="C475" s="11" t="s">
+        <v>1033</v>
       </c>
       <c r="D475" s="11">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="476" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A476" s="11">
         <v>475</v>
       </c>
       <c r="B476" s="11">
-        <v>338</v>
-      </c>
-      <c r="C476" s="23" t="s">
-        <v>1077</v>
+        <v>331</v>
+      </c>
+      <c r="C476" s="11" t="s">
+        <v>1033</v>
       </c>
       <c r="D476" s="11">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="477" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A477" s="11">
         <v>476</v>
       </c>
       <c r="B477" s="11">
-        <v>339</v>
-      </c>
-      <c r="C477" s="23" t="s">
-        <v>1077</v>
+        <v>332</v>
+      </c>
+      <c r="C477" s="11" t="s">
+        <v>1033</v>
       </c>
       <c r="D477" s="11">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="478" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A478" s="11">
         <v>477</v>
       </c>
       <c r="B478" s="11">
-        <v>340</v>
-      </c>
-      <c r="C478" s="23" t="s">
-        <v>1077</v>
+        <v>333</v>
+      </c>
+      <c r="C478" s="11" t="s">
+        <v>1033</v>
       </c>
       <c r="D478" s="11">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="479" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A479" s="11">
         <v>478</v>
       </c>
       <c r="B479" s="11">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="C479" s="23" t="s">
         <v>1077</v>
       </c>
       <c r="D479" s="11">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="480" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A480" s="11">
         <v>479</v>
       </c>
       <c r="B480" s="11">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="C480" s="23" t="s">
         <v>1077</v>
       </c>
       <c r="D480" s="11">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="481" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -39460,13 +39484,13 @@
         <v>480</v>
       </c>
       <c r="B481" s="11">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="C481" s="23" t="s">
         <v>1077</v>
       </c>
       <c r="D481" s="11">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="482" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -39474,91 +39498,83 @@
         <v>481</v>
       </c>
       <c r="B482" s="11">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="C482" s="23" t="s">
-        <v>394</v>
+        <v>1077</v>
       </c>
       <c r="D482" s="11">
-        <v>0</v>
-      </c>
-      <c r="E482" s="11"/>
+        <v>220</v>
+      </c>
     </row>
     <row r="483" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A483" s="11">
         <v>482</v>
       </c>
       <c r="B483" s="11">
-        <v>344</v>
-      </c>
-      <c r="C483" s="11" t="s">
-        <v>439</v>
+        <v>338</v>
+      </c>
+      <c r="C483" s="23" t="s">
+        <v>1077</v>
       </c>
       <c r="D483" s="11">
-        <v>0</v>
-      </c>
-      <c r="E483" s="11"/>
+        <v>221</v>
+      </c>
     </row>
     <row r="484" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A484" s="11">
         <v>483</v>
       </c>
       <c r="B484" s="11">
-        <v>344</v>
-      </c>
-      <c r="C484" s="11" t="s">
-        <v>665</v>
+        <v>339</v>
+      </c>
+      <c r="C484" s="23" t="s">
+        <v>1077</v>
       </c>
       <c r="D484" s="11">
-        <v>0</v>
-      </c>
-      <c r="E484" s="11"/>
+        <v>222</v>
+      </c>
     </row>
     <row r="485" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A485" s="11">
         <v>484</v>
       </c>
       <c r="B485" s="11">
-        <v>344</v>
-      </c>
-      <c r="C485" s="11" t="s">
-        <v>666</v>
+        <v>340</v>
+      </c>
+      <c r="C485" s="23" t="s">
+        <v>1077</v>
       </c>
       <c r="D485" s="11">
-        <v>0</v>
-      </c>
-      <c r="E485" s="11"/>
+        <v>223</v>
+      </c>
     </row>
     <row r="486" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A486" s="11">
         <v>485</v>
       </c>
       <c r="B486" s="11">
-        <v>344</v>
-      </c>
-      <c r="C486" s="11" t="s">
-        <v>385</v>
+        <v>341</v>
+      </c>
+      <c r="C486" s="23" t="s">
+        <v>1077</v>
       </c>
       <c r="D486" s="11">
-        <v>0</v>
-      </c>
-      <c r="E486" s="11"/>
+        <v>224</v>
+      </c>
     </row>
     <row r="487" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A487" s="11">
         <v>486</v>
       </c>
       <c r="B487" s="11">
-        <v>344</v>
-      </c>
-      <c r="C487" s="11" t="s">
-        <v>390</v>
+        <v>342</v>
+      </c>
+      <c r="C487" s="23" t="s">
+        <v>1077</v>
       </c>
       <c r="D487" s="11">
-        <v>0</v>
-      </c>
-      <c r="E487" s="11">
-        <v>0.5</v>
+        <v>225</v>
       </c>
     </row>
     <row r="488" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -39566,16 +39582,13 @@
         <v>487</v>
       </c>
       <c r="B488" s="11">
-        <v>344</v>
-      </c>
-      <c r="C488" s="11" t="s">
-        <v>667</v>
+        <v>343</v>
+      </c>
+      <c r="C488" s="23" t="s">
+        <v>1077</v>
       </c>
       <c r="D488" s="11">
-        <v>0</v>
-      </c>
-      <c r="E488" s="11">
-        <v>0.5</v>
+        <v>226</v>
       </c>
     </row>
     <row r="489" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -39583,7 +39596,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="11">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C489" s="23" t="s">
         <v>394</v>
@@ -39598,7 +39611,7 @@
         <v>489</v>
       </c>
       <c r="B490" s="11">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C490" s="11" t="s">
         <v>439</v>
@@ -39613,7 +39626,7 @@
         <v>490</v>
       </c>
       <c r="B491" s="11">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C491" s="11" t="s">
         <v>665</v>
@@ -39628,7 +39641,7 @@
         <v>491</v>
       </c>
       <c r="B492" s="11">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C492" s="11" t="s">
         <v>666</v>
@@ -39643,7 +39656,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="11">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C493" s="11" t="s">
         <v>385</v>
@@ -39658,7 +39671,7 @@
         <v>493</v>
       </c>
       <c r="B494" s="11">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C494" s="11" t="s">
         <v>390</v>
@@ -39675,7 +39688,7 @@
         <v>494</v>
       </c>
       <c r="B495" s="11">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C495" s="11" t="s">
         <v>667</v>
@@ -39692,237 +39705,248 @@
         <v>495</v>
       </c>
       <c r="B496" s="11">
-        <v>346</v>
-      </c>
-      <c r="C496" s="11" t="s">
-        <v>1032</v>
+        <v>345</v>
+      </c>
+      <c r="C496" s="23" t="s">
+        <v>394</v>
       </c>
       <c r="D496" s="11">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="497" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="E496" s="11"/>
+    </row>
+    <row r="497" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A497" s="11">
         <v>496</v>
       </c>
       <c r="B497" s="11">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C497" s="11" t="s">
-        <v>1032</v>
+        <v>439</v>
       </c>
       <c r="D497" s="11">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="498" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="E497" s="11"/>
+    </row>
+    <row r="498" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A498" s="11">
         <v>497</v>
       </c>
       <c r="B498" s="11">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C498" s="11" t="s">
-        <v>1032</v>
+        <v>665</v>
       </c>
       <c r="D498" s="11">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="499" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="E498" s="11"/>
+    </row>
+    <row r="499" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A499" s="11">
         <v>498</v>
       </c>
       <c r="B499" s="11">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C499" s="11" t="s">
-        <v>1032</v>
+        <v>666</v>
       </c>
       <c r="D499" s="11">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="500" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="E499" s="11"/>
+    </row>
+    <row r="500" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A500" s="11">
         <v>499</v>
       </c>
       <c r="B500" s="11">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C500" s="11" t="s">
-        <v>1032</v>
+        <v>385</v>
       </c>
       <c r="D500" s="11">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="501" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="E500" s="11"/>
+    </row>
+    <row r="501" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A501" s="11">
         <v>500</v>
       </c>
       <c r="B501" s="11">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C501" s="11" t="s">
-        <v>1032</v>
+        <v>390</v>
       </c>
       <c r="D501" s="11">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="502" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="E501" s="11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A502" s="11">
         <v>501</v>
       </c>
       <c r="B502" s="11">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C502" s="11" t="s">
-        <v>1032</v>
+        <v>667</v>
       </c>
       <c r="D502" s="11">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="503" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="E502" s="11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A503" s="11">
         <v>502</v>
       </c>
       <c r="B503" s="11">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="C503" s="11" t="s">
         <v>1032</v>
       </c>
       <c r="D503" s="11">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="504" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A504" s="11">
         <v>503</v>
       </c>
       <c r="B504" s="11">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="C504" s="11" t="s">
         <v>1032</v>
       </c>
       <c r="D504" s="11">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="505" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A505" s="11">
         <v>504</v>
       </c>
       <c r="B505" s="11">
-        <v>355</v>
-      </c>
-      <c r="C505" s="23" t="s">
+        <v>348</v>
+      </c>
+      <c r="C505" s="11" t="s">
         <v>1032</v>
       </c>
       <c r="D505" s="11">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="506" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A506" s="11">
         <v>505</v>
       </c>
       <c r="B506" s="11">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="C506" s="11" t="s">
         <v>1032</v>
       </c>
-      <c r="D506" s="12">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="507" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D506" s="11">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A507" s="11">
         <v>506</v>
       </c>
       <c r="B507" s="11">
-        <v>357</v>
-      </c>
-      <c r="C507" s="23" t="s">
+        <v>350</v>
+      </c>
+      <c r="C507" s="11" t="s">
         <v>1032</v>
       </c>
-      <c r="D507" s="12">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="508" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D507" s="11">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A508" s="11">
         <v>507</v>
       </c>
       <c r="B508" s="11">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C508" s="11" t="s">
         <v>1032</v>
       </c>
-      <c r="D508" s="12">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="509" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D508" s="11">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A509" s="11">
         <v>508</v>
       </c>
       <c r="B509" s="11">
-        <v>359</v>
-      </c>
-      <c r="C509" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="C509" s="11" t="s">
         <v>1032</v>
       </c>
-      <c r="D509" s="12">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="510" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D509" s="11">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A510" s="11">
         <v>509</v>
       </c>
       <c r="B510" s="11">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="C510" s="11" t="s">
         <v>1032</v>
       </c>
-      <c r="D510" s="12">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="511" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D510" s="11">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="511" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A511" s="11">
         <v>510</v>
       </c>
       <c r="B511" s="11">
-        <v>361</v>
-      </c>
-      <c r="C511" s="23" t="s">
+        <v>354</v>
+      </c>
+      <c r="C511" s="11" t="s">
         <v>1032</v>
       </c>
-      <c r="D511" s="12">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="512" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D511" s="11">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A512" s="11">
         <v>511</v>
       </c>
       <c r="B512" s="11">
-        <v>362</v>
-      </c>
-      <c r="C512" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="C512" s="23" t="s">
         <v>1032</v>
       </c>
-      <c r="D512" s="12">
-        <v>243</v>
+      <c r="D512" s="11">
+        <v>236</v>
       </c>
     </row>
     <row r="513" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -39930,13 +39954,13 @@
         <v>512</v>
       </c>
       <c r="B513" s="11">
-        <v>363</v>
-      </c>
-      <c r="C513" s="23" t="s">
+        <v>356</v>
+      </c>
+      <c r="C513" s="11" t="s">
         <v>1032</v>
       </c>
       <c r="D513" s="12">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="514" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -39944,13 +39968,13 @@
         <v>513</v>
       </c>
       <c r="B514" s="11">
-        <v>364</v>
-      </c>
-      <c r="C514" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="C514" s="23" t="s">
         <v>1032</v>
       </c>
       <c r="D514" s="12">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="515" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -39958,13 +39982,13 @@
         <v>514</v>
       </c>
       <c r="B515" s="11">
-        <v>365</v>
-      </c>
-      <c r="C515" s="23" t="s">
+        <v>358</v>
+      </c>
+      <c r="C515" s="11" t="s">
         <v>1032</v>
       </c>
       <c r="D515" s="12">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="516" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -39972,68 +39996,166 @@
         <v>515</v>
       </c>
       <c r="B516" s="11">
+        <v>359</v>
+      </c>
+      <c r="C516" s="23" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D516" s="12">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A517" s="11">
+        <v>516</v>
+      </c>
+      <c r="B517" s="11">
+        <v>360</v>
+      </c>
+      <c r="C517" s="11" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D517" s="12">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A518" s="11">
+        <v>517</v>
+      </c>
+      <c r="B518" s="11">
+        <v>361</v>
+      </c>
+      <c r="C518" s="23" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D518" s="12">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A519" s="11">
+        <v>518</v>
+      </c>
+      <c r="B519" s="11">
+        <v>362</v>
+      </c>
+      <c r="C519" s="11" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D519" s="12">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A520" s="11">
+        <v>519</v>
+      </c>
+      <c r="B520" s="11">
+        <v>363</v>
+      </c>
+      <c r="C520" s="23" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D520" s="12">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A521" s="11">
+        <v>520</v>
+      </c>
+      <c r="B521" s="11">
+        <v>364</v>
+      </c>
+      <c r="C521" s="11" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D521" s="12">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A522" s="11">
+        <v>521</v>
+      </c>
+      <c r="B522" s="11">
+        <v>365</v>
+      </c>
+      <c r="C522" s="23" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D522" s="12">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A523" s="11">
+        <v>522</v>
+      </c>
+      <c r="B523" s="11">
         <v>366</v>
       </c>
-      <c r="C516" s="11" t="s">
+      <c r="C523" s="11" t="s">
         <v>413</v>
       </c>
-      <c r="D516" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="517" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A517" s="10">
-        <v>516</v>
-      </c>
-      <c r="B517" s="10">
+      <c r="D523" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A524" s="11">
+        <v>523</v>
+      </c>
+      <c r="B524" s="10">
         <v>367</v>
       </c>
-      <c r="C517" s="87" t="s">
-        <v>1226</v>
-      </c>
-      <c r="D517" s="10">
+      <c r="C524" s="87" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D524" s="10">
         <v>253</v>
       </c>
     </row>
-    <row r="518" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A518" s="10">
-        <v>517</v>
-      </c>
-      <c r="B518" s="10">
+    <row r="525" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A525" s="11">
+        <v>524</v>
+      </c>
+      <c r="B525" s="10">
         <v>368</v>
       </c>
-      <c r="C518" s="87" t="s">
-        <v>1225</v>
-      </c>
-      <c r="D518" s="10">
+      <c r="C525" s="87" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D525" s="10">
         <v>254</v>
       </c>
     </row>
-    <row r="519" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A519" s="10">
-        <v>518</v>
-      </c>
-      <c r="B519" s="10">
+    <row r="526" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A526" s="11">
+        <v>525</v>
+      </c>
+      <c r="B526" s="10">
         <v>369</v>
       </c>
-      <c r="C519" s="87" t="s">
-        <v>1225</v>
-      </c>
-      <c r="D519" s="10">
+      <c r="C526" s="87" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D526" s="10">
         <v>255</v>
       </c>
     </row>
-    <row r="520" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A520" s="10">
-        <v>519</v>
-      </c>
-      <c r="B520" s="10">
+    <row r="527" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A527" s="11">
+        <v>526</v>
+      </c>
+      <c r="B527" s="10">
         <v>370</v>
       </c>
-      <c r="C520" s="87" t="s">
-        <v>1225</v>
-      </c>
-      <c r="D520" s="10">
+      <c r="C527" s="87" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D527" s="10">
         <v>256</v>
       </c>
     </row>
@@ -46874,10 +46996,10 @@
         <v>253</v>
       </c>
       <c r="C365" s="19" t="s">
-        <v>1227</v>
+        <v>1220</v>
       </c>
       <c r="D365" s="83" t="s">
-        <v>1229</v>
+        <v>1222</v>
       </c>
       <c r="E365" s="10">
         <v>2</v>
@@ -46891,7 +47013,7 @@
         <v>254</v>
       </c>
       <c r="C366" s="19" t="s">
-        <v>1228</v>
+        <v>1221</v>
       </c>
       <c r="D366" s="10">
         <v>3</v>
@@ -46908,7 +47030,7 @@
         <v>255</v>
       </c>
       <c r="C367" s="19" t="s">
-        <v>1228</v>
+        <v>1221</v>
       </c>
       <c r="D367" s="10">
         <v>4</v>
@@ -46925,7 +47047,7 @@
         <v>256</v>
       </c>
       <c r="C368" s="19" t="s">
-        <v>1228</v>
+        <v>1221</v>
       </c>
       <c r="D368" s="10">
         <v>5</v>
@@ -61051,7 +61173,7 @@
       </c>
       <c r="C670" s="11"/>
       <c r="D670" s="13" t="s">
-        <v>1236</v>
+        <v>1229</v>
       </c>
       <c r="E670" s="11">
         <v>12000</v>
@@ -63208,10 +63330,10 @@
       </c>
       <c r="C775" s="10"/>
       <c r="D775" s="19" t="s">
-        <v>1237</v>
+        <v>1230</v>
       </c>
       <c r="E775" s="83" t="s">
-        <v>1249</v>
+        <v>1242</v>
       </c>
       <c r="F775" s="10">
         <v>1</v>
@@ -63226,10 +63348,10 @@
       </c>
       <c r="C776" s="10"/>
       <c r="D776" s="19" t="s">
-        <v>1237</v>
+        <v>1230</v>
       </c>
       <c r="E776" s="83" t="s">
-        <v>1250</v>
+        <v>1243</v>
       </c>
       <c r="F776" s="10">
         <v>1</v>
@@ -63244,10 +63366,10 @@
       </c>
       <c r="C777" s="10"/>
       <c r="D777" s="19" t="s">
-        <v>1237</v>
+        <v>1230</v>
       </c>
       <c r="E777" s="83" t="s">
-        <v>1251</v>
+        <v>1244</v>
       </c>
       <c r="F777" s="10">
         <v>1</v>
@@ -63262,10 +63384,10 @@
       </c>
       <c r="C778" s="10"/>
       <c r="D778" s="19" t="s">
-        <v>1237</v>
+        <v>1230</v>
       </c>
       <c r="E778" s="83" t="s">
-        <v>1248</v>
+        <v>1241</v>
       </c>
       <c r="F778" s="10">
         <v>1</v>
@@ -63280,10 +63402,10 @@
       </c>
       <c r="C779" s="10"/>
       <c r="D779" s="19" t="s">
-        <v>1237</v>
+        <v>1230</v>
       </c>
       <c r="E779" s="83" t="s">
-        <v>1246</v>
+        <v>1239</v>
       </c>
       <c r="F779" s="10">
         <v>1</v>
@@ -63298,10 +63420,10 @@
       </c>
       <c r="C780" s="10"/>
       <c r="D780" s="19" t="s">
-        <v>1237</v>
+        <v>1230</v>
       </c>
       <c r="E780" s="83" t="s">
-        <v>1247</v>
+        <v>1240</v>
       </c>
       <c r="F780" s="10">
         <v>1</v>
@@ -63315,10 +63437,10 @@
         <v>574</v>
       </c>
       <c r="D781" s="13" t="s">
-        <v>1237</v>
+        <v>1230</v>
       </c>
       <c r="E781" s="83" t="s">
-        <v>1252</v>
+        <v>1245</v>
       </c>
       <c r="F781" s="11">
         <v>1</v>
@@ -63332,10 +63454,10 @@
         <v>575</v>
       </c>
       <c r="D782" s="13" t="s">
-        <v>1237</v>
+        <v>1230</v>
       </c>
       <c r="E782" s="83" t="s">
-        <v>1242</v>
+        <v>1235</v>
       </c>
       <c r="F782" s="11">
         <v>1</v>
@@ -63349,10 +63471,10 @@
         <v>576</v>
       </c>
       <c r="D783" s="13" t="s">
-        <v>1237</v>
+        <v>1230</v>
       </c>
       <c r="E783" s="83" t="s">
-        <v>1253</v>
+        <v>1246</v>
       </c>
       <c r="F783" s="11">
         <v>1</v>
@@ -63366,10 +63488,10 @@
         <v>577</v>
       </c>
       <c r="D784" s="13" t="s">
-        <v>1237</v>
+        <v>1230</v>
       </c>
       <c r="E784" s="83" t="s">
-        <v>1243</v>
+        <v>1236</v>
       </c>
       <c r="F784" s="11">
         <v>1</v>
@@ -63383,10 +63505,10 @@
         <v>578</v>
       </c>
       <c r="D785" s="13" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E785" s="83" t="s">
         <v>1237</v>
-      </c>
-      <c r="E785" s="83" t="s">
-        <v>1244</v>
       </c>
       <c r="F785" s="11">
         <v>1</v>
@@ -63400,10 +63522,10 @@
         <v>579</v>
       </c>
       <c r="D786" s="13" t="s">
-        <v>1237</v>
+        <v>1230</v>
       </c>
       <c r="E786" s="83" t="s">
-        <v>1245</v>
+        <v>1238</v>
       </c>
       <c r="F786" s="11">
         <v>1</v>
@@ -63418,10 +63540,10 @@
       </c>
       <c r="C787" s="10"/>
       <c r="D787" s="19" t="s">
-        <v>1237</v>
+        <v>1230</v>
       </c>
       <c r="E787" s="83" t="s">
-        <v>1254</v>
+        <v>1247</v>
       </c>
       <c r="F787" s="10">
         <v>1</v>
@@ -63436,10 +63558,10 @@
       </c>
       <c r="C788" s="10"/>
       <c r="D788" s="19" t="s">
-        <v>1237</v>
+        <v>1230</v>
       </c>
       <c r="E788" s="83" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
       <c r="F788" s="10">
         <v>1</v>
@@ -63454,10 +63576,10 @@
       </c>
       <c r="C789" s="10"/>
       <c r="D789" s="19" t="s">
-        <v>1237</v>
+        <v>1230</v>
       </c>
       <c r="E789" s="83" t="s">
-        <v>1256</v>
+        <v>1249</v>
       </c>
       <c r="F789" s="10">
         <v>1</v>
@@ -63472,10 +63594,10 @@
       </c>
       <c r="C790" s="10"/>
       <c r="D790" s="19" t="s">
-        <v>1237</v>
+        <v>1230</v>
       </c>
       <c r="E790" s="83" t="s">
-        <v>1257</v>
+        <v>1250</v>
       </c>
       <c r="F790" s="10">
         <v>1</v>
@@ -63490,10 +63612,10 @@
       </c>
       <c r="C791" s="10"/>
       <c r="D791" s="19" t="s">
-        <v>1237</v>
+        <v>1230</v>
       </c>
       <c r="E791" s="83" t="s">
-        <v>1258</v>
+        <v>1251</v>
       </c>
       <c r="F791" s="10">
         <v>1</v>
@@ -63508,10 +63630,10 @@
       </c>
       <c r="C792" s="10"/>
       <c r="D792" s="19" t="s">
-        <v>1237</v>
+        <v>1230</v>
       </c>
       <c r="E792" s="83" t="s">
-        <v>1259</v>
+        <v>1252</v>
       </c>
       <c r="F792" s="10">
         <v>1</v>
@@ -63525,10 +63647,10 @@
         <v>586</v>
       </c>
       <c r="D793" s="13" t="s">
-        <v>1237</v>
+        <v>1230</v>
       </c>
       <c r="E793" s="83" t="s">
-        <v>1260</v>
+        <v>1253</v>
       </c>
       <c r="F793" s="11">
         <v>1</v>
@@ -63542,10 +63664,10 @@
         <v>587</v>
       </c>
       <c r="D794" s="13" t="s">
-        <v>1237</v>
+        <v>1230</v>
       </c>
       <c r="E794" s="83" t="s">
-        <v>1261</v>
+        <v>1254</v>
       </c>
       <c r="F794" s="11">
         <v>1</v>
@@ -63559,10 +63681,10 @@
         <v>588</v>
       </c>
       <c r="D795" s="13" t="s">
-        <v>1237</v>
+        <v>1230</v>
       </c>
       <c r="E795" s="83" t="s">
-        <v>1262</v>
+        <v>1255</v>
       </c>
       <c r="F795" s="11">
         <v>1</v>
@@ -63576,10 +63698,10 @@
         <v>589</v>
       </c>
       <c r="D796" s="13" t="s">
-        <v>1237</v>
+        <v>1230</v>
       </c>
       <c r="E796" s="83" t="s">
-        <v>1263</v>
+        <v>1256</v>
       </c>
       <c r="F796" s="11">
         <v>1</v>
@@ -63593,10 +63715,10 @@
         <v>590</v>
       </c>
       <c r="D797" s="13" t="s">
-        <v>1237</v>
+        <v>1230</v>
       </c>
       <c r="E797" s="83" t="s">
-        <v>1264</v>
+        <v>1257</v>
       </c>
       <c r="F797" s="11">
         <v>1</v>
@@ -63610,10 +63732,10 @@
         <v>591</v>
       </c>
       <c r="D798" s="13" t="s">
-        <v>1237</v>
+        <v>1230</v>
       </c>
       <c r="E798" s="83" t="s">
-        <v>1265</v>
+        <v>1258</v>
       </c>
       <c r="F798" s="11">
         <v>1</v>

--- a/config_debug/task_zajindan_server.xlsx
+++ b/config_debug/task_zajindan_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TTHLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4791" uniqueCount="1268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4791" uniqueCount="1267">
   <si>
     <t>id|任务id</t>
   </si>
@@ -7145,10 +7145,6 @@
   </si>
   <si>
     <t>开炮送红包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>p_3dbuyu_goldsumtest</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -8365,11 +8361,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T371"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="F167" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D359" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G185" sqref="G185"/>
+      <selection pane="bottomRight" activeCell="D369" sqref="D369"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -15739,7 +15735,7 @@
         <v>1199</v>
       </c>
       <c r="D185" s="84" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="E185" s="84" t="s">
         <v>132</v>
@@ -15778,7 +15774,7 @@
         <v>1199</v>
       </c>
       <c r="D186" s="84" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E186" s="84" t="s">
         <v>132</v>
@@ -15817,7 +15813,7 @@
         <v>1199</v>
       </c>
       <c r="D187" s="84" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="E187" s="84" t="s">
         <v>132</v>
@@ -15856,7 +15852,7 @@
         <v>1199</v>
       </c>
       <c r="D188" s="84" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="E188" s="84" t="s">
         <v>132</v>
@@ -15895,7 +15891,7 @@
         <v>1199</v>
       </c>
       <c r="D189" s="84" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="E189" s="84" t="s">
         <v>132</v>
@@ -15934,7 +15930,7 @@
         <v>1199</v>
       </c>
       <c r="D190" s="84" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="E190" s="84" t="s">
         <v>132</v>
@@ -15973,7 +15969,7 @@
         <v>1199</v>
       </c>
       <c r="D191" s="84" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="E191" s="84" t="s">
         <v>132</v>
@@ -22703,7 +22699,7 @@
         <v>1212</v>
       </c>
       <c r="E368" s="51" t="s">
-        <v>1217</v>
+        <v>12</v>
       </c>
       <c r="F368" s="51" t="s">
         <v>856</v>
@@ -22741,7 +22737,7 @@
         <v>1213</v>
       </c>
       <c r="E369" s="51" t="s">
-        <v>1217</v>
+        <v>12</v>
       </c>
       <c r="F369" s="51" t="s">
         <v>856</v>
@@ -22779,7 +22775,7 @@
         <v>1214</v>
       </c>
       <c r="E370" s="51" t="s">
-        <v>1217</v>
+        <v>12</v>
       </c>
       <c r="F370" s="51" t="s">
         <v>856</v>
@@ -22817,7 +22813,7 @@
         <v>1215</v>
       </c>
       <c r="E371" s="51" t="s">
-        <v>1217</v>
+        <v>12</v>
       </c>
       <c r="F371" s="51" t="s">
         <v>856</v>
@@ -27829,7 +27825,7 @@
         <v>21132</v>
       </c>
       <c r="C185" s="13" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="D185" s="11">
         <v>184</v>
@@ -32445,14 +32441,14 @@
       </c>
       <c r="E368" s="10"/>
       <c r="F368" s="82" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="G368" s="79"/>
       <c r="H368" s="83" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="I368" s="19" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="369" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -32468,14 +32464,14 @@
       </c>
       <c r="E369" s="10"/>
       <c r="F369" s="82" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="G369" s="79"/>
       <c r="H369" s="83" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="I369" s="19" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="370" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -32491,14 +32487,14 @@
       </c>
       <c r="E370" s="10"/>
       <c r="F370" s="82" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="G370" s="79"/>
       <c r="H370" s="83" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="I370" s="19" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="371" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -32514,14 +32510,14 @@
       </c>
       <c r="E371" s="10"/>
       <c r="F371" s="82" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="G371" s="79"/>
       <c r="H371" s="83" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="I371" s="19" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
   </sheetData>
@@ -32535,7 +32531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I527"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A391" workbookViewId="0">
+    <sheetView topLeftCell="A391" workbookViewId="0">
       <selection activeCell="A242" sqref="A242:A527"/>
     </sheetView>
   </sheetViews>
@@ -35940,7 +35936,7 @@
         <v>184</v>
       </c>
       <c r="C237" s="13" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="D237" s="11">
         <v>0</v>
@@ -36066,7 +36062,7 @@
         <v>185</v>
       </c>
       <c r="C245" s="13" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="D245" s="11"/>
       <c r="E245" s="11"/>
@@ -36188,7 +36184,7 @@
         <v>186</v>
       </c>
       <c r="C253" s="13" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="D253" s="11"/>
       <c r="E253" s="11"/>
@@ -36310,7 +36306,7 @@
         <v>187</v>
       </c>
       <c r="C261" s="13" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="D261" s="11"/>
       <c r="E261" s="11"/>
@@ -36432,7 +36428,7 @@
         <v>188</v>
       </c>
       <c r="C269" s="13" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="D269" s="11"/>
       <c r="E269" s="11"/>
@@ -36554,7 +36550,7 @@
         <v>189</v>
       </c>
       <c r="C277" s="13" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="D277" s="11"/>
       <c r="E277" s="11"/>
@@ -36676,7 +36672,7 @@
         <v>190</v>
       </c>
       <c r="C285" s="13" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="D285" s="11"/>
       <c r="E285" s="11"/>
@@ -40111,7 +40107,7 @@
         <v>367</v>
       </c>
       <c r="C524" s="87" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="D524" s="10">
         <v>253</v>
@@ -40125,7 +40121,7 @@
         <v>368</v>
       </c>
       <c r="C525" s="87" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="D525" s="10">
         <v>254</v>
@@ -40139,7 +40135,7 @@
         <v>369</v>
       </c>
       <c r="C526" s="87" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="D526" s="10">
         <v>255</v>
@@ -40153,7 +40149,7 @@
         <v>370</v>
       </c>
       <c r="C527" s="87" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="D527" s="10">
         <v>256</v>
@@ -46996,10 +46992,10 @@
         <v>253</v>
       </c>
       <c r="C365" s="19" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="D365" s="83" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="E365" s="10">
         <v>2</v>
@@ -47013,7 +47009,7 @@
         <v>254</v>
       </c>
       <c r="C366" s="19" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="D366" s="10">
         <v>3</v>
@@ -47030,7 +47026,7 @@
         <v>255</v>
       </c>
       <c r="C367" s="19" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="D367" s="10">
         <v>4</v>
@@ -47047,7 +47043,7 @@
         <v>256</v>
       </c>
       <c r="C368" s="19" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="D368" s="10">
         <v>5</v>
@@ -61173,7 +61169,7 @@
       </c>
       <c r="C670" s="11"/>
       <c r="D670" s="13" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="E670" s="11">
         <v>12000</v>
@@ -63330,10 +63326,10 @@
       </c>
       <c r="C775" s="10"/>
       <c r="D775" s="19" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="E775" s="83" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="F775" s="10">
         <v>1</v>
@@ -63348,10 +63344,10 @@
       </c>
       <c r="C776" s="10"/>
       <c r="D776" s="19" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="E776" s="83" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="F776" s="10">
         <v>1</v>
@@ -63366,10 +63362,10 @@
       </c>
       <c r="C777" s="10"/>
       <c r="D777" s="19" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="E777" s="83" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="F777" s="10">
         <v>1</v>
@@ -63384,10 +63380,10 @@
       </c>
       <c r="C778" s="10"/>
       <c r="D778" s="19" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="E778" s="83" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="F778" s="10">
         <v>1</v>
@@ -63402,10 +63398,10 @@
       </c>
       <c r="C779" s="10"/>
       <c r="D779" s="19" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="E779" s="83" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="F779" s="10">
         <v>1</v>
@@ -63420,10 +63416,10 @@
       </c>
       <c r="C780" s="10"/>
       <c r="D780" s="19" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="E780" s="83" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="F780" s="10">
         <v>1</v>
@@ -63437,10 +63433,10 @@
         <v>574</v>
       </c>
       <c r="D781" s="13" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="E781" s="83" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="F781" s="11">
         <v>1</v>
@@ -63454,10 +63450,10 @@
         <v>575</v>
       </c>
       <c r="D782" s="13" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="E782" s="83" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="F782" s="11">
         <v>1</v>
@@ -63471,10 +63467,10 @@
         <v>576</v>
       </c>
       <c r="D783" s="13" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="E783" s="83" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="F783" s="11">
         <v>1</v>
@@ -63488,10 +63484,10 @@
         <v>577</v>
       </c>
       <c r="D784" s="13" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="E784" s="83" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="F784" s="11">
         <v>1</v>
@@ -63505,10 +63501,10 @@
         <v>578</v>
       </c>
       <c r="D785" s="13" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="E785" s="83" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="F785" s="11">
         <v>1</v>
@@ -63522,10 +63518,10 @@
         <v>579</v>
       </c>
       <c r="D786" s="13" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="E786" s="83" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="F786" s="11">
         <v>1</v>
@@ -63540,10 +63536,10 @@
       </c>
       <c r="C787" s="10"/>
       <c r="D787" s="19" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="E787" s="83" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="F787" s="10">
         <v>1</v>
@@ -63558,10 +63554,10 @@
       </c>
       <c r="C788" s="10"/>
       <c r="D788" s="19" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="E788" s="83" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="F788" s="10">
         <v>1</v>
@@ -63576,10 +63572,10 @@
       </c>
       <c r="C789" s="10"/>
       <c r="D789" s="19" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="E789" s="83" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="F789" s="10">
         <v>1</v>
@@ -63594,10 +63590,10 @@
       </c>
       <c r="C790" s="10"/>
       <c r="D790" s="19" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="E790" s="83" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="F790" s="10">
         <v>1</v>
@@ -63612,10 +63608,10 @@
       </c>
       <c r="C791" s="10"/>
       <c r="D791" s="19" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="E791" s="83" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="F791" s="10">
         <v>1</v>
@@ -63630,10 +63626,10 @@
       </c>
       <c r="C792" s="10"/>
       <c r="D792" s="19" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="E792" s="83" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="F792" s="10">
         <v>1</v>
@@ -63647,10 +63643,10 @@
         <v>586</v>
       </c>
       <c r="D793" s="13" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="E793" s="83" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="F793" s="11">
         <v>1</v>
@@ -63664,10 +63660,10 @@
         <v>587</v>
       </c>
       <c r="D794" s="13" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="E794" s="83" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F794" s="11">
         <v>1</v>
@@ -63681,10 +63677,10 @@
         <v>588</v>
       </c>
       <c r="D795" s="13" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="E795" s="83" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="F795" s="11">
         <v>1</v>
@@ -63698,10 +63694,10 @@
         <v>589</v>
       </c>
       <c r="D796" s="13" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="E796" s="83" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="F796" s="11">
         <v>1</v>
@@ -63715,10 +63711,10 @@
         <v>590</v>
       </c>
       <c r="D797" s="13" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="E797" s="83" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F797" s="11">
         <v>1</v>
@@ -63732,10 +63728,10 @@
         <v>591</v>
       </c>
       <c r="D798" s="13" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="E798" s="83" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="F798" s="11">
         <v>1</v>

--- a/config_debug/task_zajindan_server.xlsx
+++ b/config_debug/task_zajindan_server.xlsx
@@ -8366,7 +8366,7 @@
   <dimension ref="A1:T371"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="F167" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="E167" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="G185" sqref="G185"/>
@@ -32535,8 +32535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I527"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A391" workbookViewId="0">
-      <selection activeCell="A242" sqref="A242:A527"/>
+    <sheetView tabSelected="1" topLeftCell="A221" workbookViewId="0">
+      <selection activeCell="E237" sqref="E237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -36068,8 +36068,12 @@
       <c r="C245" s="13" t="s">
         <v>1260</v>
       </c>
-      <c r="D245" s="11"/>
-      <c r="E245" s="11"/>
+      <c r="D245" s="11">
+        <v>0</v>
+      </c>
+      <c r="E245" s="11">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="246" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A246" s="11">
@@ -36190,8 +36194,12 @@
       <c r="C253" s="13" t="s">
         <v>1260</v>
       </c>
-      <c r="D253" s="11"/>
-      <c r="E253" s="11"/>
+      <c r="D253" s="11">
+        <v>0</v>
+      </c>
+      <c r="E253" s="11">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="254" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A254" s="11">
@@ -36312,8 +36320,12 @@
       <c r="C261" s="13" t="s">
         <v>1260</v>
       </c>
-      <c r="D261" s="11"/>
-      <c r="E261" s="11"/>
+      <c r="D261" s="11">
+        <v>0</v>
+      </c>
+      <c r="E261" s="11">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="262" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A262" s="11">
@@ -36434,8 +36446,12 @@
       <c r="C269" s="13" t="s">
         <v>1260</v>
       </c>
-      <c r="D269" s="11"/>
-      <c r="E269" s="11"/>
+      <c r="D269" s="11">
+        <v>0</v>
+      </c>
+      <c r="E269" s="11">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="270" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A270" s="11">
@@ -36556,8 +36572,12 @@
       <c r="C277" s="13" t="s">
         <v>1260</v>
       </c>
-      <c r="D277" s="11"/>
-      <c r="E277" s="11"/>
+      <c r="D277" s="11">
+        <v>0</v>
+      </c>
+      <c r="E277" s="11">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="278" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A278" s="11">
@@ -36678,8 +36698,12 @@
       <c r="C285" s="13" t="s">
         <v>1260</v>
       </c>
-      <c r="D285" s="11"/>
-      <c r="E285" s="11"/>
+      <c r="D285" s="11">
+        <v>0</v>
+      </c>
+      <c r="E285" s="11">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="286" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A286" s="11">

--- a/config_debug/task_zajindan_server.xlsx
+++ b/config_debug/task_zajindan_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TTHLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\JyQipai_doc\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,12 +22,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">task!$B$1:$B$367</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4791" uniqueCount="1267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4791" uniqueCount="1268">
   <si>
     <t>id|任务id</t>
   </si>
@@ -7632,6 +7632,10 @@
   </si>
   <si>
     <t>任意游戏累计赢金5000万</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_fire_gift_task</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -8365,7 +8369,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D359" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D369" sqref="D369"/>
+      <selection pane="bottomRight" activeCell="F371" sqref="F371"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -22702,7 +22706,7 @@
         <v>12</v>
       </c>
       <c r="F368" s="51" t="s">
-        <v>856</v>
+        <v>1267</v>
       </c>
       <c r="G368" s="9">
         <v>21315</v>
@@ -22740,7 +22744,7 @@
         <v>12</v>
       </c>
       <c r="F369" s="51" t="s">
-        <v>856</v>
+        <v>1267</v>
       </c>
       <c r="G369" s="9">
         <v>21316</v>
@@ -22778,7 +22782,7 @@
         <v>12</v>
       </c>
       <c r="F370" s="51" t="s">
-        <v>856</v>
+        <v>1267</v>
       </c>
       <c r="G370" s="9">
         <v>21317</v>
@@ -22816,7 +22820,7 @@
         <v>12</v>
       </c>
       <c r="F371" s="51" t="s">
-        <v>856</v>
+        <v>1267</v>
       </c>
       <c r="G371" s="9">
         <v>21318</v>

--- a/config_debug/task_zajindan_server.xlsx
+++ b/config_debug/task_zajindan_server.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4791" uniqueCount="1268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4791" uniqueCount="1270">
   <si>
     <t>id|任务id</t>
   </si>
@@ -7635,7 +7635,15 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>3dby_fire_gift_task</t>
+    <t>by_3d_fire_gift_task</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_3d_fire_gift_task</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_3d_fire_gift_task</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -8369,7 +8377,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D359" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F371" sqref="F371"/>
+      <selection pane="bottomRight" activeCell="F370" sqref="F370"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -22744,7 +22752,7 @@
         <v>12</v>
       </c>
       <c r="F369" s="51" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="G369" s="9">
         <v>21316</v>
@@ -22782,7 +22790,7 @@
         <v>12</v>
       </c>
       <c r="F370" s="51" t="s">
-        <v>1267</v>
+        <v>1269</v>
       </c>
       <c r="G370" s="9">
         <v>21317</v>
@@ -22820,7 +22828,7 @@
         <v>12</v>
       </c>
       <c r="F371" s="51" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="G371" s="9">
         <v>21318</v>

--- a/config_debug/task_zajindan_server.xlsx
+++ b/config_debug/task_zajindan_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\JyQipai_doc\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -8373,11 +8373,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T371"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D359" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D341" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F370" sqref="F370"/>
+      <selection pane="bottomRight" activeCell="D370" sqref="D370"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -32543,8 +32543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I527"/>
   <sheetViews>
-    <sheetView topLeftCell="A391" workbookViewId="0">
-      <selection activeCell="A242" sqref="A242:A527"/>
+    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
+      <selection activeCell="E285" sqref="E285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -36076,8 +36076,12 @@
       <c r="C245" s="13" t="s">
         <v>1259</v>
       </c>
-      <c r="D245" s="11"/>
-      <c r="E245" s="11"/>
+      <c r="D245" s="11">
+        <v>0</v>
+      </c>
+      <c r="E245" s="11">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="246" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A246" s="11">
@@ -36198,8 +36202,12 @@
       <c r="C253" s="13" t="s">
         <v>1259</v>
       </c>
-      <c r="D253" s="11"/>
-      <c r="E253" s="11"/>
+      <c r="D253" s="11">
+        <v>0</v>
+      </c>
+      <c r="E253" s="11">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="254" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A254" s="11">
@@ -36320,8 +36328,12 @@
       <c r="C261" s="13" t="s">
         <v>1259</v>
       </c>
-      <c r="D261" s="11"/>
-      <c r="E261" s="11"/>
+      <c r="D261" s="11">
+        <v>0</v>
+      </c>
+      <c r="E261" s="11">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="262" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A262" s="11">
@@ -36442,8 +36454,12 @@
       <c r="C269" s="13" t="s">
         <v>1259</v>
       </c>
-      <c r="D269" s="11"/>
-      <c r="E269" s="11"/>
+      <c r="D269" s="11">
+        <v>0</v>
+      </c>
+      <c r="E269" s="11">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="270" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A270" s="11">
@@ -36564,8 +36580,12 @@
       <c r="C277" s="13" t="s">
         <v>1259</v>
       </c>
-      <c r="D277" s="11"/>
-      <c r="E277" s="11"/>
+      <c r="D277" s="11">
+        <v>0</v>
+      </c>
+      <c r="E277" s="11">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="278" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A278" s="11">
@@ -36686,8 +36706,12 @@
       <c r="C285" s="13" t="s">
         <v>1259</v>
       </c>
-      <c r="D285" s="11"/>
-      <c r="E285" s="11"/>
+      <c r="D285" s="11">
+        <v>0</v>
+      </c>
+      <c r="E285" s="11">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="286" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A286" s="11">
@@ -40179,7 +40203,7 @@
   <dimension ref="A1:M368"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C348" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C258" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="B365" sqref="B365:B368"/>
@@ -47076,7 +47100,7 @@
   <dimension ref="A1:W798"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C769" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C676" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="H790" sqref="H790"/>

--- a/config_debug/task_zajindan_server.xlsx
+++ b/config_debug/task_zajindan_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4793" uniqueCount="1274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4795" uniqueCount="1260">
   <si>
     <t>id|任务id</t>
   </si>
@@ -7164,22 +7164,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>250000,2000000,5000000,15000000,40000000,100000000</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>2500000,20000000,50000000,150000000,400000000,1000000000</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>25000000,200000000,500000000,1500000000,4000000000,10000000000</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>250000000,2000000000,5000000000,15000000000,40000000000,100000000000</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>shop_gold_sum</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -7188,406 +7172,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>568</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,569,570,571,572,573</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>74,575,576,577,578,579</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>80,581,582,583,584,585</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>86,587,588,589,590,591</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>40,80</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>400,500</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1400</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4000</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>100</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>140</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>200</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>400</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>40,50</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,6</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,8</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,20</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>40,60</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>100,200</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>400,600</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>400,800</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000,2000</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>4000,5000</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10000,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>140</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>20000,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>400</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>4000,6000</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>4000,8000</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000,20000</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>40000,50000</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>100000,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>140</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>200000,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>400</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>little_game_award_half_buyu</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -7621,18 +7205,6 @@
   </si>
   <si>
     <t>任意游戏累计赢金5000万</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>by_3d_fire_gift_task</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>by_3d_fire_gift_task</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>by_3d_fire_gift_task</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -7685,6 +7257,103 @@
   </si>
   <si>
     <t>buyu_3d_spend_num</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyu_leiji_dapao_new_task</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyu_leiji_dapao_new_task</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>300000,950000,4500000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000000,9500000,45000000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>30000000,95000000,450000000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>300000000,950000000,4500000000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>577,578,579</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>568</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,569,570,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>571,572,573</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>574,575,576,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>40</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>60</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -7878,7 +7547,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8128,6 +7797,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -8415,10 +8087,10 @@
   <dimension ref="A1:T371"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="E161" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D338" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E179" sqref="E179"/>
+      <selection pane="bottomRight" activeCell="D368" sqref="D368"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -15548,16 +15220,16 @@
         <v>21126</v>
       </c>
       <c r="B179" s="61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C179" s="84" t="s">
         <v>1198</v>
       </c>
       <c r="D179" s="84" t="s">
-        <v>1271</v>
+        <v>1236</v>
       </c>
       <c r="E179" s="84" t="s">
-        <v>1272</v>
+        <v>1237</v>
       </c>
       <c r="F179" s="84" t="s">
         <v>13</v>
@@ -15587,7 +15259,7 @@
         <v>21127</v>
       </c>
       <c r="B180" s="61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C180" s="84" t="s">
         <v>1198</v>
@@ -15626,7 +15298,7 @@
         <v>21128</v>
       </c>
       <c r="B181" s="61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C181" s="84" t="s">
         <v>1198</v>
@@ -15665,7 +15337,7 @@
         <v>21129</v>
       </c>
       <c r="B182" s="61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C182" s="84" t="s">
         <v>1198</v>
@@ -15704,7 +15376,7 @@
         <v>21130</v>
       </c>
       <c r="B183" s="61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C183" s="84" t="s">
         <v>1198</v>
@@ -15743,7 +15415,7 @@
         <v>21131</v>
       </c>
       <c r="B184" s="61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C184" s="84" t="s">
         <v>1198</v>
@@ -15782,13 +15454,13 @@
         <v>21132</v>
       </c>
       <c r="B185" s="61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C185" s="84" t="s">
         <v>1198</v>
       </c>
       <c r="D185" s="84" t="s">
-        <v>1257</v>
+        <v>1225</v>
       </c>
       <c r="E185" s="84" t="s">
         <v>132</v>
@@ -15821,13 +15493,13 @@
         <v>21133</v>
       </c>
       <c r="B186" s="61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C186" s="84" t="s">
         <v>1198</v>
       </c>
       <c r="D186" s="84" t="s">
-        <v>1258</v>
+        <v>1226</v>
       </c>
       <c r="E186" s="84" t="s">
         <v>132</v>
@@ -15860,13 +15532,13 @@
         <v>21134</v>
       </c>
       <c r="B187" s="61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C187" s="84" t="s">
         <v>1198</v>
       </c>
       <c r="D187" s="84" t="s">
-        <v>1259</v>
+        <v>1227</v>
       </c>
       <c r="E187" s="84" t="s">
         <v>132</v>
@@ -15899,13 +15571,13 @@
         <v>21135</v>
       </c>
       <c r="B188" s="61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C188" s="84" t="s">
         <v>1198</v>
       </c>
       <c r="D188" s="84" t="s">
-        <v>1260</v>
+        <v>1228</v>
       </c>
       <c r="E188" s="84" t="s">
         <v>132</v>
@@ -15938,13 +15610,13 @@
         <v>21136</v>
       </c>
       <c r="B189" s="61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C189" s="84" t="s">
         <v>1198</v>
       </c>
       <c r="D189" s="84" t="s">
-        <v>1261</v>
+        <v>1229</v>
       </c>
       <c r="E189" s="84" t="s">
         <v>132</v>
@@ -15977,13 +15649,13 @@
         <v>21137</v>
       </c>
       <c r="B190" s="61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C190" s="84" t="s">
         <v>1198</v>
       </c>
       <c r="D190" s="84" t="s">
-        <v>1262</v>
+        <v>1230</v>
       </c>
       <c r="E190" s="84" t="s">
         <v>132</v>
@@ -16016,13 +15688,13 @@
         <v>21138</v>
       </c>
       <c r="B191" s="61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C191" s="84" t="s">
         <v>1198</v>
       </c>
       <c r="D191" s="84" t="s">
-        <v>1263</v>
+        <v>1231</v>
       </c>
       <c r="E191" s="84" t="s">
         <v>132</v>
@@ -22755,13 +22427,13 @@
         <v>12</v>
       </c>
       <c r="F368" s="51" t="s">
-        <v>1264</v>
+        <v>1239</v>
       </c>
       <c r="G368" s="9">
         <v>21315</v>
       </c>
-      <c r="H368" s="9" t="b">
-        <v>1</v>
+      <c r="H368" s="51" t="b">
+        <v>0</v>
       </c>
       <c r="I368" s="9">
         <v>1</v>
@@ -22793,13 +22465,13 @@
         <v>12</v>
       </c>
       <c r="F369" s="51" t="s">
-        <v>1265</v>
+        <v>1240</v>
       </c>
       <c r="G369" s="9">
         <v>21316</v>
       </c>
-      <c r="H369" s="9" t="b">
-        <v>1</v>
+      <c r="H369" s="51" t="b">
+        <v>0</v>
       </c>
       <c r="I369" s="9">
         <v>1</v>
@@ -22831,13 +22503,13 @@
         <v>12</v>
       </c>
       <c r="F370" s="51" t="s">
-        <v>1266</v>
+        <v>1240</v>
       </c>
       <c r="G370" s="9">
         <v>21317</v>
       </c>
-      <c r="H370" s="9" t="b">
-        <v>1</v>
+      <c r="H370" s="51" t="b">
+        <v>0</v>
       </c>
       <c r="I370" s="9">
         <v>1</v>
@@ -22869,13 +22541,13 @@
         <v>12</v>
       </c>
       <c r="F371" s="51" t="s">
-        <v>1265</v>
+        <v>1240</v>
       </c>
       <c r="G371" s="9">
         <v>21318</v>
       </c>
-      <c r="H371" s="9" t="b">
-        <v>1</v>
+      <c r="H371" s="51" t="b">
+        <v>0</v>
       </c>
       <c r="I371" s="9">
         <v>1</v>
@@ -22900,13 +22572,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K371"/>
+  <dimension ref="A1:K375"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C161" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E347" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E179" sqref="E179"/>
+      <selection pane="bottomRight" activeCell="H368" sqref="H368"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -22934,7 +22606,7 @@
         <v>380</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>1268</v>
+        <v>1233</v>
       </c>
       <c r="F1" s="34" t="s">
         <v>381</v>
@@ -27729,7 +27401,7 @@
       </c>
       <c r="E179" s="10"/>
       <c r="F179" s="82" t="s">
-        <v>1269</v>
+        <v>1234</v>
       </c>
       <c r="G179" s="79"/>
       <c r="H179" s="83" t="s">
@@ -27876,7 +27548,7 @@
         <v>21132</v>
       </c>
       <c r="C185" s="13" t="s">
-        <v>1255</v>
+        <v>1223</v>
       </c>
       <c r="D185" s="11">
         <v>184</v>
@@ -30114,7 +29786,7 @@
         <v>21216</v>
       </c>
       <c r="C269" s="13" t="s">
-        <v>1267</v>
+        <v>1232</v>
       </c>
       <c r="D269" s="11">
         <v>268</v>
@@ -32479,7 +32151,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="368" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A368" s="10">
         <v>367</v>
       </c>
@@ -32492,17 +32164,17 @@
       </c>
       <c r="E368" s="10"/>
       <c r="F368" s="82" t="s">
-        <v>1221</v>
+        <v>1241</v>
       </c>
       <c r="G368" s="79"/>
       <c r="H368" s="83" t="s">
-        <v>1227</v>
+        <v>1246</v>
       </c>
       <c r="I368" s="19" t="s">
         <v>1219</v>
       </c>
     </row>
-    <row r="369" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A369" s="19">
         <v>368</v>
       </c>
@@ -32515,17 +32187,17 @@
       </c>
       <c r="E369" s="10"/>
       <c r="F369" s="82" t="s">
-        <v>1222</v>
+        <v>1242</v>
       </c>
       <c r="G369" s="79"/>
       <c r="H369" s="83" t="s">
-        <v>1228</v>
+        <v>1247</v>
       </c>
       <c r="I369" s="19" t="s">
         <v>1220</v>
       </c>
     </row>
-    <row r="370" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A370" s="10">
         <v>369</v>
       </c>
@@ -32538,17 +32210,17 @@
       </c>
       <c r="E370" s="10"/>
       <c r="F370" s="82" t="s">
-        <v>1223</v>
+        <v>1243</v>
       </c>
       <c r="G370" s="79"/>
       <c r="H370" s="83" t="s">
-        <v>1229</v>
+        <v>1248</v>
       </c>
       <c r="I370" s="19" t="s">
         <v>1220</v>
       </c>
     </row>
-    <row r="371" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A371" s="10">
         <v>370</v>
       </c>
@@ -32561,15 +32233,19 @@
       </c>
       <c r="E371" s="10"/>
       <c r="F371" s="82" t="s">
-        <v>1224</v>
+        <v>1244</v>
       </c>
       <c r="G371" s="79"/>
       <c r="H371" s="83" t="s">
-        <v>1230</v>
+        <v>1245</v>
       </c>
       <c r="I371" s="19" t="s">
         <v>1220</v>
       </c>
+    </row>
+    <row r="375" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F375" s="88"/>
+      <c r="G375" s="88"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
@@ -35794,7 +35470,7 @@
         <v>178</v>
       </c>
       <c r="C224" s="85" t="s">
-        <v>1273</v>
+        <v>1238</v>
       </c>
       <c r="D224" s="60">
         <v>257</v>
@@ -35987,7 +35663,7 @@
         <v>184</v>
       </c>
       <c r="C237" s="13" t="s">
-        <v>1256</v>
+        <v>1224</v>
       </c>
       <c r="D237" s="11">
         <v>0</v>
@@ -36113,7 +35789,7 @@
         <v>185</v>
       </c>
       <c r="C245" s="13" t="s">
-        <v>1256</v>
+        <v>1224</v>
       </c>
       <c r="D245" s="11">
         <v>0</v>
@@ -36239,7 +35915,7 @@
         <v>186</v>
       </c>
       <c r="C253" s="13" t="s">
-        <v>1256</v>
+        <v>1224</v>
       </c>
       <c r="D253" s="11">
         <v>0</v>
@@ -36365,7 +36041,7 @@
         <v>187</v>
       </c>
       <c r="C261" s="13" t="s">
-        <v>1256</v>
+        <v>1224</v>
       </c>
       <c r="D261" s="11">
         <v>0</v>
@@ -36491,7 +36167,7 @@
         <v>188</v>
       </c>
       <c r="C269" s="13" t="s">
-        <v>1256</v>
+        <v>1224</v>
       </c>
       <c r="D269" s="11">
         <v>0</v>
@@ -36617,7 +36293,7 @@
         <v>189</v>
       </c>
       <c r="C277" s="13" t="s">
-        <v>1256</v>
+        <v>1224</v>
       </c>
       <c r="D277" s="11">
         <v>0</v>
@@ -36743,7 +36419,7 @@
         <v>190</v>
       </c>
       <c r="C285" s="13" t="s">
-        <v>1256</v>
+        <v>1224</v>
       </c>
       <c r="D285" s="11">
         <v>0</v>
@@ -40241,11 +39917,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M369"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C345" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C369" sqref="C369"/>
+      <selection pane="bottomRight" activeCell="A366" sqref="A366"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -47138,7 +46814,7 @@
         <v>675</v>
       </c>
       <c r="D369" s="14" t="s">
-        <v>1270</v>
+        <v>1235</v>
       </c>
       <c r="E369" s="29">
         <v>2</v>
@@ -47155,13 +46831,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W798"/>
+  <dimension ref="A1:W810"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C676" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C775" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H790" sqref="H790"/>
+      <selection pane="bottomRight" activeCell="A775" sqref="A775:A810"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -61263,7 +60939,7 @@
       </c>
       <c r="C670" s="11"/>
       <c r="D670" s="13" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="E670" s="11">
         <v>12000</v>
@@ -63420,67 +63096,74 @@
       </c>
       <c r="C775" s="10"/>
       <c r="D775" s="19" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="E775" s="83" t="s">
-        <v>1238</v>
+        <v>1249</v>
       </c>
       <c r="F775" s="10">
-        <v>1</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="H775" s="33"/>
     </row>
     <row r="776" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A776" s="9">
         <v>775</v>
       </c>
       <c r="B776" s="10">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C776" s="10"/>
       <c r="D776" s="19" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="E776" s="83" t="s">
-        <v>1239</v>
+        <v>1250</v>
       </c>
       <c r="F776" s="10">
-        <v>1</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G776" s="29"/>
+      <c r="H776" s="33"/>
+      <c r="I776" s="29"/>
     </row>
     <row r="777" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A777" s="9">
         <v>776</v>
       </c>
       <c r="B777" s="10">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C777" s="10"/>
       <c r="D777" s="19" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="E777" s="83" t="s">
-        <v>1240</v>
+        <v>1251</v>
       </c>
       <c r="F777" s="10">
-        <v>1</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G777" s="29"/>
+      <c r="H777" s="33"/>
+      <c r="I777" s="29"/>
     </row>
     <row r="778" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A778" s="9">
         <v>777</v>
       </c>
       <c r="B778" s="10">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C778" s="10"/>
       <c r="D778" s="19" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="E778" s="83" t="s">
-        <v>1237</v>
+        <v>1252</v>
       </c>
       <c r="F778" s="10">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="779" spans="1:9" x14ac:dyDescent="0.2">
@@ -63488,17 +63171,17 @@
         <v>778</v>
       </c>
       <c r="B779" s="10">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C779" s="10"/>
       <c r="D779" s="19" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="E779" s="83" t="s">
-        <v>1235</v>
+        <v>1253</v>
       </c>
       <c r="F779" s="10">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="780" spans="1:9" x14ac:dyDescent="0.2">
@@ -63506,119 +63189,125 @@
         <v>779</v>
       </c>
       <c r="B780" s="10">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="C780" s="10"/>
       <c r="D780" s="19" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="E780" s="83" t="s">
-        <v>1236</v>
+        <v>1254</v>
       </c>
       <c r="F780" s="10">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="781" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A781" s="12">
+      <c r="A781" s="9">
         <v>780</v>
       </c>
-      <c r="B781" s="29">
-        <v>574</v>
-      </c>
-      <c r="D781" s="13" t="s">
-        <v>1226</v>
+      <c r="B781" s="10">
+        <v>570</v>
+      </c>
+      <c r="C781" s="10"/>
+      <c r="D781" s="19" t="s">
+        <v>1222</v>
       </c>
       <c r="E781" s="83" t="s">
-        <v>1241</v>
-      </c>
-      <c r="F781" s="11">
-        <v>1</v>
+        <v>1255</v>
+      </c>
+      <c r="F781" s="10">
+        <v>25</v>
       </c>
     </row>
     <row r="782" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A782" s="12">
+      <c r="A782" s="9">
         <v>781</v>
       </c>
-      <c r="B782" s="29">
-        <v>575</v>
-      </c>
-      <c r="D782" s="13" t="s">
-        <v>1226</v>
+      <c r="B782" s="10">
+        <v>570</v>
+      </c>
+      <c r="C782" s="10"/>
+      <c r="D782" s="19" t="s">
+        <v>1222</v>
       </c>
       <c r="E782" s="83" t="s">
-        <v>1231</v>
-      </c>
-      <c r="F782" s="11">
-        <v>1</v>
+        <v>1256</v>
+      </c>
+      <c r="F782" s="10">
+        <v>50</v>
       </c>
     </row>
     <row r="783" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A783" s="12">
+      <c r="A783" s="9">
         <v>782</v>
       </c>
-      <c r="B783" s="29">
-        <v>576</v>
-      </c>
-      <c r="D783" s="13" t="s">
-        <v>1226</v>
+      <c r="B783" s="10">
+        <v>570</v>
+      </c>
+      <c r="C783" s="10"/>
+      <c r="D783" s="19" t="s">
+        <v>1222</v>
       </c>
       <c r="E783" s="83" t="s">
-        <v>1242</v>
-      </c>
-      <c r="F783" s="11">
-        <v>1</v>
+        <v>1257</v>
+      </c>
+      <c r="F783" s="10">
+        <v>25</v>
       </c>
     </row>
     <row r="784" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A784" s="12">
+      <c r="A784" s="9">
         <v>783</v>
       </c>
-      <c r="B784" s="29">
-        <v>577</v>
-      </c>
-      <c r="D784" s="13" t="s">
-        <v>1226</v>
+      <c r="B784" s="10">
+        <v>571</v>
+      </c>
+      <c r="C784" s="10"/>
+      <c r="D784" s="19" t="s">
+        <v>1222</v>
       </c>
       <c r="E784" s="83" t="s">
-        <v>1232</v>
-      </c>
-      <c r="F784" s="11">
-        <v>1</v>
+        <v>1253</v>
+      </c>
+      <c r="F784" s="10">
+        <v>25</v>
       </c>
     </row>
     <row r="785" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A785" s="12">
+      <c r="A785" s="9">
         <v>784</v>
       </c>
-      <c r="B785" s="29">
-        <v>578</v>
-      </c>
-      <c r="D785" s="13" t="s">
-        <v>1226</v>
+      <c r="B785" s="10">
+        <v>571</v>
+      </c>
+      <c r="C785" s="10"/>
+      <c r="D785" s="19" t="s">
+        <v>1222</v>
       </c>
       <c r="E785" s="83" t="s">
-        <v>1233</v>
-      </c>
-      <c r="F785" s="11">
-        <v>1</v>
+        <v>1258</v>
+      </c>
+      <c r="F785" s="10">
+        <v>50</v>
       </c>
     </row>
     <row r="786" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A786" s="12">
+      <c r="A786" s="9">
         <v>785</v>
       </c>
-      <c r="B786" s="29">
-        <v>579</v>
-      </c>
-      <c r="D786" s="13" t="s">
-        <v>1226</v>
+      <c r="B786" s="10">
+        <v>571</v>
+      </c>
+      <c r="C786" s="10"/>
+      <c r="D786" s="19" t="s">
+        <v>1222</v>
       </c>
       <c r="E786" s="83" t="s">
-        <v>1234</v>
-      </c>
-      <c r="F786" s="11">
-        <v>1</v>
+        <v>1256</v>
+      </c>
+      <c r="F786" s="10">
+        <v>25</v>
       </c>
     </row>
     <row r="787" spans="1:6" x14ac:dyDescent="0.2">
@@ -63626,17 +63315,17 @@
         <v>786</v>
       </c>
       <c r="B787" s="10">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="C787" s="10"/>
       <c r="D787" s="19" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="E787" s="83" t="s">
-        <v>1243</v>
+        <v>1256</v>
       </c>
       <c r="F787" s="10">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="788" spans="1:6" x14ac:dyDescent="0.2">
@@ -63644,17 +63333,17 @@
         <v>787</v>
       </c>
       <c r="B788" s="10">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="C788" s="10"/>
       <c r="D788" s="19" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="E788" s="83" t="s">
-        <v>1244</v>
+        <v>1259</v>
       </c>
       <c r="F788" s="10">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="789" spans="1:6" x14ac:dyDescent="0.2">
@@ -63662,17 +63351,17 @@
         <v>788</v>
       </c>
       <c r="B789" s="10">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="C789" s="10"/>
       <c r="D789" s="19" t="s">
-        <v>1226</v>
-      </c>
-      <c r="E789" s="83" t="s">
-        <v>1245</v>
+        <v>1222</v>
+      </c>
+      <c r="E789" s="83">
+        <v>150</v>
       </c>
       <c r="F789" s="10">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="790" spans="1:6" x14ac:dyDescent="0.2">
@@ -63680,17 +63369,17 @@
         <v>789</v>
       </c>
       <c r="B790" s="10">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="C790" s="10"/>
       <c r="D790" s="19" t="s">
-        <v>1226</v>
-      </c>
-      <c r="E790" s="83" t="s">
-        <v>1246</v>
+        <v>1222</v>
+      </c>
+      <c r="E790" s="9">
+        <v>400</v>
       </c>
       <c r="F790" s="10">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="791" spans="1:6" x14ac:dyDescent="0.2">
@@ -63698,17 +63387,17 @@
         <v>790</v>
       </c>
       <c r="B791" s="10">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="C791" s="10"/>
       <c r="D791" s="19" t="s">
-        <v>1226</v>
-      </c>
-      <c r="E791" s="83" t="s">
-        <v>1247</v>
+        <v>1222</v>
+      </c>
+      <c r="E791" s="9">
+        <v>500</v>
       </c>
       <c r="F791" s="10">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="792" spans="1:6" x14ac:dyDescent="0.2">
@@ -63716,119 +63405,341 @@
         <v>791</v>
       </c>
       <c r="B792" s="10">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="C792" s="10"/>
       <c r="D792" s="19" t="s">
-        <v>1226</v>
-      </c>
-      <c r="E792" s="83" t="s">
-        <v>1248</v>
+        <v>1222</v>
+      </c>
+      <c r="E792" s="9">
+        <v>600</v>
       </c>
       <c r="F792" s="10">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="793" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A793" s="12">
+      <c r="A793" s="9">
         <v>792</v>
       </c>
-      <c r="B793" s="29">
-        <v>586</v>
-      </c>
-      <c r="D793" s="13" t="s">
-        <v>1226</v>
-      </c>
-      <c r="E793" s="83" t="s">
-        <v>1249</v>
-      </c>
-      <c r="F793" s="11">
-        <v>1</v>
+      <c r="B793" s="10">
+        <v>574</v>
+      </c>
+      <c r="C793" s="10"/>
+      <c r="D793" s="19" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E793" s="9">
+        <v>100</v>
+      </c>
+      <c r="F793" s="10">
+        <v>25</v>
       </c>
     </row>
     <row r="794" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A794" s="12">
+      <c r="A794" s="9">
         <v>793</v>
       </c>
-      <c r="B794" s="29">
-        <v>587</v>
-      </c>
-      <c r="D794" s="13" t="s">
-        <v>1226</v>
-      </c>
-      <c r="E794" s="83" t="s">
-        <v>1250</v>
-      </c>
-      <c r="F794" s="11">
-        <v>1</v>
+      <c r="B794" s="10">
+        <v>574</v>
+      </c>
+      <c r="C794" s="10"/>
+      <c r="D794" s="19" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E794" s="9">
+        <v>300</v>
+      </c>
+      <c r="F794" s="10">
+        <v>50</v>
       </c>
     </row>
     <row r="795" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A795" s="12">
+      <c r="A795" s="9">
         <v>794</v>
       </c>
-      <c r="B795" s="29">
-        <v>588</v>
-      </c>
-      <c r="D795" s="13" t="s">
-        <v>1226</v>
-      </c>
-      <c r="E795" s="83" t="s">
-        <v>1251</v>
-      </c>
-      <c r="F795" s="11">
-        <v>1</v>
+      <c r="B795" s="10">
+        <v>574</v>
+      </c>
+      <c r="C795" s="10"/>
+      <c r="D795" s="19" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E795" s="9">
+        <v>500</v>
+      </c>
+      <c r="F795" s="10">
+        <v>25</v>
       </c>
     </row>
     <row r="796" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A796" s="12">
+      <c r="A796" s="9">
         <v>795</v>
       </c>
-      <c r="B796" s="29">
-        <v>589</v>
-      </c>
-      <c r="D796" s="13" t="s">
-        <v>1226</v>
-      </c>
-      <c r="E796" s="83" t="s">
-        <v>1252</v>
-      </c>
-      <c r="F796" s="11">
-        <v>1</v>
+      <c r="B796" s="10">
+        <v>575</v>
+      </c>
+      <c r="C796" s="10"/>
+      <c r="D796" s="19" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E796" s="9">
+        <v>500</v>
+      </c>
+      <c r="F796" s="10">
+        <v>25</v>
       </c>
     </row>
     <row r="797" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A797" s="12">
+      <c r="A797" s="9">
         <v>796</v>
       </c>
-      <c r="B797" s="29">
-        <v>590</v>
-      </c>
-      <c r="D797" s="13" t="s">
-        <v>1226</v>
-      </c>
-      <c r="E797" s="83" t="s">
-        <v>1253</v>
-      </c>
-      <c r="F797" s="11">
-        <v>1</v>
+      <c r="B797" s="10">
+        <v>575</v>
+      </c>
+      <c r="C797" s="10"/>
+      <c r="D797" s="19" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E797" s="9">
+        <v>1000</v>
+      </c>
+      <c r="F797" s="10">
+        <v>50</v>
       </c>
     </row>
     <row r="798" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A798" s="12">
+      <c r="A798" s="9">
         <v>797</v>
       </c>
-      <c r="B798" s="29">
-        <v>591</v>
-      </c>
-      <c r="D798" s="13" t="s">
-        <v>1226</v>
-      </c>
-      <c r="E798" s="83" t="s">
-        <v>1254</v>
-      </c>
-      <c r="F798" s="11">
-        <v>1</v>
+      <c r="B798" s="10">
+        <v>575</v>
+      </c>
+      <c r="C798" s="10"/>
+      <c r="D798" s="19" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E798" s="9">
+        <v>1500</v>
+      </c>
+      <c r="F798" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="799" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A799" s="9">
+        <v>798</v>
+      </c>
+      <c r="B799" s="10">
+        <v>576</v>
+      </c>
+      <c r="C799" s="10"/>
+      <c r="D799" s="19" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E799" s="9">
+        <v>4000</v>
+      </c>
+      <c r="F799" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="800" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A800" s="9">
+        <v>799</v>
+      </c>
+      <c r="B800" s="10">
+        <v>576</v>
+      </c>
+      <c r="C800" s="10"/>
+      <c r="D800" s="19" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E800" s="9">
+        <v>5000</v>
+      </c>
+      <c r="F800" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="801" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A801" s="9">
+        <v>800</v>
+      </c>
+      <c r="B801" s="10">
+        <v>576</v>
+      </c>
+      <c r="C801" s="10"/>
+      <c r="D801" s="19" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E801" s="9">
+        <v>6000</v>
+      </c>
+      <c r="F801" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="802" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A802" s="9">
+        <v>801</v>
+      </c>
+      <c r="B802" s="10">
+        <v>577</v>
+      </c>
+      <c r="C802" s="10"/>
+      <c r="D802" s="19" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E802" s="9">
+        <v>1000</v>
+      </c>
+      <c r="F802" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="803" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A803" s="9">
+        <v>802</v>
+      </c>
+      <c r="B803" s="10">
+        <v>577</v>
+      </c>
+      <c r="C803" s="10"/>
+      <c r="D803" s="19" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E803" s="9">
+        <v>3000</v>
+      </c>
+      <c r="F803" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="804" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A804" s="9">
+        <v>803</v>
+      </c>
+      <c r="B804" s="10">
+        <v>577</v>
+      </c>
+      <c r="C804" s="10"/>
+      <c r="D804" s="19" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E804" s="9">
+        <v>5000</v>
+      </c>
+      <c r="F804" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="805" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A805" s="9">
+        <v>804</v>
+      </c>
+      <c r="B805" s="10">
+        <v>578</v>
+      </c>
+      <c r="C805" s="10"/>
+      <c r="D805" s="19" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E805" s="9">
+        <v>5000</v>
+      </c>
+      <c r="F805" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="806" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A806" s="9">
+        <v>805</v>
+      </c>
+      <c r="B806" s="10">
+        <v>578</v>
+      </c>
+      <c r="C806" s="10"/>
+      <c r="D806" s="19" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E806" s="9">
+        <v>10000</v>
+      </c>
+      <c r="F806" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="807" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A807" s="9">
+        <v>806</v>
+      </c>
+      <c r="B807" s="10">
+        <v>578</v>
+      </c>
+      <c r="C807" s="10"/>
+      <c r="D807" s="19" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E807" s="9">
+        <v>15000</v>
+      </c>
+      <c r="F807" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="808" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A808" s="9">
+        <v>807</v>
+      </c>
+      <c r="B808" s="10">
+        <v>579</v>
+      </c>
+      <c r="C808" s="10"/>
+      <c r="D808" s="19" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E808" s="9">
+        <v>40000</v>
+      </c>
+      <c r="F808" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="809" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A809" s="9">
+        <v>808</v>
+      </c>
+      <c r="B809" s="10">
+        <v>579</v>
+      </c>
+      <c r="C809" s="10"/>
+      <c r="D809" s="19" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E809" s="9">
+        <v>50000</v>
+      </c>
+      <c r="F809" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="810" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A810" s="9">
+        <v>809</v>
+      </c>
+      <c r="B810" s="10">
+        <v>579</v>
+      </c>
+      <c r="C810" s="10"/>
+      <c r="D810" s="19" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E810" s="9">
+        <v>60000</v>
+      </c>
+      <c r="F810" s="10">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/task_zajindan_server.xlsx
+++ b/config_debug/task_zajindan_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4795" uniqueCount="1260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4969" uniqueCount="1338">
   <si>
     <t>id|任务id</t>
   </si>
@@ -7356,6 +7356,474 @@
     <t>100</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
+  <si>
+    <t>小游戏畅玩卡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>小游戏畅玩卡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日登陆</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>chang_wan_ka_task</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_1</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ommon</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>赢金任务上级</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>chang_wan_ka_task_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>chang_wan_ka_task</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊任务上级</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>chang_wan_ka_task_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>chang_wan_ka_children_normal_task</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>chang_wan_ka_children_normal_task</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>common</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>在苹果大战中累计纯赢800万</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>chang_wan_ka_children_special_task</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>chang_wan_ka_children_special_task</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>苹果大战使用5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0万及以上档次种出一次金苹果</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>街机捕鱼使用1万以上炮倍击杀一条黄金龙</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>敲敲乐财神模式中累计赢金800万</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>弹弹乐中累计赢金8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00万</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果消消乐使用6万及以上档次出现一次幸运时刻</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>水浒消消乐中累计赢金8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00万</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>财神消消乐使用1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2万以上档次打出一次天女散花</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>敲敲乐使用1万及以上档次敲出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2次38倍财神</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>在财神消消乐中累计赢金1000万</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中累计赢金1000万</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水浒消消乐中累计赢金1000万</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>在苹果大战中累计纯赢1000万</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>在街机捕鱼中累计赢金1000万</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>在疯狂捕鱼中累计赢金1000万</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>在弹弹乐中累计赢金1000万</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>在敲敲乐中累计赢金1000万</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>在敲敲乐财神模式中累计赢金1000万</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>nor</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>nor</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>nor</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>or</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>nor</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>or</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>or</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>or</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>nor</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>or</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>580</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>581</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>582</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaoxiaole_caishen_award</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaoxiaole_shuihu_award</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaoxiaole_award</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>guess_apple_award</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyu_award</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>jykp_award</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>tantanle_award</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>zajindan_award</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>zajindan_caishen_model_award</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>guess_apple_award_kaijiang_type</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyu_target_yu</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxl_lucky_award</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaoxiaole_caishen_sky_girl</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>zajindan_caishen</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>bet_spend</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>base_fish_id</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun_rate</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>hammer_id</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>jing_bi</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_21320</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_21321</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -7438,7 +7906,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7505,6 +7973,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -7547,7 +8021,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7798,8 +8272,14 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -8084,13 +8564,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T371"/>
+  <dimension ref="A1:T392"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D338" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D362" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D368" sqref="D368"/>
+      <selection pane="bottomRight" activeCell="C384" sqref="C384"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8098,7 +8578,7 @@
     <col min="1" max="1" width="10.25" style="7" customWidth="1"/>
     <col min="2" max="2" width="18" style="7" customWidth="1"/>
     <col min="3" max="3" width="52.5" style="7" customWidth="1"/>
-    <col min="4" max="4" width="69.25" style="7" customWidth="1"/>
+    <col min="4" max="4" width="70" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36.625" style="7" customWidth="1"/>
     <col min="6" max="6" width="33.875" style="7" customWidth="1"/>
     <col min="7" max="12" width="27.5" style="7" customWidth="1"/>
@@ -22562,6 +23042,804 @@
         <v>-1</v>
       </c>
     </row>
+    <row r="372" spans="1:12" s="88" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A372" s="88">
+        <v>21319</v>
+      </c>
+      <c r="B372" s="88">
+        <v>1</v>
+      </c>
+      <c r="C372" s="89" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D372" s="89" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E372" s="89" t="s">
+        <v>1263</v>
+      </c>
+      <c r="F372" s="89" t="s">
+        <v>1264</v>
+      </c>
+      <c r="G372" s="88">
+        <v>21319</v>
+      </c>
+      <c r="H372" s="88" t="b">
+        <v>1</v>
+      </c>
+      <c r="I372" s="88">
+        <v>1</v>
+      </c>
+      <c r="J372" s="88">
+        <v>1592236800</v>
+      </c>
+      <c r="K372" s="88">
+        <v>32503651200</v>
+      </c>
+      <c r="L372" s="88">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:12" s="88" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A373" s="88">
+        <v>21320</v>
+      </c>
+      <c r="B373" s="88">
+        <v>1</v>
+      </c>
+      <c r="C373" s="89" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D373" s="89" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E373" s="89" t="s">
+        <v>1266</v>
+      </c>
+      <c r="F373" s="89" t="s">
+        <v>1267</v>
+      </c>
+      <c r="G373" s="88">
+        <v>21320</v>
+      </c>
+      <c r="H373" s="88" t="b">
+        <v>1</v>
+      </c>
+      <c r="I373" s="88">
+        <v>1</v>
+      </c>
+      <c r="J373" s="88">
+        <v>1592236800</v>
+      </c>
+      <c r="K373" s="88">
+        <v>32503651200</v>
+      </c>
+      <c r="L373" s="88">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:12" s="88" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A374" s="88">
+        <v>21321</v>
+      </c>
+      <c r="B374" s="88">
+        <v>1</v>
+      </c>
+      <c r="C374" s="89" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D374" s="89" t="s">
+        <v>1268</v>
+      </c>
+      <c r="E374" s="89" t="s">
+        <v>1269</v>
+      </c>
+      <c r="F374" s="89" t="s">
+        <v>1267</v>
+      </c>
+      <c r="G374" s="88">
+        <v>21321</v>
+      </c>
+      <c r="H374" s="88" t="b">
+        <v>1</v>
+      </c>
+      <c r="I374" s="88">
+        <v>1</v>
+      </c>
+      <c r="J374" s="88">
+        <v>1592236800</v>
+      </c>
+      <c r="K374" s="88">
+        <v>32503651200</v>
+      </c>
+      <c r="L374" s="88">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:12" s="88" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A375" s="88">
+        <v>21322</v>
+      </c>
+      <c r="B375" s="88">
+        <v>1</v>
+      </c>
+      <c r="C375" s="89" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D375" s="89" t="s">
+        <v>1284</v>
+      </c>
+      <c r="E375" s="90" t="s">
+        <v>1271</v>
+      </c>
+      <c r="F375" s="89" t="s">
+        <v>1272</v>
+      </c>
+      <c r="G375" s="88">
+        <v>21322</v>
+      </c>
+      <c r="H375" s="88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I375" s="88">
+        <v>1</v>
+      </c>
+      <c r="J375" s="88">
+        <v>1592236800</v>
+      </c>
+      <c r="K375" s="88">
+        <v>32503651200</v>
+      </c>
+      <c r="L375" s="88">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:12" s="88" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A376" s="88">
+        <v>21323</v>
+      </c>
+      <c r="B376" s="88">
+        <v>1</v>
+      </c>
+      <c r="C376" s="89" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D376" s="89" t="s">
+        <v>1286</v>
+      </c>
+      <c r="E376" s="90" t="s">
+        <v>1270</v>
+      </c>
+      <c r="F376" s="89" t="s">
+        <v>1272</v>
+      </c>
+      <c r="G376" s="88">
+        <v>21323</v>
+      </c>
+      <c r="H376" s="88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I376" s="88">
+        <v>1</v>
+      </c>
+      <c r="J376" s="88">
+        <v>1592236800</v>
+      </c>
+      <c r="K376" s="88">
+        <v>32503651200</v>
+      </c>
+      <c r="L376" s="88">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:12" s="88" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A377" s="88">
+        <v>21324</v>
+      </c>
+      <c r="B377" s="88">
+        <v>1</v>
+      </c>
+      <c r="C377" s="89" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D377" s="89" t="s">
+        <v>1285</v>
+      </c>
+      <c r="E377" s="90" t="s">
+        <v>1271</v>
+      </c>
+      <c r="F377" s="89" t="s">
+        <v>1272</v>
+      </c>
+      <c r="G377" s="88">
+        <v>21324</v>
+      </c>
+      <c r="H377" s="88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I377" s="88">
+        <v>1</v>
+      </c>
+      <c r="J377" s="88">
+        <v>1592236800</v>
+      </c>
+      <c r="K377" s="88">
+        <v>32503651200</v>
+      </c>
+      <c r="L377" s="88">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:12" s="88" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A378" s="88">
+        <v>21325</v>
+      </c>
+      <c r="B378" s="88">
+        <v>1</v>
+      </c>
+      <c r="C378" s="89" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D378" s="89" t="s">
+        <v>1287</v>
+      </c>
+      <c r="E378" s="90" t="s">
+        <v>1271</v>
+      </c>
+      <c r="F378" s="89" t="s">
+        <v>1272</v>
+      </c>
+      <c r="G378" s="88">
+        <v>21325</v>
+      </c>
+      <c r="H378" s="88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I378" s="88">
+        <v>1</v>
+      </c>
+      <c r="J378" s="88">
+        <v>1592236800</v>
+      </c>
+      <c r="K378" s="88">
+        <v>32503651200</v>
+      </c>
+      <c r="L378" s="88">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:12" s="88" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A379" s="88">
+        <v>21326</v>
+      </c>
+      <c r="B379" s="88">
+        <v>1</v>
+      </c>
+      <c r="C379" s="89" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D379" s="89" t="s">
+        <v>1288</v>
+      </c>
+      <c r="E379" s="90" t="s">
+        <v>1271</v>
+      </c>
+      <c r="F379" s="89" t="s">
+        <v>855</v>
+      </c>
+      <c r="G379" s="88">
+        <v>21326</v>
+      </c>
+      <c r="H379" s="88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I379" s="88">
+        <v>1</v>
+      </c>
+      <c r="J379" s="88">
+        <v>1592236800</v>
+      </c>
+      <c r="K379" s="88">
+        <v>32503651200</v>
+      </c>
+      <c r="L379" s="88">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:12" s="88" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A380" s="88">
+        <v>21327</v>
+      </c>
+      <c r="B380" s="88">
+        <v>1</v>
+      </c>
+      <c r="C380" s="89" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D380" s="89" t="s">
+        <v>1289</v>
+      </c>
+      <c r="E380" s="90" t="s">
+        <v>1271</v>
+      </c>
+      <c r="F380" s="89" t="s">
+        <v>1272</v>
+      </c>
+      <c r="G380" s="88">
+        <v>21327</v>
+      </c>
+      <c r="H380" s="88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I380" s="88">
+        <v>1</v>
+      </c>
+      <c r="J380" s="88">
+        <v>1592236800</v>
+      </c>
+      <c r="K380" s="88">
+        <v>32503651200</v>
+      </c>
+      <c r="L380" s="88">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:12" s="88" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A381" s="88">
+        <v>21328</v>
+      </c>
+      <c r="B381" s="88">
+        <v>1</v>
+      </c>
+      <c r="C381" s="89" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D381" s="89" t="s">
+        <v>1290</v>
+      </c>
+      <c r="E381" s="90" t="s">
+        <v>1271</v>
+      </c>
+      <c r="F381" s="89" t="s">
+        <v>1272</v>
+      </c>
+      <c r="G381" s="88">
+        <v>21328</v>
+      </c>
+      <c r="H381" s="88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I381" s="88">
+        <v>1</v>
+      </c>
+      <c r="J381" s="88">
+        <v>1592236800</v>
+      </c>
+      <c r="K381" s="88">
+        <v>32503651200</v>
+      </c>
+      <c r="L381" s="88">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:12" s="88" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A382" s="88">
+        <v>21329</v>
+      </c>
+      <c r="B382" s="88">
+        <v>1</v>
+      </c>
+      <c r="C382" s="89" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D382" s="89" t="s">
+        <v>1291</v>
+      </c>
+      <c r="E382" s="90" t="s">
+        <v>1271</v>
+      </c>
+      <c r="F382" s="89" t="s">
+        <v>1272</v>
+      </c>
+      <c r="G382" s="88">
+        <v>21329</v>
+      </c>
+      <c r="H382" s="88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I382" s="88">
+        <v>1</v>
+      </c>
+      <c r="J382" s="88">
+        <v>1592236800</v>
+      </c>
+      <c r="K382" s="88">
+        <v>32503651200</v>
+      </c>
+      <c r="L382" s="88">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:12" s="88" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A383" s="88">
+        <v>21330</v>
+      </c>
+      <c r="B383" s="88">
+        <v>1</v>
+      </c>
+      <c r="C383" s="89" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D383" s="89" t="s">
+        <v>1292</v>
+      </c>
+      <c r="E383" s="90" t="s">
+        <v>1271</v>
+      </c>
+      <c r="F383" s="89" t="s">
+        <v>1272</v>
+      </c>
+      <c r="G383" s="88">
+        <v>21330</v>
+      </c>
+      <c r="H383" s="88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I383" s="88">
+        <v>1</v>
+      </c>
+      <c r="J383" s="88">
+        <v>1592236800</v>
+      </c>
+      <c r="K383" s="88">
+        <v>32503651200</v>
+      </c>
+      <c r="L383" s="88">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:12" s="88" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A384" s="88">
+        <v>21331</v>
+      </c>
+      <c r="B384" s="88">
+        <v>1</v>
+      </c>
+      <c r="C384" s="89" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D384" s="89" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E384" s="89" t="s">
+        <v>1275</v>
+      </c>
+      <c r="F384" s="89" t="s">
+        <v>1272</v>
+      </c>
+      <c r="G384" s="88">
+        <v>21331</v>
+      </c>
+      <c r="H384" s="88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I384" s="88">
+        <v>1</v>
+      </c>
+      <c r="J384" s="88">
+        <v>1592236800</v>
+      </c>
+      <c r="K384" s="88">
+        <v>32503651200</v>
+      </c>
+      <c r="L384" s="88">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:12" s="88" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A385" s="88">
+        <v>21332</v>
+      </c>
+      <c r="B385" s="88">
+        <v>1</v>
+      </c>
+      <c r="C385" s="89" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D385" s="89" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E385" s="89" t="s">
+        <v>1275</v>
+      </c>
+      <c r="F385" s="89" t="s">
+        <v>855</v>
+      </c>
+      <c r="G385" s="88">
+        <v>21332</v>
+      </c>
+      <c r="H385" s="88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I385" s="88">
+        <v>1</v>
+      </c>
+      <c r="J385" s="88">
+        <v>1592236800</v>
+      </c>
+      <c r="K385" s="88">
+        <v>32503651200</v>
+      </c>
+      <c r="L385" s="88">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:12" s="88" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A386" s="88">
+        <v>21333</v>
+      </c>
+      <c r="B386" s="88">
+        <v>1</v>
+      </c>
+      <c r="C386" s="89" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D386" s="89" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E386" s="89" t="s">
+        <v>1275</v>
+      </c>
+      <c r="F386" s="89" t="s">
+        <v>1272</v>
+      </c>
+      <c r="G386" s="88">
+        <v>21333</v>
+      </c>
+      <c r="H386" s="88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I386" s="88">
+        <v>1</v>
+      </c>
+      <c r="J386" s="88">
+        <v>1592236800</v>
+      </c>
+      <c r="K386" s="88">
+        <v>32503651200</v>
+      </c>
+      <c r="L386" s="88">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:12" s="88" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A387" s="88">
+        <v>21334</v>
+      </c>
+      <c r="B387" s="88">
+        <v>1</v>
+      </c>
+      <c r="C387" s="89" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D387" s="89" t="s">
+        <v>1278</v>
+      </c>
+      <c r="E387" s="89" t="s">
+        <v>1275</v>
+      </c>
+      <c r="F387" s="89" t="s">
+        <v>1272</v>
+      </c>
+      <c r="G387" s="88">
+        <v>21334</v>
+      </c>
+      <c r="H387" s="88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I387" s="88">
+        <v>1</v>
+      </c>
+      <c r="J387" s="88">
+        <v>1592236800</v>
+      </c>
+      <c r="K387" s="88">
+        <v>32503651200</v>
+      </c>
+      <c r="L387" s="88">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:12" s="88" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A388" s="88">
+        <v>21335</v>
+      </c>
+      <c r="B388" s="88">
+        <v>1</v>
+      </c>
+      <c r="C388" s="89" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D388" s="89" t="s">
+        <v>1279</v>
+      </c>
+      <c r="E388" s="89" t="s">
+        <v>1275</v>
+      </c>
+      <c r="F388" s="89" t="s">
+        <v>1272</v>
+      </c>
+      <c r="G388" s="88">
+        <v>21335</v>
+      </c>
+      <c r="H388" s="88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I388" s="88">
+        <v>1</v>
+      </c>
+      <c r="J388" s="88">
+        <v>1592236800</v>
+      </c>
+      <c r="K388" s="88">
+        <v>32503651200</v>
+      </c>
+      <c r="L388" s="88">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:12" s="88" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A389" s="88">
+        <v>21336</v>
+      </c>
+      <c r="B389" s="88">
+        <v>1</v>
+      </c>
+      <c r="C389" s="89" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D389" s="89" t="s">
+        <v>1280</v>
+      </c>
+      <c r="E389" s="89" t="s">
+        <v>1275</v>
+      </c>
+      <c r="F389" s="89" t="s">
+        <v>855</v>
+      </c>
+      <c r="G389" s="88">
+        <v>21336</v>
+      </c>
+      <c r="H389" s="88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I389" s="88">
+        <v>1</v>
+      </c>
+      <c r="J389" s="88">
+        <v>1592236800</v>
+      </c>
+      <c r="K389" s="88">
+        <v>32503651200</v>
+      </c>
+      <c r="L389" s="88">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:12" s="88" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A390" s="88">
+        <v>21337</v>
+      </c>
+      <c r="B390" s="88">
+        <v>1</v>
+      </c>
+      <c r="C390" s="89" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D390" s="89" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E390" s="89" t="s">
+        <v>1275</v>
+      </c>
+      <c r="F390" s="89" t="s">
+        <v>1272</v>
+      </c>
+      <c r="G390" s="88">
+        <v>21337</v>
+      </c>
+      <c r="H390" s="88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I390" s="88">
+        <v>1</v>
+      </c>
+      <c r="J390" s="88">
+        <v>1592236800</v>
+      </c>
+      <c r="K390" s="88">
+        <v>32503651200</v>
+      </c>
+      <c r="L390" s="88">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:12" s="88" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A391" s="88">
+        <v>21338</v>
+      </c>
+      <c r="B391" s="88">
+        <v>1</v>
+      </c>
+      <c r="C391" s="89" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D391" s="89" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E391" s="89" t="s">
+        <v>1275</v>
+      </c>
+      <c r="F391" s="89" t="s">
+        <v>1272</v>
+      </c>
+      <c r="G391" s="88">
+        <v>21338</v>
+      </c>
+      <c r="H391" s="88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I391" s="88">
+        <v>1</v>
+      </c>
+      <c r="J391" s="88">
+        <v>1592236800</v>
+      </c>
+      <c r="K391" s="88">
+        <v>32503651200</v>
+      </c>
+      <c r="L391" s="88">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:12" s="88" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A392" s="88">
+        <v>21339</v>
+      </c>
+      <c r="B392" s="88">
+        <v>1</v>
+      </c>
+      <c r="C392" s="89" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D392" s="89" t="s">
+        <v>1283</v>
+      </c>
+      <c r="E392" s="89" t="s">
+        <v>1274</v>
+      </c>
+      <c r="F392" s="89" t="s">
+        <v>1272</v>
+      </c>
+      <c r="G392" s="88">
+        <v>21339</v>
+      </c>
+      <c r="H392" s="88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I392" s="88">
+        <v>1</v>
+      </c>
+      <c r="J392" s="88">
+        <v>1592236800</v>
+      </c>
+      <c r="K392" s="88">
+        <v>32503651200</v>
+      </c>
+      <c r="L392" s="88">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B1:B367"/>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -22572,13 +23850,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K375"/>
+  <dimension ref="A1:K392"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E347" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C359" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H368" sqref="H368"/>
+      <selection pane="bottomRight" activeCell="D372" sqref="D372"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -32243,9 +33521,490 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F375" s="88"/>
-      <c r="G375" s="88"/>
+    <row r="372" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A372" s="11">
+        <v>371</v>
+      </c>
+      <c r="B372" s="12">
+        <v>21319</v>
+      </c>
+      <c r="C372" s="11"/>
+      <c r="D372" s="11">
+        <v>68</v>
+      </c>
+      <c r="E372" s="11"/>
+      <c r="F372" s="40" t="s">
+        <v>1293</v>
+      </c>
+      <c r="G372" s="35"/>
+      <c r="H372" s="15" t="s">
+        <v>1313</v>
+      </c>
+      <c r="I372" s="13" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="373" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A373" s="11">
+        <v>372</v>
+      </c>
+      <c r="B373" s="12">
+        <v>21320</v>
+      </c>
+      <c r="C373" s="11"/>
+      <c r="D373" s="11"/>
+      <c r="E373" s="11"/>
+      <c r="F373" s="40" t="s">
+        <v>1295</v>
+      </c>
+      <c r="G373" s="35"/>
+      <c r="H373" s="15"/>
+      <c r="I373" s="13" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A374" s="11">
+        <v>373</v>
+      </c>
+      <c r="B374" s="12">
+        <v>21321</v>
+      </c>
+      <c r="C374" s="11"/>
+      <c r="D374" s="11"/>
+      <c r="E374" s="11"/>
+      <c r="F374" s="40" t="s">
+        <v>1297</v>
+      </c>
+      <c r="G374" s="35"/>
+      <c r="H374" s="15"/>
+      <c r="I374" s="13" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="375" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A375" s="11">
+        <v>374</v>
+      </c>
+      <c r="B375" s="12">
+        <v>21322</v>
+      </c>
+      <c r="C375" s="11"/>
+      <c r="D375" s="11">
+        <v>371</v>
+      </c>
+      <c r="E375" s="11"/>
+      <c r="F375" s="40" t="s">
+        <v>1310</v>
+      </c>
+      <c r="G375" s="35"/>
+      <c r="H375" s="15" t="s">
+        <v>1314</v>
+      </c>
+      <c r="I375" s="13" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="376" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A376" s="11">
+        <v>375</v>
+      </c>
+      <c r="B376" s="12">
+        <v>21323</v>
+      </c>
+      <c r="C376" s="11"/>
+      <c r="D376" s="11">
+        <v>372</v>
+      </c>
+      <c r="E376" s="11"/>
+      <c r="F376" s="40" t="s">
+        <v>1311</v>
+      </c>
+      <c r="G376" s="35"/>
+      <c r="H376" s="15" t="s">
+        <v>1314</v>
+      </c>
+      <c r="I376" s="13" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="377" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A377" s="11">
+        <v>376</v>
+      </c>
+      <c r="B377" s="12">
+        <v>21324</v>
+      </c>
+      <c r="C377" s="11"/>
+      <c r="D377" s="11">
+        <v>373</v>
+      </c>
+      <c r="E377" s="11"/>
+      <c r="F377" s="40" t="s">
+        <v>1311</v>
+      </c>
+      <c r="G377" s="35"/>
+      <c r="H377" s="15" t="s">
+        <v>1314</v>
+      </c>
+      <c r="I377" s="13" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="378" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A378" s="11">
+        <v>377</v>
+      </c>
+      <c r="B378" s="12">
+        <v>21325</v>
+      </c>
+      <c r="C378" s="11"/>
+      <c r="D378" s="11">
+        <v>374</v>
+      </c>
+      <c r="E378" s="11"/>
+      <c r="F378" s="40" t="s">
+        <v>1312</v>
+      </c>
+      <c r="G378" s="35"/>
+      <c r="H378" s="15" t="s">
+        <v>1314</v>
+      </c>
+      <c r="I378" s="13" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="379" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A379" s="11">
+        <v>378</v>
+      </c>
+      <c r="B379" s="12">
+        <v>21326</v>
+      </c>
+      <c r="C379" s="11"/>
+      <c r="D379" s="11">
+        <v>375</v>
+      </c>
+      <c r="E379" s="11"/>
+      <c r="F379" s="40" t="s">
+        <v>1312</v>
+      </c>
+      <c r="G379" s="35"/>
+      <c r="H379" s="15" t="s">
+        <v>1314</v>
+      </c>
+      <c r="I379" s="13" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="380" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A380" s="11">
+        <v>379</v>
+      </c>
+      <c r="B380" s="12">
+        <v>21327</v>
+      </c>
+      <c r="C380" s="11"/>
+      <c r="D380" s="11">
+        <v>376</v>
+      </c>
+      <c r="E380" s="11"/>
+      <c r="F380" s="40" t="s">
+        <v>1310</v>
+      </c>
+      <c r="G380" s="35"/>
+      <c r="H380" s="15" t="s">
+        <v>1314</v>
+      </c>
+      <c r="I380" s="13" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="381" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A381" s="11">
+        <v>380</v>
+      </c>
+      <c r="B381" s="12">
+        <v>21328</v>
+      </c>
+      <c r="C381" s="11"/>
+      <c r="D381" s="11">
+        <v>377</v>
+      </c>
+      <c r="E381" s="11"/>
+      <c r="F381" s="40" t="s">
+        <v>1311</v>
+      </c>
+      <c r="G381" s="35"/>
+      <c r="H381" s="15" t="s">
+        <v>1314</v>
+      </c>
+      <c r="I381" s="13" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="382" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A382" s="11">
+        <v>381</v>
+      </c>
+      <c r="B382" s="12">
+        <v>21329</v>
+      </c>
+      <c r="C382" s="11"/>
+      <c r="D382" s="11">
+        <v>378</v>
+      </c>
+      <c r="E382" s="11"/>
+      <c r="F382" s="40" t="s">
+        <v>1311</v>
+      </c>
+      <c r="G382" s="35"/>
+      <c r="H382" s="15" t="s">
+        <v>1314</v>
+      </c>
+      <c r="I382" s="13" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="383" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A383" s="11">
+        <v>382</v>
+      </c>
+      <c r="B383" s="12">
+        <v>21330</v>
+      </c>
+      <c r="C383" s="11"/>
+      <c r="D383" s="11">
+        <v>379</v>
+      </c>
+      <c r="E383" s="11"/>
+      <c r="F383" s="40" t="s">
+        <v>1311</v>
+      </c>
+      <c r="G383" s="35"/>
+      <c r="H383" s="15" t="s">
+        <v>1314</v>
+      </c>
+      <c r="I383" s="13" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="384" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A384" s="11">
+        <v>383</v>
+      </c>
+      <c r="B384" s="12">
+        <v>21331</v>
+      </c>
+      <c r="C384" s="11"/>
+      <c r="D384" s="11">
+        <v>380</v>
+      </c>
+      <c r="E384" s="11"/>
+      <c r="F384" s="40" t="s">
+        <v>1305</v>
+      </c>
+      <c r="G384" s="35"/>
+      <c r="H384" s="15" t="s">
+        <v>1315</v>
+      </c>
+      <c r="I384" s="13" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="385" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A385" s="11">
+        <v>384</v>
+      </c>
+      <c r="B385" s="12">
+        <v>21332</v>
+      </c>
+      <c r="C385" s="11"/>
+      <c r="D385" s="11">
+        <v>381</v>
+      </c>
+      <c r="E385" s="11">
+        <v>262</v>
+      </c>
+      <c r="F385" s="40" t="s">
+        <v>1306</v>
+      </c>
+      <c r="G385" s="35"/>
+      <c r="H385" s="15" t="s">
+        <v>1315</v>
+      </c>
+      <c r="I385" s="13" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="386" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A386" s="11">
+        <v>385</v>
+      </c>
+      <c r="B386" s="12">
+        <v>21333</v>
+      </c>
+      <c r="C386" s="11"/>
+      <c r="D386" s="11">
+        <v>382</v>
+      </c>
+      <c r="E386" s="11">
+        <v>263</v>
+      </c>
+      <c r="F386" s="40" t="s">
+        <v>1306</v>
+      </c>
+      <c r="G386" s="35"/>
+      <c r="H386" s="15" t="s">
+        <v>1315</v>
+      </c>
+      <c r="I386" s="13" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="387" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A387" s="11">
+        <v>386</v>
+      </c>
+      <c r="B387" s="12">
+        <v>21334</v>
+      </c>
+      <c r="C387" s="11"/>
+      <c r="D387" s="11">
+        <v>383</v>
+      </c>
+      <c r="E387" s="11"/>
+      <c r="F387" s="40" t="s">
+        <v>1305</v>
+      </c>
+      <c r="G387" s="35"/>
+      <c r="H387" s="15" t="s">
+        <v>1315</v>
+      </c>
+      <c r="I387" s="13" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="388" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A388" s="11">
+        <v>387</v>
+      </c>
+      <c r="B388" s="12">
+        <v>21335</v>
+      </c>
+      <c r="C388" s="11"/>
+      <c r="D388" s="11">
+        <v>384</v>
+      </c>
+      <c r="E388" s="11"/>
+      <c r="F388" s="40" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G388" s="35"/>
+      <c r="H388" s="15" t="s">
+        <v>1315</v>
+      </c>
+      <c r="I388" s="13" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="389" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A389" s="11">
+        <v>388</v>
+      </c>
+      <c r="B389" s="12">
+        <v>21336</v>
+      </c>
+      <c r="C389" s="11"/>
+      <c r="D389" s="11">
+        <v>385</v>
+      </c>
+      <c r="E389" s="11">
+        <v>264</v>
+      </c>
+      <c r="F389" s="40" t="s">
+        <v>1306</v>
+      </c>
+      <c r="G389" s="35"/>
+      <c r="H389" s="15" t="s">
+        <v>1315</v>
+      </c>
+      <c r="I389" s="13" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="390" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A390" s="11">
+        <v>389</v>
+      </c>
+      <c r="B390" s="12">
+        <v>21337</v>
+      </c>
+      <c r="C390" s="11"/>
+      <c r="D390" s="11">
+        <v>386</v>
+      </c>
+      <c r="E390" s="11"/>
+      <c r="F390" s="40" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G390" s="35"/>
+      <c r="H390" s="15" t="s">
+        <v>1315</v>
+      </c>
+      <c r="I390" s="13" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="391" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A391" s="11">
+        <v>390</v>
+      </c>
+      <c r="B391" s="12">
+        <v>21338</v>
+      </c>
+      <c r="C391" s="11"/>
+      <c r="D391" s="11">
+        <v>387</v>
+      </c>
+      <c r="E391" s="11">
+        <v>265</v>
+      </c>
+      <c r="F391" s="40" t="s">
+        <v>1306</v>
+      </c>
+      <c r="G391" s="35"/>
+      <c r="H391" s="15" t="s">
+        <v>1315</v>
+      </c>
+      <c r="I391" s="13" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="392" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A392" s="11">
+        <v>391</v>
+      </c>
+      <c r="B392" s="12">
+        <v>21339</v>
+      </c>
+      <c r="C392" s="11"/>
+      <c r="D392" s="11">
+        <v>388</v>
+      </c>
+      <c r="E392" s="11">
+        <v>266</v>
+      </c>
+      <c r="F392" s="40" t="s">
+        <v>1309</v>
+      </c>
+      <c r="G392" s="35"/>
+      <c r="H392" s="15" t="s">
+        <v>1315</v>
+      </c>
+      <c r="I392" s="13" t="s">
+        <v>1298</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
@@ -32256,10 +34015,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I527"/>
+  <dimension ref="A1:I545"/>
   <sheetViews>
-    <sheetView topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="D224" sqref="D224"/>
+    <sheetView topLeftCell="A510" workbookViewId="0">
+      <selection activeCell="B544" sqref="B544"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -39906,6 +41665,261 @@
         <v>256</v>
       </c>
     </row>
+    <row r="528" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A528" s="11">
+        <v>527</v>
+      </c>
+      <c r="B528" s="13">
+        <v>371</v>
+      </c>
+      <c r="C528" s="13" t="s">
+        <v>1316</v>
+      </c>
+      <c r="D528" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A529" s="11">
+        <v>528</v>
+      </c>
+      <c r="B529" s="13">
+        <v>372</v>
+      </c>
+      <c r="C529" s="13" t="s">
+        <v>1317</v>
+      </c>
+      <c r="D529" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A530" s="11">
+        <v>529</v>
+      </c>
+      <c r="B530" s="13">
+        <v>373</v>
+      </c>
+      <c r="C530" s="13" t="s">
+        <v>1318</v>
+      </c>
+      <c r="D530" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="531" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A531" s="11">
+        <v>530</v>
+      </c>
+      <c r="B531" s="13">
+        <v>374</v>
+      </c>
+      <c r="C531" s="13" t="s">
+        <v>1319</v>
+      </c>
+      <c r="D531" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="532" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A532" s="11">
+        <v>531</v>
+      </c>
+      <c r="B532" s="13">
+        <v>375</v>
+      </c>
+      <c r="C532" s="13" t="s">
+        <v>1320</v>
+      </c>
+      <c r="D532" s="12">
+        <v>0</v>
+      </c>
+      <c r="E532" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="533" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A533" s="11">
+        <v>532</v>
+      </c>
+      <c r="B533" s="13">
+        <v>376</v>
+      </c>
+      <c r="C533" s="13" t="s">
+        <v>1321</v>
+      </c>
+      <c r="D533" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="534" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A534" s="11">
+        <v>533</v>
+      </c>
+      <c r="B534" s="13">
+        <v>377</v>
+      </c>
+      <c r="C534" s="13" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D534" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="535" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A535" s="11">
+        <v>534</v>
+      </c>
+      <c r="B535" s="13">
+        <v>378</v>
+      </c>
+      <c r="C535" s="13" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D535" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="536" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A536" s="11">
+        <v>535</v>
+      </c>
+      <c r="B536" s="13">
+        <v>379</v>
+      </c>
+      <c r="C536" s="13" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D536" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A537" s="11">
+        <v>536</v>
+      </c>
+      <c r="B537" s="13">
+        <v>380</v>
+      </c>
+      <c r="C537" s="13" t="s">
+        <v>1319</v>
+      </c>
+      <c r="D537" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="538" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A538" s="11">
+        <v>537</v>
+      </c>
+      <c r="B538" s="13">
+        <v>381</v>
+      </c>
+      <c r="C538" s="13" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D538" s="12">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="539" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A539" s="11">
+        <v>538</v>
+      </c>
+      <c r="B539" s="13">
+        <v>382</v>
+      </c>
+      <c r="C539" s="13" t="s">
+        <v>1326</v>
+      </c>
+      <c r="D539" s="12">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="540" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A540" s="11">
+        <v>539</v>
+      </c>
+      <c r="B540" s="13">
+        <v>383</v>
+      </c>
+      <c r="C540" s="13" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D540" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="541" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A541" s="11">
+        <v>540</v>
+      </c>
+      <c r="B541" s="13">
+        <v>384</v>
+      </c>
+      <c r="C541" s="13" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D541" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="542" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A542" s="11">
+        <v>541</v>
+      </c>
+      <c r="B542" s="13">
+        <v>385</v>
+      </c>
+      <c r="C542" s="13" t="s">
+        <v>1327</v>
+      </c>
+      <c r="D542" s="12">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="543" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A543" s="11">
+        <v>542</v>
+      </c>
+      <c r="B543" s="13">
+        <v>386</v>
+      </c>
+      <c r="C543" s="13" t="s">
+        <v>1317</v>
+      </c>
+      <c r="D543" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="544" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A544" s="11">
+        <v>543</v>
+      </c>
+      <c r="B544" s="13">
+        <v>387</v>
+      </c>
+      <c r="C544" s="13" t="s">
+        <v>1328</v>
+      </c>
+      <c r="D544" s="12">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A545" s="11">
+        <v>544</v>
+      </c>
+      <c r="B545" s="13">
+        <v>388</v>
+      </c>
+      <c r="C545" s="13" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D545" s="12">
+        <v>262</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -39915,13 +41929,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M369"/>
+  <dimension ref="A1:M375"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C345" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A366" sqref="A366"/>
+      <selection pane="bottomRight" activeCell="A375" sqref="A375"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -46822,6 +48836,108 @@
       <c r="F369" s="29"/>
       <c r="G369" s="29"/>
     </row>
+    <row r="370" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A370" s="7">
+        <v>399</v>
+      </c>
+      <c r="B370" s="12">
+        <v>258</v>
+      </c>
+      <c r="C370" s="13" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D370" s="11">
+        <v>500000</v>
+      </c>
+      <c r="E370" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A371" s="7">
+        <v>400</v>
+      </c>
+      <c r="B371" s="12">
+        <v>259</v>
+      </c>
+      <c r="C371" s="13" t="s">
+        <v>1331</v>
+      </c>
+      <c r="D371" s="11">
+        <v>20</v>
+      </c>
+      <c r="E371" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A372" s="7">
+        <v>401</v>
+      </c>
+      <c r="B372" s="12">
+        <v>259</v>
+      </c>
+      <c r="C372" s="13" t="s">
+        <v>1332</v>
+      </c>
+      <c r="D372" s="11">
+        <v>10000</v>
+      </c>
+      <c r="E372" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A373" s="7">
+        <v>402</v>
+      </c>
+      <c r="B373" s="12">
+        <v>260</v>
+      </c>
+      <c r="C373" s="13" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D373" s="11">
+        <v>60000</v>
+      </c>
+      <c r="E373" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A374" s="7">
+        <v>403</v>
+      </c>
+      <c r="B374" s="12">
+        <v>261</v>
+      </c>
+      <c r="C374" s="13" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D374" s="11">
+        <v>120000</v>
+      </c>
+      <c r="E374" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A375" s="7">
+        <v>404</v>
+      </c>
+      <c r="B375" s="12">
+        <v>262</v>
+      </c>
+      <c r="C375" s="13" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D375" s="11">
+        <v>3</v>
+      </c>
+      <c r="E375" s="11">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -46831,13 +48947,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W810"/>
+  <dimension ref="A1:W815"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C775" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C787" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A775" sqref="A775:A810"/>
+      <selection pane="bottomRight" activeCell="D812" sqref="D812"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -63562,7 +65678,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="801" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A801" s="9">
         <v>800</v>
       </c>
@@ -63580,7 +65696,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="802" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A802" s="9">
         <v>801</v>
       </c>
@@ -63598,7 +65714,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="803" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A803" s="9">
         <v>802</v>
       </c>
@@ -63616,7 +65732,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="804" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A804" s="9">
         <v>803</v>
       </c>
@@ -63634,7 +65750,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="805" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A805" s="9">
         <v>804</v>
       </c>
@@ -63652,7 +65768,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="806" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A806" s="9">
         <v>805</v>
       </c>
@@ -63670,7 +65786,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="807" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A807" s="9">
         <v>806</v>
       </c>
@@ -63688,7 +65804,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="808" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A808" s="9">
         <v>807</v>
       </c>
@@ -63706,7 +65822,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="809" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A809" s="9">
         <v>808</v>
       </c>
@@ -63724,7 +65840,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="810" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A810" s="9">
         <v>809</v>
       </c>
@@ -63741,6 +65857,111 @@
       <c r="F810" s="10">
         <v>25</v>
       </c>
+    </row>
+    <row r="811" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A811" s="12">
+        <v>810</v>
+      </c>
+      <c r="B811" s="11">
+        <v>580</v>
+      </c>
+      <c r="C811" s="11"/>
+      <c r="D811" s="13" t="s">
+        <v>1334</v>
+      </c>
+      <c r="E811" s="27">
+        <v>30000</v>
+      </c>
+      <c r="F811" s="11">
+        <v>1</v>
+      </c>
+      <c r="G811" s="11"/>
+      <c r="H811" s="11"/>
+      <c r="I811" s="11"/>
+    </row>
+    <row r="812" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A812" s="12">
+        <v>811</v>
+      </c>
+      <c r="B812" s="11">
+        <v>581</v>
+      </c>
+      <c r="C812" s="11"/>
+      <c r="D812" s="13" t="s">
+        <v>1335</v>
+      </c>
+      <c r="E812" s="27">
+        <v>100</v>
+      </c>
+      <c r="F812" s="11">
+        <v>1</v>
+      </c>
+      <c r="G812" s="11"/>
+      <c r="H812" s="11"/>
+      <c r="I812" s="11"/>
+    </row>
+    <row r="813" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A813" s="12">
+        <v>812</v>
+      </c>
+      <c r="B813" s="11">
+        <v>581</v>
+      </c>
+      <c r="C813" s="11"/>
+      <c r="D813" s="13" t="s">
+        <v>1336</v>
+      </c>
+      <c r="E813" s="27">
+        <v>1</v>
+      </c>
+      <c r="F813" s="11">
+        <v>1</v>
+      </c>
+      <c r="G813" s="11"/>
+      <c r="H813" s="11"/>
+      <c r="I813" s="11"/>
+    </row>
+    <row r="814" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A814" s="12">
+        <v>813</v>
+      </c>
+      <c r="B814" s="11">
+        <v>582</v>
+      </c>
+      <c r="C814" s="11"/>
+      <c r="D814" s="13" t="s">
+        <v>1335</v>
+      </c>
+      <c r="E814" s="27">
+        <v>400</v>
+      </c>
+      <c r="F814" s="11">
+        <v>1</v>
+      </c>
+      <c r="G814" s="11"/>
+      <c r="H814" s="11"/>
+      <c r="I814" s="11"/>
+    </row>
+    <row r="815" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A815" s="12">
+        <v>814</v>
+      </c>
+      <c r="B815" s="11">
+        <v>582</v>
+      </c>
+      <c r="C815" s="11"/>
+      <c r="D815" s="13" t="s">
+        <v>1337</v>
+      </c>
+      <c r="E815" s="27">
+        <v>1</v>
+      </c>
+      <c r="F815" s="11">
+        <v>1</v>
+      </c>
+      <c r="G815" s="11"/>
+      <c r="H815" s="11"/>
+      <c r="I815" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>

--- a/config_debug/task_zajindan_server.xlsx
+++ b/config_debug/task_zajindan_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4969" uniqueCount="1338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4970" uniqueCount="1339">
   <si>
     <t>id|任务id</t>
   </si>
@@ -7067,10 +7067,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>38,39,40,41,42,43,44,45,46,47,48,49</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>gun_barrel_6</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -7435,112 +7431,11 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>在苹果大战中累计纯赢800万</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>chang_wan_ka_children_special_task</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>chang_wan_ka_children_special_task</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>苹果大战使用5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0万及以上档次种出一次金苹果</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>街机捕鱼使用1万以上炮倍击杀一条黄金龙</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>敲敲乐财神模式中累计赢金800万</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>弹弹乐中累计赢金8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00万</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>水果消消乐使用6万及以上档次出现一次幸运时刻</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>水浒消消乐中累计赢金8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00万</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>财神消消乐使用1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2万以上档次打出一次天女散花</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>敲敲乐使用1万及以上档次敲出</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2次38倍财神</t>
-    </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -7680,10 +7575,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>8000000</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>1</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -7705,10 +7596,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>8000000</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>2</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -7777,10 +7664,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>buyu_target_yu</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>xxl_lucky_award</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -7823,6 +7706,62 @@
   <si>
     <t>task_21321</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>在苹果大战中累计纯赢8000万</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>苹果大战使用500万及以上档次种出一次金苹果</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>敲敲乐财神模式中累计赢金8000万</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹弹乐中累计赢金8000万</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果消消乐使用48万及以上档次出现一次幸运时刻</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>水浒消消乐中累计赢金8000万</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>财神消消乐使用96万以上档次打出一次天女散花</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>敲敲乐使用10万及以上档次敲出2次38倍财神</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>80000000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>80000000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyu_3d_target_yu</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼使用10万以上炮倍击杀BOSS鱼</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>38,39,40,41,42,43,44,45,46,47,48,49</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>38,39,40,41,42,43,44,45,46,47,48,49</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -7906,7 +7845,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7979,6 +7918,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -8021,7 +7966,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8281,6 +8226,28 @@
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -8566,11 +8533,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T392"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D362" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D359" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C384" sqref="C384"/>
+      <selection pane="bottomRight" activeCell="A198" sqref="A198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -15703,13 +15670,13 @@
         <v>0</v>
       </c>
       <c r="C179" s="84" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="D179" s="84" t="s">
+        <v>1235</v>
+      </c>
+      <c r="E179" s="84" t="s">
         <v>1236</v>
-      </c>
-      <c r="E179" s="84" t="s">
-        <v>1237</v>
       </c>
       <c r="F179" s="84" t="s">
         <v>13</v>
@@ -15742,10 +15709,10 @@
         <v>0</v>
       </c>
       <c r="C180" s="84" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="D180" s="84" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="E180" s="84" t="s">
         <v>132</v>
@@ -15781,10 +15748,10 @@
         <v>0</v>
       </c>
       <c r="C181" s="84" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="D181" s="84" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="E181" s="84" t="s">
         <v>132</v>
@@ -15820,10 +15787,10 @@
         <v>0</v>
       </c>
       <c r="C182" s="84" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="D182" s="84" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="E182" s="84" t="s">
         <v>132</v>
@@ -15859,10 +15826,10 @@
         <v>0</v>
       </c>
       <c r="C183" s="84" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D183" s="61" t="s">
         <v>1198</v>
-      </c>
-      <c r="D183" s="61" t="s">
-        <v>1199</v>
       </c>
       <c r="E183" s="84" t="s">
         <v>132</v>
@@ -15898,10 +15865,10 @@
         <v>0</v>
       </c>
       <c r="C184" s="84" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="D184" s="61" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E184" s="84" t="s">
         <v>132</v>
@@ -15937,10 +15904,10 @@
         <v>0</v>
       </c>
       <c r="C185" s="84" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="D185" s="84" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="E185" s="84" t="s">
         <v>132</v>
@@ -15976,10 +15943,10 @@
         <v>0</v>
       </c>
       <c r="C186" s="84" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="D186" s="84" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="E186" s="84" t="s">
         <v>132</v>
@@ -16015,10 +15982,10 @@
         <v>0</v>
       </c>
       <c r="C187" s="84" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="D187" s="84" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="E187" s="84" t="s">
         <v>132</v>
@@ -16054,10 +16021,10 @@
         <v>0</v>
       </c>
       <c r="C188" s="84" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="D188" s="84" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E188" s="84" t="s">
         <v>132</v>
@@ -16093,10 +16060,10 @@
         <v>0</v>
       </c>
       <c r="C189" s="84" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="D189" s="84" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="E189" s="84" t="s">
         <v>132</v>
@@ -16132,10 +16099,10 @@
         <v>0</v>
       </c>
       <c r="C190" s="84" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="D190" s="84" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="E190" s="84" t="s">
         <v>132</v>
@@ -16171,10 +16138,10 @@
         <v>0</v>
       </c>
       <c r="C191" s="84" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="D191" s="84" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="E191" s="84" t="s">
         <v>132</v>
@@ -22898,16 +22865,16 @@
         <v>1</v>
       </c>
       <c r="C368" s="51" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="D368" s="86" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="E368" s="51" t="s">
         <v>12</v>
       </c>
       <c r="F368" s="51" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="G368" s="9">
         <v>21315</v>
@@ -22936,16 +22903,16 @@
         <v>1</v>
       </c>
       <c r="C369" s="51" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="D369" s="86" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="E369" s="51" t="s">
         <v>12</v>
       </c>
       <c r="F369" s="51" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="G369" s="9">
         <v>21316</v>
@@ -22974,16 +22941,16 @@
         <v>1</v>
       </c>
       <c r="C370" s="51" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="D370" s="51" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="E370" s="51" t="s">
         <v>12</v>
       </c>
       <c r="F370" s="51" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="G370" s="9">
         <v>21317</v>
@@ -23012,16 +22979,16 @@
         <v>1</v>
       </c>
       <c r="C371" s="51" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="D371" s="51" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="E371" s="51" t="s">
         <v>12</v>
       </c>
       <c r="F371" s="51" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="G371" s="9">
         <v>21318</v>
@@ -23050,16 +23017,16 @@
         <v>1</v>
       </c>
       <c r="C372" s="89" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D372" s="89" t="s">
         <v>1261</v>
       </c>
-      <c r="D372" s="89" t="s">
+      <c r="E372" s="89" t="s">
         <v>1262</v>
       </c>
-      <c r="E372" s="89" t="s">
+      <c r="F372" s="89" t="s">
         <v>1263</v>
-      </c>
-      <c r="F372" s="89" t="s">
-        <v>1264</v>
       </c>
       <c r="G372" s="88">
         <v>21319</v>
@@ -23088,16 +23055,16 @@
         <v>1</v>
       </c>
       <c r="C373" s="89" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="D373" s="89" t="s">
+        <v>1264</v>
+      </c>
+      <c r="E373" s="89" t="s">
         <v>1265</v>
       </c>
-      <c r="E373" s="89" t="s">
+      <c r="F373" s="89" t="s">
         <v>1266</v>
-      </c>
-      <c r="F373" s="89" t="s">
-        <v>1267</v>
       </c>
       <c r="G373" s="88">
         <v>21320</v>
@@ -23126,16 +23093,16 @@
         <v>1</v>
       </c>
       <c r="C374" s="89" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="D374" s="89" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E374" s="89" t="s">
         <v>1268</v>
       </c>
-      <c r="E374" s="89" t="s">
-        <v>1269</v>
-      </c>
       <c r="F374" s="89" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="G374" s="88">
         <v>21321</v>
@@ -23164,16 +23131,16 @@
         <v>1</v>
       </c>
       <c r="C375" s="89" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="D375" s="89" t="s">
-        <v>1284</v>
+        <v>1274</v>
       </c>
       <c r="E375" s="90" t="s">
+        <v>1270</v>
+      </c>
+      <c r="F375" s="89" t="s">
         <v>1271</v>
-      </c>
-      <c r="F375" s="89" t="s">
-        <v>1272</v>
       </c>
       <c r="G375" s="88">
         <v>21322</v>
@@ -23202,16 +23169,16 @@
         <v>1</v>
       </c>
       <c r="C376" s="89" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="D376" s="89" t="s">
-        <v>1286</v>
+        <v>1276</v>
       </c>
       <c r="E376" s="90" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="F376" s="89" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="G376" s="88">
         <v>21323</v>
@@ -23240,16 +23207,16 @@
         <v>1</v>
       </c>
       <c r="C377" s="89" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="D377" s="89" t="s">
-        <v>1285</v>
+        <v>1275</v>
       </c>
       <c r="E377" s="90" t="s">
+        <v>1270</v>
+      </c>
+      <c r="F377" s="89" t="s">
         <v>1271</v>
-      </c>
-      <c r="F377" s="89" t="s">
-        <v>1272</v>
       </c>
       <c r="G377" s="88">
         <v>21324</v>
@@ -23278,16 +23245,16 @@
         <v>1</v>
       </c>
       <c r="C378" s="89" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="D378" s="89" t="s">
-        <v>1287</v>
+        <v>1277</v>
       </c>
       <c r="E378" s="90" t="s">
+        <v>1270</v>
+      </c>
+      <c r="F378" s="89" t="s">
         <v>1271</v>
-      </c>
-      <c r="F378" s="89" t="s">
-        <v>1272</v>
       </c>
       <c r="G378" s="88">
         <v>21325</v>
@@ -23316,13 +23283,13 @@
         <v>1</v>
       </c>
       <c r="C379" s="89" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="D379" s="89" t="s">
-        <v>1288</v>
+        <v>1278</v>
       </c>
       <c r="E379" s="90" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="F379" s="89" t="s">
         <v>855</v>
@@ -23354,16 +23321,16 @@
         <v>1</v>
       </c>
       <c r="C380" s="89" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="D380" s="89" t="s">
-        <v>1289</v>
+        <v>1279</v>
       </c>
       <c r="E380" s="90" t="s">
+        <v>1270</v>
+      </c>
+      <c r="F380" s="89" t="s">
         <v>1271</v>
-      </c>
-      <c r="F380" s="89" t="s">
-        <v>1272</v>
       </c>
       <c r="G380" s="88">
         <v>21327</v>
@@ -23392,16 +23359,16 @@
         <v>1</v>
       </c>
       <c r="C381" s="89" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="D381" s="89" t="s">
-        <v>1290</v>
+        <v>1280</v>
       </c>
       <c r="E381" s="90" t="s">
+        <v>1270</v>
+      </c>
+      <c r="F381" s="89" t="s">
         <v>1271</v>
-      </c>
-      <c r="F381" s="89" t="s">
-        <v>1272</v>
       </c>
       <c r="G381" s="88">
         <v>21328</v>
@@ -23430,16 +23397,16 @@
         <v>1</v>
       </c>
       <c r="C382" s="89" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="D382" s="89" t="s">
-        <v>1291</v>
+        <v>1281</v>
       </c>
       <c r="E382" s="90" t="s">
+        <v>1270</v>
+      </c>
+      <c r="F382" s="89" t="s">
         <v>1271</v>
-      </c>
-      <c r="F382" s="89" t="s">
-        <v>1272</v>
       </c>
       <c r="G382" s="88">
         <v>21329</v>
@@ -23468,16 +23435,16 @@
         <v>1</v>
       </c>
       <c r="C383" s="89" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="D383" s="89" t="s">
-        <v>1292</v>
+        <v>1282</v>
       </c>
       <c r="E383" s="90" t="s">
+        <v>1270</v>
+      </c>
+      <c r="F383" s="89" t="s">
         <v>1271</v>
-      </c>
-      <c r="F383" s="89" t="s">
-        <v>1272</v>
       </c>
       <c r="G383" s="88">
         <v>21330</v>
@@ -23498,345 +23465,345 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="384" spans="1:12" s="88" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A384" s="88">
+    <row r="384" spans="1:12" s="91" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A384" s="91">
         <v>21331</v>
       </c>
-      <c r="B384" s="88">
-        <v>1</v>
-      </c>
-      <c r="C384" s="89" t="s">
-        <v>1261</v>
-      </c>
-      <c r="D384" s="89" t="s">
+      <c r="B384" s="91">
+        <v>1</v>
+      </c>
+      <c r="C384" s="92" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D384" s="92" t="s">
+        <v>1325</v>
+      </c>
+      <c r="E384" s="92" t="s">
         <v>1273</v>
       </c>
-      <c r="E384" s="89" t="s">
-        <v>1275</v>
-      </c>
-      <c r="F384" s="89" t="s">
+      <c r="F384" s="92" t="s">
+        <v>1271</v>
+      </c>
+      <c r="G384" s="91">
+        <v>21331</v>
+      </c>
+      <c r="H384" s="91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I384" s="91">
+        <v>1</v>
+      </c>
+      <c r="J384" s="91">
+        <v>1592236800</v>
+      </c>
+      <c r="K384" s="91">
+        <v>32503651200</v>
+      </c>
+      <c r="L384" s="91">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:12" s="91" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A385" s="91">
+        <v>21332</v>
+      </c>
+      <c r="B385" s="91">
+        <v>1</v>
+      </c>
+      <c r="C385" s="92" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D385" s="92" t="s">
+        <v>1326</v>
+      </c>
+      <c r="E385" s="92" t="s">
+        <v>1273</v>
+      </c>
+      <c r="F385" s="92" t="s">
+        <v>855</v>
+      </c>
+      <c r="G385" s="91">
+        <v>21332</v>
+      </c>
+      <c r="H385" s="91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I385" s="91">
+        <v>1</v>
+      </c>
+      <c r="J385" s="91">
+        <v>1592236800</v>
+      </c>
+      <c r="K385" s="91">
+        <v>32503651200</v>
+      </c>
+      <c r="L385" s="91">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:12" s="91" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A386" s="91">
+        <v>21333</v>
+      </c>
+      <c r="B386" s="91">
+        <v>1</v>
+      </c>
+      <c r="C386" s="92" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D386" s="92" t="s">
+        <v>1336</v>
+      </c>
+      <c r="E386" s="92" t="s">
+        <v>1273</v>
+      </c>
+      <c r="F386" s="92" t="s">
+        <v>1271</v>
+      </c>
+      <c r="G386" s="91">
+        <v>21333</v>
+      </c>
+      <c r="H386" s="91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I386" s="91">
+        <v>1</v>
+      </c>
+      <c r="J386" s="91">
+        <v>1592236800</v>
+      </c>
+      <c r="K386" s="91">
+        <v>32503651200</v>
+      </c>
+      <c r="L386" s="91">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:12" s="91" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A387" s="91">
+        <v>21334</v>
+      </c>
+      <c r="B387" s="91">
+        <v>1</v>
+      </c>
+      <c r="C387" s="92" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D387" s="92" t="s">
+        <v>1327</v>
+      </c>
+      <c r="E387" s="92" t="s">
+        <v>1273</v>
+      </c>
+      <c r="F387" s="92" t="s">
+        <v>1271</v>
+      </c>
+      <c r="G387" s="91">
+        <v>21334</v>
+      </c>
+      <c r="H387" s="91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I387" s="91">
+        <v>1</v>
+      </c>
+      <c r="J387" s="91">
+        <v>1592236800</v>
+      </c>
+      <c r="K387" s="91">
+        <v>32503651200</v>
+      </c>
+      <c r="L387" s="91">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:12" s="91" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A388" s="91">
+        <v>21335</v>
+      </c>
+      <c r="B388" s="91">
+        <v>1</v>
+      </c>
+      <c r="C388" s="92" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D388" s="92" t="s">
+        <v>1328</v>
+      </c>
+      <c r="E388" s="92" t="s">
+        <v>1273</v>
+      </c>
+      <c r="F388" s="92" t="s">
+        <v>1271</v>
+      </c>
+      <c r="G388" s="91">
+        <v>21335</v>
+      </c>
+      <c r="H388" s="91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I388" s="91">
+        <v>1</v>
+      </c>
+      <c r="J388" s="91">
+        <v>1592236800</v>
+      </c>
+      <c r="K388" s="91">
+        <v>32503651200</v>
+      </c>
+      <c r="L388" s="91">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:12" s="91" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A389" s="91">
+        <v>21336</v>
+      </c>
+      <c r="B389" s="91">
+        <v>1</v>
+      </c>
+      <c r="C389" s="92" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D389" s="92" t="s">
+        <v>1329</v>
+      </c>
+      <c r="E389" s="92" t="s">
+        <v>1273</v>
+      </c>
+      <c r="F389" s="92" t="s">
+        <v>855</v>
+      </c>
+      <c r="G389" s="91">
+        <v>21336</v>
+      </c>
+      <c r="H389" s="91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I389" s="91">
+        <v>1</v>
+      </c>
+      <c r="J389" s="91">
+        <v>1592236800</v>
+      </c>
+      <c r="K389" s="91">
+        <v>32503651200</v>
+      </c>
+      <c r="L389" s="91">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:12" s="91" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A390" s="91">
+        <v>21337</v>
+      </c>
+      <c r="B390" s="91">
+        <v>1</v>
+      </c>
+      <c r="C390" s="92" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D390" s="92" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E390" s="92" t="s">
+        <v>1273</v>
+      </c>
+      <c r="F390" s="92" t="s">
+        <v>1271</v>
+      </c>
+      <c r="G390" s="91">
+        <v>21337</v>
+      </c>
+      <c r="H390" s="91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I390" s="91">
+        <v>1</v>
+      </c>
+      <c r="J390" s="91">
+        <v>1592236800</v>
+      </c>
+      <c r="K390" s="91">
+        <v>32503651200</v>
+      </c>
+      <c r="L390" s="91">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:12" s="91" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A391" s="91">
+        <v>21338</v>
+      </c>
+      <c r="B391" s="91">
+        <v>1</v>
+      </c>
+      <c r="C391" s="92" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D391" s="92" t="s">
+        <v>1331</v>
+      </c>
+      <c r="E391" s="92" t="s">
+        <v>1273</v>
+      </c>
+      <c r="F391" s="92" t="s">
+        <v>1271</v>
+      </c>
+      <c r="G391" s="91">
+        <v>21338</v>
+      </c>
+      <c r="H391" s="91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I391" s="91">
+        <v>1</v>
+      </c>
+      <c r="J391" s="91">
+        <v>1592236800</v>
+      </c>
+      <c r="K391" s="91">
+        <v>32503651200</v>
+      </c>
+      <c r="L391" s="91">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:12" s="91" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A392" s="91">
+        <v>21339</v>
+      </c>
+      <c r="B392" s="91">
+        <v>1</v>
+      </c>
+      <c r="C392" s="92" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D392" s="92" t="s">
+        <v>1332</v>
+      </c>
+      <c r="E392" s="92" t="s">
         <v>1272</v>
       </c>
-      <c r="G384" s="88">
-        <v>21331</v>
-      </c>
-      <c r="H384" s="88" t="b">
-        <v>0</v>
-      </c>
-      <c r="I384" s="88">
-        <v>1</v>
-      </c>
-      <c r="J384" s="88">
+      <c r="F392" s="92" t="s">
+        <v>1271</v>
+      </c>
+      <c r="G392" s="91">
+        <v>21339</v>
+      </c>
+      <c r="H392" s="91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I392" s="91">
+        <v>1</v>
+      </c>
+      <c r="J392" s="91">
         <v>1592236800</v>
       </c>
-      <c r="K384" s="88">
+      <c r="K392" s="91">
         <v>32503651200</v>
       </c>
-      <c r="L384" s="88">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="385" spans="1:12" s="88" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A385" s="88">
-        <v>21332</v>
-      </c>
-      <c r="B385" s="88">
-        <v>1</v>
-      </c>
-      <c r="C385" s="89" t="s">
-        <v>1261</v>
-      </c>
-      <c r="D385" s="89" t="s">
-        <v>1276</v>
-      </c>
-      <c r="E385" s="89" t="s">
-        <v>1275</v>
-      </c>
-      <c r="F385" s="89" t="s">
-        <v>855</v>
-      </c>
-      <c r="G385" s="88">
-        <v>21332</v>
-      </c>
-      <c r="H385" s="88" t="b">
-        <v>0</v>
-      </c>
-      <c r="I385" s="88">
-        <v>1</v>
-      </c>
-      <c r="J385" s="88">
-        <v>1592236800</v>
-      </c>
-      <c r="K385" s="88">
-        <v>32503651200</v>
-      </c>
-      <c r="L385" s="88">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="386" spans="1:12" s="88" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A386" s="88">
-        <v>21333</v>
-      </c>
-      <c r="B386" s="88">
-        <v>1</v>
-      </c>
-      <c r="C386" s="89" t="s">
-        <v>1261</v>
-      </c>
-      <c r="D386" s="89" t="s">
-        <v>1277</v>
-      </c>
-      <c r="E386" s="89" t="s">
-        <v>1275</v>
-      </c>
-      <c r="F386" s="89" t="s">
-        <v>1272</v>
-      </c>
-      <c r="G386" s="88">
-        <v>21333</v>
-      </c>
-      <c r="H386" s="88" t="b">
-        <v>0</v>
-      </c>
-      <c r="I386" s="88">
-        <v>1</v>
-      </c>
-      <c r="J386" s="88">
-        <v>1592236800</v>
-      </c>
-      <c r="K386" s="88">
-        <v>32503651200</v>
-      </c>
-      <c r="L386" s="88">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="387" spans="1:12" s="88" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A387" s="88">
-        <v>21334</v>
-      </c>
-      <c r="B387" s="88">
-        <v>1</v>
-      </c>
-      <c r="C387" s="89" t="s">
-        <v>1260</v>
-      </c>
-      <c r="D387" s="89" t="s">
-        <v>1278</v>
-      </c>
-      <c r="E387" s="89" t="s">
-        <v>1275</v>
-      </c>
-      <c r="F387" s="89" t="s">
-        <v>1272</v>
-      </c>
-      <c r="G387" s="88">
-        <v>21334</v>
-      </c>
-      <c r="H387" s="88" t="b">
-        <v>0</v>
-      </c>
-      <c r="I387" s="88">
-        <v>1</v>
-      </c>
-      <c r="J387" s="88">
-        <v>1592236800</v>
-      </c>
-      <c r="K387" s="88">
-        <v>32503651200</v>
-      </c>
-      <c r="L387" s="88">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="388" spans="1:12" s="88" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A388" s="88">
-        <v>21335</v>
-      </c>
-      <c r="B388" s="88">
-        <v>1</v>
-      </c>
-      <c r="C388" s="89" t="s">
-        <v>1261</v>
-      </c>
-      <c r="D388" s="89" t="s">
-        <v>1279</v>
-      </c>
-      <c r="E388" s="89" t="s">
-        <v>1275</v>
-      </c>
-      <c r="F388" s="89" t="s">
-        <v>1272</v>
-      </c>
-      <c r="G388" s="88">
-        <v>21335</v>
-      </c>
-      <c r="H388" s="88" t="b">
-        <v>0</v>
-      </c>
-      <c r="I388" s="88">
-        <v>1</v>
-      </c>
-      <c r="J388" s="88">
-        <v>1592236800</v>
-      </c>
-      <c r="K388" s="88">
-        <v>32503651200</v>
-      </c>
-      <c r="L388" s="88">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="389" spans="1:12" s="88" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A389" s="88">
-        <v>21336</v>
-      </c>
-      <c r="B389" s="88">
-        <v>1</v>
-      </c>
-      <c r="C389" s="89" t="s">
-        <v>1261</v>
-      </c>
-      <c r="D389" s="89" t="s">
-        <v>1280</v>
-      </c>
-      <c r="E389" s="89" t="s">
-        <v>1275</v>
-      </c>
-      <c r="F389" s="89" t="s">
-        <v>855</v>
-      </c>
-      <c r="G389" s="88">
-        <v>21336</v>
-      </c>
-      <c r="H389" s="88" t="b">
-        <v>0</v>
-      </c>
-      <c r="I389" s="88">
-        <v>1</v>
-      </c>
-      <c r="J389" s="88">
-        <v>1592236800</v>
-      </c>
-      <c r="K389" s="88">
-        <v>32503651200</v>
-      </c>
-      <c r="L389" s="88">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="390" spans="1:12" s="88" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A390" s="88">
-        <v>21337</v>
-      </c>
-      <c r="B390" s="88">
-        <v>1</v>
-      </c>
-      <c r="C390" s="89" t="s">
-        <v>1261</v>
-      </c>
-      <c r="D390" s="89" t="s">
-        <v>1281</v>
-      </c>
-      <c r="E390" s="89" t="s">
-        <v>1275</v>
-      </c>
-      <c r="F390" s="89" t="s">
-        <v>1272</v>
-      </c>
-      <c r="G390" s="88">
-        <v>21337</v>
-      </c>
-      <c r="H390" s="88" t="b">
-        <v>0</v>
-      </c>
-      <c r="I390" s="88">
-        <v>1</v>
-      </c>
-      <c r="J390" s="88">
-        <v>1592236800</v>
-      </c>
-      <c r="K390" s="88">
-        <v>32503651200</v>
-      </c>
-      <c r="L390" s="88">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="391" spans="1:12" s="88" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A391" s="88">
-        <v>21338</v>
-      </c>
-      <c r="B391" s="88">
-        <v>1</v>
-      </c>
-      <c r="C391" s="89" t="s">
-        <v>1260</v>
-      </c>
-      <c r="D391" s="89" t="s">
-        <v>1282</v>
-      </c>
-      <c r="E391" s="89" t="s">
-        <v>1275</v>
-      </c>
-      <c r="F391" s="89" t="s">
-        <v>1272</v>
-      </c>
-      <c r="G391" s="88">
-        <v>21338</v>
-      </c>
-      <c r="H391" s="88" t="b">
-        <v>0</v>
-      </c>
-      <c r="I391" s="88">
-        <v>1</v>
-      </c>
-      <c r="J391" s="88">
-        <v>1592236800</v>
-      </c>
-      <c r="K391" s="88">
-        <v>32503651200</v>
-      </c>
-      <c r="L391" s="88">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="392" spans="1:12" s="88" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A392" s="88">
-        <v>21339</v>
-      </c>
-      <c r="B392" s="88">
-        <v>1</v>
-      </c>
-      <c r="C392" s="89" t="s">
-        <v>1260</v>
-      </c>
-      <c r="D392" s="89" t="s">
-        <v>1283</v>
-      </c>
-      <c r="E392" s="89" t="s">
-        <v>1274</v>
-      </c>
-      <c r="F392" s="89" t="s">
-        <v>1272</v>
-      </c>
-      <c r="G392" s="88">
-        <v>21339</v>
-      </c>
-      <c r="H392" s="88" t="b">
-        <v>0</v>
-      </c>
-      <c r="I392" s="88">
-        <v>1</v>
-      </c>
-      <c r="J392" s="88">
-        <v>1592236800</v>
-      </c>
-      <c r="K392" s="88">
-        <v>32503651200</v>
-      </c>
-      <c r="L392" s="88">
+      <c r="L392" s="91">
         <v>-1</v>
       </c>
     </row>
@@ -23853,10 +23820,10 @@
   <dimension ref="A1:K392"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C359" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C180" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D372" sqref="D372"/>
+      <selection pane="bottomRight" activeCell="B198" sqref="B198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23884,7 +23851,7 @@
         <v>380</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="F1" s="34" t="s">
         <v>381</v>
@@ -23899,7 +23866,7 @@
         <v>917</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="K1" s="38"/>
     </row>
@@ -28679,7 +28646,7 @@
       </c>
       <c r="E179" s="10"/>
       <c r="F179" s="82" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="G179" s="79"/>
       <c r="H179" s="83" t="s">
@@ -28704,7 +28671,7 @@
         <v>121</v>
       </c>
       <c r="F180" s="40" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="G180" s="35"/>
       <c r="H180" s="15" t="s">
@@ -28729,7 +28696,7 @@
         <v>122</v>
       </c>
       <c r="F181" s="40" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="G181" s="35"/>
       <c r="H181" s="15" t="s">
@@ -28754,7 +28721,7 @@
         <v>123</v>
       </c>
       <c r="F182" s="40" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="G182" s="35"/>
       <c r="H182" s="15" t="s">
@@ -28826,7 +28793,7 @@
         <v>21132</v>
       </c>
       <c r="C185" s="13" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="D185" s="11">
         <v>184</v>
@@ -31064,7 +31031,7 @@
         <v>21216</v>
       </c>
       <c r="C269" s="13" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="D269" s="11">
         <v>268</v>
@@ -33442,14 +33409,14 @@
       </c>
       <c r="E368" s="10"/>
       <c r="F368" s="82" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="G368" s="79"/>
       <c r="H368" s="83" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="I368" s="19" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="369" spans="1:9" x14ac:dyDescent="0.2">
@@ -33465,14 +33432,14 @@
       </c>
       <c r="E369" s="10"/>
       <c r="F369" s="82" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="G369" s="79"/>
       <c r="H369" s="83" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="I369" s="19" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="370" spans="1:9" x14ac:dyDescent="0.2">
@@ -33488,14 +33455,14 @@
       </c>
       <c r="E370" s="10"/>
       <c r="F370" s="82" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="G370" s="79"/>
       <c r="H370" s="83" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="I370" s="19" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="371" spans="1:9" x14ac:dyDescent="0.2">
@@ -33511,14 +33478,14 @@
       </c>
       <c r="E371" s="10"/>
       <c r="F371" s="82" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="G371" s="79"/>
       <c r="H371" s="83" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="I371" s="19" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="372" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -33534,14 +33501,14 @@
       </c>
       <c r="E372" s="11"/>
       <c r="F372" s="40" t="s">
-        <v>1293</v>
+        <v>1283</v>
       </c>
       <c r="G372" s="35"/>
       <c r="H372" s="15" t="s">
-        <v>1313</v>
+        <v>1301</v>
       </c>
       <c r="I372" s="13" t="s">
-        <v>1294</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="373" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -33555,12 +33522,12 @@
       <c r="D373" s="11"/>
       <c r="E373" s="11"/>
       <c r="F373" s="40" t="s">
-        <v>1295</v>
+        <v>1285</v>
       </c>
       <c r="G373" s="35"/>
       <c r="H373" s="15"/>
       <c r="I373" s="13" t="s">
-        <v>1296</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="374" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -33574,12 +33541,12 @@
       <c r="D374" s="11"/>
       <c r="E374" s="11"/>
       <c r="F374" s="40" t="s">
-        <v>1297</v>
+        <v>1287</v>
       </c>
       <c r="G374" s="35"/>
       <c r="H374" s="15"/>
       <c r="I374" s="13" t="s">
-        <v>1298</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="375" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -33595,14 +33562,14 @@
       </c>
       <c r="E375" s="11"/>
       <c r="F375" s="40" t="s">
-        <v>1310</v>
+        <v>1298</v>
       </c>
       <c r="G375" s="35"/>
       <c r="H375" s="15" t="s">
-        <v>1314</v>
+        <v>1302</v>
       </c>
       <c r="I375" s="13" t="s">
-        <v>1299</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="376" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -33618,14 +33585,14 @@
       </c>
       <c r="E376" s="11"/>
       <c r="F376" s="40" t="s">
-        <v>1311</v>
+        <v>1299</v>
       </c>
       <c r="G376" s="35"/>
       <c r="H376" s="15" t="s">
-        <v>1314</v>
+        <v>1302</v>
       </c>
       <c r="I376" s="13" t="s">
-        <v>1300</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="377" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -33641,14 +33608,14 @@
       </c>
       <c r="E377" s="11"/>
       <c r="F377" s="40" t="s">
-        <v>1311</v>
+        <v>1299</v>
       </c>
       <c r="G377" s="35"/>
       <c r="H377" s="15" t="s">
-        <v>1314</v>
+        <v>1302</v>
       </c>
       <c r="I377" s="13" t="s">
-        <v>1301</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="378" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -33664,14 +33631,14 @@
       </c>
       <c r="E378" s="11"/>
       <c r="F378" s="40" t="s">
-        <v>1312</v>
+        <v>1300</v>
       </c>
       <c r="G378" s="35"/>
       <c r="H378" s="15" t="s">
-        <v>1314</v>
+        <v>1302</v>
       </c>
       <c r="I378" s="13" t="s">
-        <v>1300</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="379" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -33687,14 +33654,14 @@
       </c>
       <c r="E379" s="11"/>
       <c r="F379" s="40" t="s">
-        <v>1312</v>
+        <v>1300</v>
       </c>
       <c r="G379" s="35"/>
       <c r="H379" s="15" t="s">
-        <v>1314</v>
+        <v>1302</v>
       </c>
       <c r="I379" s="13" t="s">
-        <v>1302</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="380" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -33710,14 +33677,14 @@
       </c>
       <c r="E380" s="11"/>
       <c r="F380" s="40" t="s">
-        <v>1310</v>
+        <v>1298</v>
       </c>
       <c r="G380" s="35"/>
       <c r="H380" s="15" t="s">
-        <v>1314</v>
+        <v>1302</v>
       </c>
       <c r="I380" s="13" t="s">
-        <v>1296</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="381" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -33733,14 +33700,14 @@
       </c>
       <c r="E381" s="11"/>
       <c r="F381" s="40" t="s">
-        <v>1311</v>
+        <v>1299</v>
       </c>
       <c r="G381" s="35"/>
       <c r="H381" s="15" t="s">
-        <v>1314</v>
+        <v>1302</v>
       </c>
       <c r="I381" s="13" t="s">
-        <v>1303</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="382" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -33756,14 +33723,14 @@
       </c>
       <c r="E382" s="11"/>
       <c r="F382" s="40" t="s">
-        <v>1311</v>
+        <v>1299</v>
       </c>
       <c r="G382" s="35"/>
       <c r="H382" s="15" t="s">
-        <v>1314</v>
+        <v>1302</v>
       </c>
       <c r="I382" s="13" t="s">
-        <v>1304</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="383" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -33779,231 +33746,231 @@
       </c>
       <c r="E383" s="11"/>
       <c r="F383" s="40" t="s">
-        <v>1311</v>
+        <v>1299</v>
       </c>
       <c r="G383" s="35"/>
       <c r="H383" s="15" t="s">
-        <v>1314</v>
+        <v>1302</v>
       </c>
       <c r="I383" s="13" t="s">
-        <v>1301</v>
-      </c>
-    </row>
-    <row r="384" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A384" s="11">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="384" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A384" s="93">
         <v>383</v>
       </c>
-      <c r="B384" s="12">
+      <c r="B384" s="91">
         <v>21331</v>
       </c>
-      <c r="C384" s="11"/>
-      <c r="D384" s="11">
+      <c r="C384" s="93"/>
+      <c r="D384" s="93">
         <v>380</v>
       </c>
-      <c r="E384" s="11"/>
-      <c r="F384" s="40" t="s">
-        <v>1305</v>
-      </c>
-      <c r="G384" s="35"/>
-      <c r="H384" s="15" t="s">
-        <v>1315</v>
-      </c>
-      <c r="I384" s="13" t="s">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="385" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A385" s="11">
+      <c r="E384" s="93"/>
+      <c r="F384" s="94" t="s">
+        <v>1333</v>
+      </c>
+      <c r="G384" s="95"/>
+      <c r="H384" s="96" t="s">
+        <v>1303</v>
+      </c>
+      <c r="I384" s="97" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="385" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A385" s="93">
         <v>384</v>
       </c>
-      <c r="B385" s="12">
+      <c r="B385" s="91">
         <v>21332</v>
       </c>
-      <c r="C385" s="11"/>
-      <c r="D385" s="11">
+      <c r="C385" s="93"/>
+      <c r="D385" s="93">
         <v>381</v>
       </c>
-      <c r="E385" s="11">
+      <c r="E385" s="93">
+        <v>258</v>
+      </c>
+      <c r="F385" s="94" t="s">
+        <v>1295</v>
+      </c>
+      <c r="G385" s="95"/>
+      <c r="H385" s="96" t="s">
+        <v>1303</v>
+      </c>
+      <c r="I385" s="97" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="386" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A386" s="93">
+        <v>385</v>
+      </c>
+      <c r="B386" s="91">
+        <v>21333</v>
+      </c>
+      <c r="C386" s="93"/>
+      <c r="D386" s="93">
+        <v>382</v>
+      </c>
+      <c r="E386" s="93">
+        <v>259</v>
+      </c>
+      <c r="F386" s="94" t="s">
+        <v>1295</v>
+      </c>
+      <c r="G386" s="95"/>
+      <c r="H386" s="96" t="s">
+        <v>1303</v>
+      </c>
+      <c r="I386" s="97" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="387" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A387" s="93">
+        <v>386</v>
+      </c>
+      <c r="B387" s="91">
+        <v>21334</v>
+      </c>
+      <c r="C387" s="93"/>
+      <c r="D387" s="93">
+        <v>383</v>
+      </c>
+      <c r="E387" s="93"/>
+      <c r="F387" s="94" t="s">
+        <v>1334</v>
+      </c>
+      <c r="G387" s="95"/>
+      <c r="H387" s="96" t="s">
+        <v>1303</v>
+      </c>
+      <c r="I387" s="97" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="388" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A388" s="93">
+        <v>387</v>
+      </c>
+      <c r="B388" s="91">
+        <v>21335</v>
+      </c>
+      <c r="C388" s="93"/>
+      <c r="D388" s="93">
+        <v>384</v>
+      </c>
+      <c r="E388" s="93"/>
+      <c r="F388" s="94" t="s">
+        <v>1334</v>
+      </c>
+      <c r="G388" s="95"/>
+      <c r="H388" s="96" t="s">
+        <v>1303</v>
+      </c>
+      <c r="I388" s="97" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="389" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A389" s="93">
+        <v>388</v>
+      </c>
+      <c r="B389" s="91">
+        <v>21336</v>
+      </c>
+      <c r="C389" s="93"/>
+      <c r="D389" s="93">
+        <v>385</v>
+      </c>
+      <c r="E389" s="93">
+        <v>260</v>
+      </c>
+      <c r="F389" s="94" t="s">
+        <v>1295</v>
+      </c>
+      <c r="G389" s="95"/>
+      <c r="H389" s="96" t="s">
+        <v>1303</v>
+      </c>
+      <c r="I389" s="97" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="390" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A390" s="93">
+        <v>389</v>
+      </c>
+      <c r="B390" s="91">
+        <v>21337</v>
+      </c>
+      <c r="C390" s="93"/>
+      <c r="D390" s="93">
+        <v>386</v>
+      </c>
+      <c r="E390" s="93"/>
+      <c r="F390" s="94" t="s">
+        <v>1334</v>
+      </c>
+      <c r="G390" s="95"/>
+      <c r="H390" s="96" t="s">
+        <v>1303</v>
+      </c>
+      <c r="I390" s="97" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="391" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A391" s="93">
+        <v>390</v>
+      </c>
+      <c r="B391" s="91">
+        <v>21338</v>
+      </c>
+      <c r="C391" s="93"/>
+      <c r="D391" s="93">
+        <v>387</v>
+      </c>
+      <c r="E391" s="93">
+        <v>261</v>
+      </c>
+      <c r="F391" s="94" t="s">
+        <v>1295</v>
+      </c>
+      <c r="G391" s="95"/>
+      <c r="H391" s="96" t="s">
+        <v>1303</v>
+      </c>
+      <c r="I391" s="97" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="392" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A392" s="93">
+        <v>391</v>
+      </c>
+      <c r="B392" s="91">
+        <v>21339</v>
+      </c>
+      <c r="C392" s="93"/>
+      <c r="D392" s="93">
+        <v>388</v>
+      </c>
+      <c r="E392" s="93">
         <v>262</v>
       </c>
-      <c r="F385" s="40" t="s">
-        <v>1306</v>
-      </c>
-      <c r="G385" s="35"/>
-      <c r="H385" s="15" t="s">
-        <v>1315</v>
-      </c>
-      <c r="I385" s="13" t="s">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="386" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A386" s="11">
-        <v>385</v>
-      </c>
-      <c r="B386" s="12">
-        <v>21333</v>
-      </c>
-      <c r="C386" s="11"/>
-      <c r="D386" s="11">
-        <v>382</v>
-      </c>
-      <c r="E386" s="11">
-        <v>263</v>
-      </c>
-      <c r="F386" s="40" t="s">
-        <v>1306</v>
-      </c>
-      <c r="G386" s="35"/>
-      <c r="H386" s="15" t="s">
-        <v>1315</v>
-      </c>
-      <c r="I386" s="13" t="s">
-        <v>1298</v>
-      </c>
-    </row>
-    <row r="387" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A387" s="11">
-        <v>386</v>
-      </c>
-      <c r="B387" s="12">
-        <v>21334</v>
-      </c>
-      <c r="C387" s="11"/>
-      <c r="D387" s="11">
-        <v>383</v>
-      </c>
-      <c r="E387" s="11"/>
-      <c r="F387" s="40" t="s">
-        <v>1305</v>
-      </c>
-      <c r="G387" s="35"/>
-      <c r="H387" s="15" t="s">
-        <v>1315</v>
-      </c>
-      <c r="I387" s="13" t="s">
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="388" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A388" s="11">
-        <v>387</v>
-      </c>
-      <c r="B388" s="12">
-        <v>21335</v>
-      </c>
-      <c r="C388" s="11"/>
-      <c r="D388" s="11">
-        <v>384</v>
-      </c>
-      <c r="E388" s="11"/>
-      <c r="F388" s="40" t="s">
-        <v>1308</v>
-      </c>
-      <c r="G388" s="35"/>
-      <c r="H388" s="15" t="s">
-        <v>1315</v>
-      </c>
-      <c r="I388" s="13" t="s">
-        <v>1298</v>
-      </c>
-    </row>
-    <row r="389" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A389" s="11">
-        <v>388</v>
-      </c>
-      <c r="B389" s="12">
-        <v>21336</v>
-      </c>
-      <c r="C389" s="11"/>
-      <c r="D389" s="11">
-        <v>385</v>
-      </c>
-      <c r="E389" s="11">
-        <v>264</v>
-      </c>
-      <c r="F389" s="40" t="s">
-        <v>1306</v>
-      </c>
-      <c r="G389" s="35"/>
-      <c r="H389" s="15" t="s">
-        <v>1315</v>
-      </c>
-      <c r="I389" s="13" t="s">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="390" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A390" s="11">
-        <v>389</v>
-      </c>
-      <c r="B390" s="12">
-        <v>21337</v>
-      </c>
-      <c r="C390" s="11"/>
-      <c r="D390" s="11">
-        <v>386</v>
-      </c>
-      <c r="E390" s="11"/>
-      <c r="F390" s="40" t="s">
-        <v>1308</v>
-      </c>
-      <c r="G390" s="35"/>
-      <c r="H390" s="15" t="s">
-        <v>1315</v>
-      </c>
-      <c r="I390" s="13" t="s">
-        <v>1296</v>
-      </c>
-    </row>
-    <row r="391" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A391" s="11">
-        <v>390</v>
-      </c>
-      <c r="B391" s="12">
-        <v>21338</v>
-      </c>
-      <c r="C391" s="11"/>
-      <c r="D391" s="11">
-        <v>387</v>
-      </c>
-      <c r="E391" s="11">
-        <v>265</v>
-      </c>
-      <c r="F391" s="40" t="s">
-        <v>1306</v>
-      </c>
-      <c r="G391" s="35"/>
-      <c r="H391" s="15" t="s">
-        <v>1315</v>
-      </c>
-      <c r="I391" s="13" t="s">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="392" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A392" s="11">
-        <v>391</v>
-      </c>
-      <c r="B392" s="12">
-        <v>21339</v>
-      </c>
-      <c r="C392" s="11"/>
-      <c r="D392" s="11">
-        <v>388</v>
-      </c>
-      <c r="E392" s="11">
-        <v>266</v>
-      </c>
-      <c r="F392" s="40" t="s">
-        <v>1309</v>
-      </c>
-      <c r="G392" s="35"/>
-      <c r="H392" s="15" t="s">
-        <v>1315</v>
-      </c>
-      <c r="I392" s="13" t="s">
-        <v>1298</v>
+      <c r="F392" s="94" t="s">
+        <v>1297</v>
+      </c>
+      <c r="G392" s="95"/>
+      <c r="H392" s="96" t="s">
+        <v>1303</v>
+      </c>
+      <c r="I392" s="97" t="s">
+        <v>1288</v>
       </c>
     </row>
   </sheetData>
@@ -34017,8 +33984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I545"/>
   <sheetViews>
-    <sheetView topLeftCell="A510" workbookViewId="0">
-      <selection activeCell="B544" sqref="B544"/>
+    <sheetView topLeftCell="A272" workbookViewId="0">
+      <selection activeCell="A292" sqref="A292:XFD292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -37229,7 +37196,7 @@
         <v>178</v>
       </c>
       <c r="C224" s="85" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="D224" s="60">
         <v>257</v>
@@ -37243,7 +37210,7 @@
         <v>179</v>
       </c>
       <c r="C225" s="85" t="s">
-        <v>1201</v>
+        <v>1193</v>
       </c>
       <c r="D225" s="60">
         <v>0</v>
@@ -37257,7 +37224,7 @@
         <v>180</v>
       </c>
       <c r="C226" s="85" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="D226" s="60">
         <v>0</v>
@@ -37422,7 +37389,7 @@
         <v>184</v>
       </c>
       <c r="C237" s="13" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="D237" s="11">
         <v>0</v>
@@ -37548,7 +37515,7 @@
         <v>185</v>
       </c>
       <c r="C245" s="13" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="D245" s="11">
         <v>0</v>
@@ -37674,7 +37641,7 @@
         <v>186</v>
       </c>
       <c r="C253" s="13" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="D253" s="11">
         <v>0</v>
@@ -37800,7 +37767,7 @@
         <v>187</v>
       </c>
       <c r="C261" s="13" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="D261" s="11">
         <v>0</v>
@@ -37926,7 +37893,7 @@
         <v>188</v>
       </c>
       <c r="C269" s="13" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="D269" s="11">
         <v>0</v>
@@ -38052,7 +38019,7 @@
         <v>189</v>
       </c>
       <c r="C277" s="13" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="D277" s="11">
         <v>0</v>
@@ -38178,7 +38145,7 @@
         <v>190</v>
       </c>
       <c r="C285" s="13" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="D285" s="11">
         <v>0</v>
@@ -41617,7 +41584,7 @@
         <v>367</v>
       </c>
       <c r="C524" s="87" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="D524" s="10">
         <v>253</v>
@@ -41631,7 +41598,7 @@
         <v>368</v>
       </c>
       <c r="C525" s="87" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="D525" s="10">
         <v>254</v>
@@ -41645,7 +41612,7 @@
         <v>369</v>
       </c>
       <c r="C526" s="87" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="D526" s="10">
         <v>255</v>
@@ -41659,7 +41626,7 @@
         <v>370</v>
       </c>
       <c r="C527" s="87" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="D527" s="10">
         <v>256</v>
@@ -41673,7 +41640,7 @@
         <v>371</v>
       </c>
       <c r="C528" s="13" t="s">
-        <v>1316</v>
+        <v>1304</v>
       </c>
       <c r="D528" s="12">
         <v>0</v>
@@ -41687,7 +41654,7 @@
         <v>372</v>
       </c>
       <c r="C529" s="13" t="s">
-        <v>1317</v>
+        <v>1305</v>
       </c>
       <c r="D529" s="12">
         <v>0</v>
@@ -41701,7 +41668,7 @@
         <v>373</v>
       </c>
       <c r="C530" s="13" t="s">
-        <v>1318</v>
+        <v>1306</v>
       </c>
       <c r="D530" s="12">
         <v>0</v>
@@ -41715,7 +41682,7 @@
         <v>374</v>
       </c>
       <c r="C531" s="13" t="s">
-        <v>1319</v>
+        <v>1307</v>
       </c>
       <c r="D531" s="12">
         <v>0</v>
@@ -41729,7 +41696,7 @@
         <v>375</v>
       </c>
       <c r="C532" s="13" t="s">
-        <v>1320</v>
+        <v>1308</v>
       </c>
       <c r="D532" s="12">
         <v>0</v>
@@ -41746,7 +41713,7 @@
         <v>376</v>
       </c>
       <c r="C533" s="13" t="s">
-        <v>1321</v>
+        <v>1309</v>
       </c>
       <c r="D533" s="12">
         <v>0</v>
@@ -41760,7 +41727,7 @@
         <v>377</v>
       </c>
       <c r="C534" s="13" t="s">
-        <v>1322</v>
+        <v>1310</v>
       </c>
       <c r="D534" s="12">
         <v>0</v>
@@ -41774,7 +41741,7 @@
         <v>378</v>
       </c>
       <c r="C535" s="13" t="s">
-        <v>1323</v>
+        <v>1311</v>
       </c>
       <c r="D535" s="12">
         <v>0</v>
@@ -41788,7 +41755,7 @@
         <v>379</v>
       </c>
       <c r="C536" s="13" t="s">
-        <v>1324</v>
+        <v>1312</v>
       </c>
       <c r="D536" s="12">
         <v>0</v>
@@ -41802,7 +41769,7 @@
         <v>380</v>
       </c>
       <c r="C537" s="13" t="s">
-        <v>1319</v>
+        <v>1307</v>
       </c>
       <c r="D537" s="12">
         <v>0</v>
@@ -41816,7 +41783,7 @@
         <v>381</v>
       </c>
       <c r="C538" s="13" t="s">
-        <v>1325</v>
+        <v>1313</v>
       </c>
       <c r="D538" s="12">
         <v>258</v>
@@ -41830,7 +41797,7 @@
         <v>382</v>
       </c>
       <c r="C539" s="13" t="s">
-        <v>1326</v>
+        <v>1335</v>
       </c>
       <c r="D539" s="12">
         <v>259</v>
@@ -41844,7 +41811,7 @@
         <v>383</v>
       </c>
       <c r="C540" s="13" t="s">
-        <v>1324</v>
+        <v>1312</v>
       </c>
       <c r="D540" s="12">
         <v>0</v>
@@ -41858,7 +41825,7 @@
         <v>384</v>
       </c>
       <c r="C541" s="13" t="s">
-        <v>1322</v>
+        <v>1310</v>
       </c>
       <c r="D541" s="12">
         <v>0</v>
@@ -41872,7 +41839,7 @@
         <v>385</v>
       </c>
       <c r="C542" s="13" t="s">
-        <v>1327</v>
+        <v>1314</v>
       </c>
       <c r="D542" s="12">
         <v>260</v>
@@ -41886,7 +41853,7 @@
         <v>386</v>
       </c>
       <c r="C543" s="13" t="s">
-        <v>1317</v>
+        <v>1305</v>
       </c>
       <c r="D543" s="12">
         <v>0</v>
@@ -41900,7 +41867,7 @@
         <v>387</v>
       </c>
       <c r="C544" s="13" t="s">
-        <v>1328</v>
+        <v>1315</v>
       </c>
       <c r="D544" s="12">
         <v>261</v>
@@ -41914,7 +41881,7 @@
         <v>388</v>
       </c>
       <c r="C545" s="13" t="s">
-        <v>1329</v>
+        <v>1316</v>
       </c>
       <c r="D545" s="12">
         <v>262</v>
@@ -41931,11 +41898,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M375"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C345" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C347" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A375" sqref="A375"/>
+      <selection pane="bottomRight" activeCell="D372" sqref="D372"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -48743,7 +48710,7 @@
         <v>688</v>
       </c>
       <c r="D364" s="15" t="s">
-        <v>1196</v>
+        <v>1337</v>
       </c>
       <c r="E364" s="11">
         <v>2</v>
@@ -48757,10 +48724,10 @@
         <v>253</v>
       </c>
       <c r="C365" s="19" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="D365" s="83" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E365" s="10">
         <v>2</v>
@@ -48774,7 +48741,7 @@
         <v>254</v>
       </c>
       <c r="C366" s="19" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="D366" s="10">
         <v>3</v>
@@ -48791,7 +48758,7 @@
         <v>255</v>
       </c>
       <c r="C367" s="19" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="D367" s="10">
         <v>4</v>
@@ -48808,7 +48775,7 @@
         <v>256</v>
       </c>
       <c r="C368" s="19" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="D368" s="10">
         <v>5</v>
@@ -48828,7 +48795,7 @@
         <v>675</v>
       </c>
       <c r="D369" s="14" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="E369" s="29">
         <v>2</v>
@@ -48844,10 +48811,10 @@
         <v>258</v>
       </c>
       <c r="C370" s="13" t="s">
-        <v>1330</v>
+        <v>1317</v>
       </c>
       <c r="D370" s="11">
-        <v>500000</v>
+        <v>5000000</v>
       </c>
       <c r="E370" s="11">
         <v>3</v>
@@ -48861,10 +48828,10 @@
         <v>259</v>
       </c>
       <c r="C371" s="13" t="s">
-        <v>1331</v>
-      </c>
-      <c r="D371" s="11">
-        <v>20</v>
+        <v>1318</v>
+      </c>
+      <c r="D371" s="13" t="s">
+        <v>1338</v>
       </c>
       <c r="E371" s="11">
         <v>2</v>
@@ -48878,10 +48845,10 @@
         <v>259</v>
       </c>
       <c r="C372" s="13" t="s">
-        <v>1332</v>
+        <v>1319</v>
       </c>
       <c r="D372" s="11">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="E372" s="11">
         <v>3</v>
@@ -48895,10 +48862,10 @@
         <v>260</v>
       </c>
       <c r="C373" s="13" t="s">
-        <v>1330</v>
+        <v>1317</v>
       </c>
       <c r="D373" s="11">
-        <v>60000</v>
+        <v>480000</v>
       </c>
       <c r="E373" s="11">
         <v>3</v>
@@ -48912,10 +48879,10 @@
         <v>261</v>
       </c>
       <c r="C374" s="13" t="s">
-        <v>1330</v>
+        <v>1317</v>
       </c>
       <c r="D374" s="11">
-        <v>120000</v>
+        <v>960000</v>
       </c>
       <c r="E374" s="11">
         <v>3</v>
@@ -48929,10 +48896,10 @@
         <v>262</v>
       </c>
       <c r="C375" s="13" t="s">
-        <v>1333</v>
+        <v>1320</v>
       </c>
       <c r="D375" s="11">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E375" s="11">
         <v>3</v>
@@ -58933,7 +58900,7 @@
       </c>
       <c r="C473" s="13"/>
       <c r="D473" s="13" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="E473" s="11">
         <v>604800</v>
@@ -63055,7 +63022,7 @@
       </c>
       <c r="C670" s="11"/>
       <c r="D670" s="13" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="E670" s="11">
         <v>12000</v>
@@ -65212,10 +65179,10 @@
       </c>
       <c r="C775" s="10"/>
       <c r="D775" s="19" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="E775" s="83" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="F775" s="10">
         <v>25</v>
@@ -65231,10 +65198,10 @@
       </c>
       <c r="C776" s="10"/>
       <c r="D776" s="19" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="E776" s="83" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="F776" s="10">
         <v>50</v>
@@ -65252,10 +65219,10 @@
       </c>
       <c r="C777" s="10"/>
       <c r="D777" s="19" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="E777" s="83" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="F777" s="10">
         <v>25</v>
@@ -65273,10 +65240,10 @@
       </c>
       <c r="C778" s="10"/>
       <c r="D778" s="19" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="E778" s="83" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="F778" s="10">
         <v>25</v>
@@ -65291,10 +65258,10 @@
       </c>
       <c r="C779" s="10"/>
       <c r="D779" s="19" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="E779" s="83" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="F779" s="10">
         <v>50</v>
@@ -65309,10 +65276,10 @@
       </c>
       <c r="C780" s="10"/>
       <c r="D780" s="19" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="E780" s="83" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F780" s="10">
         <v>25</v>
@@ -65327,10 +65294,10 @@
       </c>
       <c r="C781" s="10"/>
       <c r="D781" s="19" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="E781" s="83" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="F781" s="10">
         <v>25</v>
@@ -65345,10 +65312,10 @@
       </c>
       <c r="C782" s="10"/>
       <c r="D782" s="19" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="E782" s="83" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="F782" s="10">
         <v>50</v>
@@ -65363,10 +65330,10 @@
       </c>
       <c r="C783" s="10"/>
       <c r="D783" s="19" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="E783" s="83" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F783" s="10">
         <v>25</v>
@@ -65381,10 +65348,10 @@
       </c>
       <c r="C784" s="10"/>
       <c r="D784" s="19" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="E784" s="83" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="F784" s="10">
         <v>25</v>
@@ -65399,10 +65366,10 @@
       </c>
       <c r="C785" s="10"/>
       <c r="D785" s="19" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="E785" s="83" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="F785" s="10">
         <v>50</v>
@@ -65417,10 +65384,10 @@
       </c>
       <c r="C786" s="10"/>
       <c r="D786" s="19" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="E786" s="83" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="F786" s="10">
         <v>25</v>
@@ -65435,10 +65402,10 @@
       </c>
       <c r="C787" s="10"/>
       <c r="D787" s="19" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="E787" s="83" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="F787" s="10">
         <v>25</v>
@@ -65453,10 +65420,10 @@
       </c>
       <c r="C788" s="10"/>
       <c r="D788" s="19" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="E788" s="83" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="F788" s="10">
         <v>50</v>
@@ -65471,7 +65438,7 @@
       </c>
       <c r="C789" s="10"/>
       <c r="D789" s="19" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="E789" s="83">
         <v>150</v>
@@ -65489,7 +65456,7 @@
       </c>
       <c r="C790" s="10"/>
       <c r="D790" s="19" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="E790" s="9">
         <v>400</v>
@@ -65507,7 +65474,7 @@
       </c>
       <c r="C791" s="10"/>
       <c r="D791" s="19" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="E791" s="9">
         <v>500</v>
@@ -65525,7 +65492,7 @@
       </c>
       <c r="C792" s="10"/>
       <c r="D792" s="19" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="E792" s="9">
         <v>600</v>
@@ -65543,7 +65510,7 @@
       </c>
       <c r="C793" s="10"/>
       <c r="D793" s="19" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="E793" s="9">
         <v>100</v>
@@ -65561,7 +65528,7 @@
       </c>
       <c r="C794" s="10"/>
       <c r="D794" s="19" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="E794" s="9">
         <v>300</v>
@@ -65579,7 +65546,7 @@
       </c>
       <c r="C795" s="10"/>
       <c r="D795" s="19" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="E795" s="9">
         <v>500</v>
@@ -65597,7 +65564,7 @@
       </c>
       <c r="C796" s="10"/>
       <c r="D796" s="19" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="E796" s="9">
         <v>500</v>
@@ -65615,7 +65582,7 @@
       </c>
       <c r="C797" s="10"/>
       <c r="D797" s="19" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="E797" s="9">
         <v>1000</v>
@@ -65633,7 +65600,7 @@
       </c>
       <c r="C798" s="10"/>
       <c r="D798" s="19" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="E798" s="9">
         <v>1500</v>
@@ -65651,7 +65618,7 @@
       </c>
       <c r="C799" s="10"/>
       <c r="D799" s="19" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="E799" s="9">
         <v>4000</v>
@@ -65669,7 +65636,7 @@
       </c>
       <c r="C800" s="10"/>
       <c r="D800" s="19" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="E800" s="9">
         <v>5000</v>
@@ -65687,7 +65654,7 @@
       </c>
       <c r="C801" s="10"/>
       <c r="D801" s="19" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="E801" s="9">
         <v>6000</v>
@@ -65705,7 +65672,7 @@
       </c>
       <c r="C802" s="10"/>
       <c r="D802" s="19" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="E802" s="9">
         <v>1000</v>
@@ -65723,7 +65690,7 @@
       </c>
       <c r="C803" s="10"/>
       <c r="D803" s="19" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="E803" s="9">
         <v>3000</v>
@@ -65741,7 +65708,7 @@
       </c>
       <c r="C804" s="10"/>
       <c r="D804" s="19" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="E804" s="9">
         <v>5000</v>
@@ -65759,7 +65726,7 @@
       </c>
       <c r="C805" s="10"/>
       <c r="D805" s="19" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="E805" s="9">
         <v>5000</v>
@@ -65777,7 +65744,7 @@
       </c>
       <c r="C806" s="10"/>
       <c r="D806" s="19" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="E806" s="9">
         <v>10000</v>
@@ -65795,7 +65762,7 @@
       </c>
       <c r="C807" s="10"/>
       <c r="D807" s="19" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="E807" s="9">
         <v>15000</v>
@@ -65813,7 +65780,7 @@
       </c>
       <c r="C808" s="10"/>
       <c r="D808" s="19" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="E808" s="9">
         <v>40000</v>
@@ -65831,7 +65798,7 @@
       </c>
       <c r="C809" s="10"/>
       <c r="D809" s="19" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="E809" s="9">
         <v>50000</v>
@@ -65849,7 +65816,7 @@
       </c>
       <c r="C810" s="10"/>
       <c r="D810" s="19" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="E810" s="9">
         <v>60000</v>
@@ -65867,7 +65834,7 @@
       </c>
       <c r="C811" s="11"/>
       <c r="D811" s="13" t="s">
-        <v>1334</v>
+        <v>1321</v>
       </c>
       <c r="E811" s="27">
         <v>30000</v>
@@ -65888,7 +65855,7 @@
       </c>
       <c r="C812" s="11"/>
       <c r="D812" s="13" t="s">
-        <v>1335</v>
+        <v>1322</v>
       </c>
       <c r="E812" s="27">
         <v>100</v>
@@ -65909,7 +65876,7 @@
       </c>
       <c r="C813" s="11"/>
       <c r="D813" s="13" t="s">
-        <v>1336</v>
+        <v>1323</v>
       </c>
       <c r="E813" s="27">
         <v>1</v>
@@ -65930,7 +65897,7 @@
       </c>
       <c r="C814" s="11"/>
       <c r="D814" s="13" t="s">
-        <v>1335</v>
+        <v>1322</v>
       </c>
       <c r="E814" s="27">
         <v>400</v>
@@ -65951,7 +65918,7 @@
       </c>
       <c r="C815" s="11"/>
       <c r="D815" s="13" t="s">
-        <v>1337</v>
+        <v>1324</v>
       </c>
       <c r="E815" s="27">
         <v>1</v>

--- a/config_debug/task_zajindan_server.xlsx
+++ b/config_debug/task_zajindan_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4970" uniqueCount="1339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4970" uniqueCount="1342">
   <si>
     <t>id|任务id</t>
   </si>
@@ -6933,10 +6933,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>prop_guess_apple_bet_2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>vip2周任务</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -7761,6 +7757,22 @@
   </si>
   <si>
     <t>38,39,40,41,42,43,44,45,46,47,48,49</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_lock</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_lock</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_guess_apple_bet_2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_guess_apple_bet_2</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -8534,10 +8546,10 @@
   <dimension ref="A1:T392"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D359" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A198" sqref="A198"/>
+      <selection pane="bottomRight" activeCell="A69" sqref="A69:XFD70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -15670,13 +15682,13 @@
         <v>0</v>
       </c>
       <c r="C179" s="84" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="D179" s="84" t="s">
+        <v>1234</v>
+      </c>
+      <c r="E179" s="84" t="s">
         <v>1235</v>
-      </c>
-      <c r="E179" s="84" t="s">
-        <v>1236</v>
       </c>
       <c r="F179" s="84" t="s">
         <v>13</v>
@@ -15709,10 +15721,10 @@
         <v>0</v>
       </c>
       <c r="C180" s="84" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="D180" s="84" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E180" s="84" t="s">
         <v>132</v>
@@ -15748,10 +15760,10 @@
         <v>0</v>
       </c>
       <c r="C181" s="84" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="D181" s="84" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="E181" s="84" t="s">
         <v>132</v>
@@ -15787,10 +15799,10 @@
         <v>0</v>
       </c>
       <c r="C182" s="84" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="D182" s="84" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="E182" s="84" t="s">
         <v>132</v>
@@ -15826,10 +15838,10 @@
         <v>0</v>
       </c>
       <c r="C183" s="84" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D183" s="61" t="s">
         <v>1197</v>
-      </c>
-      <c r="D183" s="61" t="s">
-        <v>1198</v>
       </c>
       <c r="E183" s="84" t="s">
         <v>132</v>
@@ -15865,10 +15877,10 @@
         <v>0</v>
       </c>
       <c r="C184" s="84" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="D184" s="61" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="E184" s="84" t="s">
         <v>132</v>
@@ -15904,10 +15916,10 @@
         <v>0</v>
       </c>
       <c r="C185" s="84" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="D185" s="84" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="E185" s="84" t="s">
         <v>132</v>
@@ -15943,10 +15955,10 @@
         <v>0</v>
       </c>
       <c r="C186" s="84" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="D186" s="84" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="E186" s="84" t="s">
         <v>132</v>
@@ -15982,10 +15994,10 @@
         <v>0</v>
       </c>
       <c r="C187" s="84" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="D187" s="84" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="E187" s="84" t="s">
         <v>132</v>
@@ -16021,10 +16033,10 @@
         <v>0</v>
       </c>
       <c r="C188" s="84" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="D188" s="84" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="E188" s="84" t="s">
         <v>132</v>
@@ -16060,10 +16072,10 @@
         <v>0</v>
       </c>
       <c r="C189" s="84" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="D189" s="84" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E189" s="84" t="s">
         <v>132</v>
@@ -16099,10 +16111,10 @@
         <v>0</v>
       </c>
       <c r="C190" s="84" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="D190" s="84" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="E190" s="84" t="s">
         <v>132</v>
@@ -16138,10 +16150,10 @@
         <v>0</v>
       </c>
       <c r="C191" s="84" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="D191" s="84" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="E191" s="84" t="s">
         <v>132</v>
@@ -16218,7 +16230,7 @@
         <v>237</v>
       </c>
       <c r="D193" s="51" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="E193" s="51" t="s">
         <v>239</v>
@@ -16256,7 +16268,7 @@
         <v>237</v>
       </c>
       <c r="D194" s="51" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="E194" s="51" t="s">
         <v>239</v>
@@ -16294,7 +16306,7 @@
         <v>237</v>
       </c>
       <c r="D195" s="51" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="E195" s="51" t="s">
         <v>239</v>
@@ -16332,7 +16344,7 @@
         <v>237</v>
       </c>
       <c r="D196" s="51" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="E196" s="51" t="s">
         <v>239</v>
@@ -16370,7 +16382,7 @@
         <v>237</v>
       </c>
       <c r="D197" s="51" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="E197" s="51" t="s">
         <v>239</v>
@@ -16408,7 +16420,7 @@
         <v>237</v>
       </c>
       <c r="D198" s="51" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="E198" s="51" t="s">
         <v>239</v>
@@ -20138,7 +20150,7 @@
         <v>852</v>
       </c>
       <c r="F296" s="16" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="G296" s="12">
         <v>21243</v>
@@ -22827,13 +22839,13 @@
         <v>0</v>
       </c>
       <c r="C367" s="16" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D367" s="16" t="s">
         <v>1176</v>
       </c>
-      <c r="D367" s="16" t="s">
+      <c r="E367" s="16" t="s">
         <v>1177</v>
-      </c>
-      <c r="E367" s="16" t="s">
-        <v>1178</v>
       </c>
       <c r="F367" s="12" t="s">
         <v>108</v>
@@ -22865,16 +22877,16 @@
         <v>1</v>
       </c>
       <c r="C368" s="51" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="D368" s="86" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="E368" s="51" t="s">
         <v>12</v>
       </c>
       <c r="F368" s="51" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="G368" s="9">
         <v>21315</v>
@@ -22903,16 +22915,16 @@
         <v>1</v>
       </c>
       <c r="C369" s="51" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="D369" s="86" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="E369" s="51" t="s">
         <v>12</v>
       </c>
       <c r="F369" s="51" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="G369" s="9">
         <v>21316</v>
@@ -22941,16 +22953,16 @@
         <v>1</v>
       </c>
       <c r="C370" s="51" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="D370" s="51" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="E370" s="51" t="s">
         <v>12</v>
       </c>
       <c r="F370" s="51" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="G370" s="9">
         <v>21317</v>
@@ -22979,16 +22991,16 @@
         <v>1</v>
       </c>
       <c r="C371" s="51" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="D371" s="51" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="E371" s="51" t="s">
         <v>12</v>
       </c>
       <c r="F371" s="51" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="G371" s="9">
         <v>21318</v>
@@ -23017,16 +23029,16 @@
         <v>1</v>
       </c>
       <c r="C372" s="89" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D372" s="89" t="s">
         <v>1260</v>
       </c>
-      <c r="D372" s="89" t="s">
+      <c r="E372" s="89" t="s">
         <v>1261</v>
       </c>
-      <c r="E372" s="89" t="s">
+      <c r="F372" s="89" t="s">
         <v>1262</v>
-      </c>
-      <c r="F372" s="89" t="s">
-        <v>1263</v>
       </c>
       <c r="G372" s="88">
         <v>21319</v>
@@ -23055,16 +23067,16 @@
         <v>1</v>
       </c>
       <c r="C373" s="89" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="D373" s="89" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E373" s="89" t="s">
         <v>1264</v>
       </c>
-      <c r="E373" s="89" t="s">
+      <c r="F373" s="89" t="s">
         <v>1265</v>
-      </c>
-      <c r="F373" s="89" t="s">
-        <v>1266</v>
       </c>
       <c r="G373" s="88">
         <v>21320</v>
@@ -23093,16 +23105,16 @@
         <v>1</v>
       </c>
       <c r="C374" s="89" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="D374" s="89" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E374" s="89" t="s">
         <v>1267</v>
       </c>
-      <c r="E374" s="89" t="s">
-        <v>1268</v>
-      </c>
       <c r="F374" s="89" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="G374" s="88">
         <v>21321</v>
@@ -23131,16 +23143,16 @@
         <v>1</v>
       </c>
       <c r="C375" s="89" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="D375" s="89" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="E375" s="90" t="s">
+        <v>1269</v>
+      </c>
+      <c r="F375" s="89" t="s">
         <v>1270</v>
-      </c>
-      <c r="F375" s="89" t="s">
-        <v>1271</v>
       </c>
       <c r="G375" s="88">
         <v>21322</v>
@@ -23169,16 +23181,16 @@
         <v>1</v>
       </c>
       <c r="C376" s="89" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="D376" s="89" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="E376" s="90" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="F376" s="89" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="G376" s="88">
         <v>21323</v>
@@ -23207,16 +23219,16 @@
         <v>1</v>
       </c>
       <c r="C377" s="89" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="D377" s="89" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="E377" s="90" t="s">
+        <v>1269</v>
+      </c>
+      <c r="F377" s="89" t="s">
         <v>1270</v>
-      </c>
-      <c r="F377" s="89" t="s">
-        <v>1271</v>
       </c>
       <c r="G377" s="88">
         <v>21324</v>
@@ -23245,16 +23257,16 @@
         <v>1</v>
       </c>
       <c r="C378" s="89" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="D378" s="89" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E378" s="90" t="s">
+        <v>1269</v>
+      </c>
+      <c r="F378" s="89" t="s">
         <v>1270</v>
-      </c>
-      <c r="F378" s="89" t="s">
-        <v>1271</v>
       </c>
       <c r="G378" s="88">
         <v>21325</v>
@@ -23283,13 +23295,13 @@
         <v>1</v>
       </c>
       <c r="C379" s="89" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="D379" s="89" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="E379" s="90" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="F379" s="89" t="s">
         <v>855</v>
@@ -23321,16 +23333,16 @@
         <v>1</v>
       </c>
       <c r="C380" s="89" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="D380" s="89" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="E380" s="90" t="s">
+        <v>1269</v>
+      </c>
+      <c r="F380" s="89" t="s">
         <v>1270</v>
-      </c>
-      <c r="F380" s="89" t="s">
-        <v>1271</v>
       </c>
       <c r="G380" s="88">
         <v>21327</v>
@@ -23359,16 +23371,16 @@
         <v>1</v>
       </c>
       <c r="C381" s="89" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="D381" s="89" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="E381" s="90" t="s">
+        <v>1269</v>
+      </c>
+      <c r="F381" s="89" t="s">
         <v>1270</v>
-      </c>
-      <c r="F381" s="89" t="s">
-        <v>1271</v>
       </c>
       <c r="G381" s="88">
         <v>21328</v>
@@ -23397,16 +23409,16 @@
         <v>1</v>
       </c>
       <c r="C382" s="89" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="D382" s="89" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="E382" s="90" t="s">
+        <v>1269</v>
+      </c>
+      <c r="F382" s="89" t="s">
         <v>1270</v>
-      </c>
-      <c r="F382" s="89" t="s">
-        <v>1271</v>
       </c>
       <c r="G382" s="88">
         <v>21329</v>
@@ -23435,16 +23447,16 @@
         <v>1</v>
       </c>
       <c r="C383" s="89" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="D383" s="89" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="E383" s="90" t="s">
+        <v>1269</v>
+      </c>
+      <c r="F383" s="89" t="s">
         <v>1270</v>
-      </c>
-      <c r="F383" s="89" t="s">
-        <v>1271</v>
       </c>
       <c r="G383" s="88">
         <v>21330</v>
@@ -23473,16 +23485,16 @@
         <v>1</v>
       </c>
       <c r="C384" s="92" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="D384" s="92" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="E384" s="92" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="F384" s="92" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="G384" s="91">
         <v>21331</v>
@@ -23511,13 +23523,13 @@
         <v>1</v>
       </c>
       <c r="C385" s="92" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="D385" s="92" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="E385" s="92" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="F385" s="92" t="s">
         <v>855</v>
@@ -23549,16 +23561,16 @@
         <v>1</v>
       </c>
       <c r="C386" s="92" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="D386" s="92" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="E386" s="92" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="F386" s="92" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="G386" s="91">
         <v>21333</v>
@@ -23587,16 +23599,16 @@
         <v>1</v>
       </c>
       <c r="C387" s="92" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="D387" s="92" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="E387" s="92" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="F387" s="92" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="G387" s="91">
         <v>21334</v>
@@ -23625,16 +23637,16 @@
         <v>1</v>
       </c>
       <c r="C388" s="92" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="D388" s="92" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="E388" s="92" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="F388" s="92" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="G388" s="91">
         <v>21335</v>
@@ -23663,13 +23675,13 @@
         <v>1</v>
       </c>
       <c r="C389" s="92" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="D389" s="92" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="E389" s="92" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="F389" s="92" t="s">
         <v>855</v>
@@ -23701,16 +23713,16 @@
         <v>1</v>
       </c>
       <c r="C390" s="92" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="D390" s="92" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="E390" s="92" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="F390" s="92" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="G390" s="91">
         <v>21337</v>
@@ -23739,16 +23751,16 @@
         <v>1</v>
       </c>
       <c r="C391" s="92" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="D391" s="92" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="E391" s="92" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="F391" s="92" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="G391" s="91">
         <v>21338</v>
@@ -23777,16 +23789,16 @@
         <v>1</v>
       </c>
       <c r="C392" s="92" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="D392" s="92" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="E392" s="92" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="F392" s="92" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="G392" s="91">
         <v>21339</v>
@@ -23820,10 +23832,10 @@
   <dimension ref="A1:K392"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C180" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F57" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B198" sqref="B198"/>
+      <selection pane="bottomRight" activeCell="A69" sqref="A69:XFD70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23851,7 +23863,7 @@
         <v>380</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="F1" s="34" t="s">
         <v>381</v>
@@ -23866,7 +23878,7 @@
         <v>917</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="K1" s="38"/>
     </row>
@@ -28646,7 +28658,7 @@
       </c>
       <c r="E179" s="10"/>
       <c r="F179" s="82" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="G179" s="79"/>
       <c r="H179" s="83" t="s">
@@ -28671,7 +28683,7 @@
         <v>121</v>
       </c>
       <c r="F180" s="40" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="G180" s="35"/>
       <c r="H180" s="15" t="s">
@@ -28696,7 +28708,7 @@
         <v>122</v>
       </c>
       <c r="F181" s="40" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="G181" s="35"/>
       <c r="H181" s="15" t="s">
@@ -28721,7 +28733,7 @@
         <v>123</v>
       </c>
       <c r="F182" s="40" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="G182" s="35"/>
       <c r="H182" s="15" t="s">
@@ -28793,7 +28805,7 @@
         <v>21132</v>
       </c>
       <c r="C185" s="13" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="D185" s="11">
         <v>184</v>
@@ -29014,7 +29026,7 @@
         <v>0</v>
       </c>
       <c r="F193" s="40" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="G193" s="35"/>
       <c r="H193" s="15" t="s">
@@ -29039,7 +29051,7 @@
         <v>0</v>
       </c>
       <c r="F194" s="40" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="G194" s="35"/>
       <c r="H194" s="15" t="s">
@@ -29064,7 +29076,7 @@
         <v>0</v>
       </c>
       <c r="F195" s="40" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="G195" s="35"/>
       <c r="H195" s="15" t="s">
@@ -29089,7 +29101,7 @@
         <v>0</v>
       </c>
       <c r="F196" s="40" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="G196" s="35"/>
       <c r="H196" s="15" t="s">
@@ -29114,7 +29126,7 @@
         <v>0</v>
       </c>
       <c r="F197" s="40" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="G197" s="35"/>
       <c r="H197" s="15" t="s">
@@ -29139,7 +29151,7 @@
         <v>0</v>
       </c>
       <c r="F198" s="40" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="G198" s="35"/>
       <c r="H198" s="15" t="s">
@@ -31031,7 +31043,7 @@
         <v>21216</v>
       </c>
       <c r="C269" s="13" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="D269" s="11">
         <v>268</v>
@@ -33390,7 +33402,7 @@
       </c>
       <c r="G367" s="35"/>
       <c r="H367" s="15" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="I367" s="11" t="s">
         <v>387</v>
@@ -33409,14 +33421,14 @@
       </c>
       <c r="E368" s="10"/>
       <c r="F368" s="82" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="G368" s="79"/>
       <c r="H368" s="83" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="I368" s="19" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="369" spans="1:9" x14ac:dyDescent="0.2">
@@ -33432,14 +33444,14 @@
       </c>
       <c r="E369" s="10"/>
       <c r="F369" s="82" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="G369" s="79"/>
       <c r="H369" s="83" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="I369" s="19" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="370" spans="1:9" x14ac:dyDescent="0.2">
@@ -33455,14 +33467,14 @@
       </c>
       <c r="E370" s="10"/>
       <c r="F370" s="82" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="G370" s="79"/>
       <c r="H370" s="83" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="I370" s="19" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="371" spans="1:9" x14ac:dyDescent="0.2">
@@ -33478,14 +33490,14 @@
       </c>
       <c r="E371" s="10"/>
       <c r="F371" s="82" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="G371" s="79"/>
       <c r="H371" s="83" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="I371" s="19" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="372" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -33501,14 +33513,14 @@
       </c>
       <c r="E372" s="11"/>
       <c r="F372" s="40" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="G372" s="35"/>
       <c r="H372" s="15" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="I372" s="13" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="373" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -33522,12 +33534,12 @@
       <c r="D373" s="11"/>
       <c r="E373" s="11"/>
       <c r="F373" s="40" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="G373" s="35"/>
       <c r="H373" s="15"/>
       <c r="I373" s="13" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="374" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -33541,12 +33553,12 @@
       <c r="D374" s="11"/>
       <c r="E374" s="11"/>
       <c r="F374" s="40" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="G374" s="35"/>
       <c r="H374" s="15"/>
       <c r="I374" s="13" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="375" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -33562,14 +33574,14 @@
       </c>
       <c r="E375" s="11"/>
       <c r="F375" s="40" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="G375" s="35"/>
       <c r="H375" s="15" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="I375" s="13" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="376" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -33585,14 +33597,14 @@
       </c>
       <c r="E376" s="11"/>
       <c r="F376" s="40" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="G376" s="35"/>
       <c r="H376" s="15" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="I376" s="13" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="377" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -33608,14 +33620,14 @@
       </c>
       <c r="E377" s="11"/>
       <c r="F377" s="40" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="G377" s="35"/>
       <c r="H377" s="15" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="I377" s="13" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="378" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -33631,14 +33643,14 @@
       </c>
       <c r="E378" s="11"/>
       <c r="F378" s="40" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="G378" s="35"/>
       <c r="H378" s="15" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="I378" s="13" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="379" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -33654,14 +33666,14 @@
       </c>
       <c r="E379" s="11"/>
       <c r="F379" s="40" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="G379" s="35"/>
       <c r="H379" s="15" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="I379" s="13" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="380" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -33677,14 +33689,14 @@
       </c>
       <c r="E380" s="11"/>
       <c r="F380" s="40" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="G380" s="35"/>
       <c r="H380" s="15" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="I380" s="13" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="381" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -33700,14 +33712,14 @@
       </c>
       <c r="E381" s="11"/>
       <c r="F381" s="40" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="G381" s="35"/>
       <c r="H381" s="15" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="I381" s="13" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="382" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -33723,14 +33735,14 @@
       </c>
       <c r="E382" s="11"/>
       <c r="F382" s="40" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="G382" s="35"/>
       <c r="H382" s="15" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="I382" s="13" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="383" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -33746,14 +33758,14 @@
       </c>
       <c r="E383" s="11"/>
       <c r="F383" s="40" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="G383" s="35"/>
       <c r="H383" s="15" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="I383" s="13" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="384" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
@@ -33769,14 +33781,14 @@
       </c>
       <c r="E384" s="93"/>
       <c r="F384" s="94" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="G384" s="95"/>
       <c r="H384" s="96" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="I384" s="97" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="385" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
@@ -33794,14 +33806,14 @@
         <v>258</v>
       </c>
       <c r="F385" s="94" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="G385" s="95"/>
       <c r="H385" s="96" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="I385" s="97" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="386" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
@@ -33819,14 +33831,14 @@
         <v>259</v>
       </c>
       <c r="F386" s="94" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="G386" s="95"/>
       <c r="H386" s="96" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="I386" s="97" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="387" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
@@ -33842,14 +33854,14 @@
       </c>
       <c r="E387" s="93"/>
       <c r="F387" s="94" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="G387" s="95"/>
       <c r="H387" s="96" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="I387" s="97" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="388" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
@@ -33865,14 +33877,14 @@
       </c>
       <c r="E388" s="93"/>
       <c r="F388" s="94" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="G388" s="95"/>
       <c r="H388" s="96" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="I388" s="97" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="389" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
@@ -33890,14 +33902,14 @@
         <v>260</v>
       </c>
       <c r="F389" s="94" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="G389" s="95"/>
       <c r="H389" s="96" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="I389" s="97" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="390" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
@@ -33913,14 +33925,14 @@
       </c>
       <c r="E390" s="93"/>
       <c r="F390" s="94" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="G390" s="95"/>
       <c r="H390" s="96" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="I390" s="97" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="391" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
@@ -33938,14 +33950,14 @@
         <v>261</v>
       </c>
       <c r="F391" s="94" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="G391" s="95"/>
       <c r="H391" s="96" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="I391" s="97" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="392" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
@@ -33963,14 +33975,14 @@
         <v>262</v>
       </c>
       <c r="F392" s="94" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="G392" s="95"/>
       <c r="H392" s="96" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="I392" s="97" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
   </sheetData>
@@ -37196,7 +37208,7 @@
         <v>178</v>
       </c>
       <c r="C224" s="85" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="D224" s="60">
         <v>257</v>
@@ -37210,7 +37222,7 @@
         <v>179</v>
       </c>
       <c r="C225" s="85" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="D225" s="60">
         <v>0</v>
@@ -37224,7 +37236,7 @@
         <v>180</v>
       </c>
       <c r="C226" s="85" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="D226" s="60">
         <v>0</v>
@@ -37238,7 +37250,7 @@
         <v>181</v>
       </c>
       <c r="C227" s="85" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="D227" s="60">
         <v>0</v>
@@ -37389,7 +37401,7 @@
         <v>184</v>
       </c>
       <c r="C237" s="13" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="D237" s="11">
         <v>0</v>
@@ -37515,7 +37527,7 @@
         <v>185</v>
       </c>
       <c r="C245" s="13" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="D245" s="11">
         <v>0</v>
@@ -37641,7 +37653,7 @@
         <v>186</v>
       </c>
       <c r="C253" s="13" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="D253" s="11">
         <v>0</v>
@@ -37767,7 +37779,7 @@
         <v>187</v>
       </c>
       <c r="C261" s="13" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="D261" s="11">
         <v>0</v>
@@ -37893,7 +37905,7 @@
         <v>188</v>
       </c>
       <c r="C269" s="13" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="D269" s="11">
         <v>0</v>
@@ -38019,7 +38031,7 @@
         <v>189</v>
       </c>
       <c r="C277" s="13" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="D277" s="11">
         <v>0</v>
@@ -38145,7 +38157,7 @@
         <v>190</v>
       </c>
       <c r="C285" s="13" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="D285" s="11">
         <v>0</v>
@@ -38177,7 +38189,7 @@
         <v>192</v>
       </c>
       <c r="C287" s="19" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="D287" s="10">
         <v>247</v>
@@ -38192,7 +38204,7 @@
         <v>193</v>
       </c>
       <c r="C288" s="19" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="D288" s="10">
         <v>248</v>
@@ -38207,7 +38219,7 @@
         <v>194</v>
       </c>
       <c r="C289" s="19" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="D289" s="10">
         <v>249</v>
@@ -38222,7 +38234,7 @@
         <v>195</v>
       </c>
       <c r="C290" s="19" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="D290" s="10">
         <v>250</v>
@@ -38237,7 +38249,7 @@
         <v>196</v>
       </c>
       <c r="C291" s="19" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="D291" s="10">
         <v>251</v>
@@ -38252,7 +38264,7 @@
         <v>197</v>
       </c>
       <c r="C292" s="19" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="D292" s="10">
         <v>252</v>
@@ -41584,7 +41596,7 @@
         <v>367</v>
       </c>
       <c r="C524" s="87" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="D524" s="10">
         <v>253</v>
@@ -41598,7 +41610,7 @@
         <v>368</v>
       </c>
       <c r="C525" s="87" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="D525" s="10">
         <v>254</v>
@@ -41612,7 +41624,7 @@
         <v>369</v>
       </c>
       <c r="C526" s="87" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="D526" s="10">
         <v>255</v>
@@ -41626,7 +41638,7 @@
         <v>370</v>
       </c>
       <c r="C527" s="87" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="D527" s="10">
         <v>256</v>
@@ -41640,7 +41652,7 @@
         <v>371</v>
       </c>
       <c r="C528" s="13" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="D528" s="12">
         <v>0</v>
@@ -41654,7 +41666,7 @@
         <v>372</v>
       </c>
       <c r="C529" s="13" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="D529" s="12">
         <v>0</v>
@@ -41668,7 +41680,7 @@
         <v>373</v>
       </c>
       <c r="C530" s="13" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="D530" s="12">
         <v>0</v>
@@ -41682,7 +41694,7 @@
         <v>374</v>
       </c>
       <c r="C531" s="13" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="D531" s="12">
         <v>0</v>
@@ -41696,7 +41708,7 @@
         <v>375</v>
       </c>
       <c r="C532" s="13" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="D532" s="12">
         <v>0</v>
@@ -41713,7 +41725,7 @@
         <v>376</v>
       </c>
       <c r="C533" s="13" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="D533" s="12">
         <v>0</v>
@@ -41727,7 +41739,7 @@
         <v>377</v>
       </c>
       <c r="C534" s="13" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="D534" s="12">
         <v>0</v>
@@ -41741,7 +41753,7 @@
         <v>378</v>
       </c>
       <c r="C535" s="13" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="D535" s="12">
         <v>0</v>
@@ -41755,7 +41767,7 @@
         <v>379</v>
       </c>
       <c r="C536" s="13" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="D536" s="12">
         <v>0</v>
@@ -41769,7 +41781,7 @@
         <v>380</v>
       </c>
       <c r="C537" s="13" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="D537" s="12">
         <v>0</v>
@@ -41783,7 +41795,7 @@
         <v>381</v>
       </c>
       <c r="C538" s="13" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="D538" s="12">
         <v>258</v>
@@ -41797,7 +41809,7 @@
         <v>382</v>
       </c>
       <c r="C539" s="13" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="D539" s="12">
         <v>259</v>
@@ -41811,7 +41823,7 @@
         <v>383</v>
       </c>
       <c r="C540" s="13" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="D540" s="12">
         <v>0</v>
@@ -41825,7 +41837,7 @@
         <v>384</v>
       </c>
       <c r="C541" s="13" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="D541" s="12">
         <v>0</v>
@@ -41839,7 +41851,7 @@
         <v>385</v>
       </c>
       <c r="C542" s="13" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="D542" s="12">
         <v>260</v>
@@ -41853,7 +41865,7 @@
         <v>386</v>
       </c>
       <c r="C543" s="13" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="D543" s="12">
         <v>0</v>
@@ -41867,7 +41879,7 @@
         <v>387</v>
       </c>
       <c r="C544" s="13" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="D544" s="12">
         <v>261</v>
@@ -41881,7 +41893,7 @@
         <v>388</v>
       </c>
       <c r="C545" s="13" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="D545" s="12">
         <v>262</v>
@@ -41898,7 +41910,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M375"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C347" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -48642,7 +48654,7 @@
         <v>688</v>
       </c>
       <c r="D360" s="15" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="E360" s="11">
         <v>2</v>
@@ -48659,7 +48671,7 @@
         <v>688</v>
       </c>
       <c r="D361" s="15" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="E361" s="11">
         <v>2</v>
@@ -48676,7 +48688,7 @@
         <v>688</v>
       </c>
       <c r="D362" s="15" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="E362" s="11">
         <v>2</v>
@@ -48693,7 +48705,7 @@
         <v>688</v>
       </c>
       <c r="D363" s="15" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="E363" s="11">
         <v>2</v>
@@ -48710,7 +48722,7 @@
         <v>688</v>
       </c>
       <c r="D364" s="15" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="E364" s="11">
         <v>2</v>
@@ -48724,10 +48736,10 @@
         <v>253</v>
       </c>
       <c r="C365" s="19" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="D365" s="83" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="E365" s="10">
         <v>2</v>
@@ -48741,7 +48753,7 @@
         <v>254</v>
       </c>
       <c r="C366" s="19" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="D366" s="10">
         <v>3</v>
@@ -48758,7 +48770,7 @@
         <v>255</v>
       </c>
       <c r="C367" s="19" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="D367" s="10">
         <v>4</v>
@@ -48775,7 +48787,7 @@
         <v>256</v>
       </c>
       <c r="C368" s="19" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="D368" s="10">
         <v>5</v>
@@ -48795,7 +48807,7 @@
         <v>675</v>
       </c>
       <c r="D369" s="14" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="E369" s="29">
         <v>2</v>
@@ -48811,7 +48823,7 @@
         <v>258</v>
       </c>
       <c r="C370" s="13" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="D370" s="11">
         <v>5000000</v>
@@ -48828,10 +48840,10 @@
         <v>259</v>
       </c>
       <c r="C371" s="13" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="D371" s="13" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="E371" s="11">
         <v>2</v>
@@ -48845,7 +48857,7 @@
         <v>259</v>
       </c>
       <c r="C372" s="13" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="D372" s="11">
         <v>100000</v>
@@ -48862,7 +48874,7 @@
         <v>260</v>
       </c>
       <c r="C373" s="13" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="D373" s="11">
         <v>480000</v>
@@ -48879,7 +48891,7 @@
         <v>261</v>
       </c>
       <c r="C374" s="13" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="D374" s="11">
         <v>960000</v>
@@ -48896,7 +48908,7 @@
         <v>262</v>
       </c>
       <c r="C375" s="13" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="D375" s="11">
         <v>10</v>
@@ -48916,11 +48928,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W815"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C787" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C758" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D812" sqref="D812"/>
+      <selection pane="bottomRight" activeCell="D774" sqref="D774"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -54781,7 +54793,7 @@
         <v>766</v>
       </c>
       <c r="E264" s="10">
-        <v>30000</v>
+        <v>300000</v>
       </c>
       <c r="F264" s="10">
         <v>1</v>
@@ -54819,8 +54831,8 @@
         <v>151</v>
       </c>
       <c r="C266" s="10"/>
-      <c r="D266" s="10" t="s">
-        <v>776</v>
+      <c r="D266" s="19" t="s">
+        <v>1338</v>
       </c>
       <c r="E266" s="10">
         <v>1</v>
@@ -54844,7 +54856,7 @@
         <v>766</v>
       </c>
       <c r="E267" s="78">
-        <v>66000</v>
+        <v>660000</v>
       </c>
       <c r="F267" s="78">
         <v>1</v>
@@ -54862,7 +54874,7 @@
       </c>
       <c r="C268" s="78"/>
       <c r="D268" s="77" t="s">
-        <v>1175</v>
+        <v>1340</v>
       </c>
       <c r="E268" s="78">
         <v>10</v>
@@ -54882,8 +54894,8 @@
         <v>152</v>
       </c>
       <c r="C269" s="78"/>
-      <c r="D269" s="78" t="s">
-        <v>776</v>
+      <c r="D269" s="77" t="s">
+        <v>1339</v>
       </c>
       <c r="E269" s="78">
         <v>1</v>
@@ -58900,7 +58912,7 @@
       </c>
       <c r="C473" s="13"/>
       <c r="D473" s="13" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="E473" s="11">
         <v>604800</v>
@@ -63022,7 +63034,7 @@
       </c>
       <c r="C670" s="11"/>
       <c r="D670" s="13" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="E670" s="11">
         <v>12000</v>
@@ -65119,7 +65131,7 @@
         <v>766</v>
       </c>
       <c r="E772" s="11">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="F772" s="11">
         <v>1</v>
@@ -65157,8 +65169,8 @@
         <v>567</v>
       </c>
       <c r="C774" s="11"/>
-      <c r="D774" s="11" t="s">
-        <v>776</v>
+      <c r="D774" s="13" t="s">
+        <v>1341</v>
       </c>
       <c r="E774" s="11">
         <v>1</v>
@@ -65179,10 +65191,10 @@
       </c>
       <c r="C775" s="10"/>
       <c r="D775" s="19" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="E775" s="83" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="F775" s="10">
         <v>25</v>
@@ -65198,10 +65210,10 @@
       </c>
       <c r="C776" s="10"/>
       <c r="D776" s="19" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="E776" s="83" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="F776" s="10">
         <v>50</v>
@@ -65219,10 +65231,10 @@
       </c>
       <c r="C777" s="10"/>
       <c r="D777" s="19" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="E777" s="83" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="F777" s="10">
         <v>25</v>
@@ -65240,10 +65252,10 @@
       </c>
       <c r="C778" s="10"/>
       <c r="D778" s="19" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="E778" s="83" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="F778" s="10">
         <v>25</v>
@@ -65258,10 +65270,10 @@
       </c>
       <c r="C779" s="10"/>
       <c r="D779" s="19" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="E779" s="83" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="F779" s="10">
         <v>50</v>
@@ -65276,10 +65288,10 @@
       </c>
       <c r="C780" s="10"/>
       <c r="D780" s="19" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="E780" s="83" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="F780" s="10">
         <v>25</v>
@@ -65294,10 +65306,10 @@
       </c>
       <c r="C781" s="10"/>
       <c r="D781" s="19" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="E781" s="83" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F781" s="10">
         <v>25</v>
@@ -65312,10 +65324,10 @@
       </c>
       <c r="C782" s="10"/>
       <c r="D782" s="19" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="E782" s="83" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="F782" s="10">
         <v>50</v>
@@ -65330,10 +65342,10 @@
       </c>
       <c r="C783" s="10"/>
       <c r="D783" s="19" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="E783" s="83" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="F783" s="10">
         <v>25</v>
@@ -65348,10 +65360,10 @@
       </c>
       <c r="C784" s="10"/>
       <c r="D784" s="19" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="E784" s="83" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="F784" s="10">
         <v>25</v>
@@ -65366,10 +65378,10 @@
       </c>
       <c r="C785" s="10"/>
       <c r="D785" s="19" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="E785" s="83" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F785" s="10">
         <v>50</v>
@@ -65384,10 +65396,10 @@
       </c>
       <c r="C786" s="10"/>
       <c r="D786" s="19" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="E786" s="83" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="F786" s="10">
         <v>25</v>
@@ -65402,10 +65414,10 @@
       </c>
       <c r="C787" s="10"/>
       <c r="D787" s="19" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="E787" s="83" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="F787" s="10">
         <v>25</v>
@@ -65420,10 +65432,10 @@
       </c>
       <c r="C788" s="10"/>
       <c r="D788" s="19" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="E788" s="83" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="F788" s="10">
         <v>50</v>
@@ -65438,7 +65450,7 @@
       </c>
       <c r="C789" s="10"/>
       <c r="D789" s="19" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="E789" s="83">
         <v>150</v>
@@ -65456,7 +65468,7 @@
       </c>
       <c r="C790" s="10"/>
       <c r="D790" s="19" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="E790" s="9">
         <v>400</v>
@@ -65474,7 +65486,7 @@
       </c>
       <c r="C791" s="10"/>
       <c r="D791" s="19" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="E791" s="9">
         <v>500</v>
@@ -65492,7 +65504,7 @@
       </c>
       <c r="C792" s="10"/>
       <c r="D792" s="19" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="E792" s="9">
         <v>600</v>
@@ -65510,7 +65522,7 @@
       </c>
       <c r="C793" s="10"/>
       <c r="D793" s="19" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="E793" s="9">
         <v>100</v>
@@ -65528,7 +65540,7 @@
       </c>
       <c r="C794" s="10"/>
       <c r="D794" s="19" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="E794" s="9">
         <v>300</v>
@@ -65546,7 +65558,7 @@
       </c>
       <c r="C795" s="10"/>
       <c r="D795" s="19" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="E795" s="9">
         <v>500</v>
@@ -65564,7 +65576,7 @@
       </c>
       <c r="C796" s="10"/>
       <c r="D796" s="19" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="E796" s="9">
         <v>500</v>
@@ -65582,7 +65594,7 @@
       </c>
       <c r="C797" s="10"/>
       <c r="D797" s="19" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="E797" s="9">
         <v>1000</v>
@@ -65600,7 +65612,7 @@
       </c>
       <c r="C798" s="10"/>
       <c r="D798" s="19" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="E798" s="9">
         <v>1500</v>
@@ -65618,7 +65630,7 @@
       </c>
       <c r="C799" s="10"/>
       <c r="D799" s="19" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="E799" s="9">
         <v>4000</v>
@@ -65636,7 +65648,7 @@
       </c>
       <c r="C800" s="10"/>
       <c r="D800" s="19" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="E800" s="9">
         <v>5000</v>
@@ -65654,7 +65666,7 @@
       </c>
       <c r="C801" s="10"/>
       <c r="D801" s="19" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="E801" s="9">
         <v>6000</v>
@@ -65672,7 +65684,7 @@
       </c>
       <c r="C802" s="10"/>
       <c r="D802" s="19" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="E802" s="9">
         <v>1000</v>
@@ -65690,7 +65702,7 @@
       </c>
       <c r="C803" s="10"/>
       <c r="D803" s="19" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="E803" s="9">
         <v>3000</v>
@@ -65708,7 +65720,7 @@
       </c>
       <c r="C804" s="10"/>
       <c r="D804" s="19" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="E804" s="9">
         <v>5000</v>
@@ -65726,7 +65738,7 @@
       </c>
       <c r="C805" s="10"/>
       <c r="D805" s="19" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="E805" s="9">
         <v>5000</v>
@@ -65744,7 +65756,7 @@
       </c>
       <c r="C806" s="10"/>
       <c r="D806" s="19" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="E806" s="9">
         <v>10000</v>
@@ -65762,7 +65774,7 @@
       </c>
       <c r="C807" s="10"/>
       <c r="D807" s="19" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="E807" s="9">
         <v>15000</v>
@@ -65780,7 +65792,7 @@
       </c>
       <c r="C808" s="10"/>
       <c r="D808" s="19" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="E808" s="9">
         <v>40000</v>
@@ -65798,7 +65810,7 @@
       </c>
       <c r="C809" s="10"/>
       <c r="D809" s="19" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="E809" s="9">
         <v>50000</v>
@@ -65816,7 +65828,7 @@
       </c>
       <c r="C810" s="10"/>
       <c r="D810" s="19" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="E810" s="9">
         <v>60000</v>
@@ -65834,7 +65846,7 @@
       </c>
       <c r="C811" s="11"/>
       <c r="D811" s="13" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="E811" s="27">
         <v>30000</v>
@@ -65855,7 +65867,7 @@
       </c>
       <c r="C812" s="11"/>
       <c r="D812" s="13" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="E812" s="27">
         <v>100</v>
@@ -65876,7 +65888,7 @@
       </c>
       <c r="C813" s="11"/>
       <c r="D813" s="13" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="E813" s="27">
         <v>1</v>
@@ -65897,7 +65909,7 @@
       </c>
       <c r="C814" s="11"/>
       <c r="D814" s="13" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="E814" s="27">
         <v>400</v>
@@ -65918,7 +65930,7 @@
       </c>
       <c r="C815" s="11"/>
       <c r="D815" s="13" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="E815" s="27">
         <v>1</v>

--- a/config_debug/task_zajindan_server.xlsx
+++ b/config_debug/task_zajindan_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4970" uniqueCount="1342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4970" uniqueCount="1343">
   <si>
     <t>id|任务id</t>
   </si>
@@ -7451,10 +7451,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>在街机捕鱼中累计赢金1000万</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>在疯狂捕鱼中累计赢金1000万</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -7636,10 +7632,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>buyu_award</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>jykp_award</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -7774,6 +7766,18 @@
   <si>
     <t>prop_guess_apple_bet_2</t>
     <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼中累计赢金1000万</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyu_3d_award</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyu_3d_award</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -8546,10 +8550,10 @@
   <dimension ref="A1:T392"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D359" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A69" sqref="A69:XFD70"/>
+      <selection pane="bottomRight" activeCell="A379" sqref="A379"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23298,7 +23302,7 @@
         <v>1259</v>
       </c>
       <c r="D379" s="89" t="s">
-        <v>1277</v>
+        <v>1340</v>
       </c>
       <c r="E379" s="90" t="s">
         <v>1269</v>
@@ -23336,7 +23340,7 @@
         <v>1259</v>
       </c>
       <c r="D380" s="89" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="E380" s="90" t="s">
         <v>1269</v>
@@ -23374,7 +23378,7 @@
         <v>1259</v>
       </c>
       <c r="D381" s="89" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="E381" s="90" t="s">
         <v>1269</v>
@@ -23412,7 +23416,7 @@
         <v>1259</v>
       </c>
       <c r="D382" s="89" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="E382" s="90" t="s">
         <v>1269</v>
@@ -23450,7 +23454,7 @@
         <v>1259</v>
       </c>
       <c r="D383" s="89" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="E383" s="90" t="s">
         <v>1269</v>
@@ -23488,7 +23492,7 @@
         <v>1259</v>
       </c>
       <c r="D384" s="92" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="E384" s="92" t="s">
         <v>1272</v>
@@ -23526,7 +23530,7 @@
         <v>1259</v>
       </c>
       <c r="D385" s="92" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="E385" s="92" t="s">
         <v>1272</v>
@@ -23564,7 +23568,7 @@
         <v>1259</v>
       </c>
       <c r="D386" s="92" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="E386" s="92" t="s">
         <v>1272</v>
@@ -23602,7 +23606,7 @@
         <v>1258</v>
       </c>
       <c r="D387" s="92" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="E387" s="92" t="s">
         <v>1272</v>
@@ -23640,7 +23644,7 @@
         <v>1259</v>
       </c>
       <c r="D388" s="92" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="E388" s="92" t="s">
         <v>1272</v>
@@ -23678,7 +23682,7 @@
         <v>1259</v>
       </c>
       <c r="D389" s="92" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="E389" s="92" t="s">
         <v>1272</v>
@@ -23716,7 +23720,7 @@
         <v>1259</v>
       </c>
       <c r="D390" s="92" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="E390" s="92" t="s">
         <v>1272</v>
@@ -23754,7 +23758,7 @@
         <v>1258</v>
       </c>
       <c r="D391" s="92" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="E391" s="92" t="s">
         <v>1272</v>
@@ -23792,7 +23796,7 @@
         <v>1258</v>
       </c>
       <c r="D392" s="92" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="E392" s="92" t="s">
         <v>1271</v>
@@ -23832,10 +23836,10 @@
   <dimension ref="A1:K392"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F57" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C361" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A69" sqref="A69:XFD70"/>
+      <selection pane="bottomRight" activeCell="D379" sqref="D379"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -33513,14 +33517,14 @@
       </c>
       <c r="E372" s="11"/>
       <c r="F372" s="40" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="G372" s="35"/>
       <c r="H372" s="15" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="I372" s="13" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="373" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -33534,12 +33538,12 @@
       <c r="D373" s="11"/>
       <c r="E373" s="11"/>
       <c r="F373" s="40" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="G373" s="35"/>
       <c r="H373" s="15"/>
       <c r="I373" s="13" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="374" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -33553,12 +33557,12 @@
       <c r="D374" s="11"/>
       <c r="E374" s="11"/>
       <c r="F374" s="40" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="G374" s="35"/>
       <c r="H374" s="15"/>
       <c r="I374" s="13" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="375" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -33574,14 +33578,14 @@
       </c>
       <c r="E375" s="11"/>
       <c r="F375" s="40" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="G375" s="35"/>
       <c r="H375" s="15" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="I375" s="13" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="376" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -33597,14 +33601,14 @@
       </c>
       <c r="E376" s="11"/>
       <c r="F376" s="40" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="G376" s="35"/>
       <c r="H376" s="15" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="I376" s="13" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="377" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -33620,14 +33624,14 @@
       </c>
       <c r="E377" s="11"/>
       <c r="F377" s="40" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="G377" s="35"/>
       <c r="H377" s="15" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="I377" s="13" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="378" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -33643,14 +33647,14 @@
       </c>
       <c r="E378" s="11"/>
       <c r="F378" s="40" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="G378" s="35"/>
       <c r="H378" s="15" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="I378" s="13" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="379" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -33666,14 +33670,14 @@
       </c>
       <c r="E379" s="11"/>
       <c r="F379" s="40" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="G379" s="35"/>
       <c r="H379" s="15" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="I379" s="13" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="380" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -33689,14 +33693,14 @@
       </c>
       <c r="E380" s="11"/>
       <c r="F380" s="40" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="G380" s="35"/>
       <c r="H380" s="15" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="I380" s="13" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="381" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -33712,14 +33716,14 @@
       </c>
       <c r="E381" s="11"/>
       <c r="F381" s="40" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="G381" s="35"/>
       <c r="H381" s="15" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="I381" s="13" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="382" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -33735,14 +33739,14 @@
       </c>
       <c r="E382" s="11"/>
       <c r="F382" s="40" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="G382" s="35"/>
       <c r="H382" s="15" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="I382" s="13" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="383" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -33758,14 +33762,14 @@
       </c>
       <c r="E383" s="11"/>
       <c r="F383" s="40" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="G383" s="35"/>
       <c r="H383" s="15" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="I383" s="13" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="384" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
@@ -33781,14 +33785,14 @@
       </c>
       <c r="E384" s="93"/>
       <c r="F384" s="94" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="G384" s="95"/>
       <c r="H384" s="96" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="I384" s="97" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="385" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
@@ -33806,14 +33810,14 @@
         <v>258</v>
       </c>
       <c r="F385" s="94" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="G385" s="95"/>
       <c r="H385" s="96" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="I385" s="97" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="386" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
@@ -33831,14 +33835,14 @@
         <v>259</v>
       </c>
       <c r="F386" s="94" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="G386" s="95"/>
       <c r="H386" s="96" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="I386" s="97" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="387" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
@@ -33854,14 +33858,14 @@
       </c>
       <c r="E387" s="93"/>
       <c r="F387" s="94" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="G387" s="95"/>
       <c r="H387" s="96" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="I387" s="97" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="388" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
@@ -33877,14 +33881,14 @@
       </c>
       <c r="E388" s="93"/>
       <c r="F388" s="94" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="G388" s="95"/>
       <c r="H388" s="96" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="I388" s="97" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="389" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
@@ -33902,14 +33906,14 @@
         <v>260</v>
       </c>
       <c r="F389" s="94" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="G389" s="95"/>
       <c r="H389" s="96" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="I389" s="97" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="390" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
@@ -33925,14 +33929,14 @@
       </c>
       <c r="E390" s="93"/>
       <c r="F390" s="94" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="G390" s="95"/>
       <c r="H390" s="96" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="I390" s="97" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="391" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
@@ -33950,14 +33954,14 @@
         <v>261</v>
       </c>
       <c r="F391" s="94" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="G391" s="95"/>
       <c r="H391" s="96" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="I391" s="97" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="392" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
@@ -33975,14 +33979,14 @@
         <v>262</v>
       </c>
       <c r="F392" s="94" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="G392" s="95"/>
       <c r="H392" s="96" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="I392" s="97" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
   </sheetData>
@@ -33996,8 +34000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I545"/>
   <sheetViews>
-    <sheetView topLeftCell="A272" workbookViewId="0">
-      <selection activeCell="A292" sqref="A292:XFD292"/>
+    <sheetView tabSelected="1" topLeftCell="A510" workbookViewId="0">
+      <selection activeCell="C532" sqref="C532"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -37401,7 +37405,7 @@
         <v>184</v>
       </c>
       <c r="C237" s="13" t="s">
-        <v>1222</v>
+        <v>1341</v>
       </c>
       <c r="D237" s="11">
         <v>0</v>
@@ -41652,7 +41656,7 @@
         <v>371</v>
       </c>
       <c r="C528" s="13" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="D528" s="12">
         <v>0</v>
@@ -41666,7 +41670,7 @@
         <v>372</v>
       </c>
       <c r="C529" s="13" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="D529" s="12">
         <v>0</v>
@@ -41680,7 +41684,7 @@
         <v>373</v>
       </c>
       <c r="C530" s="13" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="D530" s="12">
         <v>0</v>
@@ -41694,7 +41698,7 @@
         <v>374</v>
       </c>
       <c r="C531" s="13" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="D531" s="12">
         <v>0</v>
@@ -41708,7 +41712,7 @@
         <v>375</v>
       </c>
       <c r="C532" s="13" t="s">
-        <v>1307</v>
+        <v>1342</v>
       </c>
       <c r="D532" s="12">
         <v>0</v>
@@ -41725,7 +41729,7 @@
         <v>376</v>
       </c>
       <c r="C533" s="13" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="D533" s="12">
         <v>0</v>
@@ -41739,7 +41743,7 @@
         <v>377</v>
       </c>
       <c r="C534" s="13" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="D534" s="12">
         <v>0</v>
@@ -41753,7 +41757,7 @@
         <v>378</v>
       </c>
       <c r="C535" s="13" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="D535" s="12">
         <v>0</v>
@@ -41767,7 +41771,7 @@
         <v>379</v>
       </c>
       <c r="C536" s="13" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="D536" s="12">
         <v>0</v>
@@ -41781,7 +41785,7 @@
         <v>380</v>
       </c>
       <c r="C537" s="13" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="D537" s="12">
         <v>0</v>
@@ -41795,7 +41799,7 @@
         <v>381</v>
       </c>
       <c r="C538" s="13" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="D538" s="12">
         <v>258</v>
@@ -41809,7 +41813,7 @@
         <v>382</v>
       </c>
       <c r="C539" s="13" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="D539" s="12">
         <v>259</v>
@@ -41823,7 +41827,7 @@
         <v>383</v>
       </c>
       <c r="C540" s="13" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="D540" s="12">
         <v>0</v>
@@ -41837,7 +41841,7 @@
         <v>384</v>
       </c>
       <c r="C541" s="13" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="D541" s="12">
         <v>0</v>
@@ -41851,7 +41855,7 @@
         <v>385</v>
       </c>
       <c r="C542" s="13" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="D542" s="12">
         <v>260</v>
@@ -41865,7 +41869,7 @@
         <v>386</v>
       </c>
       <c r="C543" s="13" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="D543" s="12">
         <v>0</v>
@@ -41879,7 +41883,7 @@
         <v>387</v>
       </c>
       <c r="C544" s="13" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="D544" s="12">
         <v>261</v>
@@ -41893,7 +41897,7 @@
         <v>388</v>
       </c>
       <c r="C545" s="13" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="D545" s="12">
         <v>262</v>
@@ -48722,7 +48726,7 @@
         <v>688</v>
       </c>
       <c r="D364" s="15" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="E364" s="11">
         <v>2</v>
@@ -48823,7 +48827,7 @@
         <v>258</v>
       </c>
       <c r="C370" s="13" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="D370" s="11">
         <v>5000000</v>
@@ -48840,10 +48844,10 @@
         <v>259</v>
       </c>
       <c r="C371" s="13" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="D371" s="13" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="E371" s="11">
         <v>2</v>
@@ -48857,7 +48861,7 @@
         <v>259</v>
       </c>
       <c r="C372" s="13" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="D372" s="11">
         <v>100000</v>
@@ -48874,7 +48878,7 @@
         <v>260</v>
       </c>
       <c r="C373" s="13" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="D373" s="11">
         <v>480000</v>
@@ -48891,7 +48895,7 @@
         <v>261</v>
       </c>
       <c r="C374" s="13" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="D374" s="11">
         <v>960000</v>
@@ -48908,7 +48912,7 @@
         <v>262</v>
       </c>
       <c r="C375" s="13" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="D375" s="11">
         <v>10</v>
@@ -48928,11 +48932,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W815"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C758" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D774" sqref="D774"/>
+      <selection pane="bottomRight" activeCell="C794" sqref="C794"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -54832,7 +54836,7 @@
       </c>
       <c r="C266" s="10"/>
       <c r="D266" s="19" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="E266" s="10">
         <v>1</v>
@@ -54874,7 +54878,7 @@
       </c>
       <c r="C268" s="78"/>
       <c r="D268" s="77" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="E268" s="78">
         <v>10</v>
@@ -54895,7 +54899,7 @@
       </c>
       <c r="C269" s="78"/>
       <c r="D269" s="77" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="E269" s="78">
         <v>1</v>
@@ -65170,7 +65174,7 @@
       </c>
       <c r="C774" s="11"/>
       <c r="D774" s="13" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="E774" s="11">
         <v>1</v>
@@ -65846,7 +65850,7 @@
       </c>
       <c r="C811" s="11"/>
       <c r="D811" s="13" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="E811" s="27">
         <v>30000</v>
@@ -65867,7 +65871,7 @@
       </c>
       <c r="C812" s="11"/>
       <c r="D812" s="13" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="E812" s="27">
         <v>100</v>
@@ -65888,7 +65892,7 @@
       </c>
       <c r="C813" s="11"/>
       <c r="D813" s="13" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="E813" s="27">
         <v>1</v>
@@ -65909,7 +65913,7 @@
       </c>
       <c r="C814" s="11"/>
       <c r="D814" s="13" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="E814" s="27">
         <v>400</v>
@@ -65930,7 +65934,7 @@
       </c>
       <c r="C815" s="11"/>
       <c r="D815" s="13" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="E815" s="27">
         <v>1</v>
@@ -65954,7 +65958,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_debug/task_zajindan_server.xlsx
+++ b/config_debug/task_zajindan_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4970" uniqueCount="1343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5000" uniqueCount="1356">
   <si>
     <t>id|任务id</t>
   </si>
@@ -7779,12 +7779,97 @@
     <t>buyu_3d_award</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
+  <si>
+    <t>VIP赢金挑战第三期</t>
+  </si>
+  <si>
+    <t>VIP赢金任务第三期</t>
+  </si>
+  <si>
+    <t>vip_new_game_award_task_3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3000000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3000000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,6000000,12000000,24000000,48000000,104000000,200000000,400000000,800000000,1600000000,3200000000,5600000000,12000000000,26000000000</t>
+    </r>
+  </si>
+  <si>
+    <t>zajindan_award</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>jykp_award</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>拜尔电动牙刷</t>
+  </si>
+  <si>
+    <t>九阳电炖紫砂锅</t>
+  </si>
+  <si>
+    <t>美的智能烤箱</t>
+  </si>
+  <si>
+    <t>苏泊尔净水器</t>
+  </si>
+  <si>
+    <t>美的冰箱</t>
+  </si>
+  <si>
+    <t>苹果智能手表，北欧真皮沙发，席梦思高端床垫（三选一）</t>
+  </si>
+  <si>
+    <t>583,584,585,586,587,588,589,590,591,592,593,594,595,596,597,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7859,6 +7944,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="14">
@@ -7982,7 +8074,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8264,6 +8356,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -8547,13 +8645,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T392"/>
+  <dimension ref="A1:T393"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D359" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A379" sqref="A379"/>
+      <selection pane="bottomRight" activeCell="B69" sqref="B69:B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11491,7 +11589,7 @@
         <v>21016</v>
       </c>
       <c r="B69" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C69" s="16" t="s">
         <v>105</v>
@@ -11530,7 +11628,7 @@
         <v>21017</v>
       </c>
       <c r="B70" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C70" s="16" t="s">
         <v>109</v>
@@ -22840,7 +22938,7 @@
         <v>21314</v>
       </c>
       <c r="B367" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C367" s="16" t="s">
         <v>1175</v>
@@ -23820,6 +23918,44 @@
         <v>32503651200</v>
       </c>
       <c r="L392" s="91">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:12" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A393" s="12">
+        <v>21340</v>
+      </c>
+      <c r="B393" s="12">
+        <v>1</v>
+      </c>
+      <c r="C393" s="16" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D393" s="12" t="s">
+        <v>1344</v>
+      </c>
+      <c r="E393" s="99" t="s">
+        <v>1345</v>
+      </c>
+      <c r="F393" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G393" s="12">
+        <v>21340</v>
+      </c>
+      <c r="H393" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I393" s="12">
+        <v>1</v>
+      </c>
+      <c r="J393" s="12">
+        <v>1588003200</v>
+      </c>
+      <c r="K393" s="12">
+        <v>32503651200</v>
+      </c>
+      <c r="L393" s="12">
         <v>-1</v>
       </c>
     </row>
@@ -23833,13 +23969,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K392"/>
+  <dimension ref="A1:K393"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C361" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D379" sqref="D379"/>
+      <selection pane="bottomRight" activeCell="A393" sqref="A393"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -33989,6 +34125,29 @@
         <v>1286</v>
       </c>
     </row>
+    <row r="393" spans="1:9" s="6" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A393" s="13">
+        <v>392</v>
+      </c>
+      <c r="B393" s="11">
+        <v>21340</v>
+      </c>
+      <c r="C393" s="11"/>
+      <c r="D393" s="11">
+        <v>389</v>
+      </c>
+      <c r="E393" s="11"/>
+      <c r="F393" s="40" t="s">
+        <v>1346</v>
+      </c>
+      <c r="G393" s="35"/>
+      <c r="H393" s="40" t="s">
+        <v>1355</v>
+      </c>
+      <c r="I393" s="13" t="s">
+        <v>387</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -33998,10 +34157,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I545"/>
+  <dimension ref="A1:I553"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A510" workbookViewId="0">
-      <selection activeCell="C532" sqref="C532"/>
+    <sheetView topLeftCell="A516" workbookViewId="0">
+      <selection activeCell="B546" sqref="B546:B553"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -41889,7 +42048,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="545" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A545" s="11">
         <v>544</v>
       </c>
@@ -41901,6 +42060,130 @@
       </c>
       <c r="D545" s="12">
         <v>262</v>
+      </c>
+    </row>
+    <row r="546" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A546" s="11">
+        <v>545</v>
+      </c>
+      <c r="B546" s="11">
+        <v>389</v>
+      </c>
+      <c r="C546" s="11" t="s">
+        <v>663</v>
+      </c>
+      <c r="D546" s="11">
+        <v>0</v>
+      </c>
+      <c r="E546" s="6"/>
+    </row>
+    <row r="547" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A547" s="11">
+        <v>546</v>
+      </c>
+      <c r="B547" s="11">
+        <v>389</v>
+      </c>
+      <c r="C547" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="D547" s="11">
+        <v>0</v>
+      </c>
+      <c r="E547" s="11"/>
+    </row>
+    <row r="548" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A548" s="11">
+        <v>547</v>
+      </c>
+      <c r="B548" s="11">
+        <v>389</v>
+      </c>
+      <c r="C548" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="D548" s="11">
+        <v>0</v>
+      </c>
+      <c r="E548" s="11"/>
+    </row>
+    <row r="549" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A549" s="11">
+        <v>548</v>
+      </c>
+      <c r="B549" s="11">
+        <v>389</v>
+      </c>
+      <c r="C549" s="11" t="s">
+        <v>664</v>
+      </c>
+      <c r="D549" s="11">
+        <v>0</v>
+      </c>
+      <c r="E549" s="11"/>
+    </row>
+    <row r="550" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A550" s="11">
+        <v>549</v>
+      </c>
+      <c r="B550" s="11">
+        <v>389</v>
+      </c>
+      <c r="C550" s="13" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D550" s="11">
+        <v>0</v>
+      </c>
+      <c r="E550" s="11"/>
+    </row>
+    <row r="551" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A551" s="11">
+        <v>550</v>
+      </c>
+      <c r="B551" s="11">
+        <v>389</v>
+      </c>
+      <c r="C551" s="13" t="s">
+        <v>1347</v>
+      </c>
+      <c r="D551" s="11">
+        <v>0</v>
+      </c>
+      <c r="E551" s="11"/>
+    </row>
+    <row r="552" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A552" s="11">
+        <v>551</v>
+      </c>
+      <c r="B552" s="11">
+        <v>389</v>
+      </c>
+      <c r="C552" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="D552" s="11">
+        <v>0</v>
+      </c>
+      <c r="E552" s="11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="553" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A553" s="11">
+        <v>552</v>
+      </c>
+      <c r="B553" s="11">
+        <v>389</v>
+      </c>
+      <c r="C553" s="13" t="s">
+        <v>1348</v>
+      </c>
+      <c r="D553" s="11">
+        <v>0</v>
+      </c>
+      <c r="E553" s="11">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -41918,7 +42201,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C347" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D372" sqref="D372"/>
+      <selection pane="bottomRight" activeCell="A373" sqref="A373"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -48930,13 +49213,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W815"/>
+  <dimension ref="A1:W830"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C758" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C800" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C794" sqref="C794"/>
+      <selection pane="bottomRight" activeCell="B830" sqref="B830"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -65945,6 +66228,321 @@
       <c r="G815" s="11"/>
       <c r="H815" s="11"/>
       <c r="I815" s="11"/>
+    </row>
+    <row r="816" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A816" s="12">
+        <v>815</v>
+      </c>
+      <c r="B816" s="11">
+        <v>583</v>
+      </c>
+      <c r="C816" s="11"/>
+      <c r="D816" s="13" t="s">
+        <v>773</v>
+      </c>
+      <c r="E816" s="27">
+        <v>6000</v>
+      </c>
+      <c r="F816" s="11">
+        <v>1</v>
+      </c>
+      <c r="G816" s="11"/>
+      <c r="H816" s="11"/>
+      <c r="I816" s="11"/>
+    </row>
+    <row r="817" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A817" s="12">
+        <v>816</v>
+      </c>
+      <c r="B817" s="11">
+        <v>584</v>
+      </c>
+      <c r="C817" s="11"/>
+      <c r="D817" s="13" t="s">
+        <v>773</v>
+      </c>
+      <c r="E817" s="27">
+        <v>10000</v>
+      </c>
+      <c r="F817" s="11">
+        <v>1</v>
+      </c>
+      <c r="G817" s="11"/>
+      <c r="H817" s="11"/>
+      <c r="I817" s="11"/>
+    </row>
+    <row r="818" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A818" s="12">
+        <v>817</v>
+      </c>
+      <c r="B818" s="11">
+        <v>585</v>
+      </c>
+      <c r="C818" s="11"/>
+      <c r="D818" s="11" t="s">
+        <v>758</v>
+      </c>
+      <c r="E818" s="27">
+        <v>200</v>
+      </c>
+      <c r="F818" s="11">
+        <v>1</v>
+      </c>
+      <c r="G818" s="11"/>
+      <c r="H818" s="11"/>
+      <c r="I818" s="11"/>
+    </row>
+    <row r="819" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A819" s="12">
+        <v>818</v>
+      </c>
+      <c r="B819" s="11">
+        <v>586</v>
+      </c>
+      <c r="C819" s="11"/>
+      <c r="D819" s="11" t="s">
+        <v>758</v>
+      </c>
+      <c r="E819" s="27">
+        <v>400</v>
+      </c>
+      <c r="F819" s="11">
+        <v>1</v>
+      </c>
+      <c r="G819" s="11"/>
+      <c r="H819" s="11"/>
+      <c r="I819" s="11"/>
+    </row>
+    <row r="820" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A820" s="12">
+        <v>819</v>
+      </c>
+      <c r="B820" s="11">
+        <v>587</v>
+      </c>
+      <c r="C820" s="11"/>
+      <c r="D820" s="11" t="s">
+        <v>758</v>
+      </c>
+      <c r="E820" s="27">
+        <v>800</v>
+      </c>
+      <c r="F820" s="11">
+        <v>1</v>
+      </c>
+      <c r="G820" s="11"/>
+      <c r="H820" s="11"/>
+      <c r="I820" s="11"/>
+    </row>
+    <row r="821" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A821" s="12">
+        <v>820</v>
+      </c>
+      <c r="B821" s="11">
+        <v>588</v>
+      </c>
+      <c r="C821" s="11"/>
+      <c r="D821" s="11" t="s">
+        <v>758</v>
+      </c>
+      <c r="E821" s="27">
+        <v>1600</v>
+      </c>
+      <c r="F821" s="11">
+        <v>1</v>
+      </c>
+      <c r="G821" s="11"/>
+      <c r="H821" s="11"/>
+      <c r="I821" s="11"/>
+    </row>
+    <row r="822" spans="1:9" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A822" s="12">
+        <v>821</v>
+      </c>
+      <c r="B822" s="11">
+        <v>589</v>
+      </c>
+      <c r="C822" s="11"/>
+      <c r="D822" s="100" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E822" s="27">
+        <v>3500</v>
+      </c>
+      <c r="F822" s="11">
+        <v>1</v>
+      </c>
+      <c r="G822" s="11"/>
+      <c r="H822" s="11"/>
+      <c r="I822" s="11"/>
+    </row>
+    <row r="823" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A823" s="12">
+        <v>822</v>
+      </c>
+      <c r="B823" s="11">
+        <v>590</v>
+      </c>
+      <c r="C823" s="11"/>
+      <c r="D823" s="11" t="s">
+        <v>758</v>
+      </c>
+      <c r="E823" s="27">
+        <v>7000</v>
+      </c>
+      <c r="F823" s="11">
+        <v>1</v>
+      </c>
+      <c r="G823" s="11"/>
+      <c r="H823" s="11"/>
+      <c r="I823" s="11"/>
+    </row>
+    <row r="824" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A824" s="12">
+        <v>823</v>
+      </c>
+      <c r="B824" s="11">
+        <v>591</v>
+      </c>
+      <c r="C824" s="11"/>
+      <c r="D824" s="13" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E824" s="27">
+        <v>14000</v>
+      </c>
+      <c r="F824" s="11">
+        <v>1</v>
+      </c>
+      <c r="G824" s="11"/>
+      <c r="H824" s="11"/>
+      <c r="I824" s="11"/>
+    </row>
+    <row r="825" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A825" s="12">
+        <v>824</v>
+      </c>
+      <c r="B825" s="11">
+        <v>592</v>
+      </c>
+      <c r="C825" s="13" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D825" s="11"/>
+      <c r="E825" s="27"/>
+      <c r="F825" s="11">
+        <v>1</v>
+      </c>
+      <c r="G825" s="11"/>
+      <c r="H825" s="11">
+        <v>1</v>
+      </c>
+      <c r="I825" s="11"/>
+    </row>
+    <row r="826" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A826" s="12">
+        <v>825</v>
+      </c>
+      <c r="B826" s="11">
+        <v>593</v>
+      </c>
+      <c r="C826" s="13" t="s">
+        <v>1350</v>
+      </c>
+      <c r="D826" s="11"/>
+      <c r="E826" s="27"/>
+      <c r="F826" s="11">
+        <v>1</v>
+      </c>
+      <c r="G826" s="11"/>
+      <c r="H826" s="11">
+        <v>1</v>
+      </c>
+      <c r="I826" s="11"/>
+    </row>
+    <row r="827" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A827" s="12">
+        <v>826</v>
+      </c>
+      <c r="B827" s="11">
+        <v>594</v>
+      </c>
+      <c r="C827" s="13" t="s">
+        <v>1351</v>
+      </c>
+      <c r="D827" s="11"/>
+      <c r="E827" s="27"/>
+      <c r="F827" s="11">
+        <v>1</v>
+      </c>
+      <c r="G827" s="11"/>
+      <c r="H827" s="11">
+        <v>1</v>
+      </c>
+      <c r="I827" s="11"/>
+    </row>
+    <row r="828" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A828" s="12">
+        <v>827</v>
+      </c>
+      <c r="B828" s="11">
+        <v>595</v>
+      </c>
+      <c r="C828" s="13" t="s">
+        <v>1352</v>
+      </c>
+      <c r="D828" s="11"/>
+      <c r="E828" s="27"/>
+      <c r="F828" s="11">
+        <v>1</v>
+      </c>
+      <c r="G828" s="11"/>
+      <c r="H828" s="11">
+        <v>1</v>
+      </c>
+      <c r="I828" s="11"/>
+    </row>
+    <row r="829" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A829" s="12">
+        <v>828</v>
+      </c>
+      <c r="B829" s="11">
+        <v>596</v>
+      </c>
+      <c r="C829" s="13" t="s">
+        <v>1353</v>
+      </c>
+      <c r="D829" s="11"/>
+      <c r="E829" s="27"/>
+      <c r="F829" s="11">
+        <v>1</v>
+      </c>
+      <c r="G829" s="11"/>
+      <c r="H829" s="11">
+        <v>1</v>
+      </c>
+      <c r="I829" s="11"/>
+    </row>
+    <row r="830" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A830" s="12">
+        <v>829</v>
+      </c>
+      <c r="B830" s="11">
+        <v>597</v>
+      </c>
+      <c r="C830" s="13" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D830" s="11"/>
+      <c r="E830" s="27"/>
+      <c r="F830" s="11">
+        <v>1</v>
+      </c>
+      <c r="G830" s="11"/>
+      <c r="H830" s="11">
+        <v>1</v>
+      </c>
+      <c r="I830" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>

--- a/config_debug/task_zajindan_server.xlsx
+++ b/config_debug/task_zajindan_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5000" uniqueCount="1356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4999" uniqueCount="1355">
   <si>
     <t>id|任务id</t>
   </si>
@@ -7736,22 +7736,10 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>buyu_3d_target_yu</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>3D捕鱼使用10万以上炮倍击杀BOSS鱼</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>38,39,40,41,42,43,44,45,46,47,48,49</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>38,39,40,41,42,43,44,45,46,47,48,49</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>prop_3d_fish_lock</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -7768,16 +7756,8 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>在3D捕鱼中累计赢金1000万</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>buyu_3d_award</t>
     <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>buyu_3d_award</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>VIP赢金挑战第三期</t>
@@ -7862,6 +7842,22 @@
   </si>
   <si>
     <t>583,584,585,586,587,588,589,590,591,592,593,594,595,596,597,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>在街机捕鱼中累计赢金1000万</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>街机捕鱼使用10万以上炮倍击杀一条黄金龙</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyu_award</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyu_target_yu</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -8647,11 +8643,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T393"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D53" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D362" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B69" sqref="B69:B70"/>
+      <selection pane="bottomRight" activeCell="D379" sqref="A379:D379"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23400,7 +23396,7 @@
         <v>1259</v>
       </c>
       <c r="D379" s="89" t="s">
-        <v>1340</v>
+        <v>1351</v>
       </c>
       <c r="E379" s="90" t="s">
         <v>1269</v>
@@ -23666,7 +23662,7 @@
         <v>1259</v>
       </c>
       <c r="D386" s="92" t="s">
-        <v>1333</v>
+        <v>1352</v>
       </c>
       <c r="E386" s="92" t="s">
         <v>1272</v>
@@ -23929,13 +23925,13 @@
         <v>1</v>
       </c>
       <c r="C393" s="16" t="s">
-        <v>1343</v>
+        <v>1338</v>
       </c>
       <c r="D393" s="12" t="s">
-        <v>1344</v>
+        <v>1339</v>
       </c>
       <c r="E393" s="99" t="s">
-        <v>1345</v>
+        <v>1340</v>
       </c>
       <c r="F393" s="16" t="s">
         <v>13</v>
@@ -23975,7 +23971,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C361" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A393" sqref="A393"/>
+      <selection pane="bottomRight" activeCell="D379" sqref="D379"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -34138,11 +34134,11 @@
       </c>
       <c r="E393" s="11"/>
       <c r="F393" s="40" t="s">
-        <v>1346</v>
+        <v>1341</v>
       </c>
       <c r="G393" s="35"/>
       <c r="H393" s="40" t="s">
-        <v>1355</v>
+        <v>1350</v>
       </c>
       <c r="I393" s="13" t="s">
         <v>387</v>
@@ -34160,7 +34156,7 @@
   <dimension ref="A1:I553"/>
   <sheetViews>
     <sheetView topLeftCell="A516" workbookViewId="0">
-      <selection activeCell="B546" sqref="B546:B553"/>
+      <selection activeCell="C539" sqref="C539"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -37564,7 +37560,7 @@
         <v>184</v>
       </c>
       <c r="C237" s="13" t="s">
-        <v>1341</v>
+        <v>1337</v>
       </c>
       <c r="D237" s="11">
         <v>0</v>
@@ -41871,7 +41867,7 @@
         <v>375</v>
       </c>
       <c r="C532" s="13" t="s">
-        <v>1342</v>
+        <v>1353</v>
       </c>
       <c r="D532" s="12">
         <v>0</v>
@@ -41972,7 +41968,7 @@
         <v>382</v>
       </c>
       <c r="C539" s="13" t="s">
-        <v>1332</v>
+        <v>1354</v>
       </c>
       <c r="D539" s="12">
         <v>259</v>
@@ -42145,7 +42141,7 @@
         <v>389</v>
       </c>
       <c r="C551" s="13" t="s">
-        <v>1347</v>
+        <v>1342</v>
       </c>
       <c r="D551" s="11">
         <v>0</v>
@@ -42177,7 +42173,7 @@
         <v>389</v>
       </c>
       <c r="C553" s="13" t="s">
-        <v>1348</v>
+        <v>1343</v>
       </c>
       <c r="D553" s="11">
         <v>0</v>
@@ -42197,11 +42193,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M375"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C347" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A373" sqref="A373"/>
+      <selection pane="bottomRight" activeCell="D371" sqref="D371"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -49009,7 +49005,7 @@
         <v>688</v>
       </c>
       <c r="D364" s="15" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="E364" s="11">
         <v>2</v>
@@ -49129,8 +49125,8 @@
       <c r="C371" s="13" t="s">
         <v>1315</v>
       </c>
-      <c r="D371" s="13" t="s">
-        <v>1335</v>
+      <c r="D371" s="13">
+        <v>20</v>
       </c>
       <c r="E371" s="11">
         <v>2</v>
@@ -55119,7 +55115,7 @@
       </c>
       <c r="C266" s="10"/>
       <c r="D266" s="19" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
       <c r="E266" s="10">
         <v>1</v>
@@ -55161,7 +55157,7 @@
       </c>
       <c r="C268" s="78"/>
       <c r="D268" s="77" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
       <c r="E268" s="78">
         <v>10</v>
@@ -55182,7 +55178,7 @@
       </c>
       <c r="C269" s="78"/>
       <c r="D269" s="77" t="s">
-        <v>1337</v>
+        <v>1334</v>
       </c>
       <c r="E269" s="78">
         <v>1</v>
@@ -65457,7 +65453,7 @@
       </c>
       <c r="C774" s="11"/>
       <c r="D774" s="13" t="s">
-        <v>1339</v>
+        <v>1336</v>
       </c>
       <c r="E774" s="11">
         <v>1</v>
@@ -66426,7 +66422,7 @@
         <v>592</v>
       </c>
       <c r="C825" s="13" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
       <c r="D825" s="11"/>
       <c r="E825" s="27"/>
@@ -66447,7 +66443,7 @@
         <v>593</v>
       </c>
       <c r="C826" s="13" t="s">
-        <v>1350</v>
+        <v>1345</v>
       </c>
       <c r="D826" s="11"/>
       <c r="E826" s="27"/>
@@ -66468,7 +66464,7 @@
         <v>594</v>
       </c>
       <c r="C827" s="13" t="s">
-        <v>1351</v>
+        <v>1346</v>
       </c>
       <c r="D827" s="11"/>
       <c r="E827" s="27"/>
@@ -66489,7 +66485,7 @@
         <v>595</v>
       </c>
       <c r="C828" s="13" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
       <c r="D828" s="11"/>
       <c r="E828" s="27"/>
@@ -66510,7 +66506,7 @@
         <v>596</v>
       </c>
       <c r="C829" s="13" t="s">
-        <v>1353</v>
+        <v>1348</v>
       </c>
       <c r="D829" s="11"/>
       <c r="E829" s="27"/>
@@ -66531,7 +66527,7 @@
         <v>597</v>
       </c>
       <c r="C830" s="13" t="s">
-        <v>1354</v>
+        <v>1349</v>
       </c>
       <c r="D830" s="11"/>
       <c r="E830" s="27"/>

--- a/config_debug/task_zajindan_server.xlsx
+++ b/config_debug/task_zajindan_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4999" uniqueCount="1355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5001" uniqueCount="1357">
   <si>
     <t>id|任务id</t>
   </si>
@@ -7859,6 +7859,14 @@
   <si>
     <t>buyu_target_yu</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>300000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -23968,10 +23976,10 @@
   <dimension ref="A1:K393"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C361" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="G361" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D379" sqref="D379"/>
+      <selection pane="bottomRight" activeCell="B372" sqref="B372:B392"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -33636,271 +33644,271 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="372" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A372" s="11">
+    <row r="372" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A372" s="93">
         <v>371</v>
       </c>
-      <c r="B372" s="12">
+      <c r="B372" s="91">
         <v>21319</v>
       </c>
-      <c r="C372" s="11"/>
-      <c r="D372" s="11">
+      <c r="C372" s="93"/>
+      <c r="D372" s="93">
         <v>68</v>
       </c>
-      <c r="E372" s="11"/>
-      <c r="F372" s="40" t="s">
+      <c r="E372" s="93"/>
+      <c r="F372" s="94" t="s">
         <v>1281</v>
       </c>
-      <c r="G372" s="35"/>
-      <c r="H372" s="15" t="s">
+      <c r="G372" s="95"/>
+      <c r="H372" s="96" t="s">
         <v>1299</v>
       </c>
-      <c r="I372" s="13" t="s">
+      <c r="I372" s="97" t="s">
         <v>1282</v>
       </c>
     </row>
-    <row r="373" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A373" s="11">
+    <row r="373" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A373" s="93">
         <v>372</v>
       </c>
-      <c r="B373" s="12">
+      <c r="B373" s="91">
         <v>21320</v>
       </c>
-      <c r="C373" s="11"/>
-      <c r="D373" s="11"/>
-      <c r="E373" s="11"/>
-      <c r="F373" s="40" t="s">
+      <c r="C373" s="93"/>
+      <c r="D373" s="93"/>
+      <c r="E373" s="93"/>
+      <c r="F373" s="94" t="s">
         <v>1283</v>
       </c>
-      <c r="G373" s="35"/>
-      <c r="H373" s="15"/>
-      <c r="I373" s="13" t="s">
+      <c r="G373" s="95"/>
+      <c r="H373" s="96"/>
+      <c r="I373" s="97" t="s">
         <v>1284</v>
       </c>
     </row>
-    <row r="374" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A374" s="11">
+    <row r="374" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A374" s="93">
         <v>373</v>
       </c>
-      <c r="B374" s="12">
+      <c r="B374" s="91">
         <v>21321</v>
       </c>
-      <c r="C374" s="11"/>
-      <c r="D374" s="11"/>
-      <c r="E374" s="11"/>
-      <c r="F374" s="40" t="s">
+      <c r="C374" s="93"/>
+      <c r="D374" s="93"/>
+      <c r="E374" s="93"/>
+      <c r="F374" s="94" t="s">
         <v>1285</v>
       </c>
-      <c r="G374" s="35"/>
-      <c r="H374" s="15"/>
-      <c r="I374" s="13" t="s">
+      <c r="G374" s="95"/>
+      <c r="H374" s="96"/>
+      <c r="I374" s="97" t="s">
         <v>1286</v>
       </c>
     </row>
-    <row r="375" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A375" s="11">
+    <row r="375" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A375" s="93">
         <v>374</v>
       </c>
-      <c r="B375" s="12">
+      <c r="B375" s="91">
         <v>21322</v>
       </c>
-      <c r="C375" s="11"/>
-      <c r="D375" s="11">
+      <c r="C375" s="93"/>
+      <c r="D375" s="93">
         <v>371</v>
       </c>
-      <c r="E375" s="11"/>
-      <c r="F375" s="40" t="s">
+      <c r="E375" s="93"/>
+      <c r="F375" s="94" t="s">
         <v>1296</v>
       </c>
-      <c r="G375" s="35"/>
-      <c r="H375" s="15" t="s">
+      <c r="G375" s="95"/>
+      <c r="H375" s="96" t="s">
         <v>1300</v>
       </c>
-      <c r="I375" s="13" t="s">
+      <c r="I375" s="97" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="376" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A376" s="11">
+    <row r="376" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A376" s="93">
         <v>375</v>
       </c>
-      <c r="B376" s="12">
+      <c r="B376" s="91">
         <v>21323</v>
       </c>
-      <c r="C376" s="11"/>
-      <c r="D376" s="11">
+      <c r="C376" s="93"/>
+      <c r="D376" s="93">
         <v>372</v>
       </c>
-      <c r="E376" s="11"/>
-      <c r="F376" s="40" t="s">
+      <c r="E376" s="93"/>
+      <c r="F376" s="94" t="s">
         <v>1297</v>
       </c>
-      <c r="G376" s="35"/>
-      <c r="H376" s="15" t="s">
+      <c r="G376" s="95"/>
+      <c r="H376" s="96" t="s">
         <v>1300</v>
       </c>
-      <c r="I376" s="13" t="s">
+      <c r="I376" s="97" t="s">
         <v>1288</v>
       </c>
     </row>
-    <row r="377" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A377" s="11">
+    <row r="377" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A377" s="93">
         <v>376</v>
       </c>
-      <c r="B377" s="12">
+      <c r="B377" s="91">
         <v>21324</v>
       </c>
-      <c r="C377" s="11"/>
-      <c r="D377" s="11">
+      <c r="C377" s="93"/>
+      <c r="D377" s="93">
         <v>373</v>
       </c>
-      <c r="E377" s="11"/>
-      <c r="F377" s="40" t="s">
+      <c r="E377" s="93"/>
+      <c r="F377" s="94" t="s">
         <v>1297</v>
       </c>
-      <c r="G377" s="35"/>
-      <c r="H377" s="15" t="s">
+      <c r="G377" s="95"/>
+      <c r="H377" s="96" t="s">
         <v>1300</v>
       </c>
-      <c r="I377" s="13" t="s">
+      <c r="I377" s="97" t="s">
         <v>1289</v>
       </c>
     </row>
-    <row r="378" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A378" s="11">
+    <row r="378" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A378" s="93">
         <v>377</v>
       </c>
-      <c r="B378" s="12">
+      <c r="B378" s="91">
         <v>21325</v>
       </c>
-      <c r="C378" s="11"/>
-      <c r="D378" s="11">
+      <c r="C378" s="93"/>
+      <c r="D378" s="93">
         <v>374</v>
       </c>
-      <c r="E378" s="11"/>
-      <c r="F378" s="40" t="s">
+      <c r="E378" s="93"/>
+      <c r="F378" s="94" t="s">
         <v>1298</v>
       </c>
-      <c r="G378" s="35"/>
-      <c r="H378" s="15" t="s">
+      <c r="G378" s="95"/>
+      <c r="H378" s="96" t="s">
         <v>1300</v>
       </c>
-      <c r="I378" s="13" t="s">
+      <c r="I378" s="97" t="s">
         <v>1288</v>
       </c>
     </row>
-    <row r="379" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A379" s="11">
+    <row r="379" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A379" s="93">
         <v>378</v>
       </c>
-      <c r="B379" s="12">
+      <c r="B379" s="91">
         <v>21326</v>
       </c>
-      <c r="C379" s="11"/>
-      <c r="D379" s="11">
+      <c r="C379" s="93"/>
+      <c r="D379" s="93">
         <v>375</v>
       </c>
-      <c r="E379" s="11"/>
-      <c r="F379" s="40" t="s">
+      <c r="E379" s="93"/>
+      <c r="F379" s="94" t="s">
         <v>1298</v>
       </c>
-      <c r="G379" s="35"/>
-      <c r="H379" s="15" t="s">
+      <c r="G379" s="95"/>
+      <c r="H379" s="96" t="s">
         <v>1300</v>
       </c>
-      <c r="I379" s="13" t="s">
+      <c r="I379" s="97" t="s">
         <v>1290</v>
       </c>
     </row>
-    <row r="380" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A380" s="11">
+    <row r="380" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A380" s="93">
         <v>379</v>
       </c>
-      <c r="B380" s="12">
+      <c r="B380" s="91">
         <v>21327</v>
       </c>
-      <c r="C380" s="11"/>
-      <c r="D380" s="11">
+      <c r="C380" s="93"/>
+      <c r="D380" s="93">
         <v>376</v>
       </c>
-      <c r="E380" s="11"/>
-      <c r="F380" s="40" t="s">
+      <c r="E380" s="93"/>
+      <c r="F380" s="94" t="s">
         <v>1296</v>
       </c>
-      <c r="G380" s="35"/>
-      <c r="H380" s="15" t="s">
+      <c r="G380" s="95"/>
+      <c r="H380" s="96" t="s">
         <v>1300</v>
       </c>
-      <c r="I380" s="13" t="s">
+      <c r="I380" s="97" t="s">
         <v>1284</v>
       </c>
     </row>
-    <row r="381" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A381" s="11">
+    <row r="381" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A381" s="93">
         <v>380</v>
       </c>
-      <c r="B381" s="12">
+      <c r="B381" s="91">
         <v>21328</v>
       </c>
-      <c r="C381" s="11"/>
-      <c r="D381" s="11">
+      <c r="C381" s="93"/>
+      <c r="D381" s="93">
         <v>377</v>
       </c>
-      <c r="E381" s="11"/>
-      <c r="F381" s="40" t="s">
+      <c r="E381" s="93"/>
+      <c r="F381" s="94" t="s">
         <v>1297</v>
       </c>
-      <c r="G381" s="35"/>
-      <c r="H381" s="15" t="s">
+      <c r="G381" s="95"/>
+      <c r="H381" s="96" t="s">
         <v>1300</v>
       </c>
-      <c r="I381" s="13" t="s">
+      <c r="I381" s="97" t="s">
         <v>1291</v>
       </c>
     </row>
-    <row r="382" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A382" s="11">
+    <row r="382" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A382" s="93">
         <v>381</v>
       </c>
-      <c r="B382" s="12">
+      <c r="B382" s="91">
         <v>21329</v>
       </c>
-      <c r="C382" s="11"/>
-      <c r="D382" s="11">
+      <c r="C382" s="93"/>
+      <c r="D382" s="93">
         <v>378</v>
       </c>
-      <c r="E382" s="11"/>
-      <c r="F382" s="40" t="s">
+      <c r="E382" s="93"/>
+      <c r="F382" s="94" t="s">
         <v>1297</v>
       </c>
-      <c r="G382" s="35"/>
-      <c r="H382" s="15" t="s">
+      <c r="G382" s="95"/>
+      <c r="H382" s="96" t="s">
         <v>1300</v>
       </c>
-      <c r="I382" s="13" t="s">
+      <c r="I382" s="97" t="s">
         <v>1292</v>
       </c>
     </row>
-    <row r="383" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A383" s="11">
+    <row r="383" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A383" s="93">
         <v>382</v>
       </c>
-      <c r="B383" s="12">
+      <c r="B383" s="91">
         <v>21330</v>
       </c>
-      <c r="C383" s="11"/>
-      <c r="D383" s="11">
+      <c r="C383" s="93"/>
+      <c r="D383" s="93">
         <v>379</v>
       </c>
-      <c r="E383" s="11"/>
-      <c r="F383" s="40" t="s">
+      <c r="E383" s="93"/>
+      <c r="F383" s="94" t="s">
         <v>1297</v>
       </c>
-      <c r="G383" s="35"/>
-      <c r="H383" s="15" t="s">
+      <c r="G383" s="95"/>
+      <c r="H383" s="96" t="s">
         <v>1300</v>
       </c>
-      <c r="I383" s="13" t="s">
+      <c r="I383" s="97" t="s">
         <v>1289</v>
       </c>
     </row>
@@ -42193,7 +42201,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M375"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C347" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -49211,11 +49219,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W830"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C800" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C797" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B830" sqref="B830"/>
+      <selection pane="bottomRight" activeCell="E812" sqref="E812"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -66131,8 +66139,8 @@
       <c r="D811" s="13" t="s">
         <v>1318</v>
       </c>
-      <c r="E811" s="27">
-        <v>30000</v>
+      <c r="E811" s="27" t="s">
+        <v>1355</v>
       </c>
       <c r="F811" s="11">
         <v>1</v>
@@ -66152,8 +66160,8 @@
       <c r="D812" s="13" t="s">
         <v>1319</v>
       </c>
-      <c r="E812" s="27">
-        <v>100</v>
+      <c r="E812" s="15" t="s">
+        <v>1356</v>
       </c>
       <c r="F812" s="11">
         <v>1</v>

--- a/config_debug/task_zajindan_server.xlsx
+++ b/config_debug/task_zajindan_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5007" uniqueCount="1360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5007" uniqueCount="1361">
   <si>
     <t>id|任务id</t>
   </si>
@@ -7825,10 +7825,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>charge_any</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>base_fish_id</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -7845,7 +7841,39 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>2000000</t>
+    <t>新人七天乐_累计充值3元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人七天乐_3D捕鱼累计赢金50万</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人七天乐_3D捕鱼累计赢金200万</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人七天乐_小游戏赢金100万</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人七天乐__成为VIP2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip_level_up</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip_level_up</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>buy_gift</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>agent_charge_any</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -7853,31 +7881,7 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>新人七天乐_累计充值3元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>新人七天乐_3D捕鱼累计赢金50万</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>新人七天乐_3D捕鱼累计赢金200万</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>新人七天乐_小游戏赢金100万</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>新人七天乐__成为VIP2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>vip_level_up</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>vip_level_up</t>
+    <t>20000000</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -7969,7 +7973,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8060,6 +8064,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -8102,7 +8112,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8404,6 +8414,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -8693,7 +8710,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="F173" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G192" sqref="G192"/>
+      <selection pane="bottomRight" activeCell="G196" sqref="G196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16374,7 +16391,7 @@
         <v>237</v>
       </c>
       <c r="D193" s="51" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="E193" s="51" t="s">
         <v>239</v>
@@ -16450,7 +16467,7 @@
         <v>237</v>
       </c>
       <c r="D195" s="51" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
       <c r="E195" s="51" t="s">
         <v>239</v>
@@ -16488,7 +16505,7 @@
         <v>237</v>
       </c>
       <c r="D196" s="51" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
       <c r="E196" s="51" t="s">
         <v>239</v>
@@ -16526,7 +16543,7 @@
         <v>237</v>
       </c>
       <c r="D197" s="51" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="E197" s="51" t="s">
         <v>239</v>
@@ -16564,7 +16581,7 @@
         <v>237</v>
       </c>
       <c r="D198" s="51" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
       <c r="E198" s="51" t="s">
         <v>239</v>
@@ -24013,11 +24030,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K393"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G167" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="E167" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H192" sqref="H192"/>
+      <selection pane="bottomRight" activeCell="F196" sqref="F196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -29208,7 +29225,7 @@
         <v>0</v>
       </c>
       <c r="F193" s="82" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="G193" s="79"/>
       <c r="H193" s="83" t="s">
@@ -29233,7 +29250,7 @@
         <v>0</v>
       </c>
       <c r="F194" s="82" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="G194" s="79"/>
       <c r="H194" s="83" t="s">
@@ -29258,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="F195" s="82" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="G195" s="79"/>
       <c r="H195" s="83" t="s">
@@ -29283,7 +29300,7 @@
         <v>0</v>
       </c>
       <c r="F196" s="82" t="s">
-        <v>1351</v>
+        <v>1360</v>
       </c>
       <c r="G196" s="79"/>
       <c r="H196" s="83" t="s">
@@ -29308,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="F197" s="82" t="s">
-        <v>1352</v>
+        <v>1359</v>
       </c>
       <c r="G197" s="79"/>
       <c r="H197" s="83" t="s">
@@ -34201,8 +34218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I559"/>
   <sheetViews>
-    <sheetView topLeftCell="A280" workbookViewId="0">
-      <selection activeCell="D298" sqref="D298"/>
+    <sheetView topLeftCell="A271" workbookViewId="0">
+      <selection activeCell="D287" sqref="D287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -34411,7 +34428,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
       <c r="D14" s="11">
         <v>0</v>
@@ -38394,10 +38411,10 @@
         <v>192</v>
       </c>
       <c r="C287" s="19" t="s">
-        <v>1345</v>
+        <v>1358</v>
       </c>
       <c r="D287" s="10">
-        <v>247</v>
+        <v>0</v>
       </c>
       <c r="E287" s="81"/>
     </row>
@@ -38559,7 +38576,7 @@
         <v>197</v>
       </c>
       <c r="C298" s="19" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
       <c r="D298" s="10">
         <v>0</v>
@@ -40583,7 +40600,7 @@
         <v>308</v>
       </c>
       <c r="C441" s="13" t="s">
-        <v>435</v>
+        <v>1357</v>
       </c>
       <c r="D441" s="11">
         <v>195</v>
@@ -42330,10 +42347,10 @@
   <dimension ref="A1:M375"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C345" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C336" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B353" sqref="B353"/>
+      <selection pane="bottomRight" activeCell="D360" sqref="D360"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -49045,22 +49062,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A359" s="11">
+    <row r="359" spans="1:6" s="109" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A359" s="107">
         <v>388</v>
       </c>
-      <c r="B359" s="11">
+      <c r="B359" s="107">
         <v>247</v>
       </c>
-      <c r="C359" s="13" t="s">
-        <v>1346</v>
-      </c>
-      <c r="D359" s="11">
-        <v>0</v>
-      </c>
-      <c r="E359" s="11">
+      <c r="C359" s="108" t="s">
+        <v>1345</v>
+      </c>
+      <c r="D359" s="107">
+        <v>0</v>
+      </c>
+      <c r="E359" s="107">
         <v>2</v>
       </c>
+      <c r="F359" s="107"/>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A360" s="11">
@@ -49070,7 +49088,7 @@
         <v>248</v>
       </c>
       <c r="C360" s="13" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="D360" s="15" t="s">
         <v>969</v>
@@ -49351,7 +49369,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W830"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C449" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>

--- a/config_debug/task_zajindan_server.xlsx
+++ b/config_debug/task_zajindan_server.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5052" uniqueCount="1371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5052" uniqueCount="1370">
   <si>
     <t>id|任务id</t>
   </si>
@@ -7688,14 +7688,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>prop_3d_fish_lock</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_guess_apple_bet_2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>prop_guess_apple_bet_2</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -7850,10 +7842,6 @@
   <si>
     <t>own_type|获得类型</t>
     <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_3d_fish_lock</t>
-    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>prop_3d_fish_lock</t>
@@ -7911,9 +7899,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>2000000,5000000,10000000,20000000,50000000,100000000,200000000,500000000,1000000000,2000000000,3000000000,5000000000</t>
-  </si>
-  <si>
     <t>598,599,600,601,602,603,604,605,606,607,608,609,</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -7927,6 +7912,17 @@
   </si>
   <si>
     <t>jing_bi</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_summon_fish</t>
+  </si>
+  <si>
+    <t>prop_3d_fish_summon_fish</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000,3000000,5000000,10000000,30000000,50000000,100000000,300000000,500000000,1000000000,1000000000,2000000000</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -8793,7 +8789,7 @@
         <v>1038</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>3</v>
@@ -16439,7 +16435,7 @@
         <v>237</v>
       </c>
       <c r="D193" s="51" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="E193" s="51" t="s">
         <v>239</v>
@@ -16515,7 +16511,7 @@
         <v>237</v>
       </c>
       <c r="D195" s="51" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="E195" s="51" t="s">
         <v>239</v>
@@ -16553,7 +16549,7 @@
         <v>237</v>
       </c>
       <c r="D196" s="51" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="E196" s="51" t="s">
         <v>239</v>
@@ -16591,7 +16587,7 @@
         <v>237</v>
       </c>
       <c r="D197" s="51" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="E197" s="51" t="s">
         <v>239</v>
@@ -16629,7 +16625,7 @@
         <v>237</v>
       </c>
       <c r="D198" s="51" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="E198" s="51" t="s">
         <v>239</v>
@@ -23507,7 +23503,7 @@
         <v>1246</v>
       </c>
       <c r="D379" s="89" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="E379" s="90" t="s">
         <v>1256</v>
@@ -23773,7 +23769,7 @@
         <v>1246</v>
       </c>
       <c r="D386" s="92" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="E386" s="92" t="s">
         <v>1259</v>
@@ -24036,13 +24032,13 @@
         <v>1</v>
       </c>
       <c r="C393" s="16" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D393" s="12" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E393" s="99" t="s">
         <v>1324</v>
-      </c>
-      <c r="D393" s="12" t="s">
-        <v>1325</v>
-      </c>
-      <c r="E393" s="99" t="s">
-        <v>1326</v>
       </c>
       <c r="F393" s="16" t="s">
         <v>13</v>
@@ -24074,16 +24070,16 @@
         <v>1</v>
       </c>
       <c r="C394" s="49" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="D394" s="49" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="E394" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F394" s="49" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
       <c r="G394" s="12">
         <v>21341</v>
@@ -24117,13 +24113,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K394"/>
+  <dimension ref="A1:K399"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C382" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E394" sqref="E394"/>
+      <selection pane="bottomRight" activeCell="F394" sqref="F394"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -29314,7 +29310,7 @@
         <v>0</v>
       </c>
       <c r="F193" s="82" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G193" s="79"/>
       <c r="H193" s="83" t="s">
@@ -29339,7 +29335,7 @@
         <v>0</v>
       </c>
       <c r="F194" s="82" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="G194" s="79"/>
       <c r="H194" s="83" t="s">
@@ -29364,7 +29360,7 @@
         <v>0</v>
       </c>
       <c r="F195" s="82" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="G195" s="79"/>
       <c r="H195" s="83" t="s">
@@ -29389,7 +29385,7 @@
         <v>0</v>
       </c>
       <c r="F196" s="82" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="G196" s="79"/>
       <c r="H196" s="83" t="s">
@@ -29414,7 +29410,7 @@
         <v>0</v>
       </c>
       <c r="F197" s="82" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="G197" s="79"/>
       <c r="H197" s="83" t="s">
@@ -34286,11 +34282,11 @@
       </c>
       <c r="E393" s="11"/>
       <c r="F393" s="40" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="G393" s="35"/>
       <c r="H393" s="40" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="I393" s="13" t="s">
         <v>387</v>
@@ -34310,11 +34306,14 @@
         <v>263</v>
       </c>
       <c r="F394" s="110" t="s">
-        <v>1366</v>
+        <v>1369</v>
       </c>
       <c r="H394" s="65" t="s">
-        <v>1367</v>
-      </c>
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="399" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E399" s="110"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
@@ -34537,7 +34536,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="D14" s="11">
         <v>0</v>
@@ -37732,7 +37731,7 @@
         <v>184</v>
       </c>
       <c r="C237" s="13" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="D237" s="11">
         <v>0</v>
@@ -38520,7 +38519,7 @@
         <v>192</v>
       </c>
       <c r="C287" s="19" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D287" s="10">
         <v>0</v>
@@ -38685,7 +38684,7 @@
         <v>197</v>
       </c>
       <c r="C298" s="19" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="D298" s="10">
         <v>0</v>
@@ -40709,7 +40708,7 @@
         <v>308</v>
       </c>
       <c r="C441" s="13" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="D441" s="11">
         <v>195</v>
@@ -42129,7 +42128,7 @@
         <v>375</v>
       </c>
       <c r="C538" s="13" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="D538" s="12">
         <v>0</v>
@@ -42230,7 +42229,7 @@
         <v>382</v>
       </c>
       <c r="C545" s="13" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="D545" s="12">
         <v>259</v>
@@ -42403,7 +42402,7 @@
         <v>389</v>
       </c>
       <c r="C557" s="13" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="D557" s="11">
         <v>0</v>
@@ -42435,7 +42434,7 @@
         <v>389</v>
       </c>
       <c r="C559" s="13" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="D559" s="11">
         <v>0</v>
@@ -42452,7 +42451,7 @@
         <v>390</v>
       </c>
       <c r="C560" s="13" t="s">
-        <v>1368</v>
+        <v>1364</v>
       </c>
       <c r="D560" s="11">
         <v>263</v>
@@ -49193,7 +49192,7 @@
         <v>247</v>
       </c>
       <c r="C359" s="108" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="D359" s="107">
         <v>0</v>
@@ -49211,7 +49210,7 @@
         <v>248</v>
       </c>
       <c r="C360" s="13" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="D360" s="15" t="s">
         <v>969</v>
@@ -49489,10 +49488,10 @@
         <v>263</v>
       </c>
       <c r="C376" s="13" t="s">
-        <v>1369</v>
+        <v>1365</v>
       </c>
       <c r="D376" s="13" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
       <c r="E376" s="11">
         <v>2</v>
@@ -49510,10 +49509,10 @@
   <dimension ref="A1:W868"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C850" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C247" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A857" sqref="A857"/>
+      <selection pane="bottomRight" activeCell="D269" sqref="D269:E269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -55413,10 +55412,10 @@
       </c>
       <c r="C266" s="10"/>
       <c r="D266" s="19" t="s">
-        <v>1360</v>
+        <v>1367</v>
       </c>
       <c r="E266" s="10">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F266" s="10">
         <v>1</v>
@@ -55455,7 +55454,7 @@
       </c>
       <c r="C268" s="78"/>
       <c r="D268" s="77" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="E268" s="78">
         <v>10</v>
@@ -55476,10 +55475,10 @@
       </c>
       <c r="C269" s="78"/>
       <c r="D269" s="77" t="s">
-        <v>1320</v>
+        <v>1367</v>
       </c>
       <c r="E269" s="78">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F269" s="78">
         <v>1</v>
@@ -65749,10 +65748,10 @@
       </c>
       <c r="C774" s="11"/>
       <c r="D774" s="13" t="s">
-        <v>1322</v>
+        <v>1368</v>
       </c>
       <c r="E774" s="11">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F774" s="11">
         <v>1</v>
@@ -66428,7 +66427,7 @@
         <v>1305</v>
       </c>
       <c r="E811" s="27" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="F811" s="11">
         <v>1</v>
@@ -66449,7 +66448,7 @@
         <v>1306</v>
       </c>
       <c r="E812" s="15" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="F812" s="11">
         <v>1</v>
@@ -66718,7 +66717,7 @@
         <v>592</v>
       </c>
       <c r="C825" s="13" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="D825" s="11"/>
       <c r="E825" s="27"/>
@@ -66739,7 +66738,7 @@
         <v>593</v>
       </c>
       <c r="C826" s="13" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="D826" s="11"/>
       <c r="E826" s="27"/>
@@ -66760,7 +66759,7 @@
         <v>594</v>
       </c>
       <c r="C827" s="13" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="D827" s="11"/>
       <c r="E827" s="27"/>
@@ -66781,7 +66780,7 @@
         <v>595</v>
       </c>
       <c r="C828" s="13" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="D828" s="11"/>
       <c r="E828" s="27"/>
@@ -66802,7 +66801,7 @@
         <v>596</v>
       </c>
       <c r="C829" s="13" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="D829" s="11"/>
       <c r="E829" s="27"/>
@@ -66823,7 +66822,7 @@
         <v>597</v>
       </c>
       <c r="C830" s="13" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="D830" s="11"/>
       <c r="E830" s="27"/>
@@ -66862,7 +66861,7 @@
       </c>
       <c r="C832" s="29"/>
       <c r="D832" s="14" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
       <c r="E832" s="29">
         <v>1</v>
@@ -66883,7 +66882,7 @@
       </c>
       <c r="C833" s="29"/>
       <c r="D833" s="14" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="E833" s="29">
         <v>1</v>
@@ -66920,7 +66919,7 @@
         <v>599</v>
       </c>
       <c r="D835" s="14" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
       <c r="E835" s="29">
         <v>1</v>
@@ -66937,7 +66936,7 @@
         <v>599</v>
       </c>
       <c r="D836" s="14" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="E836" s="29">
         <v>1</v>
@@ -66971,7 +66970,7 @@
         <v>600</v>
       </c>
       <c r="D838" s="14" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
       <c r="E838" s="29">
         <v>1</v>
@@ -66988,7 +66987,7 @@
         <v>600</v>
       </c>
       <c r="D839" s="14" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="E839" s="29">
         <v>1</v>
@@ -67022,7 +67021,7 @@
         <v>601</v>
       </c>
       <c r="D841" s="14" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
       <c r="E841" s="29">
         <v>2</v>
@@ -67039,7 +67038,7 @@
         <v>601</v>
       </c>
       <c r="D842" s="14" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="E842" s="29">
         <v>2</v>
@@ -67073,7 +67072,7 @@
         <v>602</v>
       </c>
       <c r="D844" s="14" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
       <c r="E844" s="29">
         <v>2</v>
@@ -67090,7 +67089,7 @@
         <v>602</v>
       </c>
       <c r="D845" s="14" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="E845" s="29">
         <v>2</v>
@@ -67124,7 +67123,7 @@
         <v>603</v>
       </c>
       <c r="D847" s="14" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
       <c r="E847" s="29">
         <v>2</v>
@@ -67141,7 +67140,7 @@
         <v>603</v>
       </c>
       <c r="D848" s="14" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="E848" s="29">
         <v>2</v>
@@ -67175,7 +67174,7 @@
         <v>604</v>
       </c>
       <c r="D850" s="14" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
       <c r="E850" s="29">
         <v>3</v>
@@ -67192,7 +67191,7 @@
         <v>604</v>
       </c>
       <c r="D851" s="14" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="E851" s="29">
         <v>3</v>
@@ -67226,7 +67225,7 @@
         <v>605</v>
       </c>
       <c r="D853" s="14" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
       <c r="E853" s="29">
         <v>3</v>
@@ -67243,7 +67242,7 @@
         <v>605</v>
       </c>
       <c r="D854" s="14" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="E854" s="29">
         <v>3</v>
@@ -67277,7 +67276,7 @@
         <v>606</v>
       </c>
       <c r="D856" s="14" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
       <c r="E856" s="29">
         <v>3</v>
@@ -67294,7 +67293,7 @@
         <v>606</v>
       </c>
       <c r="D857" s="14" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="E857" s="29">
         <v>3</v>
@@ -67328,7 +67327,7 @@
         <v>607</v>
       </c>
       <c r="D859" s="14" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
       <c r="E859" s="29">
         <v>5</v>
@@ -67345,7 +67344,7 @@
         <v>607</v>
       </c>
       <c r="D860" s="14" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="E860" s="29">
         <v>5</v>
@@ -67379,7 +67378,7 @@
         <v>608</v>
       </c>
       <c r="D862" s="14" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
       <c r="E862" s="29">
         <v>5</v>
@@ -67396,7 +67395,7 @@
         <v>608</v>
       </c>
       <c r="D863" s="14" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="E863" s="29">
         <v>5</v>
@@ -67430,7 +67429,7 @@
         <v>609</v>
       </c>
       <c r="D865" s="14" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
       <c r="E865" s="29">
         <v>5</v>
@@ -67447,7 +67446,7 @@
         <v>609</v>
       </c>
       <c r="D866" s="14" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="E866" s="29">
         <v>5</v>

--- a/config_debug/task_zajindan_server.xlsx
+++ b/config_debug/task_zajindan_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_811\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5224" uniqueCount="1438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5224" uniqueCount="1440">
   <si>
     <t>id|任务id</t>
   </si>
@@ -7977,14 +7977,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>p_revaluation_rebate_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>p_revaluation_rebate_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>110,10045</t>
   </si>
   <si>
@@ -8194,6 +8186,22 @@
   <si>
     <t>21,28,29,30,31,32,33,34,35,36</t>
     <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_summer_lgfl2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_summer_lgfl2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_summer_lgf1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_0811_wyzjf</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -9035,11 +9043,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T411"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="E381" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D381" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G406" sqref="G406"/>
+      <selection pane="bottomRight" activeCell="A404" sqref="A404"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -24399,7 +24407,7 @@
         <v>1376</v>
       </c>
       <c r="E395" s="102" t="s">
-        <v>1383</v>
+        <v>1436</v>
       </c>
       <c r="F395" s="102" t="s">
         <v>13</v>
@@ -24437,7 +24445,7 @@
         <v>1377</v>
       </c>
       <c r="E396" s="102" t="s">
-        <v>1383</v>
+        <v>1436</v>
       </c>
       <c r="F396" s="102" t="s">
         <v>13</v>
@@ -24475,7 +24483,7 @@
         <v>1378</v>
       </c>
       <c r="E397" s="102" t="s">
-        <v>1383</v>
+        <v>1436</v>
       </c>
       <c r="F397" s="102" t="s">
         <v>13</v>
@@ -24513,7 +24521,7 @@
         <v>1379</v>
       </c>
       <c r="E398" s="102" t="s">
-        <v>1383</v>
+        <v>1436</v>
       </c>
       <c r="F398" s="102" t="s">
         <v>13</v>
@@ -24551,7 +24559,7 @@
         <v>1380</v>
       </c>
       <c r="E399" s="102" t="s">
-        <v>1383</v>
+        <v>1437</v>
       </c>
       <c r="F399" s="102" t="s">
         <v>13</v>
@@ -24589,7 +24597,7 @@
         <v>1374</v>
       </c>
       <c r="E400" s="104" t="s">
-        <v>1384</v>
+        <v>1438</v>
       </c>
       <c r="F400" s="103" t="s">
         <v>13</v>
@@ -24627,7 +24635,7 @@
         <v>1375</v>
       </c>
       <c r="E401" s="104" t="s">
-        <v>1384</v>
+        <v>1438</v>
       </c>
       <c r="F401" s="103" t="s">
         <v>13</v>
@@ -24665,7 +24673,7 @@
         <v>1381</v>
       </c>
       <c r="E402" s="104" t="s">
-        <v>1384</v>
+        <v>1438</v>
       </c>
       <c r="F402" s="103" t="s">
         <v>13</v>
@@ -24697,13 +24705,13 @@
         <v>1</v>
       </c>
       <c r="C403" s="104" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="D403" s="104" t="s">
         <v>1382</v>
       </c>
       <c r="E403" s="104" t="s">
-        <v>1384</v>
+        <v>1438</v>
       </c>
       <c r="F403" s="103" t="s">
         <v>13</v>
@@ -24729,7 +24737,7 @@
     </row>
     <row r="404" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A404" s="7">
-        <v>31351</v>
+        <v>21351</v>
       </c>
       <c r="B404" s="7">
         <v>1</v>
@@ -24738,13 +24746,13 @@
         <v>1370</v>
       </c>
       <c r="D404" s="49" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="E404" s="49" t="s">
-        <v>1412</v>
+        <v>1439</v>
       </c>
       <c r="F404" s="49" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="G404" s="7">
         <v>31351</v>
@@ -24767,7 +24775,7 @@
     </row>
     <row r="405" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A405" s="7">
-        <v>31352</v>
+        <v>21352</v>
       </c>
       <c r="B405" s="7">
         <v>1</v>
@@ -24776,13 +24784,13 @@
         <v>1370</v>
       </c>
       <c r="D405" s="49" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="E405" s="49" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="F405" s="49" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="G405" s="7">
         <v>31352</v>
@@ -24805,7 +24813,7 @@
     </row>
     <row r="406" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A406" s="7">
-        <v>31353</v>
+        <v>21353</v>
       </c>
       <c r="B406" s="7">
         <v>1</v>
@@ -24814,13 +24822,13 @@
         <v>1370</v>
       </c>
       <c r="D406" s="49" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="E406" s="49" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="F406" s="49" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="G406" s="7">
         <v>31353</v>
@@ -24843,7 +24851,7 @@
     </row>
     <row r="407" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A407" s="7">
-        <v>31354</v>
+        <v>21354</v>
       </c>
       <c r="B407" s="7">
         <v>1</v>
@@ -24852,13 +24860,13 @@
         <v>1370</v>
       </c>
       <c r="D407" s="49" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="E407" s="49" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="F407" s="49" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="G407" s="7">
         <v>31354</v>
@@ -24881,7 +24889,7 @@
     </row>
     <row r="408" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A408" s="7">
-        <v>31355</v>
+        <v>21355</v>
       </c>
       <c r="B408" s="7">
         <v>1</v>
@@ -24890,13 +24898,13 @@
         <v>1370</v>
       </c>
       <c r="D408" s="49" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="E408" s="49" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="F408" s="49" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="G408" s="7">
         <v>31355</v>
@@ -24919,7 +24927,7 @@
     </row>
     <row r="409" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A409" s="7">
-        <v>31356</v>
+        <v>21356</v>
       </c>
       <c r="B409" s="7">
         <v>1</v>
@@ -24928,13 +24936,13 @@
         <v>1370</v>
       </c>
       <c r="D409" s="49" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="E409" s="49" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="F409" s="49" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="G409" s="7">
         <v>31356</v>
@@ -24957,7 +24965,7 @@
     </row>
     <row r="410" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A410" s="7">
-        <v>31357</v>
+        <v>21357</v>
       </c>
       <c r="B410" s="7">
         <v>1</v>
@@ -24966,13 +24974,13 @@
         <v>1370</v>
       </c>
       <c r="D410" s="49" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="E410" s="49" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="F410" s="49" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="G410" s="7">
         <v>31357</v>
@@ -24995,7 +25003,7 @@
     </row>
     <row r="411" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A411" s="7">
-        <v>31358</v>
+        <v>21358</v>
       </c>
       <c r="B411" s="7">
         <v>1</v>
@@ -25004,13 +25012,13 @@
         <v>1370</v>
       </c>
       <c r="D411" s="49" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="E411" s="49" t="s">
+        <v>1410</v>
+      </c>
+      <c r="F411" s="49" t="s">
         <v>1412</v>
-      </c>
-      <c r="F411" s="49" t="s">
-        <v>1414</v>
       </c>
       <c r="G411" s="7">
         <v>31358</v>
@@ -25043,11 +25051,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K411"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G385" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C385" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H410" sqref="H410"/>
+      <selection pane="bottomRight" activeCell="A410" sqref="A410"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -35264,7 +35272,7 @@
       </c>
       <c r="G395" s="108"/>
       <c r="H395" s="109" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="I395" s="106" t="s">
         <v>387</v>
@@ -35291,7 +35299,7 @@
       </c>
       <c r="G396" s="108"/>
       <c r="H396" s="109" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="I396" s="106" t="s">
         <v>387</v>
@@ -35318,7 +35326,7 @@
       </c>
       <c r="G397" s="108"/>
       <c r="H397" s="109" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="I397" s="106" t="s">
         <v>387</v>
@@ -35345,7 +35353,7 @@
       </c>
       <c r="G398" s="108"/>
       <c r="H398" s="109" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="I398" s="106" t="s">
         <v>387</v>
@@ -35372,7 +35380,7 @@
       </c>
       <c r="G399" s="108"/>
       <c r="H399" s="109" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="I399" s="106" t="s">
         <v>387</v>
@@ -35399,7 +35407,7 @@
       </c>
       <c r="G400" s="108"/>
       <c r="H400" s="109" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="I400" s="106" t="s">
         <v>387</v>
@@ -35426,7 +35434,7 @@
       </c>
       <c r="G401" s="108"/>
       <c r="H401" s="109" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="I401" s="106" t="s">
         <v>387</v>
@@ -35453,7 +35461,7 @@
       </c>
       <c r="G402" s="108"/>
       <c r="H402" s="109" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="I402" s="106" t="s">
         <v>387</v>
@@ -35480,7 +35488,7 @@
       </c>
       <c r="G403" s="108"/>
       <c r="H403" s="109" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="I403" s="106" t="s">
         <v>387</v>
@@ -35497,7 +35505,7 @@
         <v>400</v>
       </c>
       <c r="F404" s="111" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="405" spans="1:9" x14ac:dyDescent="0.2">
@@ -35511,7 +35519,7 @@
         <v>401</v>
       </c>
       <c r="F405" s="111" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="406" spans="1:9" x14ac:dyDescent="0.2">
@@ -35525,7 +35533,7 @@
         <v>402</v>
       </c>
       <c r="F406" s="111" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="407" spans="1:9" x14ac:dyDescent="0.2">
@@ -35539,7 +35547,7 @@
         <v>403</v>
       </c>
       <c r="F407" s="111" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="408" spans="1:9" x14ac:dyDescent="0.2">
@@ -35553,7 +35561,7 @@
         <v>404</v>
       </c>
       <c r="F408" s="111" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="409" spans="1:9" x14ac:dyDescent="0.2">
@@ -35567,7 +35575,7 @@
         <v>405</v>
       </c>
       <c r="F409" s="111" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="410" spans="1:9" x14ac:dyDescent="0.2">
@@ -35581,7 +35589,7 @@
         <v>406</v>
       </c>
       <c r="F410" s="111" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="411" spans="1:9" x14ac:dyDescent="0.2">
@@ -35592,7 +35600,7 @@
         <v>21358</v>
       </c>
       <c r="F411" s="111" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
     </row>
   </sheetData>
@@ -43871,7 +43879,7 @@
         <v>400</v>
       </c>
       <c r="C570" s="13" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="D570" s="11">
         <v>273</v>
@@ -43885,7 +43893,7 @@
         <v>401</v>
       </c>
       <c r="C571" s="13" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="D571" s="11">
         <v>274</v>
@@ -43899,7 +43907,7 @@
         <v>402</v>
       </c>
       <c r="C572" s="13" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="D572" s="11">
         <v>275</v>
@@ -43913,7 +43921,7 @@
         <v>403</v>
       </c>
       <c r="C573" s="13" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="D573" s="11">
         <v>276</v>
@@ -43927,7 +43935,7 @@
         <v>404</v>
       </c>
       <c r="C574" s="13" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="D574" s="11">
         <v>277</v>
@@ -43941,7 +43949,7 @@
         <v>405</v>
       </c>
       <c r="C575" s="13" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="D575" s="11">
         <v>278</v>
@@ -43955,7 +43963,7 @@
         <v>406</v>
       </c>
       <c r="C576" s="13" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="D576" s="11">
         <v>279</v>
@@ -50714,7 +50722,7 @@
         <v>248</v>
       </c>
       <c r="C360" s="13" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="D360" s="15" t="s">
         <v>969</v>
@@ -50890,7 +50898,7 @@
         <v>258</v>
       </c>
       <c r="C370" s="13" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="D370" s="11">
         <v>5000000</v>
@@ -51012,7 +51020,7 @@
         <v>1373</v>
       </c>
       <c r="D377" s="17" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="E377" s="11">
         <v>2</v>
@@ -51046,7 +51054,7 @@
         <v>1373</v>
       </c>
       <c r="D379" s="11" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="E379" s="11">
         <v>2</v>
@@ -51063,7 +51071,7 @@
         <v>1373</v>
       </c>
       <c r="D380" s="11" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="E380" s="11">
         <v>2</v>
@@ -51114,7 +51122,7 @@
         <v>1373</v>
       </c>
       <c r="D383" s="11" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="E383" s="11">
         <v>2</v>
@@ -51131,7 +51139,7 @@
         <v>1373</v>
       </c>
       <c r="D384" s="11" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="E384" s="11">
         <v>2</v>
@@ -51148,7 +51156,7 @@
         <v>1373</v>
       </c>
       <c r="D385" s="11" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="E385" s="11">
         <v>2</v>
@@ -51165,7 +51173,7 @@
         <v>688</v>
       </c>
       <c r="D386" s="13" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="E386" s="11">
         <v>2</v>
@@ -51179,7 +51187,7 @@
         <v>273</v>
       </c>
       <c r="C387" s="13" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="D387" s="11">
         <v>500</v>
@@ -51199,7 +51207,7 @@
         <v>688</v>
       </c>
       <c r="D388" s="13" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="E388" s="11">
         <v>2</v>
@@ -51298,10 +51306,10 @@
         <v>277</v>
       </c>
       <c r="C394" s="13" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="D394" s="15" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="E394" s="11">
         <v>2</v>
@@ -51315,7 +51323,7 @@
         <v>278</v>
       </c>
       <c r="C395" s="13" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="D395" s="11">
         <v>240000</v>
@@ -51332,7 +51340,7 @@
         <v>279</v>
       </c>
       <c r="C396" s="13" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="D396" s="11">
         <v>1</v>
@@ -69324,7 +69332,7 @@
         <v>610</v>
       </c>
       <c r="C867" s="14" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="F867" s="29">
         <v>1</v>
@@ -69342,7 +69350,7 @@
       </c>
       <c r="C868" s="29"/>
       <c r="D868" s="14" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="E868" s="29">
         <v>9800000</v>
@@ -69359,7 +69367,7 @@
         <v>611</v>
       </c>
       <c r="C869" s="14" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="F869" s="29">
         <v>1</v>
@@ -69377,7 +69385,7 @@
       </c>
       <c r="C870" s="29"/>
       <c r="D870" s="14" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="E870" s="29">
         <v>4800000</v>
@@ -69394,7 +69402,7 @@
         <v>612</v>
       </c>
       <c r="D871" s="14" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="E871" s="29">
         <v>4800000</v>
@@ -69411,7 +69419,7 @@
         <v>613</v>
       </c>
       <c r="D872" s="14" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="E872" s="29">
         <v>1800000</v>
@@ -69428,7 +69436,7 @@
         <v>614</v>
       </c>
       <c r="D873" s="14" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="E873" s="29">
         <v>800000</v>
@@ -69445,7 +69453,7 @@
         <v>615</v>
       </c>
       <c r="D874" s="14" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="E874" s="29">
         <v>888888</v>
@@ -69462,7 +69470,7 @@
         <v>616</v>
       </c>
       <c r="D875" s="14" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="E875" s="29">
         <v>588888</v>
@@ -69479,7 +69487,7 @@
         <v>617</v>
       </c>
       <c r="D876" s="14" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="E876" s="29">
         <v>388888</v>
@@ -69496,7 +69504,7 @@
         <v>618</v>
       </c>
       <c r="D877" s="14" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="E877" s="29">
         <v>188888</v>

--- a/config_debug/task_zajindan_server.xlsx
+++ b/config_debug/task_zajindan_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5224" uniqueCount="1440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5215" uniqueCount="1440">
   <si>
     <t>id|任务id</t>
   </si>
@@ -8196,11 +8196,11 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>p_summer_lgf1</t>
+    <t>p_0811_wyzjf</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>p_0811_wyzjf</t>
+    <t>p_summer_lgfl1</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -9043,11 +9043,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T411"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D381" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="E381" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A404" sqref="A404"/>
+      <selection pane="bottomRight" activeCell="C418" sqref="C418"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -24597,7 +24597,7 @@
         <v>1374</v>
       </c>
       <c r="E400" s="104" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="F400" s="103" t="s">
         <v>13</v>
@@ -24635,7 +24635,7 @@
         <v>1375</v>
       </c>
       <c r="E401" s="104" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="F401" s="103" t="s">
         <v>13</v>
@@ -24673,7 +24673,7 @@
         <v>1381</v>
       </c>
       <c r="E402" s="104" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="F402" s="103" t="s">
         <v>13</v>
@@ -24711,7 +24711,7 @@
         <v>1382</v>
       </c>
       <c r="E403" s="104" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="F403" s="103" t="s">
         <v>13</v>
@@ -24749,13 +24749,13 @@
         <v>1393</v>
       </c>
       <c r="E404" s="49" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="F404" s="49" t="s">
         <v>1411</v>
       </c>
       <c r="G404" s="7">
-        <v>31351</v>
+        <v>21351</v>
       </c>
       <c r="H404" s="7" t="b">
         <v>1</v>
@@ -24793,7 +24793,7 @@
         <v>1411</v>
       </c>
       <c r="G405" s="7">
-        <v>31352</v>
+        <v>21352</v>
       </c>
       <c r="H405" s="7" t="b">
         <v>1</v>
@@ -24831,7 +24831,7 @@
         <v>1411</v>
       </c>
       <c r="G406" s="7">
-        <v>31353</v>
+        <v>21353</v>
       </c>
       <c r="H406" s="7" t="b">
         <v>1</v>
@@ -24869,7 +24869,7 @@
         <v>1411</v>
       </c>
       <c r="G407" s="7">
-        <v>31354</v>
+        <v>21354</v>
       </c>
       <c r="H407" s="7" t="b">
         <v>1</v>
@@ -24907,7 +24907,7 @@
         <v>1411</v>
       </c>
       <c r="G408" s="7">
-        <v>31355</v>
+        <v>21355</v>
       </c>
       <c r="H408" s="7" t="b">
         <v>1</v>
@@ -24945,7 +24945,7 @@
         <v>1411</v>
       </c>
       <c r="G409" s="7">
-        <v>31356</v>
+        <v>21356</v>
       </c>
       <c r="H409" s="7" t="b">
         <v>1</v>
@@ -24983,7 +24983,7 @@
         <v>1411</v>
       </c>
       <c r="G410" s="7">
-        <v>31357</v>
+        <v>21357</v>
       </c>
       <c r="H410" s="7" t="b">
         <v>1</v>
@@ -25021,7 +25021,7 @@
         <v>1412</v>
       </c>
       <c r="G411" s="7">
-        <v>31358</v>
+        <v>21358</v>
       </c>
       <c r="H411" s="7" t="b">
         <v>1</v>
@@ -25052,10 +25052,10 @@
   <dimension ref="A1:K411"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C385" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F382" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A410" sqref="A410"/>
+      <selection pane="bottomRight" activeCell="H403" sqref="H403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -35258,15 +35258,11 @@
       <c r="B395" s="105">
         <v>21342</v>
       </c>
-      <c r="C395" s="106" t="s">
-        <v>435</v>
-      </c>
+      <c r="C395" s="106"/>
       <c r="D395" s="105">
         <v>391</v>
       </c>
-      <c r="E395" s="105">
-        <v>264</v>
-      </c>
+      <c r="E395" s="105"/>
       <c r="F395" s="107" t="s">
         <v>476</v>
       </c>
@@ -35285,15 +35281,11 @@
       <c r="B396" s="105">
         <v>21343</v>
       </c>
-      <c r="C396" s="106" t="s">
-        <v>435</v>
-      </c>
+      <c r="C396" s="106"/>
       <c r="D396" s="105">
         <v>392</v>
       </c>
-      <c r="E396" s="105">
-        <v>265</v>
-      </c>
+      <c r="E396" s="105"/>
       <c r="F396" s="107" t="s">
         <v>476</v>
       </c>
@@ -35312,15 +35304,11 @@
       <c r="B397" s="105">
         <v>21344</v>
       </c>
-      <c r="C397" s="106" t="s">
-        <v>435</v>
-      </c>
+      <c r="C397" s="106"/>
       <c r="D397" s="105">
         <v>393</v>
       </c>
-      <c r="E397" s="105">
-        <v>266</v>
-      </c>
+      <c r="E397" s="105"/>
       <c r="F397" s="107" t="s">
         <v>476</v>
       </c>
@@ -35339,15 +35327,11 @@
       <c r="B398" s="105">
         <v>21345</v>
       </c>
-      <c r="C398" s="106" t="s">
-        <v>435</v>
-      </c>
+      <c r="C398" s="106"/>
       <c r="D398" s="105">
         <v>394</v>
       </c>
-      <c r="E398" s="105">
-        <v>267</v>
-      </c>
+      <c r="E398" s="105"/>
       <c r="F398" s="107" t="s">
         <v>476</v>
       </c>
@@ -35366,15 +35350,11 @@
       <c r="B399" s="105">
         <v>21346</v>
       </c>
-      <c r="C399" s="106" t="s">
-        <v>435</v>
-      </c>
+      <c r="C399" s="106"/>
       <c r="D399" s="105">
         <v>395</v>
       </c>
-      <c r="E399" s="105">
-        <v>268</v>
-      </c>
+      <c r="E399" s="105"/>
       <c r="F399" s="107" t="s">
         <v>476</v>
       </c>
@@ -35393,15 +35373,11 @@
       <c r="B400" s="105">
         <v>21347</v>
       </c>
-      <c r="C400" s="106" t="s">
-        <v>435</v>
-      </c>
+      <c r="C400" s="106"/>
       <c r="D400" s="105">
         <v>396</v>
       </c>
-      <c r="E400" s="105">
-        <v>269</v>
-      </c>
+      <c r="E400" s="105"/>
       <c r="F400" s="107" t="s">
         <v>476</v>
       </c>
@@ -35420,15 +35396,11 @@
       <c r="B401" s="105">
         <v>21348</v>
       </c>
-      <c r="C401" s="106" t="s">
-        <v>435</v>
-      </c>
+      <c r="C401" s="106"/>
       <c r="D401" s="105">
         <v>397</v>
       </c>
-      <c r="E401" s="105">
-        <v>270</v>
-      </c>
+      <c r="E401" s="105"/>
       <c r="F401" s="107" t="s">
         <v>476</v>
       </c>
@@ -35447,15 +35419,11 @@
       <c r="B402" s="105">
         <v>21349</v>
       </c>
-      <c r="C402" s="106" t="s">
-        <v>435</v>
-      </c>
+      <c r="C402" s="106"/>
       <c r="D402" s="105">
         <v>398</v>
       </c>
-      <c r="E402" s="105">
-        <v>271</v>
-      </c>
+      <c r="E402" s="105"/>
       <c r="F402" s="107" t="s">
         <v>476</v>
       </c>
@@ -35474,15 +35442,11 @@
       <c r="B403" s="105">
         <v>21350</v>
       </c>
-      <c r="C403" s="106" t="s">
-        <v>435</v>
-      </c>
+      <c r="C403" s="106"/>
       <c r="D403" s="105">
         <v>399</v>
       </c>
-      <c r="E403" s="105">
-        <v>272</v>
-      </c>
+      <c r="E403" s="105"/>
       <c r="F403" s="107" t="s">
         <v>476</v>
       </c>
@@ -35614,8 +35578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I576"/>
   <sheetViews>
-    <sheetView topLeftCell="A547" workbookViewId="0">
-      <selection activeCell="C288" sqref="C288"/>
+    <sheetView topLeftCell="A544" workbookViewId="0">
+      <selection activeCell="B561" sqref="B561:D569"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -43981,10 +43945,10 @@
   <dimension ref="A1:M397"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C373" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C367" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C396" sqref="C396"/>
+      <selection pane="bottomRight" activeCell="B377" sqref="B377:D385"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -51377,11 +51341,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W889"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C853" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B874" sqref="B874"/>
+      <selection pane="bottomRight" activeCell="H867" sqref="H867"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -69337,9 +69301,6 @@
       <c r="F867" s="29">
         <v>1</v>
       </c>
-      <c r="H867" s="1">
-        <v>1</v>
-      </c>
     </row>
     <row r="868" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A868" s="12">
@@ -69370,9 +69331,6 @@
         <v>1390</v>
       </c>
       <c r="F869" s="29">
-        <v>1</v>
-      </c>
-      <c r="H869" s="1">
         <v>1</v>
       </c>
     </row>

--- a/config_debug/task_zajindan_server.xlsx
+++ b/config_debug/task_zajindan_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_0817\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5215" uniqueCount="1439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5249" uniqueCount="1458">
   <si>
     <t>id|任务id</t>
   </si>
@@ -8198,6 +8198,134 @@
   <si>
     <t>p_summer_lgfl1</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕虾福利</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼中任意场次，获得10\20\30张小龙虾券</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_0818_bxfl</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼中任意场次，击杀1\2\3只龙虾BOSS</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果消消乐使用24万及以上档次出现1次幸运时刻</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,10,10</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>or</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>get_fish_3d_bullet_item</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_type</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyu_3d_target_yu</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>base_fish_id</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxl_lucky_award</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>bet_spend</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fish_drop_act_0</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>19,620,621</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>22,623,624</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>25</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -9037,13 +9165,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T411"/>
+  <dimension ref="A1:T414"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="E378" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D392" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G408" sqref="G408"/>
+      <selection pane="bottomRight" activeCell="D421" sqref="D421"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -25035,6 +25163,120 @@
         <v>-1</v>
       </c>
     </row>
+    <row r="412" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A412" s="7">
+        <v>21359</v>
+      </c>
+      <c r="B412" s="7">
+        <v>1</v>
+      </c>
+      <c r="C412" s="7" t="s">
+        <v>1439</v>
+      </c>
+      <c r="D412" s="7" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E412" s="7" t="s">
+        <v>1441</v>
+      </c>
+      <c r="F412" s="7" t="s">
+        <v>855</v>
+      </c>
+      <c r="G412" s="7">
+        <v>21359</v>
+      </c>
+      <c r="H412" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I412" s="7">
+        <v>1</v>
+      </c>
+      <c r="J412" s="7">
+        <v>1597680000</v>
+      </c>
+      <c r="K412" s="7">
+        <v>1598284799</v>
+      </c>
+      <c r="L412" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A413" s="7">
+        <v>21360</v>
+      </c>
+      <c r="B413" s="7">
+        <v>1</v>
+      </c>
+      <c r="C413" s="7" t="s">
+        <v>1439</v>
+      </c>
+      <c r="D413" s="7" t="s">
+        <v>1442</v>
+      </c>
+      <c r="E413" s="7" t="s">
+        <v>1441</v>
+      </c>
+      <c r="F413" s="7" t="s">
+        <v>855</v>
+      </c>
+      <c r="G413" s="7">
+        <v>21360</v>
+      </c>
+      <c r="H413" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I413" s="7">
+        <v>1</v>
+      </c>
+      <c r="J413" s="7">
+        <v>1597680000</v>
+      </c>
+      <c r="K413" s="7">
+        <v>1598284799</v>
+      </c>
+      <c r="L413" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="414" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A414" s="7">
+        <v>21361</v>
+      </c>
+      <c r="B414" s="7">
+        <v>1</v>
+      </c>
+      <c r="C414" s="7" t="s">
+        <v>1439</v>
+      </c>
+      <c r="D414" s="7" t="s">
+        <v>1443</v>
+      </c>
+      <c r="E414" s="7" t="s">
+        <v>1441</v>
+      </c>
+      <c r="F414" s="7" t="s">
+        <v>855</v>
+      </c>
+      <c r="G414" s="7">
+        <v>21361</v>
+      </c>
+      <c r="H414" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I414" s="7">
+        <v>1</v>
+      </c>
+      <c r="J414" s="7">
+        <v>1597680000</v>
+      </c>
+      <c r="K414" s="7">
+        <v>1598284799</v>
+      </c>
+      <c r="L414" s="7">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B1:B367"/>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -25045,13 +25287,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K411"/>
+  <dimension ref="A1:K414"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C382" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E394" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D408" sqref="D408"/>
+      <selection pane="bottomRight" activeCell="I414" sqref="I414"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -35563,6 +35805,66 @@
         <v>1420</v>
       </c>
     </row>
+    <row r="412" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A412" s="1">
+        <v>411</v>
+      </c>
+      <c r="B412" s="1">
+        <v>21359</v>
+      </c>
+      <c r="D412" s="1">
+        <v>407</v>
+      </c>
+      <c r="F412" s="32" t="s">
+        <v>1444</v>
+      </c>
+      <c r="H412" s="65" t="s">
+        <v>1455</v>
+      </c>
+      <c r="I412" s="14" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="413" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A413" s="1">
+        <v>412</v>
+      </c>
+      <c r="B413" s="1">
+        <v>21360</v>
+      </c>
+      <c r="D413" s="1">
+        <v>408</v>
+      </c>
+      <c r="F413" s="32" t="s">
+        <v>1445</v>
+      </c>
+      <c r="H413" s="65" t="s">
+        <v>1456</v>
+      </c>
+      <c r="I413" s="14" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="414" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A414" s="1">
+        <v>413</v>
+      </c>
+      <c r="B414" s="1">
+        <v>21361</v>
+      </c>
+      <c r="D414" s="1">
+        <v>409</v>
+      </c>
+      <c r="F414" s="111" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H414" s="65" t="s">
+        <v>1457</v>
+      </c>
+      <c r="I414" s="14" t="s">
+        <v>1447</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -35572,10 +35874,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I576"/>
+  <dimension ref="A1:I579"/>
   <sheetViews>
-    <sheetView topLeftCell="A544" workbookViewId="0">
-      <selection activeCell="B574" sqref="B574:D574"/>
+    <sheetView topLeftCell="A547" workbookViewId="0">
+      <selection activeCell="D582" sqref="D582"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -43929,6 +44231,48 @@
         <v>279</v>
       </c>
     </row>
+    <row r="577" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A577" s="29">
+        <v>576</v>
+      </c>
+      <c r="B577" s="29">
+        <v>407</v>
+      </c>
+      <c r="C577" s="13" t="s">
+        <v>1448</v>
+      </c>
+      <c r="D577" s="11">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="578" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A578" s="29">
+        <v>577</v>
+      </c>
+      <c r="B578" s="29">
+        <v>408</v>
+      </c>
+      <c r="C578" s="13" t="s">
+        <v>1450</v>
+      </c>
+      <c r="D578" s="11">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="579" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A579" s="29">
+        <v>578</v>
+      </c>
+      <c r="B579" s="29">
+        <v>409</v>
+      </c>
+      <c r="C579" s="13" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D579" s="11">
+        <v>282</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -43938,13 +44282,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M397"/>
+  <dimension ref="A1:M400"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C367" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C382" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C394" sqref="C394"/>
+      <selection pane="bottomRight" activeCell="B405" sqref="B405"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -51326,6 +51670,57 @@
         <v>3</v>
       </c>
     </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A398" s="12">
+        <v>427</v>
+      </c>
+      <c r="B398" s="12">
+        <v>280</v>
+      </c>
+      <c r="C398" s="13" t="s">
+        <v>1449</v>
+      </c>
+      <c r="D398" s="11">
+        <v>9</v>
+      </c>
+      <c r="E398" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A399" s="12">
+        <v>428</v>
+      </c>
+      <c r="B399" s="12">
+        <v>281</v>
+      </c>
+      <c r="C399" s="13" t="s">
+        <v>1451</v>
+      </c>
+      <c r="D399" s="11">
+        <v>51</v>
+      </c>
+      <c r="E399" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A400" s="12">
+        <v>429</v>
+      </c>
+      <c r="B400" s="12">
+        <v>282</v>
+      </c>
+      <c r="C400" s="13" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D400" s="11">
+        <v>240000</v>
+      </c>
+      <c r="E400" s="11">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -51341,7 +51736,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C853" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D871" sqref="D871"/>
+      <selection pane="bottomRight" activeCell="A878" sqref="A878:XFD878"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -69468,55 +69863,146 @@
       </c>
     </row>
     <row r="878" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A878" s="12"/>
-      <c r="B878" s="29"/>
+      <c r="A878" s="12">
+        <v>877</v>
+      </c>
+      <c r="B878" s="29">
+        <v>619</v>
+      </c>
+      <c r="D878" s="14" t="s">
+        <v>1305</v>
+      </c>
+      <c r="E878" s="1">
+        <v>10000</v>
+      </c>
+      <c r="F878" s="1">
+        <v>1</v>
+      </c>
       <c r="G878" s="29"/>
       <c r="H878" s="29"/>
       <c r="I878" s="29"/>
     </row>
     <row r="879" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A879" s="12"/>
-      <c r="B879" s="29"/>
+      <c r="A879" s="12">
+        <v>878</v>
+      </c>
+      <c r="B879" s="29">
+        <v>620</v>
+      </c>
+      <c r="D879" s="14" t="s">
+        <v>1305</v>
+      </c>
+      <c r="E879" s="1">
+        <v>20000</v>
+      </c>
+      <c r="F879" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="880" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A880" s="12"/>
-      <c r="B880" s="29"/>
+      <c r="A880" s="12">
+        <v>879</v>
+      </c>
+      <c r="B880" s="29">
+        <v>621</v>
+      </c>
+      <c r="D880" s="14" t="s">
+        <v>1305</v>
+      </c>
+      <c r="E880" s="1">
+        <v>30000</v>
+      </c>
+      <c r="F880" s="1">
+        <v>1</v>
+      </c>
       <c r="G880" s="29"/>
       <c r="H880" s="29"/>
       <c r="I880" s="29"/>
     </row>
-    <row r="881" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A881" s="12"/>
-      <c r="B881" s="29"/>
-    </row>
-    <row r="882" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A882" s="12"/>
-      <c r="B882" s="29"/>
-    </row>
-    <row r="883" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A883" s="12"/>
-      <c r="B883" s="29"/>
-    </row>
-    <row r="884" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A884" s="12"/>
-      <c r="B884" s="29"/>
-    </row>
-    <row r="885" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A881" s="12">
+        <v>880</v>
+      </c>
+      <c r="B881" s="29">
+        <v>622</v>
+      </c>
+      <c r="D881" s="14" t="s">
+        <v>1305</v>
+      </c>
+      <c r="E881" s="1">
+        <v>10000</v>
+      </c>
+      <c r="F881" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="882" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A882" s="12">
+        <v>881</v>
+      </c>
+      <c r="B882" s="29">
+        <v>623</v>
+      </c>
+      <c r="D882" s="14" t="s">
+        <v>1305</v>
+      </c>
+      <c r="E882" s="1">
+        <v>20000</v>
+      </c>
+      <c r="F882" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="883" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A883" s="12">
+        <v>882</v>
+      </c>
+      <c r="B883" s="29">
+        <v>624</v>
+      </c>
+      <c r="D883" s="14" t="s">
+        <v>1305</v>
+      </c>
+      <c r="E883" s="1">
+        <v>30000</v>
+      </c>
+      <c r="F883" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="884" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A884" s="12">
+        <v>883</v>
+      </c>
+      <c r="B884" s="29">
+        <v>625</v>
+      </c>
+      <c r="D884" s="14" t="s">
+        <v>1454</v>
+      </c>
+      <c r="E884" s="1">
+        <v>50</v>
+      </c>
+      <c r="F884" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="885" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A885" s="12"/>
       <c r="B885" s="29"/>
     </row>
-    <row r="886" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A886" s="12"/>
       <c r="B886" s="29"/>
     </row>
-    <row r="887" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A887" s="12"/>
       <c r="B887" s="29"/>
     </row>
-    <row r="888" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B888" s="29"/>
     </row>
-    <row r="889" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B889" s="29"/>
     </row>
   </sheetData>

--- a/config_debug/task_zajindan_server.xlsx
+++ b/config_debug/task_zajindan_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5215" uniqueCount="1440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5215" uniqueCount="1439">
   <si>
     <t>id|任务id</t>
   </si>
@@ -8140,10 +8140,6 @@
   </si>
   <si>
     <t>base_fish_id</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>task_own_type</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -9044,10 +9040,10 @@
   <dimension ref="A1:T411"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="E381" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="E378" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C418" sqref="C418"/>
+      <selection pane="bottomRight" activeCell="G408" sqref="G408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -24407,7 +24403,7 @@
         <v>1376</v>
       </c>
       <c r="E395" s="102" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="F395" s="102" t="s">
         <v>13</v>
@@ -24445,7 +24441,7 @@
         <v>1377</v>
       </c>
       <c r="E396" s="102" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="F396" s="102" t="s">
         <v>13</v>
@@ -24483,7 +24479,7 @@
         <v>1378</v>
       </c>
       <c r="E397" s="102" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="F397" s="102" t="s">
         <v>13</v>
@@ -24521,7 +24517,7 @@
         <v>1379</v>
       </c>
       <c r="E398" s="102" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="F398" s="102" t="s">
         <v>13</v>
@@ -24559,7 +24555,7 @@
         <v>1380</v>
       </c>
       <c r="E399" s="102" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="F399" s="102" t="s">
         <v>13</v>
@@ -24597,7 +24593,7 @@
         <v>1374</v>
       </c>
       <c r="E400" s="104" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="F400" s="103" t="s">
         <v>13</v>
@@ -24635,7 +24631,7 @@
         <v>1375</v>
       </c>
       <c r="E401" s="104" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="F401" s="103" t="s">
         <v>13</v>
@@ -24673,7 +24669,7 @@
         <v>1381</v>
       </c>
       <c r="E402" s="104" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="F402" s="103" t="s">
         <v>13</v>
@@ -24711,7 +24707,7 @@
         <v>1382</v>
       </c>
       <c r="E403" s="104" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="F403" s="103" t="s">
         <v>13</v>
@@ -24749,7 +24745,7 @@
         <v>1393</v>
       </c>
       <c r="E404" s="49" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="F404" s="49" t="s">
         <v>1411</v>
@@ -25052,10 +25048,10 @@
   <dimension ref="A1:K411"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F382" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C382" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H403" sqref="H403"/>
+      <selection pane="bottomRight" activeCell="D408" sqref="D408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -35579,7 +35575,7 @@
   <dimension ref="A1:I576"/>
   <sheetViews>
     <sheetView topLeftCell="A544" workbookViewId="0">
-      <selection activeCell="B561" sqref="B561:D569"/>
+      <selection activeCell="B574" sqref="B574:D574"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -43944,11 +43940,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M397"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C367" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B377" sqref="B377:D385"/>
+      <selection pane="bottomRight" activeCell="C394" sqref="C394"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -50862,7 +50858,7 @@
         <v>258</v>
       </c>
       <c r="C370" s="13" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="D370" s="11">
         <v>5000000</v>
@@ -51137,7 +51133,7 @@
         <v>688</v>
       </c>
       <c r="D386" s="13" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="E386" s="11">
         <v>2</v>
@@ -51151,7 +51147,7 @@
         <v>273</v>
       </c>
       <c r="C387" s="13" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="D387" s="11">
         <v>500</v>
@@ -51171,7 +51167,7 @@
         <v>688</v>
       </c>
       <c r="D388" s="13" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="E388" s="11">
         <v>2</v>
@@ -51270,10 +51266,10 @@
         <v>277</v>
       </c>
       <c r="C394" s="13" t="s">
-        <v>1428</v>
+        <v>859</v>
       </c>
       <c r="D394" s="15" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="E394" s="11">
         <v>2</v>
@@ -51287,7 +51283,7 @@
         <v>278</v>
       </c>
       <c r="C395" s="13" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="D395" s="11">
         <v>240000</v>
@@ -51304,7 +51300,7 @@
         <v>279</v>
       </c>
       <c r="C396" s="13" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="D396" s="11">
         <v>1</v>
@@ -51341,11 +51337,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W889"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C853" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H867" sqref="H867"/>
+      <selection pane="bottomRight" activeCell="D871" sqref="D871"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_debug/task_zajindan_server.xlsx
+++ b/config_debug/task_zajindan_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_0817\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -9171,7 +9171,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D392" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D421" sqref="D421"/>
+      <selection pane="bottomRight" activeCell="C419" sqref="C419"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -25165,7 +25165,7 @@
     </row>
     <row r="412" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A412" s="7">
-        <v>21359</v>
+        <v>1000001</v>
       </c>
       <c r="B412" s="7">
         <v>1</v>
@@ -25203,7 +25203,7 @@
     </row>
     <row r="413" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A413" s="7">
-        <v>21360</v>
+        <v>1000002</v>
       </c>
       <c r="B413" s="7">
         <v>1</v>
@@ -25241,7 +25241,7 @@
     </row>
     <row r="414" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A414" s="7">
-        <v>21361</v>
+        <v>1000003</v>
       </c>
       <c r="B414" s="7">
         <v>1</v>

--- a/config_debug/task_zajindan_server.xlsx
+++ b/config_debug/task_zajindan_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_0818\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -22,12 +22,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">task!$B$1:$B$367</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5249" uniqueCount="1458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5376" uniqueCount="1526">
   <si>
     <t>id|任务id</t>
   </si>
@@ -7057,26 +7057,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>神秘海域</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>海底宝藏</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>藏宝海湾</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>深海沉船</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>开炮送红包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>buyu_3d_spend</t>
   </si>
   <si>
@@ -7200,14 +7180,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>buyu_leiji_dapao_new_task</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>buyu_leiji_dapao_new_task</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>300000,950000,4500000,</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -7633,10 +7605,6 @@
   </si>
   <si>
     <t>shop_gold_sum</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>task_21320</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -8325,6 +8293,304 @@
       </rPr>
       <t>25</t>
     </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆1次游戏</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>青铜转盘</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>青铜转盘</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼累计赢金30万</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼击杀6只小乌龟</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼累计赢金60万</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐累计赢金80万</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>在商城充值6元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼中累计赢金150万</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼累计赢金300万</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中累计赢金300万</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中使用3万及以上出现1次幸运时刻</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金转盘</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金转盘</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金转盘</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金转盘</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>白银转盘</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>白银转盘</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>626</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>300000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>600000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>800000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaoxiaole_award</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyu_3d_target_yu</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaoxiaole_award</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>newplayer_xrcdj1</t>
+  </si>
+  <si>
+    <t>newplayer_xrcdj1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>newplayer_xrcdj2</t>
+  </si>
+  <si>
+    <t>newplayer_xrcdj3</t>
+  </si>
+  <si>
+    <t>600</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,22,24,25,26,27,84,85,86,87,88,89,90,101,102,103,104,105,106,107,108,109,110,10002,10003,10004,10044,10045,10069,10070,10071,10072,10073</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>charge_any</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1500000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_xrcdj_1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>626</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>627</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>628</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_xrcdj_2</t>
+  </si>
+  <si>
+    <t>prop_xrcdj_3</t>
+  </si>
+  <si>
+    <t>新版新人红包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>开炮送红包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>神秘海域</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyu_leiji_dapao_new_task</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>海底宝藏</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>藏宝海湾</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>开炮送红包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>深海沉船</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>not_open_task</t>
+  </si>
+  <si>
+    <t>青铜转盘抽奖</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>白银转盘抽奖</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金转盘抽奖</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>青铜转盘抽奖次数记录</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>白银转盘抽奖次数记录</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金转盘抽奖次数记录</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10元话费</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>青铜，白银，黄金转盘各抽一次，可以完成</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_21320</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>box_exchange</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>box_exchange</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>box_exchange_37</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>box_exchange_38</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>box_exchange_39</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>629</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>630</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_1000017</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_web_chip_huafei</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_web_chip_huafei</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -8416,7 +8682,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8525,6 +8791,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -8567,7 +8839,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8882,6 +9154,31 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -9166,20 +9463,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:T414"/>
+  <dimension ref="A1:T428"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="F350" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="I408" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H369" sqref="H369"/>
+      <selection pane="bottomRight" activeCell="J427" sqref="J427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.25" style="7" customWidth="1"/>
     <col min="2" max="2" width="18" style="7" customWidth="1"/>
-    <col min="3" max="3" width="52.5" style="7" customWidth="1"/>
+    <col min="3" max="3" width="52" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="70" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36.625" style="7" customWidth="1"/>
     <col min="6" max="6" width="33.875" style="7" customWidth="1"/>
@@ -9207,7 +9504,7 @@
         <v>1038</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>1356</v>
+        <v>1348</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>3</v>
@@ -12771,7 +13068,7 @@
         <v>0</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>131</v>
+        <v>1493</v>
       </c>
       <c r="D86" s="16" t="s">
         <v>131</v>
@@ -12809,7 +13106,7 @@
         <v>0</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>133</v>
+        <v>1493</v>
       </c>
       <c r="D87" s="16" t="s">
         <v>133</v>
@@ -12847,7 +13144,7 @@
         <v>0</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>134</v>
+        <v>1493</v>
       </c>
       <c r="D88" s="16" t="s">
         <v>134</v>
@@ -12885,7 +13182,7 @@
         <v>0</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>135</v>
+        <v>1493</v>
       </c>
       <c r="D89" s="16" t="s">
         <v>135</v>
@@ -12923,7 +13220,7 @@
         <v>0</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>136</v>
+        <v>1493</v>
       </c>
       <c r="D90" s="16" t="s">
         <v>136</v>
@@ -12961,7 +13258,7 @@
         <v>0</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>137</v>
+        <v>1493</v>
       </c>
       <c r="D91" s="16" t="s">
         <v>137</v>
@@ -12999,7 +13296,7 @@
         <v>0</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>138</v>
+        <v>1493</v>
       </c>
       <c r="D92" s="16" t="s">
         <v>138</v>
@@ -13037,7 +13334,7 @@
         <v>0</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>139</v>
+        <v>1493</v>
       </c>
       <c r="D93" s="16" t="s">
         <v>139</v>
@@ -13075,7 +13372,7 @@
         <v>0</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>140</v>
+        <v>1493</v>
       </c>
       <c r="D94" s="16" t="s">
         <v>140</v>
@@ -13113,7 +13410,7 @@
         <v>0</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>141</v>
+        <v>1493</v>
       </c>
       <c r="D95" s="16" t="s">
         <v>141</v>
@@ -13151,7 +13448,7 @@
         <v>0</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>142</v>
+        <v>1493</v>
       </c>
       <c r="D96" s="16" t="s">
         <v>142</v>
@@ -13189,7 +13486,7 @@
         <v>0</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>143</v>
+        <v>1493</v>
       </c>
       <c r="D97" s="16" t="s">
         <v>143</v>
@@ -13227,7 +13524,7 @@
         <v>0</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>144</v>
+        <v>1493</v>
       </c>
       <c r="D98" s="16" t="s">
         <v>144</v>
@@ -13265,7 +13562,7 @@
         <v>0</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>145</v>
+        <v>1493</v>
       </c>
       <c r="D99" s="16" t="s">
         <v>145</v>
@@ -13303,7 +13600,7 @@
         <v>0</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>146</v>
+        <v>1493</v>
       </c>
       <c r="D100" s="16" t="s">
         <v>146</v>
@@ -13341,7 +13638,7 @@
         <v>0</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>147</v>
+        <v>1493</v>
       </c>
       <c r="D101" s="16" t="s">
         <v>147</v>
@@ -13379,7 +13676,7 @@
         <v>0</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>148</v>
+        <v>1493</v>
       </c>
       <c r="D102" s="16" t="s">
         <v>148</v>
@@ -13417,7 +13714,7 @@
         <v>0</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>149</v>
+        <v>1493</v>
       </c>
       <c r="D103" s="16" t="s">
         <v>149</v>
@@ -13455,7 +13752,7 @@
         <v>0</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>150</v>
+        <v>1493</v>
       </c>
       <c r="D104" s="16" t="s">
         <v>150</v>
@@ -13493,7 +13790,7 @@
         <v>0</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>151</v>
+        <v>1493</v>
       </c>
       <c r="D105" s="16" t="s">
         <v>151</v>
@@ -13531,7 +13828,7 @@
         <v>0</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>152</v>
+        <v>1493</v>
       </c>
       <c r="D106" s="16" t="s">
         <v>152</v>
@@ -13569,7 +13866,7 @@
         <v>0</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>153</v>
+        <v>1493</v>
       </c>
       <c r="D107" s="16" t="s">
         <v>153</v>
@@ -13607,7 +13904,7 @@
         <v>0</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>154</v>
+        <v>1493</v>
       </c>
       <c r="D108" s="16" t="s">
         <v>154</v>
@@ -13645,7 +13942,7 @@
         <v>0</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>155</v>
+        <v>1493</v>
       </c>
       <c r="D109" s="16" t="s">
         <v>155</v>
@@ -13683,7 +13980,7 @@
         <v>0</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>156</v>
+        <v>1493</v>
       </c>
       <c r="D110" s="16" t="s">
         <v>156</v>
@@ -13721,7 +14018,7 @@
         <v>0</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>157</v>
+        <v>1493</v>
       </c>
       <c r="D111" s="16" t="s">
         <v>157</v>
@@ -13759,7 +14056,7 @@
         <v>0</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>158</v>
+        <v>1493</v>
       </c>
       <c r="D112" s="16" t="s">
         <v>158</v>
@@ -13797,7 +14094,7 @@
         <v>0</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>159</v>
+        <v>1493</v>
       </c>
       <c r="D113" s="16" t="s">
         <v>159</v>
@@ -13835,7 +14132,7 @@
         <v>0</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>160</v>
+        <v>1493</v>
       </c>
       <c r="D114" s="16" t="s">
         <v>160</v>
@@ -13873,7 +14170,7 @@
         <v>0</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>161</v>
+        <v>1493</v>
       </c>
       <c r="D115" s="16" t="s">
         <v>161</v>
@@ -13911,7 +14208,7 @@
         <v>0</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>162</v>
+        <v>1493</v>
       </c>
       <c r="D116" s="16" t="s">
         <v>162</v>
@@ -13949,7 +14246,7 @@
         <v>0</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>163</v>
+        <v>1493</v>
       </c>
       <c r="D117" s="16" t="s">
         <v>163</v>
@@ -13987,7 +14284,7 @@
         <v>0</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>164</v>
+        <v>1493</v>
       </c>
       <c r="D118" s="16" t="s">
         <v>164</v>
@@ -14025,7 +14322,7 @@
         <v>0</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>165</v>
+        <v>1493</v>
       </c>
       <c r="D119" s="16" t="s">
         <v>165</v>
@@ -14063,7 +14360,7 @@
         <v>0</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>166</v>
+        <v>1493</v>
       </c>
       <c r="D120" s="16" t="s">
         <v>166</v>
@@ -14101,7 +14398,7 @@
         <v>0</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>167</v>
+        <v>1493</v>
       </c>
       <c r="D121" s="16" t="s">
         <v>167</v>
@@ -16308,10 +16605,10 @@
         <v>1183</v>
       </c>
       <c r="D179" s="84" t="s">
-        <v>1221</v>
+        <v>1216</v>
       </c>
       <c r="E179" s="84" t="s">
-        <v>1222</v>
+        <v>1217</v>
       </c>
       <c r="F179" s="84" t="s">
         <v>13</v>
@@ -16542,7 +16839,7 @@
         <v>1183</v>
       </c>
       <c r="D185" s="84" t="s">
-        <v>1210</v>
+        <v>1205</v>
       </c>
       <c r="E185" s="84" t="s">
         <v>132</v>
@@ -16581,7 +16878,7 @@
         <v>1183</v>
       </c>
       <c r="D186" s="84" t="s">
-        <v>1211</v>
+        <v>1206</v>
       </c>
       <c r="E186" s="84" t="s">
         <v>132</v>
@@ -16620,7 +16917,7 @@
         <v>1183</v>
       </c>
       <c r="D187" s="84" t="s">
-        <v>1212</v>
+        <v>1207</v>
       </c>
       <c r="E187" s="84" t="s">
         <v>132</v>
@@ -16659,7 +16956,7 @@
         <v>1183</v>
       </c>
       <c r="D188" s="84" t="s">
-        <v>1213</v>
+        <v>1208</v>
       </c>
       <c r="E188" s="84" t="s">
         <v>132</v>
@@ -16698,7 +16995,7 @@
         <v>1183</v>
       </c>
       <c r="D189" s="84" t="s">
-        <v>1214</v>
+        <v>1209</v>
       </c>
       <c r="E189" s="84" t="s">
         <v>132</v>
@@ -16737,7 +17034,7 @@
         <v>1183</v>
       </c>
       <c r="D190" s="84" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
       <c r="E190" s="84" t="s">
         <v>132</v>
@@ -16776,7 +17073,7 @@
         <v>1183</v>
       </c>
       <c r="D191" s="84" t="s">
-        <v>1216</v>
+        <v>1211</v>
       </c>
       <c r="E191" s="84" t="s">
         <v>132</v>
@@ -16853,7 +17150,7 @@
         <v>237</v>
       </c>
       <c r="D193" s="51" t="s">
-        <v>1344</v>
+        <v>1336</v>
       </c>
       <c r="E193" s="51" t="s">
         <v>239</v>
@@ -16929,7 +17226,7 @@
         <v>237</v>
       </c>
       <c r="D195" s="51" t="s">
-        <v>1345</v>
+        <v>1337</v>
       </c>
       <c r="E195" s="51" t="s">
         <v>239</v>
@@ -16967,7 +17264,7 @@
         <v>237</v>
       </c>
       <c r="D196" s="51" t="s">
-        <v>1346</v>
+        <v>1338</v>
       </c>
       <c r="E196" s="51" t="s">
         <v>239</v>
@@ -17005,7 +17302,7 @@
         <v>237</v>
       </c>
       <c r="D197" s="51" t="s">
-        <v>1347</v>
+        <v>1339</v>
       </c>
       <c r="E197" s="51" t="s">
         <v>239</v>
@@ -17043,7 +17340,7 @@
         <v>237</v>
       </c>
       <c r="D198" s="51" t="s">
-        <v>1348</v>
+        <v>1340</v>
       </c>
       <c r="E198" s="51" t="s">
         <v>239</v>
@@ -23500,16 +23797,16 @@
         <v>1</v>
       </c>
       <c r="C368" s="98" t="s">
-        <v>1198</v>
+        <v>1494</v>
       </c>
       <c r="D368" s="99" t="s">
-        <v>1194</v>
+        <v>1495</v>
       </c>
       <c r="E368" s="98" t="s">
         <v>12</v>
       </c>
       <c r="F368" s="98" t="s">
-        <v>1224</v>
+        <v>1496</v>
       </c>
       <c r="G368" s="97">
         <v>21315</v>
@@ -23538,16 +23835,16 @@
         <v>1</v>
       </c>
       <c r="C369" s="98" t="s">
-        <v>1198</v>
+        <v>1494</v>
       </c>
       <c r="D369" s="99" t="s">
-        <v>1195</v>
+        <v>1497</v>
       </c>
       <c r="E369" s="98" t="s">
         <v>12</v>
       </c>
       <c r="F369" s="98" t="s">
-        <v>1225</v>
+        <v>1496</v>
       </c>
       <c r="G369" s="97">
         <v>21316</v>
@@ -23576,16 +23873,16 @@
         <v>1</v>
       </c>
       <c r="C370" s="98" t="s">
-        <v>1198</v>
+        <v>1494</v>
       </c>
       <c r="D370" s="98" t="s">
-        <v>1196</v>
+        <v>1498</v>
       </c>
       <c r="E370" s="98" t="s">
         <v>12</v>
       </c>
       <c r="F370" s="98" t="s">
-        <v>1225</v>
+        <v>1496</v>
       </c>
       <c r="G370" s="97">
         <v>21317</v>
@@ -23614,16 +23911,16 @@
         <v>1</v>
       </c>
       <c r="C371" s="98" t="s">
-        <v>1198</v>
+        <v>1499</v>
       </c>
       <c r="D371" s="98" t="s">
-        <v>1197</v>
+        <v>1500</v>
       </c>
       <c r="E371" s="98" t="s">
         <v>12</v>
       </c>
       <c r="F371" s="98" t="s">
-        <v>1225</v>
+        <v>1496</v>
       </c>
       <c r="G371" s="97">
         <v>21318</v>
@@ -23652,16 +23949,16 @@
         <v>1</v>
       </c>
       <c r="C372" s="98" t="s">
-        <v>1246</v>
+        <v>1239</v>
       </c>
       <c r="D372" s="98" t="s">
-        <v>1247</v>
+        <v>1240</v>
       </c>
       <c r="E372" s="98" t="s">
-        <v>1248</v>
+        <v>1241</v>
       </c>
       <c r="F372" s="98" t="s">
-        <v>1249</v>
+        <v>1242</v>
       </c>
       <c r="G372" s="97">
         <v>21319</v>
@@ -23690,16 +23987,16 @@
         <v>1</v>
       </c>
       <c r="C373" s="98" t="s">
+        <v>1238</v>
+      </c>
+      <c r="D373" s="98" t="s">
+        <v>1243</v>
+      </c>
+      <c r="E373" s="98" t="s">
+        <v>1244</v>
+      </c>
+      <c r="F373" s="98" t="s">
         <v>1245</v>
-      </c>
-      <c r="D373" s="98" t="s">
-        <v>1250</v>
-      </c>
-      <c r="E373" s="98" t="s">
-        <v>1251</v>
-      </c>
-      <c r="F373" s="98" t="s">
-        <v>1252</v>
       </c>
       <c r="G373" s="97">
         <v>21320</v>
@@ -23728,16 +24025,16 @@
         <v>1</v>
       </c>
       <c r="C374" s="98" t="s">
+        <v>1239</v>
+      </c>
+      <c r="D374" s="98" t="s">
         <v>1246</v>
       </c>
-      <c r="D374" s="98" t="s">
-        <v>1253</v>
-      </c>
       <c r="E374" s="98" t="s">
-        <v>1254</v>
+        <v>1247</v>
       </c>
       <c r="F374" s="98" t="s">
-        <v>1252</v>
+        <v>1245</v>
       </c>
       <c r="G374" s="97">
         <v>21321</v>
@@ -23766,16 +24063,16 @@
         <v>1</v>
       </c>
       <c r="C375" s="98" t="s">
-        <v>1246</v>
+        <v>1239</v>
       </c>
       <c r="D375" s="98" t="s">
-        <v>1260</v>
+        <v>1253</v>
       </c>
       <c r="E375" s="100" t="s">
-        <v>1256</v>
+        <v>1249</v>
       </c>
       <c r="F375" s="98" t="s">
-        <v>1257</v>
+        <v>1250</v>
       </c>
       <c r="G375" s="97">
         <v>21322</v>
@@ -23804,16 +24101,16 @@
         <v>1</v>
       </c>
       <c r="C376" s="98" t="s">
-        <v>1246</v>
+        <v>1239</v>
       </c>
       <c r="D376" s="98" t="s">
-        <v>1262</v>
+        <v>1255</v>
       </c>
       <c r="E376" s="100" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
       <c r="F376" s="98" t="s">
-        <v>1257</v>
+        <v>1250</v>
       </c>
       <c r="G376" s="97">
         <v>21323</v>
@@ -23842,16 +24139,16 @@
         <v>1</v>
       </c>
       <c r="C377" s="98" t="s">
-        <v>1246</v>
+        <v>1239</v>
       </c>
       <c r="D377" s="98" t="s">
-        <v>1261</v>
+        <v>1254</v>
       </c>
       <c r="E377" s="100" t="s">
-        <v>1256</v>
+        <v>1249</v>
       </c>
       <c r="F377" s="98" t="s">
-        <v>1257</v>
+        <v>1250</v>
       </c>
       <c r="G377" s="97">
         <v>21324</v>
@@ -23880,16 +24177,16 @@
         <v>1</v>
       </c>
       <c r="C378" s="98" t="s">
-        <v>1246</v>
+        <v>1239</v>
       </c>
       <c r="D378" s="98" t="s">
-        <v>1263</v>
+        <v>1256</v>
       </c>
       <c r="E378" s="100" t="s">
-        <v>1256</v>
+        <v>1249</v>
       </c>
       <c r="F378" s="98" t="s">
-        <v>1257</v>
+        <v>1250</v>
       </c>
       <c r="G378" s="97">
         <v>21325</v>
@@ -23918,13 +24215,13 @@
         <v>1</v>
       </c>
       <c r="C379" s="98" t="s">
-        <v>1246</v>
+        <v>1239</v>
       </c>
       <c r="D379" s="98" t="s">
-        <v>1334</v>
+        <v>1326</v>
       </c>
       <c r="E379" s="100" t="s">
-        <v>1256</v>
+        <v>1249</v>
       </c>
       <c r="F379" s="98" t="s">
         <v>855</v>
@@ -23956,16 +24253,16 @@
         <v>1</v>
       </c>
       <c r="C380" s="98" t="s">
-        <v>1246</v>
+        <v>1239</v>
       </c>
       <c r="D380" s="98" t="s">
-        <v>1264</v>
+        <v>1257</v>
       </c>
       <c r="E380" s="100" t="s">
-        <v>1256</v>
+        <v>1249</v>
       </c>
       <c r="F380" s="98" t="s">
-        <v>1257</v>
+        <v>1250</v>
       </c>
       <c r="G380" s="97">
         <v>21327</v>
@@ -23994,16 +24291,16 @@
         <v>1</v>
       </c>
       <c r="C381" s="98" t="s">
-        <v>1246</v>
+        <v>1239</v>
       </c>
       <c r="D381" s="98" t="s">
-        <v>1265</v>
+        <v>1258</v>
       </c>
       <c r="E381" s="100" t="s">
-        <v>1256</v>
+        <v>1249</v>
       </c>
       <c r="F381" s="98" t="s">
-        <v>1257</v>
+        <v>1250</v>
       </c>
       <c r="G381" s="97">
         <v>21328</v>
@@ -24032,16 +24329,16 @@
         <v>1</v>
       </c>
       <c r="C382" s="98" t="s">
-        <v>1246</v>
+        <v>1239</v>
       </c>
       <c r="D382" s="98" t="s">
-        <v>1266</v>
+        <v>1259</v>
       </c>
       <c r="E382" s="100" t="s">
-        <v>1256</v>
+        <v>1249</v>
       </c>
       <c r="F382" s="98" t="s">
-        <v>1257</v>
+        <v>1250</v>
       </c>
       <c r="G382" s="97">
         <v>21329</v>
@@ -24070,16 +24367,16 @@
         <v>1</v>
       </c>
       <c r="C383" s="98" t="s">
-        <v>1246</v>
+        <v>1239</v>
       </c>
       <c r="D383" s="98" t="s">
-        <v>1267</v>
+        <v>1260</v>
       </c>
       <c r="E383" s="100" t="s">
-        <v>1256</v>
+        <v>1249</v>
       </c>
       <c r="F383" s="98" t="s">
-        <v>1257</v>
+        <v>1250</v>
       </c>
       <c r="G383" s="97">
         <v>21330</v>
@@ -24108,16 +24405,16 @@
         <v>1</v>
       </c>
       <c r="C384" s="98" t="s">
-        <v>1246</v>
+        <v>1239</v>
       </c>
       <c r="D384" s="98" t="s">
-        <v>1309</v>
+        <v>1301</v>
       </c>
       <c r="E384" s="98" t="s">
-        <v>1259</v>
+        <v>1252</v>
       </c>
       <c r="F384" s="98" t="s">
-        <v>1257</v>
+        <v>1250</v>
       </c>
       <c r="G384" s="97">
         <v>21331</v>
@@ -24146,13 +24443,13 @@
         <v>1</v>
       </c>
       <c r="C385" s="98" t="s">
-        <v>1246</v>
+        <v>1239</v>
       </c>
       <c r="D385" s="98" t="s">
-        <v>1310</v>
+        <v>1302</v>
       </c>
       <c r="E385" s="98" t="s">
-        <v>1259</v>
+        <v>1252</v>
       </c>
       <c r="F385" s="98" t="s">
         <v>855</v>
@@ -24184,16 +24481,16 @@
         <v>1</v>
       </c>
       <c r="C386" s="98" t="s">
-        <v>1246</v>
+        <v>1239</v>
       </c>
       <c r="D386" s="98" t="s">
-        <v>1335</v>
+        <v>1327</v>
       </c>
       <c r="E386" s="98" t="s">
-        <v>1259</v>
+        <v>1252</v>
       </c>
       <c r="F386" s="98" t="s">
-        <v>1257</v>
+        <v>1250</v>
       </c>
       <c r="G386" s="97">
         <v>21333</v>
@@ -24222,16 +24519,16 @@
         <v>1</v>
       </c>
       <c r="C387" s="98" t="s">
-        <v>1245</v>
+        <v>1238</v>
       </c>
       <c r="D387" s="98" t="s">
-        <v>1311</v>
+        <v>1303</v>
       </c>
       <c r="E387" s="98" t="s">
-        <v>1259</v>
+        <v>1252</v>
       </c>
       <c r="F387" s="98" t="s">
-        <v>1257</v>
+        <v>1250</v>
       </c>
       <c r="G387" s="97">
         <v>21334</v>
@@ -24260,16 +24557,16 @@
         <v>1</v>
       </c>
       <c r="C388" s="98" t="s">
-        <v>1246</v>
+        <v>1239</v>
       </c>
       <c r="D388" s="98" t="s">
-        <v>1312</v>
+        <v>1304</v>
       </c>
       <c r="E388" s="98" t="s">
-        <v>1259</v>
+        <v>1252</v>
       </c>
       <c r="F388" s="98" t="s">
-        <v>1257</v>
+        <v>1250</v>
       </c>
       <c r="G388" s="97">
         <v>21335</v>
@@ -24298,13 +24595,13 @@
         <v>1</v>
       </c>
       <c r="C389" s="98" t="s">
-        <v>1246</v>
+        <v>1239</v>
       </c>
       <c r="D389" s="98" t="s">
-        <v>1313</v>
+        <v>1305</v>
       </c>
       <c r="E389" s="98" t="s">
-        <v>1259</v>
+        <v>1252</v>
       </c>
       <c r="F389" s="98" t="s">
         <v>855</v>
@@ -24336,16 +24633,16 @@
         <v>1</v>
       </c>
       <c r="C390" s="98" t="s">
-        <v>1246</v>
+        <v>1239</v>
       </c>
       <c r="D390" s="98" t="s">
-        <v>1314</v>
+        <v>1306</v>
       </c>
       <c r="E390" s="98" t="s">
-        <v>1259</v>
+        <v>1252</v>
       </c>
       <c r="F390" s="98" t="s">
-        <v>1257</v>
+        <v>1250</v>
       </c>
       <c r="G390" s="97">
         <v>21337</v>
@@ -24374,16 +24671,16 @@
         <v>1</v>
       </c>
       <c r="C391" s="98" t="s">
-        <v>1245</v>
+        <v>1238</v>
       </c>
       <c r="D391" s="98" t="s">
-        <v>1315</v>
+        <v>1307</v>
       </c>
       <c r="E391" s="98" t="s">
-        <v>1259</v>
+        <v>1252</v>
       </c>
       <c r="F391" s="98" t="s">
-        <v>1257</v>
+        <v>1250</v>
       </c>
       <c r="G391" s="97">
         <v>21338</v>
@@ -24412,16 +24709,16 @@
         <v>1</v>
       </c>
       <c r="C392" s="98" t="s">
-        <v>1245</v>
+        <v>1238</v>
       </c>
       <c r="D392" s="98" t="s">
-        <v>1316</v>
+        <v>1308</v>
       </c>
       <c r="E392" s="98" t="s">
-        <v>1258</v>
+        <v>1251</v>
       </c>
       <c r="F392" s="98" t="s">
-        <v>1257</v>
+        <v>1250</v>
       </c>
       <c r="G392" s="97">
         <v>21339</v>
@@ -24450,16 +24747,16 @@
         <v>1</v>
       </c>
       <c r="C393" s="98" t="s">
-        <v>1322</v>
+        <v>1314</v>
       </c>
       <c r="D393" s="97" t="s">
-        <v>1323</v>
+        <v>1315</v>
       </c>
       <c r="E393" s="100" t="s">
-        <v>1324</v>
+        <v>1316</v>
       </c>
       <c r="F393" s="98" t="s">
-        <v>1371</v>
+        <v>1363</v>
       </c>
       <c r="G393" s="97">
         <v>21340</v>
@@ -24488,16 +24785,16 @@
         <v>1</v>
       </c>
       <c r="C394" s="98" t="s">
-        <v>1355</v>
+        <v>1347</v>
       </c>
       <c r="D394" s="98" t="s">
-        <v>1360</v>
-      </c>
-      <c r="E394" s="97" t="s">
-        <v>12</v>
+        <v>1352</v>
+      </c>
+      <c r="E394" s="98" t="s">
+        <v>1510</v>
       </c>
       <c r="F394" s="98" t="s">
-        <v>1359</v>
+        <v>1351</v>
       </c>
       <c r="G394" s="97">
         <v>21341</v>
@@ -24526,13 +24823,13 @@
         <v>1</v>
       </c>
       <c r="C395" s="102" t="s">
-        <v>1370</v>
+        <v>1362</v>
       </c>
       <c r="D395" s="102" t="s">
-        <v>1376</v>
+        <v>1368</v>
       </c>
       <c r="E395" s="102" t="s">
-        <v>1435</v>
+        <v>1427</v>
       </c>
       <c r="F395" s="102" t="s">
         <v>13</v>
@@ -24564,13 +24861,13 @@
         <v>1</v>
       </c>
       <c r="C396" s="102" t="s">
-        <v>1370</v>
+        <v>1362</v>
       </c>
       <c r="D396" s="102" t="s">
-        <v>1377</v>
+        <v>1369</v>
       </c>
       <c r="E396" s="102" t="s">
-        <v>1435</v>
+        <v>1427</v>
       </c>
       <c r="F396" s="102" t="s">
         <v>13</v>
@@ -24602,13 +24899,13 @@
         <v>1</v>
       </c>
       <c r="C397" s="102" t="s">
+        <v>1362</v>
+      </c>
+      <c r="D397" s="102" t="s">
         <v>1370</v>
       </c>
-      <c r="D397" s="102" t="s">
-        <v>1378</v>
-      </c>
       <c r="E397" s="102" t="s">
-        <v>1435</v>
+        <v>1427</v>
       </c>
       <c r="F397" s="102" t="s">
         <v>13</v>
@@ -24640,13 +24937,13 @@
         <v>1</v>
       </c>
       <c r="C398" s="102" t="s">
-        <v>1370</v>
+        <v>1362</v>
       </c>
       <c r="D398" s="102" t="s">
-        <v>1379</v>
+        <v>1371</v>
       </c>
       <c r="E398" s="102" t="s">
-        <v>1435</v>
+        <v>1427</v>
       </c>
       <c r="F398" s="102" t="s">
         <v>13</v>
@@ -24678,13 +24975,13 @@
         <v>1</v>
       </c>
       <c r="C399" s="102" t="s">
-        <v>1370</v>
+        <v>1362</v>
       </c>
       <c r="D399" s="102" t="s">
-        <v>1380</v>
+        <v>1372</v>
       </c>
       <c r="E399" s="102" t="s">
-        <v>1436</v>
+        <v>1428</v>
       </c>
       <c r="F399" s="102" t="s">
         <v>13</v>
@@ -24716,13 +25013,13 @@
         <v>1</v>
       </c>
       <c r="C400" s="103" t="s">
-        <v>1369</v>
+        <v>1361</v>
       </c>
       <c r="D400" s="104" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="E400" s="104" t="s">
-        <v>1438</v>
+        <v>1430</v>
       </c>
       <c r="F400" s="103" t="s">
         <v>13</v>
@@ -24754,13 +25051,13 @@
         <v>1</v>
       </c>
       <c r="C401" s="103" t="s">
-        <v>1369</v>
+        <v>1361</v>
       </c>
       <c r="D401" s="104" t="s">
-        <v>1375</v>
+        <v>1367</v>
       </c>
       <c r="E401" s="104" t="s">
-        <v>1438</v>
+        <v>1430</v>
       </c>
       <c r="F401" s="103" t="s">
         <v>13</v>
@@ -24792,13 +25089,13 @@
         <v>1</v>
       </c>
       <c r="C402" s="103" t="s">
-        <v>1369</v>
+        <v>1361</v>
       </c>
       <c r="D402" s="104" t="s">
-        <v>1381</v>
+        <v>1373</v>
       </c>
       <c r="E402" s="104" t="s">
-        <v>1438</v>
+        <v>1430</v>
       </c>
       <c r="F402" s="103" t="s">
         <v>13</v>
@@ -24830,13 +25127,13 @@
         <v>1</v>
       </c>
       <c r="C403" s="104" t="s">
-        <v>1392</v>
+        <v>1384</v>
       </c>
       <c r="D403" s="104" t="s">
-        <v>1382</v>
+        <v>1374</v>
       </c>
       <c r="E403" s="104" t="s">
-        <v>1438</v>
+        <v>1430</v>
       </c>
       <c r="F403" s="103" t="s">
         <v>13</v>
@@ -24868,16 +25165,16 @@
         <v>1</v>
       </c>
       <c r="C404" s="49" t="s">
-        <v>1370</v>
+        <v>1362</v>
       </c>
       <c r="D404" s="49" t="s">
-        <v>1393</v>
+        <v>1385</v>
       </c>
       <c r="E404" s="49" t="s">
-        <v>1437</v>
+        <v>1429</v>
       </c>
       <c r="F404" s="49" t="s">
-        <v>1411</v>
+        <v>1403</v>
       </c>
       <c r="G404" s="7">
         <v>21351</v>
@@ -24906,16 +25203,16 @@
         <v>1</v>
       </c>
       <c r="C405" s="49" t="s">
-        <v>1370</v>
+        <v>1362</v>
       </c>
       <c r="D405" s="49" t="s">
-        <v>1394</v>
+        <v>1386</v>
       </c>
       <c r="E405" s="49" t="s">
-        <v>1410</v>
+        <v>1402</v>
       </c>
       <c r="F405" s="49" t="s">
-        <v>1411</v>
+        <v>1403</v>
       </c>
       <c r="G405" s="7">
         <v>21352</v>
@@ -24944,16 +25241,16 @@
         <v>1</v>
       </c>
       <c r="C406" s="49" t="s">
-        <v>1370</v>
+        <v>1362</v>
       </c>
       <c r="D406" s="49" t="s">
-        <v>1395</v>
+        <v>1387</v>
       </c>
       <c r="E406" s="49" t="s">
-        <v>1410</v>
+        <v>1402</v>
       </c>
       <c r="F406" s="49" t="s">
-        <v>1411</v>
+        <v>1403</v>
       </c>
       <c r="G406" s="7">
         <v>21353</v>
@@ -24982,16 +25279,16 @@
         <v>1</v>
       </c>
       <c r="C407" s="49" t="s">
-        <v>1370</v>
+        <v>1362</v>
       </c>
       <c r="D407" s="49" t="s">
-        <v>1396</v>
+        <v>1388</v>
       </c>
       <c r="E407" s="49" t="s">
-        <v>1410</v>
+        <v>1402</v>
       </c>
       <c r="F407" s="49" t="s">
-        <v>1411</v>
+        <v>1403</v>
       </c>
       <c r="G407" s="7">
         <v>21354</v>
@@ -25020,16 +25317,16 @@
         <v>1</v>
       </c>
       <c r="C408" s="49" t="s">
-        <v>1370</v>
+        <v>1362</v>
       </c>
       <c r="D408" s="49" t="s">
-        <v>1397</v>
+        <v>1389</v>
       </c>
       <c r="E408" s="49" t="s">
-        <v>1410</v>
+        <v>1402</v>
       </c>
       <c r="F408" s="49" t="s">
-        <v>1411</v>
+        <v>1403</v>
       </c>
       <c r="G408" s="7">
         <v>21355</v>
@@ -25058,16 +25355,16 @@
         <v>1</v>
       </c>
       <c r="C409" s="49" t="s">
-        <v>1370</v>
+        <v>1362</v>
       </c>
       <c r="D409" s="49" t="s">
-        <v>1398</v>
+        <v>1390</v>
       </c>
       <c r="E409" s="49" t="s">
-        <v>1410</v>
+        <v>1402</v>
       </c>
       <c r="F409" s="49" t="s">
-        <v>1411</v>
+        <v>1403</v>
       </c>
       <c r="G409" s="7">
         <v>21356</v>
@@ -25096,16 +25393,16 @@
         <v>1</v>
       </c>
       <c r="C410" s="49" t="s">
-        <v>1370</v>
+        <v>1362</v>
       </c>
       <c r="D410" s="49" t="s">
-        <v>1399</v>
+        <v>1391</v>
       </c>
       <c r="E410" s="49" t="s">
-        <v>1410</v>
+        <v>1402</v>
       </c>
       <c r="F410" s="49" t="s">
-        <v>1411</v>
+        <v>1403</v>
       </c>
       <c r="G410" s="7">
         <v>21357</v>
@@ -25134,16 +25431,16 @@
         <v>1</v>
       </c>
       <c r="C411" s="49" t="s">
-        <v>1370</v>
+        <v>1362</v>
       </c>
       <c r="D411" s="49" t="s">
-        <v>1400</v>
+        <v>1392</v>
       </c>
       <c r="E411" s="49" t="s">
-        <v>1410</v>
+        <v>1402</v>
       </c>
       <c r="F411" s="49" t="s">
-        <v>1412</v>
+        <v>1404</v>
       </c>
       <c r="G411" s="7">
         <v>21358</v>
@@ -25172,13 +25469,13 @@
         <v>1</v>
       </c>
       <c r="C412" s="7" t="s">
-        <v>1439</v>
+        <v>1431</v>
       </c>
       <c r="D412" s="7" t="s">
-        <v>1440</v>
+        <v>1432</v>
       </c>
       <c r="E412" s="7" t="s">
-        <v>1441</v>
+        <v>1433</v>
       </c>
       <c r="F412" s="7" t="s">
         <v>855</v>
@@ -25210,13 +25507,13 @@
         <v>1</v>
       </c>
       <c r="C413" s="7" t="s">
-        <v>1439</v>
+        <v>1431</v>
       </c>
       <c r="D413" s="7" t="s">
-        <v>1442</v>
+        <v>1434</v>
       </c>
       <c r="E413" s="7" t="s">
-        <v>1441</v>
+        <v>1433</v>
       </c>
       <c r="F413" s="7" t="s">
         <v>855</v>
@@ -25248,13 +25545,13 @@
         <v>1</v>
       </c>
       <c r="C414" s="7" t="s">
-        <v>1439</v>
+        <v>1431</v>
       </c>
       <c r="D414" s="7" t="s">
-        <v>1443</v>
-      </c>
-      <c r="E414" s="7" t="s">
-        <v>1441</v>
+        <v>1435</v>
+      </c>
+      <c r="E414" s="49" t="s">
+        <v>1433</v>
       </c>
       <c r="F414" s="7" t="s">
         <v>855</v>
@@ -25275,6 +25572,538 @@
         <v>1598284799</v>
       </c>
       <c r="L414" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A415" s="9">
+        <v>1000004</v>
+      </c>
+      <c r="B415" s="9">
+        <v>1</v>
+      </c>
+      <c r="C415" s="51" t="s">
+        <v>1451</v>
+      </c>
+      <c r="D415" s="51" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E415" s="51" t="s">
+        <v>1478</v>
+      </c>
+      <c r="F415" s="9" t="s">
+        <v>855</v>
+      </c>
+      <c r="G415" s="9">
+        <v>21362</v>
+      </c>
+      <c r="H415" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I415" s="9">
+        <v>1</v>
+      </c>
+      <c r="J415" s="9">
+        <v>1598284800</v>
+      </c>
+      <c r="K415" s="9">
+        <v>32503651200</v>
+      </c>
+      <c r="L415" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A416" s="9">
+        <v>1000005</v>
+      </c>
+      <c r="B416" s="9">
+        <v>1</v>
+      </c>
+      <c r="C416" s="51" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D416" s="51" t="s">
+        <v>1454</v>
+      </c>
+      <c r="E416" s="51" t="s">
+        <v>1477</v>
+      </c>
+      <c r="F416" s="9" t="s">
+        <v>1501</v>
+      </c>
+      <c r="G416" s="9">
+        <v>21363</v>
+      </c>
+      <c r="H416" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I416" s="9">
+        <v>1</v>
+      </c>
+      <c r="J416" s="9">
+        <v>1598284800</v>
+      </c>
+      <c r="K416" s="9">
+        <v>32503651200</v>
+      </c>
+      <c r="L416" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="417" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A417" s="9">
+        <v>1000006</v>
+      </c>
+      <c r="B417" s="9">
+        <v>1</v>
+      </c>
+      <c r="C417" s="51" t="s">
+        <v>1467</v>
+      </c>
+      <c r="D417" s="51" t="s">
+        <v>1453</v>
+      </c>
+      <c r="E417" s="51" t="s">
+        <v>1479</v>
+      </c>
+      <c r="F417" s="9" t="s">
+        <v>855</v>
+      </c>
+      <c r="G417" s="9">
+        <v>21364</v>
+      </c>
+      <c r="H417" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I417" s="9">
+        <v>1</v>
+      </c>
+      <c r="J417" s="9">
+        <v>1598284800</v>
+      </c>
+      <c r="K417" s="9">
+        <v>32503651200</v>
+      </c>
+      <c r="L417" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="418" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A418" s="9">
+        <v>1000007</v>
+      </c>
+      <c r="B418" s="9">
+        <v>1</v>
+      </c>
+      <c r="C418" s="51" t="s">
+        <v>1467</v>
+      </c>
+      <c r="D418" s="51" t="s">
+        <v>1455</v>
+      </c>
+      <c r="E418" s="51" t="s">
+        <v>1479</v>
+      </c>
+      <c r="F418" s="9" t="s">
+        <v>1501</v>
+      </c>
+      <c r="G418" s="9">
+        <v>21365</v>
+      </c>
+      <c r="H418" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I418" s="9">
+        <v>1</v>
+      </c>
+      <c r="J418" s="9">
+        <v>1598284800</v>
+      </c>
+      <c r="K418" s="9">
+        <v>32503651200</v>
+      </c>
+      <c r="L418" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A419" s="9">
+        <v>1000008</v>
+      </c>
+      <c r="B419" s="9">
+        <v>1</v>
+      </c>
+      <c r="C419" s="51" t="s">
+        <v>1466</v>
+      </c>
+      <c r="D419" s="51" t="s">
+        <v>1456</v>
+      </c>
+      <c r="E419" s="51" t="s">
+        <v>1479</v>
+      </c>
+      <c r="F419" s="9" t="s">
+        <v>1501</v>
+      </c>
+      <c r="G419" s="9">
+        <v>21366</v>
+      </c>
+      <c r="H419" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I419" s="9">
+        <v>1</v>
+      </c>
+      <c r="J419" s="9">
+        <v>1598284800</v>
+      </c>
+      <c r="K419" s="9">
+        <v>32503651200</v>
+      </c>
+      <c r="L419" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A420" s="9">
+        <v>1000009</v>
+      </c>
+      <c r="B420" s="9">
+        <v>1</v>
+      </c>
+      <c r="C420" s="51" t="s">
+        <v>1462</v>
+      </c>
+      <c r="D420" s="51" t="s">
+        <v>1457</v>
+      </c>
+      <c r="E420" s="51" t="s">
+        <v>1480</v>
+      </c>
+      <c r="F420" s="9" t="s">
+        <v>855</v>
+      </c>
+      <c r="G420" s="9">
+        <v>21367</v>
+      </c>
+      <c r="H420" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I420" s="9">
+        <v>1</v>
+      </c>
+      <c r="J420" s="9">
+        <v>1598284800</v>
+      </c>
+      <c r="K420" s="9">
+        <v>32503651200</v>
+      </c>
+      <c r="L420" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="421" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A421" s="9">
+        <v>1000010</v>
+      </c>
+      <c r="B421" s="9">
+        <v>1</v>
+      </c>
+      <c r="C421" s="51" t="s">
+        <v>1465</v>
+      </c>
+      <c r="D421" s="51" t="s">
+        <v>1458</v>
+      </c>
+      <c r="E421" s="51" t="s">
+        <v>1480</v>
+      </c>
+      <c r="F421" s="9" t="s">
+        <v>1501</v>
+      </c>
+      <c r="G421" s="9">
+        <v>21368</v>
+      </c>
+      <c r="H421" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I421" s="9">
+        <v>1</v>
+      </c>
+      <c r="J421" s="9">
+        <v>1598284800</v>
+      </c>
+      <c r="K421" s="9">
+        <v>32503651200</v>
+      </c>
+      <c r="L421" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A422" s="9">
+        <v>1000011</v>
+      </c>
+      <c r="B422" s="9">
+        <v>1</v>
+      </c>
+      <c r="C422" s="51" t="s">
+        <v>1464</v>
+      </c>
+      <c r="D422" s="51" t="s">
+        <v>1459</v>
+      </c>
+      <c r="E422" s="51" t="s">
+        <v>1480</v>
+      </c>
+      <c r="F422" s="9" t="s">
+        <v>1501</v>
+      </c>
+      <c r="G422" s="9">
+        <v>21369</v>
+      </c>
+      <c r="H422" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I422" s="9">
+        <v>1</v>
+      </c>
+      <c r="J422" s="9">
+        <v>1598284800</v>
+      </c>
+      <c r="K422" s="9">
+        <v>32503651200</v>
+      </c>
+      <c r="L422" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A423" s="9">
+        <v>1000012</v>
+      </c>
+      <c r="B423" s="9">
+        <v>1</v>
+      </c>
+      <c r="C423" s="51" t="s">
+        <v>1463</v>
+      </c>
+      <c r="D423" s="51" t="s">
+        <v>1460</v>
+      </c>
+      <c r="E423" s="51" t="s">
+        <v>1480</v>
+      </c>
+      <c r="F423" s="9" t="s">
+        <v>1501</v>
+      </c>
+      <c r="G423" s="9">
+        <v>21370</v>
+      </c>
+      <c r="H423" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I423" s="9">
+        <v>1</v>
+      </c>
+      <c r="J423" s="9">
+        <v>1598284800</v>
+      </c>
+      <c r="K423" s="9">
+        <v>32503651200</v>
+      </c>
+      <c r="L423" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A424" s="9">
+        <v>1000013</v>
+      </c>
+      <c r="B424" s="9">
+        <v>1</v>
+      </c>
+      <c r="C424" s="51" t="s">
+        <v>1462</v>
+      </c>
+      <c r="D424" s="51" t="s">
+        <v>1461</v>
+      </c>
+      <c r="E424" s="51" t="s">
+        <v>1480</v>
+      </c>
+      <c r="F424" s="9" t="s">
+        <v>1501</v>
+      </c>
+      <c r="G424" s="9">
+        <v>21371</v>
+      </c>
+      <c r="H424" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I424" s="9">
+        <v>1</v>
+      </c>
+      <c r="J424" s="9">
+        <v>1598284800</v>
+      </c>
+      <c r="K424" s="9">
+        <v>32503651200</v>
+      </c>
+      <c r="L424" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:12" s="113" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A425" s="113">
+        <v>1000014</v>
+      </c>
+      <c r="B425" s="113">
+        <v>1</v>
+      </c>
+      <c r="C425" s="114" t="s">
+        <v>1502</v>
+      </c>
+      <c r="D425" s="114" t="s">
+        <v>1505</v>
+      </c>
+      <c r="E425" s="114" t="s">
+        <v>1511</v>
+      </c>
+      <c r="F425" s="113" t="s">
+        <v>855</v>
+      </c>
+      <c r="G425" s="113">
+        <v>21372</v>
+      </c>
+      <c r="H425" s="113" t="b">
+        <v>1</v>
+      </c>
+      <c r="I425" s="113">
+        <v>1</v>
+      </c>
+      <c r="J425" s="113">
+        <v>1598284800</v>
+      </c>
+      <c r="K425" s="113">
+        <v>32503651200</v>
+      </c>
+      <c r="L425" s="113">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:12" s="113" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A426" s="113">
+        <v>1000015</v>
+      </c>
+      <c r="B426" s="113">
+        <v>1</v>
+      </c>
+      <c r="C426" s="114" t="s">
+        <v>1503</v>
+      </c>
+      <c r="D426" s="114" t="s">
+        <v>1506</v>
+      </c>
+      <c r="E426" s="114" t="s">
+        <v>1512</v>
+      </c>
+      <c r="F426" s="113" t="s">
+        <v>855</v>
+      </c>
+      <c r="G426" s="113">
+        <v>21373</v>
+      </c>
+      <c r="H426" s="113" t="b">
+        <v>1</v>
+      </c>
+      <c r="I426" s="113">
+        <v>1</v>
+      </c>
+      <c r="J426" s="113">
+        <v>1598284800</v>
+      </c>
+      <c r="K426" s="113">
+        <v>32503651200</v>
+      </c>
+      <c r="L426" s="113">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="427" spans="1:12" s="113" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A427" s="113">
+        <v>1000016</v>
+      </c>
+      <c r="B427" s="113">
+        <v>1</v>
+      </c>
+      <c r="C427" s="114" t="s">
+        <v>1504</v>
+      </c>
+      <c r="D427" s="114" t="s">
+        <v>1507</v>
+      </c>
+      <c r="E427" s="114" t="s">
+        <v>1511</v>
+      </c>
+      <c r="F427" s="113" t="s">
+        <v>855</v>
+      </c>
+      <c r="G427" s="113">
+        <v>21374</v>
+      </c>
+      <c r="H427" s="113" t="b">
+        <v>1</v>
+      </c>
+      <c r="I427" s="113">
+        <v>1</v>
+      </c>
+      <c r="J427" s="113">
+        <v>1598284800</v>
+      </c>
+      <c r="K427" s="113">
+        <v>32503651200</v>
+      </c>
+      <c r="L427" s="113">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:12" s="113" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A428" s="113">
+        <v>1000017</v>
+      </c>
+      <c r="B428" s="113">
+        <v>1</v>
+      </c>
+      <c r="C428" s="114" t="s">
+        <v>1508</v>
+      </c>
+      <c r="D428" s="114" t="s">
+        <v>1509</v>
+      </c>
+      <c r="E428" s="114" t="s">
+        <v>1513</v>
+      </c>
+      <c r="F428" s="113" t="s">
+        <v>855</v>
+      </c>
+      <c r="G428" s="113">
+        <v>21375</v>
+      </c>
+      <c r="H428" s="113" t="b">
+        <v>1</v>
+      </c>
+      <c r="I428" s="113">
+        <v>1</v>
+      </c>
+      <c r="J428" s="113">
+        <v>1598284800</v>
+      </c>
+      <c r="K428" s="113">
+        <v>32503651200</v>
+      </c>
+      <c r="L428" s="113">
         <v>-1</v>
       </c>
     </row>
@@ -25289,13 +26118,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:K414"/>
+  <dimension ref="A1:K428"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E394" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C405" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I414" sqref="I414"/>
+      <selection pane="bottomRight" activeCell="D428" sqref="D428"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -25323,7 +26152,7 @@
         <v>380</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>1218</v>
+        <v>1213</v>
       </c>
       <c r="F1" s="34" t="s">
         <v>381</v>
@@ -30118,7 +30947,7 @@
       </c>
       <c r="E179" s="10"/>
       <c r="F179" s="82" t="s">
-        <v>1219</v>
+        <v>1214</v>
       </c>
       <c r="G179" s="79"/>
       <c r="H179" s="83" t="s">
@@ -30265,7 +31094,7 @@
         <v>21132</v>
       </c>
       <c r="C185" s="13" t="s">
-        <v>1208</v>
+        <v>1203</v>
       </c>
       <c r="D185" s="11">
         <v>184</v>
@@ -30486,7 +31315,7 @@
         <v>0</v>
       </c>
       <c r="F193" s="82" t="s">
-        <v>1341</v>
+        <v>1333</v>
       </c>
       <c r="G193" s="79"/>
       <c r="H193" s="83" t="s">
@@ -30511,7 +31340,7 @@
         <v>0</v>
       </c>
       <c r="F194" s="82" t="s">
-        <v>1342</v>
+        <v>1334</v>
       </c>
       <c r="G194" s="79"/>
       <c r="H194" s="83" t="s">
@@ -30536,7 +31365,7 @@
         <v>0</v>
       </c>
       <c r="F195" s="82" t="s">
-        <v>1343</v>
+        <v>1335</v>
       </c>
       <c r="G195" s="79"/>
       <c r="H195" s="83" t="s">
@@ -30561,7 +31390,7 @@
         <v>0</v>
       </c>
       <c r="F196" s="82" t="s">
-        <v>1354</v>
+        <v>1346</v>
       </c>
       <c r="G196" s="79"/>
       <c r="H196" s="83" t="s">
@@ -30586,7 +31415,7 @@
         <v>0</v>
       </c>
       <c r="F197" s="82" t="s">
-        <v>1353</v>
+        <v>1345</v>
       </c>
       <c r="G197" s="79"/>
       <c r="H197" s="83" t="s">
@@ -32503,7 +33332,7 @@
         <v>21216</v>
       </c>
       <c r="C269" s="13" t="s">
-        <v>1217</v>
+        <v>1212</v>
       </c>
       <c r="D269" s="11">
         <v>268</v>
@@ -34881,14 +35710,14 @@
       </c>
       <c r="E368" s="11"/>
       <c r="F368" s="40" t="s">
-        <v>1226</v>
+        <v>1219</v>
       </c>
       <c r="G368" s="35"/>
       <c r="H368" s="15" t="s">
-        <v>1231</v>
+        <v>1224</v>
       </c>
       <c r="I368" s="13" t="s">
-        <v>1204</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="369" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -34904,14 +35733,14 @@
       </c>
       <c r="E369" s="11"/>
       <c r="F369" s="40" t="s">
-        <v>1227</v>
+        <v>1220</v>
       </c>
       <c r="G369" s="35"/>
       <c r="H369" s="15" t="s">
-        <v>1232</v>
+        <v>1225</v>
       </c>
       <c r="I369" s="13" t="s">
-        <v>1205</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="370" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -34927,14 +35756,14 @@
       </c>
       <c r="E370" s="11"/>
       <c r="F370" s="40" t="s">
-        <v>1228</v>
+        <v>1221</v>
       </c>
       <c r="G370" s="35"/>
       <c r="H370" s="15" t="s">
-        <v>1233</v>
+        <v>1226</v>
       </c>
       <c r="I370" s="13" t="s">
-        <v>1205</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="371" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -34950,14 +35779,14 @@
       </c>
       <c r="E371" s="11"/>
       <c r="F371" s="40" t="s">
-        <v>1229</v>
+        <v>1222</v>
       </c>
       <c r="G371" s="35"/>
       <c r="H371" s="15" t="s">
-        <v>1230</v>
+        <v>1223</v>
       </c>
       <c r="I371" s="13" t="s">
-        <v>1205</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="372" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -34973,14 +35802,14 @@
       </c>
       <c r="E372" s="11"/>
       <c r="F372" s="40" t="s">
-        <v>1268</v>
+        <v>1261</v>
       </c>
       <c r="G372" s="35"/>
       <c r="H372" s="15" t="s">
-        <v>1286</v>
+        <v>1279</v>
       </c>
       <c r="I372" s="13" t="s">
-        <v>1269</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="373" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -34994,12 +35823,12 @@
       <c r="D373" s="11"/>
       <c r="E373" s="11"/>
       <c r="F373" s="40" t="s">
-        <v>1270</v>
+        <v>1263</v>
       </c>
       <c r="G373" s="35"/>
       <c r="H373" s="15"/>
       <c r="I373" s="13" t="s">
-        <v>1271</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="374" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -35013,12 +35842,12 @@
       <c r="D374" s="11"/>
       <c r="E374" s="11"/>
       <c r="F374" s="40" t="s">
-        <v>1272</v>
+        <v>1265</v>
       </c>
       <c r="G374" s="35"/>
       <c r="H374" s="15"/>
       <c r="I374" s="13" t="s">
-        <v>1273</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="375" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -35034,14 +35863,14 @@
       </c>
       <c r="E375" s="11"/>
       <c r="F375" s="40" t="s">
-        <v>1283</v>
+        <v>1276</v>
       </c>
       <c r="G375" s="35"/>
       <c r="H375" s="15" t="s">
-        <v>1287</v>
+        <v>1280</v>
       </c>
       <c r="I375" s="13" t="s">
-        <v>1274</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="376" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -35057,14 +35886,14 @@
       </c>
       <c r="E376" s="11"/>
       <c r="F376" s="40" t="s">
-        <v>1284</v>
+        <v>1277</v>
       </c>
       <c r="G376" s="35"/>
       <c r="H376" s="15" t="s">
-        <v>1287</v>
+        <v>1280</v>
       </c>
       <c r="I376" s="13" t="s">
-        <v>1275</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="377" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -35080,14 +35909,14 @@
       </c>
       <c r="E377" s="11"/>
       <c r="F377" s="40" t="s">
-        <v>1284</v>
+        <v>1277</v>
       </c>
       <c r="G377" s="35"/>
       <c r="H377" s="15" t="s">
-        <v>1287</v>
+        <v>1280</v>
       </c>
       <c r="I377" s="13" t="s">
-        <v>1276</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="378" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -35103,14 +35932,14 @@
       </c>
       <c r="E378" s="11"/>
       <c r="F378" s="40" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G378" s="35"/>
       <c r="H378" s="15" t="s">
-        <v>1287</v>
+        <v>1280</v>
       </c>
       <c r="I378" s="13" t="s">
-        <v>1275</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="379" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -35126,14 +35955,14 @@
       </c>
       <c r="E379" s="11"/>
       <c r="F379" s="40" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G379" s="35"/>
       <c r="H379" s="15" t="s">
-        <v>1287</v>
+        <v>1280</v>
       </c>
       <c r="I379" s="13" t="s">
-        <v>1277</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="380" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -35149,14 +35978,14 @@
       </c>
       <c r="E380" s="11"/>
       <c r="F380" s="40" t="s">
-        <v>1283</v>
+        <v>1276</v>
       </c>
       <c r="G380" s="35"/>
       <c r="H380" s="15" t="s">
-        <v>1287</v>
+        <v>1280</v>
       </c>
       <c r="I380" s="13" t="s">
-        <v>1271</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="381" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -35172,14 +36001,14 @@
       </c>
       <c r="E381" s="11"/>
       <c r="F381" s="40" t="s">
-        <v>1284</v>
+        <v>1277</v>
       </c>
       <c r="G381" s="35"/>
       <c r="H381" s="15" t="s">
-        <v>1287</v>
+        <v>1280</v>
       </c>
       <c r="I381" s="13" t="s">
-        <v>1278</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="382" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -35195,14 +36024,14 @@
       </c>
       <c r="E382" s="11"/>
       <c r="F382" s="40" t="s">
-        <v>1284</v>
+        <v>1277</v>
       </c>
       <c r="G382" s="35"/>
       <c r="H382" s="15" t="s">
-        <v>1287</v>
+        <v>1280</v>
       </c>
       <c r="I382" s="13" t="s">
-        <v>1279</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="383" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -35218,14 +36047,14 @@
       </c>
       <c r="E383" s="11"/>
       <c r="F383" s="40" t="s">
-        <v>1284</v>
+        <v>1277</v>
       </c>
       <c r="G383" s="35"/>
       <c r="H383" s="15" t="s">
-        <v>1287</v>
+        <v>1280</v>
       </c>
       <c r="I383" s="13" t="s">
-        <v>1276</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="384" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -35241,14 +36070,14 @@
       </c>
       <c r="E384" s="11"/>
       <c r="F384" s="40" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
       <c r="G384" s="35"/>
       <c r="H384" s="15" t="s">
-        <v>1288</v>
+        <v>1281</v>
       </c>
       <c r="I384" s="13" t="s">
-        <v>1275</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="385" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -35266,14 +36095,14 @@
         <v>258</v>
       </c>
       <c r="F385" s="40" t="s">
-        <v>1280</v>
+        <v>1273</v>
       </c>
       <c r="G385" s="35"/>
       <c r="H385" s="15" t="s">
-        <v>1288</v>
+        <v>1281</v>
       </c>
       <c r="I385" s="13" t="s">
-        <v>1277</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="386" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -35291,14 +36120,14 @@
         <v>259</v>
       </c>
       <c r="F386" s="40" t="s">
-        <v>1280</v>
+        <v>1273</v>
       </c>
       <c r="G386" s="35"/>
       <c r="H386" s="15" t="s">
-        <v>1288</v>
+        <v>1281</v>
       </c>
       <c r="I386" s="13" t="s">
-        <v>1273</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="387" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -35314,14 +36143,14 @@
       </c>
       <c r="E387" s="11"/>
       <c r="F387" s="40" t="s">
-        <v>1318</v>
+        <v>1310</v>
       </c>
       <c r="G387" s="35"/>
       <c r="H387" s="15" t="s">
-        <v>1288</v>
+        <v>1281</v>
       </c>
       <c r="I387" s="13" t="s">
-        <v>1281</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="388" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -35337,14 +36166,14 @@
       </c>
       <c r="E388" s="11"/>
       <c r="F388" s="40" t="s">
-        <v>1318</v>
+        <v>1310</v>
       </c>
       <c r="G388" s="35"/>
       <c r="H388" s="15" t="s">
-        <v>1288</v>
+        <v>1281</v>
       </c>
       <c r="I388" s="13" t="s">
-        <v>1273</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="389" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -35362,14 +36191,14 @@
         <v>260</v>
       </c>
       <c r="F389" s="40" t="s">
-        <v>1280</v>
+        <v>1273</v>
       </c>
       <c r="G389" s="35"/>
       <c r="H389" s="15" t="s">
-        <v>1288</v>
+        <v>1281</v>
       </c>
       <c r="I389" s="13" t="s">
-        <v>1277</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="390" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -35385,14 +36214,14 @@
       </c>
       <c r="E390" s="11"/>
       <c r="F390" s="40" t="s">
-        <v>1318</v>
+        <v>1310</v>
       </c>
       <c r="G390" s="35"/>
       <c r="H390" s="15" t="s">
-        <v>1288</v>
+        <v>1281</v>
       </c>
       <c r="I390" s="13" t="s">
-        <v>1271</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="391" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -35410,14 +36239,14 @@
         <v>261</v>
       </c>
       <c r="F391" s="40" t="s">
-        <v>1280</v>
+        <v>1273</v>
       </c>
       <c r="G391" s="35"/>
       <c r="H391" s="15" t="s">
-        <v>1288</v>
+        <v>1281</v>
       </c>
       <c r="I391" s="13" t="s">
-        <v>1277</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="392" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -35435,14 +36264,14 @@
         <v>262</v>
       </c>
       <c r="F392" s="40" t="s">
-        <v>1282</v>
+        <v>1275</v>
       </c>
       <c r="G392" s="35"/>
       <c r="H392" s="15" t="s">
-        <v>1288</v>
+        <v>1281</v>
       </c>
       <c r="I392" s="13" t="s">
-        <v>1273</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="393" spans="1:9" s="6" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -35458,11 +36287,11 @@
       </c>
       <c r="E393" s="11"/>
       <c r="F393" s="40" t="s">
-        <v>1361</v>
+        <v>1353</v>
       </c>
       <c r="G393" s="35"/>
       <c r="H393" s="40" t="s">
-        <v>1333</v>
+        <v>1325</v>
       </c>
       <c r="I393" s="13" t="s">
         <v>387</v>
@@ -35483,11 +36312,11 @@
         <v>263</v>
       </c>
       <c r="F394" s="40" t="s">
-        <v>1368</v>
+        <v>1360</v>
       </c>
       <c r="G394" s="35"/>
       <c r="H394" s="15" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
       <c r="I394" s="11"/>
     </row>
@@ -35508,7 +36337,7 @@
       </c>
       <c r="G395" s="108"/>
       <c r="H395" s="109" t="s">
-        <v>1401</v>
+        <v>1393</v>
       </c>
       <c r="I395" s="106" t="s">
         <v>387</v>
@@ -35531,7 +36360,7 @@
       </c>
       <c r="G396" s="108"/>
       <c r="H396" s="109" t="s">
-        <v>1402</v>
+        <v>1394</v>
       </c>
       <c r="I396" s="106" t="s">
         <v>387</v>
@@ -35554,7 +36383,7 @@
       </c>
       <c r="G397" s="108"/>
       <c r="H397" s="109" t="s">
-        <v>1403</v>
+        <v>1395</v>
       </c>
       <c r="I397" s="106" t="s">
         <v>387</v>
@@ -35577,7 +36406,7 @@
       </c>
       <c r="G398" s="108"/>
       <c r="H398" s="109" t="s">
-        <v>1404</v>
+        <v>1396</v>
       </c>
       <c r="I398" s="106" t="s">
         <v>387</v>
@@ -35600,7 +36429,7 @@
       </c>
       <c r="G399" s="108"/>
       <c r="H399" s="109" t="s">
-        <v>1405</v>
+        <v>1397</v>
       </c>
       <c r="I399" s="106" t="s">
         <v>387</v>
@@ -35623,7 +36452,7 @@
       </c>
       <c r="G400" s="108"/>
       <c r="H400" s="109" t="s">
-        <v>1406</v>
+        <v>1398</v>
       </c>
       <c r="I400" s="106" t="s">
         <v>387</v>
@@ -35646,7 +36475,7 @@
       </c>
       <c r="G401" s="108"/>
       <c r="H401" s="109" t="s">
-        <v>1407</v>
+        <v>1399</v>
       </c>
       <c r="I401" s="106" t="s">
         <v>387</v>
@@ -35669,7 +36498,7 @@
       </c>
       <c r="G402" s="108"/>
       <c r="H402" s="109" t="s">
-        <v>1408</v>
+        <v>1400</v>
       </c>
       <c r="I402" s="106" t="s">
         <v>387</v>
@@ -35692,7 +36521,7 @@
       </c>
       <c r="G403" s="108"/>
       <c r="H403" s="109" t="s">
-        <v>1409</v>
+        <v>1401</v>
       </c>
       <c r="I403" s="106" t="s">
         <v>387</v>
@@ -35709,7 +36538,7 @@
         <v>400</v>
       </c>
       <c r="F404" s="111" t="s">
-        <v>1413</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="405" spans="1:9" x14ac:dyDescent="0.2">
@@ -35723,7 +36552,7 @@
         <v>401</v>
       </c>
       <c r="F405" s="111" t="s">
-        <v>1414</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="406" spans="1:9" x14ac:dyDescent="0.2">
@@ -35737,7 +36566,7 @@
         <v>402</v>
       </c>
       <c r="F406" s="111" t="s">
-        <v>1415</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="407" spans="1:9" x14ac:dyDescent="0.2">
@@ -35751,7 +36580,7 @@
         <v>403</v>
       </c>
       <c r="F407" s="111" t="s">
-        <v>1416</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="408" spans="1:9" x14ac:dyDescent="0.2">
@@ -35765,7 +36594,7 @@
         <v>404</v>
       </c>
       <c r="F408" s="111" t="s">
-        <v>1417</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="409" spans="1:9" x14ac:dyDescent="0.2">
@@ -35779,7 +36608,7 @@
         <v>405</v>
       </c>
       <c r="F409" s="111" t="s">
-        <v>1418</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="410" spans="1:9" x14ac:dyDescent="0.2">
@@ -35793,7 +36622,7 @@
         <v>406</v>
       </c>
       <c r="F410" s="111" t="s">
-        <v>1419</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="411" spans="1:9" x14ac:dyDescent="0.2">
@@ -35804,7 +36633,7 @@
         <v>21358</v>
       </c>
       <c r="F411" s="111" t="s">
-        <v>1420</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="412" spans="1:9" x14ac:dyDescent="0.2">
@@ -35818,13 +36647,13 @@
         <v>407</v>
       </c>
       <c r="F412" s="32" t="s">
-        <v>1444</v>
+        <v>1436</v>
       </c>
       <c r="H412" s="65" t="s">
-        <v>1455</v>
+        <v>1447</v>
       </c>
       <c r="I412" s="14" t="s">
-        <v>1447</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="413" spans="1:9" x14ac:dyDescent="0.2">
@@ -35838,13 +36667,13 @@
         <v>408</v>
       </c>
       <c r="F413" s="32" t="s">
-        <v>1445</v>
+        <v>1437</v>
       </c>
       <c r="H413" s="65" t="s">
-        <v>1456</v>
+        <v>1448</v>
       </c>
       <c r="I413" s="14" t="s">
-        <v>1447</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="414" spans="1:9" x14ac:dyDescent="0.2">
@@ -35858,13 +36687,353 @@
         <v>409</v>
       </c>
       <c r="F414" s="111" t="s">
-        <v>1446</v>
+        <v>1438</v>
       </c>
       <c r="H414" s="65" t="s">
-        <v>1457</v>
+        <v>1449</v>
       </c>
       <c r="I414" s="14" t="s">
-        <v>1447</v>
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="415" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A415" s="10">
+        <v>414</v>
+      </c>
+      <c r="B415" s="9">
+        <v>21362</v>
+      </c>
+      <c r="C415" s="19"/>
+      <c r="D415" s="10">
+        <v>410</v>
+      </c>
+      <c r="E415" s="10">
+        <v>0</v>
+      </c>
+      <c r="F415" s="82" t="s">
+        <v>450</v>
+      </c>
+      <c r="G415" s="79"/>
+      <c r="H415" s="83" t="s">
+        <v>1468</v>
+      </c>
+      <c r="I415" s="19" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="416" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A416" s="10">
+        <v>415</v>
+      </c>
+      <c r="B416" s="9">
+        <v>21363</v>
+      </c>
+      <c r="C416" s="19"/>
+      <c r="D416" s="10">
+        <v>411</v>
+      </c>
+      <c r="E416" s="10">
+        <v>0</v>
+      </c>
+      <c r="F416" s="82" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G416" s="79"/>
+      <c r="H416" s="83" t="s">
+        <v>1488</v>
+      </c>
+      <c r="I416" s="19" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="417" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A417" s="9">
+        <v>416</v>
+      </c>
+      <c r="B417" s="9">
+        <v>21364</v>
+      </c>
+      <c r="C417" s="19"/>
+      <c r="D417" s="10">
+        <v>412</v>
+      </c>
+      <c r="E417" s="10">
+        <v>0</v>
+      </c>
+      <c r="F417" s="82" t="s">
+        <v>1471</v>
+      </c>
+      <c r="G417" s="79"/>
+      <c r="H417" s="83" t="s">
+        <v>1489</v>
+      </c>
+      <c r="I417" s="19" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="418" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A418" s="9">
+        <v>417</v>
+      </c>
+      <c r="B418" s="9">
+        <v>21365</v>
+      </c>
+      <c r="C418" s="19"/>
+      <c r="D418" s="10">
+        <v>413</v>
+      </c>
+      <c r="E418" s="10">
+        <v>0</v>
+      </c>
+      <c r="F418" s="82" t="s">
+        <v>1472</v>
+      </c>
+      <c r="G418" s="79"/>
+      <c r="H418" s="83" t="s">
+        <v>1489</v>
+      </c>
+      <c r="I418" s="19" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="419" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A419" s="9">
+        <v>418</v>
+      </c>
+      <c r="B419" s="9">
+        <v>21366</v>
+      </c>
+      <c r="C419" s="19"/>
+      <c r="D419" s="10">
+        <v>414</v>
+      </c>
+      <c r="E419" s="10">
+        <v>0</v>
+      </c>
+      <c r="F419" s="82" t="s">
+        <v>1473</v>
+      </c>
+      <c r="G419" s="79"/>
+      <c r="H419" s="83" t="s">
+        <v>1489</v>
+      </c>
+      <c r="I419" s="19" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="420" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A420" s="9">
+        <v>419</v>
+      </c>
+      <c r="B420" s="9">
+        <v>21367</v>
+      </c>
+      <c r="C420" s="19"/>
+      <c r="D420" s="10">
+        <v>415</v>
+      </c>
+      <c r="E420" s="10">
+        <v>0</v>
+      </c>
+      <c r="F420" s="82" t="s">
+        <v>1481</v>
+      </c>
+      <c r="G420" s="79"/>
+      <c r="H420" s="83" t="s">
+        <v>1490</v>
+      </c>
+      <c r="I420" s="19" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="421" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A421" s="9">
+        <v>420</v>
+      </c>
+      <c r="B421" s="9">
+        <v>21368</v>
+      </c>
+      <c r="C421" s="19"/>
+      <c r="D421" s="10">
+        <v>416</v>
+      </c>
+      <c r="E421" s="10">
+        <v>0</v>
+      </c>
+      <c r="F421" s="82" t="s">
+        <v>1484</v>
+      </c>
+      <c r="G421" s="79"/>
+      <c r="H421" s="83" t="s">
+        <v>1490</v>
+      </c>
+      <c r="I421" s="19" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="422" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A422" s="9">
+        <v>421</v>
+      </c>
+      <c r="B422" s="9">
+        <v>21369</v>
+      </c>
+      <c r="C422" s="19"/>
+      <c r="D422" s="10">
+        <v>417</v>
+      </c>
+      <c r="E422" s="10">
+        <v>0</v>
+      </c>
+      <c r="F422" s="82" t="s">
+        <v>1485</v>
+      </c>
+      <c r="G422" s="79"/>
+      <c r="H422" s="83" t="s">
+        <v>1490</v>
+      </c>
+      <c r="I422" s="19" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="423" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A423" s="9">
+        <v>422</v>
+      </c>
+      <c r="B423" s="9">
+        <v>21370</v>
+      </c>
+      <c r="C423" s="19"/>
+      <c r="D423" s="10">
+        <v>418</v>
+      </c>
+      <c r="E423" s="10">
+        <v>0</v>
+      </c>
+      <c r="F423" s="82" t="s">
+        <v>1486</v>
+      </c>
+      <c r="G423" s="79"/>
+      <c r="H423" s="83" t="s">
+        <v>1490</v>
+      </c>
+      <c r="I423" s="19" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="424" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A424" s="9">
+        <v>423</v>
+      </c>
+      <c r="B424" s="9">
+        <v>21371</v>
+      </c>
+      <c r="C424" s="10"/>
+      <c r="D424" s="10">
+        <v>419</v>
+      </c>
+      <c r="E424" s="10"/>
+      <c r="F424" s="82" t="s">
+        <v>1008</v>
+      </c>
+      <c r="G424" s="79"/>
+      <c r="H424" s="83" t="s">
+        <v>1490</v>
+      </c>
+      <c r="I424" s="19" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="425" spans="1:9" s="120" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A425" s="113">
+        <v>424</v>
+      </c>
+      <c r="B425" s="113">
+        <v>21372</v>
+      </c>
+      <c r="C425" s="115"/>
+      <c r="D425" s="115">
+        <v>420</v>
+      </c>
+      <c r="E425" s="115"/>
+      <c r="F425" s="116" t="s">
+        <v>1008</v>
+      </c>
+      <c r="G425" s="117"/>
+      <c r="H425" s="118" t="s">
+        <v>1520</v>
+      </c>
+      <c r="I425" s="119" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="426" spans="1:9" s="120" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A426" s="113">
+        <v>425</v>
+      </c>
+      <c r="B426" s="113">
+        <v>21373</v>
+      </c>
+      <c r="C426" s="115"/>
+      <c r="D426" s="115">
+        <v>421</v>
+      </c>
+      <c r="E426" s="115"/>
+      <c r="F426" s="116" t="s">
+        <v>1008</v>
+      </c>
+      <c r="G426" s="117"/>
+      <c r="H426" s="118" t="s">
+        <v>1520</v>
+      </c>
+      <c r="I426" s="119" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="427" spans="1:9" s="120" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A427" s="113">
+        <v>426</v>
+      </c>
+      <c r="B427" s="113">
+        <v>21374</v>
+      </c>
+      <c r="C427" s="115"/>
+      <c r="D427" s="115">
+        <v>422</v>
+      </c>
+      <c r="E427" s="115"/>
+      <c r="F427" s="116" t="s">
+        <v>1008</v>
+      </c>
+      <c r="G427" s="117"/>
+      <c r="H427" s="118" t="s">
+        <v>1520</v>
+      </c>
+      <c r="I427" s="119" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="428" spans="1:9" s="120" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A428" s="113">
+        <v>427</v>
+      </c>
+      <c r="B428" s="113">
+        <v>21375</v>
+      </c>
+      <c r="C428" s="115"/>
+      <c r="D428" s="115">
+        <v>423</v>
+      </c>
+      <c r="E428" s="115"/>
+      <c r="F428" s="116" t="s">
+        <v>1525</v>
+      </c>
+      <c r="G428" s="117"/>
+      <c r="H428" s="118" t="s">
+        <v>1521</v>
+      </c>
+      <c r="I428" s="119" t="s">
+        <v>1439</v>
       </c>
     </row>
   </sheetData>
@@ -35877,10 +37046,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I579"/>
+  <dimension ref="A1:I592"/>
   <sheetViews>
-    <sheetView topLeftCell="A547" workbookViewId="0">
-      <selection activeCell="D582" sqref="D582"/>
+    <sheetView topLeftCell="A563" workbookViewId="0">
+      <selection activeCell="C590" sqref="C590:D592"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -36089,7 +37258,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>1349</v>
+        <v>1341</v>
       </c>
       <c r="D14" s="11">
         <v>0</v>
@@ -37394,7 +38563,7 @@
         <v>83</v>
       </c>
       <c r="C105" s="13" t="s">
-        <v>468</v>
+        <v>1515</v>
       </c>
       <c r="D105" s="11">
         <v>49</v>
@@ -37660,7 +38829,7 @@
         <v>102</v>
       </c>
       <c r="C124" s="13" t="s">
-        <v>409</v>
+        <v>1483</v>
       </c>
       <c r="D124" s="11">
         <v>67</v>
@@ -39091,7 +40260,7 @@
         <v>178</v>
       </c>
       <c r="C224" s="85" t="s">
-        <v>1223</v>
+        <v>1218</v>
       </c>
       <c r="D224" s="60">
         <v>257</v>
@@ -39284,7 +40453,7 @@
         <v>184</v>
       </c>
       <c r="C237" s="13" t="s">
-        <v>1321</v>
+        <v>1313</v>
       </c>
       <c r="D237" s="11">
         <v>0</v>
@@ -39410,7 +40579,7 @@
         <v>185</v>
       </c>
       <c r="C245" s="13" t="s">
-        <v>1209</v>
+        <v>1204</v>
       </c>
       <c r="D245" s="11">
         <v>0</v>
@@ -39536,7 +40705,7 @@
         <v>186</v>
       </c>
       <c r="C253" s="13" t="s">
-        <v>1209</v>
+        <v>1204</v>
       </c>
       <c r="D253" s="11">
         <v>0</v>
@@ -39662,7 +40831,7 @@
         <v>187</v>
       </c>
       <c r="C261" s="13" t="s">
-        <v>1209</v>
+        <v>1204</v>
       </c>
       <c r="D261" s="11">
         <v>0</v>
@@ -39788,7 +40957,7 @@
         <v>188</v>
       </c>
       <c r="C269" s="13" t="s">
-        <v>1209</v>
+        <v>1204</v>
       </c>
       <c r="D269" s="11">
         <v>0</v>
@@ -39914,7 +41083,7 @@
         <v>189</v>
       </c>
       <c r="C277" s="13" t="s">
-        <v>1209</v>
+        <v>1204</v>
       </c>
       <c r="D277" s="11">
         <v>0</v>
@@ -40040,7 +41209,7 @@
         <v>190</v>
       </c>
       <c r="C285" s="13" t="s">
-        <v>1209</v>
+        <v>1204</v>
       </c>
       <c r="D285" s="11">
         <v>0</v>
@@ -40072,7 +41241,7 @@
         <v>192</v>
       </c>
       <c r="C287" s="19" t="s">
-        <v>1352</v>
+        <v>1344</v>
       </c>
       <c r="D287" s="10">
         <v>0</v>
@@ -40102,7 +41271,7 @@
         <v>194</v>
       </c>
       <c r="C289" s="19" t="s">
-        <v>1209</v>
+        <v>1204</v>
       </c>
       <c r="D289" s="10">
         <v>0</v>
@@ -40117,7 +41286,7 @@
         <v>195</v>
       </c>
       <c r="C290" s="19" t="s">
-        <v>1209</v>
+        <v>1204</v>
       </c>
       <c r="D290" s="10">
         <v>0</v>
@@ -40147,7 +41316,7 @@
         <v>196</v>
       </c>
       <c r="C292" s="19" t="s">
-        <v>393</v>
+        <v>1474</v>
       </c>
       <c r="D292" s="10">
         <v>0</v>
@@ -40237,7 +41406,7 @@
         <v>197</v>
       </c>
       <c r="C298" s="19" t="s">
-        <v>1350</v>
+        <v>1342</v>
       </c>
       <c r="D298" s="10">
         <v>0</v>
@@ -42261,7 +43430,7 @@
         <v>308</v>
       </c>
       <c r="C441" s="13" t="s">
-        <v>1351</v>
+        <v>1343</v>
       </c>
       <c r="D441" s="11">
         <v>195</v>
@@ -43569,7 +44738,7 @@
         <v>367</v>
       </c>
       <c r="C530" s="86" t="s">
-        <v>1200</v>
+        <v>1195</v>
       </c>
       <c r="D530" s="10">
         <v>253</v>
@@ -43583,7 +44752,7 @@
         <v>368</v>
       </c>
       <c r="C531" s="86" t="s">
-        <v>1199</v>
+        <v>1194</v>
       </c>
       <c r="D531" s="10">
         <v>254</v>
@@ -43597,7 +44766,7 @@
         <v>369</v>
       </c>
       <c r="C532" s="86" t="s">
-        <v>1199</v>
+        <v>1194</v>
       </c>
       <c r="D532" s="10">
         <v>255</v>
@@ -43611,7 +44780,7 @@
         <v>370</v>
       </c>
       <c r="C533" s="86" t="s">
-        <v>1199</v>
+        <v>1194</v>
       </c>
       <c r="D533" s="10">
         <v>256</v>
@@ -43625,7 +44794,7 @@
         <v>371</v>
       </c>
       <c r="C534" s="13" t="s">
-        <v>1289</v>
+        <v>1282</v>
       </c>
       <c r="D534" s="12">
         <v>0</v>
@@ -43639,7 +44808,7 @@
         <v>372</v>
       </c>
       <c r="C535" s="13" t="s">
-        <v>1290</v>
+        <v>1283</v>
       </c>
       <c r="D535" s="12">
         <v>0</v>
@@ -43653,7 +44822,7 @@
         <v>373</v>
       </c>
       <c r="C536" s="13" t="s">
-        <v>1291</v>
+        <v>1284</v>
       </c>
       <c r="D536" s="12">
         <v>0</v>
@@ -43667,7 +44836,7 @@
         <v>374</v>
       </c>
       <c r="C537" s="13" t="s">
-        <v>1292</v>
+        <v>1285</v>
       </c>
       <c r="D537" s="12">
         <v>0</v>
@@ -43681,7 +44850,7 @@
         <v>375</v>
       </c>
       <c r="C538" s="13" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
       <c r="D538" s="12">
         <v>0</v>
@@ -43698,7 +44867,7 @@
         <v>376</v>
       </c>
       <c r="C539" s="13" t="s">
-        <v>1293</v>
+        <v>1286</v>
       </c>
       <c r="D539" s="12">
         <v>0</v>
@@ -43712,7 +44881,7 @@
         <v>377</v>
       </c>
       <c r="C540" s="13" t="s">
-        <v>1294</v>
+        <v>1287</v>
       </c>
       <c r="D540" s="12">
         <v>0</v>
@@ -43726,7 +44895,7 @@
         <v>378</v>
       </c>
       <c r="C541" s="13" t="s">
-        <v>1295</v>
+        <v>1288</v>
       </c>
       <c r="D541" s="12">
         <v>0</v>
@@ -43740,7 +44909,7 @@
         <v>379</v>
       </c>
       <c r="C542" s="13" t="s">
-        <v>1296</v>
+        <v>1289</v>
       </c>
       <c r="D542" s="12">
         <v>0</v>
@@ -43754,7 +44923,7 @@
         <v>380</v>
       </c>
       <c r="C543" s="13" t="s">
-        <v>1292</v>
+        <v>1285</v>
       </c>
       <c r="D543" s="12">
         <v>0</v>
@@ -43768,7 +44937,7 @@
         <v>381</v>
       </c>
       <c r="C544" s="13" t="s">
-        <v>1297</v>
+        <v>1290</v>
       </c>
       <c r="D544" s="12">
         <v>258</v>
@@ -43782,7 +44951,7 @@
         <v>382</v>
       </c>
       <c r="C545" s="13" t="s">
-        <v>1337</v>
+        <v>1329</v>
       </c>
       <c r="D545" s="12">
         <v>259</v>
@@ -43796,7 +44965,7 @@
         <v>383</v>
       </c>
       <c r="C546" s="13" t="s">
-        <v>1296</v>
+        <v>1289</v>
       </c>
       <c r="D546" s="12">
         <v>0</v>
@@ -43810,7 +44979,7 @@
         <v>384</v>
       </c>
       <c r="C547" s="13" t="s">
-        <v>1294</v>
+        <v>1287</v>
       </c>
       <c r="D547" s="12">
         <v>0</v>
@@ -43824,7 +44993,7 @@
         <v>385</v>
       </c>
       <c r="C548" s="13" t="s">
-        <v>1298</v>
+        <v>1291</v>
       </c>
       <c r="D548" s="12">
         <v>260</v>
@@ -43838,7 +45007,7 @@
         <v>386</v>
       </c>
       <c r="C549" s="13" t="s">
-        <v>1290</v>
+        <v>1283</v>
       </c>
       <c r="D549" s="12">
         <v>0</v>
@@ -43852,7 +45021,7 @@
         <v>387</v>
       </c>
       <c r="C550" s="13" t="s">
-        <v>1299</v>
+        <v>1292</v>
       </c>
       <c r="D550" s="12">
         <v>261</v>
@@ -43866,7 +45035,7 @@
         <v>388</v>
       </c>
       <c r="C551" s="13" t="s">
-        <v>1300</v>
+        <v>1293</v>
       </c>
       <c r="D551" s="12">
         <v>262</v>
@@ -43940,7 +45109,7 @@
         <v>389</v>
       </c>
       <c r="C556" s="13" t="s">
-        <v>1294</v>
+        <v>1287</v>
       </c>
       <c r="D556" s="11">
         <v>0</v>
@@ -43955,7 +45124,7 @@
         <v>389</v>
       </c>
       <c r="C557" s="13" t="s">
-        <v>1325</v>
+        <v>1317</v>
       </c>
       <c r="D557" s="11">
         <v>0</v>
@@ -43987,7 +45156,7 @@
         <v>389</v>
       </c>
       <c r="C559" s="13" t="s">
-        <v>1326</v>
+        <v>1318</v>
       </c>
       <c r="D559" s="11">
         <v>0</v>
@@ -44004,7 +45173,7 @@
         <v>390</v>
       </c>
       <c r="C560" s="13" t="s">
-        <v>1363</v>
+        <v>1355</v>
       </c>
       <c r="D560" s="11">
         <v>263</v>
@@ -44144,7 +45313,7 @@
         <v>400</v>
       </c>
       <c r="C570" s="13" t="s">
-        <v>1421</v>
+        <v>1413</v>
       </c>
       <c r="D570" s="11">
         <v>273</v>
@@ -44158,7 +45327,7 @@
         <v>401</v>
       </c>
       <c r="C571" s="13" t="s">
-        <v>1422</v>
+        <v>1414</v>
       </c>
       <c r="D571" s="11">
         <v>274</v>
@@ -44172,7 +45341,7 @@
         <v>402</v>
       </c>
       <c r="C572" s="13" t="s">
-        <v>1423</v>
+        <v>1415</v>
       </c>
       <c r="D572" s="11">
         <v>275</v>
@@ -44186,7 +45355,7 @@
         <v>403</v>
       </c>
       <c r="C573" s="13" t="s">
-        <v>1421</v>
+        <v>1413</v>
       </c>
       <c r="D573" s="11">
         <v>276</v>
@@ -44200,7 +45369,7 @@
         <v>404</v>
       </c>
       <c r="C574" s="13" t="s">
-        <v>1426</v>
+        <v>1418</v>
       </c>
       <c r="D574" s="11">
         <v>277</v>
@@ -44214,7 +45383,7 @@
         <v>405</v>
       </c>
       <c r="C575" s="13" t="s">
-        <v>1424</v>
+        <v>1416</v>
       </c>
       <c r="D575" s="11">
         <v>278</v>
@@ -44228,13 +45397,13 @@
         <v>406</v>
       </c>
       <c r="C576" s="13" t="s">
-        <v>1425</v>
+        <v>1417</v>
       </c>
       <c r="D576" s="11">
         <v>279</v>
       </c>
     </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A577" s="29">
         <v>576</v>
       </c>
@@ -44242,13 +45411,13 @@
         <v>407</v>
       </c>
       <c r="C577" s="13" t="s">
-        <v>1448</v>
+        <v>1440</v>
       </c>
       <c r="D577" s="11">
         <v>280</v>
       </c>
     </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A578" s="29">
         <v>577</v>
       </c>
@@ -44256,13 +45425,13 @@
         <v>408</v>
       </c>
       <c r="C578" s="13" t="s">
-        <v>1450</v>
+        <v>1442</v>
       </c>
       <c r="D578" s="11">
         <v>281</v>
       </c>
     </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A579" s="29">
         <v>578</v>
       </c>
@@ -44270,10 +45439,195 @@
         <v>409</v>
       </c>
       <c r="C579" s="13" t="s">
-        <v>1452</v>
+        <v>1444</v>
       </c>
       <c r="D579" s="11">
         <v>282</v>
+      </c>
+    </row>
+    <row r="580" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A580" s="29">
+        <v>579</v>
+      </c>
+      <c r="B580" s="10">
+        <v>410</v>
+      </c>
+      <c r="C580" s="19" t="s">
+        <v>412</v>
+      </c>
+      <c r="D580" s="10">
+        <v>0</v>
+      </c>
+      <c r="E580" s="81"/>
+    </row>
+    <row r="581" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A581" s="11">
+        <v>580</v>
+      </c>
+      <c r="B581" s="10">
+        <v>411</v>
+      </c>
+      <c r="C581" s="19" t="s">
+        <v>1475</v>
+      </c>
+      <c r="D581" s="10">
+        <v>283</v>
+      </c>
+      <c r="E581" s="10"/>
+    </row>
+    <row r="582" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A582" s="11">
+        <v>581</v>
+      </c>
+      <c r="B582" s="10">
+        <v>412</v>
+      </c>
+      <c r="C582" s="19" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D582" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="583" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A583" s="11">
+        <v>582</v>
+      </c>
+      <c r="B583" s="10">
+        <v>413</v>
+      </c>
+      <c r="C583" s="19" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D583" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="584" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A584" s="11">
+        <v>583</v>
+      </c>
+      <c r="B584" s="10">
+        <v>414</v>
+      </c>
+      <c r="C584" s="19" t="s">
+        <v>1476</v>
+      </c>
+      <c r="D584" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="585" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A585" s="11">
+        <v>584</v>
+      </c>
+      <c r="B585" s="10">
+        <v>415</v>
+      </c>
+      <c r="C585" s="19" t="s">
+        <v>1344</v>
+      </c>
+      <c r="D585" s="10">
+        <v>284</v>
+      </c>
+      <c r="E585" s="81"/>
+    </row>
+    <row r="586" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A586" s="11">
+        <v>585</v>
+      </c>
+      <c r="B586" s="10">
+        <v>416</v>
+      </c>
+      <c r="C586" s="19" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D586" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="587" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A587" s="11">
+        <v>586</v>
+      </c>
+      <c r="B587" s="10">
+        <v>417</v>
+      </c>
+      <c r="C587" s="19" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D587" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="588" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A588" s="11">
+        <v>587</v>
+      </c>
+      <c r="B588" s="10">
+        <v>418</v>
+      </c>
+      <c r="C588" s="19" t="s">
+        <v>1476</v>
+      </c>
+      <c r="D588" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="589" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A589" s="11">
+        <v>588</v>
+      </c>
+      <c r="B589" s="10">
+        <v>419</v>
+      </c>
+      <c r="C589" s="13" t="s">
+        <v>1416</v>
+      </c>
+      <c r="D589" s="11">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="590" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A590" s="115">
+        <v>589</v>
+      </c>
+      <c r="B590" s="115">
+        <v>420</v>
+      </c>
+      <c r="C590" s="119" t="s">
+        <v>1516</v>
+      </c>
+      <c r="D590" s="115">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="591" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A591" s="115">
+        <v>590</v>
+      </c>
+      <c r="B591" s="115">
+        <v>421</v>
+      </c>
+      <c r="C591" s="119" t="s">
+        <v>1516</v>
+      </c>
+      <c r="D591" s="115">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="592" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A592" s="115">
+        <v>591</v>
+      </c>
+      <c r="B592" s="115">
+        <v>422</v>
+      </c>
+      <c r="C592" s="119" t="s">
+        <v>1516</v>
+      </c>
+      <c r="D592" s="115">
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -44286,13 +45640,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:M400"/>
+  <dimension ref="A1:M406"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C382" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C392" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B405" sqref="B405"/>
+      <selection pane="bottomRight" activeCell="C400" sqref="C400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -47191,7 +48545,7 @@
         <v>681</v>
       </c>
       <c r="D137" s="25" t="s">
-        <v>707</v>
+        <v>1482</v>
       </c>
       <c r="E137" s="11">
         <v>2</v>
@@ -51012,7 +52366,7 @@
         <v>247</v>
       </c>
       <c r="C359" s="95" t="s">
-        <v>1340</v>
+        <v>1332</v>
       </c>
       <c r="D359" s="94">
         <v>0</v>
@@ -51030,7 +52384,7 @@
         <v>248</v>
       </c>
       <c r="C360" s="13" t="s">
-        <v>1427</v>
+        <v>1419</v>
       </c>
       <c r="D360" s="15" t="s">
         <v>969</v>
@@ -51104,7 +52458,7 @@
         <v>688</v>
       </c>
       <c r="D364" s="92" t="s">
-        <v>1319</v>
+        <v>1311</v>
       </c>
       <c r="E364" s="91">
         <v>2</v>
@@ -51119,10 +52473,10 @@
         <v>253</v>
       </c>
       <c r="C365" s="19" t="s">
-        <v>1201</v>
+        <v>1196</v>
       </c>
       <c r="D365" s="83" t="s">
-        <v>1203</v>
+        <v>1198</v>
       </c>
       <c r="E365" s="10">
         <v>2</v>
@@ -51136,7 +52490,7 @@
         <v>254</v>
       </c>
       <c r="C366" s="19" t="s">
-        <v>1202</v>
+        <v>1197</v>
       </c>
       <c r="D366" s="10">
         <v>3</v>
@@ -51153,7 +52507,7 @@
         <v>255</v>
       </c>
       <c r="C367" s="19" t="s">
-        <v>1202</v>
+        <v>1197</v>
       </c>
       <c r="D367" s="10">
         <v>4</v>
@@ -51170,7 +52524,7 @@
         <v>256</v>
       </c>
       <c r="C368" s="19" t="s">
-        <v>1202</v>
+        <v>1197</v>
       </c>
       <c r="D368" s="10">
         <v>5</v>
@@ -51190,7 +52544,7 @@
         <v>675</v>
       </c>
       <c r="D369" s="14" t="s">
-        <v>1220</v>
+        <v>1215</v>
       </c>
       <c r="E369" s="29">
         <v>2</v>
@@ -51206,7 +52560,7 @@
         <v>258</v>
       </c>
       <c r="C370" s="13" t="s">
-        <v>1429</v>
+        <v>1421</v>
       </c>
       <c r="D370" s="11">
         <v>5000000</v>
@@ -51223,7 +52577,7 @@
         <v>259</v>
       </c>
       <c r="C371" s="13" t="s">
-        <v>1302</v>
+        <v>1295</v>
       </c>
       <c r="D371" s="13">
         <v>20</v>
@@ -51240,7 +52594,7 @@
         <v>259</v>
       </c>
       <c r="C372" s="13" t="s">
-        <v>1303</v>
+        <v>1296</v>
       </c>
       <c r="D372" s="11">
         <v>100000</v>
@@ -51257,7 +52611,7 @@
         <v>260</v>
       </c>
       <c r="C373" s="13" t="s">
-        <v>1301</v>
+        <v>1294</v>
       </c>
       <c r="D373" s="11">
         <v>480000</v>
@@ -51274,7 +52628,7 @@
         <v>261</v>
       </c>
       <c r="C374" s="13" t="s">
-        <v>1301</v>
+        <v>1294</v>
       </c>
       <c r="D374" s="11">
         <v>960000</v>
@@ -51291,7 +52645,7 @@
         <v>262</v>
       </c>
       <c r="C375" s="13" t="s">
-        <v>1304</v>
+        <v>1297</v>
       </c>
       <c r="D375" s="11">
         <v>10</v>
@@ -51308,10 +52662,10 @@
         <v>263</v>
       </c>
       <c r="C376" s="13" t="s">
-        <v>1364</v>
+        <v>1356</v>
       </c>
       <c r="D376" s="13" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
       <c r="E376" s="11">
         <v>2</v>
@@ -51325,10 +52679,10 @@
         <v>264</v>
       </c>
       <c r="C377" s="13" t="s">
-        <v>1373</v>
+        <v>1365</v>
       </c>
       <c r="D377" s="17" t="s">
-        <v>1383</v>
+        <v>1375</v>
       </c>
       <c r="E377" s="11">
         <v>2</v>
@@ -51342,7 +52696,7 @@
         <v>265</v>
       </c>
       <c r="C378" s="13" t="s">
-        <v>1373</v>
+        <v>1365</v>
       </c>
       <c r="D378" s="11" t="s">
         <v>1164</v>
@@ -51359,10 +52713,10 @@
         <v>266</v>
       </c>
       <c r="C379" s="13" t="s">
-        <v>1373</v>
+        <v>1365</v>
       </c>
       <c r="D379" s="11" t="s">
-        <v>1384</v>
+        <v>1376</v>
       </c>
       <c r="E379" s="11">
         <v>2</v>
@@ -51376,10 +52730,10 @@
         <v>267</v>
       </c>
       <c r="C380" s="13" t="s">
-        <v>1373</v>
+        <v>1365</v>
       </c>
       <c r="D380" s="11" t="s">
-        <v>1388</v>
+        <v>1380</v>
       </c>
       <c r="E380" s="11">
         <v>2</v>
@@ -51393,7 +52747,7 @@
         <v>268</v>
       </c>
       <c r="C381" s="13" t="s">
-        <v>1373</v>
+        <v>1365</v>
       </c>
       <c r="D381" s="11" t="s">
         <v>712</v>
@@ -51410,7 +52764,7 @@
         <v>269</v>
       </c>
       <c r="C382" s="13" t="s">
-        <v>1373</v>
+        <v>1365</v>
       </c>
       <c r="D382" s="11" t="s">
         <v>712</v>
@@ -51427,10 +52781,10 @@
         <v>270</v>
       </c>
       <c r="C383" s="13" t="s">
-        <v>1373</v>
+        <v>1365</v>
       </c>
       <c r="D383" s="11" t="s">
-        <v>1385</v>
+        <v>1377</v>
       </c>
       <c r="E383" s="11">
         <v>2</v>
@@ -51444,10 +52798,10 @@
         <v>271</v>
       </c>
       <c r="C384" s="13" t="s">
-        <v>1373</v>
+        <v>1365</v>
       </c>
       <c r="D384" s="11" t="s">
-        <v>1386</v>
+        <v>1378</v>
       </c>
       <c r="E384" s="11">
         <v>2</v>
@@ -51461,10 +52815,10 @@
         <v>272</v>
       </c>
       <c r="C385" s="13" t="s">
-        <v>1373</v>
+        <v>1365</v>
       </c>
       <c r="D385" s="11" t="s">
-        <v>1387</v>
+        <v>1379</v>
       </c>
       <c r="E385" s="11">
         <v>2</v>
@@ -51481,7 +52835,7 @@
         <v>688</v>
       </c>
       <c r="D386" s="13" t="s">
-        <v>1433</v>
+        <v>1425</v>
       </c>
       <c r="E386" s="11">
         <v>2</v>
@@ -51495,7 +52849,7 @@
         <v>273</v>
       </c>
       <c r="C387" s="13" t="s">
-        <v>1431</v>
+        <v>1423</v>
       </c>
       <c r="D387" s="11">
         <v>500</v>
@@ -51515,7 +52869,7 @@
         <v>688</v>
       </c>
       <c r="D388" s="13" t="s">
-        <v>1434</v>
+        <v>1426</v>
       </c>
       <c r="E388" s="11">
         <v>2</v>
@@ -51617,7 +52971,7 @@
         <v>859</v>
       </c>
       <c r="D394" s="15" t="s">
-        <v>1432</v>
+        <v>1424</v>
       </c>
       <c r="E394" s="11">
         <v>2</v>
@@ -51631,7 +52985,7 @@
         <v>278</v>
       </c>
       <c r="C395" s="13" t="s">
-        <v>1430</v>
+        <v>1422</v>
       </c>
       <c r="D395" s="11">
         <v>240000</v>
@@ -51648,7 +53002,7 @@
         <v>279</v>
       </c>
       <c r="C396" s="13" t="s">
-        <v>1428</v>
+        <v>1420</v>
       </c>
       <c r="D396" s="11">
         <v>1</v>
@@ -51682,7 +53036,7 @@
         <v>280</v>
       </c>
       <c r="C398" s="13" t="s">
-        <v>1449</v>
+        <v>1441</v>
       </c>
       <c r="D398" s="11">
         <v>9</v>
@@ -51699,7 +53053,7 @@
         <v>281</v>
       </c>
       <c r="C399" s="13" t="s">
-        <v>1451</v>
+        <v>1443</v>
       </c>
       <c r="D399" s="11">
         <v>51</v>
@@ -51716,7 +53070,7 @@
         <v>282</v>
       </c>
       <c r="C400" s="13" t="s">
-        <v>1453</v>
+        <v>1445</v>
       </c>
       <c r="D400" s="11">
         <v>240000</v>
@@ -51724,6 +53078,114 @@
       <c r="E400" s="11">
         <v>3</v>
       </c>
+    </row>
+    <row r="401" spans="1:6" s="81" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A401" s="10">
+        <v>430</v>
+      </c>
+      <c r="B401" s="10">
+        <v>283</v>
+      </c>
+      <c r="C401" s="19" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D401" s="83" t="s">
+        <v>1469</v>
+      </c>
+      <c r="E401" s="10">
+        <v>2</v>
+      </c>
+      <c r="F401" s="10"/>
+    </row>
+    <row r="402" spans="1:6" s="81" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A402" s="9">
+        <v>431</v>
+      </c>
+      <c r="B402" s="9">
+        <v>284</v>
+      </c>
+      <c r="C402" s="26" t="s">
+        <v>681</v>
+      </c>
+      <c r="D402" s="112" t="s">
+        <v>1482</v>
+      </c>
+      <c r="E402" s="10">
+        <v>2</v>
+      </c>
+      <c r="F402" s="10"/>
+    </row>
+    <row r="403" spans="1:6" s="81" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A403" s="9">
+        <v>432</v>
+      </c>
+      <c r="B403" s="9">
+        <v>285</v>
+      </c>
+      <c r="C403" s="19" t="s">
+        <v>1422</v>
+      </c>
+      <c r="D403" s="10">
+        <v>30000</v>
+      </c>
+      <c r="E403" s="10">
+        <v>3</v>
+      </c>
+      <c r="F403" s="10"/>
+    </row>
+    <row r="404" spans="1:6" s="120" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A404" s="113">
+        <v>433</v>
+      </c>
+      <c r="B404" s="113">
+        <v>286</v>
+      </c>
+      <c r="C404" s="119" t="s">
+        <v>700</v>
+      </c>
+      <c r="D404" s="119" t="s">
+        <v>1517</v>
+      </c>
+      <c r="E404" s="115">
+        <v>2</v>
+      </c>
+      <c r="F404" s="115"/>
+    </row>
+    <row r="405" spans="1:6" s="120" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A405" s="113">
+        <v>434</v>
+      </c>
+      <c r="B405" s="113">
+        <v>287</v>
+      </c>
+      <c r="C405" s="119" t="s">
+        <v>700</v>
+      </c>
+      <c r="D405" s="119" t="s">
+        <v>1518</v>
+      </c>
+      <c r="E405" s="115">
+        <v>2</v>
+      </c>
+      <c r="F405" s="115"/>
+    </row>
+    <row r="406" spans="1:6" s="120" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A406" s="113">
+        <v>435</v>
+      </c>
+      <c r="B406" s="113">
+        <v>288</v>
+      </c>
+      <c r="C406" s="119" t="s">
+        <v>700</v>
+      </c>
+      <c r="D406" s="119" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E406" s="115">
+        <v>2</v>
+      </c>
+      <c r="F406" s="115"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
@@ -51737,11 +53199,11 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:W889"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C853" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C871" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A878" sqref="A878:XFD878"/>
+      <selection pane="bottomRight" activeCell="C887" sqref="C887"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -57641,7 +59103,7 @@
       </c>
       <c r="C266" s="10"/>
       <c r="D266" s="19" t="s">
-        <v>1366</v>
+        <v>1358</v>
       </c>
       <c r="E266" s="10">
         <v>10</v>
@@ -57683,7 +59145,7 @@
       </c>
       <c r="C268" s="78"/>
       <c r="D268" s="77" t="s">
-        <v>1320</v>
+        <v>1312</v>
       </c>
       <c r="E268" s="78">
         <v>10</v>
@@ -57704,7 +59166,7 @@
       </c>
       <c r="C269" s="78"/>
       <c r="D269" s="77" t="s">
-        <v>1366</v>
+        <v>1358</v>
       </c>
       <c r="E269" s="78">
         <v>10</v>
@@ -64188,7 +65650,7 @@
       </c>
       <c r="C591" s="13"/>
       <c r="D591" s="13" t="s">
-        <v>805</v>
+        <v>1523</v>
       </c>
       <c r="E591" s="11">
         <v>88</v>
@@ -65841,7 +67303,7 @@
       </c>
       <c r="C670" s="11"/>
       <c r="D670" s="13" t="s">
-        <v>1206</v>
+        <v>1201</v>
       </c>
       <c r="E670" s="11">
         <v>12000</v>
@@ -67977,7 +69439,7 @@
       </c>
       <c r="C774" s="11"/>
       <c r="D774" s="13" t="s">
-        <v>1367</v>
+        <v>1359</v>
       </c>
       <c r="E774" s="11">
         <v>10</v>
@@ -67998,10 +69460,10 @@
       </c>
       <c r="C775" s="10"/>
       <c r="D775" s="19" t="s">
-        <v>1207</v>
+        <v>1202</v>
       </c>
       <c r="E775" s="83" t="s">
-        <v>1234</v>
+        <v>1227</v>
       </c>
       <c r="F775" s="10">
         <v>50</v>
@@ -68017,10 +69479,10 @@
       </c>
       <c r="C776" s="10"/>
       <c r="D776" s="19" t="s">
-        <v>1207</v>
+        <v>1202</v>
       </c>
       <c r="E776" s="83" t="s">
-        <v>1235</v>
+        <v>1228</v>
       </c>
       <c r="F776" s="10">
         <v>30</v>
@@ -68038,10 +69500,10 @@
       </c>
       <c r="C777" s="10"/>
       <c r="D777" s="19" t="s">
-        <v>1207</v>
+        <v>1202</v>
       </c>
       <c r="E777" s="83" t="s">
-        <v>1236</v>
+        <v>1229</v>
       </c>
       <c r="F777" s="10">
         <v>20</v>
@@ -68059,10 +69521,10 @@
       </c>
       <c r="C778" s="10"/>
       <c r="D778" s="19" t="s">
-        <v>1207</v>
+        <v>1202</v>
       </c>
       <c r="E778" s="83" t="s">
-        <v>1237</v>
+        <v>1230</v>
       </c>
       <c r="F778" s="10">
         <v>50</v>
@@ -68077,10 +69539,10 @@
       </c>
       <c r="C779" s="10"/>
       <c r="D779" s="19" t="s">
-        <v>1207</v>
+        <v>1202</v>
       </c>
       <c r="E779" s="83" t="s">
-        <v>1238</v>
+        <v>1231</v>
       </c>
       <c r="F779" s="10">
         <v>30</v>
@@ -68095,10 +69557,10 @@
       </c>
       <c r="C780" s="10"/>
       <c r="D780" s="19" t="s">
-        <v>1207</v>
+        <v>1202</v>
       </c>
       <c r="E780" s="83" t="s">
-        <v>1239</v>
+        <v>1232</v>
       </c>
       <c r="F780" s="10">
         <v>20</v>
@@ -68113,10 +69575,10 @@
       </c>
       <c r="C781" s="10"/>
       <c r="D781" s="19" t="s">
-        <v>1207</v>
+        <v>1202</v>
       </c>
       <c r="E781" s="83" t="s">
-        <v>1240</v>
+        <v>1233</v>
       </c>
       <c r="F781" s="10">
         <v>50</v>
@@ -68131,10 +69593,10 @@
       </c>
       <c r="C782" s="10"/>
       <c r="D782" s="19" t="s">
-        <v>1207</v>
+        <v>1202</v>
       </c>
       <c r="E782" s="83" t="s">
-        <v>1241</v>
+        <v>1234</v>
       </c>
       <c r="F782" s="10">
         <v>30</v>
@@ -68149,10 +69611,10 @@
       </c>
       <c r="C783" s="10"/>
       <c r="D783" s="19" t="s">
-        <v>1207</v>
+        <v>1202</v>
       </c>
       <c r="E783" s="83" t="s">
-        <v>1242</v>
+        <v>1235</v>
       </c>
       <c r="F783" s="10">
         <v>20</v>
@@ -68167,10 +69629,10 @@
       </c>
       <c r="C784" s="10"/>
       <c r="D784" s="19" t="s">
-        <v>1207</v>
+        <v>1202</v>
       </c>
       <c r="E784" s="83" t="s">
-        <v>1238</v>
+        <v>1231</v>
       </c>
       <c r="F784" s="10">
         <v>25</v>
@@ -68185,10 +69647,10 @@
       </c>
       <c r="C785" s="10"/>
       <c r="D785" s="19" t="s">
-        <v>1207</v>
+        <v>1202</v>
       </c>
       <c r="E785" s="83" t="s">
-        <v>1243</v>
+        <v>1236</v>
       </c>
       <c r="F785" s="10">
         <v>50</v>
@@ -68203,10 +69665,10 @@
       </c>
       <c r="C786" s="10"/>
       <c r="D786" s="19" t="s">
-        <v>1207</v>
+        <v>1202</v>
       </c>
       <c r="E786" s="83" t="s">
-        <v>1241</v>
+        <v>1234</v>
       </c>
       <c r="F786" s="10">
         <v>25</v>
@@ -68221,10 +69683,10 @@
       </c>
       <c r="C787" s="10"/>
       <c r="D787" s="19" t="s">
-        <v>1207</v>
+        <v>1202</v>
       </c>
       <c r="E787" s="83" t="s">
-        <v>1241</v>
+        <v>1234</v>
       </c>
       <c r="F787" s="10">
         <v>25</v>
@@ -68239,10 +69701,10 @@
       </c>
       <c r="C788" s="10"/>
       <c r="D788" s="19" t="s">
-        <v>1207</v>
+        <v>1202</v>
       </c>
       <c r="E788" s="83" t="s">
-        <v>1244</v>
+        <v>1237</v>
       </c>
       <c r="F788" s="10">
         <v>50</v>
@@ -68257,7 +69719,7 @@
       </c>
       <c r="C789" s="10"/>
       <c r="D789" s="19" t="s">
-        <v>1207</v>
+        <v>1202</v>
       </c>
       <c r="E789" s="83">
         <v>150</v>
@@ -68275,7 +69737,7 @@
       </c>
       <c r="C790" s="10"/>
       <c r="D790" s="19" t="s">
-        <v>1207</v>
+        <v>1202</v>
       </c>
       <c r="E790" s="9">
         <v>400</v>
@@ -68293,7 +69755,7 @@
       </c>
       <c r="C791" s="10"/>
       <c r="D791" s="19" t="s">
-        <v>1207</v>
+        <v>1202</v>
       </c>
       <c r="E791" s="9">
         <v>500</v>
@@ -68311,7 +69773,7 @@
       </c>
       <c r="C792" s="10"/>
       <c r="D792" s="19" t="s">
-        <v>1207</v>
+        <v>1202</v>
       </c>
       <c r="E792" s="9">
         <v>600</v>
@@ -68329,7 +69791,7 @@
       </c>
       <c r="C793" s="10"/>
       <c r="D793" s="19" t="s">
-        <v>1207</v>
+        <v>1202</v>
       </c>
       <c r="E793" s="9">
         <v>100</v>
@@ -68347,7 +69809,7 @@
       </c>
       <c r="C794" s="10"/>
       <c r="D794" s="19" t="s">
-        <v>1207</v>
+        <v>1202</v>
       </c>
       <c r="E794" s="9">
         <v>300</v>
@@ -68365,7 +69827,7 @@
       </c>
       <c r="C795" s="10"/>
       <c r="D795" s="19" t="s">
-        <v>1207</v>
+        <v>1202</v>
       </c>
       <c r="E795" s="9">
         <v>500</v>
@@ -68383,7 +69845,7 @@
       </c>
       <c r="C796" s="10"/>
       <c r="D796" s="19" t="s">
-        <v>1207</v>
+        <v>1202</v>
       </c>
       <c r="E796" s="9">
         <v>500</v>
@@ -68401,7 +69863,7 @@
       </c>
       <c r="C797" s="10"/>
       <c r="D797" s="19" t="s">
-        <v>1207</v>
+        <v>1202</v>
       </c>
       <c r="E797" s="9">
         <v>1000</v>
@@ -68419,7 +69881,7 @@
       </c>
       <c r="C798" s="10"/>
       <c r="D798" s="19" t="s">
-        <v>1207</v>
+        <v>1202</v>
       </c>
       <c r="E798" s="9">
         <v>1500</v>
@@ -68437,7 +69899,7 @@
       </c>
       <c r="C799" s="10"/>
       <c r="D799" s="19" t="s">
-        <v>1207</v>
+        <v>1202</v>
       </c>
       <c r="E799" s="9">
         <v>4000</v>
@@ -68455,7 +69917,7 @@
       </c>
       <c r="C800" s="10"/>
       <c r="D800" s="19" t="s">
-        <v>1207</v>
+        <v>1202</v>
       </c>
       <c r="E800" s="9">
         <v>5000</v>
@@ -68473,7 +69935,7 @@
       </c>
       <c r="C801" s="10"/>
       <c r="D801" s="19" t="s">
-        <v>1207</v>
+        <v>1202</v>
       </c>
       <c r="E801" s="9">
         <v>6000</v>
@@ -68491,7 +69953,7 @@
       </c>
       <c r="C802" s="10"/>
       <c r="D802" s="19" t="s">
-        <v>1207</v>
+        <v>1202</v>
       </c>
       <c r="E802" s="9">
         <v>1000</v>
@@ -68509,7 +69971,7 @@
       </c>
       <c r="C803" s="10"/>
       <c r="D803" s="19" t="s">
-        <v>1207</v>
+        <v>1202</v>
       </c>
       <c r="E803" s="9">
         <v>3000</v>
@@ -68527,7 +69989,7 @@
       </c>
       <c r="C804" s="10"/>
       <c r="D804" s="19" t="s">
-        <v>1207</v>
+        <v>1202</v>
       </c>
       <c r="E804" s="9">
         <v>5000</v>
@@ -68545,7 +70007,7 @@
       </c>
       <c r="C805" s="10"/>
       <c r="D805" s="19" t="s">
-        <v>1207</v>
+        <v>1202</v>
       </c>
       <c r="E805" s="9">
         <v>5000</v>
@@ -68563,7 +70025,7 @@
       </c>
       <c r="C806" s="10"/>
       <c r="D806" s="19" t="s">
-        <v>1207</v>
+        <v>1202</v>
       </c>
       <c r="E806" s="9">
         <v>10000</v>
@@ -68581,7 +70043,7 @@
       </c>
       <c r="C807" s="10"/>
       <c r="D807" s="19" t="s">
-        <v>1207</v>
+        <v>1202</v>
       </c>
       <c r="E807" s="9">
         <v>15000</v>
@@ -68599,7 +70061,7 @@
       </c>
       <c r="C808" s="10"/>
       <c r="D808" s="19" t="s">
-        <v>1207</v>
+        <v>1202</v>
       </c>
       <c r="E808" s="9">
         <v>40000</v>
@@ -68617,7 +70079,7 @@
       </c>
       <c r="C809" s="10"/>
       <c r="D809" s="19" t="s">
-        <v>1207</v>
+        <v>1202</v>
       </c>
       <c r="E809" s="9">
         <v>50000</v>
@@ -68635,7 +70097,7 @@
       </c>
       <c r="C810" s="10"/>
       <c r="D810" s="19" t="s">
-        <v>1207</v>
+        <v>1202</v>
       </c>
       <c r="E810" s="9">
         <v>60000</v>
@@ -68653,10 +70115,10 @@
       </c>
       <c r="C811" s="11"/>
       <c r="D811" s="13" t="s">
-        <v>1305</v>
+        <v>1298</v>
       </c>
       <c r="E811" s="27" t="s">
-        <v>1338</v>
+        <v>1330</v>
       </c>
       <c r="F811" s="11">
         <v>1</v>
@@ -68674,10 +70136,10 @@
       </c>
       <c r="C812" s="11"/>
       <c r="D812" s="13" t="s">
-        <v>1306</v>
+        <v>1299</v>
       </c>
       <c r="E812" s="15" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
       <c r="F812" s="11">
         <v>1</v>
@@ -68695,7 +70157,7 @@
       </c>
       <c r="C813" s="11"/>
       <c r="D813" s="13" t="s">
-        <v>1307</v>
+        <v>1514</v>
       </c>
       <c r="E813" s="27">
         <v>1</v>
@@ -68716,7 +70178,7 @@
       </c>
       <c r="C814" s="11"/>
       <c r="D814" s="13" t="s">
-        <v>1306</v>
+        <v>1299</v>
       </c>
       <c r="E814" s="27">
         <v>400</v>
@@ -68737,7 +70199,7 @@
       </c>
       <c r="C815" s="11"/>
       <c r="D815" s="13" t="s">
-        <v>1308</v>
+        <v>1300</v>
       </c>
       <c r="E815" s="27">
         <v>1</v>
@@ -68800,7 +70262,7 @@
       </c>
       <c r="C818" s="11"/>
       <c r="D818" s="13" t="s">
-        <v>1372</v>
+        <v>1364</v>
       </c>
       <c r="E818" s="27">
         <v>200</v>
@@ -68884,7 +70346,7 @@
       </c>
       <c r="C822" s="11"/>
       <c r="D822" s="87" t="s">
-        <v>1306</v>
+        <v>1299</v>
       </c>
       <c r="E822" s="27">
         <v>3500</v>
@@ -68926,7 +70388,7 @@
       </c>
       <c r="C824" s="11"/>
       <c r="D824" s="13" t="s">
-        <v>1306</v>
+        <v>1299</v>
       </c>
       <c r="E824" s="27">
         <v>14000</v>
@@ -68946,7 +70408,7 @@
         <v>592</v>
       </c>
       <c r="C825" s="13" t="s">
-        <v>1327</v>
+        <v>1319</v>
       </c>
       <c r="D825" s="11"/>
       <c r="E825" s="27"/>
@@ -68967,7 +70429,7 @@
         <v>593</v>
       </c>
       <c r="C826" s="13" t="s">
-        <v>1328</v>
+        <v>1320</v>
       </c>
       <c r="D826" s="11"/>
       <c r="E826" s="27"/>
@@ -68988,7 +70450,7 @@
         <v>594</v>
       </c>
       <c r="C827" s="13" t="s">
-        <v>1329</v>
+        <v>1321</v>
       </c>
       <c r="D827" s="11"/>
       <c r="E827" s="27"/>
@@ -69009,7 +70471,7 @@
         <v>595</v>
       </c>
       <c r="C828" s="13" t="s">
-        <v>1330</v>
+        <v>1322</v>
       </c>
       <c r="D828" s="11"/>
       <c r="E828" s="27"/>
@@ -69030,7 +70492,7 @@
         <v>596</v>
       </c>
       <c r="C829" s="13" t="s">
-        <v>1331</v>
+        <v>1323</v>
       </c>
       <c r="D829" s="11"/>
       <c r="E829" s="27"/>
@@ -69051,7 +70513,7 @@
         <v>597</v>
       </c>
       <c r="C830" s="13" t="s">
-        <v>1332</v>
+        <v>1324</v>
       </c>
       <c r="D830" s="11"/>
       <c r="E830" s="27"/>
@@ -69090,7 +70552,7 @@
       </c>
       <c r="C832" s="29"/>
       <c r="D832" s="14" t="s">
-        <v>1357</v>
+        <v>1349</v>
       </c>
       <c r="E832" s="29">
         <v>1</v>
@@ -69111,7 +70573,7 @@
       </c>
       <c r="C833" s="29"/>
       <c r="D833" s="14" t="s">
-        <v>1358</v>
+        <v>1350</v>
       </c>
       <c r="E833" s="29">
         <v>1</v>
@@ -69148,7 +70610,7 @@
         <v>599</v>
       </c>
       <c r="D835" s="14" t="s">
-        <v>1357</v>
+        <v>1349</v>
       </c>
       <c r="E835" s="29">
         <v>1</v>
@@ -69165,7 +70627,7 @@
         <v>599</v>
       </c>
       <c r="D836" s="14" t="s">
-        <v>1358</v>
+        <v>1350</v>
       </c>
       <c r="E836" s="29">
         <v>1</v>
@@ -69199,7 +70661,7 @@
         <v>600</v>
       </c>
       <c r="D838" s="14" t="s">
-        <v>1357</v>
+        <v>1349</v>
       </c>
       <c r="E838" s="29">
         <v>1</v>
@@ -69216,7 +70678,7 @@
         <v>600</v>
       </c>
       <c r="D839" s="14" t="s">
-        <v>1358</v>
+        <v>1350</v>
       </c>
       <c r="E839" s="29">
         <v>1</v>
@@ -69250,7 +70712,7 @@
         <v>601</v>
       </c>
       <c r="D841" s="14" t="s">
-        <v>1357</v>
+        <v>1349</v>
       </c>
       <c r="E841" s="29">
         <v>2</v>
@@ -69267,7 +70729,7 @@
         <v>601</v>
       </c>
       <c r="D842" s="14" t="s">
-        <v>1358</v>
+        <v>1350</v>
       </c>
       <c r="E842" s="29">
         <v>2</v>
@@ -69301,7 +70763,7 @@
         <v>602</v>
       </c>
       <c r="D844" s="14" t="s">
-        <v>1357</v>
+        <v>1349</v>
       </c>
       <c r="E844" s="29">
         <v>2</v>
@@ -69318,7 +70780,7 @@
         <v>602</v>
       </c>
       <c r="D845" s="14" t="s">
-        <v>1358</v>
+        <v>1350</v>
       </c>
       <c r="E845" s="29">
         <v>2</v>
@@ -69352,7 +70814,7 @@
         <v>603</v>
       </c>
       <c r="D847" s="14" t="s">
-        <v>1357</v>
+        <v>1349</v>
       </c>
       <c r="E847" s="29">
         <v>2</v>
@@ -69369,7 +70831,7 @@
         <v>603</v>
       </c>
       <c r="D848" s="14" t="s">
-        <v>1358</v>
+        <v>1350</v>
       </c>
       <c r="E848" s="29">
         <v>2</v>
@@ -69403,7 +70865,7 @@
         <v>604</v>
       </c>
       <c r="D850" s="14" t="s">
-        <v>1357</v>
+        <v>1349</v>
       </c>
       <c r="E850" s="29">
         <v>3</v>
@@ -69420,7 +70882,7 @@
         <v>604</v>
       </c>
       <c r="D851" s="14" t="s">
-        <v>1358</v>
+        <v>1350</v>
       </c>
       <c r="E851" s="29">
         <v>3</v>
@@ -69454,7 +70916,7 @@
         <v>605</v>
       </c>
       <c r="D853" s="14" t="s">
-        <v>1357</v>
+        <v>1349</v>
       </c>
       <c r="E853" s="29">
         <v>3</v>
@@ -69471,7 +70933,7 @@
         <v>605</v>
       </c>
       <c r="D854" s="14" t="s">
-        <v>1358</v>
+        <v>1350</v>
       </c>
       <c r="E854" s="29">
         <v>3</v>
@@ -69505,7 +70967,7 @@
         <v>606</v>
       </c>
       <c r="D856" s="14" t="s">
-        <v>1357</v>
+        <v>1349</v>
       </c>
       <c r="E856" s="29">
         <v>3</v>
@@ -69522,7 +70984,7 @@
         <v>606</v>
       </c>
       <c r="D857" s="14" t="s">
-        <v>1358</v>
+        <v>1350</v>
       </c>
       <c r="E857" s="29">
         <v>3</v>
@@ -69556,7 +71018,7 @@
         <v>607</v>
       </c>
       <c r="D859" s="14" t="s">
-        <v>1357</v>
+        <v>1349</v>
       </c>
       <c r="E859" s="29">
         <v>5</v>
@@ -69573,7 +71035,7 @@
         <v>607</v>
       </c>
       <c r="D860" s="14" t="s">
-        <v>1358</v>
+        <v>1350</v>
       </c>
       <c r="E860" s="29">
         <v>5</v>
@@ -69607,7 +71069,7 @@
         <v>608</v>
       </c>
       <c r="D862" s="14" t="s">
-        <v>1357</v>
+        <v>1349</v>
       </c>
       <c r="E862" s="29">
         <v>5</v>
@@ -69624,7 +71086,7 @@
         <v>608</v>
       </c>
       <c r="D863" s="14" t="s">
-        <v>1358</v>
+        <v>1350</v>
       </c>
       <c r="E863" s="29">
         <v>5</v>
@@ -69658,7 +71120,7 @@
         <v>609</v>
       </c>
       <c r="D865" s="14" t="s">
-        <v>1357</v>
+        <v>1349</v>
       </c>
       <c r="E865" s="29">
         <v>5</v>
@@ -69675,7 +71137,7 @@
         <v>609</v>
       </c>
       <c r="D866" s="14" t="s">
-        <v>1358</v>
+        <v>1350</v>
       </c>
       <c r="E866" s="29">
         <v>5</v>
@@ -69692,7 +71154,7 @@
         <v>610</v>
       </c>
       <c r="C867" s="14" t="s">
-        <v>1389</v>
+        <v>1381</v>
       </c>
       <c r="F867" s="29">
         <v>1</v>
@@ -69707,7 +71169,7 @@
       </c>
       <c r="C868" s="29"/>
       <c r="D868" s="14" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="E868" s="29">
         <v>9800000</v>
@@ -69724,7 +71186,7 @@
         <v>611</v>
       </c>
       <c r="C869" s="14" t="s">
-        <v>1390</v>
+        <v>1382</v>
       </c>
       <c r="F869" s="29">
         <v>1</v>
@@ -69739,7 +71201,7 @@
       </c>
       <c r="C870" s="29"/>
       <c r="D870" s="14" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="E870" s="29">
         <v>4800000</v>
@@ -69756,7 +71218,7 @@
         <v>612</v>
       </c>
       <c r="D871" s="14" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="E871" s="29">
         <v>4800000</v>
@@ -69773,7 +71235,7 @@
         <v>613</v>
       </c>
       <c r="D872" s="14" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="E872" s="29">
         <v>1800000</v>
@@ -69790,7 +71252,7 @@
         <v>614</v>
       </c>
       <c r="D873" s="14" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="E873" s="29">
         <v>800000</v>
@@ -69807,7 +71269,7 @@
         <v>615</v>
       </c>
       <c r="D874" s="14" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="E874" s="29">
         <v>888888</v>
@@ -69824,7 +71286,7 @@
         <v>616</v>
       </c>
       <c r="D875" s="14" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="E875" s="29">
         <v>588888</v>
@@ -69841,7 +71303,7 @@
         <v>617</v>
       </c>
       <c r="D876" s="14" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="E876" s="29">
         <v>388888</v>
@@ -69858,7 +71320,7 @@
         <v>618</v>
       </c>
       <c r="D877" s="14" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="E877" s="29">
         <v>188888</v>
@@ -69875,7 +71337,7 @@
         <v>619</v>
       </c>
       <c r="D878" s="14" t="s">
-        <v>1305</v>
+        <v>1298</v>
       </c>
       <c r="E878" s="1">
         <v>10000</v>
@@ -69895,7 +71357,7 @@
         <v>620</v>
       </c>
       <c r="D879" s="14" t="s">
-        <v>1305</v>
+        <v>1298</v>
       </c>
       <c r="E879" s="1">
         <v>20000</v>
@@ -69912,7 +71374,7 @@
         <v>621</v>
       </c>
       <c r="D880" s="14" t="s">
-        <v>1305</v>
+        <v>1298</v>
       </c>
       <c r="E880" s="1">
         <v>30000</v>
@@ -69924,7 +71386,7 @@
       <c r="H880" s="29"/>
       <c r="I880" s="29"/>
     </row>
-    <row r="881" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A881" s="12">
         <v>880</v>
       </c>
@@ -69932,7 +71394,7 @@
         <v>622</v>
       </c>
       <c r="D881" s="14" t="s">
-        <v>1305</v>
+        <v>1298</v>
       </c>
       <c r="E881" s="1">
         <v>10000</v>
@@ -69941,7 +71403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="882" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A882" s="12">
         <v>881</v>
       </c>
@@ -69949,7 +71411,7 @@
         <v>623</v>
       </c>
       <c r="D882" s="14" t="s">
-        <v>1305</v>
+        <v>1298</v>
       </c>
       <c r="E882" s="1">
         <v>20000</v>
@@ -69958,7 +71420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="883" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A883" s="12">
         <v>882</v>
       </c>
@@ -69966,7 +71428,7 @@
         <v>624</v>
       </c>
       <c r="D883" s="14" t="s">
-        <v>1305</v>
+        <v>1298</v>
       </c>
       <c r="E883" s="1">
         <v>30000</v>
@@ -69975,7 +71437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="884" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A884" s="12">
         <v>883</v>
       </c>
@@ -69983,7 +71445,7 @@
         <v>625</v>
       </c>
       <c r="D884" s="14" t="s">
-        <v>1454</v>
+        <v>1446</v>
       </c>
       <c r="E884" s="1">
         <v>50</v>
@@ -69992,23 +71454,98 @@
         <v>1</v>
       </c>
     </row>
-    <row r="885" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A885" s="12"/>
-      <c r="B885" s="29"/>
-    </row>
-    <row r="886" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A886" s="12"/>
-      <c r="B886" s="29"/>
-    </row>
-    <row r="887" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A887" s="12"/>
-      <c r="B887" s="29"/>
-    </row>
-    <row r="888" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B888" s="29"/>
-    </row>
-    <row r="889" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B889" s="29"/>
+    <row r="885" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A885" s="12">
+        <v>884</v>
+      </c>
+      <c r="B885" s="29">
+        <v>626</v>
+      </c>
+      <c r="D885" s="14" t="s">
+        <v>1487</v>
+      </c>
+      <c r="E885" s="1">
+        <v>1</v>
+      </c>
+      <c r="F885" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="886" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A886" s="12">
+        <v>885</v>
+      </c>
+      <c r="B886" s="29">
+        <v>627</v>
+      </c>
+      <c r="D886" s="14" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E886" s="29">
+        <v>1</v>
+      </c>
+      <c r="F886" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="887" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A887" s="12">
+        <v>886</v>
+      </c>
+      <c r="B887" s="29">
+        <v>628</v>
+      </c>
+      <c r="D887" s="14" t="s">
+        <v>1492</v>
+      </c>
+      <c r="E887" s="29">
+        <v>1</v>
+      </c>
+      <c r="F887" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="888" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A888" s="12">
+        <v>887</v>
+      </c>
+      <c r="B888" s="29">
+        <v>629</v>
+      </c>
+      <c r="C888" s="29"/>
+      <c r="D888" s="14" t="s">
+        <v>1522</v>
+      </c>
+      <c r="E888" s="29">
+        <v>1</v>
+      </c>
+      <c r="F888" s="29">
+        <v>1</v>
+      </c>
+      <c r="G888" s="29"/>
+      <c r="H888" s="29"/>
+      <c r="I888" s="29"/>
+    </row>
+    <row r="889" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A889" s="12">
+        <v>888</v>
+      </c>
+      <c r="B889" s="29">
+        <v>630</v>
+      </c>
+      <c r="C889" s="29"/>
+      <c r="D889" s="14" t="s">
+        <v>1524</v>
+      </c>
+      <c r="E889" s="29">
+        <v>1000</v>
+      </c>
+      <c r="F889" s="29">
+        <v>1</v>
+      </c>
+      <c r="G889" s="29"/>
+      <c r="H889" s="29"/>
+      <c r="I889" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>

--- a/config_debug/task_zajindan_server.xlsx
+++ b/config_debug/task_zajindan_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_0818\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5376" uniqueCount="1526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5387" uniqueCount="1533">
   <si>
     <t>id|任务id</t>
   </si>
@@ -6647,10 +6647,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>既购买了520礼包又购买了1314礼包，则可以领取一个实物奖励“德芙巧克力”</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>p_recharge_gift</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -8592,6 +8588,61 @@
   <si>
     <t>3</t>
     <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>表白礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>既购买了520礼包又购买了1314礼包，则可以领取一个实物奖励“德芙巧克力”</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>既购买了520礼包又购买了1314礼包，则可以领取一个实物奖励“德芙巧克力</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>631</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_id</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10281</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10282</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_026_dove_gift</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -8839,7 +8890,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -9179,6 +9230,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -9463,13 +9518,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:T428"/>
+  <dimension ref="A1:T429"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="I408" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="E408" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J427" sqref="J427"/>
+      <selection pane="bottomRight" activeCell="F434" sqref="F434:F435"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9504,7 +9559,7 @@
         <v>1038</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>3</v>
@@ -13068,7 +13123,7 @@
         <v>0</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="D86" s="16" t="s">
         <v>131</v>
@@ -13106,7 +13161,7 @@
         <v>0</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="D87" s="16" t="s">
         <v>133</v>
@@ -13144,7 +13199,7 @@
         <v>0</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="D88" s="16" t="s">
         <v>134</v>
@@ -13182,7 +13237,7 @@
         <v>0</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="D89" s="16" t="s">
         <v>135</v>
@@ -13220,7 +13275,7 @@
         <v>0</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="D90" s="16" t="s">
         <v>136</v>
@@ -13258,7 +13313,7 @@
         <v>0</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="D91" s="16" t="s">
         <v>137</v>
@@ -13296,7 +13351,7 @@
         <v>0</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="D92" s="16" t="s">
         <v>138</v>
@@ -13334,7 +13389,7 @@
         <v>0</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="D93" s="16" t="s">
         <v>139</v>
@@ -13372,7 +13427,7 @@
         <v>0</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="D94" s="16" t="s">
         <v>140</v>
@@ -13410,7 +13465,7 @@
         <v>0</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="D95" s="16" t="s">
         <v>141</v>
@@ -13448,7 +13503,7 @@
         <v>0</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="D96" s="16" t="s">
         <v>142</v>
@@ -13486,7 +13541,7 @@
         <v>0</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="D97" s="16" t="s">
         <v>143</v>
@@ -13524,7 +13579,7 @@
         <v>0</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="D98" s="16" t="s">
         <v>144</v>
@@ -13562,7 +13617,7 @@
         <v>0</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="D99" s="16" t="s">
         <v>145</v>
@@ -13600,7 +13655,7 @@
         <v>0</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="D100" s="16" t="s">
         <v>146</v>
@@ -13638,7 +13693,7 @@
         <v>0</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="D101" s="16" t="s">
         <v>147</v>
@@ -13676,7 +13731,7 @@
         <v>0</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="D102" s="16" t="s">
         <v>148</v>
@@ -13714,7 +13769,7 @@
         <v>0</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="D103" s="16" t="s">
         <v>149</v>
@@ -13752,7 +13807,7 @@
         <v>0</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="D104" s="16" t="s">
         <v>150</v>
@@ -13790,7 +13845,7 @@
         <v>0</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="D105" s="16" t="s">
         <v>151</v>
@@ -13828,7 +13883,7 @@
         <v>0</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="D106" s="16" t="s">
         <v>152</v>
@@ -13866,7 +13921,7 @@
         <v>0</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="D107" s="16" t="s">
         <v>153</v>
@@ -13904,7 +13959,7 @@
         <v>0</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="D108" s="16" t="s">
         <v>154</v>
@@ -13942,7 +13997,7 @@
         <v>0</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="D109" s="16" t="s">
         <v>155</v>
@@ -13980,7 +14035,7 @@
         <v>0</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="D110" s="16" t="s">
         <v>156</v>
@@ -14018,7 +14073,7 @@
         <v>0</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="D111" s="16" t="s">
         <v>157</v>
@@ -14056,7 +14111,7 @@
         <v>0</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="D112" s="16" t="s">
         <v>158</v>
@@ -14094,7 +14149,7 @@
         <v>0</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="D113" s="16" t="s">
         <v>159</v>
@@ -14132,7 +14187,7 @@
         <v>0</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="D114" s="16" t="s">
         <v>160</v>
@@ -14170,7 +14225,7 @@
         <v>0</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="D115" s="16" t="s">
         <v>161</v>
@@ -14208,7 +14263,7 @@
         <v>0</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="D116" s="16" t="s">
         <v>162</v>
@@ -14246,7 +14301,7 @@
         <v>0</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="D117" s="16" t="s">
         <v>163</v>
@@ -14284,7 +14339,7 @@
         <v>0</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="D118" s="16" t="s">
         <v>164</v>
@@ -14322,7 +14377,7 @@
         <v>0</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="D119" s="16" t="s">
         <v>165</v>
@@ -14360,7 +14415,7 @@
         <v>0</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="D120" s="16" t="s">
         <v>166</v>
@@ -14398,7 +14453,7 @@
         <v>0</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="D121" s="16" t="s">
         <v>167</v>
@@ -16602,13 +16657,13 @@
         <v>0</v>
       </c>
       <c r="C179" s="84" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="D179" s="84" t="s">
+        <v>1215</v>
+      </c>
+      <c r="E179" s="84" t="s">
         <v>1216</v>
-      </c>
-      <c r="E179" s="84" t="s">
-        <v>1217</v>
       </c>
       <c r="F179" s="84" t="s">
         <v>13</v>
@@ -16641,10 +16696,10 @@
         <v>0</v>
       </c>
       <c r="C180" s="84" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="D180" s="84" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="E180" s="84" t="s">
         <v>132</v>
@@ -16680,10 +16735,10 @@
         <v>0</v>
       </c>
       <c r="C181" s="84" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="D181" s="84" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="E181" s="84" t="s">
         <v>132</v>
@@ -16719,10 +16774,10 @@
         <v>0</v>
       </c>
       <c r="C182" s="84" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="D182" s="84" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="E182" s="84" t="s">
         <v>132</v>
@@ -16758,10 +16813,10 @@
         <v>0</v>
       </c>
       <c r="C183" s="84" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D183" s="61" t="s">
         <v>1183</v>
-      </c>
-      <c r="D183" s="61" t="s">
-        <v>1184</v>
       </c>
       <c r="E183" s="84" t="s">
         <v>132</v>
@@ -16797,10 +16852,10 @@
         <v>0</v>
       </c>
       <c r="C184" s="84" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="D184" s="61" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="E184" s="84" t="s">
         <v>132</v>
@@ -16836,10 +16891,10 @@
         <v>0</v>
       </c>
       <c r="C185" s="84" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="D185" s="84" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="E185" s="84" t="s">
         <v>132</v>
@@ -16875,10 +16930,10 @@
         <v>0</v>
       </c>
       <c r="C186" s="84" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="D186" s="84" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="E186" s="84" t="s">
         <v>132</v>
@@ -16914,10 +16969,10 @@
         <v>0</v>
       </c>
       <c r="C187" s="84" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="D187" s="84" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="E187" s="84" t="s">
         <v>132</v>
@@ -16953,10 +17008,10 @@
         <v>0</v>
       </c>
       <c r="C188" s="84" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="D188" s="84" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="E188" s="84" t="s">
         <v>132</v>
@@ -16992,10 +17047,10 @@
         <v>0</v>
       </c>
       <c r="C189" s="84" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="D189" s="84" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="E189" s="84" t="s">
         <v>132</v>
@@ -17031,10 +17086,10 @@
         <v>0</v>
       </c>
       <c r="C190" s="84" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="D190" s="84" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="E190" s="84" t="s">
         <v>132</v>
@@ -17070,10 +17125,10 @@
         <v>0</v>
       </c>
       <c r="C191" s="84" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="D191" s="84" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="E191" s="84" t="s">
         <v>132</v>
@@ -17150,7 +17205,7 @@
         <v>237</v>
       </c>
       <c r="D193" s="51" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="E193" s="51" t="s">
         <v>239</v>
@@ -17188,7 +17243,7 @@
         <v>237</v>
       </c>
       <c r="D194" s="51" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="E194" s="51" t="s">
         <v>239</v>
@@ -17226,7 +17281,7 @@
         <v>237</v>
       </c>
       <c r="D195" s="51" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="E195" s="51" t="s">
         <v>239</v>
@@ -17264,7 +17319,7 @@
         <v>237</v>
       </c>
       <c r="D196" s="51" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="E196" s="51" t="s">
         <v>239</v>
@@ -17302,7 +17357,7 @@
         <v>237</v>
       </c>
       <c r="D197" s="51" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="E197" s="51" t="s">
         <v>239</v>
@@ -17340,7 +17395,7 @@
         <v>237</v>
       </c>
       <c r="D198" s="51" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="E198" s="51" t="s">
         <v>239</v>
@@ -20877,7 +20932,7 @@
         <v>372</v>
       </c>
       <c r="E291" s="16" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="F291" s="16" t="s">
         <v>13</v>
@@ -21070,7 +21125,7 @@
         <v>852</v>
       </c>
       <c r="F296" s="16" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="G296" s="12">
         <v>21243</v>
@@ -22847,7 +22902,7 @@
         <v>0</v>
       </c>
       <c r="C343" s="16" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="D343" s="16" t="s">
         <v>1052</v>
@@ -22923,7 +22978,7 @@
         <v>0</v>
       </c>
       <c r="C345" s="16" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="D345" s="16" t="s">
         <v>1110</v>
@@ -23341,13 +23396,13 @@
         <v>0</v>
       </c>
       <c r="C356" s="16" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="D356" s="16" t="s">
-        <v>1124</v>
+        <v>1526</v>
       </c>
       <c r="E356" s="16" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="F356" s="16" t="s">
         <v>855</v>
@@ -23379,16 +23434,16 @@
         <v>0</v>
       </c>
       <c r="C357" s="16" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D357" s="16" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E357" s="16" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F357" s="16" t="s">
         <v>1137</v>
-      </c>
-      <c r="D357" s="16" t="s">
-        <v>1158</v>
-      </c>
-      <c r="E357" s="16" t="s">
-        <v>1163</v>
-      </c>
-      <c r="F357" s="16" t="s">
-        <v>1138</v>
       </c>
       <c r="G357" s="12">
         <v>21304</v>
@@ -23417,16 +23472,16 @@
         <v>0</v>
       </c>
       <c r="C358" s="16" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D358" s="16" t="s">
+        <v>1164</v>
+      </c>
+      <c r="E358" s="16" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F358" s="16" t="s">
         <v>1137</v>
-      </c>
-      <c r="D358" s="16" t="s">
-        <v>1165</v>
-      </c>
-      <c r="E358" s="16" t="s">
-        <v>1163</v>
-      </c>
-      <c r="F358" s="16" t="s">
-        <v>1138</v>
       </c>
       <c r="G358" s="12">
         <v>21305</v>
@@ -23455,16 +23510,16 @@
         <v>0</v>
       </c>
       <c r="C359" s="16" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D359" s="16" t="s">
+        <v>1165</v>
+      </c>
+      <c r="E359" s="16" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F359" s="16" t="s">
         <v>1137</v>
-      </c>
-      <c r="D359" s="16" t="s">
-        <v>1166</v>
-      </c>
-      <c r="E359" s="16" t="s">
-        <v>1162</v>
-      </c>
-      <c r="F359" s="16" t="s">
-        <v>1138</v>
       </c>
       <c r="G359" s="12">
         <v>21306</v>
@@ -23493,16 +23548,16 @@
         <v>0</v>
       </c>
       <c r="C360" s="16" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D360" s="16" t="s">
+        <v>1166</v>
+      </c>
+      <c r="E360" s="16" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F360" s="16" t="s">
         <v>1137</v>
-      </c>
-      <c r="D360" s="16" t="s">
-        <v>1167</v>
-      </c>
-      <c r="E360" s="16" t="s">
-        <v>1162</v>
-      </c>
-      <c r="F360" s="16" t="s">
-        <v>1138</v>
       </c>
       <c r="G360" s="12">
         <v>21307</v>
@@ -23531,16 +23586,16 @@
         <v>0</v>
       </c>
       <c r="C361" s="16" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D361" s="16" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E361" s="16" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F361" s="16" t="s">
         <v>1137</v>
-      </c>
-      <c r="D361" s="16" t="s">
-        <v>1168</v>
-      </c>
-      <c r="E361" s="16" t="s">
-        <v>1162</v>
-      </c>
-      <c r="F361" s="16" t="s">
-        <v>1138</v>
       </c>
       <c r="G361" s="12">
         <v>21308</v>
@@ -23569,16 +23624,16 @@
         <v>0</v>
       </c>
       <c r="C362" s="16" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="D362" s="16" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="E362" s="16" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="F362" s="16" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="G362" s="12">
         <v>21309</v>
@@ -23607,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="C363" s="16" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="D363" s="16" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="E363" s="16" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="F363" s="16" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="G363" s="12">
         <v>21310</v>
@@ -23645,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="C364" s="16" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="D364" s="16" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="E364" s="16" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="F364" s="16" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="G364" s="12">
         <v>21311</v>
@@ -23683,16 +23738,16 @@
         <v>0</v>
       </c>
       <c r="C365" s="16" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="D365" s="16" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="E365" s="16" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="F365" s="16" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="G365" s="12">
         <v>21312</v>
@@ -23721,16 +23776,16 @@
         <v>0</v>
       </c>
       <c r="C366" s="16" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="D366" s="16" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="E366" s="16" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="F366" s="16" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="G366" s="12">
         <v>21313</v>
@@ -23759,13 +23814,13 @@
         <v>1</v>
       </c>
       <c r="C367" s="16" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D367" s="16" t="s">
         <v>1174</v>
       </c>
-      <c r="D367" s="16" t="s">
+      <c r="E367" s="16" t="s">
         <v>1175</v>
-      </c>
-      <c r="E367" s="16" t="s">
-        <v>1176</v>
       </c>
       <c r="F367" s="12" t="s">
         <v>108</v>
@@ -23797,16 +23852,16 @@
         <v>1</v>
       </c>
       <c r="C368" s="98" t="s">
+        <v>1493</v>
+      </c>
+      <c r="D368" s="99" t="s">
         <v>1494</v>
-      </c>
-      <c r="D368" s="99" t="s">
-        <v>1495</v>
       </c>
       <c r="E368" s="98" t="s">
         <v>12</v>
       </c>
       <c r="F368" s="98" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="G368" s="97">
         <v>21315</v>
@@ -23835,16 +23890,16 @@
         <v>1</v>
       </c>
       <c r="C369" s="98" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="D369" s="99" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="E369" s="98" t="s">
         <v>12</v>
       </c>
       <c r="F369" s="98" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="G369" s="97">
         <v>21316</v>
@@ -23873,16 +23928,16 @@
         <v>1</v>
       </c>
       <c r="C370" s="98" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="D370" s="98" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="E370" s="98" t="s">
         <v>12</v>
       </c>
       <c r="F370" s="98" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="G370" s="97">
         <v>21317</v>
@@ -23911,16 +23966,16 @@
         <v>1</v>
       </c>
       <c r="C371" s="98" t="s">
+        <v>1498</v>
+      </c>
+      <c r="D371" s="98" t="s">
         <v>1499</v>
-      </c>
-      <c r="D371" s="98" t="s">
-        <v>1500</v>
       </c>
       <c r="E371" s="98" t="s">
         <v>12</v>
       </c>
       <c r="F371" s="98" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="G371" s="97">
         <v>21318</v>
@@ -23949,16 +24004,16 @@
         <v>1</v>
       </c>
       <c r="C372" s="98" t="s">
+        <v>1238</v>
+      </c>
+      <c r="D372" s="98" t="s">
         <v>1239</v>
       </c>
-      <c r="D372" s="98" t="s">
+      <c r="E372" s="98" t="s">
         <v>1240</v>
       </c>
-      <c r="E372" s="98" t="s">
+      <c r="F372" s="98" t="s">
         <v>1241</v>
-      </c>
-      <c r="F372" s="98" t="s">
-        <v>1242</v>
       </c>
       <c r="G372" s="97">
         <v>21319</v>
@@ -23987,16 +24042,16 @@
         <v>1</v>
       </c>
       <c r="C373" s="98" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="D373" s="98" t="s">
+        <v>1242</v>
+      </c>
+      <c r="E373" s="98" t="s">
         <v>1243</v>
       </c>
-      <c r="E373" s="98" t="s">
+      <c r="F373" s="98" t="s">
         <v>1244</v>
-      </c>
-      <c r="F373" s="98" t="s">
-        <v>1245</v>
       </c>
       <c r="G373" s="97">
         <v>21320</v>
@@ -24025,16 +24080,16 @@
         <v>1</v>
       </c>
       <c r="C374" s="98" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="D374" s="98" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E374" s="98" t="s">
         <v>1246</v>
       </c>
-      <c r="E374" s="98" t="s">
-        <v>1247</v>
-      </c>
       <c r="F374" s="98" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="G374" s="97">
         <v>21321</v>
@@ -24063,16 +24118,16 @@
         <v>1</v>
       </c>
       <c r="C375" s="98" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="D375" s="98" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="E375" s="100" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F375" s="98" t="s">
         <v>1249</v>
-      </c>
-      <c r="F375" s="98" t="s">
-        <v>1250</v>
       </c>
       <c r="G375" s="97">
         <v>21322</v>
@@ -24101,16 +24156,16 @@
         <v>1</v>
       </c>
       <c r="C376" s="98" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="D376" s="98" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="E376" s="100" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="F376" s="98" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="G376" s="97">
         <v>21323</v>
@@ -24139,16 +24194,16 @@
         <v>1</v>
       </c>
       <c r="C377" s="98" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="D377" s="98" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="E377" s="100" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F377" s="98" t="s">
         <v>1249</v>
-      </c>
-      <c r="F377" s="98" t="s">
-        <v>1250</v>
       </c>
       <c r="G377" s="97">
         <v>21324</v>
@@ -24177,16 +24232,16 @@
         <v>1</v>
       </c>
       <c r="C378" s="98" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="D378" s="98" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="E378" s="100" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F378" s="98" t="s">
         <v>1249</v>
-      </c>
-      <c r="F378" s="98" t="s">
-        <v>1250</v>
       </c>
       <c r="G378" s="97">
         <v>21325</v>
@@ -24215,13 +24270,13 @@
         <v>1</v>
       </c>
       <c r="C379" s="98" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="D379" s="98" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="E379" s="100" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="F379" s="98" t="s">
         <v>855</v>
@@ -24253,16 +24308,16 @@
         <v>1</v>
       </c>
       <c r="C380" s="98" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="D380" s="98" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="E380" s="100" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F380" s="98" t="s">
         <v>1249</v>
-      </c>
-      <c r="F380" s="98" t="s">
-        <v>1250</v>
       </c>
       <c r="G380" s="97">
         <v>21327</v>
@@ -24291,16 +24346,16 @@
         <v>1</v>
       </c>
       <c r="C381" s="98" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="D381" s="98" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E381" s="100" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F381" s="98" t="s">
         <v>1249</v>
-      </c>
-      <c r="F381" s="98" t="s">
-        <v>1250</v>
       </c>
       <c r="G381" s="97">
         <v>21328</v>
@@ -24329,16 +24384,16 @@
         <v>1</v>
       </c>
       <c r="C382" s="98" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="D382" s="98" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="E382" s="100" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F382" s="98" t="s">
         <v>1249</v>
-      </c>
-      <c r="F382" s="98" t="s">
-        <v>1250</v>
       </c>
       <c r="G382" s="97">
         <v>21329</v>
@@ -24367,16 +24422,16 @@
         <v>1</v>
       </c>
       <c r="C383" s="98" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="D383" s="98" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="E383" s="100" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F383" s="98" t="s">
         <v>1249</v>
-      </c>
-      <c r="F383" s="98" t="s">
-        <v>1250</v>
       </c>
       <c r="G383" s="97">
         <v>21330</v>
@@ -24405,16 +24460,16 @@
         <v>1</v>
       </c>
       <c r="C384" s="98" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="D384" s="98" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="E384" s="98" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="F384" s="98" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="G384" s="97">
         <v>21331</v>
@@ -24443,13 +24498,13 @@
         <v>1</v>
       </c>
       <c r="C385" s="98" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="D385" s="98" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="E385" s="98" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="F385" s="98" t="s">
         <v>855</v>
@@ -24481,16 +24536,16 @@
         <v>1</v>
       </c>
       <c r="C386" s="98" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="D386" s="98" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="E386" s="98" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="F386" s="98" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="G386" s="97">
         <v>21333</v>
@@ -24519,16 +24574,16 @@
         <v>1</v>
       </c>
       <c r="C387" s="98" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="D387" s="98" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="E387" s="98" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="F387" s="98" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="G387" s="97">
         <v>21334</v>
@@ -24557,16 +24612,16 @@
         <v>1</v>
       </c>
       <c r="C388" s="98" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="D388" s="98" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="E388" s="98" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="F388" s="98" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="G388" s="97">
         <v>21335</v>
@@ -24595,13 +24650,13 @@
         <v>1</v>
       </c>
       <c r="C389" s="98" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="D389" s="98" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="E389" s="98" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="F389" s="98" t="s">
         <v>855</v>
@@ -24633,16 +24688,16 @@
         <v>1</v>
       </c>
       <c r="C390" s="98" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="D390" s="98" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="E390" s="98" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="F390" s="98" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="G390" s="97">
         <v>21337</v>
@@ -24671,16 +24726,16 @@
         <v>1</v>
       </c>
       <c r="C391" s="98" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="D391" s="98" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="E391" s="98" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="F391" s="98" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="G391" s="97">
         <v>21338</v>
@@ -24709,16 +24764,16 @@
         <v>1</v>
       </c>
       <c r="C392" s="98" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="D392" s="98" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="E392" s="98" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="F392" s="98" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="G392" s="97">
         <v>21339</v>
@@ -24747,16 +24802,16 @@
         <v>1</v>
       </c>
       <c r="C393" s="98" t="s">
+        <v>1313</v>
+      </c>
+      <c r="D393" s="97" t="s">
         <v>1314</v>
       </c>
-      <c r="D393" s="97" t="s">
+      <c r="E393" s="100" t="s">
         <v>1315</v>
       </c>
-      <c r="E393" s="100" t="s">
-        <v>1316</v>
-      </c>
       <c r="F393" s="98" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="G393" s="97">
         <v>21340</v>
@@ -24785,16 +24840,16 @@
         <v>1</v>
       </c>
       <c r="C394" s="98" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="D394" s="98" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="E394" s="98" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="F394" s="98" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="G394" s="97">
         <v>21341</v>
@@ -24823,13 +24878,13 @@
         <v>1</v>
       </c>
       <c r="C395" s="102" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="D395" s="102" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="E395" s="102" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="F395" s="102" t="s">
         <v>13</v>
@@ -24861,13 +24916,13 @@
         <v>1</v>
       </c>
       <c r="C396" s="102" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="D396" s="102" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="E396" s="102" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="F396" s="102" t="s">
         <v>13</v>
@@ -24899,13 +24954,13 @@
         <v>1</v>
       </c>
       <c r="C397" s="102" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="D397" s="102" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="E397" s="102" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="F397" s="102" t="s">
         <v>13</v>
@@ -24937,13 +24992,13 @@
         <v>1</v>
       </c>
       <c r="C398" s="102" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="D398" s="102" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="E398" s="102" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="F398" s="102" t="s">
         <v>13</v>
@@ -24975,13 +25030,13 @@
         <v>1</v>
       </c>
       <c r="C399" s="102" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="D399" s="102" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="E399" s="102" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="F399" s="102" t="s">
         <v>13</v>
@@ -25013,13 +25068,13 @@
         <v>1</v>
       </c>
       <c r="C400" s="103" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="D400" s="104" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="E400" s="104" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="F400" s="103" t="s">
         <v>13</v>
@@ -25051,13 +25106,13 @@
         <v>1</v>
       </c>
       <c r="C401" s="103" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="D401" s="104" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="E401" s="104" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="F401" s="103" t="s">
         <v>13</v>
@@ -25089,13 +25144,13 @@
         <v>1</v>
       </c>
       <c r="C402" s="103" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="D402" s="104" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="E402" s="104" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="F402" s="103" t="s">
         <v>13</v>
@@ -25127,13 +25182,13 @@
         <v>1</v>
       </c>
       <c r="C403" s="104" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="D403" s="104" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E403" s="104" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="F403" s="103" t="s">
         <v>13</v>
@@ -25165,16 +25220,16 @@
         <v>1</v>
       </c>
       <c r="C404" s="49" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="D404" s="49" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="E404" s="49" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="F404" s="49" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="G404" s="7">
         <v>21351</v>
@@ -25203,16 +25258,16 @@
         <v>1</v>
       </c>
       <c r="C405" s="49" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="D405" s="49" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="E405" s="49" t="s">
+        <v>1401</v>
+      </c>
+      <c r="F405" s="49" t="s">
         <v>1402</v>
-      </c>
-      <c r="F405" s="49" t="s">
-        <v>1403</v>
       </c>
       <c r="G405" s="7">
         <v>21352</v>
@@ -25241,16 +25296,16 @@
         <v>1</v>
       </c>
       <c r="C406" s="49" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="D406" s="49" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="E406" s="49" t="s">
+        <v>1401</v>
+      </c>
+      <c r="F406" s="49" t="s">
         <v>1402</v>
-      </c>
-      <c r="F406" s="49" t="s">
-        <v>1403</v>
       </c>
       <c r="G406" s="7">
         <v>21353</v>
@@ -25279,16 +25334,16 @@
         <v>1</v>
       </c>
       <c r="C407" s="49" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="D407" s="49" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="E407" s="49" t="s">
+        <v>1401</v>
+      </c>
+      <c r="F407" s="49" t="s">
         <v>1402</v>
-      </c>
-      <c r="F407" s="49" t="s">
-        <v>1403</v>
       </c>
       <c r="G407" s="7">
         <v>21354</v>
@@ -25317,16 +25372,16 @@
         <v>1</v>
       </c>
       <c r="C408" s="49" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="D408" s="49" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="E408" s="49" t="s">
+        <v>1401</v>
+      </c>
+      <c r="F408" s="49" t="s">
         <v>1402</v>
-      </c>
-      <c r="F408" s="49" t="s">
-        <v>1403</v>
       </c>
       <c r="G408" s="7">
         <v>21355</v>
@@ -25355,16 +25410,16 @@
         <v>1</v>
       </c>
       <c r="C409" s="49" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="D409" s="49" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="E409" s="49" t="s">
+        <v>1401</v>
+      </c>
+      <c r="F409" s="49" t="s">
         <v>1402</v>
-      </c>
-      <c r="F409" s="49" t="s">
-        <v>1403</v>
       </c>
       <c r="G409" s="7">
         <v>21356</v>
@@ -25393,16 +25448,16 @@
         <v>1</v>
       </c>
       <c r="C410" s="49" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="D410" s="49" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="E410" s="49" t="s">
+        <v>1401</v>
+      </c>
+      <c r="F410" s="49" t="s">
         <v>1402</v>
-      </c>
-      <c r="F410" s="49" t="s">
-        <v>1403</v>
       </c>
       <c r="G410" s="7">
         <v>21357</v>
@@ -25431,16 +25486,16 @@
         <v>1</v>
       </c>
       <c r="C411" s="49" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="D411" s="49" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="E411" s="49" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="F411" s="49" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="G411" s="7">
         <v>21358</v>
@@ -25469,13 +25524,13 @@
         <v>1</v>
       </c>
       <c r="C412" s="7" t="s">
+        <v>1430</v>
+      </c>
+      <c r="D412" s="7" t="s">
         <v>1431</v>
       </c>
-      <c r="D412" s="7" t="s">
+      <c r="E412" s="7" t="s">
         <v>1432</v>
-      </c>
-      <c r="E412" s="7" t="s">
-        <v>1433</v>
       </c>
       <c r="F412" s="7" t="s">
         <v>855</v>
@@ -25507,13 +25562,13 @@
         <v>1</v>
       </c>
       <c r="C413" s="7" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="D413" s="7" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="E413" s="7" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="F413" s="7" t="s">
         <v>855</v>
@@ -25545,13 +25600,13 @@
         <v>1</v>
       </c>
       <c r="C414" s="7" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="D414" s="7" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="E414" s="49" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="F414" s="7" t="s">
         <v>855</v>
@@ -25583,13 +25638,13 @@
         <v>1</v>
       </c>
       <c r="C415" s="51" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="D415" s="51" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="E415" s="51" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="F415" s="9" t="s">
         <v>855</v>
@@ -25621,16 +25676,16 @@
         <v>1</v>
       </c>
       <c r="C416" s="51" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="D416" s="51" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="E416" s="51" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="F416" s="9" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="G416" s="9">
         <v>21363</v>
@@ -25659,13 +25714,13 @@
         <v>1</v>
       </c>
       <c r="C417" s="51" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="D417" s="51" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="E417" s="51" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="F417" s="9" t="s">
         <v>855</v>
@@ -25697,16 +25752,16 @@
         <v>1</v>
       </c>
       <c r="C418" s="51" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="D418" s="51" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="E418" s="51" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="F418" s="9" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="G418" s="9">
         <v>21365</v>
@@ -25735,16 +25790,16 @@
         <v>1</v>
       </c>
       <c r="C419" s="51" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="D419" s="51" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="E419" s="51" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="F419" s="9" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="G419" s="9">
         <v>21366</v>
@@ -25773,13 +25828,13 @@
         <v>1</v>
       </c>
       <c r="C420" s="51" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="D420" s="51" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="E420" s="51" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="F420" s="9" t="s">
         <v>855</v>
@@ -25811,16 +25866,16 @@
         <v>1</v>
       </c>
       <c r="C421" s="51" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="D421" s="51" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="E421" s="51" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="F421" s="9" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="G421" s="9">
         <v>21368</v>
@@ -25849,16 +25904,16 @@
         <v>1</v>
       </c>
       <c r="C422" s="51" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="D422" s="51" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="E422" s="51" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="F422" s="9" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="G422" s="9">
         <v>21369</v>
@@ -25887,16 +25942,16 @@
         <v>1</v>
       </c>
       <c r="C423" s="51" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="D423" s="51" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="E423" s="51" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="F423" s="9" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="G423" s="9">
         <v>21370</v>
@@ -25925,16 +25980,16 @@
         <v>1</v>
       </c>
       <c r="C424" s="51" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="D424" s="51" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="E424" s="51" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="F424" s="9" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="G424" s="9">
         <v>21371</v>
@@ -25963,13 +26018,13 @@
         <v>1</v>
       </c>
       <c r="C425" s="114" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="D425" s="114" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="E425" s="114" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="F425" s="113" t="s">
         <v>855</v>
@@ -26001,13 +26056,13 @@
         <v>1</v>
       </c>
       <c r="C426" s="114" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="D426" s="114" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="E426" s="114" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="F426" s="113" t="s">
         <v>855</v>
@@ -26039,13 +26094,13 @@
         <v>1</v>
       </c>
       <c r="C427" s="114" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="D427" s="114" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="E427" s="114" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="F427" s="113" t="s">
         <v>855</v>
@@ -26077,13 +26132,13 @@
         <v>1</v>
       </c>
       <c r="C428" s="114" t="s">
+        <v>1507</v>
+      </c>
+      <c r="D428" s="114" t="s">
         <v>1508</v>
       </c>
-      <c r="D428" s="114" t="s">
-        <v>1509</v>
-      </c>
       <c r="E428" s="114" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="F428" s="113" t="s">
         <v>855</v>
@@ -26104,6 +26159,44 @@
         <v>32503651200</v>
       </c>
       <c r="L428" s="113">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A429" s="61">
+        <v>1000018</v>
+      </c>
+      <c r="B429" s="61">
+        <v>1</v>
+      </c>
+      <c r="C429" s="61" t="s">
+        <v>1525</v>
+      </c>
+      <c r="D429" s="61" t="s">
+        <v>1527</v>
+      </c>
+      <c r="E429" s="84" t="s">
+        <v>1532</v>
+      </c>
+      <c r="F429" s="61" t="s">
+        <v>855</v>
+      </c>
+      <c r="G429" s="61">
+        <v>21376</v>
+      </c>
+      <c r="H429" s="61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I429" s="61">
+        <v>1</v>
+      </c>
+      <c r="J429" s="61">
+        <v>1598311800</v>
+      </c>
+      <c r="K429" s="61">
+        <v>1598889599</v>
+      </c>
+      <c r="L429" s="61">
         <v>-1</v>
       </c>
     </row>
@@ -26118,13 +26211,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:K428"/>
+  <dimension ref="A1:K429"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C405" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D428" sqref="D428"/>
+      <selection pane="bottomRight" activeCell="C432" sqref="C432"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -26152,7 +26245,7 @@
         <v>380</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F1" s="34" t="s">
         <v>381</v>
@@ -26167,7 +26260,7 @@
         <v>917</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="K1" s="38"/>
     </row>
@@ -30947,7 +31040,7 @@
       </c>
       <c r="E179" s="10"/>
       <c r="F179" s="82" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="G179" s="79"/>
       <c r="H179" s="83" t="s">
@@ -30972,7 +31065,7 @@
         <v>121</v>
       </c>
       <c r="F180" s="40" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="G180" s="35"/>
       <c r="H180" s="15" t="s">
@@ -30997,7 +31090,7 @@
         <v>122</v>
       </c>
       <c r="F181" s="40" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="G181" s="35"/>
       <c r="H181" s="15" t="s">
@@ -31022,7 +31115,7 @@
         <v>123</v>
       </c>
       <c r="F182" s="40" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="G182" s="35"/>
       <c r="H182" s="15" t="s">
@@ -31094,7 +31187,7 @@
         <v>21132</v>
       </c>
       <c r="C185" s="13" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="D185" s="11">
         <v>184</v>
@@ -31315,7 +31408,7 @@
         <v>0</v>
       </c>
       <c r="F193" s="82" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="G193" s="79"/>
       <c r="H193" s="83" t="s">
@@ -31340,7 +31433,7 @@
         <v>0</v>
       </c>
       <c r="F194" s="82" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="G194" s="79"/>
       <c r="H194" s="83" t="s">
@@ -31365,7 +31458,7 @@
         <v>0</v>
       </c>
       <c r="F195" s="82" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="G195" s="79"/>
       <c r="H195" s="83" t="s">
@@ -31390,7 +31483,7 @@
         <v>0</v>
       </c>
       <c r="F196" s="82" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="G196" s="79"/>
       <c r="H196" s="83" t="s">
@@ -31415,7 +31508,7 @@
         <v>0</v>
       </c>
       <c r="F197" s="82" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="G197" s="79"/>
       <c r="H197" s="83" t="s">
@@ -33332,7 +33425,7 @@
         <v>21216</v>
       </c>
       <c r="C269" s="13" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="D269" s="11">
         <v>268</v>
@@ -35436,7 +35529,7 @@
       </c>
       <c r="G356" s="35"/>
       <c r="H356" s="15" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="I356" s="13" t="s">
         <v>856</v>
@@ -35455,14 +35548,14 @@
       </c>
       <c r="E357" s="11"/>
       <c r="F357" s="40" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="G357" s="35"/>
       <c r="H357" s="11">
         <v>547</v>
       </c>
       <c r="I357" s="13" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="358" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -35478,14 +35571,14 @@
       </c>
       <c r="E358" s="11"/>
       <c r="F358" s="40" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="G358" s="35"/>
       <c r="H358" s="11">
         <v>548</v>
       </c>
       <c r="I358" s="13" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="359" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -35501,14 +35594,14 @@
       </c>
       <c r="E359" s="11"/>
       <c r="F359" s="40" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="G359" s="35"/>
       <c r="H359" s="11">
         <v>549</v>
       </c>
       <c r="I359" s="13" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="360" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -35524,14 +35617,14 @@
       </c>
       <c r="E360" s="11"/>
       <c r="F360" s="40" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="G360" s="35"/>
       <c r="H360" s="11">
         <v>560</v>
       </c>
       <c r="I360" s="13" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="361" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -35547,14 +35640,14 @@
       </c>
       <c r="E361" s="11"/>
       <c r="F361" s="40" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="G361" s="35"/>
       <c r="H361" s="11">
         <v>561</v>
       </c>
       <c r="I361" s="13" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="362" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -35570,14 +35663,14 @@
       </c>
       <c r="E362" s="11"/>
       <c r="F362" s="40" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G362" s="35"/>
       <c r="H362" s="11">
         <v>562</v>
       </c>
       <c r="I362" s="13" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="363" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -35593,14 +35686,14 @@
       </c>
       <c r="E363" s="11"/>
       <c r="F363" s="40" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="G363" s="35"/>
       <c r="H363" s="11">
         <v>563</v>
       </c>
       <c r="I363" s="13" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="364" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -35616,14 +35709,14 @@
       </c>
       <c r="E364" s="11"/>
       <c r="F364" s="40" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="G364" s="35"/>
       <c r="H364" s="11">
         <v>564</v>
       </c>
       <c r="I364" s="13" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="365" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -35639,14 +35732,14 @@
       </c>
       <c r="E365" s="11"/>
       <c r="F365" s="40" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="G365" s="35"/>
       <c r="H365" s="11">
         <v>565</v>
       </c>
       <c r="I365" s="13" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="366" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -35662,14 +35755,14 @@
       </c>
       <c r="E366" s="11"/>
       <c r="F366" s="40" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G366" s="35"/>
       <c r="H366" s="11">
         <v>566</v>
       </c>
       <c r="I366" s="13" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="367" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -35691,7 +35784,7 @@
       </c>
       <c r="G367" s="35"/>
       <c r="H367" s="15" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="I367" s="11" t="s">
         <v>387</v>
@@ -35710,14 +35803,14 @@
       </c>
       <c r="E368" s="11"/>
       <c r="F368" s="40" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="G368" s="35"/>
       <c r="H368" s="15" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="I368" s="13" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="369" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -35733,14 +35826,14 @@
       </c>
       <c r="E369" s="11"/>
       <c r="F369" s="40" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="G369" s="35"/>
       <c r="H369" s="15" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="I369" s="13" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="370" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -35756,14 +35849,14 @@
       </c>
       <c r="E370" s="11"/>
       <c r="F370" s="40" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="G370" s="35"/>
       <c r="H370" s="15" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="I370" s="13" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="371" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -35779,14 +35872,14 @@
       </c>
       <c r="E371" s="11"/>
       <c r="F371" s="40" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="G371" s="35"/>
       <c r="H371" s="15" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="I371" s="13" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="372" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -35802,14 +35895,14 @@
       </c>
       <c r="E372" s="11"/>
       <c r="F372" s="40" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="G372" s="35"/>
       <c r="H372" s="15" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="I372" s="13" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="373" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -35823,12 +35916,12 @@
       <c r="D373" s="11"/>
       <c r="E373" s="11"/>
       <c r="F373" s="40" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="G373" s="35"/>
       <c r="H373" s="15"/>
       <c r="I373" s="13" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="374" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -35842,12 +35935,12 @@
       <c r="D374" s="11"/>
       <c r="E374" s="11"/>
       <c r="F374" s="40" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="G374" s="35"/>
       <c r="H374" s="15"/>
       <c r="I374" s="13" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="375" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -35863,14 +35956,14 @@
       </c>
       <c r="E375" s="11"/>
       <c r="F375" s="40" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="G375" s="35"/>
       <c r="H375" s="15" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="I375" s="13" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="376" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -35886,14 +35979,14 @@
       </c>
       <c r="E376" s="11"/>
       <c r="F376" s="40" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="G376" s="35"/>
       <c r="H376" s="15" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="I376" s="13" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="377" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -35909,14 +36002,14 @@
       </c>
       <c r="E377" s="11"/>
       <c r="F377" s="40" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="G377" s="35"/>
       <c r="H377" s="15" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="I377" s="13" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="378" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -35932,14 +36025,14 @@
       </c>
       <c r="E378" s="11"/>
       <c r="F378" s="40" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="G378" s="35"/>
       <c r="H378" s="15" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="I378" s="13" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="379" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -35955,14 +36048,14 @@
       </c>
       <c r="E379" s="11"/>
       <c r="F379" s="40" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="G379" s="35"/>
       <c r="H379" s="15" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="I379" s="13" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="380" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -35978,14 +36071,14 @@
       </c>
       <c r="E380" s="11"/>
       <c r="F380" s="40" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="G380" s="35"/>
       <c r="H380" s="15" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="I380" s="13" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="381" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -36001,14 +36094,14 @@
       </c>
       <c r="E381" s="11"/>
       <c r="F381" s="40" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="G381" s="35"/>
       <c r="H381" s="15" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="I381" s="13" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="382" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -36024,14 +36117,14 @@
       </c>
       <c r="E382" s="11"/>
       <c r="F382" s="40" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="G382" s="35"/>
       <c r="H382" s="15" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="I382" s="13" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="383" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -36047,14 +36140,14 @@
       </c>
       <c r="E383" s="11"/>
       <c r="F383" s="40" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="G383" s="35"/>
       <c r="H383" s="15" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="I383" s="13" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="384" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -36070,14 +36163,14 @@
       </c>
       <c r="E384" s="11"/>
       <c r="F384" s="40" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="G384" s="35"/>
       <c r="H384" s="15" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="I384" s="13" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="385" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -36095,14 +36188,14 @@
         <v>258</v>
       </c>
       <c r="F385" s="40" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="G385" s="35"/>
       <c r="H385" s="15" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="I385" s="13" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="386" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -36120,14 +36213,14 @@
         <v>259</v>
       </c>
       <c r="F386" s="40" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="G386" s="35"/>
       <c r="H386" s="15" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="I386" s="13" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="387" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -36143,14 +36236,14 @@
       </c>
       <c r="E387" s="11"/>
       <c r="F387" s="40" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="G387" s="35"/>
       <c r="H387" s="15" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="I387" s="13" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="388" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -36166,14 +36259,14 @@
       </c>
       <c r="E388" s="11"/>
       <c r="F388" s="40" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="G388" s="35"/>
       <c r="H388" s="15" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="I388" s="13" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="389" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -36191,14 +36284,14 @@
         <v>260</v>
       </c>
       <c r="F389" s="40" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="G389" s="35"/>
       <c r="H389" s="15" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="I389" s="13" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="390" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -36214,14 +36307,14 @@
       </c>
       <c r="E390" s="11"/>
       <c r="F390" s="40" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="G390" s="35"/>
       <c r="H390" s="15" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="I390" s="13" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="391" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -36239,14 +36332,14 @@
         <v>261</v>
       </c>
       <c r="F391" s="40" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="G391" s="35"/>
       <c r="H391" s="15" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="I391" s="13" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="392" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -36264,14 +36357,14 @@
         <v>262</v>
       </c>
       <c r="F392" s="40" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="G392" s="35"/>
       <c r="H392" s="15" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="I392" s="13" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="393" spans="1:9" s="6" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -36287,11 +36380,11 @@
       </c>
       <c r="E393" s="11"/>
       <c r="F393" s="40" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="G393" s="35"/>
       <c r="H393" s="40" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="I393" s="13" t="s">
         <v>387</v>
@@ -36312,11 +36405,11 @@
         <v>263</v>
       </c>
       <c r="F394" s="40" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="G394" s="35"/>
       <c r="H394" s="15" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="I394" s="11"/>
     </row>
@@ -36337,7 +36430,7 @@
       </c>
       <c r="G395" s="108"/>
       <c r="H395" s="109" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="I395" s="106" t="s">
         <v>387</v>
@@ -36360,7 +36453,7 @@
       </c>
       <c r="G396" s="108"/>
       <c r="H396" s="109" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="I396" s="106" t="s">
         <v>387</v>
@@ -36383,7 +36476,7 @@
       </c>
       <c r="G397" s="108"/>
       <c r="H397" s="109" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="I397" s="106" t="s">
         <v>387</v>
@@ -36406,7 +36499,7 @@
       </c>
       <c r="G398" s="108"/>
       <c r="H398" s="109" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="I398" s="106" t="s">
         <v>387</v>
@@ -36429,7 +36522,7 @@
       </c>
       <c r="G399" s="108"/>
       <c r="H399" s="109" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="I399" s="106" t="s">
         <v>387</v>
@@ -36452,7 +36545,7 @@
       </c>
       <c r="G400" s="108"/>
       <c r="H400" s="109" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="I400" s="106" t="s">
         <v>387</v>
@@ -36475,7 +36568,7 @@
       </c>
       <c r="G401" s="108"/>
       <c r="H401" s="109" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="I401" s="106" t="s">
         <v>387</v>
@@ -36498,7 +36591,7 @@
       </c>
       <c r="G402" s="108"/>
       <c r="H402" s="109" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="I402" s="106" t="s">
         <v>387</v>
@@ -36521,7 +36614,7 @@
       </c>
       <c r="G403" s="108"/>
       <c r="H403" s="109" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="I403" s="106" t="s">
         <v>387</v>
@@ -36538,7 +36631,7 @@
         <v>400</v>
       </c>
       <c r="F404" s="111" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="405" spans="1:9" x14ac:dyDescent="0.2">
@@ -36552,7 +36645,7 @@
         <v>401</v>
       </c>
       <c r="F405" s="111" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="406" spans="1:9" x14ac:dyDescent="0.2">
@@ -36566,7 +36659,7 @@
         <v>402</v>
       </c>
       <c r="F406" s="111" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="407" spans="1:9" x14ac:dyDescent="0.2">
@@ -36580,7 +36673,7 @@
         <v>403</v>
       </c>
       <c r="F407" s="111" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="408" spans="1:9" x14ac:dyDescent="0.2">
@@ -36594,7 +36687,7 @@
         <v>404</v>
       </c>
       <c r="F408" s="111" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="409" spans="1:9" x14ac:dyDescent="0.2">
@@ -36608,7 +36701,7 @@
         <v>405</v>
       </c>
       <c r="F409" s="111" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="410" spans="1:9" x14ac:dyDescent="0.2">
@@ -36622,7 +36715,7 @@
         <v>406</v>
       </c>
       <c r="F410" s="111" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="411" spans="1:9" x14ac:dyDescent="0.2">
@@ -36633,7 +36726,7 @@
         <v>21358</v>
       </c>
       <c r="F411" s="111" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="412" spans="1:9" x14ac:dyDescent="0.2">
@@ -36647,13 +36740,13 @@
         <v>407</v>
       </c>
       <c r="F412" s="32" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="H412" s="65" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="I412" s="14" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="413" spans="1:9" x14ac:dyDescent="0.2">
@@ -36667,13 +36760,13 @@
         <v>408</v>
       </c>
       <c r="F413" s="32" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="H413" s="65" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="I413" s="14" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="414" spans="1:9" x14ac:dyDescent="0.2">
@@ -36687,13 +36780,13 @@
         <v>409</v>
       </c>
       <c r="F414" s="111" t="s">
+        <v>1437</v>
+      </c>
+      <c r="H414" s="65" t="s">
+        <v>1448</v>
+      </c>
+      <c r="I414" s="14" t="s">
         <v>1438</v>
-      </c>
-      <c r="H414" s="65" t="s">
-        <v>1449</v>
-      </c>
-      <c r="I414" s="14" t="s">
-        <v>1439</v>
       </c>
     </row>
     <row r="415" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.2">
@@ -36715,7 +36808,7 @@
       </c>
       <c r="G415" s="79"/>
       <c r="H415" s="83" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="I415" s="19" t="s">
         <v>387</v>
@@ -36736,11 +36829,11 @@
         <v>0</v>
       </c>
       <c r="F416" s="82" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="G416" s="79"/>
       <c r="H416" s="83" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="I416" s="19" t="s">
         <v>387</v>
@@ -36761,11 +36854,11 @@
         <v>0</v>
       </c>
       <c r="F417" s="82" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="G417" s="79"/>
       <c r="H417" s="83" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="I417" s="19" t="s">
         <v>387</v>
@@ -36786,11 +36879,11 @@
         <v>0</v>
       </c>
       <c r="F418" s="82" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="G418" s="79"/>
       <c r="H418" s="83" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="I418" s="19" t="s">
         <v>387</v>
@@ -36811,11 +36904,11 @@
         <v>0</v>
       </c>
       <c r="F419" s="82" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="G419" s="79"/>
       <c r="H419" s="83" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="I419" s="19" t="s">
         <v>387</v>
@@ -36836,11 +36929,11 @@
         <v>0</v>
       </c>
       <c r="F420" s="82" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="G420" s="79"/>
       <c r="H420" s="83" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="I420" s="19" t="s">
         <v>387</v>
@@ -36861,11 +36954,11 @@
         <v>0</v>
       </c>
       <c r="F421" s="82" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="G421" s="79"/>
       <c r="H421" s="83" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="I421" s="19" t="s">
         <v>387</v>
@@ -36886,11 +36979,11 @@
         <v>0</v>
       </c>
       <c r="F422" s="82" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="G422" s="79"/>
       <c r="H422" s="83" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="I422" s="19" t="s">
         <v>387</v>
@@ -36911,11 +37004,11 @@
         <v>0</v>
       </c>
       <c r="F423" s="82" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="G423" s="79"/>
       <c r="H423" s="83" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="I423" s="19" t="s">
         <v>387</v>
@@ -36938,10 +37031,10 @@
       </c>
       <c r="G424" s="79"/>
       <c r="H424" s="83" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="I424" s="19" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="425" spans="1:9" s="120" customFormat="1" x14ac:dyDescent="0.2">
@@ -36961,10 +37054,10 @@
       </c>
       <c r="G425" s="117"/>
       <c r="H425" s="118" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="I425" s="119" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="426" spans="1:9" s="120" customFormat="1" x14ac:dyDescent="0.2">
@@ -36984,10 +37077,10 @@
       </c>
       <c r="G426" s="117"/>
       <c r="H426" s="118" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="I426" s="119" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="427" spans="1:9" s="120" customFormat="1" x14ac:dyDescent="0.2">
@@ -37007,10 +37100,10 @@
       </c>
       <c r="G427" s="117"/>
       <c r="H427" s="118" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="I427" s="119" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="428" spans="1:9" s="120" customFormat="1" x14ac:dyDescent="0.2">
@@ -37021,19 +37114,40 @@
         <v>21375</v>
       </c>
       <c r="C428" s="115"/>
-      <c r="D428" s="115">
-        <v>423</v>
-      </c>
+      <c r="D428" s="115"/>
       <c r="E428" s="115"/>
       <c r="F428" s="116" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="G428" s="117"/>
       <c r="H428" s="118" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="I428" s="119" t="s">
-        <v>1439</v>
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="429" spans="1:9" s="122" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A429" s="60">
+        <v>428</v>
+      </c>
+      <c r="B429" s="60">
+        <v>21376</v>
+      </c>
+      <c r="C429" s="60"/>
+      <c r="D429" s="60">
+        <v>423</v>
+      </c>
+      <c r="E429" s="60"/>
+      <c r="F429" s="63" t="s">
+        <v>1528</v>
+      </c>
+      <c r="G429" s="63"/>
+      <c r="H429" s="121" t="s">
+        <v>1529</v>
+      </c>
+      <c r="I429" s="60" t="s">
+        <v>856</v>
       </c>
     </row>
   </sheetData>
@@ -37046,10 +37160,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I592"/>
+  <dimension ref="A1:I593"/>
   <sheetViews>
     <sheetView topLeftCell="A563" workbookViewId="0">
-      <selection activeCell="C590" sqref="C590:D592"/>
+      <selection activeCell="C596" sqref="C596"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -37258,7 +37372,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="D14" s="11">
         <v>0</v>
@@ -38563,7 +38677,7 @@
         <v>83</v>
       </c>
       <c r="C105" s="13" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="D105" s="11">
         <v>49</v>
@@ -38829,7 +38943,7 @@
         <v>102</v>
       </c>
       <c r="C124" s="13" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="D124" s="11">
         <v>67</v>
@@ -40260,7 +40374,7 @@
         <v>178</v>
       </c>
       <c r="C224" s="85" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="D224" s="60">
         <v>257</v>
@@ -40274,7 +40388,7 @@
         <v>179</v>
       </c>
       <c r="C225" s="85" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="D225" s="60">
         <v>0</v>
@@ -40288,7 +40402,7 @@
         <v>180</v>
       </c>
       <c r="C226" s="85" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="D226" s="60">
         <v>0</v>
@@ -40302,7 +40416,7 @@
         <v>181</v>
       </c>
       <c r="C227" s="85" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="D227" s="60">
         <v>0</v>
@@ -40453,7 +40567,7 @@
         <v>184</v>
       </c>
       <c r="C237" s="13" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="D237" s="11">
         <v>0</v>
@@ -40579,7 +40693,7 @@
         <v>185</v>
       </c>
       <c r="C245" s="13" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="D245" s="11">
         <v>0</v>
@@ -40705,7 +40819,7 @@
         <v>186</v>
       </c>
       <c r="C253" s="13" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="D253" s="11">
         <v>0</v>
@@ -40831,7 +40945,7 @@
         <v>187</v>
       </c>
       <c r="C261" s="13" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="D261" s="11">
         <v>0</v>
@@ -40957,7 +41071,7 @@
         <v>188</v>
       </c>
       <c r="C269" s="13" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="D269" s="11">
         <v>0</v>
@@ -41083,7 +41197,7 @@
         <v>189</v>
       </c>
       <c r="C277" s="13" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="D277" s="11">
         <v>0</v>
@@ -41209,7 +41323,7 @@
         <v>190</v>
       </c>
       <c r="C285" s="13" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="D285" s="11">
         <v>0</v>
@@ -41241,7 +41355,7 @@
         <v>192</v>
       </c>
       <c r="C287" s="19" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="D287" s="10">
         <v>0</v>
@@ -41256,7 +41370,7 @@
         <v>193</v>
       </c>
       <c r="C288" s="19" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="D288" s="10">
         <v>248</v>
@@ -41271,7 +41385,7 @@
         <v>194</v>
       </c>
       <c r="C289" s="19" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="D289" s="10">
         <v>0</v>
@@ -41286,7 +41400,7 @@
         <v>195</v>
       </c>
       <c r="C290" s="19" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="D290" s="10">
         <v>0</v>
@@ -41316,7 +41430,7 @@
         <v>196</v>
       </c>
       <c r="C292" s="19" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="D292" s="10">
         <v>0</v>
@@ -41406,7 +41520,7 @@
         <v>197</v>
       </c>
       <c r="C298" s="19" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="D298" s="10">
         <v>0</v>
@@ -43430,7 +43544,7 @@
         <v>308</v>
       </c>
       <c r="C441" s="13" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="D441" s="11">
         <v>195</v>
@@ -44738,7 +44852,7 @@
         <v>367</v>
       </c>
       <c r="C530" s="86" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="D530" s="10">
         <v>253</v>
@@ -44752,7 +44866,7 @@
         <v>368</v>
       </c>
       <c r="C531" s="86" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="D531" s="10">
         <v>254</v>
@@ -44766,7 +44880,7 @@
         <v>369</v>
       </c>
       <c r="C532" s="86" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="D532" s="10">
         <v>255</v>
@@ -44780,7 +44894,7 @@
         <v>370</v>
       </c>
       <c r="C533" s="86" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="D533" s="10">
         <v>256</v>
@@ -44794,7 +44908,7 @@
         <v>371</v>
       </c>
       <c r="C534" s="13" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="D534" s="12">
         <v>0</v>
@@ -44808,7 +44922,7 @@
         <v>372</v>
       </c>
       <c r="C535" s="13" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="D535" s="12">
         <v>0</v>
@@ -44822,7 +44936,7 @@
         <v>373</v>
       </c>
       <c r="C536" s="13" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="D536" s="12">
         <v>0</v>
@@ -44836,7 +44950,7 @@
         <v>374</v>
       </c>
       <c r="C537" s="13" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="D537" s="12">
         <v>0</v>
@@ -44850,7 +44964,7 @@
         <v>375</v>
       </c>
       <c r="C538" s="13" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="D538" s="12">
         <v>0</v>
@@ -44867,7 +44981,7 @@
         <v>376</v>
       </c>
       <c r="C539" s="13" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="D539" s="12">
         <v>0</v>
@@ -44881,7 +44995,7 @@
         <v>377</v>
       </c>
       <c r="C540" s="13" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="D540" s="12">
         <v>0</v>
@@ -44895,7 +45009,7 @@
         <v>378</v>
       </c>
       <c r="C541" s="13" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D541" s="12">
         <v>0</v>
@@ -44909,7 +45023,7 @@
         <v>379</v>
       </c>
       <c r="C542" s="13" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="D542" s="12">
         <v>0</v>
@@ -44923,7 +45037,7 @@
         <v>380</v>
       </c>
       <c r="C543" s="13" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="D543" s="12">
         <v>0</v>
@@ -44937,7 +45051,7 @@
         <v>381</v>
       </c>
       <c r="C544" s="13" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="D544" s="12">
         <v>258</v>
@@ -44951,7 +45065,7 @@
         <v>382</v>
       </c>
       <c r="C545" s="13" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="D545" s="12">
         <v>259</v>
@@ -44965,7 +45079,7 @@
         <v>383</v>
       </c>
       <c r="C546" s="13" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="D546" s="12">
         <v>0</v>
@@ -44979,7 +45093,7 @@
         <v>384</v>
       </c>
       <c r="C547" s="13" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="D547" s="12">
         <v>0</v>
@@ -44993,7 +45107,7 @@
         <v>385</v>
       </c>
       <c r="C548" s="13" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="D548" s="12">
         <v>260</v>
@@ -45007,7 +45121,7 @@
         <v>386</v>
       </c>
       <c r="C549" s="13" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="D549" s="12">
         <v>0</v>
@@ -45021,7 +45135,7 @@
         <v>387</v>
       </c>
       <c r="C550" s="13" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="D550" s="12">
         <v>261</v>
@@ -45035,7 +45149,7 @@
         <v>388</v>
       </c>
       <c r="C551" s="13" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="D551" s="12">
         <v>262</v>
@@ -45109,7 +45223,7 @@
         <v>389</v>
       </c>
       <c r="C556" s="13" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="D556" s="11">
         <v>0</v>
@@ -45124,7 +45238,7 @@
         <v>389</v>
       </c>
       <c r="C557" s="13" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="D557" s="11">
         <v>0</v>
@@ -45156,7 +45270,7 @@
         <v>389</v>
       </c>
       <c r="C559" s="13" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="D559" s="11">
         <v>0</v>
@@ -45173,7 +45287,7 @@
         <v>390</v>
       </c>
       <c r="C560" s="13" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="D560" s="11">
         <v>263</v>
@@ -45313,7 +45427,7 @@
         <v>400</v>
       </c>
       <c r="C570" s="13" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="D570" s="11">
         <v>273</v>
@@ -45327,7 +45441,7 @@
         <v>401</v>
       </c>
       <c r="C571" s="13" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="D571" s="11">
         <v>274</v>
@@ -45341,7 +45455,7 @@
         <v>402</v>
       </c>
       <c r="C572" s="13" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="D572" s="11">
         <v>275</v>
@@ -45355,7 +45469,7 @@
         <v>403</v>
       </c>
       <c r="C573" s="13" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="D573" s="11">
         <v>276</v>
@@ -45369,7 +45483,7 @@
         <v>404</v>
       </c>
       <c r="C574" s="13" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="D574" s="11">
         <v>277</v>
@@ -45383,7 +45497,7 @@
         <v>405</v>
       </c>
       <c r="C575" s="13" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="D575" s="11">
         <v>278</v>
@@ -45397,7 +45511,7 @@
         <v>406</v>
       </c>
       <c r="C576" s="13" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="D576" s="11">
         <v>279</v>
@@ -45411,7 +45525,7 @@
         <v>407</v>
       </c>
       <c r="C577" s="13" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="D577" s="11">
         <v>280</v>
@@ -45425,7 +45539,7 @@
         <v>408</v>
       </c>
       <c r="C578" s="13" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="D578" s="11">
         <v>281</v>
@@ -45439,7 +45553,7 @@
         <v>409</v>
       </c>
       <c r="C579" s="13" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D579" s="11">
         <v>282</v>
@@ -45468,7 +45582,7 @@
         <v>411</v>
       </c>
       <c r="C581" s="19" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="D581" s="10">
         <v>283</v>
@@ -45483,7 +45597,7 @@
         <v>412</v>
       </c>
       <c r="C582" s="19" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="D582" s="10">
         <v>0</v>
@@ -45497,7 +45611,7 @@
         <v>413</v>
       </c>
       <c r="C583" s="19" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="D583" s="10">
         <v>0</v>
@@ -45511,7 +45625,7 @@
         <v>414</v>
       </c>
       <c r="C584" s="19" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="D584" s="10">
         <v>0</v>
@@ -45525,7 +45639,7 @@
         <v>415</v>
       </c>
       <c r="C585" s="19" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="D585" s="10">
         <v>284</v>
@@ -45540,7 +45654,7 @@
         <v>416</v>
       </c>
       <c r="C586" s="19" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="D586" s="10">
         <v>0</v>
@@ -45554,7 +45668,7 @@
         <v>417</v>
       </c>
       <c r="C587" s="19" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="D587" s="10">
         <v>0</v>
@@ -45568,7 +45682,7 @@
         <v>418</v>
       </c>
       <c r="C588" s="19" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="D588" s="10">
         <v>0</v>
@@ -45582,7 +45696,7 @@
         <v>419</v>
       </c>
       <c r="C589" s="13" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="D589" s="11">
         <v>285</v>
@@ -45596,7 +45710,7 @@
         <v>420</v>
       </c>
       <c r="C590" s="119" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="D590" s="115">
         <v>286</v>
@@ -45610,7 +45724,7 @@
         <v>421</v>
       </c>
       <c r="C591" s="119" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="D591" s="115">
         <v>287</v>
@@ -45624,10 +45738,24 @@
         <v>422</v>
       </c>
       <c r="C592" s="119" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="D592" s="115">
         <v>288</v>
+      </c>
+    </row>
+    <row r="593" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A593" s="60">
+        <v>592</v>
+      </c>
+      <c r="B593" s="60">
+        <v>423</v>
+      </c>
+      <c r="C593" s="85" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D593" s="60">
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -45640,13 +45768,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:M406"/>
+  <dimension ref="A1:M407"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C392" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C400" sqref="C400"/>
+      <selection pane="bottomRight" activeCell="D415" sqref="D415"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -48545,7 +48673,7 @@
         <v>681</v>
       </c>
       <c r="D137" s="25" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="E137" s="11">
         <v>2</v>
@@ -51867,7 +51995,7 @@
         <v>681</v>
       </c>
       <c r="D330" s="74" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="E330" s="72">
         <v>2</v>
@@ -52182,7 +52310,7 @@
         <v>681</v>
       </c>
       <c r="D348" s="15" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="E348" s="11">
         <v>2</v>
@@ -52196,7 +52324,7 @@
         <v>237</v>
       </c>
       <c r="C349" s="13" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="D349" s="15" t="s">
         <v>1100</v>
@@ -52213,10 +52341,10 @@
         <v>238</v>
       </c>
       <c r="C350" s="13" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="D350" s="15" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="E350" s="11">
         <v>2</v>
@@ -52230,7 +52358,7 @@
         <v>239</v>
       </c>
       <c r="C351" s="13" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="D351" s="15" t="s">
         <v>1099</v>
@@ -52247,7 +52375,7 @@
         <v>240</v>
       </c>
       <c r="C352" s="13" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="D352" s="15" t="s">
         <v>1098</v>
@@ -52264,7 +52392,7 @@
         <v>241</v>
       </c>
       <c r="C353" s="13" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="D353" s="15" t="s">
         <v>1094</v>
@@ -52281,7 +52409,7 @@
         <v>242</v>
       </c>
       <c r="C354" s="13" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="D354" s="27" t="s">
         <v>1094</v>
@@ -52298,7 +52426,7 @@
         <v>243</v>
       </c>
       <c r="C355" s="13" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="D355" s="27" t="s">
         <v>1095</v>
@@ -52315,7 +52443,7 @@
         <v>244</v>
       </c>
       <c r="C356" s="13" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="D356" s="27" t="s">
         <v>1096</v>
@@ -52332,7 +52460,7 @@
         <v>245</v>
       </c>
       <c r="C357" s="13" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="D357" s="27" t="s">
         <v>1097</v>
@@ -52349,7 +52477,7 @@
         <v>246</v>
       </c>
       <c r="C358" s="13" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="D358" s="15" t="s">
         <v>861</v>
@@ -52366,7 +52494,7 @@
         <v>247</v>
       </c>
       <c r="C359" s="95" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="D359" s="94">
         <v>0</v>
@@ -52384,7 +52512,7 @@
         <v>248</v>
       </c>
       <c r="C360" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="D360" s="15" t="s">
         <v>969</v>
@@ -52404,7 +52532,7 @@
         <v>688</v>
       </c>
       <c r="D361" s="89" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="E361" s="88">
         <v>2</v>
@@ -52422,7 +52550,7 @@
         <v>688</v>
       </c>
       <c r="D362" s="89" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="E362" s="88">
         <v>2</v>
@@ -52440,7 +52568,7 @@
         <v>688</v>
       </c>
       <c r="D363" s="89" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="E363" s="88">
         <v>2</v>
@@ -52458,7 +52586,7 @@
         <v>688</v>
       </c>
       <c r="D364" s="92" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="E364" s="91">
         <v>2</v>
@@ -52473,10 +52601,10 @@
         <v>253</v>
       </c>
       <c r="C365" s="19" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="D365" s="83" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="E365" s="10">
         <v>2</v>
@@ -52490,7 +52618,7 @@
         <v>254</v>
       </c>
       <c r="C366" s="19" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="D366" s="10">
         <v>3</v>
@@ -52507,7 +52635,7 @@
         <v>255</v>
       </c>
       <c r="C367" s="19" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="D367" s="10">
         <v>4</v>
@@ -52524,7 +52652,7 @@
         <v>256</v>
       </c>
       <c r="C368" s="19" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="D368" s="10">
         <v>5</v>
@@ -52544,7 +52672,7 @@
         <v>675</v>
       </c>
       <c r="D369" s="14" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="E369" s="29">
         <v>2</v>
@@ -52560,7 +52688,7 @@
         <v>258</v>
       </c>
       <c r="C370" s="13" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="D370" s="11">
         <v>5000000</v>
@@ -52577,7 +52705,7 @@
         <v>259</v>
       </c>
       <c r="C371" s="13" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="D371" s="13">
         <v>20</v>
@@ -52594,7 +52722,7 @@
         <v>259</v>
       </c>
       <c r="C372" s="13" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="D372" s="11">
         <v>100000</v>
@@ -52611,7 +52739,7 @@
         <v>260</v>
       </c>
       <c r="C373" s="13" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="D373" s="11">
         <v>480000</v>
@@ -52628,7 +52756,7 @@
         <v>261</v>
       </c>
       <c r="C374" s="13" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="D374" s="11">
         <v>960000</v>
@@ -52645,7 +52773,7 @@
         <v>262</v>
       </c>
       <c r="C375" s="13" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="D375" s="11">
         <v>10</v>
@@ -52662,10 +52790,10 @@
         <v>263</v>
       </c>
       <c r="C376" s="13" t="s">
+        <v>1355</v>
+      </c>
+      <c r="D376" s="13" t="s">
         <v>1356</v>
-      </c>
-      <c r="D376" s="13" t="s">
-        <v>1357</v>
       </c>
       <c r="E376" s="11">
         <v>2</v>
@@ -52679,10 +52807,10 @@
         <v>264</v>
       </c>
       <c r="C377" s="13" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="D377" s="17" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="E377" s="11">
         <v>2</v>
@@ -52696,10 +52824,10 @@
         <v>265</v>
       </c>
       <c r="C378" s="13" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="D378" s="11" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="E378" s="11">
         <v>2</v>
@@ -52713,10 +52841,10 @@
         <v>266</v>
       </c>
       <c r="C379" s="13" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="D379" s="11" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="E379" s="11">
         <v>2</v>
@@ -52730,10 +52858,10 @@
         <v>267</v>
       </c>
       <c r="C380" s="13" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="D380" s="11" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="E380" s="11">
         <v>2</v>
@@ -52747,7 +52875,7 @@
         <v>268</v>
       </c>
       <c r="C381" s="13" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="D381" s="11" t="s">
         <v>712</v>
@@ -52764,7 +52892,7 @@
         <v>269</v>
       </c>
       <c r="C382" s="13" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="D382" s="11" t="s">
         <v>712</v>
@@ -52781,10 +52909,10 @@
         <v>270</v>
       </c>
       <c r="C383" s="13" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="D383" s="11" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="E383" s="11">
         <v>2</v>
@@ -52798,10 +52926,10 @@
         <v>271</v>
       </c>
       <c r="C384" s="13" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="D384" s="11" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="E384" s="11">
         <v>2</v>
@@ -52815,10 +52943,10 @@
         <v>272</v>
       </c>
       <c r="C385" s="13" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="D385" s="11" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="E385" s="11">
         <v>2</v>
@@ -52835,7 +52963,7 @@
         <v>688</v>
       </c>
       <c r="D386" s="13" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="E386" s="11">
         <v>2</v>
@@ -52849,7 +52977,7 @@
         <v>273</v>
       </c>
       <c r="C387" s="13" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="D387" s="11">
         <v>500</v>
@@ -52869,7 +52997,7 @@
         <v>688</v>
       </c>
       <c r="D388" s="13" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="E388" s="11">
         <v>2</v>
@@ -52971,7 +53099,7 @@
         <v>859</v>
       </c>
       <c r="D394" s="15" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="E394" s="11">
         <v>2</v>
@@ -52985,7 +53113,7 @@
         <v>278</v>
       </c>
       <c r="C395" s="13" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="D395" s="11">
         <v>240000</v>
@@ -53002,7 +53130,7 @@
         <v>279</v>
       </c>
       <c r="C396" s="13" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="D396" s="11">
         <v>1</v>
@@ -53036,7 +53164,7 @@
         <v>280</v>
       </c>
       <c r="C398" s="13" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="D398" s="11">
         <v>9</v>
@@ -53053,7 +53181,7 @@
         <v>281</v>
       </c>
       <c r="C399" s="13" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D399" s="11">
         <v>51</v>
@@ -53070,7 +53198,7 @@
         <v>282</v>
       </c>
       <c r="C400" s="13" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D400" s="11">
         <v>240000</v>
@@ -53087,10 +53215,10 @@
         <v>283</v>
       </c>
       <c r="C401" s="19" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="D401" s="83" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="E401" s="10">
         <v>2</v>
@@ -53108,7 +53236,7 @@
         <v>681</v>
       </c>
       <c r="D402" s="112" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="E402" s="10">
         <v>2</v>
@@ -53123,7 +53251,7 @@
         <v>285</v>
       </c>
       <c r="C403" s="19" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="D403" s="10">
         <v>30000</v>
@@ -53144,7 +53272,7 @@
         <v>700</v>
       </c>
       <c r="D404" s="119" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="E404" s="115">
         <v>2</v>
@@ -53162,7 +53290,7 @@
         <v>700</v>
       </c>
       <c r="D405" s="119" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="E405" s="115">
         <v>2</v>
@@ -53180,12 +53308,29 @@
         <v>700</v>
       </c>
       <c r="D406" s="119" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="E406" s="115">
         <v>2</v>
       </c>
       <c r="F406" s="115"/>
+    </row>
+    <row r="407" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A407" s="61">
+        <v>436</v>
+      </c>
+      <c r="B407" s="61">
+        <v>289</v>
+      </c>
+      <c r="C407" s="60" t="s">
+        <v>1530</v>
+      </c>
+      <c r="D407" s="64" t="s">
+        <v>1531</v>
+      </c>
+      <c r="E407" s="60">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
@@ -53197,13 +53342,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:W889"/>
+  <dimension ref="A1:W890"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C871" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C877" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C887" sqref="C887"/>
+      <selection pane="bottomRight" activeCell="C904" sqref="C904"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -59082,7 +59227,7 @@
       </c>
       <c r="C265" s="10"/>
       <c r="D265" s="19" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="E265" s="10">
         <v>6</v>
@@ -59103,7 +59248,7 @@
       </c>
       <c r="C266" s="10"/>
       <c r="D266" s="19" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="E266" s="10">
         <v>10</v>
@@ -59145,7 +59290,7 @@
       </c>
       <c r="C268" s="78"/>
       <c r="D268" s="77" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="E268" s="78">
         <v>10</v>
@@ -59166,7 +59311,7 @@
       </c>
       <c r="C269" s="78"/>
       <c r="D269" s="77" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="E269" s="78">
         <v>10</v>
@@ -65650,7 +65795,7 @@
       </c>
       <c r="C591" s="13"/>
       <c r="D591" s="13" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="E591" s="11">
         <v>88</v>
@@ -67303,7 +67448,7 @@
       </c>
       <c r="C670" s="11"/>
       <c r="D670" s="13" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E670" s="11">
         <v>12000</v>
@@ -67380,7 +67525,7 @@
         <v>873</v>
       </c>
       <c r="C674" s="13" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="D674" s="11"/>
       <c r="E674" s="11"/>
@@ -67399,7 +67544,7 @@
         <v>874</v>
       </c>
       <c r="C675" s="13" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="D675" s="11"/>
       <c r="E675" s="11"/>
@@ -68640,7 +68785,7 @@
         <v>525</v>
       </c>
       <c r="C736" s="13" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="D736" s="11"/>
       <c r="E736" s="11"/>
@@ -68682,7 +68827,7 @@
         <v>526</v>
       </c>
       <c r="C738" s="13" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="D738" s="11"/>
       <c r="E738" s="11"/>
@@ -69123,7 +69268,7 @@
         <v>546</v>
       </c>
       <c r="C759" s="13" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="D759" s="11"/>
       <c r="E759" s="11"/>
@@ -69144,7 +69289,7 @@
         <v>547</v>
       </c>
       <c r="C760" s="13" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="D760" s="11"/>
       <c r="E760" s="11"/>
@@ -69186,7 +69331,7 @@
         <v>548</v>
       </c>
       <c r="C762" s="13" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="D762" s="11"/>
       <c r="E762" s="11"/>
@@ -69229,7 +69374,7 @@
       </c>
       <c r="C764" s="11"/>
       <c r="D764" s="13" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="E764" s="11">
         <v>480000</v>
@@ -69271,7 +69416,7 @@
       </c>
       <c r="C766" s="11"/>
       <c r="D766" s="13" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="E766" s="11">
         <v>80000</v>
@@ -69334,7 +69479,7 @@
       </c>
       <c r="C769" s="11"/>
       <c r="D769" s="13" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="E769" s="11">
         <v>38888</v>
@@ -69376,7 +69521,7 @@
       </c>
       <c r="C771" s="11"/>
       <c r="D771" s="13" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="E771" s="11">
         <v>8888</v>
@@ -69418,7 +69563,7 @@
       </c>
       <c r="C773" s="11"/>
       <c r="D773" s="13" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="E773" s="11">
         <v>2</v>
@@ -69439,7 +69584,7 @@
       </c>
       <c r="C774" s="11"/>
       <c r="D774" s="13" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="E774" s="11">
         <v>10</v>
@@ -69460,10 +69605,10 @@
       </c>
       <c r="C775" s="10"/>
       <c r="D775" s="19" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="E775" s="83" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="F775" s="10">
         <v>50</v>
@@ -69479,10 +69624,10 @@
       </c>
       <c r="C776" s="10"/>
       <c r="D776" s="19" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="E776" s="83" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="F776" s="10">
         <v>30</v>
@@ -69500,10 +69645,10 @@
       </c>
       <c r="C777" s="10"/>
       <c r="D777" s="19" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="E777" s="83" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="F777" s="10">
         <v>20</v>
@@ -69521,10 +69666,10 @@
       </c>
       <c r="C778" s="10"/>
       <c r="D778" s="19" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="E778" s="83" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="F778" s="10">
         <v>50</v>
@@ -69539,10 +69684,10 @@
       </c>
       <c r="C779" s="10"/>
       <c r="D779" s="19" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="E779" s="83" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="F779" s="10">
         <v>30</v>
@@ -69557,10 +69702,10 @@
       </c>
       <c r="C780" s="10"/>
       <c r="D780" s="19" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="E780" s="83" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="F780" s="10">
         <v>20</v>
@@ -69575,10 +69720,10 @@
       </c>
       <c r="C781" s="10"/>
       <c r="D781" s="19" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="E781" s="83" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="F781" s="10">
         <v>50</v>
@@ -69593,10 +69738,10 @@
       </c>
       <c r="C782" s="10"/>
       <c r="D782" s="19" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="E782" s="83" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="F782" s="10">
         <v>30</v>
@@ -69611,10 +69756,10 @@
       </c>
       <c r="C783" s="10"/>
       <c r="D783" s="19" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="E783" s="83" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="F783" s="10">
         <v>20</v>
@@ -69629,10 +69774,10 @@
       </c>
       <c r="C784" s="10"/>
       <c r="D784" s="19" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="E784" s="83" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="F784" s="10">
         <v>25</v>
@@ -69647,10 +69792,10 @@
       </c>
       <c r="C785" s="10"/>
       <c r="D785" s="19" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="E785" s="83" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="F785" s="10">
         <v>50</v>
@@ -69665,10 +69810,10 @@
       </c>
       <c r="C786" s="10"/>
       <c r="D786" s="19" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="E786" s="83" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="F786" s="10">
         <v>25</v>
@@ -69683,10 +69828,10 @@
       </c>
       <c r="C787" s="10"/>
       <c r="D787" s="19" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="E787" s="83" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="F787" s="10">
         <v>25</v>
@@ -69701,10 +69846,10 @@
       </c>
       <c r="C788" s="10"/>
       <c r="D788" s="19" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="E788" s="83" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="F788" s="10">
         <v>50</v>
@@ -69719,7 +69864,7 @@
       </c>
       <c r="C789" s="10"/>
       <c r="D789" s="19" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="E789" s="83">
         <v>150</v>
@@ -69737,7 +69882,7 @@
       </c>
       <c r="C790" s="10"/>
       <c r="D790" s="19" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="E790" s="9">
         <v>400</v>
@@ -69755,7 +69900,7 @@
       </c>
       <c r="C791" s="10"/>
       <c r="D791" s="19" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="E791" s="9">
         <v>500</v>
@@ -69773,7 +69918,7 @@
       </c>
       <c r="C792" s="10"/>
       <c r="D792" s="19" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="E792" s="9">
         <v>600</v>
@@ -69791,7 +69936,7 @@
       </c>
       <c r="C793" s="10"/>
       <c r="D793" s="19" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="E793" s="9">
         <v>100</v>
@@ -69809,7 +69954,7 @@
       </c>
       <c r="C794" s="10"/>
       <c r="D794" s="19" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="E794" s="9">
         <v>300</v>
@@ -69827,7 +69972,7 @@
       </c>
       <c r="C795" s="10"/>
       <c r="D795" s="19" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="E795" s="9">
         <v>500</v>
@@ -69845,7 +69990,7 @@
       </c>
       <c r="C796" s="10"/>
       <c r="D796" s="19" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="E796" s="9">
         <v>500</v>
@@ -69863,7 +70008,7 @@
       </c>
       <c r="C797" s="10"/>
       <c r="D797" s="19" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="E797" s="9">
         <v>1000</v>
@@ -69881,7 +70026,7 @@
       </c>
       <c r="C798" s="10"/>
       <c r="D798" s="19" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="E798" s="9">
         <v>1500</v>
@@ -69899,7 +70044,7 @@
       </c>
       <c r="C799" s="10"/>
       <c r="D799" s="19" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="E799" s="9">
         <v>4000</v>
@@ -69917,7 +70062,7 @@
       </c>
       <c r="C800" s="10"/>
       <c r="D800" s="19" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="E800" s="9">
         <v>5000</v>
@@ -69935,7 +70080,7 @@
       </c>
       <c r="C801" s="10"/>
       <c r="D801" s="19" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="E801" s="9">
         <v>6000</v>
@@ -69953,7 +70098,7 @@
       </c>
       <c r="C802" s="10"/>
       <c r="D802" s="19" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="E802" s="9">
         <v>1000</v>
@@ -69971,7 +70116,7 @@
       </c>
       <c r="C803" s="10"/>
       <c r="D803" s="19" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="E803" s="9">
         <v>3000</v>
@@ -69989,7 +70134,7 @@
       </c>
       <c r="C804" s="10"/>
       <c r="D804" s="19" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="E804" s="9">
         <v>5000</v>
@@ -70007,7 +70152,7 @@
       </c>
       <c r="C805" s="10"/>
       <c r="D805" s="19" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="E805" s="9">
         <v>5000</v>
@@ -70025,7 +70170,7 @@
       </c>
       <c r="C806" s="10"/>
       <c r="D806" s="19" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="E806" s="9">
         <v>10000</v>
@@ -70043,7 +70188,7 @@
       </c>
       <c r="C807" s="10"/>
       <c r="D807" s="19" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="E807" s="9">
         <v>15000</v>
@@ -70061,7 +70206,7 @@
       </c>
       <c r="C808" s="10"/>
       <c r="D808" s="19" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="E808" s="9">
         <v>40000</v>
@@ -70079,7 +70224,7 @@
       </c>
       <c r="C809" s="10"/>
       <c r="D809" s="19" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="E809" s="9">
         <v>50000</v>
@@ -70097,7 +70242,7 @@
       </c>
       <c r="C810" s="10"/>
       <c r="D810" s="19" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="E810" s="9">
         <v>60000</v>
@@ -70115,10 +70260,10 @@
       </c>
       <c r="C811" s="11"/>
       <c r="D811" s="13" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="E811" s="27" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="F811" s="11">
         <v>1</v>
@@ -70136,10 +70281,10 @@
       </c>
       <c r="C812" s="11"/>
       <c r="D812" s="13" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="E812" s="15" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="F812" s="11">
         <v>1</v>
@@ -70157,7 +70302,7 @@
       </c>
       <c r="C813" s="11"/>
       <c r="D813" s="13" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="E813" s="27">
         <v>1</v>
@@ -70178,7 +70323,7 @@
       </c>
       <c r="C814" s="11"/>
       <c r="D814" s="13" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="E814" s="27">
         <v>400</v>
@@ -70199,7 +70344,7 @@
       </c>
       <c r="C815" s="11"/>
       <c r="D815" s="13" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="E815" s="27">
         <v>1</v>
@@ -70262,7 +70407,7 @@
       </c>
       <c r="C818" s="11"/>
       <c r="D818" s="13" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="E818" s="27">
         <v>200</v>
@@ -70346,7 +70491,7 @@
       </c>
       <c r="C822" s="11"/>
       <c r="D822" s="87" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="E822" s="27">
         <v>3500</v>
@@ -70388,7 +70533,7 @@
       </c>
       <c r="C824" s="11"/>
       <c r="D824" s="13" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="E824" s="27">
         <v>14000</v>
@@ -70408,7 +70553,7 @@
         <v>592</v>
       </c>
       <c r="C825" s="13" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="D825" s="11"/>
       <c r="E825" s="27"/>
@@ -70429,7 +70574,7 @@
         <v>593</v>
       </c>
       <c r="C826" s="13" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="D826" s="11"/>
       <c r="E826" s="27"/>
@@ -70450,7 +70595,7 @@
         <v>594</v>
       </c>
       <c r="C827" s="13" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="D827" s="11"/>
       <c r="E827" s="27"/>
@@ -70471,7 +70616,7 @@
         <v>595</v>
       </c>
       <c r="C828" s="13" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="D828" s="11"/>
       <c r="E828" s="27"/>
@@ -70492,7 +70637,7 @@
         <v>596</v>
       </c>
       <c r="C829" s="13" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="D829" s="11"/>
       <c r="E829" s="27"/>
@@ -70513,7 +70658,7 @@
         <v>597</v>
       </c>
       <c r="C830" s="13" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="D830" s="11"/>
       <c r="E830" s="27"/>
@@ -70552,7 +70697,7 @@
       </c>
       <c r="C832" s="29"/>
       <c r="D832" s="14" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="E832" s="29">
         <v>1</v>
@@ -70573,7 +70718,7 @@
       </c>
       <c r="C833" s="29"/>
       <c r="D833" s="14" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="E833" s="29">
         <v>1</v>
@@ -70610,7 +70755,7 @@
         <v>599</v>
       </c>
       <c r="D835" s="14" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="E835" s="29">
         <v>1</v>
@@ -70627,7 +70772,7 @@
         <v>599</v>
       </c>
       <c r="D836" s="14" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="E836" s="29">
         <v>1</v>
@@ -70661,7 +70806,7 @@
         <v>600</v>
       </c>
       <c r="D838" s="14" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="E838" s="29">
         <v>1</v>
@@ -70678,7 +70823,7 @@
         <v>600</v>
       </c>
       <c r="D839" s="14" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="E839" s="29">
         <v>1</v>
@@ -70712,7 +70857,7 @@
         <v>601</v>
       </c>
       <c r="D841" s="14" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="E841" s="29">
         <v>2</v>
@@ -70729,7 +70874,7 @@
         <v>601</v>
       </c>
       <c r="D842" s="14" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="E842" s="29">
         <v>2</v>
@@ -70763,7 +70908,7 @@
         <v>602</v>
       </c>
       <c r="D844" s="14" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="E844" s="29">
         <v>2</v>
@@ -70780,7 +70925,7 @@
         <v>602</v>
       </c>
       <c r="D845" s="14" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="E845" s="29">
         <v>2</v>
@@ -70814,7 +70959,7 @@
         <v>603</v>
       </c>
       <c r="D847" s="14" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="E847" s="29">
         <v>2</v>
@@ -70831,7 +70976,7 @@
         <v>603</v>
       </c>
       <c r="D848" s="14" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="E848" s="29">
         <v>2</v>
@@ -70865,7 +71010,7 @@
         <v>604</v>
       </c>
       <c r="D850" s="14" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="E850" s="29">
         <v>3</v>
@@ -70882,7 +71027,7 @@
         <v>604</v>
       </c>
       <c r="D851" s="14" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="E851" s="29">
         <v>3</v>
@@ -70916,7 +71061,7 @@
         <v>605</v>
       </c>
       <c r="D853" s="14" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="E853" s="29">
         <v>3</v>
@@ -70933,7 +71078,7 @@
         <v>605</v>
       </c>
       <c r="D854" s="14" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="E854" s="29">
         <v>3</v>
@@ -70967,7 +71112,7 @@
         <v>606</v>
       </c>
       <c r="D856" s="14" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="E856" s="29">
         <v>3</v>
@@ -70984,7 +71129,7 @@
         <v>606</v>
       </c>
       <c r="D857" s="14" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="E857" s="29">
         <v>3</v>
@@ -71018,7 +71163,7 @@
         <v>607</v>
       </c>
       <c r="D859" s="14" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="E859" s="29">
         <v>5</v>
@@ -71035,7 +71180,7 @@
         <v>607</v>
       </c>
       <c r="D860" s="14" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="E860" s="29">
         <v>5</v>
@@ -71069,7 +71214,7 @@
         <v>608</v>
       </c>
       <c r="D862" s="14" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="E862" s="29">
         <v>5</v>
@@ -71086,7 +71231,7 @@
         <v>608</v>
       </c>
       <c r="D863" s="14" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="E863" s="29">
         <v>5</v>
@@ -71120,7 +71265,7 @@
         <v>609</v>
       </c>
       <c r="D865" s="14" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="E865" s="29">
         <v>5</v>
@@ -71137,7 +71282,7 @@
         <v>609</v>
       </c>
       <c r="D866" s="14" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="E866" s="29">
         <v>5</v>
@@ -71154,7 +71299,7 @@
         <v>610</v>
       </c>
       <c r="C867" s="14" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="F867" s="29">
         <v>1</v>
@@ -71169,7 +71314,7 @@
       </c>
       <c r="C868" s="29"/>
       <c r="D868" s="14" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="E868" s="29">
         <v>9800000</v>
@@ -71186,7 +71331,7 @@
         <v>611</v>
       </c>
       <c r="C869" s="14" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="F869" s="29">
         <v>1</v>
@@ -71201,7 +71346,7 @@
       </c>
       <c r="C870" s="29"/>
       <c r="D870" s="14" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="E870" s="29">
         <v>4800000</v>
@@ -71218,7 +71363,7 @@
         <v>612</v>
       </c>
       <c r="D871" s="14" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="E871" s="29">
         <v>4800000</v>
@@ -71235,7 +71380,7 @@
         <v>613</v>
       </c>
       <c r="D872" s="14" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="E872" s="29">
         <v>1800000</v>
@@ -71252,7 +71397,7 @@
         <v>614</v>
       </c>
       <c r="D873" s="14" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="E873" s="29">
         <v>800000</v>
@@ -71269,7 +71414,7 @@
         <v>615</v>
       </c>
       <c r="D874" s="14" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="E874" s="29">
         <v>888888</v>
@@ -71286,7 +71431,7 @@
         <v>616</v>
       </c>
       <c r="D875" s="14" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="E875" s="29">
         <v>588888</v>
@@ -71303,7 +71448,7 @@
         <v>617</v>
       </c>
       <c r="D876" s="14" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="E876" s="29">
         <v>388888</v>
@@ -71320,7 +71465,7 @@
         <v>618</v>
       </c>
       <c r="D877" s="14" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="E877" s="29">
         <v>188888</v>
@@ -71337,7 +71482,7 @@
         <v>619</v>
       </c>
       <c r="D878" s="14" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="E878" s="1">
         <v>10000</v>
@@ -71357,7 +71502,7 @@
         <v>620</v>
       </c>
       <c r="D879" s="14" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="E879" s="1">
         <v>20000</v>
@@ -71374,7 +71519,7 @@
         <v>621</v>
       </c>
       <c r="D880" s="14" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="E880" s="1">
         <v>30000</v>
@@ -71394,7 +71539,7 @@
         <v>622</v>
       </c>
       <c r="D881" s="14" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="E881" s="1">
         <v>10000</v>
@@ -71411,7 +71556,7 @@
         <v>623</v>
       </c>
       <c r="D882" s="14" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="E882" s="1">
         <v>20000</v>
@@ -71428,7 +71573,7 @@
         <v>624</v>
       </c>
       <c r="D883" s="14" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="E883" s="1">
         <v>30000</v>
@@ -71445,7 +71590,7 @@
         <v>625</v>
       </c>
       <c r="D884" s="14" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="E884" s="1">
         <v>50</v>
@@ -71462,7 +71607,7 @@
         <v>626</v>
       </c>
       <c r="D885" s="14" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="E885" s="1">
         <v>1</v>
@@ -71479,7 +71624,7 @@
         <v>627</v>
       </c>
       <c r="D886" s="14" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="E886" s="29">
         <v>1</v>
@@ -71496,7 +71641,7 @@
         <v>628</v>
       </c>
       <c r="D887" s="14" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="E887" s="29">
         <v>1</v>
@@ -71514,7 +71659,7 @@
       </c>
       <c r="C888" s="29"/>
       <c r="D888" s="14" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="E888" s="29">
         <v>1</v>
@@ -71535,7 +71680,7 @@
       </c>
       <c r="C889" s="29"/>
       <c r="D889" s="14" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="E889" s="29">
         <v>1000</v>
@@ -71546,6 +71691,26 @@
       <c r="G889" s="29"/>
       <c r="H889" s="29"/>
       <c r="I889" s="29"/>
+    </row>
+    <row r="890" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A890" s="61">
+        <v>889</v>
+      </c>
+      <c r="B890" s="60">
+        <v>631</v>
+      </c>
+      <c r="C890" s="85" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D890" s="60"/>
+      <c r="E890" s="60"/>
+      <c r="F890" s="60">
+        <v>1</v>
+      </c>
+      <c r="G890" s="60"/>
+      <c r="H890" s="60">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>

--- a/config_debug/task_zajindan_server.xlsx
+++ b/config_debug/task_zajindan_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -8633,6 +8633,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -9520,11 +9521,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T429"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="E408" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D408" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F434" sqref="F434:F435"/>
+      <selection pane="bottomRight" activeCell="A428" sqref="A428"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -26213,11 +26214,11 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K429"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C405" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="G405" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C432" sqref="C432"/>
+      <selection pane="bottomRight" activeCell="J427" sqref="J427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -36839,7 +36840,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="417" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:10" s="81" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A417" s="9">
         <v>416</v>
       </c>
@@ -36864,7 +36865,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="418" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:10" s="81" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A418" s="9">
         <v>417</v>
       </c>
@@ -36889,7 +36890,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="419" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:10" s="81" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A419" s="9">
         <v>418</v>
       </c>
@@ -36914,7 +36915,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="420" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:10" s="81" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A420" s="9">
         <v>419</v>
       </c>
@@ -36939,7 +36940,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="421" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:10" s="81" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A421" s="9">
         <v>420</v>
       </c>
@@ -36964,7 +36965,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="422" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:10" s="81" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A422" s="9">
         <v>421</v>
       </c>
@@ -36989,7 +36990,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="423" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:10" s="81" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A423" s="9">
         <v>422</v>
       </c>
@@ -37014,7 +37015,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="424" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:10" s="81" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A424" s="9">
         <v>423</v>
       </c>
@@ -37037,7 +37038,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="425" spans="1:9" s="120" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:10" s="120" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A425" s="113">
         <v>424</v>
       </c>
@@ -37059,8 +37060,11 @@
       <c r="I425" s="119" t="s">
         <v>1438</v>
       </c>
-    </row>
-    <row r="426" spans="1:9" s="120" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J425" s="120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:10" s="120" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A426" s="113">
         <v>425</v>
       </c>
@@ -37082,8 +37086,11 @@
       <c r="I426" s="119" t="s">
         <v>1438</v>
       </c>
-    </row>
-    <row r="427" spans="1:9" s="120" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J426" s="120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="1:10" s="120" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A427" s="113">
         <v>426</v>
       </c>
@@ -37105,8 +37112,11 @@
       <c r="I427" s="119" t="s">
         <v>1438</v>
       </c>
-    </row>
-    <row r="428" spans="1:9" s="120" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J427" s="120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:10" s="120" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A428" s="113">
         <v>427</v>
       </c>
@@ -37127,7 +37137,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="429" spans="1:9" s="122" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:10" s="122" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A429" s="60">
         <v>428</v>
       </c>

--- a/config_debug/task_zajindan_server.xlsx
+++ b/config_debug/task_zajindan_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5387" uniqueCount="1533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5437" uniqueCount="1557">
   <si>
     <t>id|任务id</t>
   </si>
@@ -8180,10 +8180,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>水果消消乐使用24万及以上档次出现1次幸运时刻</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>10,10,10</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -8644,6 +8640,180 @@
   <si>
     <t>p_026_dove_gift</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果消消乐使用24万及以上档次出现1次幸运时刻</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果消消乐引导</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中使用5000及以上档次累计消耗10000000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_026_sgxxl_yd</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>common</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>common</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中使用5000及以上档次累计消耗30000000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中使用5000及以上档次累计消耗90000000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中使用5000及以上档次累计消耗300000000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中使用5000及以上档次累计消耗840000000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>not_open_task</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>32</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>or</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxl_lucky_award</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaoxiaole_award</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaoxiaole_spend</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>633</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>634</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>635</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>636</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>30000000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>90000000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>300000000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>840000000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -9519,13 +9689,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:T429"/>
+  <dimension ref="A1:T434"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D408" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="E404" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A428" sqref="A428"/>
+      <selection pane="bottomRight" activeCell="G432" sqref="G432"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13124,7 +13294,7 @@
         <v>0</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D86" s="16" t="s">
         <v>131</v>
@@ -13162,7 +13332,7 @@
         <v>0</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D87" s="16" t="s">
         <v>133</v>
@@ -13200,7 +13370,7 @@
         <v>0</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D88" s="16" t="s">
         <v>134</v>
@@ -13238,7 +13408,7 @@
         <v>0</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D89" s="16" t="s">
         <v>135</v>
@@ -13276,7 +13446,7 @@
         <v>0</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D90" s="16" t="s">
         <v>136</v>
@@ -13314,7 +13484,7 @@
         <v>0</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D91" s="16" t="s">
         <v>137</v>
@@ -13352,7 +13522,7 @@
         <v>0</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D92" s="16" t="s">
         <v>138</v>
@@ -13390,7 +13560,7 @@
         <v>0</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D93" s="16" t="s">
         <v>139</v>
@@ -13428,7 +13598,7 @@
         <v>0</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D94" s="16" t="s">
         <v>140</v>
@@ -13466,7 +13636,7 @@
         <v>0</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D95" s="16" t="s">
         <v>141</v>
@@ -13504,7 +13674,7 @@
         <v>0</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D96" s="16" t="s">
         <v>142</v>
@@ -13542,7 +13712,7 @@
         <v>0</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D97" s="16" t="s">
         <v>143</v>
@@ -13580,7 +13750,7 @@
         <v>0</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D98" s="16" t="s">
         <v>144</v>
@@ -13618,7 +13788,7 @@
         <v>0</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D99" s="16" t="s">
         <v>145</v>
@@ -13656,7 +13826,7 @@
         <v>0</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D100" s="16" t="s">
         <v>146</v>
@@ -13694,7 +13864,7 @@
         <v>0</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D101" s="16" t="s">
         <v>147</v>
@@ -13732,7 +13902,7 @@
         <v>0</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D102" s="16" t="s">
         <v>148</v>
@@ -13770,7 +13940,7 @@
         <v>0</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D103" s="16" t="s">
         <v>149</v>
@@ -13808,7 +13978,7 @@
         <v>0</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D104" s="16" t="s">
         <v>150</v>
@@ -13846,7 +14016,7 @@
         <v>0</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D105" s="16" t="s">
         <v>151</v>
@@ -13884,7 +14054,7 @@
         <v>0</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D106" s="16" t="s">
         <v>152</v>
@@ -13922,7 +14092,7 @@
         <v>0</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D107" s="16" t="s">
         <v>153</v>
@@ -13960,7 +14130,7 @@
         <v>0</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D108" s="16" t="s">
         <v>154</v>
@@ -13998,7 +14168,7 @@
         <v>0</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D109" s="16" t="s">
         <v>155</v>
@@ -14036,7 +14206,7 @@
         <v>0</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D110" s="16" t="s">
         <v>156</v>
@@ -14074,7 +14244,7 @@
         <v>0</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D111" s="16" t="s">
         <v>157</v>
@@ -14112,7 +14282,7 @@
         <v>0</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D112" s="16" t="s">
         <v>158</v>
@@ -14150,7 +14320,7 @@
         <v>0</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D113" s="16" t="s">
         <v>159</v>
@@ -14188,7 +14358,7 @@
         <v>0</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D114" s="16" t="s">
         <v>160</v>
@@ -14226,7 +14396,7 @@
         <v>0</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D115" s="16" t="s">
         <v>161</v>
@@ -14264,7 +14434,7 @@
         <v>0</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D116" s="16" t="s">
         <v>162</v>
@@ -14302,7 +14472,7 @@
         <v>0</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D117" s="16" t="s">
         <v>163</v>
@@ -14340,7 +14510,7 @@
         <v>0</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D118" s="16" t="s">
         <v>164</v>
@@ -14378,7 +14548,7 @@
         <v>0</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D119" s="16" t="s">
         <v>165</v>
@@ -14416,7 +14586,7 @@
         <v>0</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D120" s="16" t="s">
         <v>166</v>
@@ -14454,7 +14624,7 @@
         <v>0</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D121" s="16" t="s">
         <v>167</v>
@@ -23400,7 +23570,7 @@
         <v>1131</v>
       </c>
       <c r="D356" s="16" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="E356" s="16" t="s">
         <v>1126</v>
@@ -23853,16 +24023,16 @@
         <v>1</v>
       </c>
       <c r="C368" s="98" t="s">
+        <v>1492</v>
+      </c>
+      <c r="D368" s="99" t="s">
         <v>1493</v>
-      </c>
-      <c r="D368" s="99" t="s">
-        <v>1494</v>
       </c>
       <c r="E368" s="98" t="s">
         <v>12</v>
       </c>
       <c r="F368" s="98" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="G368" s="97">
         <v>21315</v>
@@ -23891,16 +24061,16 @@
         <v>1</v>
       </c>
       <c r="C369" s="98" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="D369" s="99" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="E369" s="98" t="s">
         <v>12</v>
       </c>
       <c r="F369" s="98" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="G369" s="97">
         <v>21316</v>
@@ -23929,16 +24099,16 @@
         <v>1</v>
       </c>
       <c r="C370" s="98" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="D370" s="98" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="E370" s="98" t="s">
         <v>12</v>
       </c>
       <c r="F370" s="98" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="G370" s="97">
         <v>21317</v>
@@ -23967,16 +24137,16 @@
         <v>1</v>
       </c>
       <c r="C371" s="98" t="s">
+        <v>1497</v>
+      </c>
+      <c r="D371" s="98" t="s">
         <v>1498</v>
-      </c>
-      <c r="D371" s="98" t="s">
-        <v>1499</v>
       </c>
       <c r="E371" s="98" t="s">
         <v>12</v>
       </c>
       <c r="F371" s="98" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="G371" s="97">
         <v>21318</v>
@@ -24847,7 +25017,7 @@
         <v>1351</v>
       </c>
       <c r="E394" s="98" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="F394" s="98" t="s">
         <v>1350</v>
@@ -25603,8 +25773,8 @@
       <c r="C414" s="7" t="s">
         <v>1430</v>
       </c>
-      <c r="D414" s="7" t="s">
-        <v>1434</v>
+      <c r="D414" s="49" t="s">
+        <v>1532</v>
       </c>
       <c r="E414" s="49" t="s">
         <v>1432</v>
@@ -25631,383 +25801,383 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="415" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A415" s="9">
+    <row r="415" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A415" s="12">
         <v>1000004</v>
       </c>
-      <c r="B415" s="9">
-        <v>1</v>
-      </c>
-      <c r="C415" s="51" t="s">
+      <c r="B415" s="12">
+        <v>1</v>
+      </c>
+      <c r="C415" s="16" t="s">
+        <v>1449</v>
+      </c>
+      <c r="D415" s="16" t="s">
+        <v>1448</v>
+      </c>
+      <c r="E415" s="16" t="s">
+        <v>1476</v>
+      </c>
+      <c r="F415" s="12" t="s">
+        <v>855</v>
+      </c>
+      <c r="G415" s="12">
+        <v>21362</v>
+      </c>
+      <c r="H415" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I415" s="12">
+        <v>1</v>
+      </c>
+      <c r="J415" s="12">
+        <v>1598284800</v>
+      </c>
+      <c r="K415" s="12">
+        <v>32503651200</v>
+      </c>
+      <c r="L415" s="12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A416" s="12">
+        <v>1000005</v>
+      </c>
+      <c r="B416" s="12">
+        <v>1</v>
+      </c>
+      <c r="C416" s="16" t="s">
         <v>1450</v>
       </c>
-      <c r="D415" s="51" t="s">
-        <v>1449</v>
-      </c>
-      <c r="E415" s="51" t="s">
+      <c r="D416" s="16" t="s">
+        <v>1452</v>
+      </c>
+      <c r="E416" s="16" t="s">
+        <v>1475</v>
+      </c>
+      <c r="F416" s="12" t="s">
+        <v>1499</v>
+      </c>
+      <c r="G416" s="12">
+        <v>21363</v>
+      </c>
+      <c r="H416" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I416" s="12">
+        <v>1</v>
+      </c>
+      <c r="J416" s="12">
+        <v>1598284800</v>
+      </c>
+      <c r="K416" s="12">
+        <v>32503651200</v>
+      </c>
+      <c r="L416" s="12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="417" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A417" s="12">
+        <v>1000006</v>
+      </c>
+      <c r="B417" s="12">
+        <v>1</v>
+      </c>
+      <c r="C417" s="16" t="s">
+        <v>1465</v>
+      </c>
+      <c r="D417" s="16" t="s">
+        <v>1451</v>
+      </c>
+      <c r="E417" s="16" t="s">
         <v>1477</v>
       </c>
-      <c r="F415" s="9" t="s">
+      <c r="F417" s="12" t="s">
         <v>855</v>
       </c>
-      <c r="G415" s="9">
-        <v>21362</v>
-      </c>
-      <c r="H415" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I415" s="9">
-        <v>1</v>
-      </c>
-      <c r="J415" s="9">
+      <c r="G417" s="12">
+        <v>21364</v>
+      </c>
+      <c r="H417" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I417" s="12">
+        <v>1</v>
+      </c>
+      <c r="J417" s="12">
         <v>1598284800</v>
       </c>
-      <c r="K415" s="9">
+      <c r="K417" s="12">
         <v>32503651200</v>
       </c>
-      <c r="L415" s="9">
+      <c r="L417" s="12">
         <v>-1</v>
       </c>
     </row>
-    <row r="416" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A416" s="9">
-        <v>1000005</v>
-      </c>
-      <c r="B416" s="9">
-        <v>1</v>
-      </c>
-      <c r="C416" s="51" t="s">
-        <v>1451</v>
-      </c>
-      <c r="D416" s="51" t="s">
+    <row r="418" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A418" s="12">
+        <v>1000007</v>
+      </c>
+      <c r="B418" s="12">
+        <v>1</v>
+      </c>
+      <c r="C418" s="16" t="s">
+        <v>1465</v>
+      </c>
+      <c r="D418" s="16" t="s">
         <v>1453</v>
       </c>
-      <c r="E416" s="51" t="s">
-        <v>1476</v>
-      </c>
-      <c r="F416" s="9" t="s">
-        <v>1500</v>
-      </c>
-      <c r="G416" s="9">
-        <v>21363</v>
-      </c>
-      <c r="H416" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I416" s="9">
-        <v>1</v>
-      </c>
-      <c r="J416" s="9">
+      <c r="E418" s="16" t="s">
+        <v>1477</v>
+      </c>
+      <c r="F418" s="12" t="s">
+        <v>1499</v>
+      </c>
+      <c r="G418" s="12">
+        <v>21365</v>
+      </c>
+      <c r="H418" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I418" s="12">
+        <v>1</v>
+      </c>
+      <c r="J418" s="12">
         <v>1598284800</v>
       </c>
-      <c r="K416" s="9">
+      <c r="K418" s="12">
         <v>32503651200</v>
       </c>
-      <c r="L416" s="9">
+      <c r="L418" s="12">
         <v>-1</v>
       </c>
     </row>
-    <row r="417" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A417" s="9">
-        <v>1000006</v>
-      </c>
-      <c r="B417" s="9">
-        <v>1</v>
-      </c>
-      <c r="C417" s="51" t="s">
-        <v>1466</v>
-      </c>
-      <c r="D417" s="51" t="s">
-        <v>1452</v>
-      </c>
-      <c r="E417" s="51" t="s">
+    <row r="419" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A419" s="12">
+        <v>1000008</v>
+      </c>
+      <c r="B419" s="12">
+        <v>1</v>
+      </c>
+      <c r="C419" s="16" t="s">
+        <v>1464</v>
+      </c>
+      <c r="D419" s="16" t="s">
+        <v>1454</v>
+      </c>
+      <c r="E419" s="16" t="s">
+        <v>1477</v>
+      </c>
+      <c r="F419" s="12" t="s">
+        <v>1499</v>
+      </c>
+      <c r="G419" s="12">
+        <v>21366</v>
+      </c>
+      <c r="H419" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I419" s="12">
+        <v>1</v>
+      </c>
+      <c r="J419" s="12">
+        <v>1598284800</v>
+      </c>
+      <c r="K419" s="12">
+        <v>32503651200</v>
+      </c>
+      <c r="L419" s="12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A420" s="12">
+        <v>1000009</v>
+      </c>
+      <c r="B420" s="12">
+        <v>1</v>
+      </c>
+      <c r="C420" s="16" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D420" s="16" t="s">
+        <v>1455</v>
+      </c>
+      <c r="E420" s="16" t="s">
         <v>1478</v>
       </c>
-      <c r="F417" s="9" t="s">
+      <c r="F420" s="12" t="s">
         <v>855</v>
       </c>
-      <c r="G417" s="9">
-        <v>21364</v>
-      </c>
-      <c r="H417" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I417" s="9">
-        <v>1</v>
-      </c>
-      <c r="J417" s="9">
+      <c r="G420" s="12">
+        <v>21367</v>
+      </c>
+      <c r="H420" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I420" s="12">
+        <v>1</v>
+      </c>
+      <c r="J420" s="12">
         <v>1598284800</v>
       </c>
-      <c r="K417" s="9">
+      <c r="K420" s="12">
         <v>32503651200</v>
       </c>
-      <c r="L417" s="9">
+      <c r="L420" s="12">
         <v>-1</v>
       </c>
     </row>
-    <row r="418" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A418" s="9">
-        <v>1000007</v>
-      </c>
-      <c r="B418" s="9">
-        <v>1</v>
-      </c>
-      <c r="C418" s="51" t="s">
-        <v>1466</v>
-      </c>
-      <c r="D418" s="51" t="s">
-        <v>1454</v>
-      </c>
-      <c r="E418" s="51" t="s">
+    <row r="421" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A421" s="12">
+        <v>1000010</v>
+      </c>
+      <c r="B421" s="12">
+        <v>1</v>
+      </c>
+      <c r="C421" s="16" t="s">
+        <v>1463</v>
+      </c>
+      <c r="D421" s="16" t="s">
+        <v>1456</v>
+      </c>
+      <c r="E421" s="16" t="s">
         <v>1478</v>
       </c>
-      <c r="F418" s="9" t="s">
-        <v>1500</v>
-      </c>
-      <c r="G418" s="9">
-        <v>21365</v>
-      </c>
-      <c r="H418" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I418" s="9">
-        <v>1</v>
-      </c>
-      <c r="J418" s="9">
+      <c r="F421" s="12" t="s">
+        <v>1499</v>
+      </c>
+      <c r="G421" s="12">
+        <v>21368</v>
+      </c>
+      <c r="H421" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I421" s="12">
+        <v>1</v>
+      </c>
+      <c r="J421" s="12">
         <v>1598284800</v>
       </c>
-      <c r="K418" s="9">
+      <c r="K421" s="12">
         <v>32503651200</v>
       </c>
-      <c r="L418" s="9">
+      <c r="L421" s="12">
         <v>-1</v>
       </c>
     </row>
-    <row r="419" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A419" s="9">
-        <v>1000008</v>
-      </c>
-      <c r="B419" s="9">
-        <v>1</v>
-      </c>
-      <c r="C419" s="51" t="s">
-        <v>1465</v>
-      </c>
-      <c r="D419" s="51" t="s">
-        <v>1455</v>
-      </c>
-      <c r="E419" s="51" t="s">
+    <row r="422" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A422" s="12">
+        <v>1000011</v>
+      </c>
+      <c r="B422" s="12">
+        <v>1</v>
+      </c>
+      <c r="C422" s="16" t="s">
+        <v>1462</v>
+      </c>
+      <c r="D422" s="16" t="s">
+        <v>1457</v>
+      </c>
+      <c r="E422" s="16" t="s">
         <v>1478</v>
       </c>
-      <c r="F419" s="9" t="s">
-        <v>1500</v>
-      </c>
-      <c r="G419" s="9">
-        <v>21366</v>
-      </c>
-      <c r="H419" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I419" s="9">
-        <v>1</v>
-      </c>
-      <c r="J419" s="9">
+      <c r="F422" s="12" t="s">
+        <v>1499</v>
+      </c>
+      <c r="G422" s="12">
+        <v>21369</v>
+      </c>
+      <c r="H422" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I422" s="12">
+        <v>1</v>
+      </c>
+      <c r="J422" s="12">
         <v>1598284800</v>
       </c>
-      <c r="K419" s="9">
+      <c r="K422" s="12">
         <v>32503651200</v>
       </c>
-      <c r="L419" s="9">
+      <c r="L422" s="12">
         <v>-1</v>
       </c>
     </row>
-    <row r="420" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A420" s="9">
-        <v>1000009</v>
-      </c>
-      <c r="B420" s="9">
-        <v>1</v>
-      </c>
-      <c r="C420" s="51" t="s">
+    <row r="423" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A423" s="12">
+        <v>1000012</v>
+      </c>
+      <c r="B423" s="12">
+        <v>1</v>
+      </c>
+      <c r="C423" s="16" t="s">
         <v>1461</v>
       </c>
-      <c r="D420" s="51" t="s">
-        <v>1456</v>
-      </c>
-      <c r="E420" s="51" t="s">
-        <v>1479</v>
-      </c>
-      <c r="F420" s="9" t="s">
-        <v>855</v>
-      </c>
-      <c r="G420" s="9">
-        <v>21367</v>
-      </c>
-      <c r="H420" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I420" s="9">
-        <v>1</v>
-      </c>
-      <c r="J420" s="9">
+      <c r="D423" s="16" t="s">
+        <v>1458</v>
+      </c>
+      <c r="E423" s="16" t="s">
+        <v>1478</v>
+      </c>
+      <c r="F423" s="12" t="s">
+        <v>1499</v>
+      </c>
+      <c r="G423" s="12">
+        <v>21370</v>
+      </c>
+      <c r="H423" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I423" s="12">
+        <v>1</v>
+      </c>
+      <c r="J423" s="12">
         <v>1598284800</v>
       </c>
-      <c r="K420" s="9">
+      <c r="K423" s="12">
         <v>32503651200</v>
       </c>
-      <c r="L420" s="9">
+      <c r="L423" s="12">
         <v>-1</v>
       </c>
     </row>
-    <row r="421" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A421" s="9">
-        <v>1000010</v>
-      </c>
-      <c r="B421" s="9">
-        <v>1</v>
-      </c>
-      <c r="C421" s="51" t="s">
-        <v>1464</v>
-      </c>
-      <c r="D421" s="51" t="s">
-        <v>1457</v>
-      </c>
-      <c r="E421" s="51" t="s">
-        <v>1479</v>
-      </c>
-      <c r="F421" s="9" t="s">
-        <v>1500</v>
-      </c>
-      <c r="G421" s="9">
-        <v>21368</v>
-      </c>
-      <c r="H421" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I421" s="9">
-        <v>1</v>
-      </c>
-      <c r="J421" s="9">
+    <row r="424" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A424" s="12">
+        <v>1000013</v>
+      </c>
+      <c r="B424" s="12">
+        <v>1</v>
+      </c>
+      <c r="C424" s="16" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D424" s="16" t="s">
+        <v>1459</v>
+      </c>
+      <c r="E424" s="16" t="s">
+        <v>1478</v>
+      </c>
+      <c r="F424" s="16" t="s">
+        <v>1542</v>
+      </c>
+      <c r="G424" s="12">
+        <v>21371</v>
+      </c>
+      <c r="H424" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I424" s="12">
+        <v>1</v>
+      </c>
+      <c r="J424" s="12">
         <v>1598284800</v>
       </c>
-      <c r="K421" s="9">
+      <c r="K424" s="12">
         <v>32503651200</v>
       </c>
-      <c r="L421" s="9">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="422" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A422" s="9">
-        <v>1000011</v>
-      </c>
-      <c r="B422" s="9">
-        <v>1</v>
-      </c>
-      <c r="C422" s="51" t="s">
-        <v>1463</v>
-      </c>
-      <c r="D422" s="51" t="s">
-        <v>1458</v>
-      </c>
-      <c r="E422" s="51" t="s">
-        <v>1479</v>
-      </c>
-      <c r="F422" s="9" t="s">
-        <v>1500</v>
-      </c>
-      <c r="G422" s="9">
-        <v>21369</v>
-      </c>
-      <c r="H422" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I422" s="9">
-        <v>1</v>
-      </c>
-      <c r="J422" s="9">
-        <v>1598284800</v>
-      </c>
-      <c r="K422" s="9">
-        <v>32503651200</v>
-      </c>
-      <c r="L422" s="9">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="423" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A423" s="9">
-        <v>1000012</v>
-      </c>
-      <c r="B423" s="9">
-        <v>1</v>
-      </c>
-      <c r="C423" s="51" t="s">
-        <v>1462</v>
-      </c>
-      <c r="D423" s="51" t="s">
-        <v>1459</v>
-      </c>
-      <c r="E423" s="51" t="s">
-        <v>1479</v>
-      </c>
-      <c r="F423" s="9" t="s">
-        <v>1500</v>
-      </c>
-      <c r="G423" s="9">
-        <v>21370</v>
-      </c>
-      <c r="H423" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I423" s="9">
-        <v>1</v>
-      </c>
-      <c r="J423" s="9">
-        <v>1598284800</v>
-      </c>
-      <c r="K423" s="9">
-        <v>32503651200</v>
-      </c>
-      <c r="L423" s="9">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="424" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A424" s="9">
-        <v>1000013</v>
-      </c>
-      <c r="B424" s="9">
-        <v>1</v>
-      </c>
-      <c r="C424" s="51" t="s">
-        <v>1461</v>
-      </c>
-      <c r="D424" s="51" t="s">
-        <v>1460</v>
-      </c>
-      <c r="E424" s="51" t="s">
-        <v>1479</v>
-      </c>
-      <c r="F424" s="9" t="s">
-        <v>1500</v>
-      </c>
-      <c r="G424" s="9">
-        <v>21371</v>
-      </c>
-      <c r="H424" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I424" s="9">
-        <v>1</v>
-      </c>
-      <c r="J424" s="9">
-        <v>1598284800</v>
-      </c>
-      <c r="K424" s="9">
-        <v>32503651200</v>
-      </c>
-      <c r="L424" s="9">
+      <c r="L424" s="12">
         <v>-1</v>
       </c>
     </row>
@@ -26019,22 +26189,22 @@
         <v>1</v>
       </c>
       <c r="C425" s="114" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="D425" s="114" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="E425" s="114" t="s">
-        <v>1510</v>
-      </c>
-      <c r="F425" s="113" t="s">
-        <v>855</v>
+        <v>1509</v>
+      </c>
+      <c r="F425" s="114" t="s">
+        <v>1536</v>
       </c>
       <c r="G425" s="113">
         <v>21372</v>
       </c>
       <c r="H425" s="113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I425" s="113">
         <v>1</v>
@@ -26057,13 +26227,13 @@
         <v>1</v>
       </c>
       <c r="C426" s="114" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="D426" s="114" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="E426" s="114" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="F426" s="113" t="s">
         <v>855</v>
@@ -26072,7 +26242,7 @@
         <v>21373</v>
       </c>
       <c r="H426" s="113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I426" s="113">
         <v>1</v>
@@ -26095,13 +26265,13 @@
         <v>1</v>
       </c>
       <c r="C427" s="114" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="D427" s="114" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="E427" s="114" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="F427" s="113" t="s">
         <v>855</v>
@@ -26110,7 +26280,7 @@
         <v>21374</v>
       </c>
       <c r="H427" s="113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I427" s="113">
         <v>1</v>
@@ -26133,13 +26303,13 @@
         <v>1</v>
       </c>
       <c r="C428" s="114" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D428" s="114" t="s">
         <v>1507</v>
       </c>
-      <c r="D428" s="114" t="s">
-        <v>1508</v>
-      </c>
       <c r="E428" s="114" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="F428" s="113" t="s">
         <v>855</v>
@@ -26148,7 +26318,7 @@
         <v>21375</v>
       </c>
       <c r="H428" s="113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I428" s="113">
         <v>1</v>
@@ -26171,13 +26341,13 @@
         <v>1</v>
       </c>
       <c r="C429" s="61" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="D429" s="61" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="E429" s="84" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="F429" s="61" t="s">
         <v>855</v>
@@ -26198,6 +26368,196 @@
         <v>1598889599</v>
       </c>
       <c r="L429" s="61">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A430" s="12">
+        <v>1000019</v>
+      </c>
+      <c r="B430" s="12">
+        <v>1</v>
+      </c>
+      <c r="C430" s="16" t="s">
+        <v>1533</v>
+      </c>
+      <c r="D430" s="16" t="s">
+        <v>1534</v>
+      </c>
+      <c r="E430" s="16" t="s">
+        <v>1535</v>
+      </c>
+      <c r="F430" s="16" t="s">
+        <v>1537</v>
+      </c>
+      <c r="G430" s="12">
+        <v>21377</v>
+      </c>
+      <c r="H430" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I430" s="12">
+        <v>1</v>
+      </c>
+      <c r="J430" s="12">
+        <v>1598284800</v>
+      </c>
+      <c r="K430" s="12">
+        <v>32503651200</v>
+      </c>
+      <c r="L430" s="12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A431" s="12">
+        <v>1000020</v>
+      </c>
+      <c r="B431" s="12">
+        <v>1</v>
+      </c>
+      <c r="C431" s="16" t="s">
+        <v>1533</v>
+      </c>
+      <c r="D431" s="16" t="s">
+        <v>1538</v>
+      </c>
+      <c r="E431" s="16" t="s">
+        <v>1535</v>
+      </c>
+      <c r="F431" s="16" t="s">
+        <v>1499</v>
+      </c>
+      <c r="G431" s="12">
+        <v>21378</v>
+      </c>
+      <c r="H431" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I431" s="12">
+        <v>1</v>
+      </c>
+      <c r="J431" s="12">
+        <v>1598284800</v>
+      </c>
+      <c r="K431" s="12">
+        <v>32503651200</v>
+      </c>
+      <c r="L431" s="12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A432" s="12">
+        <v>1000021</v>
+      </c>
+      <c r="B432" s="12">
+        <v>1</v>
+      </c>
+      <c r="C432" s="16" t="s">
+        <v>1533</v>
+      </c>
+      <c r="D432" s="16" t="s">
+        <v>1539</v>
+      </c>
+      <c r="E432" s="16" t="s">
+        <v>1535</v>
+      </c>
+      <c r="F432" s="16" t="s">
+        <v>1499</v>
+      </c>
+      <c r="G432" s="12">
+        <v>21379</v>
+      </c>
+      <c r="H432" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I432" s="12">
+        <v>1</v>
+      </c>
+      <c r="J432" s="12">
+        <v>1598284800</v>
+      </c>
+      <c r="K432" s="12">
+        <v>32503651200</v>
+      </c>
+      <c r="L432" s="12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A433" s="12">
+        <v>1000022</v>
+      </c>
+      <c r="B433" s="12">
+        <v>1</v>
+      </c>
+      <c r="C433" s="16" t="s">
+        <v>1533</v>
+      </c>
+      <c r="D433" s="16" t="s">
+        <v>1540</v>
+      </c>
+      <c r="E433" s="16" t="s">
+        <v>1535</v>
+      </c>
+      <c r="F433" s="16" t="s">
+        <v>1499</v>
+      </c>
+      <c r="G433" s="12">
+        <v>21380</v>
+      </c>
+      <c r="H433" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I433" s="12">
+        <v>1</v>
+      </c>
+      <c r="J433" s="12">
+        <v>1598284800</v>
+      </c>
+      <c r="K433" s="12">
+        <v>32503651200</v>
+      </c>
+      <c r="L433" s="12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="434" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A434" s="12">
+        <v>1000023</v>
+      </c>
+      <c r="B434" s="12">
+        <v>1</v>
+      </c>
+      <c r="C434" s="16" t="s">
+        <v>1533</v>
+      </c>
+      <c r="D434" s="16" t="s">
+        <v>1541</v>
+      </c>
+      <c r="E434" s="16" t="s">
+        <v>1535</v>
+      </c>
+      <c r="F434" s="16" t="s">
+        <v>1499</v>
+      </c>
+      <c r="G434" s="12">
+        <v>21381</v>
+      </c>
+      <c r="H434" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I434" s="12">
+        <v>1</v>
+      </c>
+      <c r="J434" s="12">
+        <v>1598284800</v>
+      </c>
+      <c r="K434" s="12">
+        <v>32503651200</v>
+      </c>
+      <c r="L434" s="12">
         <v>-1</v>
       </c>
     </row>
@@ -26212,13 +26572,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:K429"/>
+  <dimension ref="A1:K434"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G405" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="F408" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J427" sqref="J427"/>
+      <selection pane="bottomRight" activeCell="H430" sqref="H430"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -36741,13 +37101,13 @@
         <v>407</v>
       </c>
       <c r="F412" s="32" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="H412" s="65" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="I412" s="14" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="413" spans="1:9" x14ac:dyDescent="0.2">
@@ -36761,13 +37121,13 @@
         <v>408</v>
       </c>
       <c r="F413" s="32" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="H413" s="65" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="I413" s="14" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="414" spans="1:9" x14ac:dyDescent="0.2">
@@ -36781,13 +37141,13 @@
         <v>409</v>
       </c>
       <c r="F414" s="111" t="s">
+        <v>1436</v>
+      </c>
+      <c r="H414" s="65" t="s">
+        <v>1447</v>
+      </c>
+      <c r="I414" s="14" t="s">
         <v>1437</v>
-      </c>
-      <c r="H414" s="65" t="s">
-        <v>1448</v>
-      </c>
-      <c r="I414" s="14" t="s">
-        <v>1438</v>
       </c>
     </row>
     <row r="415" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.2">
@@ -36809,7 +37169,7 @@
       </c>
       <c r="G415" s="79"/>
       <c r="H415" s="83" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="I415" s="19" t="s">
         <v>387</v>
@@ -36830,11 +37190,11 @@
         <v>0</v>
       </c>
       <c r="F416" s="82" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="G416" s="79"/>
       <c r="H416" s="83" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="I416" s="19" t="s">
         <v>387</v>
@@ -36855,11 +37215,11 @@
         <v>0</v>
       </c>
       <c r="F417" s="82" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="G417" s="79"/>
       <c r="H417" s="83" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="I417" s="19" t="s">
         <v>387</v>
@@ -36880,11 +37240,11 @@
         <v>0</v>
       </c>
       <c r="F418" s="82" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="G418" s="79"/>
       <c r="H418" s="83" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="I418" s="19" t="s">
         <v>387</v>
@@ -36905,11 +37265,11 @@
         <v>0</v>
       </c>
       <c r="F419" s="82" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="G419" s="79"/>
       <c r="H419" s="83" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="I419" s="19" t="s">
         <v>387</v>
@@ -36930,11 +37290,11 @@
         <v>0</v>
       </c>
       <c r="F420" s="82" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="G420" s="79"/>
       <c r="H420" s="83" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="I420" s="19" t="s">
         <v>387</v>
@@ -36955,11 +37315,11 @@
         <v>0</v>
       </c>
       <c r="F421" s="82" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="G421" s="79"/>
       <c r="H421" s="83" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="I421" s="19" t="s">
         <v>387</v>
@@ -36980,11 +37340,11 @@
         <v>0</v>
       </c>
       <c r="F422" s="82" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="G422" s="79"/>
       <c r="H422" s="83" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="I422" s="19" t="s">
         <v>387</v>
@@ -37005,11 +37365,11 @@
         <v>0</v>
       </c>
       <c r="F423" s="82" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="G423" s="79"/>
       <c r="H423" s="83" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="I423" s="19" t="s">
         <v>387</v>
@@ -37032,10 +37392,10 @@
       </c>
       <c r="G424" s="79"/>
       <c r="H424" s="83" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="I424" s="19" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="425" spans="1:10" s="120" customFormat="1" x14ac:dyDescent="0.2">
@@ -37055,10 +37415,10 @@
       </c>
       <c r="G425" s="117"/>
       <c r="H425" s="118" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="I425" s="119" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="J425" s="120">
         <v>1</v>
@@ -37081,10 +37441,10 @@
       </c>
       <c r="G426" s="117"/>
       <c r="H426" s="118" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="I426" s="119" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="J426" s="120">
         <v>1</v>
@@ -37107,10 +37467,10 @@
       </c>
       <c r="G427" s="117"/>
       <c r="H427" s="118" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="I427" s="119" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="J427" s="120">
         <v>1</v>
@@ -37127,14 +37487,14 @@
       <c r="D428" s="115"/>
       <c r="E428" s="115"/>
       <c r="F428" s="116" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="G428" s="117"/>
       <c r="H428" s="118" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="I428" s="119" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="429" spans="1:10" s="122" customFormat="1" x14ac:dyDescent="0.2">
@@ -37150,14 +37510,114 @@
       </c>
       <c r="E429" s="60"/>
       <c r="F429" s="63" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="G429" s="63"/>
       <c r="H429" s="121" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="I429" s="60" t="s">
         <v>856</v>
+      </c>
+    </row>
+    <row r="430" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A430" s="1">
+        <v>429</v>
+      </c>
+      <c r="B430" s="1">
+        <v>21377</v>
+      </c>
+      <c r="D430" s="1">
+        <v>424</v>
+      </c>
+      <c r="F430" s="111" t="s">
+        <v>1543</v>
+      </c>
+      <c r="H430" s="65" t="s">
+        <v>1544</v>
+      </c>
+      <c r="I430" s="14" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="431" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A431" s="29">
+        <v>430</v>
+      </c>
+      <c r="B431" s="29">
+        <v>21378</v>
+      </c>
+      <c r="D431" s="29">
+        <v>425</v>
+      </c>
+      <c r="F431" s="111" t="s">
+        <v>1553</v>
+      </c>
+      <c r="H431" s="65" t="s">
+        <v>1549</v>
+      </c>
+      <c r="I431" s="14" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="432" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A432" s="29">
+        <v>431</v>
+      </c>
+      <c r="B432" s="29">
+        <v>21379</v>
+      </c>
+      <c r="D432" s="29">
+        <v>426</v>
+      </c>
+      <c r="F432" s="111" t="s">
+        <v>1554</v>
+      </c>
+      <c r="H432" s="65" t="s">
+        <v>1550</v>
+      </c>
+      <c r="I432" s="14" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="433" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A433" s="29">
+        <v>432</v>
+      </c>
+      <c r="B433" s="29">
+        <v>21380</v>
+      </c>
+      <c r="D433" s="29">
+        <v>427</v>
+      </c>
+      <c r="F433" s="111" t="s">
+        <v>1555</v>
+      </c>
+      <c r="H433" s="65" t="s">
+        <v>1551</v>
+      </c>
+      <c r="I433" s="14" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="434" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A434" s="29">
+        <v>433</v>
+      </c>
+      <c r="B434" s="29">
+        <v>21381</v>
+      </c>
+      <c r="D434" s="29">
+        <v>428</v>
+      </c>
+      <c r="F434" s="111" t="s">
+        <v>1556</v>
+      </c>
+      <c r="H434" s="65" t="s">
+        <v>1552</v>
+      </c>
+      <c r="I434" s="14" t="s">
+        <v>1545</v>
       </c>
     </row>
   </sheetData>
@@ -37170,10 +37630,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I593"/>
+  <dimension ref="A1:I598"/>
   <sheetViews>
-    <sheetView topLeftCell="A563" workbookViewId="0">
-      <selection activeCell="C596" sqref="C596"/>
+    <sheetView topLeftCell="A569" workbookViewId="0">
+      <selection activeCell="D598" sqref="D598"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -38687,7 +39147,7 @@
         <v>83</v>
       </c>
       <c r="C105" s="13" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="D105" s="11">
         <v>49</v>
@@ -38953,7 +39413,7 @@
         <v>102</v>
       </c>
       <c r="C124" s="13" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="D124" s="11">
         <v>67</v>
@@ -41440,7 +41900,7 @@
         <v>196</v>
       </c>
       <c r="C292" s="19" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="D292" s="10">
         <v>0</v>
@@ -45535,7 +45995,7 @@
         <v>407</v>
       </c>
       <c r="C577" s="13" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="D577" s="11">
         <v>280</v>
@@ -45549,7 +46009,7 @@
         <v>408</v>
       </c>
       <c r="C578" s="13" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="D578" s="11">
         <v>281</v>
@@ -45563,7 +46023,7 @@
         <v>409</v>
       </c>
       <c r="C579" s="13" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D579" s="11">
         <v>282</v>
@@ -45592,7 +46052,7 @@
         <v>411</v>
       </c>
       <c r="C581" s="19" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="D581" s="10">
         <v>283</v>
@@ -45635,7 +46095,7 @@
         <v>414</v>
       </c>
       <c r="C584" s="19" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="D584" s="10">
         <v>0</v>
@@ -45692,7 +46152,7 @@
         <v>418</v>
       </c>
       <c r="C588" s="19" t="s">
-        <v>1475</v>
+        <v>1547</v>
       </c>
       <c r="D588" s="10">
         <v>0</v>
@@ -45706,7 +46166,7 @@
         <v>419</v>
       </c>
       <c r="C589" s="13" t="s">
-        <v>1415</v>
+        <v>1546</v>
       </c>
       <c r="D589" s="11">
         <v>285</v>
@@ -45720,7 +46180,7 @@
         <v>420</v>
       </c>
       <c r="C590" s="119" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="D590" s="115">
         <v>286</v>
@@ -45734,7 +46194,7 @@
         <v>421</v>
       </c>
       <c r="C591" s="119" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="D591" s="115">
         <v>287</v>
@@ -45748,7 +46208,7 @@
         <v>422</v>
       </c>
       <c r="C592" s="119" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="D592" s="115">
         <v>288</v>
@@ -45766,6 +46226,76 @@
       </c>
       <c r="D593" s="60">
         <v>289</v>
+      </c>
+    </row>
+    <row r="594" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A594" s="29">
+        <v>593</v>
+      </c>
+      <c r="B594" s="29">
+        <v>424</v>
+      </c>
+      <c r="C594" s="119" t="s">
+        <v>1548</v>
+      </c>
+      <c r="D594" s="115">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="595" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A595" s="29">
+        <v>594</v>
+      </c>
+      <c r="B595" s="29">
+        <v>425</v>
+      </c>
+      <c r="C595" s="119" t="s">
+        <v>1548</v>
+      </c>
+      <c r="D595" s="115">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="596" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A596" s="29">
+        <v>595</v>
+      </c>
+      <c r="B596" s="29">
+        <v>426</v>
+      </c>
+      <c r="C596" s="119" t="s">
+        <v>1548</v>
+      </c>
+      <c r="D596" s="115">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="597" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A597" s="29">
+        <v>596</v>
+      </c>
+      <c r="B597" s="29">
+        <v>427</v>
+      </c>
+      <c r="C597" s="119" t="s">
+        <v>1548</v>
+      </c>
+      <c r="D597" s="115">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="598" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A598" s="29">
+        <v>597</v>
+      </c>
+      <c r="B598" s="29">
+        <v>428</v>
+      </c>
+      <c r="C598" s="119" t="s">
+        <v>1548</v>
+      </c>
+      <c r="D598" s="115">
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -45778,13 +46308,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:M407"/>
+  <dimension ref="A1:M412"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C392" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D383" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D415" sqref="D415"/>
+      <selection pane="bottomRight" activeCell="D412" sqref="D412"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -48683,7 +49213,7 @@
         <v>681</v>
       </c>
       <c r="D137" s="25" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="E137" s="11">
         <v>2</v>
@@ -53174,7 +53704,7 @@
         <v>280</v>
       </c>
       <c r="C398" s="13" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="D398" s="11">
         <v>9</v>
@@ -53191,7 +53721,7 @@
         <v>281</v>
       </c>
       <c r="C399" s="13" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="D399" s="11">
         <v>51</v>
@@ -53208,7 +53738,7 @@
         <v>282</v>
       </c>
       <c r="C400" s="13" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D400" s="11">
         <v>240000</v>
@@ -53228,7 +53758,7 @@
         <v>1418</v>
       </c>
       <c r="D401" s="83" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="E401" s="10">
         <v>2</v>
@@ -53246,7 +53776,7 @@
         <v>681</v>
       </c>
       <c r="D402" s="112" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="E402" s="10">
         <v>2</v>
@@ -53282,7 +53812,7 @@
         <v>700</v>
       </c>
       <c r="D404" s="119" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="E404" s="115">
         <v>2</v>
@@ -53300,7 +53830,7 @@
         <v>700</v>
       </c>
       <c r="D405" s="119" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="E405" s="115">
         <v>2</v>
@@ -53318,7 +53848,7 @@
         <v>700</v>
       </c>
       <c r="D406" s="119" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="E406" s="115">
         <v>2</v>
@@ -53333,13 +53863,99 @@
         <v>289</v>
       </c>
       <c r="C407" s="60" t="s">
+        <v>1529</v>
+      </c>
+      <c r="D407" s="64" t="s">
         <v>1530</v>
-      </c>
-      <c r="D407" s="64" t="s">
-        <v>1531</v>
       </c>
       <c r="E407" s="60">
         <v>2</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6" s="81" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A408" s="9">
+        <v>437</v>
+      </c>
+      <c r="B408" s="9">
+        <v>290</v>
+      </c>
+      <c r="C408" s="19" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D408" s="10">
+        <v>5000</v>
+      </c>
+      <c r="E408" s="10">
+        <v>3</v>
+      </c>
+      <c r="F408" s="10"/>
+    </row>
+    <row r="409" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A409" s="9">
+        <v>438</v>
+      </c>
+      <c r="B409" s="9">
+        <v>291</v>
+      </c>
+      <c r="C409" s="19" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D409" s="10">
+        <v>10000</v>
+      </c>
+      <c r="E409" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A410" s="9">
+        <v>439</v>
+      </c>
+      <c r="B410" s="9">
+        <v>292</v>
+      </c>
+      <c r="C410" s="19" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D410" s="10">
+        <v>30000</v>
+      </c>
+      <c r="E410" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A411" s="9">
+        <v>440</v>
+      </c>
+      <c r="B411" s="9">
+        <v>293</v>
+      </c>
+      <c r="C411" s="19" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D411" s="10">
+        <v>60000</v>
+      </c>
+      <c r="E411" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A412" s="9">
+        <v>441</v>
+      </c>
+      <c r="B412" s="9">
+        <v>294</v>
+      </c>
+      <c r="C412" s="19" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D412" s="10">
+        <v>120000</v>
+      </c>
+      <c r="E412" s="10">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -53352,13 +53968,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:W890"/>
+  <dimension ref="A1:W895"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C877" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C904" sqref="C904"/>
+      <selection pane="bottomRight" activeCell="F892" sqref="F892"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -65805,7 +66421,7 @@
       </c>
       <c r="C591" s="13"/>
       <c r="D591" s="13" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="E591" s="11">
         <v>88</v>
@@ -70312,7 +70928,7 @@
       </c>
       <c r="C813" s="11"/>
       <c r="D813" s="13" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="E813" s="27">
         <v>1</v>
@@ -71600,7 +72216,7 @@
         <v>625</v>
       </c>
       <c r="D884" s="14" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="E884" s="1">
         <v>50</v>
@@ -71617,7 +72233,7 @@
         <v>626</v>
       </c>
       <c r="D885" s="14" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="E885" s="1">
         <v>1</v>
@@ -71634,7 +72250,7 @@
         <v>627</v>
       </c>
       <c r="D886" s="14" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="E886" s="29">
         <v>1</v>
@@ -71651,7 +72267,7 @@
         <v>628</v>
       </c>
       <c r="D887" s="14" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="E887" s="29">
         <v>1</v>
@@ -71669,7 +72285,7 @@
       </c>
       <c r="C888" s="29"/>
       <c r="D888" s="14" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="E888" s="29">
         <v>1</v>
@@ -71690,7 +72306,7 @@
       </c>
       <c r="C889" s="29"/>
       <c r="D889" s="14" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="E889" s="29">
         <v>1000</v>
@@ -71719,6 +72335,91 @@
       </c>
       <c r="G890" s="60"/>
       <c r="H890" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="891" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A891" s="61">
+        <v>890</v>
+      </c>
+      <c r="B891" s="60">
+        <v>632</v>
+      </c>
+      <c r="D891" s="13" t="s">
+        <v>1363</v>
+      </c>
+      <c r="E891" s="1">
+        <v>100</v>
+      </c>
+      <c r="F891" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="892" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A892" s="61">
+        <v>891</v>
+      </c>
+      <c r="B892" s="60">
+        <v>633</v>
+      </c>
+      <c r="D892" s="13" t="s">
+        <v>1363</v>
+      </c>
+      <c r="E892" s="29">
+        <v>300</v>
+      </c>
+      <c r="F892" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="893" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A893" s="61">
+        <v>892</v>
+      </c>
+      <c r="B893" s="60">
+        <v>634</v>
+      </c>
+      <c r="D893" s="13" t="s">
+        <v>1363</v>
+      </c>
+      <c r="E893" s="29">
+        <v>900</v>
+      </c>
+      <c r="F893" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="894" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A894" s="61">
+        <v>893</v>
+      </c>
+      <c r="B894" s="60">
+        <v>635</v>
+      </c>
+      <c r="D894" s="13" t="s">
+        <v>1363</v>
+      </c>
+      <c r="E894" s="29">
+        <v>3000</v>
+      </c>
+      <c r="F894" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="895" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A895" s="61">
+        <v>894</v>
+      </c>
+      <c r="B895" s="60">
+        <v>636</v>
+      </c>
+      <c r="D895" s="13" t="s">
+        <v>1363</v>
+      </c>
+      <c r="E895" s="29">
+        <v>8400</v>
+      </c>
+      <c r="F895" s="29">
         <v>1</v>
       </c>
     </row>

--- a/config_debug/task_zajindan_server.xlsx
+++ b/config_debug/task_zajindan_server.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">task!$B$1:$B$367</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -9165,13 +9165,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T414"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D392" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="F350" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C419" sqref="C419"/>
+      <selection pane="bottomRight" activeCell="H369" sqref="H369"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23514,13 +23515,13 @@
         <v>21315</v>
       </c>
       <c r="H368" s="98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I368" s="97">
         <v>1</v>
       </c>
       <c r="J368" s="97">
-        <v>1593554400</v>
+        <v>1593532800</v>
       </c>
       <c r="K368" s="97">
         <v>32503651200</v>
@@ -23552,13 +23553,13 @@
         <v>21316</v>
       </c>
       <c r="H369" s="98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I369" s="97">
         <v>1</v>
       </c>
       <c r="J369" s="97">
-        <v>1593554400</v>
+        <v>1593532800</v>
       </c>
       <c r="K369" s="97">
         <v>32503651200</v>
@@ -23590,13 +23591,13 @@
         <v>21317</v>
       </c>
       <c r="H370" s="98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I370" s="97">
         <v>1</v>
       </c>
       <c r="J370" s="97">
-        <v>1593554400</v>
+        <v>1593532800</v>
       </c>
       <c r="K370" s="97">
         <v>32503651200</v>
@@ -23628,13 +23629,13 @@
         <v>21318</v>
       </c>
       <c r="H371" s="98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I371" s="97">
         <v>1</v>
       </c>
       <c r="J371" s="97">
-        <v>1593554400</v>
+        <v>1593532800</v>
       </c>
       <c r="K371" s="97">
         <v>32503651200</v>
@@ -25287,6 +25288,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K414"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -35874,6 +35876,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I579"/>
   <sheetViews>
     <sheetView topLeftCell="A547" workbookViewId="0">
@@ -44282,6 +44285,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:M400"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -51730,6 +51734,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:W889"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -70014,6 +70019,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/config_debug/task_zajindan_server.xlsx
+++ b/config_debug/task_zajindan_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5437" uniqueCount="1557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5543" uniqueCount="1586">
   <si>
     <t>id|任务id</t>
   </si>
@@ -5141,51 +5141,51 @@
   </si>
   <si>
     <t>VIP赢金挑战</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>重复VIP累计赢金挑战</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>vip_new_game_award_task</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>vip_yingjin_complete_task</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>VIP累计赢金新征程宝箱</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>common</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>nor</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>nor</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>children_task_complete</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>task_id</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>task_id</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>468</t>
@@ -5234,23 +5234,23 @@
   </si>
   <si>
     <t>jing_bi</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>jing_bi</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>jing_bi</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>shop_gold_sum</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>shop_gold_sum</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>美的微波炉</t>
@@ -5276,7 +5276,7 @@
       </rPr>
       <t>ipad</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5293,11 +5293,11 @@
       </rPr>
       <t>82</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>467</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5314,7 +5314,7 @@
       </rPr>
       <t>,468,469,470,471,472,473,474,475,476,477,478,479,480,481</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5331,15 +5331,15 @@
       </rPr>
       <t>000000,2000000,4000000,8000000,19000000,35000000,80000000,150000000,300000000,600000000,1800000000,3000000000,4000000000,10000000000,30000000000</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>幸运彩蛋</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>100000,-1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5356,47 +5356,47 @@
       </rPr>
       <t>83,483</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>nor</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>官方渠道</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>p_lucky_egg_normal</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>p_lucky_egg_cpl</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>nor</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>prop_sunshine</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>112,21243</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>VIP升级</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>p_recharge_gift</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>1000000,-1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5413,111 +5413,111 @@
       </rPr>
       <t>84,484</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>485,485</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>freestyle_game_award</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>vip_treasure_value</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>VIP11礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>VIP12礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>VIP11、12财富值获得,100万赢金获得1点</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>vip_greater10</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>asset_observe</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t> VIP11礼包领取</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t> VIP12礼包领取</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t> VIP11礼包领取30次后领取额外礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t> VIP12礼包领取30次后领取额外礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>nor</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>get_award_type|获得奖励的方式("nor"普通,"random"随机  )</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>random</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>random</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>nor</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>children_task_complete</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>children_task_complete</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>children_task_complete</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>asset_observe</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>jing_bi</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>jing_bi</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>discount_fish_coin</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>discount_fish_coin</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>prop_web_chip_huafei</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5534,7 +5534,7 @@
       </rPr>
       <t>,1,1</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5551,59 +5551,59 @@
       </rPr>
       <t>,490,491</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>vip_11_everyday_gift_task</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>vip_11_accumulate_gift_task</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>vip_12_everyday_gift_task</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>vip_12_accumulate_gift_task</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>common</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>common</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>complete_clear_task</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>complete_clear_task</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>幸运彩蛋</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>幸运彩蛋</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>指定鲸币充值后获得5点阳光值</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>指定鲸币充值后获得12点阳光值</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>指定鲸币充值后获得25点阳光值</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5631,15 +5631,15 @@
       </rPr>
       <t>点阳光值</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>指定鲸币充值后获得78点阳光值</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>指定鲸币充值后获得158点阳光值</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5667,35 +5667,35 @@
       </rPr>
       <t>点阳光值</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>指定鲸币充值后获得798点阳光值</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>指定鲸币充值后获得1998点阳光值</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>闲玩、PC蛋蛋、小卓和聚享玩渠道</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>p_recharge_sunshine_value</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>common</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>common</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5712,7 +5712,7 @@
       </rPr>
       <t>92</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5844,67 +5844,67 @@
   </si>
   <si>
     <t>prop_sunshine</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>200000,-1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>4</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>3</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>5</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>111</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>6</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>108</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>110</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>成功召回（活动期间登录游戏为成功召回）一个玩家</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>permission_task</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>五一劳动最光荣活动中成功召回（活动期间登录游戏为成功召回）一个玩家</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>permission_task</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>box_exchange_17</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>30,50,70,150,700</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5988,39 +5988,39 @@
   </si>
   <si>
     <t>落地风扇</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>501,502,503,504,505</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>jing_bi</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>shop_gold_sum</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>shop_gold_sum</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>五一挖宝</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>permission_task</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>common</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>五一挖宝（累计挖宝次数获得奖励）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6037,11 +6037,11 @@
       </rPr>
       <t>000000,-1</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>nor</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6058,51 +6058,51 @@
       </rPr>
       <t>06,506</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>p_recharge_sunshine_value</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>指定鲸币充值后获得38个铲子</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>指定鲸币充值后获得2个铲子</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>指定鲸币充值后获得4个铲子</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>指定鲸币充值后获得8个铲子</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>指定鲸币充值后获得18个铲子</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>指定鲸币充值后获得98个铲子</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>common</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>common</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>p_recharge_sunshine_value</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6119,7 +6119,7 @@
       </rPr>
       <t>07</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6136,7 +6136,7 @@
       </rPr>
       <t>08</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6220,143 +6220,143 @@
   </si>
   <si>
     <t>prop_shovel</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>prop_shovel</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>p_recharge_shovel_value</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>p_recharge_shovel_value</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>指定鲸币充值后获得1个铲子</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>p_digging_treasure</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>p_recharge_carnation_value</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>母亲节特惠</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>母亲节特惠</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>官方渠道（累计赢金获得康乃馨）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>闲玩、PC蛋蛋、小卓和聚享玩渠道（累计赢金获得康乃馨）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>common</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>nor</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>nor</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>buy_gift</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>buy_gift</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>prop_carnation</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>prop_carnation</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>p_mother_day_discount_normal</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>p_mother_day_discount_cpl</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>p_recharge_carnation_value</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>五一挖宝</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>|任务内容说明</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>指定鲸币充值后获得4只康乃馨</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>指定鲸币充值后获得8只康乃馨</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>指定鲸币充值后获得18只康乃馨</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>指定鲸币充值后获得28只康乃馨</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>指定鲸币充值后获得58只康乃馨</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>指定鲸币充值后获得118只康乃馨</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>指定鲸币充值后获得298只康乃馨</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>指定鲸币充值后获得598只康乃馨</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>指定鲸币充值后获得1498只康乃馨</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>五一挖宝（累计赢金200万给一个铲子）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>514,514</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>515,515</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>每天在游戏中累计购买3次6元</t>
@@ -6387,79 +6387,79 @@
   </si>
   <si>
     <t>充值返利</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>充值返利</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>充值返利</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>充值返利</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>充值返利</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>10000,40000,50000,400000,500000,2000000,5000000</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>p_revaluation_rebate</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>common</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>common</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>buy_gift</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>3</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>3</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>3</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>3</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>3</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>buy_gift</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>gift_id</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>gift_id</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>525</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>526</t>
@@ -6475,7 +6475,7 @@
   </si>
   <si>
     <t>530</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>531</t>
@@ -6491,43 +6491,43 @@
   </si>
   <si>
     <t>nor</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>nor</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>jing_bi</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>充值返利</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>p_revaluation_rebate_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>p_revaluation_rebate_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>5,88</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>4,87</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>3,86</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>2,85</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6555,51 +6555,51 @@
       </rPr>
       <t>10189</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>6,89</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>110,10045</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>5,88</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>浪漫礼盒</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>浪漫礼盒</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>浪漫礼盒</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>浪漫礼盒</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>p_love_day_discount_normal</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>p_love_day_discount_cpl</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>p_recharge_love_value</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>官方渠道（累计赢金获得爱心）</t>
@@ -6636,27 +6636,27 @@
   </si>
   <si>
     <t>535,535</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>536,536</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>prop_love</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>p_recharge_gift</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>546</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>p_dove_gift</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6695,71 +6695,71 @@
       </rPr>
       <t>238</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>德芙巧克力</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>金龙鱼大米，洗发水，U型颈枕（三选一）</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>小米手环，特仑苏牛奶，天猫精灵（三选一）</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>表白礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>浪漫礼盒</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>小米空气净化器</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>美的空调</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>充值返利</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>连购返利</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>common</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>common</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>3</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>3</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>3</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>3</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>3</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6776,7 +6776,7 @@
       </rPr>
       <t>or</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6793,104 +6793,104 @@
       </rPr>
       <t>or</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>nor</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>nor</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>nor</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>nor</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>gift_id</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>gift_id</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>休闲斜挎包，迷你冰箱，特仑苏牛奶（三选一）</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>物理驱蚊器，迷你风扇，夏日短袜（三选一）</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>jing_bi</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>jing_bi</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>jing_bi</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>每天在游戏中累计购买3次2498元（V4-V10)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>每天在游戏中累计购买3次98元(V1-V3）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>p_rabate_gift1</t>
   </si>
   <si>
     <t>p_rabate_gift1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>p_rabate_gift2</t>
   </si>
   <si>
     <t>p_rabate_gift2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>108,10044</t>
   </si>
   <si>
     <t>每天在游戏中累计购买3次998元（V4-V10)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>每天在游戏中累计购买3次498元（V4-V10)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>每天在游戏中累计购买3次198元（V4-V10)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>每天在游戏中累计购买3次98元（V4-V10)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>每天在游戏中累计购买3次50元(V1-V3）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>每天在游戏中累计购买3次30元(V1-V3）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>每天在游戏中累计购买3次15元(V1-V3）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6918,15 +6918,15 @@
       </rPr>
       <t>）</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>prop_guess_apple_bet_2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>vip2周任务</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6954,7 +6954,7 @@
       </rPr>
       <t>的周任务</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6971,7 +6971,7 @@
       </rPr>
       <t>2</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6988,31 +6988,31 @@
       </rPr>
       <t>67</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>complete_clear_task</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>新人七天乐_3D捕鱼中捕获10条小丑鱼</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>buyu_3d_target_yu</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>20,21,22,23,24,25,26,27</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>28,29,30,31,32,33,34,35,36,37</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>新人福利券</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>进行1次商城兑换</t>
@@ -7022,106 +7022,106 @@
   </si>
   <si>
     <t>buyu_3d_target_yu</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>3D捕鱼中捕获任意50条鱼</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>3D捕鱼中捕获任意150条鱼</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>3D捕鱼中捕获任意250条鱼</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>50</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>150</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>250</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>is_auto_get_award|是否自动领取(0或空不自动，1自动领)</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>buyu_3d_spend</t>
   </si>
   <si>
     <t>buyu_3d_spend</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>fish_game_id</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>fish_game_id</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>random</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>random</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>shop_gold_sum</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>shop_gold_sum</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>little_game_award_half_buyu</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>buyu_3d_award</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>任意游戏累计赢金50万</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>任意游戏累计赢金100万</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>任意游戏累计赢金200万</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>任意游戏累计赢金500万</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>任意游戏累计赢金1000万</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>任意游戏累计赢金2000万</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>任意游戏累计赢金5000万</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7149,51 +7149,51 @@
       </rPr>
       <t>_game_num</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>|condition_id|条件id，没有条件就配0或不配</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>30</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>1,2,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>3D捕鱼中开炮30次</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>step_task</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>buyu_3d_spend_num</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>300000,950000,4500000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>3000000,9500000,45000000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>30000000,95000000,450000000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>300000000,950000000,4500000000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>577,578,579</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7210,71 +7210,71 @@
       </rPr>
       <t>,569,570,</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>571,572,573</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>574,575,576,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>3</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>5</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>5</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>10</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>15</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>40</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>50</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>60</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>30</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>100</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>小游戏畅玩卡</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>小游戏畅玩卡</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>每日登陆</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7291,7 +7291,7 @@
       </rPr>
       <t>_1</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7308,103 +7308,103 @@
       </rPr>
       <t>ommon</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>赢金任务上级</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>chang_wan_ka_task_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>chang_wan_ka_task</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>特殊任务上级</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>chang_wan_ka_task_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>chang_wan_ka_children_normal_task</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>chang_wan_ka_children_normal_task</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>common</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>chang_wan_ka_children_special_task</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>chang_wan_ka_children_special_task</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>在财神消消乐中累计赢金1000万</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>在水果消消乐中累计赢金1000万</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>在水浒消消乐中累计赢金1000万</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>在苹果大战中累计纯赢1000万</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>在疯狂捕鱼中累计赢金1000万</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>在弹弹乐中累计赢金1000万</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>在敲敲乐中累计赢金1000万</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>在敲敲乐财神模式中累计赢金1000万</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>nor</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>nor</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>nor</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7421,11 +7421,11 @@
       </rPr>
       <t>or</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>nor</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7442,7 +7442,7 @@
       </rPr>
       <t>or</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7459,7 +7459,7 @@
       </rPr>
       <t>or</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7476,15 +7476,15 @@
       </rPr>
       <t>or</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>nor</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7501,163 +7501,163 @@
       </rPr>
       <t>or</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>10000000</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>10000000</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>10000000</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>580</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>581</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>582</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>xiaoxiaole_caishen_award</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>xiaoxiaole_shuihu_award</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>xiaoxiaole_award</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>guess_apple_award</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>jykp_award</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>tantanle_award</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>zajindan_award</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>zajindan_caishen_model_award</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>guess_apple_award_kaijiang_type</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>xxl_lucky_award</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>xiaoxiaole_caishen_sky_girl</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>zajindan_caishen</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>bet_spend</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>base_fish_id</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>gun_rate</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>hammer_id</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>jing_bi</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>shop_gold_sum</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>task_21321</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>在苹果大战中累计纯赢8000万</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>苹果大战使用500万及以上档次种出一次金苹果</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>敲敲乐财神模式中累计赢金8000万</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>弹弹乐中累计赢金8000万</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>水果消消乐使用48万及以上档次出现一次幸运时刻</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>水浒消消乐中累计赢金8000万</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>财神消消乐使用96万以上档次打出一次天女散花</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>敲敲乐使用10万及以上档次敲出2次38倍财神</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>80000000</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>80000000</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>38,39,40,41,42,43,44,45,46,47,48,49</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>prop_guess_apple_bet_2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>buyu_3d_award</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>VIP赢金挑战第三期</t>
@@ -7670,11 +7670,11 @@
   </si>
   <si>
     <t>zajindan_award</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>jykp_award</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>拜尔电动牙刷</t>
@@ -7696,91 +7696,91 @@
   </si>
   <si>
     <t>583,584,585,586,587,588,589,590,591,592,593,594,595,596,597,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>在街机捕鱼中累计赢金1000万</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>街机捕鱼使用10万以上炮倍击杀一条黄金龙</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>buyu_award</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>buyu_target_yu</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>300000</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>100</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>charge_any</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>300</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>10</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>500000</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>新人七天乐_累计充值3元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>新人七天乐_3D捕鱼累计赢金50万</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>新人七天乐_3D捕鱼累计赢金200万</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>新人七天乐_小游戏赢金100万</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>新人七天乐__成为VIP2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>vip_level_up</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>vip_level_up</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>buy_gift</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>agent_charge_any</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>1000000</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>20000000</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7797,27 +7797,27 @@
       </rPr>
       <t>IP富豪福利</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>own_type|获得类型</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>prop_3d_fish_lock</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>prop_3d_fish_frozen</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>vip_regal_welfare</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>历史身上拥有金币数</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7856,89 +7856,89 @@
       </rPr>
       <t>,6000000,12000000,24000000,48000000,104000000,200000000,400000000,800000000,1600000000,3200000000,5600000000,12000000000,26000000000</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>598,599,600,601,602,603,604,605,606,607,608,609,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>max_asset_observe</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>asset_type</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>jing_bi</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>prop_3d_fish_summon_fish</t>
   </si>
   <si>
     <t>prop_3d_fish_summon_fish</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>2000000,3000000,5000000,10000000,30000000,50000000,100000000,300000000,500000000,1000000000,1000000000,2000000000</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>盛夏送好礼</t>
   </si>
   <si>
     <t>盛夏送好礼</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>common</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>shop_gold_sum</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>gift_id</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>连购返利 v1-v3 每天在游戏中累计购买3次98元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>连购返利 v1-v3 每天在游戏中累计购买3次50元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>连购返利 v4-v10每天在游戏中累计购买3次2498元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>连购返利 v4-v10每天在游戏中累计购买3次998元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>连购返利 v4-v10每天在游戏中累计购买3次498元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>连购返利 v4-v10每天在游戏中累计购买3次198元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>连购返利 v4-v10每天在游戏中累计购买3次98元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>连购返利 v1-v3 每天在游戏中累计购买3次30元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>连购返利 v1-v3 每天在游戏中累计购买3次15元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>110,10045</t>
@@ -7960,55 +7960,55 @@
   </si>
   <si>
     <t>太阳眼镜、空调被、美的风扇 （三选一）</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>雨伞、矿泉水、鸭舌帽（三选一）</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>jing_bi</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>盛夏送好礼</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>3D捕鱼神秘海域中用500及以上炮倍击杀3条彩金鱼</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>3D捕鱼神秘海域中用500及以上炮倍击杀5条活动鱼</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>3D捕鱼中用5000及以上炮倍击杀3条美人鱼</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>3D捕鱼中用5000及以上炮倍击杀2条深海狂鲨</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>3D捕鱼开炮抽红包，累计获得300及以上的福利券</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>水果消消乐用24万及以上档次出现1次幸运时刻</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>水浒消消乐用24万及以上档次累计召唤出3次英雄</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>免费重置3次</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>610</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>611</t>
@@ -8036,91 +8036,91 @@
   </si>
   <si>
     <t>p_0811_wyzjf</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>contend_socre_task</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>score_free_reset_task</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>3</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>5</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>3</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>300</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>3</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>0</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>buyu_3d_target_yu</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>buyu_3d_target_yu</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>buyu_3d_target_yu</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>xxl_lucky_award</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>sh_xxl_xc_num_hero</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>task_award_receive</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>base_fish_id</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>hero_num</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>bet_spend</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>bet_spend</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>gun_rate</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -8137,59 +8137,59 @@
       </rPr>
       <t>,21316,21317,21318</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>20,22,23,24,25,26,27</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>21,28,29,30,31,32,33,34,35,36</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>p_summer_lgfl2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>p_summer_lgfl2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>p_0811_wyzjf</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>p_summer_lgfl1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>捕虾福利</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>3D捕鱼中任意场次，获得10\20\30张小龙虾券</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>p_0818_bxfl</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>3D捕鱼中任意场次，击杀1\2\3只龙虾BOSS</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>10,10,10</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>1,1,1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -8206,35 +8206,35 @@
       </rPr>
       <t>or</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>get_fish_3d_bullet_item</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>act_type</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>buyu_3d_target_yu</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>base_fish_id</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>xxl_lucky_award</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>bet_spend</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>prop_fish_drop_act_0</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -8251,7 +8251,7 @@
       </rPr>
       <t>19,620,621</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -8268,7 +8268,7 @@
       </rPr>
       <t>22,623,624</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -8285,122 +8285,122 @@
       </rPr>
       <t>25</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>登陆1次游戏</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>青铜转盘</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>青铜转盘</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>在3D捕鱼累计赢金30万</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>在3D捕鱼击杀6只小乌龟</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>在3D捕鱼累计赢金60万</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>在水果消消乐累计赢金80万</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>在商城充值6元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>在3D捕鱼中累计赢金150万</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>在3D捕鱼累计赢金300万</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>在水果消消乐中累计赢金300万</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>在水果消消乐中使用3万及以上出现1次幸运时刻</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>黄金转盘</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>黄金转盘</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>黄金转盘</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>黄金转盘</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>白银转盘</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>白银转盘</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>626</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>11</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>6</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>300000</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>600000</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>800000</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>xiaoxiaole_award</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>buyu_3d_target_yu</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>xiaoxiaole_award</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>newplayer_xrcdj1</t>
   </si>
   <si>
     <t>newplayer_xrcdj1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>newplayer_xrcdj2</t>
@@ -8410,43 +8410,43 @@
   </si>
   <si>
     <t>600</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>1,2,3,4,5,6,22,24,25,26,27,84,85,86,87,88,89,90,101,102,103,104,105,106,107,108,109,110,10002,10003,10004,10044,10045,10069,10070,10071,10072,10073</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>charge_any</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>1500000</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>3000000</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>3000000</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>prop_xrcdj_1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>626</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>627</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>628</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>prop_xrcdj_2</t>
@@ -8456,158 +8456,158 @@
   </si>
   <si>
     <t>新版新人红包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>开炮送红包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>神秘海域</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>buyu_leiji_dapao_new_task</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>海底宝藏</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>藏宝海湾</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>开炮送红包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>深海沉船</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>not_open_task</t>
   </si>
   <si>
     <t>青铜转盘抽奖</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>白银转盘抽奖</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>黄金转盘抽奖</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>青铜转盘抽奖次数记录</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>白银转盘抽奖次数记录</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>黄金转盘抽奖次数记录</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>10元话费</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>青铜，白银，黄金转盘各抽一次，可以完成</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>normal</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>normal</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>normal</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>normal</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>task_21320</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>box_exchange</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>box_exchange</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>box_exchange_37</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>box_exchange_38</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>box_exchange_39</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>629</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>630</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>task_1000017</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>prop_web_chip_huafei</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>prop_web_chip_huafei</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>3</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>表白礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>既购买了520礼包又购买了1314礼包，则可以领取一个实物奖励“德芙巧克力”</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>既购买了520礼包又购买了1314礼包，则可以领取一个实物奖励“德芙巧克力</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>631</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>gift_id</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -8635,59 +8635,55 @@
       </rPr>
       <t>10282</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>p_026_dove_gift</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>水果消消乐使用24万及以上档次出现1次幸运时刻</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>水果消消乐引导</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>在水果消消乐中使用5000及以上档次累计消耗10000000</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>p_026_sgxxl_yd</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>common</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>common</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>在水果消消乐中使用5000及以上档次累计消耗30000000</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>在水果消消乐中使用5000及以上档次累计消耗90000000</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>在水果消消乐中使用5000及以上档次累计消耗300000000</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>在水果消消乐中使用5000及以上档次累计消耗840000000</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>not_open_task</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>10000000</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -8704,7 +8700,7 @@
       </rPr>
       <t>32</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -8721,19 +8717,19 @@
       </rPr>
       <t>or</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>xxl_lucky_award</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>xiaoxiaole_award</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>xiaoxiaole_spend</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -8801,30 +8797,631 @@
   </si>
   <si>
     <t>30000000</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>90000000</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>300000000</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>840000000</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>浪漫礼盒</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>小游戏累计赢金2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00万获得一个爱心</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_026_lmqx_lmlh</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>common</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000000</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>37</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>_common_rank_true_love_026_rank</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fish_drop_act_0</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>充值商城每日首次充值6元赠送</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>爱心</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>充值商城每日首次充值1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5元</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>赠送</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>爱心</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值商城每日首次充值30元赠送18个爱心</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>充值商城每日首次充值5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0元</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>赠送</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>30个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>爱心</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>充值商城每日首次充值9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8元</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>赠送</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>58个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>爱心</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>充值商城每日首次充值1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>98元</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>赠送</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>118个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>爱心</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>充值商城每日首次充值4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>98元</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>赠送</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>298个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>爱心</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>充值商城每日首次充值9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>98元</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>赠送</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>598个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>爱心</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值商城每日首次充值2498元赠送1498个爱心</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_026_lmqx_lmlh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>38</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>39</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>40</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>641</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>642</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>643</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>644</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>645</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>646</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>gift_id</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -9057,11 +9654,11 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -9070,8 +9667,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -9093,16 +9690,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -9111,16 +9708,16 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -9129,7 +9726,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -9138,16 +9735,16 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -9156,7 +9753,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -9168,17 +9765,17 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -9199,28 +9796,28 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -9229,7 +9826,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -9238,41 +9835,41 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -9281,7 +9878,7 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -9294,110 +9891,110 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
@@ -9405,6 +10002,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -9689,13 +10289,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:T434"/>
+  <dimension ref="A1:T444"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="E404" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D422" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G432" sqref="G432"/>
+      <selection pane="bottomRight" activeCell="F443" sqref="F443"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -26160,7 +26760,7 @@
         <v>1478</v>
       </c>
       <c r="F424" s="16" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="G424" s="12">
         <v>21371</v>
@@ -26388,7 +26988,7 @@
         <v>1535</v>
       </c>
       <c r="F430" s="16" t="s">
-        <v>1537</v>
+        <v>1559</v>
       </c>
       <c r="G430" s="12">
         <v>21377</v>
@@ -26420,7 +27020,7 @@
         <v>1533</v>
       </c>
       <c r="D431" s="16" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="E431" s="16" t="s">
         <v>1535</v>
@@ -26458,7 +27058,7 @@
         <v>1533</v>
       </c>
       <c r="D432" s="16" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="E432" s="16" t="s">
         <v>1535</v>
@@ -26496,7 +27096,7 @@
         <v>1533</v>
       </c>
       <c r="D433" s="16" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="E433" s="16" t="s">
         <v>1535</v>
@@ -26534,7 +27134,7 @@
         <v>1533</v>
       </c>
       <c r="D434" s="16" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="E434" s="16" t="s">
         <v>1535</v>
@@ -26561,9 +27161,389 @@
         <v>-1</v>
       </c>
     </row>
+    <row r="435" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A435" s="61">
+        <v>1000024</v>
+      </c>
+      <c r="B435" s="61">
+        <v>1</v>
+      </c>
+      <c r="C435" s="84" t="s">
+        <v>1556</v>
+      </c>
+      <c r="D435" s="84" t="s">
+        <v>1557</v>
+      </c>
+      <c r="E435" s="84" t="s">
+        <v>1558</v>
+      </c>
+      <c r="F435" s="84" t="s">
+        <v>855</v>
+      </c>
+      <c r="G435" s="61">
+        <v>21382</v>
+      </c>
+      <c r="H435" s="61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I435" s="61">
+        <v>1</v>
+      </c>
+      <c r="J435" s="61">
+        <v>1598311800</v>
+      </c>
+      <c r="K435" s="61">
+        <v>1598889599</v>
+      </c>
+      <c r="L435" s="61">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A436" s="61">
+        <v>1000025</v>
+      </c>
+      <c r="B436" s="61">
+        <v>1</v>
+      </c>
+      <c r="C436" s="84" t="s">
+        <v>1556</v>
+      </c>
+      <c r="D436" s="84" t="s">
+        <v>1564</v>
+      </c>
+      <c r="E436" s="84" t="s">
+        <v>1558</v>
+      </c>
+      <c r="F436" s="84" t="s">
+        <v>855</v>
+      </c>
+      <c r="G436" s="61">
+        <v>21383</v>
+      </c>
+      <c r="H436" s="61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I436" s="61">
+        <v>1</v>
+      </c>
+      <c r="J436" s="61">
+        <v>1598284800</v>
+      </c>
+      <c r="K436" s="61">
+        <v>1598889599</v>
+      </c>
+      <c r="L436" s="61">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="437" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A437" s="61">
+        <v>1000026</v>
+      </c>
+      <c r="B437" s="61">
+        <v>1</v>
+      </c>
+      <c r="C437" s="84" t="s">
+        <v>1556</v>
+      </c>
+      <c r="D437" s="84" t="s">
+        <v>1565</v>
+      </c>
+      <c r="E437" s="84" t="s">
+        <v>1573</v>
+      </c>
+      <c r="F437" s="84" t="s">
+        <v>855</v>
+      </c>
+      <c r="G437" s="61">
+        <v>21384</v>
+      </c>
+      <c r="H437" s="61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I437" s="61">
+        <v>1</v>
+      </c>
+      <c r="J437" s="61">
+        <v>1598284800</v>
+      </c>
+      <c r="K437" s="61">
+        <v>1598889599</v>
+      </c>
+      <c r="L437" s="61">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A438" s="61">
+        <v>1000027</v>
+      </c>
+      <c r="B438" s="61">
+        <v>1</v>
+      </c>
+      <c r="C438" s="84" t="s">
+        <v>1556</v>
+      </c>
+      <c r="D438" s="84" t="s">
+        <v>1566</v>
+      </c>
+      <c r="E438" s="84" t="s">
+        <v>1573</v>
+      </c>
+      <c r="F438" s="84" t="s">
+        <v>855</v>
+      </c>
+      <c r="G438" s="61">
+        <v>21385</v>
+      </c>
+      <c r="H438" s="61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I438" s="61">
+        <v>1</v>
+      </c>
+      <c r="J438" s="61">
+        <v>1598284800</v>
+      </c>
+      <c r="K438" s="61">
+        <v>1598889599</v>
+      </c>
+      <c r="L438" s="61">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="439" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A439" s="61">
+        <v>1000028</v>
+      </c>
+      <c r="B439" s="61">
+        <v>1</v>
+      </c>
+      <c r="C439" s="84" t="s">
+        <v>1556</v>
+      </c>
+      <c r="D439" s="84" t="s">
+        <v>1567</v>
+      </c>
+      <c r="E439" s="84" t="s">
+        <v>1573</v>
+      </c>
+      <c r="F439" s="84" t="s">
+        <v>855</v>
+      </c>
+      <c r="G439" s="61">
+        <v>21386</v>
+      </c>
+      <c r="H439" s="61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I439" s="61">
+        <v>1</v>
+      </c>
+      <c r="J439" s="61">
+        <v>1598284800</v>
+      </c>
+      <c r="K439" s="61">
+        <v>1598889599</v>
+      </c>
+      <c r="L439" s="61">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="440" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A440" s="61">
+        <v>1000029</v>
+      </c>
+      <c r="B440" s="61">
+        <v>1</v>
+      </c>
+      <c r="C440" s="84" t="s">
+        <v>1556</v>
+      </c>
+      <c r="D440" s="84" t="s">
+        <v>1568</v>
+      </c>
+      <c r="E440" s="84" t="s">
+        <v>1573</v>
+      </c>
+      <c r="F440" s="84" t="s">
+        <v>855</v>
+      </c>
+      <c r="G440" s="61">
+        <v>21387</v>
+      </c>
+      <c r="H440" s="61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I440" s="61">
+        <v>1</v>
+      </c>
+      <c r="J440" s="61">
+        <v>1598284800</v>
+      </c>
+      <c r="K440" s="61">
+        <v>1598889599</v>
+      </c>
+      <c r="L440" s="61">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A441" s="61">
+        <v>1000030</v>
+      </c>
+      <c r="B441" s="61">
+        <v>1</v>
+      </c>
+      <c r="C441" s="84" t="s">
+        <v>1556</v>
+      </c>
+      <c r="D441" s="84" t="s">
+        <v>1569</v>
+      </c>
+      <c r="E441" s="84" t="s">
+        <v>1573</v>
+      </c>
+      <c r="F441" s="84" t="s">
+        <v>855</v>
+      </c>
+      <c r="G441" s="61">
+        <v>21388</v>
+      </c>
+      <c r="H441" s="61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I441" s="61">
+        <v>1</v>
+      </c>
+      <c r="J441" s="61">
+        <v>1598284800</v>
+      </c>
+      <c r="K441" s="61">
+        <v>1598889599</v>
+      </c>
+      <c r="L441" s="61">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="442" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A442" s="61">
+        <v>1000031</v>
+      </c>
+      <c r="B442" s="61">
+        <v>1</v>
+      </c>
+      <c r="C442" s="84" t="s">
+        <v>1556</v>
+      </c>
+      <c r="D442" s="84" t="s">
+        <v>1570</v>
+      </c>
+      <c r="E442" s="84" t="s">
+        <v>1573</v>
+      </c>
+      <c r="F442" s="84" t="s">
+        <v>855</v>
+      </c>
+      <c r="G442" s="61">
+        <v>21389</v>
+      </c>
+      <c r="H442" s="61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I442" s="61">
+        <v>1</v>
+      </c>
+      <c r="J442" s="61">
+        <v>1598284800</v>
+      </c>
+      <c r="K442" s="61">
+        <v>1598889599</v>
+      </c>
+      <c r="L442" s="61">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A443" s="61">
+        <v>1000032</v>
+      </c>
+      <c r="B443" s="61">
+        <v>1</v>
+      </c>
+      <c r="C443" s="84" t="s">
+        <v>1556</v>
+      </c>
+      <c r="D443" s="84" t="s">
+        <v>1571</v>
+      </c>
+      <c r="E443" s="84" t="s">
+        <v>1573</v>
+      </c>
+      <c r="F443" s="84" t="s">
+        <v>855</v>
+      </c>
+      <c r="G443" s="61">
+        <v>21390</v>
+      </c>
+      <c r="H443" s="61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I443" s="61">
+        <v>1</v>
+      </c>
+      <c r="J443" s="61">
+        <v>1598284800</v>
+      </c>
+      <c r="K443" s="61">
+        <v>1598889599</v>
+      </c>
+      <c r="L443" s="61">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="444" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A444" s="61">
+        <v>1000033</v>
+      </c>
+      <c r="B444" s="61">
+        <v>1</v>
+      </c>
+      <c r="C444" s="84" t="s">
+        <v>1556</v>
+      </c>
+      <c r="D444" s="84" t="s">
+        <v>1572</v>
+      </c>
+      <c r="E444" s="84" t="s">
+        <v>1573</v>
+      </c>
+      <c r="F444" s="84" t="s">
+        <v>855</v>
+      </c>
+      <c r="G444" s="61">
+        <v>21391</v>
+      </c>
+      <c r="H444" s="61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I444" s="61">
+        <v>1</v>
+      </c>
+      <c r="J444" s="61">
+        <v>1598284800</v>
+      </c>
+      <c r="K444" s="61">
+        <v>1598889599</v>
+      </c>
+      <c r="L444" s="61">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B1:B367"/>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -26572,13 +27552,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:K434"/>
+  <dimension ref="A1:K444"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F408" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="D417" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H430" sqref="H430"/>
+      <selection pane="bottomRight" activeCell="G447" sqref="G447"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -37531,13 +38511,13 @@
         <v>424</v>
       </c>
       <c r="F430" s="111" t="s">
+        <v>1542</v>
+      </c>
+      <c r="H430" s="65" t="s">
         <v>1543</v>
       </c>
-      <c r="H430" s="65" t="s">
+      <c r="I430" s="14" t="s">
         <v>1544</v>
-      </c>
-      <c r="I430" s="14" t="s">
-        <v>1545</v>
       </c>
     </row>
     <row r="431" spans="1:10" x14ac:dyDescent="0.2">
@@ -37551,13 +38531,13 @@
         <v>425</v>
       </c>
       <c r="F431" s="111" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="H431" s="65" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="I431" s="14" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="432" spans="1:10" x14ac:dyDescent="0.2">
@@ -37571,13 +38551,13 @@
         <v>426</v>
       </c>
       <c r="F432" s="111" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="H432" s="65" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="I432" s="14" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="433" spans="1:9" x14ac:dyDescent="0.2">
@@ -37591,13 +38571,13 @@
         <v>427</v>
       </c>
       <c r="F433" s="111" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="H433" s="65" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="I433" s="14" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="434" spans="1:9" x14ac:dyDescent="0.2">
@@ -37611,17 +38591,229 @@
         <v>428</v>
       </c>
       <c r="F434" s="111" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="H434" s="65" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="I434" s="14" t="s">
-        <v>1545</v>
-      </c>
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="435" spans="1:9" s="122" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A435" s="60">
+        <v>434</v>
+      </c>
+      <c r="B435" s="60">
+        <v>21382</v>
+      </c>
+      <c r="C435" s="60"/>
+      <c r="D435" s="60">
+        <v>429</v>
+      </c>
+      <c r="E435" s="60"/>
+      <c r="F435" s="62" t="s">
+        <v>1560</v>
+      </c>
+      <c r="G435" s="63"/>
+      <c r="H435" s="64" t="s">
+        <v>1561</v>
+      </c>
+      <c r="I435" s="85" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="436" spans="1:9" s="122" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A436" s="60">
+        <v>435</v>
+      </c>
+      <c r="B436" s="61">
+        <v>21383</v>
+      </c>
+      <c r="C436" s="60"/>
+      <c r="D436" s="60">
+        <v>430</v>
+      </c>
+      <c r="E436" s="60"/>
+      <c r="F436" s="62" t="s">
+        <v>1574</v>
+      </c>
+      <c r="G436" s="63"/>
+      <c r="H436" s="64" t="s">
+        <v>1576</v>
+      </c>
+      <c r="I436" s="60"/>
+    </row>
+    <row r="437" spans="1:9" s="122" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A437" s="60">
+        <v>436</v>
+      </c>
+      <c r="B437" s="61">
+        <v>21384</v>
+      </c>
+      <c r="C437" s="60"/>
+      <c r="D437" s="60">
+        <v>431</v>
+      </c>
+      <c r="E437" s="60"/>
+      <c r="F437" s="62" t="s">
+        <v>1574</v>
+      </c>
+      <c r="G437" s="63"/>
+      <c r="H437" s="64" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I437" s="60"/>
+    </row>
+    <row r="438" spans="1:9" s="122" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A438" s="60">
+        <v>437</v>
+      </c>
+      <c r="B438" s="61">
+        <v>21385</v>
+      </c>
+      <c r="C438" s="60"/>
+      <c r="D438" s="60">
+        <v>432</v>
+      </c>
+      <c r="E438" s="60"/>
+      <c r="F438" s="62" t="s">
+        <v>1574</v>
+      </c>
+      <c r="G438" s="63"/>
+      <c r="H438" s="64" t="s">
+        <v>1578</v>
+      </c>
+      <c r="I438" s="60"/>
+    </row>
+    <row r="439" spans="1:9" s="122" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A439" s="60">
+        <v>438</v>
+      </c>
+      <c r="B439" s="61">
+        <v>21386</v>
+      </c>
+      <c r="C439" s="60"/>
+      <c r="D439" s="60">
+        <v>433</v>
+      </c>
+      <c r="E439" s="60"/>
+      <c r="F439" s="62" t="s">
+        <v>1574</v>
+      </c>
+      <c r="G439" s="63"/>
+      <c r="H439" s="64" t="s">
+        <v>1579</v>
+      </c>
+      <c r="I439" s="60"/>
+    </row>
+    <row r="440" spans="1:9" s="122" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A440" s="60">
+        <v>439</v>
+      </c>
+      <c r="B440" s="61">
+        <v>21387</v>
+      </c>
+      <c r="C440" s="60"/>
+      <c r="D440" s="60">
+        <v>434</v>
+      </c>
+      <c r="E440" s="60"/>
+      <c r="F440" s="62" t="s">
+        <v>1575</v>
+      </c>
+      <c r="G440" s="63"/>
+      <c r="H440" s="64" t="s">
+        <v>1580</v>
+      </c>
+      <c r="I440" s="60"/>
+    </row>
+    <row r="441" spans="1:9" s="122" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A441" s="60">
+        <v>440</v>
+      </c>
+      <c r="B441" s="61">
+        <v>21388</v>
+      </c>
+      <c r="C441" s="60"/>
+      <c r="D441" s="60">
+        <v>435</v>
+      </c>
+      <c r="E441" s="60"/>
+      <c r="F441" s="62" t="s">
+        <v>1574</v>
+      </c>
+      <c r="G441" s="63"/>
+      <c r="H441" s="64" t="s">
+        <v>1581</v>
+      </c>
+      <c r="I441" s="60"/>
+    </row>
+    <row r="442" spans="1:9" s="122" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A442" s="60">
+        <v>441</v>
+      </c>
+      <c r="B442" s="61">
+        <v>21389</v>
+      </c>
+      <c r="C442" s="60"/>
+      <c r="D442" s="60">
+        <v>436</v>
+      </c>
+      <c r="E442" s="60"/>
+      <c r="F442" s="62" t="s">
+        <v>1574</v>
+      </c>
+      <c r="G442" s="63"/>
+      <c r="H442" s="64" t="s">
+        <v>1582</v>
+      </c>
+      <c r="I442" s="60"/>
+    </row>
+    <row r="443" spans="1:9" s="122" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A443" s="60">
+        <v>442</v>
+      </c>
+      <c r="B443" s="61">
+        <v>21390</v>
+      </c>
+      <c r="C443" s="60"/>
+      <c r="D443" s="60">
+        <v>437</v>
+      </c>
+      <c r="E443" s="60"/>
+      <c r="F443" s="62" t="s">
+        <v>1574</v>
+      </c>
+      <c r="G443" s="63"/>
+      <c r="H443" s="64" t="s">
+        <v>1583</v>
+      </c>
+      <c r="I443" s="60"/>
+    </row>
+    <row r="444" spans="1:9" s="122" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A444" s="60">
+        <v>443</v>
+      </c>
+      <c r="B444" s="61">
+        <v>21391</v>
+      </c>
+      <c r="C444" s="60"/>
+      <c r="D444" s="60">
+        <v>438</v>
+      </c>
+      <c r="E444" s="60"/>
+      <c r="F444" s="62" t="s">
+        <v>1574</v>
+      </c>
+      <c r="G444" s="63"/>
+      <c r="H444" s="64" t="s">
+        <v>1584</v>
+      </c>
+      <c r="I444" s="60"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -37630,10 +38822,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I598"/>
+  <dimension ref="A1:I614"/>
   <sheetViews>
-    <sheetView topLeftCell="A569" workbookViewId="0">
-      <selection activeCell="D598" sqref="D598"/>
+    <sheetView topLeftCell="A578" workbookViewId="0">
+      <selection activeCell="D606" sqref="D606:D614"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -46152,7 +47344,7 @@
         <v>418</v>
       </c>
       <c r="C588" s="19" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="D588" s="10">
         <v>0</v>
@@ -46166,7 +47358,7 @@
         <v>419</v>
       </c>
       <c r="C589" s="13" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D589" s="11">
         <v>285</v>
@@ -46214,7 +47406,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A593" s="60">
         <v>592</v>
       </c>
@@ -46228,7 +47420,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="594" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A594" s="29">
         <v>593</v>
       </c>
@@ -46236,13 +47428,13 @@
         <v>424</v>
       </c>
       <c r="C594" s="119" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="D594" s="115">
         <v>290</v>
       </c>
     </row>
-    <row r="595" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A595" s="29">
         <v>594</v>
       </c>
@@ -46250,13 +47442,13 @@
         <v>425</v>
       </c>
       <c r="C595" s="119" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="D595" s="115">
         <v>291</v>
       </c>
     </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A596" s="29">
         <v>595</v>
       </c>
@@ -46264,13 +47456,13 @@
         <v>426</v>
       </c>
       <c r="C596" s="119" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="D596" s="115">
         <v>292</v>
       </c>
     </row>
-    <row r="597" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A597" s="29">
         <v>596</v>
       </c>
@@ -46278,13 +47470,13 @@
         <v>427</v>
       </c>
       <c r="C597" s="119" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="D597" s="115">
         <v>293</v>
       </c>
     </row>
-    <row r="598" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A598" s="29">
         <v>597</v>
       </c>
@@ -46292,14 +47484,247 @@
         <v>428</v>
       </c>
       <c r="C598" s="119" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="D598" s="115">
         <v>294</v>
       </c>
     </row>
+    <row r="599" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A599" s="60">
+        <v>598</v>
+      </c>
+      <c r="B599" s="60">
+        <v>429</v>
+      </c>
+      <c r="C599" s="123" t="s">
+        <v>393</v>
+      </c>
+      <c r="D599" s="60">
+        <v>0</v>
+      </c>
+      <c r="E599" s="122"/>
+    </row>
+    <row r="600" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A600" s="60">
+        <v>599</v>
+      </c>
+      <c r="B600" s="60">
+        <v>429</v>
+      </c>
+      <c r="C600" s="60" t="s">
+        <v>438</v>
+      </c>
+      <c r="D600" s="60">
+        <v>0</v>
+      </c>
+      <c r="E600" s="122"/>
+    </row>
+    <row r="601" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A601" s="60">
+        <v>600</v>
+      </c>
+      <c r="B601" s="60">
+        <v>429</v>
+      </c>
+      <c r="C601" s="60" t="s">
+        <v>664</v>
+      </c>
+      <c r="D601" s="60">
+        <v>0</v>
+      </c>
+      <c r="E601" s="122"/>
+    </row>
+    <row r="602" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A602" s="60">
+        <v>601</v>
+      </c>
+      <c r="B602" s="60">
+        <v>429</v>
+      </c>
+      <c r="C602" s="60" t="s">
+        <v>665</v>
+      </c>
+      <c r="D602" s="60">
+        <v>0</v>
+      </c>
+      <c r="E602" s="60"/>
+    </row>
+    <row r="603" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A603" s="60">
+        <v>602</v>
+      </c>
+      <c r="B603" s="60">
+        <v>429</v>
+      </c>
+      <c r="C603" s="60" t="s">
+        <v>384</v>
+      </c>
+      <c r="D603" s="60">
+        <v>0</v>
+      </c>
+      <c r="E603" s="60"/>
+    </row>
+    <row r="604" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A604" s="60">
+        <v>603</v>
+      </c>
+      <c r="B604" s="60">
+        <v>429</v>
+      </c>
+      <c r="C604" s="60" t="s">
+        <v>389</v>
+      </c>
+      <c r="D604" s="60">
+        <v>0</v>
+      </c>
+      <c r="E604" s="60">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="605" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A605" s="60">
+        <v>604</v>
+      </c>
+      <c r="B605" s="60">
+        <v>429</v>
+      </c>
+      <c r="C605" s="60" t="s">
+        <v>666</v>
+      </c>
+      <c r="D605" s="60">
+        <v>0</v>
+      </c>
+      <c r="E605" s="60"/>
+    </row>
+    <row r="606" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A606" s="60">
+        <v>605</v>
+      </c>
+      <c r="B606" s="60">
+        <v>430</v>
+      </c>
+      <c r="C606" s="123" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D606" s="60">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="607" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A607" s="60">
+        <v>606</v>
+      </c>
+      <c r="B607" s="60">
+        <v>431</v>
+      </c>
+      <c r="C607" s="123" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D607" s="60">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="608" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A608" s="60">
+        <v>607</v>
+      </c>
+      <c r="B608" s="60">
+        <v>432</v>
+      </c>
+      <c r="C608" s="123" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D608" s="60">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="609" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A609" s="60">
+        <v>608</v>
+      </c>
+      <c r="B609" s="60">
+        <v>433</v>
+      </c>
+      <c r="C609" s="123" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D609" s="60">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="610" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A610" s="60">
+        <v>609</v>
+      </c>
+      <c r="B610" s="60">
+        <v>434</v>
+      </c>
+      <c r="C610" s="123" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D610" s="60">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="611" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A611" s="60">
+        <v>610</v>
+      </c>
+      <c r="B611" s="60">
+        <v>435</v>
+      </c>
+      <c r="C611" s="123" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D611" s="60">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="612" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A612" s="60">
+        <v>611</v>
+      </c>
+      <c r="B612" s="60">
+        <v>436</v>
+      </c>
+      <c r="C612" s="123" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D612" s="60">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="613" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A613" s="60">
+        <v>612</v>
+      </c>
+      <c r="B613" s="60">
+        <v>437</v>
+      </c>
+      <c r="C613" s="123" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D613" s="60">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="614" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A614" s="60">
+        <v>613</v>
+      </c>
+      <c r="B614" s="60">
+        <v>438</v>
+      </c>
+      <c r="C614" s="123" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D614" s="60">
+        <v>303</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -46308,13 +47733,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:M412"/>
+  <dimension ref="A1:M421"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D383" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C395" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D412" sqref="D412"/>
+      <selection pane="bottomRight" activeCell="A413" sqref="A413:E421"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -53958,8 +55383,161 @@
         <v>3</v>
       </c>
     </row>
+    <row r="413" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A413" s="61">
+        <v>442</v>
+      </c>
+      <c r="B413" s="60">
+        <v>295</v>
+      </c>
+      <c r="C413" s="85" t="s">
+        <v>1585</v>
+      </c>
+      <c r="D413" s="60">
+        <v>1</v>
+      </c>
+      <c r="E413" s="60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A414" s="61">
+        <v>443</v>
+      </c>
+      <c r="B414" s="60">
+        <v>296</v>
+      </c>
+      <c r="C414" s="85" t="s">
+        <v>1585</v>
+      </c>
+      <c r="D414" s="60">
+        <v>2</v>
+      </c>
+      <c r="E414" s="60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A415" s="61">
+        <v>444</v>
+      </c>
+      <c r="B415" s="60">
+        <v>297</v>
+      </c>
+      <c r="C415" s="85" t="s">
+        <v>1585</v>
+      </c>
+      <c r="D415" s="60">
+        <v>3</v>
+      </c>
+      <c r="E415" s="60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A416" s="61">
+        <v>445</v>
+      </c>
+      <c r="B416" s="60">
+        <v>298</v>
+      </c>
+      <c r="C416" s="85" t="s">
+        <v>1585</v>
+      </c>
+      <c r="D416" s="60">
+        <v>4</v>
+      </c>
+      <c r="E416" s="60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A417" s="61">
+        <v>446</v>
+      </c>
+      <c r="B417" s="60">
+        <v>299</v>
+      </c>
+      <c r="C417" s="85" t="s">
+        <v>1585</v>
+      </c>
+      <c r="D417" s="60">
+        <v>5</v>
+      </c>
+      <c r="E417" s="60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A418" s="61">
+        <v>447</v>
+      </c>
+      <c r="B418" s="60">
+        <v>300</v>
+      </c>
+      <c r="C418" s="85" t="s">
+        <v>1585</v>
+      </c>
+      <c r="D418" s="60">
+        <v>6</v>
+      </c>
+      <c r="E418" s="60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A419" s="61">
+        <v>448</v>
+      </c>
+      <c r="B419" s="60">
+        <v>301</v>
+      </c>
+      <c r="C419" s="85" t="s">
+        <v>1585</v>
+      </c>
+      <c r="D419" s="60">
+        <v>108</v>
+      </c>
+      <c r="E419" s="60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A420" s="61">
+        <v>449</v>
+      </c>
+      <c r="B420" s="60">
+        <v>302</v>
+      </c>
+      <c r="C420" s="85" t="s">
+        <v>1585</v>
+      </c>
+      <c r="D420" s="60">
+        <v>111</v>
+      </c>
+      <c r="E420" s="60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A421" s="61">
+        <v>450</v>
+      </c>
+      <c r="B421" s="60">
+        <v>303</v>
+      </c>
+      <c r="C421" s="85" t="s">
+        <v>1585</v>
+      </c>
+      <c r="D421" s="60">
+        <v>110</v>
+      </c>
+      <c r="E421" s="60">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -53968,13 +55546,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:W895"/>
+  <dimension ref="A1:W915"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C877" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C880" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F892" sqref="F892"/>
+      <selection pane="bottomRight" activeCell="C912" sqref="C912"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -72423,8 +74001,408 @@
         <v>1</v>
       </c>
     </row>
+    <row r="896" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A896" s="61">
+        <v>895</v>
+      </c>
+      <c r="B896" s="60">
+        <v>637</v>
+      </c>
+      <c r="C896" s="60"/>
+      <c r="D896" s="85" t="s">
+        <v>1562</v>
+      </c>
+      <c r="E896" s="60">
+        <v>1</v>
+      </c>
+      <c r="F896" s="60">
+        <v>1</v>
+      </c>
+      <c r="G896" s="60"/>
+      <c r="H896" s="60"/>
+    </row>
+    <row r="897" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A897" s="61">
+        <v>896</v>
+      </c>
+      <c r="B897" s="60">
+        <v>637</v>
+      </c>
+      <c r="C897" s="60"/>
+      <c r="D897" s="85" t="s">
+        <v>1563</v>
+      </c>
+      <c r="E897" s="60">
+        <v>1</v>
+      </c>
+      <c r="F897" s="60">
+        <v>1</v>
+      </c>
+      <c r="G897" s="60"/>
+      <c r="H897" s="60"/>
+    </row>
+    <row r="898" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A898" s="61">
+        <v>897</v>
+      </c>
+      <c r="B898" s="60">
+        <v>638</v>
+      </c>
+      <c r="C898" s="60"/>
+      <c r="D898" s="85" t="s">
+        <v>1562</v>
+      </c>
+      <c r="E898" s="60">
+        <v>4</v>
+      </c>
+      <c r="F898" s="60">
+        <v>1</v>
+      </c>
+      <c r="G898" s="60"/>
+      <c r="H898" s="60"/>
+    </row>
+    <row r="899" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A899" s="61">
+        <v>898</v>
+      </c>
+      <c r="B899" s="60">
+        <v>638</v>
+      </c>
+      <c r="C899" s="60"/>
+      <c r="D899" s="85" t="s">
+        <v>1563</v>
+      </c>
+      <c r="E899" s="60">
+        <v>4</v>
+      </c>
+      <c r="F899" s="60">
+        <v>1</v>
+      </c>
+      <c r="G899" s="60"/>
+      <c r="H899" s="60"/>
+    </row>
+    <row r="900" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A900" s="61">
+        <v>899</v>
+      </c>
+      <c r="B900" s="60">
+        <v>639</v>
+      </c>
+      <c r="C900" s="60"/>
+      <c r="D900" s="85" t="s">
+        <v>1562</v>
+      </c>
+      <c r="E900" s="60">
+        <v>9</v>
+      </c>
+      <c r="F900" s="60">
+        <v>1</v>
+      </c>
+      <c r="G900" s="60"/>
+      <c r="H900" s="60"/>
+    </row>
+    <row r="901" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A901" s="61">
+        <v>900</v>
+      </c>
+      <c r="B901" s="60">
+        <v>639</v>
+      </c>
+      <c r="C901" s="60"/>
+      <c r="D901" s="85" t="s">
+        <v>1563</v>
+      </c>
+      <c r="E901" s="60">
+        <v>9</v>
+      </c>
+      <c r="F901" s="60">
+        <v>1</v>
+      </c>
+      <c r="G901" s="60"/>
+      <c r="H901" s="60"/>
+    </row>
+    <row r="902" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A902" s="61">
+        <v>901</v>
+      </c>
+      <c r="B902" s="60">
+        <v>640</v>
+      </c>
+      <c r="C902" s="60"/>
+      <c r="D902" s="85" t="s">
+        <v>1562</v>
+      </c>
+      <c r="E902" s="60">
+        <v>18</v>
+      </c>
+      <c r="F902" s="60">
+        <v>1</v>
+      </c>
+      <c r="G902" s="60"/>
+      <c r="H902" s="60"/>
+    </row>
+    <row r="903" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A903" s="61">
+        <v>902</v>
+      </c>
+      <c r="B903" s="60">
+        <v>640</v>
+      </c>
+      <c r="C903" s="60"/>
+      <c r="D903" s="85" t="s">
+        <v>1563</v>
+      </c>
+      <c r="E903" s="60">
+        <v>18</v>
+      </c>
+      <c r="F903" s="60">
+        <v>1</v>
+      </c>
+      <c r="G903" s="60"/>
+      <c r="H903" s="60"/>
+    </row>
+    <row r="904" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A904" s="61">
+        <v>903</v>
+      </c>
+      <c r="B904" s="60">
+        <v>641</v>
+      </c>
+      <c r="C904" s="60"/>
+      <c r="D904" s="85" t="s">
+        <v>1562</v>
+      </c>
+      <c r="E904" s="60">
+        <v>30</v>
+      </c>
+      <c r="F904" s="60">
+        <v>1</v>
+      </c>
+      <c r="G904" s="60"/>
+      <c r="H904" s="60"/>
+    </row>
+    <row r="905" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A905" s="61">
+        <v>904</v>
+      </c>
+      <c r="B905" s="60">
+        <v>641</v>
+      </c>
+      <c r="C905" s="60"/>
+      <c r="D905" s="85" t="s">
+        <v>1563</v>
+      </c>
+      <c r="E905" s="60">
+        <v>30</v>
+      </c>
+      <c r="F905" s="60">
+        <v>1</v>
+      </c>
+      <c r="G905" s="60"/>
+      <c r="H905" s="60"/>
+    </row>
+    <row r="906" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A906" s="61">
+        <v>905</v>
+      </c>
+      <c r="B906" s="60">
+        <v>642</v>
+      </c>
+      <c r="C906" s="60"/>
+      <c r="D906" s="85" t="s">
+        <v>1562</v>
+      </c>
+      <c r="E906" s="60">
+        <v>58</v>
+      </c>
+      <c r="F906" s="60">
+        <v>1</v>
+      </c>
+      <c r="G906" s="60"/>
+      <c r="H906" s="60"/>
+    </row>
+    <row r="907" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A907" s="61">
+        <v>906</v>
+      </c>
+      <c r="B907" s="60">
+        <v>642</v>
+      </c>
+      <c r="C907" s="60"/>
+      <c r="D907" s="85" t="s">
+        <v>1563</v>
+      </c>
+      <c r="E907" s="60">
+        <v>58</v>
+      </c>
+      <c r="F907" s="60">
+        <v>1</v>
+      </c>
+      <c r="G907" s="60"/>
+      <c r="H907" s="60"/>
+    </row>
+    <row r="908" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A908" s="61">
+        <v>907</v>
+      </c>
+      <c r="B908" s="60">
+        <v>643</v>
+      </c>
+      <c r="C908" s="60"/>
+      <c r="D908" s="85" t="s">
+        <v>1562</v>
+      </c>
+      <c r="E908" s="60">
+        <v>118</v>
+      </c>
+      <c r="F908" s="60">
+        <v>1</v>
+      </c>
+      <c r="G908" s="60"/>
+      <c r="H908" s="60"/>
+    </row>
+    <row r="909" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A909" s="61">
+        <v>908</v>
+      </c>
+      <c r="B909" s="60">
+        <v>643</v>
+      </c>
+      <c r="C909" s="60"/>
+      <c r="D909" s="85" t="s">
+        <v>1563</v>
+      </c>
+      <c r="E909" s="60">
+        <v>118</v>
+      </c>
+      <c r="F909" s="60">
+        <v>1</v>
+      </c>
+      <c r="G909" s="60"/>
+      <c r="H909" s="60"/>
+    </row>
+    <row r="910" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A910" s="61">
+        <v>909</v>
+      </c>
+      <c r="B910" s="60">
+        <v>644</v>
+      </c>
+      <c r="C910" s="60"/>
+      <c r="D910" s="85" t="s">
+        <v>1562</v>
+      </c>
+      <c r="E910" s="60">
+        <v>298</v>
+      </c>
+      <c r="F910" s="60">
+        <v>1</v>
+      </c>
+      <c r="G910" s="60"/>
+      <c r="H910" s="60"/>
+    </row>
+    <row r="911" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A911" s="61">
+        <v>910</v>
+      </c>
+      <c r="B911" s="60">
+        <v>644</v>
+      </c>
+      <c r="C911" s="60"/>
+      <c r="D911" s="85" t="s">
+        <v>1563</v>
+      </c>
+      <c r="E911" s="60">
+        <v>298</v>
+      </c>
+      <c r="F911" s="60">
+        <v>1</v>
+      </c>
+      <c r="G911" s="60"/>
+      <c r="H911" s="60"/>
+    </row>
+    <row r="912" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A912" s="61">
+        <v>911</v>
+      </c>
+      <c r="B912" s="60">
+        <v>645</v>
+      </c>
+      <c r="C912" s="60"/>
+      <c r="D912" s="85" t="s">
+        <v>1562</v>
+      </c>
+      <c r="E912" s="60">
+        <v>598</v>
+      </c>
+      <c r="F912" s="60">
+        <v>1</v>
+      </c>
+      <c r="G912" s="60"/>
+      <c r="H912" s="60"/>
+    </row>
+    <row r="913" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A913" s="61">
+        <v>912</v>
+      </c>
+      <c r="B913" s="60">
+        <v>645</v>
+      </c>
+      <c r="C913" s="60"/>
+      <c r="D913" s="85" t="s">
+        <v>1563</v>
+      </c>
+      <c r="E913" s="60">
+        <v>598</v>
+      </c>
+      <c r="F913" s="60">
+        <v>1</v>
+      </c>
+      <c r="G913" s="60"/>
+      <c r="H913" s="60"/>
+    </row>
+    <row r="914" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A914" s="61">
+        <v>913</v>
+      </c>
+      <c r="B914" s="60">
+        <v>646</v>
+      </c>
+      <c r="C914" s="60"/>
+      <c r="D914" s="85" t="s">
+        <v>1562</v>
+      </c>
+      <c r="E914" s="60">
+        <v>1498</v>
+      </c>
+      <c r="F914" s="60">
+        <v>1</v>
+      </c>
+      <c r="G914" s="60"/>
+      <c r="H914" s="60"/>
+    </row>
+    <row r="915" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A915" s="61">
+        <v>914</v>
+      </c>
+      <c r="B915" s="60">
+        <v>646</v>
+      </c>
+      <c r="C915" s="60"/>
+      <c r="D915" s="85" t="s">
+        <v>1563</v>
+      </c>
+      <c r="E915" s="60">
+        <v>1498</v>
+      </c>
+      <c r="F915" s="60">
+        <v>1</v>
+      </c>
+      <c r="G915" s="60"/>
+      <c r="H915" s="60"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -72550,7 +74528,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/config_debug/task_zajindan_server.xlsx
+++ b/config_debug/task_zajindan_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5543" uniqueCount="1586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5544" uniqueCount="1587">
   <si>
     <t>id|任务id</t>
   </si>
@@ -9402,6 +9402,10 @@
   </si>
   <si>
     <t>gift_id</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>guess_apple_award</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -27554,7 +27558,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K444"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="D417" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -38822,10 +38826,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I614"/>
+  <dimension ref="A1:I615"/>
   <sheetViews>
-    <sheetView topLeftCell="A578" workbookViewId="0">
-      <selection activeCell="D606" sqref="D606:D614"/>
+    <sheetView tabSelected="1" topLeftCell="A578" workbookViewId="0">
+      <selection activeCell="F611" sqref="F611"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -47602,27 +47606,28 @@
         <v>605</v>
       </c>
       <c r="B606" s="60">
-        <v>430</v>
-      </c>
-      <c r="C606" s="123" t="s">
-        <v>1030</v>
+        <v>429</v>
+      </c>
+      <c r="C606" s="60" t="s">
+        <v>1586</v>
       </c>
       <c r="D606" s="60">
-        <v>295</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E606" s="60"/>
     </row>
     <row r="607" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A607" s="60">
         <v>606</v>
       </c>
       <c r="B607" s="60">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C607" s="123" t="s">
         <v>1030</v>
       </c>
       <c r="D607" s="60">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="608" spans="1:5" x14ac:dyDescent="0.2">
@@ -47630,13 +47635,13 @@
         <v>607</v>
       </c>
       <c r="B608" s="60">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C608" s="123" t="s">
         <v>1030</v>
       </c>
       <c r="D608" s="60">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="609" spans="1:4" x14ac:dyDescent="0.2">
@@ -47644,13 +47649,13 @@
         <v>608</v>
       </c>
       <c r="B609" s="60">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C609" s="123" t="s">
         <v>1030</v>
       </c>
       <c r="D609" s="60">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="610" spans="1:4" x14ac:dyDescent="0.2">
@@ -47658,13 +47663,13 @@
         <v>609</v>
       </c>
       <c r="B610" s="60">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C610" s="123" t="s">
         <v>1030</v>
       </c>
       <c r="D610" s="60">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="611" spans="1:4" x14ac:dyDescent="0.2">
@@ -47672,13 +47677,13 @@
         <v>610</v>
       </c>
       <c r="B611" s="60">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C611" s="123" t="s">
         <v>1030</v>
       </c>
       <c r="D611" s="60">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="612" spans="1:4" x14ac:dyDescent="0.2">
@@ -47686,13 +47691,13 @@
         <v>611</v>
       </c>
       <c r="B612" s="60">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C612" s="123" t="s">
         <v>1030</v>
       </c>
       <c r="D612" s="60">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="613" spans="1:4" x14ac:dyDescent="0.2">
@@ -47700,13 +47705,13 @@
         <v>612</v>
       </c>
       <c r="B613" s="60">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C613" s="123" t="s">
         <v>1030</v>
       </c>
       <c r="D613" s="60">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="614" spans="1:4" x14ac:dyDescent="0.2">
@@ -47714,12 +47719,26 @@
         <v>613</v>
       </c>
       <c r="B614" s="60">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C614" s="123" t="s">
         <v>1030</v>
       </c>
       <c r="D614" s="60">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="615" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A615" s="60">
+        <v>614</v>
+      </c>
+      <c r="B615" s="60">
+        <v>438</v>
+      </c>
+      <c r="C615" s="123" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D615" s="60">
         <v>303</v>
       </c>
     </row>

--- a/config_debug/task_zajindan_server.xlsx
+++ b/config_debug/task_zajindan_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -10296,10 +10296,10 @@
   <dimension ref="A1:T444"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D422" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="H404" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F443" sqref="F443"/>
+      <selection pane="bottomRight" activeCell="J415" sqref="J415:J428"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -26434,7 +26434,7 @@
         <v>1</v>
       </c>
       <c r="J415" s="12">
-        <v>1598284800</v>
+        <v>1498284800</v>
       </c>
       <c r="K415" s="12">
         <v>32503651200</v>
@@ -26472,7 +26472,7 @@
         <v>1</v>
       </c>
       <c r="J416" s="12">
-        <v>1598284800</v>
+        <v>1498284800</v>
       </c>
       <c r="K416" s="12">
         <v>32503651200</v>
@@ -26510,7 +26510,7 @@
         <v>1</v>
       </c>
       <c r="J417" s="12">
-        <v>1598284800</v>
+        <v>1498284800</v>
       </c>
       <c r="K417" s="12">
         <v>32503651200</v>
@@ -26548,7 +26548,7 @@
         <v>1</v>
       </c>
       <c r="J418" s="12">
-        <v>1598284800</v>
+        <v>1498284800</v>
       </c>
       <c r="K418" s="12">
         <v>32503651200</v>
@@ -26586,7 +26586,7 @@
         <v>1</v>
       </c>
       <c r="J419" s="12">
-        <v>1598284800</v>
+        <v>1498284800</v>
       </c>
       <c r="K419" s="12">
         <v>32503651200</v>
@@ -26624,7 +26624,7 @@
         <v>1</v>
       </c>
       <c r="J420" s="12">
-        <v>1598284800</v>
+        <v>1498284800</v>
       </c>
       <c r="K420" s="12">
         <v>32503651200</v>
@@ -26662,7 +26662,7 @@
         <v>1</v>
       </c>
       <c r="J421" s="12">
-        <v>1598284800</v>
+        <v>1498284800</v>
       </c>
       <c r="K421" s="12">
         <v>32503651200</v>
@@ -26700,7 +26700,7 @@
         <v>1</v>
       </c>
       <c r="J422" s="12">
-        <v>1598284800</v>
+        <v>1498284800</v>
       </c>
       <c r="K422" s="12">
         <v>32503651200</v>
@@ -26738,7 +26738,7 @@
         <v>1</v>
       </c>
       <c r="J423" s="12">
-        <v>1598284800</v>
+        <v>1498284800</v>
       </c>
       <c r="K423" s="12">
         <v>32503651200</v>
@@ -26776,7 +26776,7 @@
         <v>1</v>
       </c>
       <c r="J424" s="12">
-        <v>1598284800</v>
+        <v>1498284800</v>
       </c>
       <c r="K424" s="12">
         <v>32503651200</v>
@@ -26814,7 +26814,7 @@
         <v>1</v>
       </c>
       <c r="J425" s="113">
-        <v>1598284800</v>
+        <v>1498284800</v>
       </c>
       <c r="K425" s="113">
         <v>32503651200</v>
@@ -26852,7 +26852,7 @@
         <v>1</v>
       </c>
       <c r="J426" s="113">
-        <v>1598284800</v>
+        <v>1498284800</v>
       </c>
       <c r="K426" s="113">
         <v>32503651200</v>
@@ -26890,7 +26890,7 @@
         <v>1</v>
       </c>
       <c r="J427" s="113">
-        <v>1598284800</v>
+        <v>1498284800</v>
       </c>
       <c r="K427" s="113">
         <v>32503651200</v>
@@ -26928,7 +26928,7 @@
         <v>1</v>
       </c>
       <c r="J428" s="113">
-        <v>1598284800</v>
+        <v>1498284800</v>
       </c>
       <c r="K428" s="113">
         <v>32503651200</v>
@@ -27558,11 +27558,11 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K444"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D417" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="G405" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G447" sqref="G447"/>
+      <selection pane="bottomRight" activeCell="J415" sqref="J415:J424"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -37896,7 +37896,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="401" spans="1:9" s="110" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:10" s="110" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A401" s="105">
         <v>400</v>
       </c>
@@ -37919,7 +37919,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="402" spans="1:9" s="110" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:10" s="110" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A402" s="105">
         <v>401</v>
       </c>
@@ -37942,7 +37942,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="403" spans="1:9" s="110" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:10" s="110" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A403" s="105">
         <v>402</v>
       </c>
@@ -37965,7 +37965,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>403</v>
       </c>
@@ -37979,7 +37979,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A405" s="29">
         <v>404</v>
       </c>
@@ -37993,7 +37993,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A406" s="29">
         <v>405</v>
       </c>
@@ -38007,7 +38007,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A407" s="29">
         <v>406</v>
       </c>
@@ -38021,7 +38021,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A408" s="29">
         <v>407</v>
       </c>
@@ -38035,7 +38035,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A409" s="29">
         <v>408</v>
       </c>
@@ -38049,7 +38049,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A410" s="29">
         <v>409</v>
       </c>
@@ -38063,7 +38063,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A411" s="29">
         <v>410</v>
       </c>
@@ -38074,7 +38074,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>411</v>
       </c>
@@ -38094,7 +38094,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>412</v>
       </c>
@@ -38114,7 +38114,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>413</v>
       </c>
@@ -38134,7 +38134,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="415" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:10" s="81" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A415" s="10">
         <v>414</v>
       </c>
@@ -38158,8 +38158,11 @@
       <c r="I415" s="19" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="416" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J415" s="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:10" s="81" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A416" s="10">
         <v>415</v>
       </c>
@@ -38183,6 +38186,9 @@
       <c r="I416" s="19" t="s">
         <v>387</v>
       </c>
+      <c r="J416" s="81">
+        <v>1</v>
+      </c>
     </row>
     <row r="417" spans="1:10" s="81" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A417" s="9">
@@ -38208,6 +38214,9 @@
       <c r="I417" s="19" t="s">
         <v>387</v>
       </c>
+      <c r="J417" s="81">
+        <v>1</v>
+      </c>
     </row>
     <row r="418" spans="1:10" s="81" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A418" s="9">
@@ -38233,6 +38242,9 @@
       <c r="I418" s="19" t="s">
         <v>387</v>
       </c>
+      <c r="J418" s="81">
+        <v>1</v>
+      </c>
     </row>
     <row r="419" spans="1:10" s="81" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A419" s="9">
@@ -38258,6 +38270,9 @@
       <c r="I419" s="19" t="s">
         <v>387</v>
       </c>
+      <c r="J419" s="81">
+        <v>1</v>
+      </c>
     </row>
     <row r="420" spans="1:10" s="81" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A420" s="9">
@@ -38283,6 +38298,9 @@
       <c r="I420" s="19" t="s">
         <v>387</v>
       </c>
+      <c r="J420" s="81">
+        <v>1</v>
+      </c>
     </row>
     <row r="421" spans="1:10" s="81" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A421" s="9">
@@ -38308,6 +38326,9 @@
       <c r="I421" s="19" t="s">
         <v>387</v>
       </c>
+      <c r="J421" s="81">
+        <v>1</v>
+      </c>
     </row>
     <row r="422" spans="1:10" s="81" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A422" s="9">
@@ -38333,6 +38354,9 @@
       <c r="I422" s="19" t="s">
         <v>387</v>
       </c>
+      <c r="J422" s="81">
+        <v>1</v>
+      </c>
     </row>
     <row r="423" spans="1:10" s="81" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A423" s="9">
@@ -38358,6 +38382,9 @@
       <c r="I423" s="19" t="s">
         <v>387</v>
       </c>
+      <c r="J423" s="81">
+        <v>1</v>
+      </c>
     </row>
     <row r="424" spans="1:10" s="81" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A424" s="9">
@@ -38380,6 +38407,9 @@
       </c>
       <c r="I424" s="19" t="s">
         <v>1437</v>
+      </c>
+      <c r="J424" s="81">
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:10" s="120" customFormat="1" x14ac:dyDescent="0.2">
@@ -38828,7 +38858,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I615"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A578" workbookViewId="0">
+    <sheetView topLeftCell="A578" workbookViewId="0">
       <selection activeCell="F611" sqref="F611"/>
     </sheetView>
   </sheetViews>

--- a/config_debug/task_zajindan_server.xlsx
+++ b/config_debug/task_zajindan_server.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5544" uniqueCount="1587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5544" uniqueCount="1588">
   <si>
     <t>id|任务id</t>
   </si>
@@ -8915,6 +8915,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -8942,6 +8943,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -8963,6 +8965,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -8994,6 +8997,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -9015,6 +9019,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -9042,6 +9047,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -9063,6 +9069,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -9090,6 +9097,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -9111,6 +9119,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -9138,6 +9147,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -9159,6 +9169,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -9186,6 +9197,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -9207,6 +9219,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -9406,6 +9419,10 @@
   </si>
   <si>
     <t>guess_apple_award</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,22,24,25,26,27,84,85,86,87,88,89,90,101,102,103,104,105,106,107,108,109,110,10002,10003,10004,10044,10045,10069,10070,10071,10072,10073,10242</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -10296,10 +10313,10 @@
   <dimension ref="A1:T444"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="H404" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="E392" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J415" sqref="J415:J428"/>
+      <selection pane="bottomRight" activeCell="G422" sqref="G422"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -27559,10 +27576,10 @@
   <dimension ref="A1:K444"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G405" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E408" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J415" sqref="J415:J424"/>
+      <selection pane="bottomRight" activeCell="F423" sqref="F423"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -38145,9 +38162,7 @@
       <c r="D415" s="10">
         <v>410</v>
       </c>
-      <c r="E415" s="10">
-        <v>0</v>
-      </c>
+      <c r="E415" s="10"/>
       <c r="F415" s="82" t="s">
         <v>450</v>
       </c>
@@ -38173,9 +38188,7 @@
       <c r="D416" s="10">
         <v>411</v>
       </c>
-      <c r="E416" s="10">
-        <v>0</v>
-      </c>
+      <c r="E416" s="10"/>
       <c r="F416" s="82" t="s">
         <v>1468</v>
       </c>
@@ -38201,9 +38214,7 @@
       <c r="D417" s="10">
         <v>412</v>
       </c>
-      <c r="E417" s="10">
-        <v>0</v>
-      </c>
+      <c r="E417" s="10"/>
       <c r="F417" s="82" t="s">
         <v>1469</v>
       </c>
@@ -38229,9 +38240,7 @@
       <c r="D418" s="10">
         <v>413</v>
       </c>
-      <c r="E418" s="10">
-        <v>0</v>
-      </c>
+      <c r="E418" s="10"/>
       <c r="F418" s="82" t="s">
         <v>1470</v>
       </c>
@@ -38257,9 +38266,7 @@
       <c r="D419" s="10">
         <v>414</v>
       </c>
-      <c r="E419" s="10">
-        <v>0</v>
-      </c>
+      <c r="E419" s="10"/>
       <c r="F419" s="82" t="s">
         <v>1471</v>
       </c>
@@ -38285,9 +38292,7 @@
       <c r="D420" s="10">
         <v>415</v>
       </c>
-      <c r="E420" s="10">
-        <v>0</v>
-      </c>
+      <c r="E420" s="10"/>
       <c r="F420" s="82" t="s">
         <v>1479</v>
       </c>
@@ -38313,9 +38318,7 @@
       <c r="D421" s="10">
         <v>416</v>
       </c>
-      <c r="E421" s="10">
-        <v>0</v>
-      </c>
+      <c r="E421" s="10"/>
       <c r="F421" s="82" t="s">
         <v>1482</v>
       </c>
@@ -38341,9 +38344,7 @@
       <c r="D422" s="10">
         <v>417</v>
       </c>
-      <c r="E422" s="10">
-        <v>0</v>
-      </c>
+      <c r="E422" s="10"/>
       <c r="F422" s="82" t="s">
         <v>1483</v>
       </c>
@@ -38369,9 +38370,7 @@
       <c r="D423" s="10">
         <v>418</v>
       </c>
-      <c r="E423" s="10">
-        <v>0</v>
-      </c>
+      <c r="E423" s="10"/>
       <c r="F423" s="82" t="s">
         <v>1484</v>
       </c>
@@ -38858,8 +38857,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I615"/>
   <sheetViews>
-    <sheetView topLeftCell="A578" workbookViewId="0">
-      <selection activeCell="F611" sqref="F611"/>
+    <sheetView topLeftCell="A566" workbookViewId="0">
+      <selection activeCell="D585" sqref="D585"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -47785,10 +47784,10 @@
   <dimension ref="A1:M421"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C395" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C389" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A413" sqref="A413:E421"/>
+      <selection pane="bottomRight" activeCell="B402" sqref="B402"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -55250,7 +55249,7 @@
         <v>681</v>
       </c>
       <c r="D402" s="112" t="s">
-        <v>1480</v>
+        <v>1587</v>
       </c>
       <c r="E402" s="10">
         <v>2</v>

--- a/config_debug/task_zajindan_server.xlsx
+++ b/config_debug/task_zajindan_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -27575,7 +27575,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K444"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="E408" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -47783,11 +47783,11 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:M421"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C389" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B402" sqref="B402"/>
+      <selection pane="bottomRight" activeCell="D402" sqref="D402"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_debug/task_zajindan_server.xlsx
+++ b/config_debug/task_zajindan_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5544" uniqueCount="1588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5553" uniqueCount="1588">
   <si>
     <t>id|任务id</t>
   </si>
@@ -8855,23 +8855,6 @@
   </si>
   <si>
     <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000000</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>6</t>
     </r>
     <r>
@@ -9423,6 +9406,10 @@
   </si>
   <si>
     <t>1,2,3,4,5,6,22,24,25,26,27,84,85,86,87,88,89,90,101,102,103,104,105,106,107,108,109,110,10002,10003,10004,10044,10045,10069,10070,10071,10072,10073,10242</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000,-1</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -10313,10 +10300,10 @@
   <dimension ref="A1:T444"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="E392" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="K254" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G422" sqref="G422"/>
+      <selection pane="bottomRight" activeCell="K437" sqref="K437"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -27231,7 +27218,7 @@
         <v>1556</v>
       </c>
       <c r="D436" s="84" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="E436" s="84" t="s">
         <v>1558</v>
@@ -27269,10 +27256,10 @@
         <v>1556</v>
       </c>
       <c r="D437" s="84" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="E437" s="84" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="F437" s="84" t="s">
         <v>855</v>
@@ -27307,10 +27294,10 @@
         <v>1556</v>
       </c>
       <c r="D438" s="84" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="E438" s="84" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="F438" s="84" t="s">
         <v>855</v>
@@ -27345,10 +27332,10 @@
         <v>1556</v>
       </c>
       <c r="D439" s="84" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="E439" s="84" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="F439" s="84" t="s">
         <v>855</v>
@@ -27383,10 +27370,10 @@
         <v>1556</v>
       </c>
       <c r="D440" s="84" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="E440" s="84" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="F440" s="84" t="s">
         <v>855</v>
@@ -27421,10 +27408,10 @@
         <v>1556</v>
       </c>
       <c r="D441" s="84" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="E441" s="84" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="F441" s="84" t="s">
         <v>855</v>
@@ -27459,10 +27446,10 @@
         <v>1556</v>
       </c>
       <c r="D442" s="84" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="E442" s="84" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="F442" s="84" t="s">
         <v>855</v>
@@ -27497,10 +27484,10 @@
         <v>1556</v>
       </c>
       <c r="D443" s="84" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="E443" s="84" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="F443" s="84" t="s">
         <v>855</v>
@@ -27535,10 +27522,10 @@
         <v>1556</v>
       </c>
       <c r="D444" s="84" t="s">
+        <v>1571</v>
+      </c>
+      <c r="E444" s="84" t="s">
         <v>1572</v>
-      </c>
-      <c r="E444" s="84" t="s">
-        <v>1573</v>
       </c>
       <c r="F444" s="84" t="s">
         <v>855</v>
@@ -27575,11 +27562,11 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K444"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E408" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="E409" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F423" sqref="F423"/>
+      <selection pane="bottomRight" activeCell="G437" sqref="G437"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -38593,7 +38580,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A433" s="29">
         <v>432</v>
       </c>
@@ -38613,7 +38600,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A434" s="29">
         <v>433</v>
       </c>
@@ -38633,7 +38620,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="435" spans="1:9" s="122" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:10" s="122" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A435" s="60">
         <v>434</v>
       </c>
@@ -38646,17 +38633,20 @@
       </c>
       <c r="E435" s="60"/>
       <c r="F435" s="62" t="s">
-        <v>1560</v>
+        <v>1587</v>
       </c>
       <c r="G435" s="63"/>
       <c r="H435" s="64" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I435" s="85" t="s">
         <v>1144</v>
       </c>
-    </row>
-    <row r="436" spans="1:9" s="122" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J435" s="122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:10" s="122" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A436" s="60">
         <v>435</v>
       </c>
@@ -38669,15 +38659,20 @@
       </c>
       <c r="E436" s="60"/>
       <c r="F436" s="62" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="G436" s="63"/>
       <c r="H436" s="64" t="s">
-        <v>1576</v>
-      </c>
-      <c r="I436" s="60"/>
-    </row>
-    <row r="437" spans="1:9" s="122" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1575</v>
+      </c>
+      <c r="I436" s="85" t="s">
+        <v>1144</v>
+      </c>
+      <c r="J436" s="122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" spans="1:10" s="122" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A437" s="60">
         <v>436</v>
       </c>
@@ -38690,15 +38685,20 @@
       </c>
       <c r="E437" s="60"/>
       <c r="F437" s="62" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="G437" s="63"/>
       <c r="H437" s="64" t="s">
-        <v>1577</v>
-      </c>
-      <c r="I437" s="60"/>
-    </row>
-    <row r="438" spans="1:9" s="122" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1576</v>
+      </c>
+      <c r="I437" s="85" t="s">
+        <v>1144</v>
+      </c>
+      <c r="J437" s="122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:10" s="122" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A438" s="60">
         <v>437</v>
       </c>
@@ -38711,15 +38711,20 @@
       </c>
       <c r="E438" s="60"/>
       <c r="F438" s="62" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="G438" s="63"/>
       <c r="H438" s="64" t="s">
-        <v>1578</v>
-      </c>
-      <c r="I438" s="60"/>
-    </row>
-    <row r="439" spans="1:9" s="122" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1577</v>
+      </c>
+      <c r="I438" s="85" t="s">
+        <v>1144</v>
+      </c>
+      <c r="J438" s="122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" spans="1:10" s="122" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A439" s="60">
         <v>438</v>
       </c>
@@ -38732,15 +38737,20 @@
       </c>
       <c r="E439" s="60"/>
       <c r="F439" s="62" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="G439" s="63"/>
       <c r="H439" s="64" t="s">
-        <v>1579</v>
-      </c>
-      <c r="I439" s="60"/>
-    </row>
-    <row r="440" spans="1:9" s="122" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1578</v>
+      </c>
+      <c r="I439" s="85" t="s">
+        <v>1144</v>
+      </c>
+      <c r="J439" s="122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" spans="1:10" s="122" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A440" s="60">
         <v>439</v>
       </c>
@@ -38753,15 +38763,20 @@
       </c>
       <c r="E440" s="60"/>
       <c r="F440" s="62" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="G440" s="63"/>
       <c r="H440" s="64" t="s">
-        <v>1580</v>
-      </c>
-      <c r="I440" s="60"/>
-    </row>
-    <row r="441" spans="1:9" s="122" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1579</v>
+      </c>
+      <c r="I440" s="85" t="s">
+        <v>1144</v>
+      </c>
+      <c r="J440" s="122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:10" s="122" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A441" s="60">
         <v>440</v>
       </c>
@@ -38774,15 +38789,20 @@
       </c>
       <c r="E441" s="60"/>
       <c r="F441" s="62" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="G441" s="63"/>
       <c r="H441" s="64" t="s">
-        <v>1581</v>
-      </c>
-      <c r="I441" s="60"/>
-    </row>
-    <row r="442" spans="1:9" s="122" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1580</v>
+      </c>
+      <c r="I441" s="85" t="s">
+        <v>1144</v>
+      </c>
+      <c r="J441" s="122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" spans="1:10" s="122" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A442" s="60">
         <v>441</v>
       </c>
@@ -38795,15 +38815,20 @@
       </c>
       <c r="E442" s="60"/>
       <c r="F442" s="62" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="G442" s="63"/>
       <c r="H442" s="64" t="s">
-        <v>1582</v>
-      </c>
-      <c r="I442" s="60"/>
-    </row>
-    <row r="443" spans="1:9" s="122" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1581</v>
+      </c>
+      <c r="I442" s="85" t="s">
+        <v>1144</v>
+      </c>
+      <c r="J442" s="122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:10" s="122" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A443" s="60">
         <v>442</v>
       </c>
@@ -38816,15 +38841,20 @@
       </c>
       <c r="E443" s="60"/>
       <c r="F443" s="62" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="G443" s="63"/>
       <c r="H443" s="64" t="s">
-        <v>1583</v>
-      </c>
-      <c r="I443" s="60"/>
-    </row>
-    <row r="444" spans="1:9" s="122" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1582</v>
+      </c>
+      <c r="I443" s="85" t="s">
+        <v>1144</v>
+      </c>
+      <c r="J443" s="122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" spans="1:10" s="122" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A444" s="60">
         <v>443</v>
       </c>
@@ -38837,13 +38867,18 @@
       </c>
       <c r="E444" s="60"/>
       <c r="F444" s="62" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="G444" s="63"/>
       <c r="H444" s="64" t="s">
-        <v>1584</v>
-      </c>
-      <c r="I444" s="60"/>
+        <v>1583</v>
+      </c>
+      <c r="I444" s="85" t="s">
+        <v>1144</v>
+      </c>
+      <c r="J444" s="122">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
@@ -47638,7 +47673,7 @@
         <v>429</v>
       </c>
       <c r="C606" s="60" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="D606" s="60">
         <v>0</v>
@@ -47783,7 +47818,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:M421"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C389" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -55249,7 +55284,7 @@
         <v>681</v>
       </c>
       <c r="D402" s="112" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="E402" s="10">
         <v>2</v>
@@ -55439,7 +55474,7 @@
         <v>295</v>
       </c>
       <c r="C413" s="85" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="D413" s="60">
         <v>1</v>
@@ -55456,7 +55491,7 @@
         <v>296</v>
       </c>
       <c r="C414" s="85" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="D414" s="60">
         <v>2</v>
@@ -55473,7 +55508,7 @@
         <v>297</v>
       </c>
       <c r="C415" s="85" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="D415" s="60">
         <v>3</v>
@@ -55490,7 +55525,7 @@
         <v>298</v>
       </c>
       <c r="C416" s="85" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="D416" s="60">
         <v>4</v>
@@ -55507,7 +55542,7 @@
         <v>299</v>
       </c>
       <c r="C417" s="85" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="D417" s="60">
         <v>5</v>
@@ -55524,7 +55559,7 @@
         <v>300</v>
       </c>
       <c r="C418" s="85" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="D418" s="60">
         <v>6</v>
@@ -55541,7 +55576,7 @@
         <v>301</v>
       </c>
       <c r="C419" s="85" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="D419" s="60">
         <v>108</v>
@@ -55558,7 +55593,7 @@
         <v>302</v>
       </c>
       <c r="C420" s="85" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="D420" s="60">
         <v>111</v>
@@ -55575,7 +55610,7 @@
         <v>303</v>
       </c>
       <c r="C421" s="85" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="D421" s="60">
         <v>110</v>
@@ -74058,7 +74093,7 @@
       </c>
       <c r="C896" s="60"/>
       <c r="D896" s="85" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="E896" s="60">
         <v>1</v>
@@ -74078,7 +74113,7 @@
       </c>
       <c r="C897" s="60"/>
       <c r="D897" s="85" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="E897" s="60">
         <v>1</v>
@@ -74098,7 +74133,7 @@
       </c>
       <c r="C898" s="60"/>
       <c r="D898" s="85" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="E898" s="60">
         <v>4</v>
@@ -74118,7 +74153,7 @@
       </c>
       <c r="C899" s="60"/>
       <c r="D899" s="85" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="E899" s="60">
         <v>4</v>
@@ -74138,7 +74173,7 @@
       </c>
       <c r="C900" s="60"/>
       <c r="D900" s="85" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="E900" s="60">
         <v>9</v>
@@ -74158,7 +74193,7 @@
       </c>
       <c r="C901" s="60"/>
       <c r="D901" s="85" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="E901" s="60">
         <v>9</v>
@@ -74178,7 +74213,7 @@
       </c>
       <c r="C902" s="60"/>
       <c r="D902" s="85" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="E902" s="60">
         <v>18</v>
@@ -74198,7 +74233,7 @@
       </c>
       <c r="C903" s="60"/>
       <c r="D903" s="85" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="E903" s="60">
         <v>18</v>
@@ -74218,7 +74253,7 @@
       </c>
       <c r="C904" s="60"/>
       <c r="D904" s="85" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="E904" s="60">
         <v>30</v>
@@ -74238,7 +74273,7 @@
       </c>
       <c r="C905" s="60"/>
       <c r="D905" s="85" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="E905" s="60">
         <v>30</v>
@@ -74258,7 +74293,7 @@
       </c>
       <c r="C906" s="60"/>
       <c r="D906" s="85" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="E906" s="60">
         <v>58</v>
@@ -74278,7 +74313,7 @@
       </c>
       <c r="C907" s="60"/>
       <c r="D907" s="85" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="E907" s="60">
         <v>58</v>
@@ -74298,7 +74333,7 @@
       </c>
       <c r="C908" s="60"/>
       <c r="D908" s="85" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="E908" s="60">
         <v>118</v>
@@ -74318,7 +74353,7 @@
       </c>
       <c r="C909" s="60"/>
       <c r="D909" s="85" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="E909" s="60">
         <v>118</v>
@@ -74338,7 +74373,7 @@
       </c>
       <c r="C910" s="60"/>
       <c r="D910" s="85" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="E910" s="60">
         <v>298</v>
@@ -74358,7 +74393,7 @@
       </c>
       <c r="C911" s="60"/>
       <c r="D911" s="85" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="E911" s="60">
         <v>298</v>
@@ -74378,7 +74413,7 @@
       </c>
       <c r="C912" s="60"/>
       <c r="D912" s="85" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="E912" s="60">
         <v>598</v>
@@ -74398,7 +74433,7 @@
       </c>
       <c r="C913" s="60"/>
       <c r="D913" s="85" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="E913" s="60">
         <v>598</v>
@@ -74418,7 +74453,7 @@
       </c>
       <c r="C914" s="60"/>
       <c r="D914" s="85" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="E914" s="60">
         <v>1498</v>
@@ -74438,7 +74473,7 @@
       </c>
       <c r="C915" s="60"/>
       <c r="D915" s="85" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="E915" s="60">
         <v>1498</v>

--- a/config_debug/task_zajindan_server.xlsx
+++ b/config_debug/task_zajindan_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5553" uniqueCount="1588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5553" uniqueCount="1589">
   <si>
     <t>id|任务id</t>
   </si>
@@ -9411,6 +9411,10 @@
   <si>
     <t>2000000,-1</t>
     <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>浪漫礼盒</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -10300,10 +10304,10 @@
   <dimension ref="A1:T444"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="K254" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D428" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K437" sqref="K437"/>
+      <selection pane="bottomRight" activeCell="B466" sqref="B466"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -27405,7 +27409,7 @@
         <v>1</v>
       </c>
       <c r="C441" s="84" t="s">
-        <v>1556</v>
+        <v>1588</v>
       </c>
       <c r="D441" s="84" t="s">
         <v>1568</v>
@@ -27562,11 +27566,11 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K444"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E409" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C412" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G437" sqref="G437"/>
+      <selection pane="bottomRight" activeCell="C442" sqref="C442"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -47818,11 +47822,11 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:M421"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C389" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D402" sqref="D402"/>
+      <selection pane="bottomRight" activeCell="F418" sqref="F418"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -55562,7 +55566,7 @@
         <v>1584</v>
       </c>
       <c r="D418" s="60">
-        <v>6</v>
+        <v>111</v>
       </c>
       <c r="E418" s="60">
         <v>2</v>
@@ -55579,7 +55583,7 @@
         <v>1584</v>
       </c>
       <c r="D419" s="60">
-        <v>108</v>
+        <v>6</v>
       </c>
       <c r="E419" s="60">
         <v>2</v>
@@ -55596,7 +55600,7 @@
         <v>1584</v>
       </c>
       <c r="D420" s="60">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E420" s="60">
         <v>2</v>

--- a/config_debug/task_zajindan_server.xlsx
+++ b/config_debug/task_zajindan_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5553" uniqueCount="1589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7380" uniqueCount="1590">
   <si>
     <t>id|任务id</t>
   </si>
@@ -9414,6 +9414,10 @@
   </si>
   <si>
     <t>浪漫礼盒</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_026_lmqx_lmlh_yj</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -10303,11 +10307,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T444"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D428" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D422" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B466" sqref="B466"/>
+      <selection pane="bottomRight" activeCell="E448" sqref="E448"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -27187,7 +27191,7 @@
         <v>1557</v>
       </c>
       <c r="E435" s="84" t="s">
-        <v>1558</v>
+        <v>1589</v>
       </c>
       <c r="F435" s="84" t="s">
         <v>855</v>
@@ -47822,7 +47826,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:M421"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C389" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>

--- a/config_debug/task_zajindan_server.xlsx
+++ b/config_debug/task_zajindan_server.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7380" uniqueCount="1590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5553" uniqueCount="1590">
   <si>
     <t>id|任务id</t>
   </si>
@@ -10308,10 +10308,10 @@
   <dimension ref="A1:T444"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D422" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="J422" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E448" sqref="E448"/>
+      <selection pane="bottomRight" activeCell="L451" sqref="L451"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -26978,7 +26978,7 @@
         <v>1</v>
       </c>
       <c r="J429" s="61">
-        <v>1598311800</v>
+        <v>1598284800</v>
       </c>
       <c r="K429" s="61">
         <v>1598889599</v>

--- a/config_debug/task_zajindan_server.xlsx
+++ b/config_debug/task_zajindan_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5553" uniqueCount="1590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5558" uniqueCount="1591">
   <si>
     <t>id|任务id</t>
   </si>
@@ -9419,6 +9419,10 @@
   <si>
     <t>p_026_lmqx_lmlh_yj</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>_cpl_hb_statistics</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -10307,11 +10311,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T444"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="J422" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="J419" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L451" sqref="L451"/>
+      <selection pane="bottomRight" activeCell="C430" sqref="C430:C434"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -55637,13 +55641,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:W915"/>
+  <dimension ref="A1:W920"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C880" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C912" sqref="C912"/>
+      <selection pane="bottomRight" activeCell="F893" sqref="F893"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -74029,30 +74033,34 @@
         <v>891</v>
       </c>
       <c r="B892" s="60">
-        <v>633</v>
-      </c>
+        <v>632</v>
+      </c>
+      <c r="C892" s="29"/>
       <c r="D892" s="13" t="s">
-        <v>1363</v>
+        <v>1590</v>
       </c>
       <c r="E892" s="29">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F892" s="29">
         <v>1</v>
       </c>
+      <c r="G892" s="29"/>
+      <c r="H892" s="29"/>
+      <c r="I892" s="29"/>
     </row>
     <row r="893" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A893" s="61">
         <v>892</v>
       </c>
       <c r="B893" s="60">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D893" s="13" t="s">
         <v>1363</v>
       </c>
       <c r="E893" s="29">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="F893" s="29">
         <v>1</v>
@@ -74063,30 +74071,34 @@
         <v>893</v>
       </c>
       <c r="B894" s="60">
-        <v>635</v>
-      </c>
+        <v>633</v>
+      </c>
+      <c r="C894" s="29"/>
       <c r="D894" s="13" t="s">
-        <v>1363</v>
+        <v>1590</v>
       </c>
       <c r="E894" s="29">
-        <v>3000</v>
+        <v>300</v>
       </c>
       <c r="F894" s="29">
         <v>1</v>
       </c>
+      <c r="G894" s="29"/>
+      <c r="H894" s="29"/>
+      <c r="I894" s="29"/>
     </row>
     <row r="895" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A895" s="61">
         <v>894</v>
       </c>
       <c r="B895" s="60">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D895" s="13" t="s">
         <v>1363</v>
       </c>
       <c r="E895" s="29">
-        <v>8400</v>
+        <v>900</v>
       </c>
       <c r="F895" s="29">
         <v>1</v>
@@ -74097,114 +74109,111 @@
         <v>895</v>
       </c>
       <c r="B896" s="60">
-        <v>637</v>
-      </c>
-      <c r="C896" s="60"/>
-      <c r="D896" s="85" t="s">
-        <v>1561</v>
-      </c>
-      <c r="E896" s="60">
-        <v>1</v>
-      </c>
-      <c r="F896" s="60">
-        <v>1</v>
-      </c>
-      <c r="G896" s="60"/>
-      <c r="H896" s="60"/>
-    </row>
-    <row r="897" spans="1:8" x14ac:dyDescent="0.2">
+        <v>634</v>
+      </c>
+      <c r="C896" s="29"/>
+      <c r="D896" s="13" t="s">
+        <v>1590</v>
+      </c>
+      <c r="E896" s="29">
+        <v>900</v>
+      </c>
+      <c r="F896" s="29">
+        <v>1</v>
+      </c>
+      <c r="G896" s="29"/>
+      <c r="H896" s="29"/>
+      <c r="I896" s="29"/>
+    </row>
+    <row r="897" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A897" s="61">
         <v>896</v>
       </c>
       <c r="B897" s="60">
-        <v>637</v>
-      </c>
-      <c r="C897" s="60"/>
-      <c r="D897" s="85" t="s">
-        <v>1562</v>
-      </c>
-      <c r="E897" s="60">
-        <v>1</v>
-      </c>
-      <c r="F897" s="60">
-        <v>1</v>
-      </c>
-      <c r="G897" s="60"/>
-      <c r="H897" s="60"/>
-    </row>
-    <row r="898" spans="1:8" x14ac:dyDescent="0.2">
+        <v>635</v>
+      </c>
+      <c r="D897" s="13" t="s">
+        <v>1363</v>
+      </c>
+      <c r="E897" s="29">
+        <v>3000</v>
+      </c>
+      <c r="F897" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="898" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A898" s="61">
         <v>897</v>
       </c>
       <c r="B898" s="60">
-        <v>638</v>
-      </c>
-      <c r="C898" s="60"/>
-      <c r="D898" s="85" t="s">
-        <v>1561</v>
-      </c>
-      <c r="E898" s="60">
-        <v>4</v>
-      </c>
-      <c r="F898" s="60">
-        <v>1</v>
-      </c>
-      <c r="G898" s="60"/>
-      <c r="H898" s="60"/>
-    </row>
-    <row r="899" spans="1:8" x14ac:dyDescent="0.2">
+        <v>635</v>
+      </c>
+      <c r="C898" s="29"/>
+      <c r="D898" s="13" t="s">
+        <v>1590</v>
+      </c>
+      <c r="E898" s="29">
+        <v>3000</v>
+      </c>
+      <c r="F898" s="29">
+        <v>1</v>
+      </c>
+      <c r="G898" s="29"/>
+      <c r="H898" s="29"/>
+      <c r="I898" s="29"/>
+    </row>
+    <row r="899" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A899" s="61">
         <v>898</v>
       </c>
       <c r="B899" s="60">
-        <v>638</v>
-      </c>
-      <c r="C899" s="60"/>
-      <c r="D899" s="85" t="s">
-        <v>1562</v>
-      </c>
-      <c r="E899" s="60">
-        <v>4</v>
-      </c>
-      <c r="F899" s="60">
-        <v>1</v>
-      </c>
-      <c r="G899" s="60"/>
-      <c r="H899" s="60"/>
-    </row>
-    <row r="900" spans="1:8" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+      <c r="D899" s="13" t="s">
+        <v>1363</v>
+      </c>
+      <c r="E899" s="29">
+        <v>8400</v>
+      </c>
+      <c r="F899" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="900" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A900" s="61">
         <v>899</v>
       </c>
       <c r="B900" s="60">
-        <v>639</v>
-      </c>
-      <c r="C900" s="60"/>
-      <c r="D900" s="85" t="s">
-        <v>1561</v>
-      </c>
-      <c r="E900" s="60">
-        <v>9</v>
-      </c>
-      <c r="F900" s="60">
-        <v>1</v>
-      </c>
-      <c r="G900" s="60"/>
-      <c r="H900" s="60"/>
-    </row>
-    <row r="901" spans="1:8" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+      <c r="C900" s="29"/>
+      <c r="D900" s="13" t="s">
+        <v>1590</v>
+      </c>
+      <c r="E900" s="29">
+        <v>8400</v>
+      </c>
+      <c r="F900" s="29">
+        <v>1</v>
+      </c>
+      <c r="G900" s="29"/>
+      <c r="H900" s="29"/>
+      <c r="I900" s="29"/>
+    </row>
+    <row r="901" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A901" s="61">
         <v>900</v>
       </c>
       <c r="B901" s="60">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C901" s="60"/>
       <c r="D901" s="85" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="E901" s="60">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F901" s="60">
         <v>1</v>
@@ -74212,19 +74221,19 @@
       <c r="G901" s="60"/>
       <c r="H901" s="60"/>
     </row>
-    <row r="902" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A902" s="61">
         <v>901</v>
       </c>
       <c r="B902" s="60">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="C902" s="60"/>
       <c r="D902" s="85" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="E902" s="60">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="F902" s="60">
         <v>1</v>
@@ -74232,19 +74241,19 @@
       <c r="G902" s="60"/>
       <c r="H902" s="60"/>
     </row>
-    <row r="903" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A903" s="61">
         <v>902</v>
       </c>
       <c r="B903" s="60">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C903" s="60"/>
       <c r="D903" s="85" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="E903" s="60">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F903" s="60">
         <v>1</v>
@@ -74252,19 +74261,19 @@
       <c r="G903" s="60"/>
       <c r="H903" s="60"/>
     </row>
-    <row r="904" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A904" s="61">
         <v>903</v>
       </c>
       <c r="B904" s="60">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C904" s="60"/>
       <c r="D904" s="85" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="E904" s="60">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="F904" s="60">
         <v>1</v>
@@ -74272,19 +74281,19 @@
       <c r="G904" s="60"/>
       <c r="H904" s="60"/>
     </row>
-    <row r="905" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A905" s="61">
         <v>904</v>
       </c>
       <c r="B905" s="60">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C905" s="60"/>
       <c r="D905" s="85" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="E905" s="60">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="F905" s="60">
         <v>1</v>
@@ -74292,19 +74301,19 @@
       <c r="G905" s="60"/>
       <c r="H905" s="60"/>
     </row>
-    <row r="906" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A906" s="61">
         <v>905</v>
       </c>
       <c r="B906" s="60">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="C906" s="60"/>
       <c r="D906" s="85" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="E906" s="60">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="F906" s="60">
         <v>1</v>
@@ -74312,19 +74321,19 @@
       <c r="G906" s="60"/>
       <c r="H906" s="60"/>
     </row>
-    <row r="907" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A907" s="61">
         <v>906</v>
       </c>
       <c r="B907" s="60">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C907" s="60"/>
       <c r="D907" s="85" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="E907" s="60">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F907" s="60">
         <v>1</v>
@@ -74332,19 +74341,19 @@
       <c r="G907" s="60"/>
       <c r="H907" s="60"/>
     </row>
-    <row r="908" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A908" s="61">
         <v>907</v>
       </c>
       <c r="B908" s="60">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="C908" s="60"/>
       <c r="D908" s="85" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="E908" s="60">
-        <v>118</v>
+        <v>18</v>
       </c>
       <c r="F908" s="60">
         <v>1</v>
@@ -74352,19 +74361,19 @@
       <c r="G908" s="60"/>
       <c r="H908" s="60"/>
     </row>
-    <row r="909" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A909" s="61">
         <v>908</v>
       </c>
       <c r="B909" s="60">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C909" s="60"/>
       <c r="D909" s="85" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="E909" s="60">
-        <v>118</v>
+        <v>30</v>
       </c>
       <c r="F909" s="60">
         <v>1</v>
@@ -74372,19 +74381,19 @@
       <c r="G909" s="60"/>
       <c r="H909" s="60"/>
     </row>
-    <row r="910" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A910" s="61">
         <v>909</v>
       </c>
       <c r="B910" s="60">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C910" s="60"/>
       <c r="D910" s="85" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="E910" s="60">
-        <v>298</v>
+        <v>30</v>
       </c>
       <c r="F910" s="60">
         <v>1</v>
@@ -74392,19 +74401,19 @@
       <c r="G910" s="60"/>
       <c r="H910" s="60"/>
     </row>
-    <row r="911" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A911" s="61">
         <v>910</v>
       </c>
       <c r="B911" s="60">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C911" s="60"/>
       <c r="D911" s="85" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="E911" s="60">
-        <v>298</v>
+        <v>58</v>
       </c>
       <c r="F911" s="60">
         <v>1</v>
@@ -74412,19 +74421,19 @@
       <c r="G911" s="60"/>
       <c r="H911" s="60"/>
     </row>
-    <row r="912" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A912" s="61">
         <v>911</v>
       </c>
       <c r="B912" s="60">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="C912" s="60"/>
       <c r="D912" s="85" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="E912" s="60">
-        <v>598</v>
+        <v>58</v>
       </c>
       <c r="F912" s="60">
         <v>1</v>
@@ -74437,14 +74446,14 @@
         <v>912</v>
       </c>
       <c r="B913" s="60">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C913" s="60"/>
       <c r="D913" s="85" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="E913" s="60">
-        <v>598</v>
+        <v>118</v>
       </c>
       <c r="F913" s="60">
         <v>1</v>
@@ -74457,14 +74466,14 @@
         <v>913</v>
       </c>
       <c r="B914" s="60">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="C914" s="60"/>
       <c r="D914" s="85" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="E914" s="60">
-        <v>1498</v>
+        <v>118</v>
       </c>
       <c r="F914" s="60">
         <v>1</v>
@@ -74477,20 +74486,120 @@
         <v>914</v>
       </c>
       <c r="B915" s="60">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C915" s="60"/>
       <c r="D915" s="85" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="E915" s="60">
-        <v>1498</v>
+        <v>298</v>
       </c>
       <c r="F915" s="60">
         <v>1</v>
       </c>
       <c r="G915" s="60"/>
       <c r="H915" s="60"/>
+    </row>
+    <row r="916" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A916" s="61">
+        <v>915</v>
+      </c>
+      <c r="B916" s="60">
+        <v>644</v>
+      </c>
+      <c r="C916" s="60"/>
+      <c r="D916" s="85" t="s">
+        <v>1562</v>
+      </c>
+      <c r="E916" s="60">
+        <v>298</v>
+      </c>
+      <c r="F916" s="60">
+        <v>1</v>
+      </c>
+      <c r="G916" s="60"/>
+      <c r="H916" s="60"/>
+    </row>
+    <row r="917" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A917" s="61">
+        <v>916</v>
+      </c>
+      <c r="B917" s="60">
+        <v>645</v>
+      </c>
+      <c r="C917" s="60"/>
+      <c r="D917" s="85" t="s">
+        <v>1561</v>
+      </c>
+      <c r="E917" s="60">
+        <v>598</v>
+      </c>
+      <c r="F917" s="60">
+        <v>1</v>
+      </c>
+      <c r="G917" s="60"/>
+      <c r="H917" s="60"/>
+    </row>
+    <row r="918" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A918" s="61">
+        <v>917</v>
+      </c>
+      <c r="B918" s="60">
+        <v>645</v>
+      </c>
+      <c r="C918" s="60"/>
+      <c r="D918" s="85" t="s">
+        <v>1562</v>
+      </c>
+      <c r="E918" s="60">
+        <v>598</v>
+      </c>
+      <c r="F918" s="60">
+        <v>1</v>
+      </c>
+      <c r="G918" s="60"/>
+      <c r="H918" s="60"/>
+    </row>
+    <row r="919" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A919" s="61">
+        <v>918</v>
+      </c>
+      <c r="B919" s="60">
+        <v>646</v>
+      </c>
+      <c r="C919" s="60"/>
+      <c r="D919" s="85" t="s">
+        <v>1561</v>
+      </c>
+      <c r="E919" s="60">
+        <v>1498</v>
+      </c>
+      <c r="F919" s="60">
+        <v>1</v>
+      </c>
+      <c r="G919" s="60"/>
+      <c r="H919" s="60"/>
+    </row>
+    <row r="920" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A920" s="61">
+        <v>919</v>
+      </c>
+      <c r="B920" s="60">
+        <v>646</v>
+      </c>
+      <c r="C920" s="60"/>
+      <c r="D920" s="85" t="s">
+        <v>1562</v>
+      </c>
+      <c r="E920" s="60">
+        <v>1498</v>
+      </c>
+      <c r="F920" s="60">
+        <v>1</v>
+      </c>
+      <c r="G920" s="60"/>
+      <c r="H920" s="60"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>

--- a/config_debug/task_zajindan_server.xlsx
+++ b/config_debug/task_zajindan_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5597" uniqueCount="1607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5599" uniqueCount="1610">
   <si>
     <t>id|任务id</t>
   </si>
@@ -9577,6 +9577,18 @@
       </rPr>
       <t>61,662,663,664,665</t>
     </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_id</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_id</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,85,3,86,4,87,5,88,6,89,107,109,108,10044,110,10045,101,90,102,103,104,105,106,22,23,24,25,26,27,34,111,10189</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -27806,10 +27818,10 @@
   <dimension ref="A1:K446"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G427" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C427" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H449" sqref="H449"/>
+      <selection pane="bottomRight" activeCell="A449" sqref="A449"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -48145,13 +48157,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:M423"/>
+  <dimension ref="A1:M424"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C404" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C401" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A422" sqref="A422:E423"/>
+      <selection pane="bottomRight" activeCell="D430" sqref="D430"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -55922,7 +55934,7 @@
         <v>302</v>
       </c>
       <c r="C420" s="85" t="s">
-        <v>1584</v>
+        <v>1607</v>
       </c>
       <c r="D420" s="60">
         <v>108</v>
@@ -55979,6 +55991,23 @@
         <v>1603</v>
       </c>
       <c r="E423" s="60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A424" s="61">
+        <v>453</v>
+      </c>
+      <c r="B424" s="61">
+        <v>305</v>
+      </c>
+      <c r="C424" s="60" t="s">
+        <v>1608</v>
+      </c>
+      <c r="D424" s="60" t="s">
+        <v>1609</v>
+      </c>
+      <c r="E424" s="60">
         <v>2</v>
       </c>
     </row>
@@ -55994,11 +56023,11 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:W939"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C913" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F944" sqref="F944"/>
+      <selection pane="bottomRight" activeCell="C941" sqref="C941"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_debug/task_zajindan_server.xlsx
+++ b/config_debug/task_zajindan_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -10295,11 +10295,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T444"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D422" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="H422" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F443" sqref="F443"/>
+      <selection pane="bottomRight" activeCell="J429" sqref="J429"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -26966,7 +26966,7 @@
         <v>1</v>
       </c>
       <c r="J429" s="61">
-        <v>1598311800</v>
+        <v>1598284800</v>
       </c>
       <c r="K429" s="61">
         <v>1598889599</v>
@@ -38828,7 +38828,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I615"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A578" workbookViewId="0">
+    <sheetView topLeftCell="A578" workbookViewId="0">
       <selection activeCell="F611" sqref="F611"/>
     </sheetView>
   </sheetViews>

--- a/config_debug/task_zajindan_server.xlsx
+++ b/config_debug/task_zajindan_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -10295,11 +10295,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T444"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="H404" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="H416" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J415" sqref="J415:J428"/>
+      <selection pane="bottomRight" activeCell="J429" sqref="J429"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -26966,7 +26966,7 @@
         <v>1</v>
       </c>
       <c r="J429" s="61">
-        <v>1598311800</v>
+        <v>1598284800</v>
       </c>
       <c r="K429" s="61">
         <v>1598889599</v>
@@ -27558,7 +27558,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K444"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="G405" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>

--- a/config_debug/task_zajindan_server.xlsx
+++ b/config_debug/task_zajindan_server.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5706" uniqueCount="1642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5706" uniqueCount="1644">
   <si>
     <t>id|任务id</t>
   </si>
@@ -9892,6 +9892,38 @@
       </rPr>
       <t/>
     </r>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_028_xycd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_028_xycd_ljyj</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -10781,10 +10813,10 @@
   <dimension ref="A1:T456"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D431" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D434" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D461" sqref="D461"/>
+      <selection pane="bottomRight" activeCell="E462" sqref="E462"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -28120,7 +28152,7 @@
         <v>1611</v>
       </c>
       <c r="E447" s="84" t="s">
-        <v>1612</v>
+        <v>1643</v>
       </c>
       <c r="F447" s="84" t="s">
         <v>855</v>
@@ -28272,7 +28304,7 @@
         <v>1621</v>
       </c>
       <c r="E451" s="84" t="s">
-        <v>1627</v>
+        <v>1642</v>
       </c>
       <c r="F451" s="84" t="s">
         <v>855</v>
@@ -40136,7 +40168,7 @@
   <dimension ref="A1:I635"/>
   <sheetViews>
     <sheetView topLeftCell="A604" workbookViewId="0">
-      <selection activeCell="A618" sqref="A618:E635"/>
+      <selection activeCell="C618" sqref="C618:F626"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_debug/task_zajindan_server.xlsx
+++ b/config_debug/task_zajindan_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -9655,10 +9655,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>prop_xycd_ sunshine</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>幸运彩蛋</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -9924,6 +9920,10 @@
   <si>
     <t>p_028_xycd_ljyj</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_xycd_sunshine</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -10812,11 +10812,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T456"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D434" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E462" sqref="E462"/>
+      <selection pane="bottomRight" activeCell="D460" sqref="D460"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -28152,7 +28152,7 @@
         <v>1611</v>
       </c>
       <c r="E447" s="84" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="F447" s="84" t="s">
         <v>855</v>
@@ -28184,10 +28184,10 @@
         <v>1</v>
       </c>
       <c r="C448" s="84" t="s">
+        <v>1616</v>
+      </c>
+      <c r="D448" s="84" t="s">
         <v>1617</v>
-      </c>
-      <c r="D448" s="84" t="s">
-        <v>1618</v>
       </c>
       <c r="E448" s="84" t="s">
         <v>1612</v>
@@ -28225,10 +28225,10 @@
         <v>1610</v>
       </c>
       <c r="D449" s="84" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="E449" s="84" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="F449" s="84" t="s">
         <v>855</v>
@@ -28260,13 +28260,13 @@
         <v>1</v>
       </c>
       <c r="C450" s="84" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="D450" s="84" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="E450" s="84" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="F450" s="84" t="s">
         <v>855</v>
@@ -28301,10 +28301,10 @@
         <v>1610</v>
       </c>
       <c r="D451" s="84" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="E451" s="84" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="F451" s="84" t="s">
         <v>855</v>
@@ -28336,13 +28336,13 @@
         <v>1</v>
       </c>
       <c r="C452" s="84" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="D452" s="84" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="E452" s="84" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="F452" s="84" t="s">
         <v>855</v>
@@ -28377,10 +28377,10 @@
         <v>1610</v>
       </c>
       <c r="D453" s="84" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="E453" s="84" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="F453" s="84" t="s">
         <v>855</v>
@@ -28412,13 +28412,13 @@
         <v>1</v>
       </c>
       <c r="C454" s="84" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="D454" s="84" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="E454" s="84" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="F454" s="84" t="s">
         <v>855</v>
@@ -28453,10 +28453,10 @@
         <v>1610</v>
       </c>
       <c r="D455" s="84" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="E455" s="84" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="F455" s="84" t="s">
         <v>855</v>
@@ -28488,13 +28488,13 @@
         <v>1</v>
       </c>
       <c r="C456" s="84" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="D456" s="84" t="s">
+        <v>1625</v>
+      </c>
+      <c r="E456" s="84" t="s">
         <v>1626</v>
-      </c>
-      <c r="E456" s="84" t="s">
-        <v>1627</v>
       </c>
       <c r="F456" s="84" t="s">
         <v>855</v>
@@ -39934,11 +39934,11 @@
       </c>
       <c r="E448" s="60"/>
       <c r="F448" s="62" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="G448" s="63"/>
       <c r="H448" s="64" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="I448" s="85" t="s">
         <v>856</v>
@@ -39960,11 +39960,11 @@
       </c>
       <c r="E449" s="60"/>
       <c r="F449" s="62" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="G449" s="63"/>
       <c r="H449" s="64" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="I449" s="85" t="s">
         <v>856</v>
@@ -39986,11 +39986,11 @@
       </c>
       <c r="E450" s="60"/>
       <c r="F450" s="62" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="G450" s="63"/>
       <c r="H450" s="64" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="I450" s="85" t="s">
         <v>856</v>
@@ -40012,11 +40012,11 @@
       </c>
       <c r="E451" s="60"/>
       <c r="F451" s="62" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="G451" s="63"/>
       <c r="H451" s="64" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="I451" s="85" t="s">
         <v>856</v>
@@ -40038,11 +40038,11 @@
       </c>
       <c r="E452" s="60"/>
       <c r="F452" s="62" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="G452" s="63"/>
       <c r="H452" s="64" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="I452" s="85" t="s">
         <v>856</v>
@@ -40064,11 +40064,11 @@
       </c>
       <c r="E453" s="60"/>
       <c r="F453" s="62" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="G453" s="63"/>
       <c r="H453" s="64" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="I453" s="85" t="s">
         <v>856</v>
@@ -40090,11 +40090,11 @@
       </c>
       <c r="E454" s="60"/>
       <c r="F454" s="62" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="G454" s="63"/>
       <c r="H454" s="64" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="I454" s="85" t="s">
         <v>856</v>
@@ -40116,11 +40116,11 @@
       </c>
       <c r="E455" s="60"/>
       <c r="F455" s="62" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="G455" s="63"/>
       <c r="H455" s="64" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="I455" s="85" t="s">
         <v>856</v>
@@ -40142,11 +40142,11 @@
       </c>
       <c r="E456" s="60"/>
       <c r="F456" s="62" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="G456" s="63"/>
       <c r="H456" s="64" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="I456" s="85" t="s">
         <v>856</v>
@@ -57424,11 +57424,11 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:W949"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C919" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C953" sqref="C953"/>
+      <selection pane="bottomRight" activeCell="D952" sqref="D952"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -76810,7 +76810,7 @@
       </c>
       <c r="C940" s="60"/>
       <c r="D940" s="85" t="s">
-        <v>1616</v>
+        <v>1643</v>
       </c>
       <c r="E940" s="60">
         <v>1</v>
@@ -76828,7 +76828,7 @@
       </c>
       <c r="C941" s="60"/>
       <c r="D941" s="85" t="s">
-        <v>1616</v>
+        <v>1643</v>
       </c>
       <c r="E941" s="60">
         <v>5</v>
@@ -76846,7 +76846,7 @@
       </c>
       <c r="C942" s="60"/>
       <c r="D942" s="85" t="s">
-        <v>1616</v>
+        <v>1643</v>
       </c>
       <c r="E942" s="60">
         <v>12</v>
@@ -76864,7 +76864,7 @@
       </c>
       <c r="C943" s="60"/>
       <c r="D943" s="85" t="s">
-        <v>1616</v>
+        <v>1643</v>
       </c>
       <c r="E943" s="60">
         <v>25</v>
@@ -76882,7 +76882,7 @@
       </c>
       <c r="C944" s="60"/>
       <c r="D944" s="85" t="s">
-        <v>1616</v>
+        <v>1643</v>
       </c>
       <c r="E944" s="60">
         <v>38</v>
@@ -76900,7 +76900,7 @@
       </c>
       <c r="C945" s="60"/>
       <c r="D945" s="85" t="s">
-        <v>1616</v>
+        <v>1643</v>
       </c>
       <c r="E945" s="60">
         <v>78</v>
@@ -76918,7 +76918,7 @@
       </c>
       <c r="C946" s="60"/>
       <c r="D946" s="85" t="s">
-        <v>1616</v>
+        <v>1643</v>
       </c>
       <c r="E946" s="60">
         <v>158</v>
@@ -76936,7 +76936,7 @@
       </c>
       <c r="C947" s="60"/>
       <c r="D947" s="85" t="s">
-        <v>1616</v>
+        <v>1643</v>
       </c>
       <c r="E947" s="60">
         <v>398</v>
@@ -76954,7 +76954,7 @@
       </c>
       <c r="C948" s="60"/>
       <c r="D948" s="85" t="s">
-        <v>1616</v>
+        <v>1643</v>
       </c>
       <c r="E948" s="60">
         <v>798</v>
@@ -76972,7 +76972,7 @@
       </c>
       <c r="C949" s="60"/>
       <c r="D949" s="85" t="s">
-        <v>1616</v>
+        <v>1643</v>
       </c>
       <c r="E949" s="60">
         <v>1998</v>

--- a/config_debug/task_zajindan_server.xlsx
+++ b/config_debug/task_zajindan_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -7049,10 +7049,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>is_auto_get_award|是否自动领取(0或空不自动，1自动领)</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>buyu_3d_spend</t>
   </si>
   <si>
@@ -8877,34 +8873,6 @@
   <si>
     <t>prop_fish_drop_act_0</t>
     <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>充值商城每日首次充值6元赠送</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1个</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>爱心</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -9924,6 +9892,38 @@
   <si>
     <t>prop_xycd_sunshine</t>
     <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_auto_get_award|是否自动领取(0或空不自动，1自动领，2累计赢金类型的自动领奖)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>充值商城每日首次充值6元赠送</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>爱心</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -10813,10 +10813,10 @@
   <dimension ref="A1:T456"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D434" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="E425" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D460" sqref="D460"/>
+      <selection pane="bottomRight" activeCell="G435" sqref="G435"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10851,7 +10851,7 @@
         <v>1038</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>3</v>
@@ -14415,7 +14415,7 @@
         <v>0</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D86" s="16" t="s">
         <v>131</v>
@@ -14453,7 +14453,7 @@
         <v>0</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D87" s="16" t="s">
         <v>133</v>
@@ -14491,7 +14491,7 @@
         <v>0</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D88" s="16" t="s">
         <v>134</v>
@@ -14529,7 +14529,7 @@
         <v>0</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D89" s="16" t="s">
         <v>135</v>
@@ -14567,7 +14567,7 @@
         <v>0</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D90" s="16" t="s">
         <v>136</v>
@@ -14605,7 +14605,7 @@
         <v>0</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D91" s="16" t="s">
         <v>137</v>
@@ -14643,7 +14643,7 @@
         <v>0</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D92" s="16" t="s">
         <v>138</v>
@@ -14681,7 +14681,7 @@
         <v>0</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D93" s="16" t="s">
         <v>139</v>
@@ -14719,7 +14719,7 @@
         <v>0</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D94" s="16" t="s">
         <v>140</v>
@@ -14757,7 +14757,7 @@
         <v>0</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D95" s="16" t="s">
         <v>141</v>
@@ -14795,7 +14795,7 @@
         <v>0</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D96" s="16" t="s">
         <v>142</v>
@@ -14833,7 +14833,7 @@
         <v>0</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D97" s="16" t="s">
         <v>143</v>
@@ -14871,7 +14871,7 @@
         <v>0</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D98" s="16" t="s">
         <v>144</v>
@@ -14909,7 +14909,7 @@
         <v>0</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D99" s="16" t="s">
         <v>145</v>
@@ -14947,7 +14947,7 @@
         <v>0</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D100" s="16" t="s">
         <v>146</v>
@@ -14985,7 +14985,7 @@
         <v>0</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D101" s="16" t="s">
         <v>147</v>
@@ -15023,7 +15023,7 @@
         <v>0</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D102" s="16" t="s">
         <v>148</v>
@@ -15061,7 +15061,7 @@
         <v>0</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D103" s="16" t="s">
         <v>149</v>
@@ -15099,7 +15099,7 @@
         <v>0</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D104" s="16" t="s">
         <v>150</v>
@@ -15137,7 +15137,7 @@
         <v>0</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D105" s="16" t="s">
         <v>151</v>
@@ -15175,7 +15175,7 @@
         <v>0</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D106" s="16" t="s">
         <v>152</v>
@@ -15213,7 +15213,7 @@
         <v>0</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D107" s="16" t="s">
         <v>153</v>
@@ -15251,7 +15251,7 @@
         <v>0</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D108" s="16" t="s">
         <v>154</v>
@@ -15289,7 +15289,7 @@
         <v>0</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D109" s="16" t="s">
         <v>155</v>
@@ -15327,7 +15327,7 @@
         <v>0</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D110" s="16" t="s">
         <v>156</v>
@@ -15365,7 +15365,7 @@
         <v>0</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D111" s="16" t="s">
         <v>157</v>
@@ -15403,7 +15403,7 @@
         <v>0</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D112" s="16" t="s">
         <v>158</v>
@@ -15441,7 +15441,7 @@
         <v>0</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D113" s="16" t="s">
         <v>159</v>
@@ -15479,7 +15479,7 @@
         <v>0</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D114" s="16" t="s">
         <v>160</v>
@@ -15517,7 +15517,7 @@
         <v>0</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D115" s="16" t="s">
         <v>161</v>
@@ -15555,7 +15555,7 @@
         <v>0</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D116" s="16" t="s">
         <v>162</v>
@@ -15593,7 +15593,7 @@
         <v>0</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D117" s="16" t="s">
         <v>163</v>
@@ -15631,7 +15631,7 @@
         <v>0</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D118" s="16" t="s">
         <v>164</v>
@@ -15669,7 +15669,7 @@
         <v>0</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D119" s="16" t="s">
         <v>165</v>
@@ -15707,7 +15707,7 @@
         <v>0</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D120" s="16" t="s">
         <v>166</v>
@@ -15745,7 +15745,7 @@
         <v>0</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D121" s="16" t="s">
         <v>167</v>
@@ -17952,10 +17952,10 @@
         <v>1182</v>
       </c>
       <c r="D179" s="84" t="s">
+        <v>1214</v>
+      </c>
+      <c r="E179" s="84" t="s">
         <v>1215</v>
-      </c>
-      <c r="E179" s="84" t="s">
-        <v>1216</v>
       </c>
       <c r="F179" s="84" t="s">
         <v>13</v>
@@ -18186,7 +18186,7 @@
         <v>1182</v>
       </c>
       <c r="D185" s="84" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="E185" s="84" t="s">
         <v>132</v>
@@ -18225,7 +18225,7 @@
         <v>1182</v>
       </c>
       <c r="D186" s="84" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="E186" s="84" t="s">
         <v>132</v>
@@ -18264,7 +18264,7 @@
         <v>1182</v>
       </c>
       <c r="D187" s="84" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="E187" s="84" t="s">
         <v>132</v>
@@ -18303,7 +18303,7 @@
         <v>1182</v>
       </c>
       <c r="D188" s="84" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="E188" s="84" t="s">
         <v>132</v>
@@ -18342,7 +18342,7 @@
         <v>1182</v>
       </c>
       <c r="D189" s="84" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="E189" s="84" t="s">
         <v>132</v>
@@ -18381,7 +18381,7 @@
         <v>1182</v>
       </c>
       <c r="D190" s="84" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="E190" s="84" t="s">
         <v>132</v>
@@ -18420,7 +18420,7 @@
         <v>1182</v>
       </c>
       <c r="D191" s="84" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="E191" s="84" t="s">
         <v>132</v>
@@ -18497,7 +18497,7 @@
         <v>237</v>
       </c>
       <c r="D193" s="51" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="E193" s="51" t="s">
         <v>239</v>
@@ -18573,7 +18573,7 @@
         <v>237</v>
       </c>
       <c r="D195" s="51" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="E195" s="51" t="s">
         <v>239</v>
@@ -18611,7 +18611,7 @@
         <v>237</v>
       </c>
       <c r="D196" s="51" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="E196" s="51" t="s">
         <v>239</v>
@@ -18649,7 +18649,7 @@
         <v>237</v>
       </c>
       <c r="D197" s="51" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="E197" s="51" t="s">
         <v>239</v>
@@ -18687,7 +18687,7 @@
         <v>237</v>
       </c>
       <c r="D198" s="51" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="E198" s="51" t="s">
         <v>239</v>
@@ -24691,7 +24691,7 @@
         <v>1131</v>
       </c>
       <c r="D356" s="16" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="E356" s="16" t="s">
         <v>1126</v>
@@ -25144,16 +25144,16 @@
         <v>1</v>
       </c>
       <c r="C368" s="98" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D368" s="99" t="s">
         <v>1492</v>
-      </c>
-      <c r="D368" s="99" t="s">
-        <v>1493</v>
       </c>
       <c r="E368" s="98" t="s">
         <v>12</v>
       </c>
       <c r="F368" s="98" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="G368" s="97">
         <v>21315</v>
@@ -25182,16 +25182,16 @@
         <v>1</v>
       </c>
       <c r="C369" s="98" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D369" s="99" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="E369" s="98" t="s">
         <v>12</v>
       </c>
       <c r="F369" s="98" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="G369" s="97">
         <v>21316</v>
@@ -25220,16 +25220,16 @@
         <v>1</v>
       </c>
       <c r="C370" s="98" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D370" s="98" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="E370" s="98" t="s">
         <v>12</v>
       </c>
       <c r="F370" s="98" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="G370" s="97">
         <v>21317</v>
@@ -25258,16 +25258,16 @@
         <v>1</v>
       </c>
       <c r="C371" s="98" t="s">
+        <v>1496</v>
+      </c>
+      <c r="D371" s="98" t="s">
         <v>1497</v>
-      </c>
-      <c r="D371" s="98" t="s">
-        <v>1498</v>
       </c>
       <c r="E371" s="98" t="s">
         <v>12</v>
       </c>
       <c r="F371" s="98" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="G371" s="97">
         <v>21318</v>
@@ -25296,16 +25296,16 @@
         <v>1</v>
       </c>
       <c r="C372" s="98" t="s">
+        <v>1237</v>
+      </c>
+      <c r="D372" s="98" t="s">
         <v>1238</v>
       </c>
-      <c r="D372" s="98" t="s">
+      <c r="E372" s="98" t="s">
         <v>1239</v>
       </c>
-      <c r="E372" s="98" t="s">
+      <c r="F372" s="98" t="s">
         <v>1240</v>
-      </c>
-      <c r="F372" s="98" t="s">
-        <v>1241</v>
       </c>
       <c r="G372" s="97">
         <v>21319</v>
@@ -25334,16 +25334,16 @@
         <v>1</v>
       </c>
       <c r="C373" s="98" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="D373" s="98" t="s">
+        <v>1241</v>
+      </c>
+      <c r="E373" s="98" t="s">
         <v>1242</v>
       </c>
-      <c r="E373" s="98" t="s">
+      <c r="F373" s="98" t="s">
         <v>1243</v>
-      </c>
-      <c r="F373" s="98" t="s">
-        <v>1244</v>
       </c>
       <c r="G373" s="97">
         <v>21320</v>
@@ -25372,16 +25372,16 @@
         <v>1</v>
       </c>
       <c r="C374" s="98" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="D374" s="98" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E374" s="98" t="s">
         <v>1245</v>
       </c>
-      <c r="E374" s="98" t="s">
-        <v>1246</v>
-      </c>
       <c r="F374" s="98" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="G374" s="97">
         <v>21321</v>
@@ -25410,16 +25410,16 @@
         <v>1</v>
       </c>
       <c r="C375" s="98" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="D375" s="98" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="E375" s="100" t="s">
+        <v>1247</v>
+      </c>
+      <c r="F375" s="98" t="s">
         <v>1248</v>
-      </c>
-      <c r="F375" s="98" t="s">
-        <v>1249</v>
       </c>
       <c r="G375" s="97">
         <v>21322</v>
@@ -25448,16 +25448,16 @@
         <v>1</v>
       </c>
       <c r="C376" s="98" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="D376" s="98" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="E376" s="100" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="F376" s="98" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="G376" s="97">
         <v>21323</v>
@@ -25486,16 +25486,16 @@
         <v>1</v>
       </c>
       <c r="C377" s="98" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="D377" s="98" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="E377" s="100" t="s">
+        <v>1247</v>
+      </c>
+      <c r="F377" s="98" t="s">
         <v>1248</v>
-      </c>
-      <c r="F377" s="98" t="s">
-        <v>1249</v>
       </c>
       <c r="G377" s="97">
         <v>21324</v>
@@ -25524,16 +25524,16 @@
         <v>1</v>
       </c>
       <c r="C378" s="98" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="D378" s="98" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="E378" s="100" t="s">
+        <v>1247</v>
+      </c>
+      <c r="F378" s="98" t="s">
         <v>1248</v>
-      </c>
-      <c r="F378" s="98" t="s">
-        <v>1249</v>
       </c>
       <c r="G378" s="97">
         <v>21325</v>
@@ -25562,13 +25562,13 @@
         <v>1</v>
       </c>
       <c r="C379" s="98" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="D379" s="98" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="E379" s="100" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="F379" s="98" t="s">
         <v>855</v>
@@ -25600,16 +25600,16 @@
         <v>1</v>
       </c>
       <c r="C380" s="98" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="D380" s="98" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="E380" s="100" t="s">
+        <v>1247</v>
+      </c>
+      <c r="F380" s="98" t="s">
         <v>1248</v>
-      </c>
-      <c r="F380" s="98" t="s">
-        <v>1249</v>
       </c>
       <c r="G380" s="97">
         <v>21327</v>
@@ -25638,16 +25638,16 @@
         <v>1</v>
       </c>
       <c r="C381" s="98" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="D381" s="98" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="E381" s="100" t="s">
+        <v>1247</v>
+      </c>
+      <c r="F381" s="98" t="s">
         <v>1248</v>
-      </c>
-      <c r="F381" s="98" t="s">
-        <v>1249</v>
       </c>
       <c r="G381" s="97">
         <v>21328</v>
@@ -25676,16 +25676,16 @@
         <v>1</v>
       </c>
       <c r="C382" s="98" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="D382" s="98" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E382" s="100" t="s">
+        <v>1247</v>
+      </c>
+      <c r="F382" s="98" t="s">
         <v>1248</v>
-      </c>
-      <c r="F382" s="98" t="s">
-        <v>1249</v>
       </c>
       <c r="G382" s="97">
         <v>21329</v>
@@ -25714,16 +25714,16 @@
         <v>1</v>
       </c>
       <c r="C383" s="98" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="D383" s="98" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="E383" s="100" t="s">
+        <v>1247</v>
+      </c>
+      <c r="F383" s="98" t="s">
         <v>1248</v>
-      </c>
-      <c r="F383" s="98" t="s">
-        <v>1249</v>
       </c>
       <c r="G383" s="97">
         <v>21330</v>
@@ -25752,16 +25752,16 @@
         <v>1</v>
       </c>
       <c r="C384" s="98" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="D384" s="98" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="E384" s="98" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="F384" s="98" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="G384" s="97">
         <v>21331</v>
@@ -25790,13 +25790,13 @@
         <v>1</v>
       </c>
       <c r="C385" s="98" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="D385" s="98" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="E385" s="98" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="F385" s="98" t="s">
         <v>855</v>
@@ -25828,16 +25828,16 @@
         <v>1</v>
       </c>
       <c r="C386" s="98" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="D386" s="98" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="E386" s="98" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="F386" s="98" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="G386" s="97">
         <v>21333</v>
@@ -25866,16 +25866,16 @@
         <v>1</v>
       </c>
       <c r="C387" s="98" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="D387" s="98" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="E387" s="98" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="F387" s="98" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="G387" s="97">
         <v>21334</v>
@@ -25904,16 +25904,16 @@
         <v>1</v>
       </c>
       <c r="C388" s="98" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="D388" s="98" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="E388" s="98" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="F388" s="98" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="G388" s="97">
         <v>21335</v>
@@ -25942,13 +25942,13 @@
         <v>1</v>
       </c>
       <c r="C389" s="98" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="D389" s="98" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="E389" s="98" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="F389" s="98" t="s">
         <v>855</v>
@@ -25980,16 +25980,16 @@
         <v>1</v>
       </c>
       <c r="C390" s="98" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="D390" s="98" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="E390" s="98" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="F390" s="98" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="G390" s="97">
         <v>21337</v>
@@ -26018,16 +26018,16 @@
         <v>1</v>
       </c>
       <c r="C391" s="98" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="D391" s="98" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="E391" s="98" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="F391" s="98" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="G391" s="97">
         <v>21338</v>
@@ -26056,16 +26056,16 @@
         <v>1</v>
       </c>
       <c r="C392" s="98" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="D392" s="98" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="E392" s="98" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="F392" s="98" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="G392" s="97">
         <v>21339</v>
@@ -26094,16 +26094,16 @@
         <v>1</v>
       </c>
       <c r="C393" s="98" t="s">
+        <v>1312</v>
+      </c>
+      <c r="D393" s="97" t="s">
         <v>1313</v>
       </c>
-      <c r="D393" s="97" t="s">
+      <c r="E393" s="100" t="s">
         <v>1314</v>
       </c>
-      <c r="E393" s="100" t="s">
-        <v>1315</v>
-      </c>
       <c r="F393" s="98" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="G393" s="97">
         <v>21340</v>
@@ -26132,16 +26132,16 @@
         <v>1</v>
       </c>
       <c r="C394" s="98" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="D394" s="98" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="E394" s="98" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="F394" s="98" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="G394" s="97">
         <v>21341</v>
@@ -26170,13 +26170,13 @@
         <v>1</v>
       </c>
       <c r="C395" s="102" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="D395" s="102" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="E395" s="102" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="F395" s="102" t="s">
         <v>13</v>
@@ -26208,13 +26208,13 @@
         <v>1</v>
       </c>
       <c r="C396" s="102" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="D396" s="102" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="E396" s="102" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="F396" s="102" t="s">
         <v>13</v>
@@ -26246,13 +26246,13 @@
         <v>1</v>
       </c>
       <c r="C397" s="102" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="D397" s="102" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="E397" s="102" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="F397" s="102" t="s">
         <v>13</v>
@@ -26284,13 +26284,13 @@
         <v>1</v>
       </c>
       <c r="C398" s="102" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="D398" s="102" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="E398" s="102" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="F398" s="102" t="s">
         <v>13</v>
@@ -26322,13 +26322,13 @@
         <v>1</v>
       </c>
       <c r="C399" s="102" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="D399" s="102" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="E399" s="102" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="F399" s="102" t="s">
         <v>13</v>
@@ -26360,13 +26360,13 @@
         <v>1</v>
       </c>
       <c r="C400" s="103" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="D400" s="104" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="E400" s="104" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="F400" s="103" t="s">
         <v>13</v>
@@ -26398,13 +26398,13 @@
         <v>1</v>
       </c>
       <c r="C401" s="103" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="D401" s="104" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="E401" s="104" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="F401" s="103" t="s">
         <v>13</v>
@@ -26436,13 +26436,13 @@
         <v>1</v>
       </c>
       <c r="C402" s="103" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="D402" s="104" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="E402" s="104" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="F402" s="103" t="s">
         <v>13</v>
@@ -26474,13 +26474,13 @@
         <v>1</v>
       </c>
       <c r="C403" s="104" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="D403" s="104" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="E403" s="104" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="F403" s="103" t="s">
         <v>13</v>
@@ -26512,16 +26512,16 @@
         <v>1</v>
       </c>
       <c r="C404" s="49" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="D404" s="49" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="E404" s="49" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="F404" s="49" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="G404" s="7">
         <v>21351</v>
@@ -26550,16 +26550,16 @@
         <v>1</v>
       </c>
       <c r="C405" s="49" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="D405" s="49" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="E405" s="49" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F405" s="49" t="s">
         <v>1401</v>
-      </c>
-      <c r="F405" s="49" t="s">
-        <v>1402</v>
       </c>
       <c r="G405" s="7">
         <v>21352</v>
@@ -26588,16 +26588,16 @@
         <v>1</v>
       </c>
       <c r="C406" s="49" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="D406" s="49" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="E406" s="49" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F406" s="49" t="s">
         <v>1401</v>
-      </c>
-      <c r="F406" s="49" t="s">
-        <v>1402</v>
       </c>
       <c r="G406" s="7">
         <v>21353</v>
@@ -26626,16 +26626,16 @@
         <v>1</v>
       </c>
       <c r="C407" s="49" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="D407" s="49" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="E407" s="49" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F407" s="49" t="s">
         <v>1401</v>
-      </c>
-      <c r="F407" s="49" t="s">
-        <v>1402</v>
       </c>
       <c r="G407" s="7">
         <v>21354</v>
@@ -26664,16 +26664,16 @@
         <v>1</v>
       </c>
       <c r="C408" s="49" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="D408" s="49" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="E408" s="49" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F408" s="49" t="s">
         <v>1401</v>
-      </c>
-      <c r="F408" s="49" t="s">
-        <v>1402</v>
       </c>
       <c r="G408" s="7">
         <v>21355</v>
@@ -26702,16 +26702,16 @@
         <v>1</v>
       </c>
       <c r="C409" s="49" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="D409" s="49" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="E409" s="49" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F409" s="49" t="s">
         <v>1401</v>
-      </c>
-      <c r="F409" s="49" t="s">
-        <v>1402</v>
       </c>
       <c r="G409" s="7">
         <v>21356</v>
@@ -26740,16 +26740,16 @@
         <v>1</v>
       </c>
       <c r="C410" s="49" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="D410" s="49" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="E410" s="49" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F410" s="49" t="s">
         <v>1401</v>
-      </c>
-      <c r="F410" s="49" t="s">
-        <v>1402</v>
       </c>
       <c r="G410" s="7">
         <v>21357</v>
@@ -26778,16 +26778,16 @@
         <v>1</v>
       </c>
       <c r="C411" s="49" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="D411" s="49" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="E411" s="49" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="F411" s="49" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="G411" s="7">
         <v>21358</v>
@@ -26816,13 +26816,13 @@
         <v>1</v>
       </c>
       <c r="C412" s="7" t="s">
+        <v>1429</v>
+      </c>
+      <c r="D412" s="7" t="s">
         <v>1430</v>
       </c>
-      <c r="D412" s="7" t="s">
+      <c r="E412" s="7" t="s">
         <v>1431</v>
-      </c>
-      <c r="E412" s="7" t="s">
-        <v>1432</v>
       </c>
       <c r="F412" s="7" t="s">
         <v>855</v>
@@ -26854,13 +26854,13 @@
         <v>1</v>
       </c>
       <c r="C413" s="7" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="D413" s="7" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="E413" s="7" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="F413" s="7" t="s">
         <v>855</v>
@@ -26892,13 +26892,13 @@
         <v>1</v>
       </c>
       <c r="C414" s="7" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="D414" s="49" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="E414" s="49" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="F414" s="7" t="s">
         <v>855</v>
@@ -26930,13 +26930,13 @@
         <v>1</v>
       </c>
       <c r="C415" s="16" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="D415" s="16" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="E415" s="16" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="F415" s="12" t="s">
         <v>855</v>
@@ -26968,16 +26968,16 @@
         <v>1</v>
       </c>
       <c r="C416" s="16" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="D416" s="16" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="E416" s="16" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="F416" s="12" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="G416" s="12">
         <v>21363</v>
@@ -27006,13 +27006,13 @@
         <v>1</v>
       </c>
       <c r="C417" s="16" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="D417" s="16" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="E417" s="16" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="F417" s="12" t="s">
         <v>855</v>
@@ -27044,16 +27044,16 @@
         <v>1</v>
       </c>
       <c r="C418" s="16" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="D418" s="16" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="E418" s="16" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="F418" s="12" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="G418" s="12">
         <v>21365</v>
@@ -27082,16 +27082,16 @@
         <v>1</v>
       </c>
       <c r="C419" s="16" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="D419" s="16" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="E419" s="16" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="F419" s="12" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="G419" s="12">
         <v>21366</v>
@@ -27120,13 +27120,13 @@
         <v>1</v>
       </c>
       <c r="C420" s="16" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="D420" s="16" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="E420" s="16" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="F420" s="12" t="s">
         <v>855</v>
@@ -27158,16 +27158,16 @@
         <v>1</v>
       </c>
       <c r="C421" s="16" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="D421" s="16" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="E421" s="16" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="F421" s="12" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="G421" s="12">
         <v>21368</v>
@@ -27196,16 +27196,16 @@
         <v>1</v>
       </c>
       <c r="C422" s="16" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="D422" s="16" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="E422" s="16" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="F422" s="12" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="G422" s="12">
         <v>21369</v>
@@ -27234,16 +27234,16 @@
         <v>1</v>
       </c>
       <c r="C423" s="16" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="D423" s="16" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="E423" s="16" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="F423" s="12" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="G423" s="12">
         <v>21370</v>
@@ -27272,16 +27272,16 @@
         <v>1</v>
       </c>
       <c r="C424" s="16" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="D424" s="16" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="E424" s="16" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="F424" s="16" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="G424" s="12">
         <v>21371</v>
@@ -27310,16 +27310,16 @@
         <v>1</v>
       </c>
       <c r="C425" s="114" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="D425" s="114" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="E425" s="114" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="F425" s="114" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="G425" s="113">
         <v>21372</v>
@@ -27348,13 +27348,13 @@
         <v>1</v>
       </c>
       <c r="C426" s="114" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="D426" s="114" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="E426" s="114" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="F426" s="113" t="s">
         <v>855</v>
@@ -27386,13 +27386,13 @@
         <v>1</v>
       </c>
       <c r="C427" s="114" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="D427" s="114" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="E427" s="114" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="F427" s="113" t="s">
         <v>855</v>
@@ -27424,13 +27424,13 @@
         <v>1</v>
       </c>
       <c r="C428" s="114" t="s">
+        <v>1505</v>
+      </c>
+      <c r="D428" s="114" t="s">
         <v>1506</v>
       </c>
-      <c r="D428" s="114" t="s">
-        <v>1507</v>
-      </c>
       <c r="E428" s="114" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="F428" s="113" t="s">
         <v>855</v>
@@ -27462,13 +27462,13 @@
         <v>1</v>
       </c>
       <c r="C429" s="61" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="D429" s="61" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="E429" s="84" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F429" s="61" t="s">
         <v>855</v>
@@ -27500,16 +27500,16 @@
         <v>1</v>
       </c>
       <c r="C430" s="16" t="s">
+        <v>1532</v>
+      </c>
+      <c r="D430" s="16" t="s">
         <v>1533</v>
       </c>
-      <c r="D430" s="16" t="s">
+      <c r="E430" s="16" t="s">
         <v>1534</v>
       </c>
-      <c r="E430" s="16" t="s">
-        <v>1535</v>
-      </c>
       <c r="F430" s="16" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="G430" s="12">
         <v>21377</v>
@@ -27538,16 +27538,16 @@
         <v>1</v>
       </c>
       <c r="C431" s="16" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="D431" s="16" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="E431" s="16" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="F431" s="16" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="G431" s="12">
         <v>21378</v>
@@ -27576,16 +27576,16 @@
         <v>1</v>
       </c>
       <c r="C432" s="16" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="D432" s="16" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="E432" s="16" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="F432" s="16" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="G432" s="12">
         <v>21379</v>
@@ -27614,16 +27614,16 @@
         <v>1</v>
       </c>
       <c r="C433" s="16" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="D433" s="16" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="E433" s="16" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="F433" s="16" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="G433" s="12">
         <v>21380</v>
@@ -27652,16 +27652,16 @@
         <v>1</v>
       </c>
       <c r="C434" s="16" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="D434" s="16" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="E434" s="16" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="F434" s="16" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="G434" s="12">
         <v>21381</v>
@@ -27690,13 +27690,13 @@
         <v>1</v>
       </c>
       <c r="C435" s="16" t="s">
+        <v>1555</v>
+      </c>
+      <c r="D435" s="16" t="s">
         <v>1556</v>
       </c>
-      <c r="D435" s="16" t="s">
-        <v>1557</v>
-      </c>
       <c r="E435" s="16" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="F435" s="16" t="s">
         <v>855</v>
@@ -27728,13 +27728,13 @@
         <v>1</v>
       </c>
       <c r="C436" s="16" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="D436" s="16" t="s">
-        <v>1563</v>
+        <v>1643</v>
       </c>
       <c r="E436" s="16" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="F436" s="16" t="s">
         <v>855</v>
@@ -27766,13 +27766,13 @@
         <v>1</v>
       </c>
       <c r="C437" s="16" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="D437" s="16" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="E437" s="16" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="F437" s="16" t="s">
         <v>855</v>
@@ -27804,13 +27804,13 @@
         <v>1</v>
       </c>
       <c r="C438" s="16" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="D438" s="16" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="E438" s="16" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="F438" s="16" t="s">
         <v>855</v>
@@ -27842,13 +27842,13 @@
         <v>1</v>
       </c>
       <c r="C439" s="16" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="D439" s="16" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
       <c r="E439" s="16" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="F439" s="16" t="s">
         <v>855</v>
@@ -27880,13 +27880,13 @@
         <v>1</v>
       </c>
       <c r="C440" s="16" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="D440" s="16" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="E440" s="16" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="F440" s="16" t="s">
         <v>855</v>
@@ -27918,13 +27918,13 @@
         <v>1</v>
       </c>
       <c r="C441" s="16" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="D441" s="16" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="E441" s="16" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="F441" s="16" t="s">
         <v>855</v>
@@ -27956,13 +27956,13 @@
         <v>1</v>
       </c>
       <c r="C442" s="16" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="D442" s="16" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="E442" s="16" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="F442" s="16" t="s">
         <v>855</v>
@@ -27994,13 +27994,13 @@
         <v>1</v>
       </c>
       <c r="C443" s="16" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="D443" s="16" t="s">
+        <v>1568</v>
+      </c>
+      <c r="E443" s="16" t="s">
         <v>1570</v>
-      </c>
-      <c r="E443" s="16" t="s">
-        <v>1572</v>
       </c>
       <c r="F443" s="16" t="s">
         <v>855</v>
@@ -28032,13 +28032,13 @@
         <v>1</v>
       </c>
       <c r="C444" s="16" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="D444" s="16" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="E444" s="16" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="F444" s="16" t="s">
         <v>855</v>
@@ -28070,13 +28070,13 @@
         <v>1</v>
       </c>
       <c r="C445" s="16" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="D445" s="16" t="s">
+        <v>1590</v>
+      </c>
+      <c r="E445" s="16" t="s">
         <v>1592</v>
-      </c>
-      <c r="E445" s="16" t="s">
-        <v>1594</v>
       </c>
       <c r="F445" s="16" t="s">
         <v>855</v>
@@ -28108,13 +28108,13 @@
         <v>1</v>
       </c>
       <c r="C446" s="16" t="s">
+        <v>1589</v>
+      </c>
+      <c r="D446" s="16" t="s">
         <v>1591</v>
       </c>
-      <c r="D446" s="16" t="s">
-        <v>1593</v>
-      </c>
       <c r="E446" s="16" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="F446" s="16" t="s">
         <v>855</v>
@@ -28146,13 +28146,13 @@
         <v>1</v>
       </c>
       <c r="C447" s="61" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="D447" s="84" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="E447" s="84" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
       <c r="F447" s="84" t="s">
         <v>855</v>
@@ -28184,13 +28184,13 @@
         <v>1</v>
       </c>
       <c r="C448" s="84" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="D448" s="84" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="E448" s="84" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="F448" s="84" t="s">
         <v>855</v>
@@ -28222,13 +28222,13 @@
         <v>1</v>
       </c>
       <c r="C449" s="61" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="D449" s="84" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="E449" s="84" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="F449" s="84" t="s">
         <v>855</v>
@@ -28260,13 +28260,13 @@
         <v>1</v>
       </c>
       <c r="C450" s="84" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="D450" s="84" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="E450" s="84" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="F450" s="84" t="s">
         <v>855</v>
@@ -28298,13 +28298,13 @@
         <v>1</v>
       </c>
       <c r="C451" s="61" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="D451" s="84" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="E451" s="84" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
       <c r="F451" s="84" t="s">
         <v>855</v>
@@ -28336,13 +28336,13 @@
         <v>1</v>
       </c>
       <c r="C452" s="84" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="D452" s="84" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="E452" s="84" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="F452" s="84" t="s">
         <v>855</v>
@@ -28374,13 +28374,13 @@
         <v>1</v>
       </c>
       <c r="C453" s="61" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="D453" s="84" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="E453" s="84" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="F453" s="84" t="s">
         <v>855</v>
@@ -28412,13 +28412,13 @@
         <v>1</v>
       </c>
       <c r="C454" s="84" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="D454" s="84" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="E454" s="84" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="F454" s="84" t="s">
         <v>855</v>
@@ -28450,13 +28450,13 @@
         <v>1</v>
       </c>
       <c r="C455" s="61" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="D455" s="84" t="s">
+        <v>1622</v>
+      </c>
+      <c r="E455" s="84" t="s">
         <v>1624</v>
-      </c>
-      <c r="E455" s="84" t="s">
-        <v>1626</v>
       </c>
       <c r="F455" s="84" t="s">
         <v>855</v>
@@ -28488,13 +28488,13 @@
         <v>1</v>
       </c>
       <c r="C456" s="84" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="D456" s="84" t="s">
-        <v>1625</v>
+        <v>1623</v>
       </c>
       <c r="E456" s="84" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="F456" s="84" t="s">
         <v>855</v>
@@ -28531,11 +28531,11 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K456"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E439" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="G439" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I460" sqref="I460"/>
+      <selection pane="bottomRight" activeCell="I465" sqref="I465"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -28563,7 +28563,7 @@
         <v>380</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="F1" s="34" t="s">
         <v>381</v>
@@ -28578,7 +28578,7 @@
         <v>917</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>1192</v>
+        <v>1642</v>
       </c>
       <c r="K1" s="38"/>
     </row>
@@ -33358,7 +33358,7 @@
       </c>
       <c r="E179" s="10"/>
       <c r="F179" s="82" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="G179" s="79"/>
       <c r="H179" s="83" t="s">
@@ -33505,7 +33505,7 @@
         <v>21132</v>
       </c>
       <c r="C185" s="13" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="D185" s="11">
         <v>184</v>
@@ -33726,7 +33726,7 @@
         <v>0</v>
       </c>
       <c r="F193" s="82" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="G193" s="79"/>
       <c r="H193" s="83" t="s">
@@ -33751,7 +33751,7 @@
         <v>0</v>
       </c>
       <c r="F194" s="82" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="G194" s="79"/>
       <c r="H194" s="83" t="s">
@@ -33776,7 +33776,7 @@
         <v>0</v>
       </c>
       <c r="F195" s="82" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="G195" s="79"/>
       <c r="H195" s="83" t="s">
@@ -33801,7 +33801,7 @@
         <v>0</v>
       </c>
       <c r="F196" s="82" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="G196" s="79"/>
       <c r="H196" s="83" t="s">
@@ -33826,7 +33826,7 @@
         <v>0</v>
       </c>
       <c r="F197" s="82" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="G197" s="79"/>
       <c r="H197" s="83" t="s">
@@ -35743,7 +35743,7 @@
         <v>21216</v>
       </c>
       <c r="C269" s="13" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D269" s="11">
         <v>268</v>
@@ -38121,14 +38121,14 @@
       </c>
       <c r="E368" s="11"/>
       <c r="F368" s="40" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="G368" s="35"/>
       <c r="H368" s="15" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="I368" s="13" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="369" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -38144,14 +38144,14 @@
       </c>
       <c r="E369" s="11"/>
       <c r="F369" s="40" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="G369" s="35"/>
       <c r="H369" s="15" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="I369" s="13" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="370" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -38167,14 +38167,14 @@
       </c>
       <c r="E370" s="11"/>
       <c r="F370" s="40" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="G370" s="35"/>
       <c r="H370" s="15" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="I370" s="13" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="371" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -38190,14 +38190,14 @@
       </c>
       <c r="E371" s="11"/>
       <c r="F371" s="40" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="G371" s="35"/>
       <c r="H371" s="15" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="I371" s="13" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="372" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -38213,14 +38213,14 @@
       </c>
       <c r="E372" s="11"/>
       <c r="F372" s="40" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="G372" s="35"/>
       <c r="H372" s="15" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="I372" s="13" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="373" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -38234,12 +38234,12 @@
       <c r="D373" s="11"/>
       <c r="E373" s="11"/>
       <c r="F373" s="40" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="G373" s="35"/>
       <c r="H373" s="15"/>
       <c r="I373" s="13" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="374" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -38253,12 +38253,12 @@
       <c r="D374" s="11"/>
       <c r="E374" s="11"/>
       <c r="F374" s="40" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="G374" s="35"/>
       <c r="H374" s="15"/>
       <c r="I374" s="13" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="375" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -38274,14 +38274,14 @@
       </c>
       <c r="E375" s="11"/>
       <c r="F375" s="40" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="G375" s="35"/>
       <c r="H375" s="15" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="I375" s="13" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="376" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -38297,14 +38297,14 @@
       </c>
       <c r="E376" s="11"/>
       <c r="F376" s="40" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="G376" s="35"/>
       <c r="H376" s="15" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="I376" s="13" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="377" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -38320,14 +38320,14 @@
       </c>
       <c r="E377" s="11"/>
       <c r="F377" s="40" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="G377" s="35"/>
       <c r="H377" s="15" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="I377" s="13" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="378" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -38343,14 +38343,14 @@
       </c>
       <c r="E378" s="11"/>
       <c r="F378" s="40" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="G378" s="35"/>
       <c r="H378" s="15" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="I378" s="13" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="379" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -38366,14 +38366,14 @@
       </c>
       <c r="E379" s="11"/>
       <c r="F379" s="40" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="G379" s="35"/>
       <c r="H379" s="15" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="I379" s="13" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="380" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -38389,14 +38389,14 @@
       </c>
       <c r="E380" s="11"/>
       <c r="F380" s="40" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="G380" s="35"/>
       <c r="H380" s="15" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="I380" s="13" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="381" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -38412,14 +38412,14 @@
       </c>
       <c r="E381" s="11"/>
       <c r="F381" s="40" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="G381" s="35"/>
       <c r="H381" s="15" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="I381" s="13" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="382" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -38435,14 +38435,14 @@
       </c>
       <c r="E382" s="11"/>
       <c r="F382" s="40" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="G382" s="35"/>
       <c r="H382" s="15" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="I382" s="13" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="383" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -38458,14 +38458,14 @@
       </c>
       <c r="E383" s="11"/>
       <c r="F383" s="40" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="G383" s="35"/>
       <c r="H383" s="15" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="I383" s="13" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="384" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -38481,14 +38481,14 @@
       </c>
       <c r="E384" s="11"/>
       <c r="F384" s="40" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="G384" s="35"/>
       <c r="H384" s="15" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="I384" s="13" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="385" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -38506,14 +38506,14 @@
         <v>258</v>
       </c>
       <c r="F385" s="40" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="G385" s="35"/>
       <c r="H385" s="15" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="I385" s="13" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="386" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -38531,14 +38531,14 @@
         <v>259</v>
       </c>
       <c r="F386" s="40" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="G386" s="35"/>
       <c r="H386" s="15" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="I386" s="13" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="387" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -38554,14 +38554,14 @@
       </c>
       <c r="E387" s="11"/>
       <c r="F387" s="40" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="G387" s="35"/>
       <c r="H387" s="15" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="I387" s="13" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="388" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -38577,14 +38577,14 @@
       </c>
       <c r="E388" s="11"/>
       <c r="F388" s="40" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="G388" s="35"/>
       <c r="H388" s="15" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="I388" s="13" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="389" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -38602,14 +38602,14 @@
         <v>260</v>
       </c>
       <c r="F389" s="40" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="G389" s="35"/>
       <c r="H389" s="15" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="I389" s="13" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="390" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -38625,14 +38625,14 @@
       </c>
       <c r="E390" s="11"/>
       <c r="F390" s="40" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="G390" s="35"/>
       <c r="H390" s="15" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="I390" s="13" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="391" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -38650,14 +38650,14 @@
         <v>261</v>
       </c>
       <c r="F391" s="40" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="G391" s="35"/>
       <c r="H391" s="15" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="I391" s="13" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="392" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -38675,14 +38675,14 @@
         <v>262</v>
       </c>
       <c r="F392" s="40" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="G392" s="35"/>
       <c r="H392" s="15" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="I392" s="13" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="393" spans="1:9" s="6" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -38698,11 +38698,11 @@
       </c>
       <c r="E393" s="11"/>
       <c r="F393" s="40" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="G393" s="35"/>
       <c r="H393" s="40" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="I393" s="13" t="s">
         <v>387</v>
@@ -38723,11 +38723,11 @@
         <v>263</v>
       </c>
       <c r="F394" s="40" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="G394" s="35"/>
       <c r="H394" s="15" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="I394" s="11"/>
     </row>
@@ -38748,7 +38748,7 @@
       </c>
       <c r="G395" s="108"/>
       <c r="H395" s="109" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="I395" s="106" t="s">
         <v>387</v>
@@ -38771,7 +38771,7 @@
       </c>
       <c r="G396" s="108"/>
       <c r="H396" s="109" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="I396" s="106" t="s">
         <v>387</v>
@@ -38794,7 +38794,7 @@
       </c>
       <c r="G397" s="108"/>
       <c r="H397" s="109" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="I397" s="106" t="s">
         <v>387</v>
@@ -38817,7 +38817,7 @@
       </c>
       <c r="G398" s="108"/>
       <c r="H398" s="109" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="I398" s="106" t="s">
         <v>387</v>
@@ -38840,7 +38840,7 @@
       </c>
       <c r="G399" s="108"/>
       <c r="H399" s="109" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="I399" s="106" t="s">
         <v>387</v>
@@ -38863,7 +38863,7 @@
       </c>
       <c r="G400" s="108"/>
       <c r="H400" s="109" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="I400" s="106" t="s">
         <v>387</v>
@@ -38886,7 +38886,7 @@
       </c>
       <c r="G401" s="108"/>
       <c r="H401" s="109" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="I401" s="106" t="s">
         <v>387</v>
@@ -38909,7 +38909,7 @@
       </c>
       <c r="G402" s="108"/>
       <c r="H402" s="109" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="I402" s="106" t="s">
         <v>387</v>
@@ -38932,7 +38932,7 @@
       </c>
       <c r="G403" s="108"/>
       <c r="H403" s="109" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="I403" s="106" t="s">
         <v>387</v>
@@ -38949,7 +38949,7 @@
         <v>400</v>
       </c>
       <c r="F404" s="111" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="405" spans="1:10" x14ac:dyDescent="0.2">
@@ -38963,7 +38963,7 @@
         <v>401</v>
       </c>
       <c r="F405" s="111" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="406" spans="1:10" x14ac:dyDescent="0.2">
@@ -38977,7 +38977,7 @@
         <v>402</v>
       </c>
       <c r="F406" s="111" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="407" spans="1:10" x14ac:dyDescent="0.2">
@@ -38991,7 +38991,7 @@
         <v>403</v>
       </c>
       <c r="F407" s="111" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="408" spans="1:10" x14ac:dyDescent="0.2">
@@ -39005,7 +39005,7 @@
         <v>404</v>
       </c>
       <c r="F408" s="111" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="409" spans="1:10" x14ac:dyDescent="0.2">
@@ -39019,7 +39019,7 @@
         <v>405</v>
       </c>
       <c r="F409" s="111" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="410" spans="1:10" x14ac:dyDescent="0.2">
@@ -39033,7 +39033,7 @@
         <v>406</v>
       </c>
       <c r="F410" s="111" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="411" spans="1:10" x14ac:dyDescent="0.2">
@@ -39044,7 +39044,7 @@
         <v>21358</v>
       </c>
       <c r="F411" s="111" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="412" spans="1:10" x14ac:dyDescent="0.2">
@@ -39058,13 +39058,13 @@
         <v>407</v>
       </c>
       <c r="F412" s="32" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="H412" s="65" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="I412" s="14" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="413" spans="1:10" x14ac:dyDescent="0.2">
@@ -39078,13 +39078,13 @@
         <v>408</v>
       </c>
       <c r="F413" s="32" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="H413" s="65" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="I413" s="14" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="414" spans="1:10" x14ac:dyDescent="0.2">
@@ -39098,13 +39098,13 @@
         <v>409</v>
       </c>
       <c r="F414" s="111" t="s">
+        <v>1435</v>
+      </c>
+      <c r="H414" s="65" t="s">
+        <v>1446</v>
+      </c>
+      <c r="I414" s="14" t="s">
         <v>1436</v>
-      </c>
-      <c r="H414" s="65" t="s">
-        <v>1447</v>
-      </c>
-      <c r="I414" s="14" t="s">
-        <v>1437</v>
       </c>
     </row>
     <row r="415" spans="1:10" s="81" customFormat="1" x14ac:dyDescent="0.2">
@@ -39124,7 +39124,7 @@
       </c>
       <c r="G415" s="79"/>
       <c r="H415" s="83" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="I415" s="19" t="s">
         <v>387</v>
@@ -39146,11 +39146,11 @@
       </c>
       <c r="E416" s="10"/>
       <c r="F416" s="82" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="G416" s="79"/>
       <c r="H416" s="83" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="I416" s="19" t="s">
         <v>387</v>
@@ -39172,11 +39172,11 @@
       </c>
       <c r="E417" s="10"/>
       <c r="F417" s="82" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="G417" s="79"/>
       <c r="H417" s="83" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="I417" s="19" t="s">
         <v>387</v>
@@ -39198,11 +39198,11 @@
       </c>
       <c r="E418" s="10"/>
       <c r="F418" s="82" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="G418" s="79"/>
       <c r="H418" s="83" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="I418" s="19" t="s">
         <v>387</v>
@@ -39224,11 +39224,11 @@
       </c>
       <c r="E419" s="10"/>
       <c r="F419" s="82" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="G419" s="79"/>
       <c r="H419" s="83" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="I419" s="19" t="s">
         <v>387</v>
@@ -39250,11 +39250,11 @@
       </c>
       <c r="E420" s="10"/>
       <c r="F420" s="82" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="G420" s="79"/>
       <c r="H420" s="83" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="I420" s="19" t="s">
         <v>387</v>
@@ -39276,11 +39276,11 @@
       </c>
       <c r="E421" s="10"/>
       <c r="F421" s="82" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="G421" s="79"/>
       <c r="H421" s="83" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="I421" s="19" t="s">
         <v>387</v>
@@ -39302,11 +39302,11 @@
       </c>
       <c r="E422" s="10"/>
       <c r="F422" s="82" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="G422" s="79"/>
       <c r="H422" s="83" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="I422" s="19" t="s">
         <v>387</v>
@@ -39328,11 +39328,11 @@
       </c>
       <c r="E423" s="10"/>
       <c r="F423" s="82" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="G423" s="79"/>
       <c r="H423" s="83" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="I423" s="19" t="s">
         <v>387</v>
@@ -39358,10 +39358,10 @@
       </c>
       <c r="G424" s="79"/>
       <c r="H424" s="83" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="I424" s="19" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="J424" s="81">
         <v>1</v>
@@ -39384,10 +39384,10 @@
       </c>
       <c r="G425" s="117"/>
       <c r="H425" s="118" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="I425" s="119" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="J425" s="120">
         <v>1</v>
@@ -39410,10 +39410,10 @@
       </c>
       <c r="G426" s="117"/>
       <c r="H426" s="118" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="I426" s="119" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="J426" s="120">
         <v>1</v>
@@ -39436,10 +39436,10 @@
       </c>
       <c r="G427" s="117"/>
       <c r="H427" s="118" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="I427" s="119" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="J427" s="120">
         <v>1</v>
@@ -39456,14 +39456,14 @@
       <c r="D428" s="115"/>
       <c r="E428" s="115"/>
       <c r="F428" s="116" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="G428" s="117"/>
       <c r="H428" s="118" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="I428" s="119" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="429" spans="1:10" s="122" customFormat="1" x14ac:dyDescent="0.2">
@@ -39479,11 +39479,11 @@
       </c>
       <c r="E429" s="60"/>
       <c r="F429" s="63" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="G429" s="63"/>
       <c r="H429" s="121" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="I429" s="60" t="s">
         <v>856</v>
@@ -39500,13 +39500,13 @@
         <v>424</v>
       </c>
       <c r="F430" s="111" t="s">
+        <v>1541</v>
+      </c>
+      <c r="H430" s="65" t="s">
         <v>1542</v>
       </c>
-      <c r="H430" s="65" t="s">
+      <c r="I430" s="14" t="s">
         <v>1543</v>
-      </c>
-      <c r="I430" s="14" t="s">
-        <v>1544</v>
       </c>
     </row>
     <row r="431" spans="1:10" x14ac:dyDescent="0.2">
@@ -39520,13 +39520,13 @@
         <v>425</v>
       </c>
       <c r="F431" s="111" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="H431" s="65" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="I431" s="14" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="432" spans="1:10" x14ac:dyDescent="0.2">
@@ -39540,13 +39540,13 @@
         <v>426</v>
       </c>
       <c r="F432" s="111" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="H432" s="65" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="I432" s="14" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="433" spans="1:10" x14ac:dyDescent="0.2">
@@ -39560,13 +39560,13 @@
         <v>427</v>
       </c>
       <c r="F433" s="111" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="H433" s="65" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="I433" s="14" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="434" spans="1:10" x14ac:dyDescent="0.2">
@@ -39580,13 +39580,13 @@
         <v>428</v>
       </c>
       <c r="F434" s="111" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="H434" s="65" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="I434" s="14" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="435" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -39602,11 +39602,11 @@
       </c>
       <c r="E435" s="11"/>
       <c r="F435" s="40" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="G435" s="35"/>
       <c r="H435" s="15" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="I435" s="13" t="s">
         <v>1144</v>
@@ -39628,11 +39628,11 @@
       </c>
       <c r="E436" s="11"/>
       <c r="F436" s="40" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="G436" s="35"/>
       <c r="H436" s="15" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="I436" s="13" t="s">
         <v>1144</v>
@@ -39654,11 +39654,11 @@
       </c>
       <c r="E437" s="11"/>
       <c r="F437" s="40" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="G437" s="35"/>
       <c r="H437" s="15" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="I437" s="13" t="s">
         <v>1144</v>
@@ -39680,11 +39680,11 @@
       </c>
       <c r="E438" s="11"/>
       <c r="F438" s="40" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="G438" s="35"/>
       <c r="H438" s="15" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="I438" s="13" t="s">
         <v>1144</v>
@@ -39706,11 +39706,11 @@
       </c>
       <c r="E439" s="11"/>
       <c r="F439" s="40" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="G439" s="35"/>
       <c r="H439" s="15" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="I439" s="13" t="s">
         <v>1144</v>
@@ -39732,11 +39732,11 @@
       </c>
       <c r="E440" s="11"/>
       <c r="F440" s="40" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="G440" s="35"/>
       <c r="H440" s="15" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="I440" s="13" t="s">
         <v>1144</v>
@@ -39758,11 +39758,11 @@
       </c>
       <c r="E441" s="11"/>
       <c r="F441" s="40" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="G441" s="35"/>
       <c r="H441" s="15" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="I441" s="13" t="s">
         <v>1144</v>
@@ -39784,11 +39784,11 @@
       </c>
       <c r="E442" s="11"/>
       <c r="F442" s="40" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="G442" s="35"/>
       <c r="H442" s="15" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="I442" s="13" t="s">
         <v>1144</v>
@@ -39810,11 +39810,11 @@
       </c>
       <c r="E443" s="11"/>
       <c r="F443" s="40" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="G443" s="35"/>
       <c r="H443" s="15" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="I443" s="13" t="s">
         <v>1144</v>
@@ -39836,11 +39836,11 @@
       </c>
       <c r="E444" s="11"/>
       <c r="F444" s="40" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="G444" s="35"/>
       <c r="H444" s="15" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="I444" s="13" t="s">
         <v>1144</v>
@@ -39862,11 +39862,11 @@
       </c>
       <c r="E445" s="11"/>
       <c r="F445" s="40" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="G445" s="35"/>
       <c r="H445" s="40" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="I445" s="13" t="s">
         <v>856</v>
@@ -39885,11 +39885,11 @@
       </c>
       <c r="E446" s="11"/>
       <c r="F446" s="40" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="G446" s="35"/>
       <c r="H446" s="15" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="I446" s="13" t="s">
         <v>856</v>
@@ -39908,17 +39908,17 @@
       </c>
       <c r="E447" s="60"/>
       <c r="F447" s="62" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="G447" s="63"/>
       <c r="H447" s="64" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="I447" s="85" t="s">
         <v>856</v>
       </c>
       <c r="J447" s="122">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:10" x14ac:dyDescent="0.2">
@@ -39934,11 +39934,11 @@
       </c>
       <c r="E448" s="60"/>
       <c r="F448" s="62" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="G448" s="63"/>
       <c r="H448" s="64" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="I448" s="85" t="s">
         <v>856</v>
@@ -39960,11 +39960,11 @@
       </c>
       <c r="E449" s="60"/>
       <c r="F449" s="62" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
       <c r="G449" s="63"/>
       <c r="H449" s="64" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="I449" s="85" t="s">
         <v>856</v>
@@ -39986,11 +39986,11 @@
       </c>
       <c r="E450" s="60"/>
       <c r="F450" s="62" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="G450" s="63"/>
       <c r="H450" s="64" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
       <c r="I450" s="85" t="s">
         <v>856</v>
@@ -40012,11 +40012,11 @@
       </c>
       <c r="E451" s="60"/>
       <c r="F451" s="62" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="G451" s="63"/>
       <c r="H451" s="64" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="I451" s="85" t="s">
         <v>856</v>
@@ -40038,11 +40038,11 @@
       </c>
       <c r="E452" s="60"/>
       <c r="F452" s="62" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
       <c r="G452" s="63"/>
       <c r="H452" s="64" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
       <c r="I452" s="85" t="s">
         <v>856</v>
@@ -40064,11 +40064,11 @@
       </c>
       <c r="E453" s="60"/>
       <c r="F453" s="62" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="G453" s="63"/>
       <c r="H453" s="64" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
       <c r="I453" s="85" t="s">
         <v>856</v>
@@ -40090,11 +40090,11 @@
       </c>
       <c r="E454" s="60"/>
       <c r="F454" s="62" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
       <c r="G454" s="63"/>
       <c r="H454" s="64" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="I454" s="85" t="s">
         <v>856</v>
@@ -40116,11 +40116,11 @@
       </c>
       <c r="E455" s="60"/>
       <c r="F455" s="62" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="G455" s="63"/>
       <c r="H455" s="64" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
       <c r="I455" s="85" t="s">
         <v>856</v>
@@ -40142,11 +40142,11 @@
       </c>
       <c r="E456" s="60"/>
       <c r="F456" s="62" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="G456" s="63"/>
       <c r="H456" s="64" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
       <c r="I456" s="85" t="s">
         <v>856</v>
@@ -40377,7 +40377,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="D14" s="11">
         <v>0</v>
@@ -41682,7 +41682,7 @@
         <v>83</v>
       </c>
       <c r="C105" s="13" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="D105" s="11">
         <v>49</v>
@@ -41948,7 +41948,7 @@
         <v>102</v>
       </c>
       <c r="C124" s="13" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="D124" s="11">
         <v>67</v>
@@ -43379,7 +43379,7 @@
         <v>178</v>
       </c>
       <c r="C224" s="85" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="D224" s="60">
         <v>257</v>
@@ -43572,7 +43572,7 @@
         <v>184</v>
       </c>
       <c r="C237" s="13" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="D237" s="11">
         <v>0</v>
@@ -43698,7 +43698,7 @@
         <v>185</v>
       </c>
       <c r="C245" s="13" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="D245" s="11">
         <v>0</v>
@@ -43824,7 +43824,7 @@
         <v>186</v>
       </c>
       <c r="C253" s="13" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="D253" s="11">
         <v>0</v>
@@ -43950,7 +43950,7 @@
         <v>187</v>
       </c>
       <c r="C261" s="13" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="D261" s="11">
         <v>0</v>
@@ -44076,7 +44076,7 @@
         <v>188</v>
       </c>
       <c r="C269" s="13" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="D269" s="11">
         <v>0</v>
@@ -44202,7 +44202,7 @@
         <v>189</v>
       </c>
       <c r="C277" s="13" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="D277" s="11">
         <v>0</v>
@@ -44328,7 +44328,7 @@
         <v>190</v>
       </c>
       <c r="C285" s="13" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="D285" s="11">
         <v>0</v>
@@ -44360,7 +44360,7 @@
         <v>192</v>
       </c>
       <c r="C287" s="19" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="D287" s="10">
         <v>0</v>
@@ -44390,7 +44390,7 @@
         <v>194</v>
       </c>
       <c r="C289" s="19" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="D289" s="10">
         <v>0</v>
@@ -44405,7 +44405,7 @@
         <v>195</v>
       </c>
       <c r="C290" s="19" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="D290" s="10">
         <v>0</v>
@@ -44435,7 +44435,7 @@
         <v>196</v>
       </c>
       <c r="C292" s="19" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="D292" s="10">
         <v>0</v>
@@ -44525,7 +44525,7 @@
         <v>197</v>
       </c>
       <c r="C298" s="19" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="D298" s="10">
         <v>0</v>
@@ -46549,7 +46549,7 @@
         <v>308</v>
       </c>
       <c r="C441" s="13" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="D441" s="11">
         <v>195</v>
@@ -47857,7 +47857,7 @@
         <v>367</v>
       </c>
       <c r="C530" s="86" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="D530" s="10">
         <v>253</v>
@@ -47871,7 +47871,7 @@
         <v>368</v>
       </c>
       <c r="C531" s="86" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="D531" s="10">
         <v>254</v>
@@ -47885,7 +47885,7 @@
         <v>369</v>
       </c>
       <c r="C532" s="86" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="D532" s="10">
         <v>255</v>
@@ -47899,7 +47899,7 @@
         <v>370</v>
       </c>
       <c r="C533" s="86" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="D533" s="10">
         <v>256</v>
@@ -47913,7 +47913,7 @@
         <v>371</v>
       </c>
       <c r="C534" s="13" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="D534" s="12">
         <v>0</v>
@@ -47927,7 +47927,7 @@
         <v>372</v>
       </c>
       <c r="C535" s="13" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="D535" s="12">
         <v>0</v>
@@ -47941,7 +47941,7 @@
         <v>373</v>
       </c>
       <c r="C536" s="13" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="D536" s="12">
         <v>0</v>
@@ -47955,7 +47955,7 @@
         <v>374</v>
       </c>
       <c r="C537" s="13" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="D537" s="12">
         <v>0</v>
@@ -47969,7 +47969,7 @@
         <v>375</v>
       </c>
       <c r="C538" s="13" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="D538" s="12">
         <v>0</v>
@@ -47986,7 +47986,7 @@
         <v>376</v>
       </c>
       <c r="C539" s="13" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="D539" s="12">
         <v>0</v>
@@ -48000,7 +48000,7 @@
         <v>377</v>
       </c>
       <c r="C540" s="13" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="D540" s="12">
         <v>0</v>
@@ -48014,7 +48014,7 @@
         <v>378</v>
       </c>
       <c r="C541" s="13" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="D541" s="12">
         <v>0</v>
@@ -48028,7 +48028,7 @@
         <v>379</v>
       </c>
       <c r="C542" s="13" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D542" s="12">
         <v>0</v>
@@ -48042,7 +48042,7 @@
         <v>380</v>
       </c>
       <c r="C543" s="13" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="D543" s="12">
         <v>0</v>
@@ -48056,7 +48056,7 @@
         <v>381</v>
       </c>
       <c r="C544" s="13" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="D544" s="12">
         <v>258</v>
@@ -48070,7 +48070,7 @@
         <v>382</v>
       </c>
       <c r="C545" s="13" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="D545" s="12">
         <v>259</v>
@@ -48084,7 +48084,7 @@
         <v>383</v>
       </c>
       <c r="C546" s="13" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D546" s="12">
         <v>0</v>
@@ -48098,7 +48098,7 @@
         <v>384</v>
       </c>
       <c r="C547" s="13" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="D547" s="12">
         <v>0</v>
@@ -48112,7 +48112,7 @@
         <v>385</v>
       </c>
       <c r="C548" s="13" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="D548" s="12">
         <v>260</v>
@@ -48126,7 +48126,7 @@
         <v>386</v>
       </c>
       <c r="C549" s="13" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="D549" s="12">
         <v>0</v>
@@ -48140,7 +48140,7 @@
         <v>387</v>
       </c>
       <c r="C550" s="13" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="D550" s="12">
         <v>261</v>
@@ -48154,7 +48154,7 @@
         <v>388</v>
       </c>
       <c r="C551" s="13" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="D551" s="12">
         <v>262</v>
@@ -48228,7 +48228,7 @@
         <v>389</v>
       </c>
       <c r="C556" s="13" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="D556" s="11">
         <v>0</v>
@@ -48243,7 +48243,7 @@
         <v>389</v>
       </c>
       <c r="C557" s="13" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="D557" s="11">
         <v>0</v>
@@ -48275,7 +48275,7 @@
         <v>389</v>
       </c>
       <c r="C559" s="13" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="D559" s="11">
         <v>0</v>
@@ -48292,7 +48292,7 @@
         <v>390</v>
       </c>
       <c r="C560" s="13" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="D560" s="11">
         <v>263</v>
@@ -48432,7 +48432,7 @@
         <v>400</v>
       </c>
       <c r="C570" s="13" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D570" s="11">
         <v>273</v>
@@ -48446,7 +48446,7 @@
         <v>401</v>
       </c>
       <c r="C571" s="13" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="D571" s="11">
         <v>274</v>
@@ -48460,7 +48460,7 @@
         <v>402</v>
       </c>
       <c r="C572" s="13" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="D572" s="11">
         <v>275</v>
@@ -48474,7 +48474,7 @@
         <v>403</v>
       </c>
       <c r="C573" s="13" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D573" s="11">
         <v>276</v>
@@ -48488,7 +48488,7 @@
         <v>404</v>
       </c>
       <c r="C574" s="13" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="D574" s="11">
         <v>277</v>
@@ -48502,7 +48502,7 @@
         <v>405</v>
       </c>
       <c r="C575" s="13" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="D575" s="11">
         <v>278</v>
@@ -48516,7 +48516,7 @@
         <v>406</v>
       </c>
       <c r="C576" s="13" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="D576" s="11">
         <v>279</v>
@@ -48530,7 +48530,7 @@
         <v>407</v>
       </c>
       <c r="C577" s="13" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="D577" s="11">
         <v>280</v>
@@ -48544,7 +48544,7 @@
         <v>408</v>
       </c>
       <c r="C578" s="13" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="D578" s="11">
         <v>281</v>
@@ -48558,7 +48558,7 @@
         <v>409</v>
       </c>
       <c r="C579" s="13" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="D579" s="11">
         <v>282</v>
@@ -48587,7 +48587,7 @@
         <v>411</v>
       </c>
       <c r="C581" s="19" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="D581" s="10">
         <v>283</v>
@@ -48602,7 +48602,7 @@
         <v>412</v>
       </c>
       <c r="C582" s="19" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="D582" s="10">
         <v>0</v>
@@ -48616,7 +48616,7 @@
         <v>413</v>
       </c>
       <c r="C583" s="19" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="D583" s="10">
         <v>0</v>
@@ -48630,7 +48630,7 @@
         <v>414</v>
       </c>
       <c r="C584" s="19" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="D584" s="10">
         <v>0</v>
@@ -48644,7 +48644,7 @@
         <v>415</v>
       </c>
       <c r="C585" s="19" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="D585" s="10">
         <v>284</v>
@@ -48659,7 +48659,7 @@
         <v>416</v>
       </c>
       <c r="C586" s="19" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="D586" s="10">
         <v>0</v>
@@ -48673,7 +48673,7 @@
         <v>417</v>
       </c>
       <c r="C587" s="19" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="D587" s="10">
         <v>0</v>
@@ -48687,7 +48687,7 @@
         <v>418</v>
       </c>
       <c r="C588" s="19" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D588" s="10">
         <v>0</v>
@@ -48701,7 +48701,7 @@
         <v>419</v>
       </c>
       <c r="C589" s="13" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D589" s="11">
         <v>285</v>
@@ -48715,7 +48715,7 @@
         <v>420</v>
       </c>
       <c r="C590" s="119" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="D590" s="115">
         <v>286</v>
@@ -48729,7 +48729,7 @@
         <v>421</v>
       </c>
       <c r="C591" s="119" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="D591" s="115">
         <v>287</v>
@@ -48743,7 +48743,7 @@
         <v>422</v>
       </c>
       <c r="C592" s="119" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="D592" s="115">
         <v>288</v>
@@ -48771,7 +48771,7 @@
         <v>424</v>
       </c>
       <c r="C594" s="119" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="D594" s="115">
         <v>290</v>
@@ -48785,7 +48785,7 @@
         <v>425</v>
       </c>
       <c r="C595" s="119" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="D595" s="115">
         <v>291</v>
@@ -48799,7 +48799,7 @@
         <v>426</v>
       </c>
       <c r="C596" s="119" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="D596" s="115">
         <v>292</v>
@@ -48813,7 +48813,7 @@
         <v>427</v>
       </c>
       <c r="C597" s="119" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="D597" s="115">
         <v>293</v>
@@ -48827,7 +48827,7 @@
         <v>428</v>
       </c>
       <c r="C598" s="13" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="D598" s="11">
         <v>294</v>
@@ -48949,7 +48949,7 @@
         <v>429</v>
       </c>
       <c r="C606" s="11" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="D606" s="11">
         <v>0</v>
@@ -49099,7 +49099,7 @@
         <v>439</v>
       </c>
       <c r="C616" s="123" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="D616" s="60">
         <v>304</v>
@@ -49114,7 +49114,7 @@
         <v>440</v>
       </c>
       <c r="C617" s="123" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="D617" s="60">
         <v>305</v>
@@ -49129,7 +49129,7 @@
         <v>441</v>
       </c>
       <c r="C618" s="123" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="D618" s="60">
         <v>0</v>
@@ -49253,7 +49253,7 @@
         <v>441</v>
       </c>
       <c r="C626" s="60" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="D626" s="60">
         <v>0</v>
@@ -52310,7 +52310,7 @@
         <v>681</v>
       </c>
       <c r="D137" s="25" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="E137" s="11">
         <v>2</v>
@@ -56131,7 +56131,7 @@
         <v>247</v>
       </c>
       <c r="C359" s="95" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="D359" s="94">
         <v>0</v>
@@ -56149,7 +56149,7 @@
         <v>248</v>
       </c>
       <c r="C360" s="13" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="D360" s="15" t="s">
         <v>969</v>
@@ -56223,7 +56223,7 @@
         <v>688</v>
       </c>
       <c r="D364" s="92" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="E364" s="91">
         <v>2</v>
@@ -56238,10 +56238,10 @@
         <v>253</v>
       </c>
       <c r="C365" s="19" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="D365" s="83" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="E365" s="10">
         <v>2</v>
@@ -56255,7 +56255,7 @@
         <v>254</v>
       </c>
       <c r="C366" s="19" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="D366" s="10">
         <v>3</v>
@@ -56272,7 +56272,7 @@
         <v>255</v>
       </c>
       <c r="C367" s="19" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="D367" s="10">
         <v>4</v>
@@ -56289,7 +56289,7 @@
         <v>256</v>
       </c>
       <c r="C368" s="19" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="D368" s="10">
         <v>5</v>
@@ -56309,7 +56309,7 @@
         <v>675</v>
       </c>
       <c r="D369" s="14" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="E369" s="29">
         <v>2</v>
@@ -56325,7 +56325,7 @@
         <v>258</v>
       </c>
       <c r="C370" s="13" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="D370" s="11">
         <v>5000000</v>
@@ -56342,7 +56342,7 @@
         <v>259</v>
       </c>
       <c r="C371" s="13" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="D371" s="13">
         <v>20</v>
@@ -56359,7 +56359,7 @@
         <v>259</v>
       </c>
       <c r="C372" s="13" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="D372" s="11">
         <v>100000</v>
@@ -56376,7 +56376,7 @@
         <v>260</v>
       </c>
       <c r="C373" s="13" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="D373" s="11">
         <v>480000</v>
@@ -56393,7 +56393,7 @@
         <v>261</v>
       </c>
       <c r="C374" s="13" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="D374" s="11">
         <v>960000</v>
@@ -56410,7 +56410,7 @@
         <v>262</v>
       </c>
       <c r="C375" s="13" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="D375" s="11">
         <v>10</v>
@@ -56427,10 +56427,10 @@
         <v>263</v>
       </c>
       <c r="C376" s="13" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D376" s="13" t="s">
         <v>1355</v>
-      </c>
-      <c r="D376" s="13" t="s">
-        <v>1356</v>
       </c>
       <c r="E376" s="11">
         <v>2</v>
@@ -56444,10 +56444,10 @@
         <v>264</v>
       </c>
       <c r="C377" s="13" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="D377" s="17" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E377" s="11">
         <v>2</v>
@@ -56461,7 +56461,7 @@
         <v>265</v>
       </c>
       <c r="C378" s="13" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="D378" s="11" t="s">
         <v>1163</v>
@@ -56478,10 +56478,10 @@
         <v>266</v>
       </c>
       <c r="C379" s="13" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="D379" s="11" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="E379" s="11">
         <v>2</v>
@@ -56495,10 +56495,10 @@
         <v>267</v>
       </c>
       <c r="C380" s="13" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="D380" s="11" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="E380" s="11">
         <v>2</v>
@@ -56512,7 +56512,7 @@
         <v>268</v>
       </c>
       <c r="C381" s="13" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="D381" s="11" t="s">
         <v>712</v>
@@ -56529,7 +56529,7 @@
         <v>269</v>
       </c>
       <c r="C382" s="13" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="D382" s="11" t="s">
         <v>712</v>
@@ -56546,10 +56546,10 @@
         <v>270</v>
       </c>
       <c r="C383" s="13" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="D383" s="11" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="E383" s="11">
         <v>2</v>
@@ -56563,10 +56563,10 @@
         <v>271</v>
       </c>
       <c r="C384" s="13" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="D384" s="11" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="E384" s="11">
         <v>2</v>
@@ -56580,10 +56580,10 @@
         <v>272</v>
       </c>
       <c r="C385" s="13" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="D385" s="11" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="E385" s="11">
         <v>2</v>
@@ -56600,7 +56600,7 @@
         <v>688</v>
       </c>
       <c r="D386" s="13" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="E386" s="11">
         <v>2</v>
@@ -56614,7 +56614,7 @@
         <v>273</v>
       </c>
       <c r="C387" s="13" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="D387" s="11">
         <v>500</v>
@@ -56634,7 +56634,7 @@
         <v>688</v>
       </c>
       <c r="D388" s="13" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="E388" s="11">
         <v>2</v>
@@ -56736,7 +56736,7 @@
         <v>859</v>
       </c>
       <c r="D394" s="15" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="E394" s="11">
         <v>2</v>
@@ -56750,7 +56750,7 @@
         <v>278</v>
       </c>
       <c r="C395" s="13" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="D395" s="11">
         <v>240000</v>
@@ -56767,7 +56767,7 @@
         <v>279</v>
       </c>
       <c r="C396" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="D396" s="11">
         <v>1</v>
@@ -56801,7 +56801,7 @@
         <v>280</v>
       </c>
       <c r="C398" s="13" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="D398" s="11">
         <v>9</v>
@@ -56818,7 +56818,7 @@
         <v>281</v>
       </c>
       <c r="C399" s="13" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="D399" s="11">
         <v>51</v>
@@ -56835,7 +56835,7 @@
         <v>282</v>
       </c>
       <c r="C400" s="13" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D400" s="11">
         <v>240000</v>
@@ -56852,10 +56852,10 @@
         <v>283</v>
       </c>
       <c r="C401" s="19" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="D401" s="83" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="E401" s="10">
         <v>2</v>
@@ -56873,7 +56873,7 @@
         <v>681</v>
       </c>
       <c r="D402" s="112" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="E402" s="10">
         <v>2</v>
@@ -56888,7 +56888,7 @@
         <v>285</v>
       </c>
       <c r="C403" s="19" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="D403" s="10">
         <v>30000</v>
@@ -56909,7 +56909,7 @@
         <v>700</v>
       </c>
       <c r="D404" s="119" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="E404" s="115">
         <v>2</v>
@@ -56927,7 +56927,7 @@
         <v>700</v>
       </c>
       <c r="D405" s="119" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="E405" s="115">
         <v>2</v>
@@ -56945,7 +56945,7 @@
         <v>700</v>
       </c>
       <c r="D406" s="119" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="E406" s="115">
         <v>2</v>
@@ -56960,10 +56960,10 @@
         <v>289</v>
       </c>
       <c r="C407" s="60" t="s">
+        <v>1528</v>
+      </c>
+      <c r="D407" s="64" t="s">
         <v>1529</v>
-      </c>
-      <c r="D407" s="64" t="s">
-        <v>1530</v>
       </c>
       <c r="E407" s="60">
         <v>2</v>
@@ -56977,7 +56977,7 @@
         <v>290</v>
       </c>
       <c r="C408" s="19" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="D408" s="10">
         <v>5000</v>
@@ -56995,7 +56995,7 @@
         <v>291</v>
       </c>
       <c r="C409" s="19" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="D409" s="10">
         <v>10000</v>
@@ -57012,7 +57012,7 @@
         <v>292</v>
       </c>
       <c r="C410" s="19" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="D410" s="10">
         <v>30000</v>
@@ -57029,7 +57029,7 @@
         <v>293</v>
       </c>
       <c r="C411" s="19" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="D411" s="10">
         <v>60000</v>
@@ -57046,7 +57046,7 @@
         <v>294</v>
       </c>
       <c r="C412" s="19" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="D412" s="10">
         <v>120000</v>
@@ -57063,7 +57063,7 @@
         <v>295</v>
       </c>
       <c r="C413" s="13" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="D413" s="11">
         <v>1</v>
@@ -57080,7 +57080,7 @@
         <v>296</v>
       </c>
       <c r="C414" s="13" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="D414" s="11">
         <v>2</v>
@@ -57097,7 +57097,7 @@
         <v>297</v>
       </c>
       <c r="C415" s="13" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="D415" s="11">
         <v>3</v>
@@ -57114,7 +57114,7 @@
         <v>298</v>
       </c>
       <c r="C416" s="13" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="D416" s="11">
         <v>4</v>
@@ -57131,7 +57131,7 @@
         <v>299</v>
       </c>
       <c r="C417" s="13" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="D417" s="11">
         <v>5</v>
@@ -57148,7 +57148,7 @@
         <v>300</v>
       </c>
       <c r="C418" s="13" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="D418" s="11">
         <v>111</v>
@@ -57165,7 +57165,7 @@
         <v>301</v>
       </c>
       <c r="C419" s="13" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="D419" s="11">
         <v>6</v>
@@ -57182,7 +57182,7 @@
         <v>302</v>
       </c>
       <c r="C420" s="13" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="D420" s="11">
         <v>108</v>
@@ -57199,7 +57199,7 @@
         <v>303</v>
       </c>
       <c r="C421" s="13" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="D421" s="11">
         <v>110</v>
@@ -57216,10 +57216,10 @@
         <v>304</v>
       </c>
       <c r="C422" s="13" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="D422" s="15" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="E422" s="11">
         <v>2</v>
@@ -57233,10 +57233,10 @@
         <v>304</v>
       </c>
       <c r="C423" s="13" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="D423" s="13" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="E423" s="11">
         <v>2</v>
@@ -57250,10 +57250,10 @@
         <v>305</v>
       </c>
       <c r="C424" s="11" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="D424" s="11" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="E424" s="11">
         <v>2</v>
@@ -57424,11 +57424,11 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:W949"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C919" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D952" sqref="D952"/>
+      <selection pane="bottomRight" activeCell="C950" sqref="C950"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -63328,7 +63328,7 @@
       </c>
       <c r="C266" s="10"/>
       <c r="D266" s="19" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="E266" s="10">
         <v>10</v>
@@ -63370,7 +63370,7 @@
       </c>
       <c r="C268" s="78"/>
       <c r="D268" s="77" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="E268" s="78">
         <v>10</v>
@@ -63391,7 +63391,7 @@
       </c>
       <c r="C269" s="78"/>
       <c r="D269" s="77" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="E269" s="78">
         <v>10</v>
@@ -69875,7 +69875,7 @@
       </c>
       <c r="C591" s="13"/>
       <c r="D591" s="13" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="E591" s="11">
         <v>88</v>
@@ -71528,7 +71528,7 @@
       </c>
       <c r="C670" s="11"/>
       <c r="D670" s="13" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E670" s="11">
         <v>12000</v>
@@ -73664,7 +73664,7 @@
       </c>
       <c r="C774" s="11"/>
       <c r="D774" s="13" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="E774" s="11">
         <v>10</v>
@@ -73685,10 +73685,10 @@
       </c>
       <c r="C775" s="10"/>
       <c r="D775" s="19" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E775" s="83" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="F775" s="10">
         <v>50</v>
@@ -73704,10 +73704,10 @@
       </c>
       <c r="C776" s="10"/>
       <c r="D776" s="19" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E776" s="83" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="F776" s="10">
         <v>30</v>
@@ -73725,10 +73725,10 @@
       </c>
       <c r="C777" s="10"/>
       <c r="D777" s="19" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E777" s="83" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="F777" s="10">
         <v>20</v>
@@ -73746,10 +73746,10 @@
       </c>
       <c r="C778" s="10"/>
       <c r="D778" s="19" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E778" s="83" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="F778" s="10">
         <v>50</v>
@@ -73764,10 +73764,10 @@
       </c>
       <c r="C779" s="10"/>
       <c r="D779" s="19" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E779" s="83" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="F779" s="10">
         <v>30</v>
@@ -73782,10 +73782,10 @@
       </c>
       <c r="C780" s="10"/>
       <c r="D780" s="19" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E780" s="83" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="F780" s="10">
         <v>20</v>
@@ -73800,10 +73800,10 @@
       </c>
       <c r="C781" s="10"/>
       <c r="D781" s="19" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E781" s="83" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="F781" s="10">
         <v>50</v>
@@ -73818,10 +73818,10 @@
       </c>
       <c r="C782" s="10"/>
       <c r="D782" s="19" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E782" s="83" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="F782" s="10">
         <v>30</v>
@@ -73836,10 +73836,10 @@
       </c>
       <c r="C783" s="10"/>
       <c r="D783" s="19" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E783" s="83" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="F783" s="10">
         <v>20</v>
@@ -73854,10 +73854,10 @@
       </c>
       <c r="C784" s="10"/>
       <c r="D784" s="19" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E784" s="83" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="F784" s="10">
         <v>25</v>
@@ -73872,10 +73872,10 @@
       </c>
       <c r="C785" s="10"/>
       <c r="D785" s="19" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E785" s="83" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="F785" s="10">
         <v>50</v>
@@ -73890,10 +73890,10 @@
       </c>
       <c r="C786" s="10"/>
       <c r="D786" s="19" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E786" s="83" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="F786" s="10">
         <v>25</v>
@@ -73908,10 +73908,10 @@
       </c>
       <c r="C787" s="10"/>
       <c r="D787" s="19" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E787" s="83" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="F787" s="10">
         <v>25</v>
@@ -73926,10 +73926,10 @@
       </c>
       <c r="C788" s="10"/>
       <c r="D788" s="19" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E788" s="83" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="F788" s="10">
         <v>50</v>
@@ -73944,7 +73944,7 @@
       </c>
       <c r="C789" s="10"/>
       <c r="D789" s="19" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E789" s="83">
         <v>150</v>
@@ -73962,7 +73962,7 @@
       </c>
       <c r="C790" s="10"/>
       <c r="D790" s="19" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E790" s="9">
         <v>400</v>
@@ -73980,7 +73980,7 @@
       </c>
       <c r="C791" s="10"/>
       <c r="D791" s="19" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E791" s="9">
         <v>500</v>
@@ -73998,7 +73998,7 @@
       </c>
       <c r="C792" s="10"/>
       <c r="D792" s="19" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E792" s="9">
         <v>600</v>
@@ -74016,7 +74016,7 @@
       </c>
       <c r="C793" s="10"/>
       <c r="D793" s="19" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E793" s="9">
         <v>100</v>
@@ -74034,7 +74034,7 @@
       </c>
       <c r="C794" s="10"/>
       <c r="D794" s="19" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E794" s="9">
         <v>300</v>
@@ -74052,7 +74052,7 @@
       </c>
       <c r="C795" s="10"/>
       <c r="D795" s="19" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E795" s="9">
         <v>500</v>
@@ -74070,7 +74070,7 @@
       </c>
       <c r="C796" s="10"/>
       <c r="D796" s="19" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E796" s="9">
         <v>500</v>
@@ -74088,7 +74088,7 @@
       </c>
       <c r="C797" s="10"/>
       <c r="D797" s="19" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E797" s="9">
         <v>1000</v>
@@ -74106,7 +74106,7 @@
       </c>
       <c r="C798" s="10"/>
       <c r="D798" s="19" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E798" s="9">
         <v>1500</v>
@@ -74124,7 +74124,7 @@
       </c>
       <c r="C799" s="10"/>
       <c r="D799" s="19" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E799" s="9">
         <v>4000</v>
@@ -74142,7 +74142,7 @@
       </c>
       <c r="C800" s="10"/>
       <c r="D800" s="19" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E800" s="9">
         <v>5000</v>
@@ -74160,7 +74160,7 @@
       </c>
       <c r="C801" s="10"/>
       <c r="D801" s="19" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E801" s="9">
         <v>6000</v>
@@ -74178,7 +74178,7 @@
       </c>
       <c r="C802" s="10"/>
       <c r="D802" s="19" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E802" s="9">
         <v>1000</v>
@@ -74196,7 +74196,7 @@
       </c>
       <c r="C803" s="10"/>
       <c r="D803" s="19" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E803" s="9">
         <v>3000</v>
@@ -74214,7 +74214,7 @@
       </c>
       <c r="C804" s="10"/>
       <c r="D804" s="19" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E804" s="9">
         <v>5000</v>
@@ -74232,7 +74232,7 @@
       </c>
       <c r="C805" s="10"/>
       <c r="D805" s="19" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E805" s="9">
         <v>5000</v>
@@ -74250,7 +74250,7 @@
       </c>
       <c r="C806" s="10"/>
       <c r="D806" s="19" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E806" s="9">
         <v>10000</v>
@@ -74268,7 +74268,7 @@
       </c>
       <c r="C807" s="10"/>
       <c r="D807" s="19" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E807" s="9">
         <v>15000</v>
@@ -74286,7 +74286,7 @@
       </c>
       <c r="C808" s="10"/>
       <c r="D808" s="19" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E808" s="9">
         <v>40000</v>
@@ -74304,7 +74304,7 @@
       </c>
       <c r="C809" s="10"/>
       <c r="D809" s="19" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E809" s="9">
         <v>50000</v>
@@ -74322,7 +74322,7 @@
       </c>
       <c r="C810" s="10"/>
       <c r="D810" s="19" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E810" s="9">
         <v>60000</v>
@@ -74340,10 +74340,10 @@
       </c>
       <c r="C811" s="11"/>
       <c r="D811" s="13" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="E811" s="27" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="F811" s="11">
         <v>1</v>
@@ -74361,10 +74361,10 @@
       </c>
       <c r="C812" s="11"/>
       <c r="D812" s="13" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="E812" s="15" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="F812" s="11">
         <v>1</v>
@@ -74382,7 +74382,7 @@
       </c>
       <c r="C813" s="11"/>
       <c r="D813" s="13" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="E813" s="27">
         <v>1</v>
@@ -74403,7 +74403,7 @@
       </c>
       <c r="C814" s="11"/>
       <c r="D814" s="13" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="E814" s="27">
         <v>400</v>
@@ -74424,7 +74424,7 @@
       </c>
       <c r="C815" s="11"/>
       <c r="D815" s="13" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="E815" s="27">
         <v>1</v>
@@ -74487,7 +74487,7 @@
       </c>
       <c r="C818" s="11"/>
       <c r="D818" s="13" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="E818" s="27">
         <v>200</v>
@@ -74571,7 +74571,7 @@
       </c>
       <c r="C822" s="11"/>
       <c r="D822" s="87" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="E822" s="27">
         <v>3500</v>
@@ -74613,7 +74613,7 @@
       </c>
       <c r="C824" s="11"/>
       <c r="D824" s="13" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="E824" s="27">
         <v>14000</v>
@@ -74633,7 +74633,7 @@
         <v>592</v>
       </c>
       <c r="C825" s="13" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="D825" s="11"/>
       <c r="E825" s="27"/>
@@ -74654,7 +74654,7 @@
         <v>593</v>
       </c>
       <c r="C826" s="13" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="D826" s="11"/>
       <c r="E826" s="27"/>
@@ -74675,7 +74675,7 @@
         <v>594</v>
       </c>
       <c r="C827" s="13" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="D827" s="11"/>
       <c r="E827" s="27"/>
@@ -74696,7 +74696,7 @@
         <v>595</v>
       </c>
       <c r="C828" s="13" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="D828" s="11"/>
       <c r="E828" s="27"/>
@@ -74717,7 +74717,7 @@
         <v>596</v>
       </c>
       <c r="C829" s="13" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="D829" s="11"/>
       <c r="E829" s="27"/>
@@ -74738,7 +74738,7 @@
         <v>597</v>
       </c>
       <c r="C830" s="13" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="D830" s="11"/>
       <c r="E830" s="27"/>
@@ -74777,7 +74777,7 @@
       </c>
       <c r="C832" s="29"/>
       <c r="D832" s="14" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="E832" s="29">
         <v>1</v>
@@ -74798,7 +74798,7 @@
       </c>
       <c r="C833" s="29"/>
       <c r="D833" s="14" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="E833" s="29">
         <v>1</v>
@@ -74835,7 +74835,7 @@
         <v>599</v>
       </c>
       <c r="D835" s="14" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="E835" s="29">
         <v>1</v>
@@ -74852,7 +74852,7 @@
         <v>599</v>
       </c>
       <c r="D836" s="14" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="E836" s="29">
         <v>1</v>
@@ -74886,7 +74886,7 @@
         <v>600</v>
       </c>
       <c r="D838" s="14" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="E838" s="29">
         <v>1</v>
@@ -74903,7 +74903,7 @@
         <v>600</v>
       </c>
       <c r="D839" s="14" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="E839" s="29">
         <v>1</v>
@@ -74937,7 +74937,7 @@
         <v>601</v>
       </c>
       <c r="D841" s="14" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="E841" s="29">
         <v>2</v>
@@ -74954,7 +74954,7 @@
         <v>601</v>
       </c>
       <c r="D842" s="14" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="E842" s="29">
         <v>2</v>
@@ -74988,7 +74988,7 @@
         <v>602</v>
       </c>
       <c r="D844" s="14" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="E844" s="29">
         <v>2</v>
@@ -75005,7 +75005,7 @@
         <v>602</v>
       </c>
       <c r="D845" s="14" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="E845" s="29">
         <v>2</v>
@@ -75039,7 +75039,7 @@
         <v>603</v>
       </c>
       <c r="D847" s="14" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="E847" s="29">
         <v>2</v>
@@ -75056,7 +75056,7 @@
         <v>603</v>
       </c>
       <c r="D848" s="14" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="E848" s="29">
         <v>2</v>
@@ -75090,7 +75090,7 @@
         <v>604</v>
       </c>
       <c r="D850" s="14" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="E850" s="29">
         <v>3</v>
@@ -75107,7 +75107,7 @@
         <v>604</v>
       </c>
       <c r="D851" s="14" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="E851" s="29">
         <v>3</v>
@@ -75141,7 +75141,7 @@
         <v>605</v>
       </c>
       <c r="D853" s="14" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="E853" s="29">
         <v>3</v>
@@ -75158,7 +75158,7 @@
         <v>605</v>
       </c>
       <c r="D854" s="14" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="E854" s="29">
         <v>3</v>
@@ -75192,7 +75192,7 @@
         <v>606</v>
       </c>
       <c r="D856" s="14" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="E856" s="29">
         <v>3</v>
@@ -75209,7 +75209,7 @@
         <v>606</v>
       </c>
       <c r="D857" s="14" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="E857" s="29">
         <v>3</v>
@@ -75243,7 +75243,7 @@
         <v>607</v>
       </c>
       <c r="D859" s="14" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="E859" s="29">
         <v>5</v>
@@ -75260,7 +75260,7 @@
         <v>607</v>
       </c>
       <c r="D860" s="14" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="E860" s="29">
         <v>5</v>
@@ -75294,7 +75294,7 @@
         <v>608</v>
       </c>
       <c r="D862" s="14" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="E862" s="29">
         <v>5</v>
@@ -75311,7 +75311,7 @@
         <v>608</v>
       </c>
       <c r="D863" s="14" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="E863" s="29">
         <v>5</v>
@@ -75345,7 +75345,7 @@
         <v>609</v>
       </c>
       <c r="D865" s="14" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="E865" s="29">
         <v>5</v>
@@ -75362,7 +75362,7 @@
         <v>609</v>
       </c>
       <c r="D866" s="14" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="E866" s="29">
         <v>5</v>
@@ -75379,7 +75379,7 @@
         <v>610</v>
       </c>
       <c r="C867" s="14" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="F867" s="29">
         <v>1</v>
@@ -75394,7 +75394,7 @@
       </c>
       <c r="C868" s="29"/>
       <c r="D868" s="14" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="E868" s="29">
         <v>9800000</v>
@@ -75411,7 +75411,7 @@
         <v>611</v>
       </c>
       <c r="C869" s="14" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="F869" s="29">
         <v>1</v>
@@ -75426,7 +75426,7 @@
       </c>
       <c r="C870" s="29"/>
       <c r="D870" s="14" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="E870" s="29">
         <v>4800000</v>
@@ -75443,7 +75443,7 @@
         <v>612</v>
       </c>
       <c r="D871" s="14" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="E871" s="29">
         <v>4800000</v>
@@ -75460,7 +75460,7 @@
         <v>613</v>
       </c>
       <c r="D872" s="14" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="E872" s="29">
         <v>1800000</v>
@@ -75477,7 +75477,7 @@
         <v>614</v>
       </c>
       <c r="D873" s="14" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="E873" s="29">
         <v>800000</v>
@@ -75494,7 +75494,7 @@
         <v>615</v>
       </c>
       <c r="D874" s="14" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="E874" s="29">
         <v>888888</v>
@@ -75511,7 +75511,7 @@
         <v>616</v>
       </c>
       <c r="D875" s="14" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="E875" s="29">
         <v>588888</v>
@@ -75528,7 +75528,7 @@
         <v>617</v>
       </c>
       <c r="D876" s="14" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="E876" s="29">
         <v>388888</v>
@@ -75545,7 +75545,7 @@
         <v>618</v>
       </c>
       <c r="D877" s="14" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="E877" s="29">
         <v>188888</v>
@@ -75562,7 +75562,7 @@
         <v>619</v>
       </c>
       <c r="D878" s="14" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="E878" s="1">
         <v>10000</v>
@@ -75582,7 +75582,7 @@
         <v>620</v>
       </c>
       <c r="D879" s="14" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="E879" s="1">
         <v>20000</v>
@@ -75599,7 +75599,7 @@
         <v>621</v>
       </c>
       <c r="D880" s="14" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="E880" s="1">
         <v>30000</v>
@@ -75619,7 +75619,7 @@
         <v>622</v>
       </c>
       <c r="D881" s="14" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="E881" s="1">
         <v>10000</v>
@@ -75636,7 +75636,7 @@
         <v>623</v>
       </c>
       <c r="D882" s="14" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="E882" s="1">
         <v>20000</v>
@@ -75653,7 +75653,7 @@
         <v>624</v>
       </c>
       <c r="D883" s="14" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="E883" s="1">
         <v>30000</v>
@@ -75670,7 +75670,7 @@
         <v>625</v>
       </c>
       <c r="D884" s="14" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="E884" s="1">
         <v>50</v>
@@ -75687,7 +75687,7 @@
         <v>626</v>
       </c>
       <c r="D885" s="14" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="E885" s="1">
         <v>1</v>
@@ -75704,7 +75704,7 @@
         <v>627</v>
       </c>
       <c r="D886" s="14" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="E886" s="29">
         <v>1</v>
@@ -75721,7 +75721,7 @@
         <v>628</v>
       </c>
       <c r="D887" s="14" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="E887" s="29">
         <v>1</v>
@@ -75739,7 +75739,7 @@
       </c>
       <c r="C888" s="29"/>
       <c r="D888" s="14" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="E888" s="29">
         <v>1</v>
@@ -75760,7 +75760,7 @@
       </c>
       <c r="C889" s="29"/>
       <c r="D889" s="14" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="E889" s="29">
         <v>1000</v>
@@ -75800,7 +75800,7 @@
         <v>632</v>
       </c>
       <c r="D891" s="13" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="E891" s="1">
         <v>100</v>
@@ -75818,7 +75818,7 @@
       </c>
       <c r="C892" s="29"/>
       <c r="D892" s="13" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="E892" s="29">
         <v>100</v>
@@ -75838,7 +75838,7 @@
         <v>633</v>
       </c>
       <c r="D893" s="13" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="E893" s="29">
         <v>300</v>
@@ -75856,7 +75856,7 @@
       </c>
       <c r="C894" s="29"/>
       <c r="D894" s="13" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="E894" s="29">
         <v>300</v>
@@ -75876,7 +75876,7 @@
         <v>634</v>
       </c>
       <c r="D895" s="13" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="E895" s="29">
         <v>900</v>
@@ -75894,7 +75894,7 @@
       </c>
       <c r="C896" s="29"/>
       <c r="D896" s="13" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="E896" s="29">
         <v>900</v>
@@ -75914,7 +75914,7 @@
         <v>635</v>
       </c>
       <c r="D897" s="13" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="E897" s="29">
         <v>3000</v>
@@ -75932,7 +75932,7 @@
       </c>
       <c r="C898" s="29"/>
       <c r="D898" s="13" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="E898" s="29">
         <v>3000</v>
@@ -75952,7 +75952,7 @@
         <v>636</v>
       </c>
       <c r="D899" s="13" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="E899" s="29">
         <v>8400</v>
@@ -75970,7 +75970,7 @@
       </c>
       <c r="C900" s="29"/>
       <c r="D900" s="13" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="E900" s="29">
         <v>8400</v>
@@ -75991,7 +75991,7 @@
       </c>
       <c r="C901" s="11"/>
       <c r="D901" s="13" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="E901" s="11">
         <v>1</v>
@@ -76012,7 +76012,7 @@
       </c>
       <c r="C902" s="11"/>
       <c r="D902" s="13" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="E902" s="11">
         <v>1</v>
@@ -76033,7 +76033,7 @@
       </c>
       <c r="C903" s="11"/>
       <c r="D903" s="13" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="E903" s="11">
         <v>4</v>
@@ -76054,7 +76054,7 @@
       </c>
       <c r="C904" s="11"/>
       <c r="D904" s="13" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="E904" s="11">
         <v>4</v>
@@ -76075,7 +76075,7 @@
       </c>
       <c r="C905" s="11"/>
       <c r="D905" s="13" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="E905" s="11">
         <v>9</v>
@@ -76096,7 +76096,7 @@
       </c>
       <c r="C906" s="11"/>
       <c r="D906" s="13" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="E906" s="11">
         <v>9</v>
@@ -76117,7 +76117,7 @@
       </c>
       <c r="C907" s="11"/>
       <c r="D907" s="13" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="E907" s="11">
         <v>18</v>
@@ -76138,7 +76138,7 @@
       </c>
       <c r="C908" s="11"/>
       <c r="D908" s="13" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="E908" s="11">
         <v>18</v>
@@ -76159,7 +76159,7 @@
       </c>
       <c r="C909" s="11"/>
       <c r="D909" s="13" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="E909" s="11">
         <v>30</v>
@@ -76180,7 +76180,7 @@
       </c>
       <c r="C910" s="11"/>
       <c r="D910" s="13" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="E910" s="11">
         <v>30</v>
@@ -76201,7 +76201,7 @@
       </c>
       <c r="C911" s="11"/>
       <c r="D911" s="13" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="E911" s="11">
         <v>58</v>
@@ -76222,7 +76222,7 @@
       </c>
       <c r="C912" s="11"/>
       <c r="D912" s="13" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="E912" s="11">
         <v>58</v>
@@ -76243,7 +76243,7 @@
       </c>
       <c r="C913" s="11"/>
       <c r="D913" s="13" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="E913" s="11">
         <v>118</v>
@@ -76264,7 +76264,7 @@
       </c>
       <c r="C914" s="11"/>
       <c r="D914" s="13" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="E914" s="11">
         <v>118</v>
@@ -76285,7 +76285,7 @@
       </c>
       <c r="C915" s="11"/>
       <c r="D915" s="13" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="E915" s="11">
         <v>298</v>
@@ -76306,7 +76306,7 @@
       </c>
       <c r="C916" s="11"/>
       <c r="D916" s="13" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="E916" s="11">
         <v>298</v>
@@ -76327,7 +76327,7 @@
       </c>
       <c r="C917" s="11"/>
       <c r="D917" s="13" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="E917" s="11">
         <v>598</v>
@@ -76348,7 +76348,7 @@
       </c>
       <c r="C918" s="11"/>
       <c r="D918" s="13" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="E918" s="11">
         <v>598</v>
@@ -76369,7 +76369,7 @@
       </c>
       <c r="C919" s="11"/>
       <c r="D919" s="13" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="E919" s="11">
         <v>1498</v>
@@ -76390,7 +76390,7 @@
       </c>
       <c r="C920" s="11"/>
       <c r="D920" s="13" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="E920" s="11">
         <v>1498</v>
@@ -76453,7 +76453,7 @@
       </c>
       <c r="C923" s="11"/>
       <c r="D923" s="13" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="E923" s="11">
         <v>2</v>
@@ -76474,7 +76474,7 @@
       </c>
       <c r="C924" s="11"/>
       <c r="D924" s="13" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="E924" s="11">
         <v>5</v>
@@ -76495,7 +76495,7 @@
       </c>
       <c r="C925" s="11"/>
       <c r="D925" s="13" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="E925" s="11">
         <v>40</v>
@@ -76516,7 +76516,7 @@
       </c>
       <c r="C926" s="11"/>
       <c r="D926" s="13" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="E926" s="11">
         <v>100</v>
@@ -76537,7 +76537,7 @@
       </c>
       <c r="C927" s="11"/>
       <c r="D927" s="13" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="E927" s="11">
         <v>150</v>
@@ -76558,7 +76558,7 @@
       </c>
       <c r="C928" s="11"/>
       <c r="D928" s="13" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="E928" s="11">
         <v>300</v>
@@ -76579,7 +76579,7 @@
       </c>
       <c r="C929" s="11"/>
       <c r="D929" s="13" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="E929" s="11">
         <v>400</v>
@@ -76600,7 +76600,7 @@
       </c>
       <c r="C930" s="11"/>
       <c r="D930" s="13" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="E930" s="11">
         <v>1000</v>
@@ -76621,7 +76621,7 @@
       </c>
       <c r="C931" s="11"/>
       <c r="D931" s="13" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="E931" s="11">
         <v>2000</v>
@@ -76642,7 +76642,7 @@
       </c>
       <c r="C932" s="11"/>
       <c r="D932" s="13" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="E932" s="11">
         <v>3500</v>
@@ -76663,7 +76663,7 @@
       </c>
       <c r="C933" s="11"/>
       <c r="D933" s="13" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="E933" s="11">
         <v>17000</v>
@@ -76684,7 +76684,7 @@
       </c>
       <c r="C934" s="11"/>
       <c r="D934" s="13" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="E934" s="11">
         <v>32500</v>
@@ -76705,7 +76705,7 @@
       </c>
       <c r="C935" s="11"/>
       <c r="D935" s="13" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="E935" s="11">
         <v>30</v>
@@ -76726,7 +76726,7 @@
       </c>
       <c r="C936" s="11"/>
       <c r="D936" s="13" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="E936" s="11">
         <v>180</v>
@@ -76747,7 +76747,7 @@
       </c>
       <c r="C937" s="11"/>
       <c r="D937" s="13" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="E937" s="11">
         <v>700</v>
@@ -76768,7 +76768,7 @@
       </c>
       <c r="C938" s="11"/>
       <c r="D938" s="13" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="E938" s="11">
         <v>1500</v>
@@ -76789,7 +76789,7 @@
       </c>
       <c r="C939" s="11"/>
       <c r="D939" s="13" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="E939" s="11">
         <v>10000</v>
@@ -76810,7 +76810,7 @@
       </c>
       <c r="C940" s="60"/>
       <c r="D940" s="85" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
       <c r="E940" s="60">
         <v>1</v>
@@ -76828,7 +76828,7 @@
       </c>
       <c r="C941" s="60"/>
       <c r="D941" s="85" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
       <c r="E941" s="60">
         <v>5</v>
@@ -76846,7 +76846,7 @@
       </c>
       <c r="C942" s="60"/>
       <c r="D942" s="85" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
       <c r="E942" s="60">
         <v>12</v>
@@ -76864,7 +76864,7 @@
       </c>
       <c r="C943" s="60"/>
       <c r="D943" s="85" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
       <c r="E943" s="60">
         <v>25</v>
@@ -76882,7 +76882,7 @@
       </c>
       <c r="C944" s="60"/>
       <c r="D944" s="85" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
       <c r="E944" s="60">
         <v>38</v>
@@ -76900,7 +76900,7 @@
       </c>
       <c r="C945" s="60"/>
       <c r="D945" s="85" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
       <c r="E945" s="60">
         <v>78</v>
@@ -76918,7 +76918,7 @@
       </c>
       <c r="C946" s="60"/>
       <c r="D946" s="85" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
       <c r="E946" s="60">
         <v>158</v>
@@ -76936,7 +76936,7 @@
       </c>
       <c r="C947" s="60"/>
       <c r="D947" s="85" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
       <c r="E947" s="60">
         <v>398</v>
@@ -76954,7 +76954,7 @@
       </c>
       <c r="C948" s="60"/>
       <c r="D948" s="85" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
       <c r="E948" s="60">
         <v>798</v>
@@ -76972,7 +76972,7 @@
       </c>
       <c r="C949" s="60"/>
       <c r="D949" s="85" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
       <c r="E949" s="60">
         <v>1998</v>

--- a/config_debug/task_zajindan_server.xlsx
+++ b/config_debug/task_zajindan_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_9.15\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5706" uniqueCount="1644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5766" uniqueCount="1654">
   <si>
     <t>id|任务id</t>
   </si>
@@ -7052,10 +7052,6 @@
     <t>buyu_3d_spend</t>
   </si>
   <si>
-    <t>buyu_3d_spend</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>fish_game_id</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -9923,6 +9919,50 @@
       </rPr>
       <t>爱心</t>
     </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyu_3d_spend</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>开炮送红包-街机</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>开炮送红包-街机</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>浅水湾</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>深海寻宝</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>地底遗迹</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>676,677,678</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>679,680,681</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>682,683,684</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyu_spend</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyu_2d_leiji_dapao_new_task</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -10810,13 +10850,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:T456"/>
+  <dimension ref="A1:T459"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="E425" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="E431" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G435" sqref="G435"/>
+      <selection pane="bottomRight" activeCell="F459" sqref="F459"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10851,7 +10891,7 @@
         <v>1038</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>3</v>
@@ -14415,7 +14455,7 @@
         <v>0</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="D86" s="16" t="s">
         <v>131</v>
@@ -14453,7 +14493,7 @@
         <v>0</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="D87" s="16" t="s">
         <v>133</v>
@@ -14491,7 +14531,7 @@
         <v>0</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="D88" s="16" t="s">
         <v>134</v>
@@ -14529,7 +14569,7 @@
         <v>0</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="D89" s="16" t="s">
         <v>135</v>
@@ -14567,7 +14607,7 @@
         <v>0</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="D90" s="16" t="s">
         <v>136</v>
@@ -14605,7 +14645,7 @@
         <v>0</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="D91" s="16" t="s">
         <v>137</v>
@@ -14643,7 +14683,7 @@
         <v>0</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="D92" s="16" t="s">
         <v>138</v>
@@ -14681,7 +14721,7 @@
         <v>0</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="D93" s="16" t="s">
         <v>139</v>
@@ -14719,7 +14759,7 @@
         <v>0</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="D94" s="16" t="s">
         <v>140</v>
@@ -14757,7 +14797,7 @@
         <v>0</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="D95" s="16" t="s">
         <v>141</v>
@@ -14795,7 +14835,7 @@
         <v>0</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="D96" s="16" t="s">
         <v>142</v>
@@ -14833,7 +14873,7 @@
         <v>0</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="D97" s="16" t="s">
         <v>143</v>
@@ -14871,7 +14911,7 @@
         <v>0</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="D98" s="16" t="s">
         <v>144</v>
@@ -14909,7 +14949,7 @@
         <v>0</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="D99" s="16" t="s">
         <v>145</v>
@@ -14947,7 +14987,7 @@
         <v>0</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="D100" s="16" t="s">
         <v>146</v>
@@ -14985,7 +15025,7 @@
         <v>0</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="D101" s="16" t="s">
         <v>147</v>
@@ -15023,7 +15063,7 @@
         <v>0</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="D102" s="16" t="s">
         <v>148</v>
@@ -15061,7 +15101,7 @@
         <v>0</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="D103" s="16" t="s">
         <v>149</v>
@@ -15099,7 +15139,7 @@
         <v>0</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="D104" s="16" t="s">
         <v>150</v>
@@ -15137,7 +15177,7 @@
         <v>0</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="D105" s="16" t="s">
         <v>151</v>
@@ -15175,7 +15215,7 @@
         <v>0</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="D106" s="16" t="s">
         <v>152</v>
@@ -15213,7 +15253,7 @@
         <v>0</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="D107" s="16" t="s">
         <v>153</v>
@@ -15251,7 +15291,7 @@
         <v>0</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="D108" s="16" t="s">
         <v>154</v>
@@ -15289,7 +15329,7 @@
         <v>0</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="D109" s="16" t="s">
         <v>155</v>
@@ -15327,7 +15367,7 @@
         <v>0</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="D110" s="16" t="s">
         <v>156</v>
@@ -15365,7 +15405,7 @@
         <v>0</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="D111" s="16" t="s">
         <v>157</v>
@@ -15403,7 +15443,7 @@
         <v>0</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="D112" s="16" t="s">
         <v>158</v>
@@ -15441,7 +15481,7 @@
         <v>0</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="D113" s="16" t="s">
         <v>159</v>
@@ -15479,7 +15519,7 @@
         <v>0</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="D114" s="16" t="s">
         <v>160</v>
@@ -15517,7 +15557,7 @@
         <v>0</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="D115" s="16" t="s">
         <v>161</v>
@@ -15555,7 +15595,7 @@
         <v>0</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="D116" s="16" t="s">
         <v>162</v>
@@ -15593,7 +15633,7 @@
         <v>0</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="D117" s="16" t="s">
         <v>163</v>
@@ -15631,7 +15671,7 @@
         <v>0</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="D118" s="16" t="s">
         <v>164</v>
@@ -15669,7 +15709,7 @@
         <v>0</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="D119" s="16" t="s">
         <v>165</v>
@@ -15707,7 +15747,7 @@
         <v>0</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="D120" s="16" t="s">
         <v>166</v>
@@ -15745,7 +15785,7 @@
         <v>0</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="D121" s="16" t="s">
         <v>167</v>
@@ -17952,10 +17992,10 @@
         <v>1182</v>
       </c>
       <c r="D179" s="84" t="s">
+        <v>1213</v>
+      </c>
+      <c r="E179" s="84" t="s">
         <v>1214</v>
-      </c>
-      <c r="E179" s="84" t="s">
-        <v>1215</v>
       </c>
       <c r="F179" s="84" t="s">
         <v>13</v>
@@ -18186,7 +18226,7 @@
         <v>1182</v>
       </c>
       <c r="D185" s="84" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="E185" s="84" t="s">
         <v>132</v>
@@ -18225,7 +18265,7 @@
         <v>1182</v>
       </c>
       <c r="D186" s="84" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="E186" s="84" t="s">
         <v>132</v>
@@ -18264,7 +18304,7 @@
         <v>1182</v>
       </c>
       <c r="D187" s="84" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="E187" s="84" t="s">
         <v>132</v>
@@ -18303,7 +18343,7 @@
         <v>1182</v>
       </c>
       <c r="D188" s="84" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="E188" s="84" t="s">
         <v>132</v>
@@ -18342,7 +18382,7 @@
         <v>1182</v>
       </c>
       <c r="D189" s="84" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="E189" s="84" t="s">
         <v>132</v>
@@ -18381,7 +18421,7 @@
         <v>1182</v>
       </c>
       <c r="D190" s="84" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="E190" s="84" t="s">
         <v>132</v>
@@ -18420,7 +18460,7 @@
         <v>1182</v>
       </c>
       <c r="D191" s="84" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="E191" s="84" t="s">
         <v>132</v>
@@ -18497,7 +18537,7 @@
         <v>237</v>
       </c>
       <c r="D193" s="51" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="E193" s="51" t="s">
         <v>239</v>
@@ -18573,7 +18613,7 @@
         <v>237</v>
       </c>
       <c r="D195" s="51" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="E195" s="51" t="s">
         <v>239</v>
@@ -18611,7 +18651,7 @@
         <v>237</v>
       </c>
       <c r="D196" s="51" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="E196" s="51" t="s">
         <v>239</v>
@@ -18649,7 +18689,7 @@
         <v>237</v>
       </c>
       <c r="D197" s="51" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="E197" s="51" t="s">
         <v>239</v>
@@ -18687,7 +18727,7 @@
         <v>237</v>
       </c>
       <c r="D198" s="51" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="E198" s="51" t="s">
         <v>239</v>
@@ -24691,7 +24731,7 @@
         <v>1131</v>
       </c>
       <c r="D356" s="16" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="E356" s="16" t="s">
         <v>1126</v>
@@ -25144,16 +25184,16 @@
         <v>1</v>
       </c>
       <c r="C368" s="98" t="s">
+        <v>1490</v>
+      </c>
+      <c r="D368" s="99" t="s">
         <v>1491</v>
-      </c>
-      <c r="D368" s="99" t="s">
-        <v>1492</v>
       </c>
       <c r="E368" s="98" t="s">
         <v>12</v>
       </c>
       <c r="F368" s="98" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="G368" s="97">
         <v>21315</v>
@@ -25182,16 +25222,16 @@
         <v>1</v>
       </c>
       <c r="C369" s="98" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D369" s="99" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="E369" s="98" t="s">
         <v>12</v>
       </c>
       <c r="F369" s="98" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="G369" s="97">
         <v>21316</v>
@@ -25220,16 +25260,16 @@
         <v>1</v>
       </c>
       <c r="C370" s="98" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D370" s="98" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="E370" s="98" t="s">
         <v>12</v>
       </c>
       <c r="F370" s="98" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="G370" s="97">
         <v>21317</v>
@@ -25258,16 +25298,16 @@
         <v>1</v>
       </c>
       <c r="C371" s="98" t="s">
+        <v>1495</v>
+      </c>
+      <c r="D371" s="98" t="s">
         <v>1496</v>
-      </c>
-      <c r="D371" s="98" t="s">
-        <v>1497</v>
       </c>
       <c r="E371" s="98" t="s">
         <v>12</v>
       </c>
       <c r="F371" s="98" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="G371" s="97">
         <v>21318</v>
@@ -25296,16 +25336,16 @@
         <v>1</v>
       </c>
       <c r="C372" s="98" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D372" s="98" t="s">
         <v>1237</v>
       </c>
-      <c r="D372" s="98" t="s">
+      <c r="E372" s="98" t="s">
         <v>1238</v>
       </c>
-      <c r="E372" s="98" t="s">
+      <c r="F372" s="98" t="s">
         <v>1239</v>
-      </c>
-      <c r="F372" s="98" t="s">
-        <v>1240</v>
       </c>
       <c r="G372" s="97">
         <v>21319</v>
@@ -25334,16 +25374,16 @@
         <v>1</v>
       </c>
       <c r="C373" s="98" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="D373" s="98" t="s">
+        <v>1240</v>
+      </c>
+      <c r="E373" s="98" t="s">
         <v>1241</v>
       </c>
-      <c r="E373" s="98" t="s">
+      <c r="F373" s="98" t="s">
         <v>1242</v>
-      </c>
-      <c r="F373" s="98" t="s">
-        <v>1243</v>
       </c>
       <c r="G373" s="97">
         <v>21320</v>
@@ -25372,16 +25412,16 @@
         <v>1</v>
       </c>
       <c r="C374" s="98" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="D374" s="98" t="s">
+        <v>1243</v>
+      </c>
+      <c r="E374" s="98" t="s">
         <v>1244</v>
       </c>
-      <c r="E374" s="98" t="s">
-        <v>1245</v>
-      </c>
       <c r="F374" s="98" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="G374" s="97">
         <v>21321</v>
@@ -25410,16 +25450,16 @@
         <v>1</v>
       </c>
       <c r="C375" s="98" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="D375" s="98" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="E375" s="100" t="s">
+        <v>1246</v>
+      </c>
+      <c r="F375" s="98" t="s">
         <v>1247</v>
-      </c>
-      <c r="F375" s="98" t="s">
-        <v>1248</v>
       </c>
       <c r="G375" s="97">
         <v>21322</v>
@@ -25448,16 +25488,16 @@
         <v>1</v>
       </c>
       <c r="C376" s="98" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="D376" s="98" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="E376" s="100" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="F376" s="98" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="G376" s="97">
         <v>21323</v>
@@ -25486,16 +25526,16 @@
         <v>1</v>
       </c>
       <c r="C377" s="98" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="D377" s="98" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="E377" s="100" t="s">
+        <v>1246</v>
+      </c>
+      <c r="F377" s="98" t="s">
         <v>1247</v>
-      </c>
-      <c r="F377" s="98" t="s">
-        <v>1248</v>
       </c>
       <c r="G377" s="97">
         <v>21324</v>
@@ -25524,16 +25564,16 @@
         <v>1</v>
       </c>
       <c r="C378" s="98" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="D378" s="98" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="E378" s="100" t="s">
+        <v>1246</v>
+      </c>
+      <c r="F378" s="98" t="s">
         <v>1247</v>
-      </c>
-      <c r="F378" s="98" t="s">
-        <v>1248</v>
       </c>
       <c r="G378" s="97">
         <v>21325</v>
@@ -25562,13 +25602,13 @@
         <v>1</v>
       </c>
       <c r="C379" s="98" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="D379" s="98" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="E379" s="100" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="F379" s="98" t="s">
         <v>855</v>
@@ -25600,16 +25640,16 @@
         <v>1</v>
       </c>
       <c r="C380" s="98" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="D380" s="98" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="E380" s="100" t="s">
+        <v>1246</v>
+      </c>
+      <c r="F380" s="98" t="s">
         <v>1247</v>
-      </c>
-      <c r="F380" s="98" t="s">
-        <v>1248</v>
       </c>
       <c r="G380" s="97">
         <v>21327</v>
@@ -25638,16 +25678,16 @@
         <v>1</v>
       </c>
       <c r="C381" s="98" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="D381" s="98" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="E381" s="100" t="s">
+        <v>1246</v>
+      </c>
+      <c r="F381" s="98" t="s">
         <v>1247</v>
-      </c>
-      <c r="F381" s="98" t="s">
-        <v>1248</v>
       </c>
       <c r="G381" s="97">
         <v>21328</v>
@@ -25676,16 +25716,16 @@
         <v>1</v>
       </c>
       <c r="C382" s="98" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="D382" s="98" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="E382" s="100" t="s">
+        <v>1246</v>
+      </c>
+      <c r="F382" s="98" t="s">
         <v>1247</v>
-      </c>
-      <c r="F382" s="98" t="s">
-        <v>1248</v>
       </c>
       <c r="G382" s="97">
         <v>21329</v>
@@ -25714,16 +25754,16 @@
         <v>1</v>
       </c>
       <c r="C383" s="98" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="D383" s="98" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E383" s="100" t="s">
+        <v>1246</v>
+      </c>
+      <c r="F383" s="98" t="s">
         <v>1247</v>
-      </c>
-      <c r="F383" s="98" t="s">
-        <v>1248</v>
       </c>
       <c r="G383" s="97">
         <v>21330</v>
@@ -25752,16 +25792,16 @@
         <v>1</v>
       </c>
       <c r="C384" s="98" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="D384" s="98" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="E384" s="98" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="F384" s="98" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="G384" s="97">
         <v>21331</v>
@@ -25790,13 +25830,13 @@
         <v>1</v>
       </c>
       <c r="C385" s="98" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="D385" s="98" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="E385" s="98" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="F385" s="98" t="s">
         <v>855</v>
@@ -25828,16 +25868,16 @@
         <v>1</v>
       </c>
       <c r="C386" s="98" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="D386" s="98" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="E386" s="98" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="F386" s="98" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="G386" s="97">
         <v>21333</v>
@@ -25866,16 +25906,16 @@
         <v>1</v>
       </c>
       <c r="C387" s="98" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="D387" s="98" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="E387" s="98" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="F387" s="98" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="G387" s="97">
         <v>21334</v>
@@ -25904,16 +25944,16 @@
         <v>1</v>
       </c>
       <c r="C388" s="98" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="D388" s="98" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="E388" s="98" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="F388" s="98" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="G388" s="97">
         <v>21335</v>
@@ -25942,13 +25982,13 @@
         <v>1</v>
       </c>
       <c r="C389" s="98" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="D389" s="98" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="E389" s="98" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="F389" s="98" t="s">
         <v>855</v>
@@ -25980,16 +26020,16 @@
         <v>1</v>
       </c>
       <c r="C390" s="98" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="D390" s="98" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="E390" s="98" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="F390" s="98" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="G390" s="97">
         <v>21337</v>
@@ -26018,16 +26058,16 @@
         <v>1</v>
       </c>
       <c r="C391" s="98" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="D391" s="98" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="E391" s="98" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="F391" s="98" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="G391" s="97">
         <v>21338</v>
@@ -26056,16 +26096,16 @@
         <v>1</v>
       </c>
       <c r="C392" s="98" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="D392" s="98" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="E392" s="98" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="F392" s="98" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="G392" s="97">
         <v>21339</v>
@@ -26094,16 +26134,16 @@
         <v>1</v>
       </c>
       <c r="C393" s="98" t="s">
+        <v>1311</v>
+      </c>
+      <c r="D393" s="97" t="s">
         <v>1312</v>
       </c>
-      <c r="D393" s="97" t="s">
+      <c r="E393" s="100" t="s">
         <v>1313</v>
       </c>
-      <c r="E393" s="100" t="s">
-        <v>1314</v>
-      </c>
       <c r="F393" s="98" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="G393" s="97">
         <v>21340</v>
@@ -26132,16 +26172,16 @@
         <v>1</v>
       </c>
       <c r="C394" s="98" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="D394" s="98" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="E394" s="98" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="F394" s="98" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="G394" s="97">
         <v>21341</v>
@@ -26170,13 +26210,13 @@
         <v>1</v>
       </c>
       <c r="C395" s="102" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="D395" s="102" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="E395" s="102" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="F395" s="102" t="s">
         <v>13</v>
@@ -26208,13 +26248,13 @@
         <v>1</v>
       </c>
       <c r="C396" s="102" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="D396" s="102" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="E396" s="102" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="F396" s="102" t="s">
         <v>13</v>
@@ -26246,13 +26286,13 @@
         <v>1</v>
       </c>
       <c r="C397" s="102" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="D397" s="102" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="E397" s="102" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="F397" s="102" t="s">
         <v>13</v>
@@ -26284,13 +26324,13 @@
         <v>1</v>
       </c>
       <c r="C398" s="102" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="D398" s="102" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="E398" s="102" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="F398" s="102" t="s">
         <v>13</v>
@@ -26322,13 +26362,13 @@
         <v>1</v>
       </c>
       <c r="C399" s="102" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="D399" s="102" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="E399" s="102" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="F399" s="102" t="s">
         <v>13</v>
@@ -26360,13 +26400,13 @@
         <v>1</v>
       </c>
       <c r="C400" s="103" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="D400" s="104" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="E400" s="104" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="F400" s="103" t="s">
         <v>13</v>
@@ -26398,13 +26438,13 @@
         <v>1</v>
       </c>
       <c r="C401" s="103" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="D401" s="104" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="E401" s="104" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="F401" s="103" t="s">
         <v>13</v>
@@ -26436,13 +26476,13 @@
         <v>1</v>
       </c>
       <c r="C402" s="103" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="D402" s="104" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="E402" s="104" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="F402" s="103" t="s">
         <v>13</v>
@@ -26474,13 +26514,13 @@
         <v>1</v>
       </c>
       <c r="C403" s="104" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="D403" s="104" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="E403" s="104" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="F403" s="103" t="s">
         <v>13</v>
@@ -26512,16 +26552,16 @@
         <v>1</v>
       </c>
       <c r="C404" s="49" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="D404" s="49" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="E404" s="49" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="F404" s="49" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="G404" s="7">
         <v>21351</v>
@@ -26550,16 +26590,16 @@
         <v>1</v>
       </c>
       <c r="C405" s="49" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="D405" s="49" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="E405" s="49" t="s">
+        <v>1399</v>
+      </c>
+      <c r="F405" s="49" t="s">
         <v>1400</v>
-      </c>
-      <c r="F405" s="49" t="s">
-        <v>1401</v>
       </c>
       <c r="G405" s="7">
         <v>21352</v>
@@ -26588,16 +26628,16 @@
         <v>1</v>
       </c>
       <c r="C406" s="49" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="D406" s="49" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="E406" s="49" t="s">
+        <v>1399</v>
+      </c>
+      <c r="F406" s="49" t="s">
         <v>1400</v>
-      </c>
-      <c r="F406" s="49" t="s">
-        <v>1401</v>
       </c>
       <c r="G406" s="7">
         <v>21353</v>
@@ -26626,16 +26666,16 @@
         <v>1</v>
       </c>
       <c r="C407" s="49" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="D407" s="49" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="E407" s="49" t="s">
+        <v>1399</v>
+      </c>
+      <c r="F407" s="49" t="s">
         <v>1400</v>
-      </c>
-      <c r="F407" s="49" t="s">
-        <v>1401</v>
       </c>
       <c r="G407" s="7">
         <v>21354</v>
@@ -26664,16 +26704,16 @@
         <v>1</v>
       </c>
       <c r="C408" s="49" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="D408" s="49" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="E408" s="49" t="s">
+        <v>1399</v>
+      </c>
+      <c r="F408" s="49" t="s">
         <v>1400</v>
-      </c>
-      <c r="F408" s="49" t="s">
-        <v>1401</v>
       </c>
       <c r="G408" s="7">
         <v>21355</v>
@@ -26702,16 +26742,16 @@
         <v>1</v>
       </c>
       <c r="C409" s="49" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="D409" s="49" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="E409" s="49" t="s">
+        <v>1399</v>
+      </c>
+      <c r="F409" s="49" t="s">
         <v>1400</v>
-      </c>
-      <c r="F409" s="49" t="s">
-        <v>1401</v>
       </c>
       <c r="G409" s="7">
         <v>21356</v>
@@ -26740,16 +26780,16 @@
         <v>1</v>
       </c>
       <c r="C410" s="49" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="D410" s="49" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="E410" s="49" t="s">
+        <v>1399</v>
+      </c>
+      <c r="F410" s="49" t="s">
         <v>1400</v>
-      </c>
-      <c r="F410" s="49" t="s">
-        <v>1401</v>
       </c>
       <c r="G410" s="7">
         <v>21357</v>
@@ -26778,16 +26818,16 @@
         <v>1</v>
       </c>
       <c r="C411" s="49" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="D411" s="49" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="E411" s="49" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="F411" s="49" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="G411" s="7">
         <v>21358</v>
@@ -26816,13 +26856,13 @@
         <v>1</v>
       </c>
       <c r="C412" s="7" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D412" s="7" t="s">
         <v>1429</v>
       </c>
-      <c r="D412" s="7" t="s">
+      <c r="E412" s="7" t="s">
         <v>1430</v>
-      </c>
-      <c r="E412" s="7" t="s">
-        <v>1431</v>
       </c>
       <c r="F412" s="7" t="s">
         <v>855</v>
@@ -26854,13 +26894,13 @@
         <v>1</v>
       </c>
       <c r="C413" s="7" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="D413" s="7" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="E413" s="7" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="F413" s="7" t="s">
         <v>855</v>
@@ -26892,13 +26932,13 @@
         <v>1</v>
       </c>
       <c r="C414" s="7" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="D414" s="49" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="E414" s="49" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="F414" s="7" t="s">
         <v>855</v>
@@ -26930,13 +26970,13 @@
         <v>1</v>
       </c>
       <c r="C415" s="16" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="D415" s="16" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="E415" s="16" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="F415" s="12" t="s">
         <v>855</v>
@@ -26968,16 +27008,16 @@
         <v>1</v>
       </c>
       <c r="C416" s="16" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="D416" s="16" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="E416" s="16" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="F416" s="12" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="G416" s="12">
         <v>21363</v>
@@ -27006,13 +27046,13 @@
         <v>1</v>
       </c>
       <c r="C417" s="16" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="D417" s="16" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="E417" s="16" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="F417" s="12" t="s">
         <v>855</v>
@@ -27044,16 +27084,16 @@
         <v>1</v>
       </c>
       <c r="C418" s="16" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="D418" s="16" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="E418" s="16" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="F418" s="12" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="G418" s="12">
         <v>21365</v>
@@ -27082,16 +27122,16 @@
         <v>1</v>
       </c>
       <c r="C419" s="16" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="D419" s="16" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="E419" s="16" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="F419" s="12" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="G419" s="12">
         <v>21366</v>
@@ -27120,13 +27160,13 @@
         <v>1</v>
       </c>
       <c r="C420" s="16" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="D420" s="16" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="E420" s="16" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="F420" s="12" t="s">
         <v>855</v>
@@ -27158,16 +27198,16 @@
         <v>1</v>
       </c>
       <c r="C421" s="16" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="D421" s="16" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="E421" s="16" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="F421" s="12" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="G421" s="12">
         <v>21368</v>
@@ -27196,16 +27236,16 @@
         <v>1</v>
       </c>
       <c r="C422" s="16" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="D422" s="16" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="E422" s="16" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="F422" s="12" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="G422" s="12">
         <v>21369</v>
@@ -27234,16 +27274,16 @@
         <v>1</v>
       </c>
       <c r="C423" s="16" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="D423" s="16" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="E423" s="16" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="F423" s="12" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="G423" s="12">
         <v>21370</v>
@@ -27272,16 +27312,16 @@
         <v>1</v>
       </c>
       <c r="C424" s="16" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="D424" s="16" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="E424" s="16" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="F424" s="16" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="G424" s="12">
         <v>21371</v>
@@ -27310,16 +27350,16 @@
         <v>1</v>
       </c>
       <c r="C425" s="114" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="D425" s="114" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="E425" s="114" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="F425" s="114" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="G425" s="113">
         <v>21372</v>
@@ -27348,13 +27388,13 @@
         <v>1</v>
       </c>
       <c r="C426" s="114" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="D426" s="114" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="E426" s="114" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="F426" s="113" t="s">
         <v>855</v>
@@ -27386,13 +27426,13 @@
         <v>1</v>
       </c>
       <c r="C427" s="114" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="D427" s="114" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="E427" s="114" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="F427" s="113" t="s">
         <v>855</v>
@@ -27424,13 +27464,13 @@
         <v>1</v>
       </c>
       <c r="C428" s="114" t="s">
+        <v>1504</v>
+      </c>
+      <c r="D428" s="114" t="s">
         <v>1505</v>
       </c>
-      <c r="D428" s="114" t="s">
-        <v>1506</v>
-      </c>
       <c r="E428" s="114" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="F428" s="113" t="s">
         <v>855</v>
@@ -27462,13 +27502,13 @@
         <v>1</v>
       </c>
       <c r="C429" s="61" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="D429" s="61" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="E429" s="84" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="F429" s="61" t="s">
         <v>855</v>
@@ -27500,16 +27540,16 @@
         <v>1</v>
       </c>
       <c r="C430" s="16" t="s">
+        <v>1531</v>
+      </c>
+      <c r="D430" s="16" t="s">
         <v>1532</v>
       </c>
-      <c r="D430" s="16" t="s">
+      <c r="E430" s="16" t="s">
         <v>1533</v>
       </c>
-      <c r="E430" s="16" t="s">
-        <v>1534</v>
-      </c>
       <c r="F430" s="16" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="G430" s="12">
         <v>21377</v>
@@ -27538,16 +27578,16 @@
         <v>1</v>
       </c>
       <c r="C431" s="16" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="D431" s="16" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="E431" s="16" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="F431" s="16" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="G431" s="12">
         <v>21378</v>
@@ -27576,16 +27616,16 @@
         <v>1</v>
       </c>
       <c r="C432" s="16" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="D432" s="16" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="E432" s="16" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="F432" s="16" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="G432" s="12">
         <v>21379</v>
@@ -27614,16 +27654,16 @@
         <v>1</v>
       </c>
       <c r="C433" s="16" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="D433" s="16" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="E433" s="16" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="F433" s="16" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="G433" s="12">
         <v>21380</v>
@@ -27652,16 +27692,16 @@
         <v>1</v>
       </c>
       <c r="C434" s="16" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="D434" s="16" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="E434" s="16" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="F434" s="16" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="G434" s="12">
         <v>21381</v>
@@ -27690,13 +27730,13 @@
         <v>1</v>
       </c>
       <c r="C435" s="16" t="s">
+        <v>1554</v>
+      </c>
+      <c r="D435" s="16" t="s">
         <v>1555</v>
       </c>
-      <c r="D435" s="16" t="s">
-        <v>1556</v>
-      </c>
       <c r="E435" s="16" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="F435" s="16" t="s">
         <v>855</v>
@@ -27728,13 +27768,13 @@
         <v>1</v>
       </c>
       <c r="C436" s="16" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="D436" s="16" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="E436" s="16" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="F436" s="16" t="s">
         <v>855</v>
@@ -27766,13 +27806,13 @@
         <v>1</v>
       </c>
       <c r="C437" s="16" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="D437" s="16" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="E437" s="16" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="F437" s="16" t="s">
         <v>855</v>
@@ -27804,13 +27844,13 @@
         <v>1</v>
       </c>
       <c r="C438" s="16" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="D438" s="16" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="E438" s="16" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="F438" s="16" t="s">
         <v>855</v>
@@ -27842,13 +27882,13 @@
         <v>1</v>
       </c>
       <c r="C439" s="16" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="D439" s="16" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="E439" s="16" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="F439" s="16" t="s">
         <v>855</v>
@@ -27880,13 +27920,13 @@
         <v>1</v>
       </c>
       <c r="C440" s="16" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="D440" s="16" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="E440" s="16" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="F440" s="16" t="s">
         <v>855</v>
@@ -27918,13 +27958,13 @@
         <v>1</v>
       </c>
       <c r="C441" s="16" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="D441" s="16" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="E441" s="16" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="F441" s="16" t="s">
         <v>855</v>
@@ -27956,13 +27996,13 @@
         <v>1</v>
       </c>
       <c r="C442" s="16" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="D442" s="16" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="E442" s="16" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="F442" s="16" t="s">
         <v>855</v>
@@ -27994,13 +28034,13 @@
         <v>1</v>
       </c>
       <c r="C443" s="16" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="D443" s="16" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="E443" s="16" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="F443" s="16" t="s">
         <v>855</v>
@@ -28032,13 +28072,13 @@
         <v>1</v>
       </c>
       <c r="C444" s="16" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="D444" s="16" t="s">
+        <v>1568</v>
+      </c>
+      <c r="E444" s="16" t="s">
         <v>1569</v>
-      </c>
-      <c r="E444" s="16" t="s">
-        <v>1570</v>
       </c>
       <c r="F444" s="16" t="s">
         <v>855</v>
@@ -28070,13 +28110,13 @@
         <v>1</v>
       </c>
       <c r="C445" s="16" t="s">
+        <v>1588</v>
+      </c>
+      <c r="D445" s="16" t="s">
         <v>1589</v>
       </c>
-      <c r="D445" s="16" t="s">
-        <v>1590</v>
-      </c>
       <c r="E445" s="16" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="F445" s="16" t="s">
         <v>855</v>
@@ -28108,13 +28148,13 @@
         <v>1</v>
       </c>
       <c r="C446" s="16" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="D446" s="16" t="s">
+        <v>1590</v>
+      </c>
+      <c r="E446" s="16" t="s">
         <v>1591</v>
-      </c>
-      <c r="E446" s="16" t="s">
-        <v>1592</v>
       </c>
       <c r="F446" s="16" t="s">
         <v>855</v>
@@ -28146,13 +28186,13 @@
         <v>1</v>
       </c>
       <c r="C447" s="61" t="s">
+        <v>1607</v>
+      </c>
+      <c r="D447" s="84" t="s">
         <v>1608</v>
       </c>
-      <c r="D447" s="84" t="s">
-        <v>1609</v>
-      </c>
       <c r="E447" s="84" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="F447" s="84" t="s">
         <v>855</v>
@@ -28184,13 +28224,13 @@
         <v>1</v>
       </c>
       <c r="C448" s="84" t="s">
+        <v>1613</v>
+      </c>
+      <c r="D448" s="84" t="s">
         <v>1614</v>
       </c>
-      <c r="D448" s="84" t="s">
-        <v>1615</v>
-      </c>
       <c r="E448" s="84" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="F448" s="84" t="s">
         <v>855</v>
@@ -28222,13 +28262,13 @@
         <v>1</v>
       </c>
       <c r="C449" s="61" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="D449" s="84" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="E449" s="84" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="F449" s="84" t="s">
         <v>855</v>
@@ -28260,13 +28300,13 @@
         <v>1</v>
       </c>
       <c r="C450" s="84" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="D450" s="84" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="E450" s="84" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="F450" s="84" t="s">
         <v>855</v>
@@ -28298,13 +28338,13 @@
         <v>1</v>
       </c>
       <c r="C451" s="61" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="D451" s="84" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="E451" s="84" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="F451" s="84" t="s">
         <v>855</v>
@@ -28336,13 +28376,13 @@
         <v>1</v>
       </c>
       <c r="C452" s="84" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="D452" s="84" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="E452" s="84" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="F452" s="84" t="s">
         <v>855</v>
@@ -28374,13 +28414,13 @@
         <v>1</v>
       </c>
       <c r="C453" s="61" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="D453" s="84" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="E453" s="84" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="F453" s="84" t="s">
         <v>855</v>
@@ -28412,13 +28452,13 @@
         <v>1</v>
       </c>
       <c r="C454" s="84" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="D454" s="84" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="E454" s="84" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="F454" s="84" t="s">
         <v>855</v>
@@ -28450,13 +28490,13 @@
         <v>1</v>
       </c>
       <c r="C455" s="61" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="D455" s="84" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="E455" s="84" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="F455" s="84" t="s">
         <v>855</v>
@@ -28488,13 +28528,13 @@
         <v>1</v>
       </c>
       <c r="C456" s="84" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="D456" s="84" t="s">
+        <v>1622</v>
+      </c>
+      <c r="E456" s="84" t="s">
         <v>1623</v>
-      </c>
-      <c r="E456" s="84" t="s">
-        <v>1624</v>
       </c>
       <c r="F456" s="84" t="s">
         <v>855</v>
@@ -28515,6 +28555,120 @@
         <v>1600099199</v>
       </c>
       <c r="L456" s="61">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A457" s="61">
+        <v>1000046</v>
+      </c>
+      <c r="B457" s="97">
+        <v>1</v>
+      </c>
+      <c r="C457" s="98" t="s">
+        <v>1644</v>
+      </c>
+      <c r="D457" s="99" t="s">
+        <v>1646</v>
+      </c>
+      <c r="E457" s="98" t="s">
+        <v>12</v>
+      </c>
+      <c r="F457" s="98" t="s">
+        <v>1653</v>
+      </c>
+      <c r="G457" s="97">
+        <v>21404</v>
+      </c>
+      <c r="H457" s="98" t="b">
+        <v>1</v>
+      </c>
+      <c r="I457" s="97">
+        <v>1</v>
+      </c>
+      <c r="J457" s="97">
+        <v>1593532800</v>
+      </c>
+      <c r="K457" s="97">
+        <v>32503651200</v>
+      </c>
+      <c r="L457" s="97">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A458" s="61">
+        <v>1000047</v>
+      </c>
+      <c r="B458" s="97">
+        <v>1</v>
+      </c>
+      <c r="C458" s="98" t="s">
+        <v>1645</v>
+      </c>
+      <c r="D458" s="99" t="s">
+        <v>1647</v>
+      </c>
+      <c r="E458" s="98" t="s">
+        <v>12</v>
+      </c>
+      <c r="F458" s="98" t="s">
+        <v>1653</v>
+      </c>
+      <c r="G458" s="97">
+        <v>21405</v>
+      </c>
+      <c r="H458" s="98" t="b">
+        <v>1</v>
+      </c>
+      <c r="I458" s="97">
+        <v>1</v>
+      </c>
+      <c r="J458" s="97">
+        <v>1593532800</v>
+      </c>
+      <c r="K458" s="97">
+        <v>32503651200</v>
+      </c>
+      <c r="L458" s="97">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="459" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A459" s="61">
+        <v>1000048</v>
+      </c>
+      <c r="B459" s="97">
+        <v>1</v>
+      </c>
+      <c r="C459" s="98" t="s">
+        <v>1644</v>
+      </c>
+      <c r="D459" s="98" t="s">
+        <v>1648</v>
+      </c>
+      <c r="E459" s="98" t="s">
+        <v>12</v>
+      </c>
+      <c r="F459" s="98" t="s">
+        <v>1653</v>
+      </c>
+      <c r="G459" s="97">
+        <v>21406</v>
+      </c>
+      <c r="H459" s="98" t="b">
+        <v>1</v>
+      </c>
+      <c r="I459" s="97">
+        <v>1</v>
+      </c>
+      <c r="J459" s="97">
+        <v>1593532800</v>
+      </c>
+      <c r="K459" s="97">
+        <v>32503651200</v>
+      </c>
+      <c r="L459" s="97">
         <v>-1</v>
       </c>
     </row>
@@ -28529,13 +28683,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:K456"/>
+  <dimension ref="A1:K459"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G439" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="G442" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I465" sqref="I465"/>
+      <selection pane="bottomRight" activeCell="H457" sqref="H457:I459"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -28563,7 +28717,7 @@
         <v>380</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="F1" s="34" t="s">
         <v>381</v>
@@ -28578,7 +28732,7 @@
         <v>917</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="K1" s="38"/>
     </row>
@@ -33358,7 +33512,7 @@
       </c>
       <c r="E179" s="10"/>
       <c r="F179" s="82" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="G179" s="79"/>
       <c r="H179" s="83" t="s">
@@ -33505,7 +33659,7 @@
         <v>21132</v>
       </c>
       <c r="C185" s="13" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="D185" s="11">
         <v>184</v>
@@ -33726,7 +33880,7 @@
         <v>0</v>
       </c>
       <c r="F193" s="82" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="G193" s="79"/>
       <c r="H193" s="83" t="s">
@@ -33751,7 +33905,7 @@
         <v>0</v>
       </c>
       <c r="F194" s="82" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="G194" s="79"/>
       <c r="H194" s="83" t="s">
@@ -33776,7 +33930,7 @@
         <v>0</v>
       </c>
       <c r="F195" s="82" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="G195" s="79"/>
       <c r="H195" s="83" t="s">
@@ -33801,7 +33955,7 @@
         <v>0</v>
       </c>
       <c r="F196" s="82" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="G196" s="79"/>
       <c r="H196" s="83" t="s">
@@ -33826,7 +33980,7 @@
         <v>0</v>
       </c>
       <c r="F197" s="82" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="G197" s="79"/>
       <c r="H197" s="83" t="s">
@@ -35743,7 +35897,7 @@
         <v>21216</v>
       </c>
       <c r="C269" s="13" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="D269" s="11">
         <v>268</v>
@@ -38121,14 +38275,14 @@
       </c>
       <c r="E368" s="11"/>
       <c r="F368" s="40" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="G368" s="35"/>
       <c r="H368" s="15" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="I368" s="13" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="369" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -38144,14 +38298,14 @@
       </c>
       <c r="E369" s="11"/>
       <c r="F369" s="40" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="G369" s="35"/>
       <c r="H369" s="15" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="I369" s="13" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="370" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -38167,14 +38321,14 @@
       </c>
       <c r="E370" s="11"/>
       <c r="F370" s="40" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="G370" s="35"/>
       <c r="H370" s="15" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="I370" s="13" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="371" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -38190,14 +38344,14 @@
       </c>
       <c r="E371" s="11"/>
       <c r="F371" s="40" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="G371" s="35"/>
       <c r="H371" s="15" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="I371" s="13" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="372" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -38213,14 +38367,14 @@
       </c>
       <c r="E372" s="11"/>
       <c r="F372" s="40" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="G372" s="35"/>
       <c r="H372" s="15" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="I372" s="13" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="373" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -38234,12 +38388,12 @@
       <c r="D373" s="11"/>
       <c r="E373" s="11"/>
       <c r="F373" s="40" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="G373" s="35"/>
       <c r="H373" s="15"/>
       <c r="I373" s="13" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="374" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -38253,12 +38407,12 @@
       <c r="D374" s="11"/>
       <c r="E374" s="11"/>
       <c r="F374" s="40" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="G374" s="35"/>
       <c r="H374" s="15"/>
       <c r="I374" s="13" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="375" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -38274,14 +38428,14 @@
       </c>
       <c r="E375" s="11"/>
       <c r="F375" s="40" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="G375" s="35"/>
       <c r="H375" s="15" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="I375" s="13" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="376" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -38297,14 +38451,14 @@
       </c>
       <c r="E376" s="11"/>
       <c r="F376" s="40" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="G376" s="35"/>
       <c r="H376" s="15" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="I376" s="13" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="377" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -38320,14 +38474,14 @@
       </c>
       <c r="E377" s="11"/>
       <c r="F377" s="40" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="G377" s="35"/>
       <c r="H377" s="15" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="I377" s="13" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="378" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -38343,14 +38497,14 @@
       </c>
       <c r="E378" s="11"/>
       <c r="F378" s="40" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="G378" s="35"/>
       <c r="H378" s="15" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="I378" s="13" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="379" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -38366,14 +38520,14 @@
       </c>
       <c r="E379" s="11"/>
       <c r="F379" s="40" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="G379" s="35"/>
       <c r="H379" s="15" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="I379" s="13" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="380" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -38389,14 +38543,14 @@
       </c>
       <c r="E380" s="11"/>
       <c r="F380" s="40" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="G380" s="35"/>
       <c r="H380" s="15" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="I380" s="13" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="381" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -38412,14 +38566,14 @@
       </c>
       <c r="E381" s="11"/>
       <c r="F381" s="40" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="G381" s="35"/>
       <c r="H381" s="15" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="I381" s="13" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="382" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -38435,14 +38589,14 @@
       </c>
       <c r="E382" s="11"/>
       <c r="F382" s="40" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="G382" s="35"/>
       <c r="H382" s="15" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="I382" s="13" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="383" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -38458,14 +38612,14 @@
       </c>
       <c r="E383" s="11"/>
       <c r="F383" s="40" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="G383" s="35"/>
       <c r="H383" s="15" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="I383" s="13" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="384" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -38481,14 +38635,14 @@
       </c>
       <c r="E384" s="11"/>
       <c r="F384" s="40" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="G384" s="35"/>
       <c r="H384" s="15" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="I384" s="13" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="385" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -38506,14 +38660,14 @@
         <v>258</v>
       </c>
       <c r="F385" s="40" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="G385" s="35"/>
       <c r="H385" s="15" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="I385" s="13" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="386" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -38531,14 +38685,14 @@
         <v>259</v>
       </c>
       <c r="F386" s="40" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="G386" s="35"/>
       <c r="H386" s="15" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="I386" s="13" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="387" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -38554,14 +38708,14 @@
       </c>
       <c r="E387" s="11"/>
       <c r="F387" s="40" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="G387" s="35"/>
       <c r="H387" s="15" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="I387" s="13" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="388" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -38577,14 +38731,14 @@
       </c>
       <c r="E388" s="11"/>
       <c r="F388" s="40" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="G388" s="35"/>
       <c r="H388" s="15" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="I388" s="13" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="389" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -38602,14 +38756,14 @@
         <v>260</v>
       </c>
       <c r="F389" s="40" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="G389" s="35"/>
       <c r="H389" s="15" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="I389" s="13" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="390" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -38625,14 +38779,14 @@
       </c>
       <c r="E390" s="11"/>
       <c r="F390" s="40" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="G390" s="35"/>
       <c r="H390" s="15" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="I390" s="13" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="391" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -38650,14 +38804,14 @@
         <v>261</v>
       </c>
       <c r="F391" s="40" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="G391" s="35"/>
       <c r="H391" s="15" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="I391" s="13" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="392" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -38675,14 +38829,14 @@
         <v>262</v>
       </c>
       <c r="F392" s="40" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="G392" s="35"/>
       <c r="H392" s="15" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="I392" s="13" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="393" spans="1:9" s="6" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -38698,11 +38852,11 @@
       </c>
       <c r="E393" s="11"/>
       <c r="F393" s="40" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="G393" s="35"/>
       <c r="H393" s="40" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="I393" s="13" t="s">
         <v>387</v>
@@ -38723,11 +38877,11 @@
         <v>263</v>
       </c>
       <c r="F394" s="40" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="G394" s="35"/>
       <c r="H394" s="15" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="I394" s="11"/>
     </row>
@@ -38748,7 +38902,7 @@
       </c>
       <c r="G395" s="108"/>
       <c r="H395" s="109" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="I395" s="106" t="s">
         <v>387</v>
@@ -38771,7 +38925,7 @@
       </c>
       <c r="G396" s="108"/>
       <c r="H396" s="109" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="I396" s="106" t="s">
         <v>387</v>
@@ -38794,7 +38948,7 @@
       </c>
       <c r="G397" s="108"/>
       <c r="H397" s="109" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="I397" s="106" t="s">
         <v>387</v>
@@ -38817,7 +38971,7 @@
       </c>
       <c r="G398" s="108"/>
       <c r="H398" s="109" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="I398" s="106" t="s">
         <v>387</v>
@@ -38840,7 +38994,7 @@
       </c>
       <c r="G399" s="108"/>
       <c r="H399" s="109" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="I399" s="106" t="s">
         <v>387</v>
@@ -38863,7 +39017,7 @@
       </c>
       <c r="G400" s="108"/>
       <c r="H400" s="109" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="I400" s="106" t="s">
         <v>387</v>
@@ -38886,7 +39040,7 @@
       </c>
       <c r="G401" s="108"/>
       <c r="H401" s="109" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="I401" s="106" t="s">
         <v>387</v>
@@ -38909,7 +39063,7 @@
       </c>
       <c r="G402" s="108"/>
       <c r="H402" s="109" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="I402" s="106" t="s">
         <v>387</v>
@@ -38932,7 +39086,7 @@
       </c>
       <c r="G403" s="108"/>
       <c r="H403" s="109" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="I403" s="106" t="s">
         <v>387</v>
@@ -38949,7 +39103,7 @@
         <v>400</v>
       </c>
       <c r="F404" s="111" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="405" spans="1:10" x14ac:dyDescent="0.2">
@@ -38963,7 +39117,7 @@
         <v>401</v>
       </c>
       <c r="F405" s="111" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="406" spans="1:10" x14ac:dyDescent="0.2">
@@ -38977,7 +39131,7 @@
         <v>402</v>
       </c>
       <c r="F406" s="111" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="407" spans="1:10" x14ac:dyDescent="0.2">
@@ -38991,7 +39145,7 @@
         <v>403</v>
       </c>
       <c r="F407" s="111" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="408" spans="1:10" x14ac:dyDescent="0.2">
@@ -39005,7 +39159,7 @@
         <v>404</v>
       </c>
       <c r="F408" s="111" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="409" spans="1:10" x14ac:dyDescent="0.2">
@@ -39019,7 +39173,7 @@
         <v>405</v>
       </c>
       <c r="F409" s="111" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="410" spans="1:10" x14ac:dyDescent="0.2">
@@ -39033,7 +39187,7 @@
         <v>406</v>
       </c>
       <c r="F410" s="111" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="411" spans="1:10" x14ac:dyDescent="0.2">
@@ -39044,7 +39198,7 @@
         <v>21358</v>
       </c>
       <c r="F411" s="111" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="412" spans="1:10" x14ac:dyDescent="0.2">
@@ -39058,13 +39212,13 @@
         <v>407</v>
       </c>
       <c r="F412" s="32" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="H412" s="65" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="I412" s="14" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="413" spans="1:10" x14ac:dyDescent="0.2">
@@ -39078,13 +39232,13 @@
         <v>408</v>
       </c>
       <c r="F413" s="32" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="H413" s="65" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="I413" s="14" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="414" spans="1:10" x14ac:dyDescent="0.2">
@@ -39098,13 +39252,13 @@
         <v>409</v>
       </c>
       <c r="F414" s="111" t="s">
+        <v>1434</v>
+      </c>
+      <c r="H414" s="65" t="s">
+        <v>1445</v>
+      </c>
+      <c r="I414" s="14" t="s">
         <v>1435</v>
-      </c>
-      <c r="H414" s="65" t="s">
-        <v>1446</v>
-      </c>
-      <c r="I414" s="14" t="s">
-        <v>1436</v>
       </c>
     </row>
     <row r="415" spans="1:10" s="81" customFormat="1" x14ac:dyDescent="0.2">
@@ -39124,7 +39278,7 @@
       </c>
       <c r="G415" s="79"/>
       <c r="H415" s="83" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="I415" s="19" t="s">
         <v>387</v>
@@ -39146,11 +39300,11 @@
       </c>
       <c r="E416" s="10"/>
       <c r="F416" s="82" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="G416" s="79"/>
       <c r="H416" s="83" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="I416" s="19" t="s">
         <v>387</v>
@@ -39172,11 +39326,11 @@
       </c>
       <c r="E417" s="10"/>
       <c r="F417" s="82" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="G417" s="79"/>
       <c r="H417" s="83" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="I417" s="19" t="s">
         <v>387</v>
@@ -39198,11 +39352,11 @@
       </c>
       <c r="E418" s="10"/>
       <c r="F418" s="82" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="G418" s="79"/>
       <c r="H418" s="83" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="I418" s="19" t="s">
         <v>387</v>
@@ -39224,11 +39378,11 @@
       </c>
       <c r="E419" s="10"/>
       <c r="F419" s="82" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="G419" s="79"/>
       <c r="H419" s="83" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="I419" s="19" t="s">
         <v>387</v>
@@ -39250,11 +39404,11 @@
       </c>
       <c r="E420" s="10"/>
       <c r="F420" s="82" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="G420" s="79"/>
       <c r="H420" s="83" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="I420" s="19" t="s">
         <v>387</v>
@@ -39276,11 +39430,11 @@
       </c>
       <c r="E421" s="10"/>
       <c r="F421" s="82" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="G421" s="79"/>
       <c r="H421" s="83" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="I421" s="19" t="s">
         <v>387</v>
@@ -39302,11 +39456,11 @@
       </c>
       <c r="E422" s="10"/>
       <c r="F422" s="82" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="G422" s="79"/>
       <c r="H422" s="83" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="I422" s="19" t="s">
         <v>387</v>
@@ -39328,11 +39482,11 @@
       </c>
       <c r="E423" s="10"/>
       <c r="F423" s="82" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="G423" s="79"/>
       <c r="H423" s="83" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="I423" s="19" t="s">
         <v>387</v>
@@ -39358,10 +39512,10 @@
       </c>
       <c r="G424" s="79"/>
       <c r="H424" s="83" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="I424" s="19" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="J424" s="81">
         <v>1</v>
@@ -39384,10 +39538,10 @@
       </c>
       <c r="G425" s="117"/>
       <c r="H425" s="118" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="I425" s="119" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="J425" s="120">
         <v>1</v>
@@ -39410,10 +39564,10 @@
       </c>
       <c r="G426" s="117"/>
       <c r="H426" s="118" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="I426" s="119" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="J426" s="120">
         <v>1</v>
@@ -39436,10 +39590,10 @@
       </c>
       <c r="G427" s="117"/>
       <c r="H427" s="118" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="I427" s="119" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="J427" s="120">
         <v>1</v>
@@ -39456,14 +39610,14 @@
       <c r="D428" s="115"/>
       <c r="E428" s="115"/>
       <c r="F428" s="116" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="G428" s="117"/>
       <c r="H428" s="118" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="I428" s="119" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="429" spans="1:10" s="122" customFormat="1" x14ac:dyDescent="0.2">
@@ -39479,11 +39633,11 @@
       </c>
       <c r="E429" s="60"/>
       <c r="F429" s="63" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="G429" s="63"/>
       <c r="H429" s="121" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="I429" s="60" t="s">
         <v>856</v>
@@ -39500,13 +39654,13 @@
         <v>424</v>
       </c>
       <c r="F430" s="111" t="s">
+        <v>1540</v>
+      </c>
+      <c r="H430" s="65" t="s">
         <v>1541</v>
       </c>
-      <c r="H430" s="65" t="s">
+      <c r="I430" s="14" t="s">
         <v>1542</v>
-      </c>
-      <c r="I430" s="14" t="s">
-        <v>1543</v>
       </c>
     </row>
     <row r="431" spans="1:10" x14ac:dyDescent="0.2">
@@ -39520,13 +39674,13 @@
         <v>425</v>
       </c>
       <c r="F431" s="111" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="H431" s="65" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="I431" s="14" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="432" spans="1:10" x14ac:dyDescent="0.2">
@@ -39540,13 +39694,13 @@
         <v>426</v>
       </c>
       <c r="F432" s="111" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="H432" s="65" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="I432" s="14" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="433" spans="1:10" x14ac:dyDescent="0.2">
@@ -39560,13 +39714,13 @@
         <v>427</v>
       </c>
       <c r="F433" s="111" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="H433" s="65" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="I433" s="14" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="434" spans="1:10" x14ac:dyDescent="0.2">
@@ -39580,13 +39734,13 @@
         <v>428</v>
       </c>
       <c r="F434" s="111" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="H434" s="65" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="I434" s="14" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="435" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -39602,11 +39756,11 @@
       </c>
       <c r="E435" s="11"/>
       <c r="F435" s="40" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="G435" s="35"/>
       <c r="H435" s="15" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="I435" s="13" t="s">
         <v>1144</v>
@@ -39628,11 +39782,11 @@
       </c>
       <c r="E436" s="11"/>
       <c r="F436" s="40" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="G436" s="35"/>
       <c r="H436" s="15" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="I436" s="13" t="s">
         <v>1144</v>
@@ -39654,11 +39808,11 @@
       </c>
       <c r="E437" s="11"/>
       <c r="F437" s="40" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="G437" s="35"/>
       <c r="H437" s="15" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="I437" s="13" t="s">
         <v>1144</v>
@@ -39680,11 +39834,11 @@
       </c>
       <c r="E438" s="11"/>
       <c r="F438" s="40" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="G438" s="35"/>
       <c r="H438" s="15" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="I438" s="13" t="s">
         <v>1144</v>
@@ -39706,11 +39860,11 @@
       </c>
       <c r="E439" s="11"/>
       <c r="F439" s="40" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="G439" s="35"/>
       <c r="H439" s="15" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="I439" s="13" t="s">
         <v>1144</v>
@@ -39732,11 +39886,11 @@
       </c>
       <c r="E440" s="11"/>
       <c r="F440" s="40" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="G440" s="35"/>
       <c r="H440" s="15" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="I440" s="13" t="s">
         <v>1144</v>
@@ -39758,11 +39912,11 @@
       </c>
       <c r="E441" s="11"/>
       <c r="F441" s="40" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="G441" s="35"/>
       <c r="H441" s="15" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="I441" s="13" t="s">
         <v>1144</v>
@@ -39784,11 +39938,11 @@
       </c>
       <c r="E442" s="11"/>
       <c r="F442" s="40" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="G442" s="35"/>
       <c r="H442" s="15" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="I442" s="13" t="s">
         <v>1144</v>
@@ -39810,11 +39964,11 @@
       </c>
       <c r="E443" s="11"/>
       <c r="F443" s="40" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="G443" s="35"/>
       <c r="H443" s="15" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="I443" s="13" t="s">
         <v>1144</v>
@@ -39836,11 +39990,11 @@
       </c>
       <c r="E444" s="11"/>
       <c r="F444" s="40" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="G444" s="35"/>
       <c r="H444" s="15" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="I444" s="13" t="s">
         <v>1144</v>
@@ -39862,11 +40016,11 @@
       </c>
       <c r="E445" s="11"/>
       <c r="F445" s="40" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="G445" s="35"/>
       <c r="H445" s="40" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="I445" s="13" t="s">
         <v>856</v>
@@ -39885,11 +40039,11 @@
       </c>
       <c r="E446" s="11"/>
       <c r="F446" s="40" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="G446" s="35"/>
       <c r="H446" s="15" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="I446" s="13" t="s">
         <v>856</v>
@@ -39908,11 +40062,11 @@
       </c>
       <c r="E447" s="60"/>
       <c r="F447" s="62" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="G447" s="63"/>
       <c r="H447" s="64" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="I447" s="85" t="s">
         <v>856</v>
@@ -39934,11 +40088,11 @@
       </c>
       <c r="E448" s="60"/>
       <c r="F448" s="62" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="G448" s="63"/>
       <c r="H448" s="64" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="I448" s="85" t="s">
         <v>856</v>
@@ -39960,11 +40114,11 @@
       </c>
       <c r="E449" s="60"/>
       <c r="F449" s="62" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="G449" s="63"/>
       <c r="H449" s="64" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="I449" s="85" t="s">
         <v>856</v>
@@ -39986,11 +40140,11 @@
       </c>
       <c r="E450" s="60"/>
       <c r="F450" s="62" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="G450" s="63"/>
       <c r="H450" s="64" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="I450" s="85" t="s">
         <v>856</v>
@@ -40012,11 +40166,11 @@
       </c>
       <c r="E451" s="60"/>
       <c r="F451" s="62" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="G451" s="63"/>
       <c r="H451" s="64" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="I451" s="85" t="s">
         <v>856</v>
@@ -40038,11 +40192,11 @@
       </c>
       <c r="E452" s="60"/>
       <c r="F452" s="62" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="G452" s="63"/>
       <c r="H452" s="64" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="I452" s="85" t="s">
         <v>856</v>
@@ -40064,11 +40218,11 @@
       </c>
       <c r="E453" s="60"/>
       <c r="F453" s="62" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="G453" s="63"/>
       <c r="H453" s="64" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="I453" s="85" t="s">
         <v>856</v>
@@ -40090,11 +40244,11 @@
       </c>
       <c r="E454" s="60"/>
       <c r="F454" s="62" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="G454" s="63"/>
       <c r="H454" s="64" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="I454" s="85" t="s">
         <v>856</v>
@@ -40116,11 +40270,11 @@
       </c>
       <c r="E455" s="60"/>
       <c r="F455" s="62" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="G455" s="63"/>
       <c r="H455" s="64" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="I455" s="85" t="s">
         <v>856</v>
@@ -40142,17 +40296,86 @@
       </c>
       <c r="E456" s="60"/>
       <c r="F456" s="62" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="G456" s="63"/>
       <c r="H456" s="64" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="I456" s="85" t="s">
         <v>856</v>
       </c>
       <c r="J456" s="122">
         <v>1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A457" s="11">
+        <v>456</v>
+      </c>
+      <c r="B457" s="12">
+        <v>21404</v>
+      </c>
+      <c r="C457" s="11"/>
+      <c r="D457" s="11">
+        <v>451</v>
+      </c>
+      <c r="E457" s="11"/>
+      <c r="F457" s="40" t="s">
+        <v>1217</v>
+      </c>
+      <c r="G457" s="35"/>
+      <c r="H457" s="15" t="s">
+        <v>1649</v>
+      </c>
+      <c r="I457" s="13" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="458" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A458" s="11">
+        <v>457</v>
+      </c>
+      <c r="B458" s="12">
+        <v>21405</v>
+      </c>
+      <c r="C458" s="11"/>
+      <c r="D458" s="11">
+        <v>452</v>
+      </c>
+      <c r="E458" s="11"/>
+      <c r="F458" s="40" t="s">
+        <v>1218</v>
+      </c>
+      <c r="G458" s="35"/>
+      <c r="H458" s="15" t="s">
+        <v>1650</v>
+      </c>
+      <c r="I458" s="13" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="459" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A459" s="11">
+        <v>458</v>
+      </c>
+      <c r="B459" s="12">
+        <v>21406</v>
+      </c>
+      <c r="C459" s="11"/>
+      <c r="D459" s="11">
+        <v>453</v>
+      </c>
+      <c r="E459" s="11"/>
+      <c r="F459" s="40" t="s">
+        <v>1219</v>
+      </c>
+      <c r="G459" s="35"/>
+      <c r="H459" s="15" t="s">
+        <v>1651</v>
+      </c>
+      <c r="I459" s="13" t="s">
+        <v>1197</v>
       </c>
     </row>
   </sheetData>
@@ -40165,10 +40388,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I635"/>
+  <dimension ref="A1:I638"/>
   <sheetViews>
-    <sheetView topLeftCell="A604" workbookViewId="0">
-      <selection activeCell="C618" sqref="C618:F626"/>
+    <sheetView topLeftCell="A616" workbookViewId="0">
+      <selection activeCell="C637" sqref="C637"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -40377,7 +40600,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="D14" s="11">
         <v>0</v>
@@ -41682,7 +41905,7 @@
         <v>83</v>
       </c>
       <c r="C105" s="13" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="D105" s="11">
         <v>49</v>
@@ -41948,7 +42171,7 @@
         <v>102</v>
       </c>
       <c r="C124" s="13" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="D124" s="11">
         <v>67</v>
@@ -43379,7 +43602,7 @@
         <v>178</v>
       </c>
       <c r="C224" s="85" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="D224" s="60">
         <v>257</v>
@@ -43572,7 +43795,7 @@
         <v>184</v>
       </c>
       <c r="C237" s="13" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="D237" s="11">
         <v>0</v>
@@ -43698,7 +43921,7 @@
         <v>185</v>
       </c>
       <c r="C245" s="13" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="D245" s="11">
         <v>0</v>
@@ -43824,7 +44047,7 @@
         <v>186</v>
       </c>
       <c r="C253" s="13" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="D253" s="11">
         <v>0</v>
@@ -43950,7 +44173,7 @@
         <v>187</v>
       </c>
       <c r="C261" s="13" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="D261" s="11">
         <v>0</v>
@@ -44076,7 +44299,7 @@
         <v>188</v>
       </c>
       <c r="C269" s="13" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="D269" s="11">
         <v>0</v>
@@ -44202,7 +44425,7 @@
         <v>189</v>
       </c>
       <c r="C277" s="13" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="D277" s="11">
         <v>0</v>
@@ -44328,7 +44551,7 @@
         <v>190</v>
       </c>
       <c r="C285" s="13" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="D285" s="11">
         <v>0</v>
@@ -44360,7 +44583,7 @@
         <v>192</v>
       </c>
       <c r="C287" s="19" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="D287" s="10">
         <v>0</v>
@@ -44390,7 +44613,7 @@
         <v>194</v>
       </c>
       <c r="C289" s="19" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="D289" s="10">
         <v>0</v>
@@ -44405,7 +44628,7 @@
         <v>195</v>
       </c>
       <c r="C290" s="19" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="D290" s="10">
         <v>0</v>
@@ -44435,7 +44658,7 @@
         <v>196</v>
       </c>
       <c r="C292" s="19" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="D292" s="10">
         <v>0</v>
@@ -44525,7 +44748,7 @@
         <v>197</v>
       </c>
       <c r="C298" s="19" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="D298" s="10">
         <v>0</v>
@@ -46549,7 +46772,7 @@
         <v>308</v>
       </c>
       <c r="C441" s="13" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="D441" s="11">
         <v>195</v>
@@ -47857,7 +48080,7 @@
         <v>367</v>
       </c>
       <c r="C530" s="86" t="s">
-        <v>1193</v>
+        <v>1643</v>
       </c>
       <c r="D530" s="10">
         <v>253</v>
@@ -47913,7 +48136,7 @@
         <v>371</v>
       </c>
       <c r="C534" s="13" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="D534" s="12">
         <v>0</v>
@@ -47927,7 +48150,7 @@
         <v>372</v>
       </c>
       <c r="C535" s="13" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="D535" s="12">
         <v>0</v>
@@ -47941,7 +48164,7 @@
         <v>373</v>
       </c>
       <c r="C536" s="13" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="D536" s="12">
         <v>0</v>
@@ -47955,7 +48178,7 @@
         <v>374</v>
       </c>
       <c r="C537" s="13" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="D537" s="12">
         <v>0</v>
@@ -47969,7 +48192,7 @@
         <v>375</v>
       </c>
       <c r="C538" s="13" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="D538" s="12">
         <v>0</v>
@@ -47986,7 +48209,7 @@
         <v>376</v>
       </c>
       <c r="C539" s="13" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="D539" s="12">
         <v>0</v>
@@ -48000,7 +48223,7 @@
         <v>377</v>
       </c>
       <c r="C540" s="13" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="D540" s="12">
         <v>0</v>
@@ -48014,7 +48237,7 @@
         <v>378</v>
       </c>
       <c r="C541" s="13" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="D541" s="12">
         <v>0</v>
@@ -48028,7 +48251,7 @@
         <v>379</v>
       </c>
       <c r="C542" s="13" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="D542" s="12">
         <v>0</v>
@@ -48042,7 +48265,7 @@
         <v>380</v>
       </c>
       <c r="C543" s="13" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="D543" s="12">
         <v>0</v>
@@ -48056,7 +48279,7 @@
         <v>381</v>
       </c>
       <c r="C544" s="13" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D544" s="12">
         <v>258</v>
@@ -48070,7 +48293,7 @@
         <v>382</v>
       </c>
       <c r="C545" s="13" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="D545" s="12">
         <v>259</v>
@@ -48084,7 +48307,7 @@
         <v>383</v>
       </c>
       <c r="C546" s="13" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="D546" s="12">
         <v>0</v>
@@ -48098,7 +48321,7 @@
         <v>384</v>
       </c>
       <c r="C547" s="13" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="D547" s="12">
         <v>0</v>
@@ -48112,7 +48335,7 @@
         <v>385</v>
       </c>
       <c r="C548" s="13" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="D548" s="12">
         <v>260</v>
@@ -48126,7 +48349,7 @@
         <v>386</v>
       </c>
       <c r="C549" s="13" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="D549" s="12">
         <v>0</v>
@@ -48140,7 +48363,7 @@
         <v>387</v>
       </c>
       <c r="C550" s="13" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="D550" s="12">
         <v>261</v>
@@ -48154,7 +48377,7 @@
         <v>388</v>
       </c>
       <c r="C551" s="13" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="D551" s="12">
         <v>262</v>
@@ -48228,7 +48451,7 @@
         <v>389</v>
       </c>
       <c r="C556" s="13" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="D556" s="11">
         <v>0</v>
@@ -48243,7 +48466,7 @@
         <v>389</v>
       </c>
       <c r="C557" s="13" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="D557" s="11">
         <v>0</v>
@@ -48275,7 +48498,7 @@
         <v>389</v>
       </c>
       <c r="C559" s="13" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="D559" s="11">
         <v>0</v>
@@ -48292,7 +48515,7 @@
         <v>390</v>
       </c>
       <c r="C560" s="13" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="D560" s="11">
         <v>263</v>
@@ -48432,7 +48655,7 @@
         <v>400</v>
       </c>
       <c r="C570" s="13" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="D570" s="11">
         <v>273</v>
@@ -48446,7 +48669,7 @@
         <v>401</v>
       </c>
       <c r="C571" s="13" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D571" s="11">
         <v>274</v>
@@ -48460,7 +48683,7 @@
         <v>402</v>
       </c>
       <c r="C572" s="13" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="D572" s="11">
         <v>275</v>
@@ -48474,7 +48697,7 @@
         <v>403</v>
       </c>
       <c r="C573" s="13" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="D573" s="11">
         <v>276</v>
@@ -48488,7 +48711,7 @@
         <v>404</v>
       </c>
       <c r="C574" s="13" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="D574" s="11">
         <v>277</v>
@@ -48502,7 +48725,7 @@
         <v>405</v>
       </c>
       <c r="C575" s="13" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="D575" s="11">
         <v>278</v>
@@ -48516,7 +48739,7 @@
         <v>406</v>
       </c>
       <c r="C576" s="13" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="D576" s="11">
         <v>279</v>
@@ -48530,7 +48753,7 @@
         <v>407</v>
       </c>
       <c r="C577" s="13" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D577" s="11">
         <v>280</v>
@@ -48544,7 +48767,7 @@
         <v>408</v>
       </c>
       <c r="C578" s="13" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="D578" s="11">
         <v>281</v>
@@ -48558,7 +48781,7 @@
         <v>409</v>
       </c>
       <c r="C579" s="13" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="D579" s="11">
         <v>282</v>
@@ -48587,7 +48810,7 @@
         <v>411</v>
       </c>
       <c r="C581" s="19" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="D581" s="10">
         <v>283</v>
@@ -48602,7 +48825,7 @@
         <v>412</v>
       </c>
       <c r="C582" s="19" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="D582" s="10">
         <v>0</v>
@@ -48616,7 +48839,7 @@
         <v>413</v>
       </c>
       <c r="C583" s="19" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="D583" s="10">
         <v>0</v>
@@ -48630,7 +48853,7 @@
         <v>414</v>
       </c>
       <c r="C584" s="19" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="D584" s="10">
         <v>0</v>
@@ -48644,7 +48867,7 @@
         <v>415</v>
       </c>
       <c r="C585" s="19" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="D585" s="10">
         <v>284</v>
@@ -48659,7 +48882,7 @@
         <v>416</v>
       </c>
       <c r="C586" s="19" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="D586" s="10">
         <v>0</v>
@@ -48673,7 +48896,7 @@
         <v>417</v>
       </c>
       <c r="C587" s="19" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="D587" s="10">
         <v>0</v>
@@ -48687,7 +48910,7 @@
         <v>418</v>
       </c>
       <c r="C588" s="19" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D588" s="10">
         <v>0</v>
@@ -48701,7 +48924,7 @@
         <v>419</v>
       </c>
       <c r="C589" s="13" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="D589" s="11">
         <v>285</v>
@@ -48715,7 +48938,7 @@
         <v>420</v>
       </c>
       <c r="C590" s="119" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="D590" s="115">
         <v>286</v>
@@ -48729,7 +48952,7 @@
         <v>421</v>
       </c>
       <c r="C591" s="119" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="D591" s="115">
         <v>287</v>
@@ -48743,7 +48966,7 @@
         <v>422</v>
       </c>
       <c r="C592" s="119" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="D592" s="115">
         <v>288</v>
@@ -48771,7 +48994,7 @@
         <v>424</v>
       </c>
       <c r="C594" s="119" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D594" s="115">
         <v>290</v>
@@ -48785,7 +49008,7 @@
         <v>425</v>
       </c>
       <c r="C595" s="119" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D595" s="115">
         <v>291</v>
@@ -48799,7 +49022,7 @@
         <v>426</v>
       </c>
       <c r="C596" s="119" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D596" s="115">
         <v>292</v>
@@ -48813,7 +49036,7 @@
         <v>427</v>
       </c>
       <c r="C597" s="119" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D597" s="115">
         <v>293</v>
@@ -48827,7 +49050,7 @@
         <v>428</v>
       </c>
       <c r="C598" s="13" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D598" s="11">
         <v>294</v>
@@ -48949,7 +49172,7 @@
         <v>429</v>
       </c>
       <c r="C606" s="11" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="D606" s="11">
         <v>0</v>
@@ -49099,7 +49322,7 @@
         <v>439</v>
       </c>
       <c r="C616" s="123" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="D616" s="60">
         <v>304</v>
@@ -49114,7 +49337,7 @@
         <v>440</v>
       </c>
       <c r="C617" s="123" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="D617" s="60">
         <v>305</v>
@@ -49129,7 +49352,7 @@
         <v>441</v>
       </c>
       <c r="C618" s="123" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="D618" s="60">
         <v>0</v>
@@ -49253,7 +49476,7 @@
         <v>441</v>
       </c>
       <c r="C626" s="60" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="D626" s="60">
         <v>0</v>
@@ -49394,6 +49617,48 @@
         <v>314</v>
       </c>
       <c r="E635" s="122"/>
+    </row>
+    <row r="636" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A636" s="11">
+        <v>635</v>
+      </c>
+      <c r="B636" s="10">
+        <v>451</v>
+      </c>
+      <c r="C636" s="86" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D636" s="10">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="637" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A637" s="11">
+        <v>636</v>
+      </c>
+      <c r="B637" s="10">
+        <v>452</v>
+      </c>
+      <c r="C637" s="86" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D637" s="10">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="638" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A638" s="11">
+        <v>637</v>
+      </c>
+      <c r="B638" s="10">
+        <v>453</v>
+      </c>
+      <c r="C638" s="86" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D638" s="10">
+        <v>317</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
@@ -49405,13 +49670,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:M433"/>
+  <dimension ref="A1:M436"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C401" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C411" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A425" sqref="A425:E433"/>
+      <selection pane="bottomRight" activeCell="E434" sqref="E434"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -52310,7 +52575,7 @@
         <v>681</v>
       </c>
       <c r="D137" s="25" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="E137" s="11">
         <v>2</v>
@@ -56131,7 +56396,7 @@
         <v>247</v>
       </c>
       <c r="C359" s="95" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="D359" s="94">
         <v>0</v>
@@ -56149,7 +56414,7 @@
         <v>248</v>
       </c>
       <c r="C360" s="13" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="D360" s="15" t="s">
         <v>969</v>
@@ -56223,7 +56488,7 @@
         <v>688</v>
       </c>
       <c r="D364" s="92" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="E364" s="91">
         <v>2</v>
@@ -56238,10 +56503,10 @@
         <v>253</v>
       </c>
       <c r="C365" s="19" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="D365" s="83" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="E365" s="10">
         <v>2</v>
@@ -56255,7 +56520,7 @@
         <v>254</v>
       </c>
       <c r="C366" s="19" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="D366" s="10">
         <v>3</v>
@@ -56272,7 +56537,7 @@
         <v>255</v>
       </c>
       <c r="C367" s="19" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="D367" s="10">
         <v>4</v>
@@ -56289,7 +56554,7 @@
         <v>256</v>
       </c>
       <c r="C368" s="19" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="D368" s="10">
         <v>5</v>
@@ -56309,7 +56574,7 @@
         <v>675</v>
       </c>
       <c r="D369" s="14" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="E369" s="29">
         <v>2</v>
@@ -56325,7 +56590,7 @@
         <v>258</v>
       </c>
       <c r="C370" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="D370" s="11">
         <v>5000000</v>
@@ -56342,7 +56607,7 @@
         <v>259</v>
       </c>
       <c r="C371" s="13" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="D371" s="13">
         <v>20</v>
@@ -56359,7 +56624,7 @@
         <v>259</v>
       </c>
       <c r="C372" s="13" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="D372" s="11">
         <v>100000</v>
@@ -56376,7 +56641,7 @@
         <v>260</v>
       </c>
       <c r="C373" s="13" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="D373" s="11">
         <v>480000</v>
@@ -56393,7 +56658,7 @@
         <v>261</v>
       </c>
       <c r="C374" s="13" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="D374" s="11">
         <v>960000</v>
@@ -56410,7 +56675,7 @@
         <v>262</v>
       </c>
       <c r="C375" s="13" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="D375" s="11">
         <v>10</v>
@@ -56427,10 +56692,10 @@
         <v>263</v>
       </c>
       <c r="C376" s="13" t="s">
+        <v>1353</v>
+      </c>
+      <c r="D376" s="13" t="s">
         <v>1354</v>
-      </c>
-      <c r="D376" s="13" t="s">
-        <v>1355</v>
       </c>
       <c r="E376" s="11">
         <v>2</v>
@@ -56444,10 +56709,10 @@
         <v>264</v>
       </c>
       <c r="C377" s="13" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="D377" s="17" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="E377" s="11">
         <v>2</v>
@@ -56461,7 +56726,7 @@
         <v>265</v>
       </c>
       <c r="C378" s="13" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="D378" s="11" t="s">
         <v>1163</v>
@@ -56478,10 +56743,10 @@
         <v>266</v>
       </c>
       <c r="C379" s="13" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="D379" s="11" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E379" s="11">
         <v>2</v>
@@ -56495,10 +56760,10 @@
         <v>267</v>
       </c>
       <c r="C380" s="13" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="D380" s="11" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="E380" s="11">
         <v>2</v>
@@ -56512,7 +56777,7 @@
         <v>268</v>
       </c>
       <c r="C381" s="13" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="D381" s="11" t="s">
         <v>712</v>
@@ -56529,7 +56794,7 @@
         <v>269</v>
       </c>
       <c r="C382" s="13" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="D382" s="11" t="s">
         <v>712</v>
@@ -56546,10 +56811,10 @@
         <v>270</v>
       </c>
       <c r="C383" s="13" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="D383" s="11" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="E383" s="11">
         <v>2</v>
@@ -56563,10 +56828,10 @@
         <v>271</v>
       </c>
       <c r="C384" s="13" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="D384" s="11" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="E384" s="11">
         <v>2</v>
@@ -56580,10 +56845,10 @@
         <v>272</v>
       </c>
       <c r="C385" s="13" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="D385" s="11" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="E385" s="11">
         <v>2</v>
@@ -56600,7 +56865,7 @@
         <v>688</v>
       </c>
       <c r="D386" s="13" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="E386" s="11">
         <v>2</v>
@@ -56614,7 +56879,7 @@
         <v>273</v>
       </c>
       <c r="C387" s="13" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="D387" s="11">
         <v>500</v>
@@ -56634,7 +56899,7 @@
         <v>688</v>
       </c>
       <c r="D388" s="13" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="E388" s="11">
         <v>2</v>
@@ -56736,7 +57001,7 @@
         <v>859</v>
       </c>
       <c r="D394" s="15" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="E394" s="11">
         <v>2</v>
@@ -56750,7 +57015,7 @@
         <v>278</v>
       </c>
       <c r="C395" s="13" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="D395" s="11">
         <v>240000</v>
@@ -56767,7 +57032,7 @@
         <v>279</v>
       </c>
       <c r="C396" s="13" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="D396" s="11">
         <v>1</v>
@@ -56801,7 +57066,7 @@
         <v>280</v>
       </c>
       <c r="C398" s="13" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="D398" s="11">
         <v>9</v>
@@ -56818,7 +57083,7 @@
         <v>281</v>
       </c>
       <c r="C399" s="13" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="D399" s="11">
         <v>51</v>
@@ -56835,7 +57100,7 @@
         <v>282</v>
       </c>
       <c r="C400" s="13" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="D400" s="11">
         <v>240000</v>
@@ -56852,10 +57117,10 @@
         <v>283</v>
       </c>
       <c r="C401" s="19" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="D401" s="83" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="E401" s="10">
         <v>2</v>
@@ -56873,7 +57138,7 @@
         <v>681</v>
       </c>
       <c r="D402" s="112" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="E402" s="10">
         <v>2</v>
@@ -56888,7 +57153,7 @@
         <v>285</v>
       </c>
       <c r="C403" s="19" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="D403" s="10">
         <v>30000</v>
@@ -56909,7 +57174,7 @@
         <v>700</v>
       </c>
       <c r="D404" s="119" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="E404" s="115">
         <v>2</v>
@@ -56927,7 +57192,7 @@
         <v>700</v>
       </c>
       <c r="D405" s="119" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="E405" s="115">
         <v>2</v>
@@ -56945,7 +57210,7 @@
         <v>700</v>
       </c>
       <c r="D406" s="119" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="E406" s="115">
         <v>2</v>
@@ -56960,10 +57225,10 @@
         <v>289</v>
       </c>
       <c r="C407" s="60" t="s">
+        <v>1527</v>
+      </c>
+      <c r="D407" s="64" t="s">
         <v>1528</v>
-      </c>
-      <c r="D407" s="64" t="s">
-        <v>1529</v>
       </c>
       <c r="E407" s="60">
         <v>2</v>
@@ -56977,7 +57242,7 @@
         <v>290</v>
       </c>
       <c r="C408" s="19" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="D408" s="10">
         <v>5000</v>
@@ -56995,7 +57260,7 @@
         <v>291</v>
       </c>
       <c r="C409" s="19" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="D409" s="10">
         <v>10000</v>
@@ -57012,7 +57277,7 @@
         <v>292</v>
       </c>
       <c r="C410" s="19" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="D410" s="10">
         <v>30000</v>
@@ -57029,7 +57294,7 @@
         <v>293</v>
       </c>
       <c r="C411" s="19" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="D411" s="10">
         <v>60000</v>
@@ -57046,7 +57311,7 @@
         <v>294</v>
       </c>
       <c r="C412" s="19" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="D412" s="10">
         <v>120000</v>
@@ -57063,7 +57328,7 @@
         <v>295</v>
       </c>
       <c r="C413" s="13" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="D413" s="11">
         <v>1</v>
@@ -57080,7 +57345,7 @@
         <v>296</v>
       </c>
       <c r="C414" s="13" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="D414" s="11">
         <v>2</v>
@@ -57097,7 +57362,7 @@
         <v>297</v>
       </c>
       <c r="C415" s="13" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="D415" s="11">
         <v>3</v>
@@ -57114,7 +57379,7 @@
         <v>298</v>
       </c>
       <c r="C416" s="13" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="D416" s="11">
         <v>4</v>
@@ -57131,7 +57396,7 @@
         <v>299</v>
       </c>
       <c r="C417" s="13" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="D417" s="11">
         <v>5</v>
@@ -57148,7 +57413,7 @@
         <v>300</v>
       </c>
       <c r="C418" s="13" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="D418" s="11">
         <v>111</v>
@@ -57165,7 +57430,7 @@
         <v>301</v>
       </c>
       <c r="C419" s="13" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="D419" s="11">
         <v>6</v>
@@ -57182,7 +57447,7 @@
         <v>302</v>
       </c>
       <c r="C420" s="13" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="D420" s="11">
         <v>108</v>
@@ -57199,7 +57464,7 @@
         <v>303</v>
       </c>
       <c r="C421" s="13" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="D421" s="11">
         <v>110</v>
@@ -57216,10 +57481,10 @@
         <v>304</v>
       </c>
       <c r="C422" s="13" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="D422" s="15" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="E422" s="11">
         <v>2</v>
@@ -57233,10 +57498,10 @@
         <v>304</v>
       </c>
       <c r="C423" s="13" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="D423" s="13" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="E423" s="11">
         <v>2</v>
@@ -57250,10 +57515,10 @@
         <v>305</v>
       </c>
       <c r="C424" s="11" t="s">
+        <v>1605</v>
+      </c>
+      <c r="D424" s="11" t="s">
         <v>1606</v>
-      </c>
-      <c r="D424" s="11" t="s">
-        <v>1607</v>
       </c>
       <c r="E424" s="11">
         <v>2</v>
@@ -57409,6 +57674,57 @@
         <v>110</v>
       </c>
       <c r="E433" s="60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A434" s="61">
+        <v>463</v>
+      </c>
+      <c r="B434" s="10">
+        <v>315</v>
+      </c>
+      <c r="C434" s="19" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D434" s="83" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E434" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A435" s="61">
+        <v>464</v>
+      </c>
+      <c r="B435" s="10">
+        <v>316</v>
+      </c>
+      <c r="C435" s="19" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D435" s="10">
+        <v>2</v>
+      </c>
+      <c r="E435" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A436" s="61">
+        <v>465</v>
+      </c>
+      <c r="B436" s="10">
+        <v>317</v>
+      </c>
+      <c r="C436" s="19" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D436" s="10">
+        <v>3</v>
+      </c>
+      <c r="E436" s="10">
         <v>2</v>
       </c>
     </row>
@@ -57422,13 +57738,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:W949"/>
+  <dimension ref="A1:W976"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C919" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C944" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C950" sqref="C950"/>
+      <selection pane="bottomRight" activeCell="A966" sqref="A966"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -63328,7 +63644,7 @@
       </c>
       <c r="C266" s="10"/>
       <c r="D266" s="19" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="E266" s="10">
         <v>10</v>
@@ -63370,7 +63686,7 @@
       </c>
       <c r="C268" s="78"/>
       <c r="D268" s="77" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="E268" s="78">
         <v>10</v>
@@ -63391,7 +63707,7 @@
       </c>
       <c r="C269" s="78"/>
       <c r="D269" s="77" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="E269" s="78">
         <v>10</v>
@@ -69875,7 +70191,7 @@
       </c>
       <c r="C591" s="13"/>
       <c r="D591" s="13" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="E591" s="11">
         <v>88</v>
@@ -71528,7 +71844,7 @@
       </c>
       <c r="C670" s="11"/>
       <c r="D670" s="13" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="E670" s="11">
         <v>12000</v>
@@ -73664,7 +73980,7 @@
       </c>
       <c r="C774" s="11"/>
       <c r="D774" s="13" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="E774" s="11">
         <v>10</v>
@@ -73685,10 +74001,10 @@
       </c>
       <c r="C775" s="10"/>
       <c r="D775" s="19" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E775" s="83" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="F775" s="10">
         <v>50</v>
@@ -73704,10 +74020,10 @@
       </c>
       <c r="C776" s="10"/>
       <c r="D776" s="19" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E776" s="83" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="F776" s="10">
         <v>30</v>
@@ -73725,10 +74041,10 @@
       </c>
       <c r="C777" s="10"/>
       <c r="D777" s="19" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E777" s="83" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="F777" s="10">
         <v>20</v>
@@ -73746,10 +74062,10 @@
       </c>
       <c r="C778" s="10"/>
       <c r="D778" s="19" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E778" s="83" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="F778" s="10">
         <v>50</v>
@@ -73764,10 +74080,10 @@
       </c>
       <c r="C779" s="10"/>
       <c r="D779" s="19" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E779" s="83" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="F779" s="10">
         <v>30</v>
@@ -73782,10 +74098,10 @@
       </c>
       <c r="C780" s="10"/>
       <c r="D780" s="19" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E780" s="83" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="F780" s="10">
         <v>20</v>
@@ -73800,10 +74116,10 @@
       </c>
       <c r="C781" s="10"/>
       <c r="D781" s="19" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E781" s="83" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="F781" s="10">
         <v>50</v>
@@ -73818,10 +74134,10 @@
       </c>
       <c r="C782" s="10"/>
       <c r="D782" s="19" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E782" s="83" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="F782" s="10">
         <v>30</v>
@@ -73836,10 +74152,10 @@
       </c>
       <c r="C783" s="10"/>
       <c r="D783" s="19" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E783" s="83" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="F783" s="10">
         <v>20</v>
@@ -73854,10 +74170,10 @@
       </c>
       <c r="C784" s="10"/>
       <c r="D784" s="19" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E784" s="83" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="F784" s="10">
         <v>25</v>
@@ -73872,10 +74188,10 @@
       </c>
       <c r="C785" s="10"/>
       <c r="D785" s="19" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E785" s="83" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="F785" s="10">
         <v>50</v>
@@ -73890,10 +74206,10 @@
       </c>
       <c r="C786" s="10"/>
       <c r="D786" s="19" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E786" s="83" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="F786" s="10">
         <v>25</v>
@@ -73908,10 +74224,10 @@
       </c>
       <c r="C787" s="10"/>
       <c r="D787" s="19" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E787" s="83" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="F787" s="10">
         <v>25</v>
@@ -73926,10 +74242,10 @@
       </c>
       <c r="C788" s="10"/>
       <c r="D788" s="19" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E788" s="83" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="F788" s="10">
         <v>50</v>
@@ -73944,7 +74260,7 @@
       </c>
       <c r="C789" s="10"/>
       <c r="D789" s="19" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E789" s="83">
         <v>150</v>
@@ -73962,7 +74278,7 @@
       </c>
       <c r="C790" s="10"/>
       <c r="D790" s="19" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E790" s="9">
         <v>400</v>
@@ -73980,7 +74296,7 @@
       </c>
       <c r="C791" s="10"/>
       <c r="D791" s="19" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E791" s="9">
         <v>500</v>
@@ -73998,7 +74314,7 @@
       </c>
       <c r="C792" s="10"/>
       <c r="D792" s="19" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E792" s="9">
         <v>600</v>
@@ -74016,7 +74332,7 @@
       </c>
       <c r="C793" s="10"/>
       <c r="D793" s="19" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E793" s="9">
         <v>100</v>
@@ -74034,7 +74350,7 @@
       </c>
       <c r="C794" s="10"/>
       <c r="D794" s="19" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E794" s="9">
         <v>300</v>
@@ -74052,7 +74368,7 @@
       </c>
       <c r="C795" s="10"/>
       <c r="D795" s="19" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E795" s="9">
         <v>500</v>
@@ -74070,7 +74386,7 @@
       </c>
       <c r="C796" s="10"/>
       <c r="D796" s="19" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E796" s="9">
         <v>500</v>
@@ -74088,7 +74404,7 @@
       </c>
       <c r="C797" s="10"/>
       <c r="D797" s="19" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E797" s="9">
         <v>1000</v>
@@ -74106,7 +74422,7 @@
       </c>
       <c r="C798" s="10"/>
       <c r="D798" s="19" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E798" s="9">
         <v>1500</v>
@@ -74124,7 +74440,7 @@
       </c>
       <c r="C799" s="10"/>
       <c r="D799" s="19" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E799" s="9">
         <v>4000</v>
@@ -74142,7 +74458,7 @@
       </c>
       <c r="C800" s="10"/>
       <c r="D800" s="19" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E800" s="9">
         <v>5000</v>
@@ -74160,7 +74476,7 @@
       </c>
       <c r="C801" s="10"/>
       <c r="D801" s="19" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E801" s="9">
         <v>6000</v>
@@ -74178,7 +74494,7 @@
       </c>
       <c r="C802" s="10"/>
       <c r="D802" s="19" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E802" s="9">
         <v>1000</v>
@@ -74196,7 +74512,7 @@
       </c>
       <c r="C803" s="10"/>
       <c r="D803" s="19" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E803" s="9">
         <v>3000</v>
@@ -74214,7 +74530,7 @@
       </c>
       <c r="C804" s="10"/>
       <c r="D804" s="19" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E804" s="9">
         <v>5000</v>
@@ -74232,7 +74548,7 @@
       </c>
       <c r="C805" s="10"/>
       <c r="D805" s="19" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E805" s="9">
         <v>5000</v>
@@ -74250,7 +74566,7 @@
       </c>
       <c r="C806" s="10"/>
       <c r="D806" s="19" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E806" s="9">
         <v>10000</v>
@@ -74268,7 +74584,7 @@
       </c>
       <c r="C807" s="10"/>
       <c r="D807" s="19" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E807" s="9">
         <v>15000</v>
@@ -74286,7 +74602,7 @@
       </c>
       <c r="C808" s="10"/>
       <c r="D808" s="19" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E808" s="9">
         <v>40000</v>
@@ -74304,7 +74620,7 @@
       </c>
       <c r="C809" s="10"/>
       <c r="D809" s="19" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E809" s="9">
         <v>50000</v>
@@ -74322,7 +74638,7 @@
       </c>
       <c r="C810" s="10"/>
       <c r="D810" s="19" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E810" s="9">
         <v>60000</v>
@@ -74340,10 +74656,10 @@
       </c>
       <c r="C811" s="11"/>
       <c r="D811" s="13" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="E811" s="27" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="F811" s="11">
         <v>1</v>
@@ -74361,10 +74677,10 @@
       </c>
       <c r="C812" s="11"/>
       <c r="D812" s="13" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="E812" s="15" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="F812" s="11">
         <v>1</v>
@@ -74382,7 +74698,7 @@
       </c>
       <c r="C813" s="11"/>
       <c r="D813" s="13" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="E813" s="27">
         <v>1</v>
@@ -74403,7 +74719,7 @@
       </c>
       <c r="C814" s="11"/>
       <c r="D814" s="13" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="E814" s="27">
         <v>400</v>
@@ -74424,7 +74740,7 @@
       </c>
       <c r="C815" s="11"/>
       <c r="D815" s="13" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="E815" s="27">
         <v>1</v>
@@ -74487,7 +74803,7 @@
       </c>
       <c r="C818" s="11"/>
       <c r="D818" s="13" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="E818" s="27">
         <v>200</v>
@@ -74571,7 +74887,7 @@
       </c>
       <c r="C822" s="11"/>
       <c r="D822" s="87" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="E822" s="27">
         <v>3500</v>
@@ -74613,7 +74929,7 @@
       </c>
       <c r="C824" s="11"/>
       <c r="D824" s="13" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="E824" s="27">
         <v>14000</v>
@@ -74633,7 +74949,7 @@
         <v>592</v>
       </c>
       <c r="C825" s="13" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="D825" s="11"/>
       <c r="E825" s="27"/>
@@ -74654,7 +74970,7 @@
         <v>593</v>
       </c>
       <c r="C826" s="13" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="D826" s="11"/>
       <c r="E826" s="27"/>
@@ -74675,7 +74991,7 @@
         <v>594</v>
       </c>
       <c r="C827" s="13" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="D827" s="11"/>
       <c r="E827" s="27"/>
@@ -74696,7 +75012,7 @@
         <v>595</v>
       </c>
       <c r="C828" s="13" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="D828" s="11"/>
       <c r="E828" s="27"/>
@@ -74717,7 +75033,7 @@
         <v>596</v>
       </c>
       <c r="C829" s="13" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="D829" s="11"/>
       <c r="E829" s="27"/>
@@ -74738,7 +75054,7 @@
         <v>597</v>
       </c>
       <c r="C830" s="13" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="D830" s="11"/>
       <c r="E830" s="27"/>
@@ -74777,7 +75093,7 @@
       </c>
       <c r="C832" s="29"/>
       <c r="D832" s="14" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="E832" s="29">
         <v>1</v>
@@ -74798,7 +75114,7 @@
       </c>
       <c r="C833" s="29"/>
       <c r="D833" s="14" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="E833" s="29">
         <v>1</v>
@@ -74835,7 +75151,7 @@
         <v>599</v>
       </c>
       <c r="D835" s="14" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="E835" s="29">
         <v>1</v>
@@ -74852,7 +75168,7 @@
         <v>599</v>
       </c>
       <c r="D836" s="14" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="E836" s="29">
         <v>1</v>
@@ -74886,7 +75202,7 @@
         <v>600</v>
       </c>
       <c r="D838" s="14" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="E838" s="29">
         <v>1</v>
@@ -74903,7 +75219,7 @@
         <v>600</v>
       </c>
       <c r="D839" s="14" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="E839" s="29">
         <v>1</v>
@@ -74937,7 +75253,7 @@
         <v>601</v>
       </c>
       <c r="D841" s="14" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="E841" s="29">
         <v>2</v>
@@ -74954,7 +75270,7 @@
         <v>601</v>
       </c>
       <c r="D842" s="14" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="E842" s="29">
         <v>2</v>
@@ -74988,7 +75304,7 @@
         <v>602</v>
       </c>
       <c r="D844" s="14" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="E844" s="29">
         <v>2</v>
@@ -75005,7 +75321,7 @@
         <v>602</v>
       </c>
       <c r="D845" s="14" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="E845" s="29">
         <v>2</v>
@@ -75039,7 +75355,7 @@
         <v>603</v>
       </c>
       <c r="D847" s="14" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="E847" s="29">
         <v>2</v>
@@ -75056,7 +75372,7 @@
         <v>603</v>
       </c>
       <c r="D848" s="14" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="E848" s="29">
         <v>2</v>
@@ -75090,7 +75406,7 @@
         <v>604</v>
       </c>
       <c r="D850" s="14" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="E850" s="29">
         <v>3</v>
@@ -75107,7 +75423,7 @@
         <v>604</v>
       </c>
       <c r="D851" s="14" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="E851" s="29">
         <v>3</v>
@@ -75141,7 +75457,7 @@
         <v>605</v>
       </c>
       <c r="D853" s="14" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="E853" s="29">
         <v>3</v>
@@ -75158,7 +75474,7 @@
         <v>605</v>
       </c>
       <c r="D854" s="14" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="E854" s="29">
         <v>3</v>
@@ -75192,7 +75508,7 @@
         <v>606</v>
       </c>
       <c r="D856" s="14" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="E856" s="29">
         <v>3</v>
@@ -75209,7 +75525,7 @@
         <v>606</v>
       </c>
       <c r="D857" s="14" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="E857" s="29">
         <v>3</v>
@@ -75243,7 +75559,7 @@
         <v>607</v>
       </c>
       <c r="D859" s="14" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="E859" s="29">
         <v>5</v>
@@ -75260,7 +75576,7 @@
         <v>607</v>
       </c>
       <c r="D860" s="14" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="E860" s="29">
         <v>5</v>
@@ -75294,7 +75610,7 @@
         <v>608</v>
       </c>
       <c r="D862" s="14" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="E862" s="29">
         <v>5</v>
@@ -75311,7 +75627,7 @@
         <v>608</v>
       </c>
       <c r="D863" s="14" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="E863" s="29">
         <v>5</v>
@@ -75345,7 +75661,7 @@
         <v>609</v>
       </c>
       <c r="D865" s="14" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="E865" s="29">
         <v>5</v>
@@ -75362,7 +75678,7 @@
         <v>609</v>
       </c>
       <c r="D866" s="14" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="E866" s="29">
         <v>5</v>
@@ -75379,7 +75695,7 @@
         <v>610</v>
       </c>
       <c r="C867" s="14" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="F867" s="29">
         <v>1</v>
@@ -75394,7 +75710,7 @@
       </c>
       <c r="C868" s="29"/>
       <c r="D868" s="14" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="E868" s="29">
         <v>9800000</v>
@@ -75411,7 +75727,7 @@
         <v>611</v>
       </c>
       <c r="C869" s="14" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="F869" s="29">
         <v>1</v>
@@ -75426,7 +75742,7 @@
       </c>
       <c r="C870" s="29"/>
       <c r="D870" s="14" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="E870" s="29">
         <v>4800000</v>
@@ -75443,7 +75759,7 @@
         <v>612</v>
       </c>
       <c r="D871" s="14" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="E871" s="29">
         <v>4800000</v>
@@ -75460,7 +75776,7 @@
         <v>613</v>
       </c>
       <c r="D872" s="14" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="E872" s="29">
         <v>1800000</v>
@@ -75477,7 +75793,7 @@
         <v>614</v>
       </c>
       <c r="D873" s="14" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="E873" s="29">
         <v>800000</v>
@@ -75494,7 +75810,7 @@
         <v>615</v>
       </c>
       <c r="D874" s="14" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="E874" s="29">
         <v>888888</v>
@@ -75511,7 +75827,7 @@
         <v>616</v>
       </c>
       <c r="D875" s="14" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="E875" s="29">
         <v>588888</v>
@@ -75528,7 +75844,7 @@
         <v>617</v>
       </c>
       <c r="D876" s="14" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="E876" s="29">
         <v>388888</v>
@@ -75545,7 +75861,7 @@
         <v>618</v>
       </c>
       <c r="D877" s="14" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="E877" s="29">
         <v>188888</v>
@@ -75562,7 +75878,7 @@
         <v>619</v>
       </c>
       <c r="D878" s="14" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="E878" s="1">
         <v>10000</v>
@@ -75582,7 +75898,7 @@
         <v>620</v>
       </c>
       <c r="D879" s="14" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="E879" s="1">
         <v>20000</v>
@@ -75599,7 +75915,7 @@
         <v>621</v>
       </c>
       <c r="D880" s="14" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="E880" s="1">
         <v>30000</v>
@@ -75619,7 +75935,7 @@
         <v>622</v>
       </c>
       <c r="D881" s="14" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="E881" s="1">
         <v>10000</v>
@@ -75636,7 +75952,7 @@
         <v>623</v>
       </c>
       <c r="D882" s="14" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="E882" s="1">
         <v>20000</v>
@@ -75653,7 +75969,7 @@
         <v>624</v>
       </c>
       <c r="D883" s="14" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="E883" s="1">
         <v>30000</v>
@@ -75670,7 +75986,7 @@
         <v>625</v>
       </c>
       <c r="D884" s="14" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="E884" s="1">
         <v>50</v>
@@ -75687,7 +76003,7 @@
         <v>626</v>
       </c>
       <c r="D885" s="14" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="E885" s="1">
         <v>1</v>
@@ -75704,7 +76020,7 @@
         <v>627</v>
       </c>
       <c r="D886" s="14" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="E886" s="29">
         <v>1</v>
@@ -75721,7 +76037,7 @@
         <v>628</v>
       </c>
       <c r="D887" s="14" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="E887" s="29">
         <v>1</v>
@@ -75739,7 +76055,7 @@
       </c>
       <c r="C888" s="29"/>
       <c r="D888" s="14" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="E888" s="29">
         <v>1</v>
@@ -75760,7 +76076,7 @@
       </c>
       <c r="C889" s="29"/>
       <c r="D889" s="14" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="E889" s="29">
         <v>1000</v>
@@ -75800,7 +76116,7 @@
         <v>632</v>
       </c>
       <c r="D891" s="13" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="E891" s="1">
         <v>100</v>
@@ -75818,7 +76134,7 @@
       </c>
       <c r="C892" s="29"/>
       <c r="D892" s="13" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="E892" s="29">
         <v>100</v>
@@ -75838,7 +76154,7 @@
         <v>633</v>
       </c>
       <c r="D893" s="13" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="E893" s="29">
         <v>300</v>
@@ -75856,7 +76172,7 @@
       </c>
       <c r="C894" s="29"/>
       <c r="D894" s="13" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="E894" s="29">
         <v>300</v>
@@ -75876,7 +76192,7 @@
         <v>634</v>
       </c>
       <c r="D895" s="13" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="E895" s="29">
         <v>900</v>
@@ -75894,7 +76210,7 @@
       </c>
       <c r="C896" s="29"/>
       <c r="D896" s="13" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="E896" s="29">
         <v>900</v>
@@ -75914,7 +76230,7 @@
         <v>635</v>
       </c>
       <c r="D897" s="13" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="E897" s="29">
         <v>3000</v>
@@ -75932,7 +76248,7 @@
       </c>
       <c r="C898" s="29"/>
       <c r="D898" s="13" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="E898" s="29">
         <v>3000</v>
@@ -75952,7 +76268,7 @@
         <v>636</v>
       </c>
       <c r="D899" s="13" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="E899" s="29">
         <v>8400</v>
@@ -75970,7 +76286,7 @@
       </c>
       <c r="C900" s="29"/>
       <c r="D900" s="13" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="E900" s="29">
         <v>8400</v>
@@ -75991,7 +76307,7 @@
       </c>
       <c r="C901" s="11"/>
       <c r="D901" s="13" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="E901" s="11">
         <v>1</v>
@@ -76012,7 +76328,7 @@
       </c>
       <c r="C902" s="11"/>
       <c r="D902" s="13" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="E902" s="11">
         <v>1</v>
@@ -76033,7 +76349,7 @@
       </c>
       <c r="C903" s="11"/>
       <c r="D903" s="13" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="E903" s="11">
         <v>4</v>
@@ -76054,7 +76370,7 @@
       </c>
       <c r="C904" s="11"/>
       <c r="D904" s="13" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="E904" s="11">
         <v>4</v>
@@ -76075,7 +76391,7 @@
       </c>
       <c r="C905" s="11"/>
       <c r="D905" s="13" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="E905" s="11">
         <v>9</v>
@@ -76096,7 +76412,7 @@
       </c>
       <c r="C906" s="11"/>
       <c r="D906" s="13" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="E906" s="11">
         <v>9</v>
@@ -76117,7 +76433,7 @@
       </c>
       <c r="C907" s="11"/>
       <c r="D907" s="13" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="E907" s="11">
         <v>18</v>
@@ -76138,7 +76454,7 @@
       </c>
       <c r="C908" s="11"/>
       <c r="D908" s="13" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="E908" s="11">
         <v>18</v>
@@ -76159,7 +76475,7 @@
       </c>
       <c r="C909" s="11"/>
       <c r="D909" s="13" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="E909" s="11">
         <v>30</v>
@@ -76180,7 +76496,7 @@
       </c>
       <c r="C910" s="11"/>
       <c r="D910" s="13" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="E910" s="11">
         <v>30</v>
@@ -76201,7 +76517,7 @@
       </c>
       <c r="C911" s="11"/>
       <c r="D911" s="13" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="E911" s="11">
         <v>58</v>
@@ -76222,7 +76538,7 @@
       </c>
       <c r="C912" s="11"/>
       <c r="D912" s="13" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="E912" s="11">
         <v>58</v>
@@ -76243,7 +76559,7 @@
       </c>
       <c r="C913" s="11"/>
       <c r="D913" s="13" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="E913" s="11">
         <v>118</v>
@@ -76264,7 +76580,7 @@
       </c>
       <c r="C914" s="11"/>
       <c r="D914" s="13" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="E914" s="11">
         <v>118</v>
@@ -76285,7 +76601,7 @@
       </c>
       <c r="C915" s="11"/>
       <c r="D915" s="13" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="E915" s="11">
         <v>298</v>
@@ -76306,7 +76622,7 @@
       </c>
       <c r="C916" s="11"/>
       <c r="D916" s="13" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="E916" s="11">
         <v>298</v>
@@ -76327,7 +76643,7 @@
       </c>
       <c r="C917" s="11"/>
       <c r="D917" s="13" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="E917" s="11">
         <v>598</v>
@@ -76348,7 +76664,7 @@
       </c>
       <c r="C918" s="11"/>
       <c r="D918" s="13" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="E918" s="11">
         <v>598</v>
@@ -76369,7 +76685,7 @@
       </c>
       <c r="C919" s="11"/>
       <c r="D919" s="13" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="E919" s="11">
         <v>1498</v>
@@ -76390,7 +76706,7 @@
       </c>
       <c r="C920" s="11"/>
       <c r="D920" s="13" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="E920" s="11">
         <v>1498</v>
@@ -76453,7 +76769,7 @@
       </c>
       <c r="C923" s="11"/>
       <c r="D923" s="13" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="E923" s="11">
         <v>2</v>
@@ -76474,7 +76790,7 @@
       </c>
       <c r="C924" s="11"/>
       <c r="D924" s="13" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="E924" s="11">
         <v>5</v>
@@ -76495,7 +76811,7 @@
       </c>
       <c r="C925" s="11"/>
       <c r="D925" s="13" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="E925" s="11">
         <v>40</v>
@@ -76516,7 +76832,7 @@
       </c>
       <c r="C926" s="11"/>
       <c r="D926" s="13" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="E926" s="11">
         <v>100</v>
@@ -76537,7 +76853,7 @@
       </c>
       <c r="C927" s="11"/>
       <c r="D927" s="13" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="E927" s="11">
         <v>150</v>
@@ -76558,7 +76874,7 @@
       </c>
       <c r="C928" s="11"/>
       <c r="D928" s="13" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="E928" s="11">
         <v>300</v>
@@ -76579,7 +76895,7 @@
       </c>
       <c r="C929" s="11"/>
       <c r="D929" s="13" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="E929" s="11">
         <v>400</v>
@@ -76600,7 +76916,7 @@
       </c>
       <c r="C930" s="11"/>
       <c r="D930" s="13" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="E930" s="11">
         <v>1000</v>
@@ -76621,7 +76937,7 @@
       </c>
       <c r="C931" s="11"/>
       <c r="D931" s="13" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="E931" s="11">
         <v>2000</v>
@@ -76642,7 +76958,7 @@
       </c>
       <c r="C932" s="11"/>
       <c r="D932" s="13" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="E932" s="11">
         <v>3500</v>
@@ -76663,7 +76979,7 @@
       </c>
       <c r="C933" s="11"/>
       <c r="D933" s="13" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="E933" s="11">
         <v>17000</v>
@@ -76684,7 +77000,7 @@
       </c>
       <c r="C934" s="11"/>
       <c r="D934" s="13" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="E934" s="11">
         <v>32500</v>
@@ -76705,7 +77021,7 @@
       </c>
       <c r="C935" s="11"/>
       <c r="D935" s="13" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="E935" s="11">
         <v>30</v>
@@ -76726,7 +77042,7 @@
       </c>
       <c r="C936" s="11"/>
       <c r="D936" s="13" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="E936" s="11">
         <v>180</v>
@@ -76747,7 +77063,7 @@
       </c>
       <c r="C937" s="11"/>
       <c r="D937" s="13" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="E937" s="11">
         <v>700</v>
@@ -76768,7 +77084,7 @@
       </c>
       <c r="C938" s="11"/>
       <c r="D938" s="13" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="E938" s="11">
         <v>1500</v>
@@ -76789,7 +77105,7 @@
       </c>
       <c r="C939" s="11"/>
       <c r="D939" s="13" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="E939" s="11">
         <v>10000</v>
@@ -76810,7 +77126,7 @@
       </c>
       <c r="C940" s="60"/>
       <c r="D940" s="85" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="E940" s="60">
         <v>1</v>
@@ -76828,7 +77144,7 @@
       </c>
       <c r="C941" s="60"/>
       <c r="D941" s="85" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="E941" s="60">
         <v>5</v>
@@ -76846,7 +77162,7 @@
       </c>
       <c r="C942" s="60"/>
       <c r="D942" s="85" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="E942" s="60">
         <v>12</v>
@@ -76864,7 +77180,7 @@
       </c>
       <c r="C943" s="60"/>
       <c r="D943" s="85" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="E943" s="60">
         <v>25</v>
@@ -76882,7 +77198,7 @@
       </c>
       <c r="C944" s="60"/>
       <c r="D944" s="85" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="E944" s="60">
         <v>38</v>
@@ -76891,7 +77207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="945" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A945" s="61">
         <v>944</v>
       </c>
@@ -76900,7 +77216,7 @@
       </c>
       <c r="C945" s="60"/>
       <c r="D945" s="85" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="E945" s="60">
         <v>78</v>
@@ -76909,7 +77225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="946" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A946" s="61">
         <v>945</v>
       </c>
@@ -76918,7 +77234,7 @@
       </c>
       <c r="C946" s="60"/>
       <c r="D946" s="85" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="E946" s="60">
         <v>158</v>
@@ -76927,7 +77243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="947" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A947" s="61">
         <v>946</v>
       </c>
@@ -76936,7 +77252,7 @@
       </c>
       <c r="C947" s="60"/>
       <c r="D947" s="85" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="E947" s="60">
         <v>398</v>
@@ -76945,7 +77261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="948" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A948" s="61">
         <v>947</v>
       </c>
@@ -76954,7 +77270,7 @@
       </c>
       <c r="C948" s="60"/>
       <c r="D948" s="85" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="E948" s="60">
         <v>798</v>
@@ -76963,7 +77279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="949" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A949" s="61">
         <v>948</v>
       </c>
@@ -76972,7 +77288,7 @@
       </c>
       <c r="C949" s="60"/>
       <c r="D949" s="85" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="E949" s="60">
         <v>1998</v>
@@ -76980,6 +77296,573 @@
       <c r="F949" s="60">
         <v>1</v>
       </c>
+    </row>
+    <row r="950" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A950" s="9">
+        <v>949</v>
+      </c>
+      <c r="B950" s="10">
+        <v>676</v>
+      </c>
+      <c r="C950" s="10"/>
+      <c r="D950" s="19" t="s">
+        <v>990</v>
+      </c>
+      <c r="E950" s="83" t="s">
+        <v>1228</v>
+      </c>
+      <c r="F950" s="10">
+        <v>25</v>
+      </c>
+      <c r="G950" s="29"/>
+      <c r="H950" s="29"/>
+      <c r="I950" s="29"/>
+    </row>
+    <row r="951" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A951" s="9">
+        <v>950</v>
+      </c>
+      <c r="B951" s="10">
+        <v>676</v>
+      </c>
+      <c r="C951" s="10"/>
+      <c r="D951" s="19" t="s">
+        <v>990</v>
+      </c>
+      <c r="E951" s="83" t="s">
+        <v>1211</v>
+      </c>
+      <c r="F951" s="10">
+        <v>50</v>
+      </c>
+      <c r="G951" s="29"/>
+      <c r="H951" s="29"/>
+      <c r="I951" s="29"/>
+    </row>
+    <row r="952" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A952" s="9">
+        <v>951</v>
+      </c>
+      <c r="B952" s="10">
+        <v>676</v>
+      </c>
+      <c r="C952" s="10"/>
+      <c r="D952" s="19" t="s">
+        <v>990</v>
+      </c>
+      <c r="E952" s="83" t="s">
+        <v>1231</v>
+      </c>
+      <c r="F952" s="10">
+        <v>25</v>
+      </c>
+      <c r="G952" s="29"/>
+      <c r="H952" s="29"/>
+      <c r="I952" s="29"/>
+    </row>
+    <row r="953" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A953" s="9">
+        <v>952</v>
+      </c>
+      <c r="B953" s="10">
+        <v>677</v>
+      </c>
+      <c r="C953" s="10"/>
+      <c r="D953" s="19" t="s">
+        <v>990</v>
+      </c>
+      <c r="E953" s="83" t="s">
+        <v>1231</v>
+      </c>
+      <c r="F953" s="10">
+        <v>25</v>
+      </c>
+      <c r="G953" s="29"/>
+      <c r="H953" s="29"/>
+      <c r="I953" s="29"/>
+    </row>
+    <row r="954" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A954" s="9">
+        <v>953</v>
+      </c>
+      <c r="B954" s="10">
+        <v>677</v>
+      </c>
+      <c r="C954" s="10"/>
+      <c r="D954" s="19" t="s">
+        <v>990</v>
+      </c>
+      <c r="E954" s="83" t="s">
+        <v>1234</v>
+      </c>
+      <c r="F954" s="10">
+        <v>50</v>
+      </c>
+      <c r="G954" s="29"/>
+      <c r="H954" s="29"/>
+      <c r="I954" s="29"/>
+    </row>
+    <row r="955" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A955" s="9">
+        <v>954</v>
+      </c>
+      <c r="B955" s="10">
+        <v>677</v>
+      </c>
+      <c r="C955" s="10"/>
+      <c r="D955" s="19" t="s">
+        <v>990</v>
+      </c>
+      <c r="E955" s="83">
+        <v>150</v>
+      </c>
+      <c r="F955" s="10">
+        <v>25</v>
+      </c>
+      <c r="G955" s="29"/>
+      <c r="H955" s="29"/>
+      <c r="I955" s="29"/>
+    </row>
+    <row r="956" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A956" s="9">
+        <v>955</v>
+      </c>
+      <c r="B956" s="10">
+        <v>678</v>
+      </c>
+      <c r="C956" s="10"/>
+      <c r="D956" s="19" t="s">
+        <v>990</v>
+      </c>
+      <c r="E956" s="9">
+        <v>400</v>
+      </c>
+      <c r="F956" s="10">
+        <v>25</v>
+      </c>
+      <c r="G956" s="29"/>
+      <c r="H956" s="29"/>
+      <c r="I956" s="29"/>
+    </row>
+    <row r="957" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A957" s="9">
+        <v>956</v>
+      </c>
+      <c r="B957" s="10">
+        <v>678</v>
+      </c>
+      <c r="C957" s="10"/>
+      <c r="D957" s="19" t="s">
+        <v>990</v>
+      </c>
+      <c r="E957" s="9">
+        <v>500</v>
+      </c>
+      <c r="F957" s="10">
+        <v>50</v>
+      </c>
+      <c r="G957" s="29"/>
+      <c r="H957" s="29"/>
+      <c r="I957" s="29"/>
+    </row>
+    <row r="958" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A958" s="9">
+        <v>957</v>
+      </c>
+      <c r="B958" s="10">
+        <v>678</v>
+      </c>
+      <c r="C958" s="10"/>
+      <c r="D958" s="19" t="s">
+        <v>990</v>
+      </c>
+      <c r="E958" s="9">
+        <v>600</v>
+      </c>
+      <c r="F958" s="10">
+        <v>25</v>
+      </c>
+      <c r="G958" s="29"/>
+      <c r="H958" s="29"/>
+      <c r="I958" s="29"/>
+    </row>
+    <row r="959" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A959" s="9">
+        <v>958</v>
+      </c>
+      <c r="B959" s="10">
+        <v>679</v>
+      </c>
+      <c r="C959" s="10"/>
+      <c r="D959" s="19" t="s">
+        <v>990</v>
+      </c>
+      <c r="E959" s="9">
+        <v>100</v>
+      </c>
+      <c r="F959" s="10">
+        <v>25</v>
+      </c>
+      <c r="G959" s="29"/>
+      <c r="H959" s="29"/>
+      <c r="I959" s="29"/>
+    </row>
+    <row r="960" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A960" s="9">
+        <v>959</v>
+      </c>
+      <c r="B960" s="10">
+        <v>679</v>
+      </c>
+      <c r="C960" s="10"/>
+      <c r="D960" s="19" t="s">
+        <v>990</v>
+      </c>
+      <c r="E960" s="9">
+        <v>300</v>
+      </c>
+      <c r="F960" s="10">
+        <v>50</v>
+      </c>
+      <c r="G960" s="29"/>
+      <c r="H960" s="29"/>
+      <c r="I960" s="29"/>
+    </row>
+    <row r="961" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A961" s="9">
+        <v>960</v>
+      </c>
+      <c r="B961" s="10">
+        <v>679</v>
+      </c>
+      <c r="C961" s="10"/>
+      <c r="D961" s="19" t="s">
+        <v>990</v>
+      </c>
+      <c r="E961" s="9">
+        <v>500</v>
+      </c>
+      <c r="F961" s="10">
+        <v>25</v>
+      </c>
+      <c r="G961" s="29"/>
+      <c r="H961" s="29"/>
+      <c r="I961" s="29"/>
+    </row>
+    <row r="962" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A962" s="9">
+        <v>961</v>
+      </c>
+      <c r="B962" s="10">
+        <v>680</v>
+      </c>
+      <c r="C962" s="10"/>
+      <c r="D962" s="19" t="s">
+        <v>990</v>
+      </c>
+      <c r="E962" s="9">
+        <v>500</v>
+      </c>
+      <c r="F962" s="10">
+        <v>25</v>
+      </c>
+      <c r="G962" s="29"/>
+      <c r="H962" s="29"/>
+      <c r="I962" s="29"/>
+    </row>
+    <row r="963" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A963" s="9">
+        <v>962</v>
+      </c>
+      <c r="B963" s="10">
+        <v>680</v>
+      </c>
+      <c r="C963" s="10"/>
+      <c r="D963" s="19" t="s">
+        <v>990</v>
+      </c>
+      <c r="E963" s="9">
+        <v>1000</v>
+      </c>
+      <c r="F963" s="10">
+        <v>50</v>
+      </c>
+      <c r="G963" s="29"/>
+      <c r="H963" s="29"/>
+      <c r="I963" s="29"/>
+    </row>
+    <row r="964" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A964" s="9">
+        <v>963</v>
+      </c>
+      <c r="B964" s="10">
+        <v>680</v>
+      </c>
+      <c r="C964" s="10"/>
+      <c r="D964" s="19" t="s">
+        <v>990</v>
+      </c>
+      <c r="E964" s="9">
+        <v>1500</v>
+      </c>
+      <c r="F964" s="10">
+        <v>25</v>
+      </c>
+      <c r="G964" s="29"/>
+      <c r="H964" s="29"/>
+      <c r="I964" s="29"/>
+    </row>
+    <row r="965" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A965" s="9">
+        <v>964</v>
+      </c>
+      <c r="B965" s="10">
+        <v>681</v>
+      </c>
+      <c r="C965" s="10"/>
+      <c r="D965" s="19" t="s">
+        <v>990</v>
+      </c>
+      <c r="E965" s="9">
+        <v>4000</v>
+      </c>
+      <c r="F965" s="10">
+        <v>25</v>
+      </c>
+      <c r="G965" s="29"/>
+      <c r="H965" s="29"/>
+      <c r="I965" s="29"/>
+    </row>
+    <row r="966" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A966" s="9">
+        <v>965</v>
+      </c>
+      <c r="B966" s="10">
+        <v>681</v>
+      </c>
+      <c r="C966" s="10"/>
+      <c r="D966" s="19" t="s">
+        <v>990</v>
+      </c>
+      <c r="E966" s="9">
+        <v>5000</v>
+      </c>
+      <c r="F966" s="10">
+        <v>50</v>
+      </c>
+      <c r="G966" s="29"/>
+      <c r="H966" s="29"/>
+      <c r="I966" s="29"/>
+    </row>
+    <row r="967" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A967" s="9">
+        <v>966</v>
+      </c>
+      <c r="B967" s="10">
+        <v>681</v>
+      </c>
+      <c r="C967" s="10"/>
+      <c r="D967" s="19" t="s">
+        <v>990</v>
+      </c>
+      <c r="E967" s="9">
+        <v>6000</v>
+      </c>
+      <c r="F967" s="10">
+        <v>25</v>
+      </c>
+      <c r="G967" s="29"/>
+      <c r="H967" s="29"/>
+      <c r="I967" s="29"/>
+    </row>
+    <row r="968" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A968" s="9">
+        <v>967</v>
+      </c>
+      <c r="B968" s="10">
+        <v>682</v>
+      </c>
+      <c r="C968" s="10"/>
+      <c r="D968" s="19" t="s">
+        <v>990</v>
+      </c>
+      <c r="E968" s="9">
+        <v>1000</v>
+      </c>
+      <c r="F968" s="10">
+        <v>25</v>
+      </c>
+      <c r="G968" s="29"/>
+      <c r="H968" s="29"/>
+      <c r="I968" s="29"/>
+    </row>
+    <row r="969" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A969" s="9">
+        <v>968</v>
+      </c>
+      <c r="B969" s="10">
+        <v>682</v>
+      </c>
+      <c r="C969" s="10"/>
+      <c r="D969" s="19" t="s">
+        <v>990</v>
+      </c>
+      <c r="E969" s="9">
+        <v>3000</v>
+      </c>
+      <c r="F969" s="10">
+        <v>50</v>
+      </c>
+      <c r="G969" s="29"/>
+      <c r="H969" s="29"/>
+      <c r="I969" s="29"/>
+    </row>
+    <row r="970" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A970" s="9">
+        <v>969</v>
+      </c>
+      <c r="B970" s="10">
+        <v>682</v>
+      </c>
+      <c r="C970" s="10"/>
+      <c r="D970" s="19" t="s">
+        <v>990</v>
+      </c>
+      <c r="E970" s="9">
+        <v>5000</v>
+      </c>
+      <c r="F970" s="10">
+        <v>25</v>
+      </c>
+      <c r="G970" s="29"/>
+      <c r="H970" s="29"/>
+      <c r="I970" s="29"/>
+    </row>
+    <row r="971" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A971" s="9">
+        <v>970</v>
+      </c>
+      <c r="B971" s="10">
+        <v>683</v>
+      </c>
+      <c r="C971" s="10"/>
+      <c r="D971" s="19" t="s">
+        <v>990</v>
+      </c>
+      <c r="E971" s="9">
+        <v>5000</v>
+      </c>
+      <c r="F971" s="10">
+        <v>25</v>
+      </c>
+      <c r="G971" s="29"/>
+      <c r="H971" s="29"/>
+      <c r="I971" s="29"/>
+    </row>
+    <row r="972" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A972" s="9">
+        <v>971</v>
+      </c>
+      <c r="B972" s="10">
+        <v>683</v>
+      </c>
+      <c r="C972" s="10"/>
+      <c r="D972" s="19" t="s">
+        <v>990</v>
+      </c>
+      <c r="E972" s="9">
+        <v>10000</v>
+      </c>
+      <c r="F972" s="10">
+        <v>50</v>
+      </c>
+      <c r="G972" s="29"/>
+      <c r="H972" s="29"/>
+      <c r="I972" s="29"/>
+    </row>
+    <row r="973" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A973" s="9">
+        <v>972</v>
+      </c>
+      <c r="B973" s="10">
+        <v>683</v>
+      </c>
+      <c r="C973" s="10"/>
+      <c r="D973" s="19" t="s">
+        <v>990</v>
+      </c>
+      <c r="E973" s="9">
+        <v>15000</v>
+      </c>
+      <c r="F973" s="10">
+        <v>25</v>
+      </c>
+      <c r="G973" s="29"/>
+      <c r="H973" s="29"/>
+      <c r="I973" s="29"/>
+    </row>
+    <row r="974" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A974" s="9">
+        <v>973</v>
+      </c>
+      <c r="B974" s="10">
+        <v>684</v>
+      </c>
+      <c r="C974" s="10"/>
+      <c r="D974" s="19" t="s">
+        <v>990</v>
+      </c>
+      <c r="E974" s="9">
+        <v>40000</v>
+      </c>
+      <c r="F974" s="10">
+        <v>25</v>
+      </c>
+      <c r="G974" s="29"/>
+      <c r="H974" s="29"/>
+      <c r="I974" s="29"/>
+    </row>
+    <row r="975" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A975" s="9">
+        <v>974</v>
+      </c>
+      <c r="B975" s="10">
+        <v>684</v>
+      </c>
+      <c r="C975" s="10"/>
+      <c r="D975" s="19" t="s">
+        <v>990</v>
+      </c>
+      <c r="E975" s="9">
+        <v>50000</v>
+      </c>
+      <c r="F975" s="10">
+        <v>50</v>
+      </c>
+      <c r="G975" s="29"/>
+      <c r="H975" s="29"/>
+      <c r="I975" s="29"/>
+    </row>
+    <row r="976" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A976" s="9">
+        <v>975</v>
+      </c>
+      <c r="B976" s="10">
+        <v>684</v>
+      </c>
+      <c r="C976" s="10"/>
+      <c r="D976" s="19" t="s">
+        <v>990</v>
+      </c>
+      <c r="E976" s="9">
+        <v>60000</v>
+      </c>
+      <c r="F976" s="10">
+        <v>25</v>
+      </c>
+      <c r="G976" s="29"/>
+      <c r="H976" s="29"/>
+      <c r="I976" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>

--- a/config_debug/task_zajindan_server.xlsx
+++ b/config_debug/task_zajindan_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_9.15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5766" uniqueCount="1654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5787" uniqueCount="1667">
   <si>
     <t>id|任务id</t>
   </si>
@@ -9964,6 +9964,84 @@
   <si>
     <t>buyu_2d_leiji_dapao_new_task</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>happy_zajindan_act_task</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_029_hlqjd_hammer</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋铜锤</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋银锤</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋金锤</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋活动中使用铜锤</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋活动中使用银锤</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋活动中使用金锤</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,1,1</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>or</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -10850,13 +10928,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:T459"/>
+  <dimension ref="A1:T462"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="E431" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="I431" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F459" sqref="F459"/>
+      <selection pane="bottomRight" activeCell="C463" sqref="C463"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -28672,6 +28750,120 @@
         <v>-1</v>
       </c>
     </row>
+    <row r="460" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A460" s="61">
+        <v>1000049</v>
+      </c>
+      <c r="B460" s="7">
+        <v>1</v>
+      </c>
+      <c r="C460" s="7" t="s">
+        <v>1656</v>
+      </c>
+      <c r="D460" s="7" t="s">
+        <v>1659</v>
+      </c>
+      <c r="E460" s="7" t="s">
+        <v>1655</v>
+      </c>
+      <c r="F460" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="G460" s="97">
+        <v>21407</v>
+      </c>
+      <c r="H460" s="98" t="b">
+        <v>1</v>
+      </c>
+      <c r="I460" s="7">
+        <v>1</v>
+      </c>
+      <c r="J460" s="7">
+        <v>1600099200</v>
+      </c>
+      <c r="K460" s="7">
+        <v>1600703999</v>
+      </c>
+      <c r="L460" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="461" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A461" s="61">
+        <v>1000050</v>
+      </c>
+      <c r="B461" s="7">
+        <v>1</v>
+      </c>
+      <c r="C461" s="7" t="s">
+        <v>1657</v>
+      </c>
+      <c r="D461" s="7" t="s">
+        <v>1660</v>
+      </c>
+      <c r="E461" s="7" t="s">
+        <v>1655</v>
+      </c>
+      <c r="F461" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="G461" s="97">
+        <v>21408</v>
+      </c>
+      <c r="H461" s="98" t="b">
+        <v>1</v>
+      </c>
+      <c r="I461" s="7">
+        <v>1</v>
+      </c>
+      <c r="J461" s="7">
+        <v>1600099200</v>
+      </c>
+      <c r="K461" s="7">
+        <v>1600703999</v>
+      </c>
+      <c r="L461" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A462" s="61">
+        <v>1000051</v>
+      </c>
+      <c r="B462" s="7">
+        <v>1</v>
+      </c>
+      <c r="C462" s="7" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D462" s="7" t="s">
+        <v>1661</v>
+      </c>
+      <c r="E462" s="7" t="s">
+        <v>1655</v>
+      </c>
+      <c r="F462" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="G462" s="97">
+        <v>21409</v>
+      </c>
+      <c r="H462" s="98" t="b">
+        <v>1</v>
+      </c>
+      <c r="I462" s="7">
+        <v>1</v>
+      </c>
+      <c r="J462" s="7">
+        <v>1600099200</v>
+      </c>
+      <c r="K462" s="7">
+        <v>1600703999</v>
+      </c>
+      <c r="L462" s="7">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B1:B367"/>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -28683,13 +28875,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:K459"/>
+  <dimension ref="A1:K462"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G442" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="E442" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H457" sqref="H457:I459"/>
+      <selection pane="bottomRight" activeCell="H468" sqref="H468"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -40376,6 +40568,57 @@
       </c>
       <c r="I459" s="13" t="s">
         <v>1197</v>
+      </c>
+    </row>
+    <row r="460" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A460" s="11">
+        <v>459</v>
+      </c>
+      <c r="B460" s="12">
+        <v>21407</v>
+      </c>
+      <c r="F460" s="111" t="s">
+        <v>1662</v>
+      </c>
+      <c r="G460" s="111" t="s">
+        <v>1663</v>
+      </c>
+      <c r="I460" s="14" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="461" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A461" s="11">
+        <v>460</v>
+      </c>
+      <c r="B461" s="12">
+        <v>21408</v>
+      </c>
+      <c r="F461" s="111" t="s">
+        <v>1662</v>
+      </c>
+      <c r="G461" s="111" t="s">
+        <v>1664</v>
+      </c>
+      <c r="I461" s="14" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="462" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A462" s="11">
+        <v>461</v>
+      </c>
+      <c r="B462" s="12">
+        <v>21409</v>
+      </c>
+      <c r="F462" s="111" t="s">
+        <v>1662</v>
+      </c>
+      <c r="G462" s="111" t="s">
+        <v>1665</v>
+      </c>
+      <c r="I462" s="14" t="s">
+        <v>856</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/task_zajindan_server.xlsx
+++ b/config_debug/task_zajindan_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_9.15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5766" uniqueCount="1654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5811" uniqueCount="1666">
   <si>
     <t>id|任务id</t>
   </si>
@@ -9963,6 +9963,53 @@
   </si>
   <si>
     <t>buyu_2d_leiji_dapao_new_task</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>小游戏累计赢金</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>小游戏赢金（所有渠道）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>random</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000,5000000,10000000,20000000,50000000,100000000,500000000,1000000000,2000000000,</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>685,686,687,688,689,690,691,692,693</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>guess_apple_award</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaoxiaole_xiyou_award</t>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>little_game_yingjin_task</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -10850,13 +10897,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:T459"/>
+  <dimension ref="A1:T460"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="E431" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F459" sqref="F459"/>
+      <selection pane="bottomRight" activeCell="F460" sqref="F460"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -28648,7 +28695,7 @@
         <v>1648</v>
       </c>
       <c r="E459" s="98" t="s">
-        <v>12</v>
+        <v>1664</v>
       </c>
       <c r="F459" s="98" t="s">
         <v>1653</v>
@@ -28669,6 +28716,44 @@
         <v>32503651200</v>
       </c>
       <c r="L459" s="97">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="460" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A460" s="51">
+        <v>1000049</v>
+      </c>
+      <c r="B460" s="9">
+        <v>1</v>
+      </c>
+      <c r="C460" s="51" t="s">
+        <v>1654</v>
+      </c>
+      <c r="D460" s="51" t="s">
+        <v>1655</v>
+      </c>
+      <c r="E460" s="51" t="s">
+        <v>1507</v>
+      </c>
+      <c r="F460" s="51" t="s">
+        <v>1665</v>
+      </c>
+      <c r="G460" s="51">
+        <v>21407</v>
+      </c>
+      <c r="H460" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I460" s="9">
+        <v>1</v>
+      </c>
+      <c r="J460" s="9">
+        <v>946677600</v>
+      </c>
+      <c r="K460" s="9">
+        <v>32503651200</v>
+      </c>
+      <c r="L460" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -28683,13 +28768,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:K459"/>
+  <dimension ref="A1:K460"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G442" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E442" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H457" sqref="H457:I459"/>
+      <selection pane="bottomRight" activeCell="H460" sqref="H460"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -40378,6 +40463,29 @@
         <v>1197</v>
       </c>
     </row>
+    <row r="460" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A460" s="51">
+        <v>459</v>
+      </c>
+      <c r="B460" s="51">
+        <v>21407</v>
+      </c>
+      <c r="C460" s="10"/>
+      <c r="D460" s="51">
+        <v>454</v>
+      </c>
+      <c r="E460" s="10"/>
+      <c r="F460" s="82" t="s">
+        <v>1657</v>
+      </c>
+      <c r="G460" s="79"/>
+      <c r="H460" s="112" t="s">
+        <v>1658</v>
+      </c>
+      <c r="I460" s="19" t="s">
+        <v>1656</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -40388,10 +40496,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I638"/>
+  <dimension ref="A1:I646"/>
   <sheetViews>
     <sheetView topLeftCell="A616" workbookViewId="0">
-      <selection activeCell="C637" sqref="C637"/>
+      <selection activeCell="B639" sqref="B639:B646"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -49659,6 +49767,128 @@
       <c r="D638" s="10">
         <v>317</v>
       </c>
+    </row>
+    <row r="639" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A639" s="11">
+        <v>638</v>
+      </c>
+      <c r="B639" s="51">
+        <v>454</v>
+      </c>
+      <c r="C639" s="26" t="s">
+        <v>393</v>
+      </c>
+      <c r="D639" s="10">
+        <v>0</v>
+      </c>
+      <c r="E639" s="10"/>
+    </row>
+    <row r="640" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A640" s="11">
+        <v>639</v>
+      </c>
+      <c r="B640" s="51">
+        <v>454</v>
+      </c>
+      <c r="C640" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="D640" s="10">
+        <v>0</v>
+      </c>
+      <c r="E640" s="10"/>
+    </row>
+    <row r="641" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A641" s="11">
+        <v>640</v>
+      </c>
+      <c r="B641" s="51">
+        <v>454</v>
+      </c>
+      <c r="C641" s="10" t="s">
+        <v>664</v>
+      </c>
+      <c r="D641" s="10">
+        <v>0</v>
+      </c>
+      <c r="E641" s="10"/>
+    </row>
+    <row r="642" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A642" s="11">
+        <v>641</v>
+      </c>
+      <c r="B642" s="51">
+        <v>454</v>
+      </c>
+      <c r="C642" s="10" t="s">
+        <v>665</v>
+      </c>
+      <c r="D642" s="10">
+        <v>0</v>
+      </c>
+      <c r="E642" s="10"/>
+    </row>
+    <row r="643" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A643" s="11">
+        <v>642</v>
+      </c>
+      <c r="B643" s="51">
+        <v>454</v>
+      </c>
+      <c r="C643" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="D643" s="10">
+        <v>0</v>
+      </c>
+      <c r="E643" s="10"/>
+    </row>
+    <row r="644" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A644" s="11">
+        <v>643</v>
+      </c>
+      <c r="B644" s="51">
+        <v>454</v>
+      </c>
+      <c r="C644" s="10" t="s">
+        <v>666</v>
+      </c>
+      <c r="D644" s="10">
+        <v>0</v>
+      </c>
+      <c r="E644" s="10"/>
+    </row>
+    <row r="645" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A645" s="11">
+        <v>644</v>
+      </c>
+      <c r="B645" s="51">
+        <v>454</v>
+      </c>
+      <c r="C645" s="26" t="s">
+        <v>1659</v>
+      </c>
+      <c r="D645" s="10">
+        <v>0</v>
+      </c>
+      <c r="E645" s="10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="646" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A646" s="11">
+        <v>645</v>
+      </c>
+      <c r="B646" s="51">
+        <v>454</v>
+      </c>
+      <c r="C646" s="10" t="s">
+        <v>1660</v>
+      </c>
+      <c r="D646" s="10">
+        <v>0</v>
+      </c>
+      <c r="E646" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
@@ -57738,13 +57968,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:W976"/>
+  <dimension ref="A1:W1004"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C944" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C979" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A966" sqref="A966"/>
+      <selection pane="bottomRight" activeCell="A1002" sqref="A1002"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -77297,572 +77527,1061 @@
         <v>1</v>
       </c>
     </row>
-    <row r="950" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A950" s="9">
+    <row r="950" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A950" s="12">
         <v>949</v>
       </c>
-      <c r="B950" s="10">
+      <c r="B950" s="11">
         <v>676</v>
       </c>
-      <c r="C950" s="10"/>
-      <c r="D950" s="19" t="s">
+      <c r="C950" s="11"/>
+      <c r="D950" s="13" t="s">
         <v>990</v>
       </c>
-      <c r="E950" s="83" t="s">
+      <c r="E950" s="15" t="s">
         <v>1228</v>
       </c>
-      <c r="F950" s="10">
+      <c r="F950" s="11">
         <v>25</v>
       </c>
-      <c r="G950" s="29"/>
-      <c r="H950" s="29"/>
-      <c r="I950" s="29"/>
-    </row>
-    <row r="951" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A951" s="9">
+      <c r="G950" s="11"/>
+      <c r="H950" s="11"/>
+      <c r="I950" s="11"/>
+    </row>
+    <row r="951" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A951" s="12">
         <v>950</v>
       </c>
-      <c r="B951" s="10">
+      <c r="B951" s="11">
         <v>676</v>
       </c>
-      <c r="C951" s="10"/>
-      <c r="D951" s="19" t="s">
+      <c r="C951" s="11"/>
+      <c r="D951" s="13" t="s">
         <v>990</v>
       </c>
-      <c r="E951" s="83" t="s">
+      <c r="E951" s="15" t="s">
         <v>1211</v>
       </c>
-      <c r="F951" s="10">
+      <c r="F951" s="11">
         <v>50</v>
       </c>
-      <c r="G951" s="29"/>
-      <c r="H951" s="29"/>
-      <c r="I951" s="29"/>
-    </row>
-    <row r="952" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A952" s="9">
+      <c r="G951" s="11"/>
+      <c r="H951" s="11"/>
+      <c r="I951" s="11"/>
+    </row>
+    <row r="952" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A952" s="12">
         <v>951</v>
       </c>
-      <c r="B952" s="10">
+      <c r="B952" s="11">
         <v>676</v>
       </c>
-      <c r="C952" s="10"/>
-      <c r="D952" s="19" t="s">
+      <c r="C952" s="11"/>
+      <c r="D952" s="13" t="s">
         <v>990</v>
       </c>
-      <c r="E952" s="83" t="s">
+      <c r="E952" s="15" t="s">
         <v>1231</v>
       </c>
-      <c r="F952" s="10">
+      <c r="F952" s="11">
         <v>25</v>
       </c>
-      <c r="G952" s="29"/>
-      <c r="H952" s="29"/>
-      <c r="I952" s="29"/>
-    </row>
-    <row r="953" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A953" s="9">
+      <c r="G952" s="11"/>
+      <c r="H952" s="11"/>
+      <c r="I952" s="11"/>
+    </row>
+    <row r="953" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A953" s="12">
         <v>952</v>
       </c>
-      <c r="B953" s="10">
+      <c r="B953" s="11">
         <v>677</v>
       </c>
-      <c r="C953" s="10"/>
-      <c r="D953" s="19" t="s">
+      <c r="C953" s="11"/>
+      <c r="D953" s="13" t="s">
         <v>990</v>
       </c>
-      <c r="E953" s="83" t="s">
+      <c r="E953" s="15" t="s">
         <v>1231</v>
       </c>
-      <c r="F953" s="10">
+      <c r="F953" s="11">
         <v>25</v>
       </c>
-      <c r="G953" s="29"/>
-      <c r="H953" s="29"/>
-      <c r="I953" s="29"/>
-    </row>
-    <row r="954" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A954" s="9">
+      <c r="G953" s="11"/>
+      <c r="H953" s="11"/>
+      <c r="I953" s="11"/>
+    </row>
+    <row r="954" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A954" s="12">
         <v>953</v>
       </c>
-      <c r="B954" s="10">
+      <c r="B954" s="11">
         <v>677</v>
       </c>
-      <c r="C954" s="10"/>
-      <c r="D954" s="19" t="s">
+      <c r="C954" s="11"/>
+      <c r="D954" s="13" t="s">
         <v>990</v>
       </c>
-      <c r="E954" s="83" t="s">
+      <c r="E954" s="15" t="s">
         <v>1234</v>
       </c>
-      <c r="F954" s="10">
+      <c r="F954" s="11">
         <v>50</v>
       </c>
-      <c r="G954" s="29"/>
-      <c r="H954" s="29"/>
-      <c r="I954" s="29"/>
-    </row>
-    <row r="955" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A955" s="9">
+      <c r="G954" s="11"/>
+      <c r="H954" s="11"/>
+      <c r="I954" s="11"/>
+    </row>
+    <row r="955" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A955" s="12">
         <v>954</v>
       </c>
-      <c r="B955" s="10">
+      <c r="B955" s="11">
         <v>677</v>
       </c>
-      <c r="C955" s="10"/>
-      <c r="D955" s="19" t="s">
+      <c r="C955" s="11"/>
+      <c r="D955" s="13" t="s">
         <v>990</v>
       </c>
-      <c r="E955" s="83">
+      <c r="E955" s="15">
         <v>150</v>
       </c>
-      <c r="F955" s="10">
+      <c r="F955" s="11">
         <v>25</v>
       </c>
-      <c r="G955" s="29"/>
-      <c r="H955" s="29"/>
-      <c r="I955" s="29"/>
-    </row>
-    <row r="956" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A956" s="9">
+      <c r="G955" s="11"/>
+      <c r="H955" s="11"/>
+      <c r="I955" s="11"/>
+    </row>
+    <row r="956" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A956" s="12">
         <v>955</v>
       </c>
-      <c r="B956" s="10">
+      <c r="B956" s="11">
         <v>678</v>
       </c>
-      <c r="C956" s="10"/>
-      <c r="D956" s="19" t="s">
+      <c r="C956" s="11"/>
+      <c r="D956" s="13" t="s">
         <v>990</v>
       </c>
-      <c r="E956" s="9">
+      <c r="E956" s="12">
         <v>400</v>
       </c>
-      <c r="F956" s="10">
+      <c r="F956" s="11">
         <v>25</v>
       </c>
-      <c r="G956" s="29"/>
-      <c r="H956" s="29"/>
-      <c r="I956" s="29"/>
-    </row>
-    <row r="957" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A957" s="9">
+      <c r="G956" s="11"/>
+      <c r="H956" s="11"/>
+      <c r="I956" s="11"/>
+    </row>
+    <row r="957" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A957" s="12">
         <v>956</v>
       </c>
-      <c r="B957" s="10">
+      <c r="B957" s="11">
         <v>678</v>
       </c>
-      <c r="C957" s="10"/>
-      <c r="D957" s="19" t="s">
+      <c r="C957" s="11"/>
+      <c r="D957" s="13" t="s">
         <v>990</v>
       </c>
-      <c r="E957" s="9">
+      <c r="E957" s="12">
         <v>500</v>
       </c>
-      <c r="F957" s="10">
+      <c r="F957" s="11">
         <v>50</v>
       </c>
-      <c r="G957" s="29"/>
-      <c r="H957" s="29"/>
-      <c r="I957" s="29"/>
-    </row>
-    <row r="958" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A958" s="9">
+      <c r="G957" s="11"/>
+      <c r="H957" s="11"/>
+      <c r="I957" s="11"/>
+    </row>
+    <row r="958" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A958" s="12">
         <v>957</v>
       </c>
-      <c r="B958" s="10">
+      <c r="B958" s="11">
         <v>678</v>
       </c>
-      <c r="C958" s="10"/>
-      <c r="D958" s="19" t="s">
+      <c r="C958" s="11"/>
+      <c r="D958" s="13" t="s">
         <v>990</v>
       </c>
-      <c r="E958" s="9">
+      <c r="E958" s="12">
         <v>600</v>
       </c>
-      <c r="F958" s="10">
+      <c r="F958" s="11">
         <v>25</v>
       </c>
-      <c r="G958" s="29"/>
-      <c r="H958" s="29"/>
-      <c r="I958" s="29"/>
-    </row>
-    <row r="959" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A959" s="9">
+      <c r="G958" s="11"/>
+      <c r="H958" s="11"/>
+      <c r="I958" s="11"/>
+    </row>
+    <row r="959" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A959" s="12">
         <v>958</v>
       </c>
-      <c r="B959" s="10">
+      <c r="B959" s="11">
         <v>679</v>
       </c>
-      <c r="C959" s="10"/>
-      <c r="D959" s="19" t="s">
+      <c r="C959" s="11"/>
+      <c r="D959" s="13" t="s">
         <v>990</v>
       </c>
-      <c r="E959" s="9">
+      <c r="E959" s="12">
         <v>100</v>
       </c>
-      <c r="F959" s="10">
+      <c r="F959" s="11">
         <v>25</v>
       </c>
-      <c r="G959" s="29"/>
-      <c r="H959" s="29"/>
-      <c r="I959" s="29"/>
-    </row>
-    <row r="960" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A960" s="9">
+      <c r="G959" s="11"/>
+      <c r="H959" s="11"/>
+      <c r="I959" s="11"/>
+    </row>
+    <row r="960" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A960" s="12">
         <v>959</v>
       </c>
-      <c r="B960" s="10">
+      <c r="B960" s="11">
         <v>679</v>
       </c>
-      <c r="C960" s="10"/>
-      <c r="D960" s="19" t="s">
+      <c r="C960" s="11"/>
+      <c r="D960" s="13" t="s">
         <v>990</v>
       </c>
-      <c r="E960" s="9">
+      <c r="E960" s="12">
         <v>300</v>
       </c>
-      <c r="F960" s="10">
+      <c r="F960" s="11">
         <v>50</v>
       </c>
-      <c r="G960" s="29"/>
-      <c r="H960" s="29"/>
-      <c r="I960" s="29"/>
-    </row>
-    <row r="961" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A961" s="9">
+      <c r="G960" s="11"/>
+      <c r="H960" s="11"/>
+      <c r="I960" s="11"/>
+    </row>
+    <row r="961" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A961" s="12">
         <v>960</v>
       </c>
-      <c r="B961" s="10">
+      <c r="B961" s="11">
         <v>679</v>
       </c>
-      <c r="C961" s="10"/>
-      <c r="D961" s="19" t="s">
+      <c r="C961" s="11"/>
+      <c r="D961" s="13" t="s">
         <v>990</v>
       </c>
-      <c r="E961" s="9">
+      <c r="E961" s="12">
         <v>500</v>
       </c>
-      <c r="F961" s="10">
+      <c r="F961" s="11">
         <v>25</v>
       </c>
-      <c r="G961" s="29"/>
-      <c r="H961" s="29"/>
-      <c r="I961" s="29"/>
-    </row>
-    <row r="962" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A962" s="9">
+      <c r="G961" s="11"/>
+      <c r="H961" s="11"/>
+      <c r="I961" s="11"/>
+    </row>
+    <row r="962" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A962" s="12">
         <v>961</v>
       </c>
-      <c r="B962" s="10">
+      <c r="B962" s="11">
         <v>680</v>
       </c>
-      <c r="C962" s="10"/>
-      <c r="D962" s="19" t="s">
+      <c r="C962" s="11"/>
+      <c r="D962" s="13" t="s">
         <v>990</v>
       </c>
-      <c r="E962" s="9">
+      <c r="E962" s="12">
         <v>500</v>
       </c>
-      <c r="F962" s="10">
+      <c r="F962" s="11">
         <v>25</v>
       </c>
-      <c r="G962" s="29"/>
-      <c r="H962" s="29"/>
-      <c r="I962" s="29"/>
-    </row>
-    <row r="963" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A963" s="9">
+      <c r="G962" s="11"/>
+      <c r="H962" s="11"/>
+      <c r="I962" s="11"/>
+    </row>
+    <row r="963" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A963" s="12">
         <v>962</v>
       </c>
-      <c r="B963" s="10">
+      <c r="B963" s="11">
         <v>680</v>
       </c>
-      <c r="C963" s="10"/>
-      <c r="D963" s="19" t="s">
+      <c r="C963" s="11"/>
+      <c r="D963" s="13" t="s">
         <v>990</v>
       </c>
-      <c r="E963" s="9">
+      <c r="E963" s="12">
         <v>1000</v>
       </c>
-      <c r="F963" s="10">
+      <c r="F963" s="11">
         <v>50</v>
       </c>
-      <c r="G963" s="29"/>
-      <c r="H963" s="29"/>
-      <c r="I963" s="29"/>
-    </row>
-    <row r="964" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A964" s="9">
+      <c r="G963" s="11"/>
+      <c r="H963" s="11"/>
+      <c r="I963" s="11"/>
+    </row>
+    <row r="964" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A964" s="12">
         <v>963</v>
       </c>
-      <c r="B964" s="10">
+      <c r="B964" s="11">
         <v>680</v>
       </c>
-      <c r="C964" s="10"/>
-      <c r="D964" s="19" t="s">
+      <c r="C964" s="11"/>
+      <c r="D964" s="13" t="s">
         <v>990</v>
       </c>
-      <c r="E964" s="9">
+      <c r="E964" s="12">
         <v>1500</v>
       </c>
-      <c r="F964" s="10">
+      <c r="F964" s="11">
         <v>25</v>
       </c>
-      <c r="G964" s="29"/>
-      <c r="H964" s="29"/>
-      <c r="I964" s="29"/>
-    </row>
-    <row r="965" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A965" s="9">
+      <c r="G964" s="11"/>
+      <c r="H964" s="11"/>
+      <c r="I964" s="11"/>
+    </row>
+    <row r="965" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A965" s="12">
         <v>964</v>
       </c>
-      <c r="B965" s="10">
+      <c r="B965" s="11">
         <v>681</v>
       </c>
-      <c r="C965" s="10"/>
-      <c r="D965" s="19" t="s">
+      <c r="C965" s="11"/>
+      <c r="D965" s="13" t="s">
         <v>990</v>
       </c>
-      <c r="E965" s="9">
+      <c r="E965" s="12">
         <v>4000</v>
       </c>
-      <c r="F965" s="10">
+      <c r="F965" s="11">
         <v>25</v>
       </c>
-      <c r="G965" s="29"/>
-      <c r="H965" s="29"/>
-      <c r="I965" s="29"/>
-    </row>
-    <row r="966" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A966" s="9">
+      <c r="G965" s="11"/>
+      <c r="H965" s="11"/>
+      <c r="I965" s="11"/>
+    </row>
+    <row r="966" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A966" s="12">
         <v>965</v>
       </c>
-      <c r="B966" s="10">
+      <c r="B966" s="11">
         <v>681</v>
       </c>
-      <c r="C966" s="10"/>
-      <c r="D966" s="19" t="s">
+      <c r="C966" s="11"/>
+      <c r="D966" s="13" t="s">
         <v>990</v>
       </c>
-      <c r="E966" s="9">
+      <c r="E966" s="12">
         <v>5000</v>
       </c>
-      <c r="F966" s="10">
+      <c r="F966" s="11">
         <v>50</v>
       </c>
-      <c r="G966" s="29"/>
-      <c r="H966" s="29"/>
-      <c r="I966" s="29"/>
-    </row>
-    <row r="967" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A967" s="9">
+      <c r="G966" s="11"/>
+      <c r="H966" s="11"/>
+      <c r="I966" s="11"/>
+    </row>
+    <row r="967" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A967" s="12">
         <v>966</v>
       </c>
-      <c r="B967" s="10">
+      <c r="B967" s="11">
         <v>681</v>
       </c>
-      <c r="C967" s="10"/>
-      <c r="D967" s="19" t="s">
+      <c r="C967" s="11"/>
+      <c r="D967" s="13" t="s">
         <v>990</v>
       </c>
-      <c r="E967" s="9">
+      <c r="E967" s="12">
         <v>6000</v>
       </c>
-      <c r="F967" s="10">
+      <c r="F967" s="11">
         <v>25</v>
       </c>
-      <c r="G967" s="29"/>
-      <c r="H967" s="29"/>
-      <c r="I967" s="29"/>
-    </row>
-    <row r="968" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A968" s="9">
+      <c r="G967" s="11"/>
+      <c r="H967" s="11"/>
+      <c r="I967" s="11"/>
+    </row>
+    <row r="968" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A968" s="12">
         <v>967</v>
       </c>
-      <c r="B968" s="10">
+      <c r="B968" s="11">
         <v>682</v>
       </c>
-      <c r="C968" s="10"/>
-      <c r="D968" s="19" t="s">
+      <c r="C968" s="11"/>
+      <c r="D968" s="13" t="s">
         <v>990</v>
       </c>
-      <c r="E968" s="9">
+      <c r="E968" s="12">
         <v>1000</v>
       </c>
-      <c r="F968" s="10">
+      <c r="F968" s="11">
         <v>25</v>
       </c>
-      <c r="G968" s="29"/>
-      <c r="H968" s="29"/>
-      <c r="I968" s="29"/>
-    </row>
-    <row r="969" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A969" s="9">
+      <c r="G968" s="11"/>
+      <c r="H968" s="11"/>
+      <c r="I968" s="11"/>
+    </row>
+    <row r="969" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A969" s="12">
         <v>968</v>
       </c>
-      <c r="B969" s="10">
+      <c r="B969" s="11">
         <v>682</v>
       </c>
-      <c r="C969" s="10"/>
-      <c r="D969" s="19" t="s">
+      <c r="C969" s="11"/>
+      <c r="D969" s="13" t="s">
         <v>990</v>
       </c>
-      <c r="E969" s="9">
+      <c r="E969" s="12">
         <v>3000</v>
       </c>
-      <c r="F969" s="10">
+      <c r="F969" s="11">
         <v>50</v>
       </c>
-      <c r="G969" s="29"/>
-      <c r="H969" s="29"/>
-      <c r="I969" s="29"/>
-    </row>
-    <row r="970" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A970" s="9">
+      <c r="G969" s="11"/>
+      <c r="H969" s="11"/>
+      <c r="I969" s="11"/>
+    </row>
+    <row r="970" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A970" s="12">
         <v>969</v>
       </c>
-      <c r="B970" s="10">
+      <c r="B970" s="11">
         <v>682</v>
       </c>
-      <c r="C970" s="10"/>
-      <c r="D970" s="19" t="s">
+      <c r="C970" s="11"/>
+      <c r="D970" s="13" t="s">
         <v>990</v>
       </c>
-      <c r="E970" s="9">
+      <c r="E970" s="12">
         <v>5000</v>
       </c>
-      <c r="F970" s="10">
+      <c r="F970" s="11">
         <v>25</v>
       </c>
-      <c r="G970" s="29"/>
-      <c r="H970" s="29"/>
-      <c r="I970" s="29"/>
-    </row>
-    <row r="971" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A971" s="9">
+      <c r="G970" s="11"/>
+      <c r="H970" s="11"/>
+      <c r="I970" s="11"/>
+    </row>
+    <row r="971" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A971" s="12">
         <v>970</v>
       </c>
-      <c r="B971" s="10">
+      <c r="B971" s="11">
         <v>683</v>
       </c>
-      <c r="C971" s="10"/>
-      <c r="D971" s="19" t="s">
+      <c r="C971" s="11"/>
+      <c r="D971" s="13" t="s">
         <v>990</v>
       </c>
-      <c r="E971" s="9">
+      <c r="E971" s="12">
         <v>5000</v>
       </c>
-      <c r="F971" s="10">
+      <c r="F971" s="11">
         <v>25</v>
       </c>
-      <c r="G971" s="29"/>
-      <c r="H971" s="29"/>
-      <c r="I971" s="29"/>
-    </row>
-    <row r="972" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A972" s="9">
+      <c r="G971" s="11"/>
+      <c r="H971" s="11"/>
+      <c r="I971" s="11"/>
+    </row>
+    <row r="972" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A972" s="12">
         <v>971</v>
       </c>
-      <c r="B972" s="10">
+      <c r="B972" s="11">
         <v>683</v>
       </c>
-      <c r="C972" s="10"/>
-      <c r="D972" s="19" t="s">
+      <c r="C972" s="11"/>
+      <c r="D972" s="13" t="s">
         <v>990</v>
       </c>
-      <c r="E972" s="9">
+      <c r="E972" s="12">
         <v>10000</v>
       </c>
-      <c r="F972" s="10">
+      <c r="F972" s="11">
         <v>50</v>
       </c>
-      <c r="G972" s="29"/>
-      <c r="H972" s="29"/>
-      <c r="I972" s="29"/>
-    </row>
-    <row r="973" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A973" s="9">
+      <c r="G972" s="11"/>
+      <c r="H972" s="11"/>
+      <c r="I972" s="11"/>
+    </row>
+    <row r="973" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A973" s="12">
         <v>972</v>
       </c>
-      <c r="B973" s="10">
+      <c r="B973" s="11">
         <v>683</v>
       </c>
-      <c r="C973" s="10"/>
-      <c r="D973" s="19" t="s">
+      <c r="C973" s="11"/>
+      <c r="D973" s="13" t="s">
         <v>990</v>
       </c>
-      <c r="E973" s="9">
+      <c r="E973" s="12">
         <v>15000</v>
       </c>
-      <c r="F973" s="10">
+      <c r="F973" s="11">
         <v>25</v>
       </c>
-      <c r="G973" s="29"/>
-      <c r="H973" s="29"/>
-      <c r="I973" s="29"/>
-    </row>
-    <row r="974" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A974" s="9">
+      <c r="G973" s="11"/>
+      <c r="H973" s="11"/>
+      <c r="I973" s="11"/>
+    </row>
+    <row r="974" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A974" s="12">
         <v>973</v>
       </c>
-      <c r="B974" s="10">
+      <c r="B974" s="11">
         <v>684</v>
       </c>
-      <c r="C974" s="10"/>
-      <c r="D974" s="19" t="s">
+      <c r="C974" s="11"/>
+      <c r="D974" s="13" t="s">
         <v>990</v>
       </c>
-      <c r="E974" s="9">
+      <c r="E974" s="12">
         <v>40000</v>
       </c>
-      <c r="F974" s="10">
+      <c r="F974" s="11">
         <v>25</v>
       </c>
-      <c r="G974" s="29"/>
-      <c r="H974" s="29"/>
-      <c r="I974" s="29"/>
-    </row>
-    <row r="975" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A975" s="9">
+      <c r="G974" s="11"/>
+      <c r="H974" s="11"/>
+      <c r="I974" s="11"/>
+    </row>
+    <row r="975" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A975" s="12">
         <v>974</v>
       </c>
-      <c r="B975" s="10">
+      <c r="B975" s="11">
         <v>684</v>
       </c>
-      <c r="C975" s="10"/>
-      <c r="D975" s="19" t="s">
+      <c r="C975" s="11"/>
+      <c r="D975" s="13" t="s">
         <v>990</v>
       </c>
-      <c r="E975" s="9">
+      <c r="E975" s="12">
         <v>50000</v>
       </c>
-      <c r="F975" s="10">
+      <c r="F975" s="11">
         <v>50</v>
       </c>
-      <c r="G975" s="29"/>
-      <c r="H975" s="29"/>
-      <c r="I975" s="29"/>
-    </row>
-    <row r="976" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A976" s="9">
+      <c r="G975" s="11"/>
+      <c r="H975" s="11"/>
+      <c r="I975" s="11"/>
+    </row>
+    <row r="976" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A976" s="12">
         <v>975</v>
       </c>
-      <c r="B976" s="10">
+      <c r="B976" s="11">
         <v>684</v>
       </c>
-      <c r="C976" s="10"/>
-      <c r="D976" s="19" t="s">
+      <c r="C976" s="11"/>
+      <c r="D976" s="13" t="s">
         <v>990</v>
       </c>
-      <c r="E976" s="9">
+      <c r="E976" s="12">
         <v>60000</v>
       </c>
-      <c r="F976" s="10">
+      <c r="F976" s="11">
         <v>25</v>
       </c>
-      <c r="G976" s="29"/>
-      <c r="H976" s="29"/>
-      <c r="I976" s="29"/>
+      <c r="G976" s="11"/>
+      <c r="H976" s="11"/>
+      <c r="I976" s="11"/>
+    </row>
+    <row r="977" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A977" s="9">
+        <v>976</v>
+      </c>
+      <c r="B977" s="10">
+        <v>685</v>
+      </c>
+      <c r="C977" s="10"/>
+      <c r="D977" s="19" t="s">
+        <v>989</v>
+      </c>
+      <c r="E977" s="83" t="s">
+        <v>1661</v>
+      </c>
+      <c r="F977" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="978" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A978" s="9">
+        <v>977</v>
+      </c>
+      <c r="B978" s="10">
+        <v>685</v>
+      </c>
+      <c r="C978" s="10"/>
+      <c r="D978" s="19" t="s">
+        <v>989</v>
+      </c>
+      <c r="E978" s="83" t="s">
+        <v>1662</v>
+      </c>
+      <c r="F978" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="979" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A979" s="9">
+        <v>978</v>
+      </c>
+      <c r="B979" s="10">
+        <v>685</v>
+      </c>
+      <c r="C979" s="10"/>
+      <c r="D979" s="19" t="s">
+        <v>989</v>
+      </c>
+      <c r="E979" s="83" t="s">
+        <v>1663</v>
+      </c>
+      <c r="F979" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="980" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A980" s="9">
+        <v>979</v>
+      </c>
+      <c r="B980" s="1">
+        <f>B977+1</f>
+        <v>686</v>
+      </c>
+      <c r="D980" s="19" t="s">
+        <v>989</v>
+      </c>
+      <c r="E980" s="1">
+        <v>30</v>
+      </c>
+      <c r="F980" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="981" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A981" s="9">
+        <v>980</v>
+      </c>
+      <c r="B981" s="29">
+        <f t="shared" ref="B981:B1004" si="0">B978+1</f>
+        <v>686</v>
+      </c>
+      <c r="D981" s="19" t="s">
+        <v>989</v>
+      </c>
+      <c r="E981" s="1">
+        <v>40</v>
+      </c>
+      <c r="F981" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="982" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A982" s="9">
+        <v>981</v>
+      </c>
+      <c r="B982" s="29">
+        <f t="shared" si="0"/>
+        <v>686</v>
+      </c>
+      <c r="D982" s="19" t="s">
+        <v>989</v>
+      </c>
+      <c r="E982" s="1">
+        <v>50</v>
+      </c>
+      <c r="F982" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="983" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A983" s="9">
+        <v>982</v>
+      </c>
+      <c r="B983" s="29">
+        <f t="shared" si="0"/>
+        <v>687</v>
+      </c>
+      <c r="D983" s="19" t="s">
+        <v>989</v>
+      </c>
+      <c r="E983" s="1">
+        <v>50</v>
+      </c>
+      <c r="F983" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="984" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A984" s="9">
+        <v>983</v>
+      </c>
+      <c r="B984" s="29">
+        <f t="shared" si="0"/>
+        <v>687</v>
+      </c>
+      <c r="D984" s="19" t="s">
+        <v>989</v>
+      </c>
+      <c r="E984" s="1">
+        <v>80</v>
+      </c>
+      <c r="F984" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="985" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A985" s="9">
+        <v>984</v>
+      </c>
+      <c r="B985" s="29">
+        <f t="shared" si="0"/>
+        <v>687</v>
+      </c>
+      <c r="D985" s="19" t="s">
+        <v>989</v>
+      </c>
+      <c r="E985" s="1">
+        <v>100</v>
+      </c>
+      <c r="F985" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="986" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A986" s="9">
+        <v>985</v>
+      </c>
+      <c r="B986" s="29">
+        <f t="shared" si="0"/>
+        <v>688</v>
+      </c>
+      <c r="D986" s="19" t="s">
+        <v>989</v>
+      </c>
+      <c r="E986" s="1">
+        <v>150</v>
+      </c>
+      <c r="F986" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="987" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A987" s="9">
+        <v>986</v>
+      </c>
+      <c r="B987" s="29">
+        <f t="shared" si="0"/>
+        <v>688</v>
+      </c>
+      <c r="D987" s="19" t="s">
+        <v>989</v>
+      </c>
+      <c r="E987" s="1">
+        <v>180</v>
+      </c>
+      <c r="F987" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="988" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A988" s="9">
+        <v>987</v>
+      </c>
+      <c r="B988" s="29">
+        <f t="shared" si="0"/>
+        <v>688</v>
+      </c>
+      <c r="D988" s="19" t="s">
+        <v>989</v>
+      </c>
+      <c r="E988" s="1">
+        <v>200</v>
+      </c>
+      <c r="F988" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="989" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A989" s="9">
+        <v>988</v>
+      </c>
+      <c r="B989" s="29">
+        <f t="shared" si="0"/>
+        <v>689</v>
+      </c>
+      <c r="D989" s="19" t="s">
+        <v>989</v>
+      </c>
+      <c r="E989" s="1">
+        <v>300</v>
+      </c>
+      <c r="F989" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="990" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A990" s="9">
+        <v>989</v>
+      </c>
+      <c r="B990" s="29">
+        <f t="shared" si="0"/>
+        <v>689</v>
+      </c>
+      <c r="D990" s="19" t="s">
+        <v>989</v>
+      </c>
+      <c r="E990" s="1">
+        <v>400</v>
+      </c>
+      <c r="F990" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="991" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A991" s="9">
+        <v>990</v>
+      </c>
+      <c r="B991" s="29">
+        <f t="shared" si="0"/>
+        <v>689</v>
+      </c>
+      <c r="D991" s="19" t="s">
+        <v>989</v>
+      </c>
+      <c r="E991" s="1">
+        <v>500</v>
+      </c>
+      <c r="F991" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="992" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A992" s="9">
+        <v>991</v>
+      </c>
+      <c r="B992" s="29">
+        <f t="shared" si="0"/>
+        <v>690</v>
+      </c>
+      <c r="D992" s="19" t="s">
+        <v>989</v>
+      </c>
+      <c r="E992" s="1">
+        <v>800</v>
+      </c>
+      <c r="F992" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="993" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A993" s="9">
+        <v>992</v>
+      </c>
+      <c r="B993" s="29">
+        <f t="shared" si="0"/>
+        <v>690</v>
+      </c>
+      <c r="D993" s="19" t="s">
+        <v>989</v>
+      </c>
+      <c r="E993" s="1">
+        <v>900</v>
+      </c>
+      <c r="F993" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="994" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A994" s="9">
+        <v>993</v>
+      </c>
+      <c r="B994" s="29">
+        <f t="shared" si="0"/>
+        <v>690</v>
+      </c>
+      <c r="D994" s="19" t="s">
+        <v>989</v>
+      </c>
+      <c r="E994" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F994" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="995" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A995" s="9">
+        <v>994</v>
+      </c>
+      <c r="B995" s="29">
+        <f t="shared" si="0"/>
+        <v>691</v>
+      </c>
+      <c r="D995" s="19" t="s">
+        <v>989</v>
+      </c>
+      <c r="E995" s="1">
+        <v>4500</v>
+      </c>
+      <c r="F995" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="996" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A996" s="9">
+        <v>995</v>
+      </c>
+      <c r="B996" s="29">
+        <f t="shared" si="0"/>
+        <v>691</v>
+      </c>
+      <c r="D996" s="19" t="s">
+        <v>989</v>
+      </c>
+      <c r="E996" s="1">
+        <v>4800</v>
+      </c>
+      <c r="F996" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="997" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A997" s="9">
+        <v>996</v>
+      </c>
+      <c r="B997" s="29">
+        <f t="shared" si="0"/>
+        <v>691</v>
+      </c>
+      <c r="D997" s="19" t="s">
+        <v>989</v>
+      </c>
+      <c r="E997" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F997" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="998" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A998" s="9">
+        <v>997</v>
+      </c>
+      <c r="B998" s="29">
+        <f t="shared" si="0"/>
+        <v>692</v>
+      </c>
+      <c r="D998" s="19" t="s">
+        <v>989</v>
+      </c>
+      <c r="E998" s="1">
+        <v>8000</v>
+      </c>
+      <c r="F998" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="999" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A999" s="9">
+        <v>998</v>
+      </c>
+      <c r="B999" s="29">
+        <f t="shared" si="0"/>
+        <v>692</v>
+      </c>
+      <c r="D999" s="19" t="s">
+        <v>989</v>
+      </c>
+      <c r="E999" s="1">
+        <v>9000</v>
+      </c>
+      <c r="F999" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1000" s="9">
+        <v>999</v>
+      </c>
+      <c r="B1000" s="29">
+        <f t="shared" si="0"/>
+        <v>692</v>
+      </c>
+      <c r="D1000" s="19" t="s">
+        <v>989</v>
+      </c>
+      <c r="E1000" s="1">
+        <v>10000</v>
+      </c>
+      <c r="F1000" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1001" s="9">
+        <v>1000</v>
+      </c>
+      <c r="B1001" s="29">
+        <f t="shared" si="0"/>
+        <v>693</v>
+      </c>
+      <c r="D1001" s="19" t="s">
+        <v>989</v>
+      </c>
+      <c r="E1001" s="1">
+        <v>15000</v>
+      </c>
+      <c r="F1001" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1002" s="9">
+        <v>1001</v>
+      </c>
+      <c r="B1002" s="29">
+        <f t="shared" si="0"/>
+        <v>693</v>
+      </c>
+      <c r="D1002" s="19" t="s">
+        <v>989</v>
+      </c>
+      <c r="E1002" s="1">
+        <v>18000</v>
+      </c>
+      <c r="F1002" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1003" s="9">
+        <v>1002</v>
+      </c>
+      <c r="B1003" s="29">
+        <f t="shared" si="0"/>
+        <v>693</v>
+      </c>
+      <c r="D1003" s="19" t="s">
+        <v>989</v>
+      </c>
+      <c r="E1003" s="1">
+        <v>20000</v>
+      </c>
+      <c r="F1003" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B1004" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>

--- a/config_debug/task_zajindan_server.xlsx
+++ b/config_debug/task_zajindan_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5787" uniqueCount="1667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5832" uniqueCount="1680">
   <si>
     <t>id|任务id</t>
   </si>
@@ -10042,6 +10042,57 @@
       <t>or</t>
     </r>
     <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>小游戏累计赢金</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>小游戏赢金（所有渠道）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>little_game_yingjin_task</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000,5000000,10000000,20000000,50000000,100000000,500000000,1000000000,2000000000,</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>685,686,687,688,689,690,691,692,693</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>random</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>guess_apple_award</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaoxiaole_xiyou_award</t>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -10928,13 +10979,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:T462"/>
+  <dimension ref="A1:T463"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="I431" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="J446" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C463" sqref="C463"/>
+      <selection pane="bottomRight" activeCell="M463" sqref="M463"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -28864,6 +28915,44 @@
         <v>-1</v>
       </c>
     </row>
+    <row r="463" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A463" s="51">
+        <v>1000052</v>
+      </c>
+      <c r="B463" s="9">
+        <v>1</v>
+      </c>
+      <c r="C463" s="51" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D463" s="51" t="s">
+        <v>1668</v>
+      </c>
+      <c r="E463" s="51" t="s">
+        <v>1506</v>
+      </c>
+      <c r="F463" s="51" t="s">
+        <v>1669</v>
+      </c>
+      <c r="G463" s="51">
+        <v>21410</v>
+      </c>
+      <c r="H463" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I463" s="9">
+        <v>1</v>
+      </c>
+      <c r="J463" s="9">
+        <v>946677600</v>
+      </c>
+      <c r="K463" s="9">
+        <v>32503651200</v>
+      </c>
+      <c r="L463" s="9">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B1:B367"/>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -28875,13 +28964,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:K462"/>
+  <dimension ref="A1:K463"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E442" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C442" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H468" sqref="H468"/>
+      <selection pane="bottomRight" activeCell="D463" sqref="D463"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -40621,6 +40710,29 @@
         <v>856</v>
       </c>
     </row>
+    <row r="463" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A463" s="51">
+        <v>462</v>
+      </c>
+      <c r="B463" s="51">
+        <v>21410</v>
+      </c>
+      <c r="C463" s="10"/>
+      <c r="D463" s="51">
+        <v>454</v>
+      </c>
+      <c r="E463" s="10"/>
+      <c r="F463" s="82" t="s">
+        <v>1670</v>
+      </c>
+      <c r="G463" s="79"/>
+      <c r="H463" s="112" t="s">
+        <v>1671</v>
+      </c>
+      <c r="I463" s="19" t="s">
+        <v>1672</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -40631,10 +40743,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I638"/>
+  <dimension ref="A1:I646"/>
   <sheetViews>
     <sheetView topLeftCell="A616" workbookViewId="0">
-      <selection activeCell="C637" sqref="C637"/>
+      <selection activeCell="A639" sqref="A639:E646"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -49902,6 +50014,128 @@
       <c r="D638" s="10">
         <v>317</v>
       </c>
+    </row>
+    <row r="639" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A639" s="11">
+        <v>638</v>
+      </c>
+      <c r="B639" s="51">
+        <v>454</v>
+      </c>
+      <c r="C639" s="26" t="s">
+        <v>393</v>
+      </c>
+      <c r="D639" s="10">
+        <v>0</v>
+      </c>
+      <c r="E639" s="10"/>
+    </row>
+    <row r="640" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A640" s="11">
+        <v>639</v>
+      </c>
+      <c r="B640" s="51">
+        <v>454</v>
+      </c>
+      <c r="C640" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="D640" s="10">
+        <v>0</v>
+      </c>
+      <c r="E640" s="10"/>
+    </row>
+    <row r="641" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A641" s="11">
+        <v>640</v>
+      </c>
+      <c r="B641" s="51">
+        <v>454</v>
+      </c>
+      <c r="C641" s="10" t="s">
+        <v>664</v>
+      </c>
+      <c r="D641" s="10">
+        <v>0</v>
+      </c>
+      <c r="E641" s="10"/>
+    </row>
+    <row r="642" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A642" s="11">
+        <v>641</v>
+      </c>
+      <c r="B642" s="51">
+        <v>454</v>
+      </c>
+      <c r="C642" s="10" t="s">
+        <v>665</v>
+      </c>
+      <c r="D642" s="10">
+        <v>0</v>
+      </c>
+      <c r="E642" s="10"/>
+    </row>
+    <row r="643" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A643" s="11">
+        <v>642</v>
+      </c>
+      <c r="B643" s="51">
+        <v>454</v>
+      </c>
+      <c r="C643" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="D643" s="10">
+        <v>0</v>
+      </c>
+      <c r="E643" s="10"/>
+    </row>
+    <row r="644" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A644" s="11">
+        <v>643</v>
+      </c>
+      <c r="B644" s="51">
+        <v>454</v>
+      </c>
+      <c r="C644" s="10" t="s">
+        <v>666</v>
+      </c>
+      <c r="D644" s="10">
+        <v>0</v>
+      </c>
+      <c r="E644" s="10"/>
+    </row>
+    <row r="645" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A645" s="11">
+        <v>644</v>
+      </c>
+      <c r="B645" s="51">
+        <v>454</v>
+      </c>
+      <c r="C645" s="26" t="s">
+        <v>1673</v>
+      </c>
+      <c r="D645" s="10">
+        <v>0</v>
+      </c>
+      <c r="E645" s="10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="646" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A646" s="11">
+        <v>645</v>
+      </c>
+      <c r="B646" s="51">
+        <v>454</v>
+      </c>
+      <c r="C646" s="10" t="s">
+        <v>1674</v>
+      </c>
+      <c r="D646" s="10">
+        <v>0</v>
+      </c>
+      <c r="E646" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
@@ -57981,13 +58215,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:W976"/>
+  <dimension ref="A1:W1003"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C944" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C974" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A966" sqref="A966"/>
+      <selection pane="bottomRight" activeCell="B997" sqref="B997"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -78106,6 +78340,492 @@
       <c r="G976" s="29"/>
       <c r="H976" s="29"/>
       <c r="I976" s="29"/>
+    </row>
+    <row r="977" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A977" s="9">
+        <v>976</v>
+      </c>
+      <c r="B977" s="10">
+        <v>685</v>
+      </c>
+      <c r="C977" s="10"/>
+      <c r="D977" s="19" t="s">
+        <v>1675</v>
+      </c>
+      <c r="E977" s="83" t="s">
+        <v>1676</v>
+      </c>
+      <c r="F977" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="978" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A978" s="9">
+        <v>977</v>
+      </c>
+      <c r="B978" s="10">
+        <v>685</v>
+      </c>
+      <c r="C978" s="10"/>
+      <c r="D978" s="19" t="s">
+        <v>1675</v>
+      </c>
+      <c r="E978" s="83" t="s">
+        <v>1677</v>
+      </c>
+      <c r="F978" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="979" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A979" s="9">
+        <v>978</v>
+      </c>
+      <c r="B979" s="10">
+        <v>685</v>
+      </c>
+      <c r="C979" s="10"/>
+      <c r="D979" s="19" t="s">
+        <v>1675</v>
+      </c>
+      <c r="E979" s="83" t="s">
+        <v>1678</v>
+      </c>
+      <c r="F979" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="980" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A980" s="9">
+        <v>979</v>
+      </c>
+      <c r="B980" s="29">
+        <v>686</v>
+      </c>
+      <c r="C980" s="29"/>
+      <c r="D980" s="19" t="s">
+        <v>1675</v>
+      </c>
+      <c r="E980" s="29">
+        <v>30</v>
+      </c>
+      <c r="F980" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="981" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A981" s="9">
+        <v>980</v>
+      </c>
+      <c r="B981" s="29">
+        <v>686</v>
+      </c>
+      <c r="C981" s="29"/>
+      <c r="D981" s="19" t="s">
+        <v>1675</v>
+      </c>
+      <c r="E981" s="29">
+        <v>40</v>
+      </c>
+      <c r="F981" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="982" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A982" s="9">
+        <v>981</v>
+      </c>
+      <c r="B982" s="29">
+        <v>686</v>
+      </c>
+      <c r="C982" s="29"/>
+      <c r="D982" s="19" t="s">
+        <v>1675</v>
+      </c>
+      <c r="E982" s="29">
+        <v>50</v>
+      </c>
+      <c r="F982" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="983" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A983" s="9">
+        <v>982</v>
+      </c>
+      <c r="B983" s="29">
+        <v>687</v>
+      </c>
+      <c r="C983" s="29"/>
+      <c r="D983" s="19" t="s">
+        <v>1675</v>
+      </c>
+      <c r="E983" s="29">
+        <v>50</v>
+      </c>
+      <c r="F983" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="984" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A984" s="9">
+        <v>983</v>
+      </c>
+      <c r="B984" s="29">
+        <v>687</v>
+      </c>
+      <c r="C984" s="29"/>
+      <c r="D984" s="19" t="s">
+        <v>1675</v>
+      </c>
+      <c r="E984" s="29">
+        <v>80</v>
+      </c>
+      <c r="F984" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="985" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A985" s="9">
+        <v>984</v>
+      </c>
+      <c r="B985" s="29">
+        <v>687</v>
+      </c>
+      <c r="C985" s="29"/>
+      <c r="D985" s="19" t="s">
+        <v>1675</v>
+      </c>
+      <c r="E985" s="29">
+        <v>100</v>
+      </c>
+      <c r="F985" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="986" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A986" s="9">
+        <v>985</v>
+      </c>
+      <c r="B986" s="29">
+        <v>688</v>
+      </c>
+      <c r="C986" s="29"/>
+      <c r="D986" s="19" t="s">
+        <v>1675</v>
+      </c>
+      <c r="E986" s="29">
+        <v>150</v>
+      </c>
+      <c r="F986" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="987" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A987" s="9">
+        <v>986</v>
+      </c>
+      <c r="B987" s="29">
+        <v>688</v>
+      </c>
+      <c r="C987" s="29"/>
+      <c r="D987" s="19" t="s">
+        <v>1675</v>
+      </c>
+      <c r="E987" s="29">
+        <v>180</v>
+      </c>
+      <c r="F987" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="988" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A988" s="9">
+        <v>987</v>
+      </c>
+      <c r="B988" s="29">
+        <v>688</v>
+      </c>
+      <c r="C988" s="29"/>
+      <c r="D988" s="19" t="s">
+        <v>1675</v>
+      </c>
+      <c r="E988" s="29">
+        <v>200</v>
+      </c>
+      <c r="F988" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="989" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A989" s="9">
+        <v>988</v>
+      </c>
+      <c r="B989" s="29">
+        <v>689</v>
+      </c>
+      <c r="C989" s="29"/>
+      <c r="D989" s="19" t="s">
+        <v>1675</v>
+      </c>
+      <c r="E989" s="29">
+        <v>300</v>
+      </c>
+      <c r="F989" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="990" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A990" s="9">
+        <v>989</v>
+      </c>
+      <c r="B990" s="29">
+        <v>689</v>
+      </c>
+      <c r="C990" s="29"/>
+      <c r="D990" s="19" t="s">
+        <v>1675</v>
+      </c>
+      <c r="E990" s="29">
+        <v>400</v>
+      </c>
+      <c r="F990" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="991" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A991" s="9">
+        <v>990</v>
+      </c>
+      <c r="B991" s="29">
+        <v>689</v>
+      </c>
+      <c r="C991" s="29"/>
+      <c r="D991" s="19" t="s">
+        <v>1675</v>
+      </c>
+      <c r="E991" s="29">
+        <v>500</v>
+      </c>
+      <c r="F991" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="992" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A992" s="9">
+        <v>991</v>
+      </c>
+      <c r="B992" s="29">
+        <v>690</v>
+      </c>
+      <c r="C992" s="29"/>
+      <c r="D992" s="19" t="s">
+        <v>1675</v>
+      </c>
+      <c r="E992" s="29">
+        <v>800</v>
+      </c>
+      <c r="F992" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="993" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A993" s="9">
+        <v>992</v>
+      </c>
+      <c r="B993" s="29">
+        <v>690</v>
+      </c>
+      <c r="C993" s="29"/>
+      <c r="D993" s="19" t="s">
+        <v>1675</v>
+      </c>
+      <c r="E993" s="29">
+        <v>900</v>
+      </c>
+      <c r="F993" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="994" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A994" s="9">
+        <v>993</v>
+      </c>
+      <c r="B994" s="29">
+        <v>690</v>
+      </c>
+      <c r="C994" s="29"/>
+      <c r="D994" s="19" t="s">
+        <v>1675</v>
+      </c>
+      <c r="E994" s="29">
+        <v>1000</v>
+      </c>
+      <c r="F994" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="995" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A995" s="9">
+        <v>994</v>
+      </c>
+      <c r="B995" s="29">
+        <v>691</v>
+      </c>
+      <c r="C995" s="29"/>
+      <c r="D995" s="19" t="s">
+        <v>1675</v>
+      </c>
+      <c r="E995" s="29">
+        <v>4500</v>
+      </c>
+      <c r="F995" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="996" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A996" s="9">
+        <v>995</v>
+      </c>
+      <c r="B996" s="29">
+        <v>691</v>
+      </c>
+      <c r="C996" s="29"/>
+      <c r="D996" s="19" t="s">
+        <v>1675</v>
+      </c>
+      <c r="E996" s="29">
+        <v>4800</v>
+      </c>
+      <c r="F996" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="997" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A997" s="9">
+        <v>996</v>
+      </c>
+      <c r="B997" s="29">
+        <v>691</v>
+      </c>
+      <c r="C997" s="29"/>
+      <c r="D997" s="19" t="s">
+        <v>1675</v>
+      </c>
+      <c r="E997" s="29">
+        <v>5000</v>
+      </c>
+      <c r="F997" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="998" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A998" s="9">
+        <v>997</v>
+      </c>
+      <c r="B998" s="29">
+        <v>692</v>
+      </c>
+      <c r="C998" s="29"/>
+      <c r="D998" s="19" t="s">
+        <v>1675</v>
+      </c>
+      <c r="E998" s="29">
+        <v>8000</v>
+      </c>
+      <c r="F998" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="999" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A999" s="9">
+        <v>998</v>
+      </c>
+      <c r="B999" s="29">
+        <v>692</v>
+      </c>
+      <c r="C999" s="29"/>
+      <c r="D999" s="19" t="s">
+        <v>1679</v>
+      </c>
+      <c r="E999" s="29">
+        <v>9000</v>
+      </c>
+      <c r="F999" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1000" s="9">
+        <v>999</v>
+      </c>
+      <c r="B1000" s="29">
+        <v>692</v>
+      </c>
+      <c r="C1000" s="29"/>
+      <c r="D1000" s="19" t="s">
+        <v>1675</v>
+      </c>
+      <c r="E1000" s="29">
+        <v>10000</v>
+      </c>
+      <c r="F1000" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1001" s="9">
+        <v>1000</v>
+      </c>
+      <c r="B1001" s="29">
+        <v>693</v>
+      </c>
+      <c r="C1001" s="29"/>
+      <c r="D1001" s="19" t="s">
+        <v>1675</v>
+      </c>
+      <c r="E1001" s="29">
+        <v>15000</v>
+      </c>
+      <c r="F1001" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1002" s="9">
+        <v>1001</v>
+      </c>
+      <c r="B1002" s="29">
+        <v>693</v>
+      </c>
+      <c r="C1002" s="29"/>
+      <c r="D1002" s="19" t="s">
+        <v>1675</v>
+      </c>
+      <c r="E1002" s="29">
+        <v>18000</v>
+      </c>
+      <c r="F1002" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1003" s="9">
+        <v>1002</v>
+      </c>
+      <c r="B1003" s="29">
+        <v>693</v>
+      </c>
+      <c r="C1003" s="29"/>
+      <c r="D1003" s="19" t="s">
+        <v>1675</v>
+      </c>
+      <c r="E1003" s="29">
+        <v>20000</v>
+      </c>
+      <c r="F1003" s="10">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>

--- a/config_debug/task_zajindan_server.xlsx
+++ b/config_debug/task_zajindan_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5832" uniqueCount="1680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6024" uniqueCount="1720">
   <si>
     <t>id|任务id</t>
   </si>
@@ -8455,27 +8455,11 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>神秘海域</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>buyu_leiji_dapao_new_task</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>海底宝藏</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>藏宝海湾</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>开炮送红包</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>深海沉船</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -9934,18 +9918,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>浅水湾</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>深海寻宝</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>地底遗迹</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>676,677,678</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -10048,10 +10020,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>小游戏赢金（所有渠道）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>little_game_yingjin_task</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -10092,6 +10060,198 @@
   </si>
   <si>
     <t>shop_gold_sum</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_kpshb_cps</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>神秘海域（非CPS渠道）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_kpshb_nor</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>小游戏赢金（非CPS渠道）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_xyxyj_nor</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>小游戏赢金（CPS渠道）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_xyxyj_cps</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>694,695,696</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>神秘海域（CPS渠道）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>海底宝藏（CPS渠道）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>藏宝海湾（CPS渠道）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>深海沉船（CPS渠道）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>海底宝藏（非CPS渠道）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>藏宝海湾（非CPS渠道）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>深海沉船（非CPS渠道）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>jing_bi</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>40000</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>jing_bi</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>jing_bi</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>jing_bi</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>jing_bi</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>697,698,699</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>700,701,702</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>703,704,705</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>706,707,708,709,710,711,712,713,714</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_jjkpshb_nor</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>浅水湾（非CPS渠道）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>深海寻宝（非CPS渠道）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>地底遗迹（非CPS渠道）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>浅水湾（CPS渠道）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>深海寻宝（CPS渠道）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>地底遗迹（CPS渠道）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_jjkpshb_cps</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>jing_bi</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>jing_bi</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>715,716,717</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>718,719,720</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>721,722,723</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_jjkpshb_nor</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -10979,13 +11139,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:T463"/>
+  <dimension ref="A1:T471"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="J446" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="E446" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M463" sqref="M463"/>
+      <selection pane="bottomRight" activeCell="C479" sqref="C479"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -24860,7 +25020,7 @@
         <v>1131</v>
       </c>
       <c r="D356" s="16" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
       <c r="E356" s="16" t="s">
         <v>1126</v>
@@ -25316,13 +25476,13 @@
         <v>1490</v>
       </c>
       <c r="D368" s="99" t="s">
+        <v>1673</v>
+      </c>
+      <c r="E368" s="98" t="s">
+        <v>1674</v>
+      </c>
+      <c r="F368" s="98" t="s">
         <v>1491</v>
-      </c>
-      <c r="E368" s="98" t="s">
-        <v>12</v>
-      </c>
-      <c r="F368" s="98" t="s">
-        <v>1492</v>
       </c>
       <c r="G368" s="97">
         <v>21315</v>
@@ -25354,13 +25514,13 @@
         <v>1490</v>
       </c>
       <c r="D369" s="99" t="s">
-        <v>1493</v>
+        <v>1685</v>
       </c>
       <c r="E369" s="98" t="s">
-        <v>12</v>
+        <v>1674</v>
       </c>
       <c r="F369" s="98" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="G369" s="97">
         <v>21316</v>
@@ -25392,13 +25552,13 @@
         <v>1490</v>
       </c>
       <c r="D370" s="98" t="s">
-        <v>1494</v>
+        <v>1686</v>
       </c>
       <c r="E370" s="98" t="s">
-        <v>12</v>
+        <v>1674</v>
       </c>
       <c r="F370" s="98" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="G370" s="97">
         <v>21317</v>
@@ -25427,16 +25587,16 @@
         <v>1</v>
       </c>
       <c r="C371" s="98" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
       <c r="D371" s="98" t="s">
-        <v>1496</v>
+        <v>1687</v>
       </c>
       <c r="E371" s="98" t="s">
-        <v>12</v>
+        <v>1674</v>
       </c>
       <c r="F371" s="98" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="G371" s="97">
         <v>21318</v>
@@ -26307,7 +26467,7 @@
         <v>1349</v>
       </c>
       <c r="E394" s="98" t="s">
-        <v>1506</v>
+        <v>1502</v>
       </c>
       <c r="F394" s="98" t="s">
         <v>1348</v>
@@ -27064,7 +27224,7 @@
         <v>1428</v>
       </c>
       <c r="D414" s="49" t="s">
-        <v>1530</v>
+        <v>1526</v>
       </c>
       <c r="E414" s="49" t="s">
         <v>1430</v>
@@ -27146,7 +27306,7 @@
         <v>1473</v>
       </c>
       <c r="F416" s="12" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="G416" s="12">
         <v>21363</v>
@@ -27222,7 +27382,7 @@
         <v>1475</v>
       </c>
       <c r="F418" s="12" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="G418" s="12">
         <v>21365</v>
@@ -27260,7 +27420,7 @@
         <v>1475</v>
       </c>
       <c r="F419" s="12" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="G419" s="12">
         <v>21366</v>
@@ -27336,7 +27496,7 @@
         <v>1476</v>
       </c>
       <c r="F421" s="12" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="G421" s="12">
         <v>21368</v>
@@ -27374,7 +27534,7 @@
         <v>1476</v>
       </c>
       <c r="F422" s="12" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="G422" s="12">
         <v>21369</v>
@@ -27412,7 +27572,7 @@
         <v>1476</v>
       </c>
       <c r="F423" s="12" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="G423" s="12">
         <v>21370</v>
@@ -27450,7 +27610,7 @@
         <v>1476</v>
       </c>
       <c r="F424" s="16" t="s">
-        <v>1539</v>
+        <v>1535</v>
       </c>
       <c r="G424" s="12">
         <v>21371</v>
@@ -27479,16 +27639,16 @@
         <v>1</v>
       </c>
       <c r="C425" s="114" t="s">
-        <v>1498</v>
+        <v>1494</v>
       </c>
       <c r="D425" s="114" t="s">
-        <v>1501</v>
+        <v>1497</v>
       </c>
       <c r="E425" s="114" t="s">
-        <v>1507</v>
+        <v>1503</v>
       </c>
       <c r="F425" s="114" t="s">
-        <v>1534</v>
+        <v>1530</v>
       </c>
       <c r="G425" s="113">
         <v>21372</v>
@@ -27517,13 +27677,13 @@
         <v>1</v>
       </c>
       <c r="C426" s="114" t="s">
-        <v>1499</v>
+        <v>1495</v>
       </c>
       <c r="D426" s="114" t="s">
-        <v>1502</v>
+        <v>1498</v>
       </c>
       <c r="E426" s="114" t="s">
-        <v>1508</v>
+        <v>1504</v>
       </c>
       <c r="F426" s="113" t="s">
         <v>855</v>
@@ -27555,13 +27715,13 @@
         <v>1</v>
       </c>
       <c r="C427" s="114" t="s">
-        <v>1500</v>
+        <v>1496</v>
       </c>
       <c r="D427" s="114" t="s">
+        <v>1499</v>
+      </c>
+      <c r="E427" s="114" t="s">
         <v>1503</v>
-      </c>
-      <c r="E427" s="114" t="s">
-        <v>1507</v>
       </c>
       <c r="F427" s="113" t="s">
         <v>855</v>
@@ -27593,13 +27753,13 @@
         <v>1</v>
       </c>
       <c r="C428" s="114" t="s">
-        <v>1504</v>
+        <v>1500</v>
       </c>
       <c r="D428" s="114" t="s">
+        <v>1501</v>
+      </c>
+      <c r="E428" s="114" t="s">
         <v>1505</v>
-      </c>
-      <c r="E428" s="114" t="s">
-        <v>1509</v>
       </c>
       <c r="F428" s="113" t="s">
         <v>855</v>
@@ -27631,13 +27791,13 @@
         <v>1</v>
       </c>
       <c r="C429" s="61" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
       <c r="D429" s="61" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
       <c r="E429" s="84" t="s">
-        <v>1529</v>
+        <v>1525</v>
       </c>
       <c r="F429" s="61" t="s">
         <v>855</v>
@@ -27669,16 +27829,16 @@
         <v>1</v>
       </c>
       <c r="C430" s="16" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="D430" s="16" t="s">
-        <v>1532</v>
+        <v>1528</v>
       </c>
       <c r="E430" s="16" t="s">
-        <v>1533</v>
+        <v>1529</v>
       </c>
       <c r="F430" s="16" t="s">
-        <v>1557</v>
+        <v>1553</v>
       </c>
       <c r="G430" s="12">
         <v>21377</v>
@@ -27707,16 +27867,16 @@
         <v>1</v>
       </c>
       <c r="C431" s="16" t="s">
+        <v>1527</v>
+      </c>
+      <c r="D431" s="16" t="s">
         <v>1531</v>
       </c>
-      <c r="D431" s="16" t="s">
-        <v>1535</v>
-      </c>
       <c r="E431" s="16" t="s">
-        <v>1533</v>
+        <v>1529</v>
       </c>
       <c r="F431" s="16" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="G431" s="12">
         <v>21378</v>
@@ -27745,16 +27905,16 @@
         <v>1</v>
       </c>
       <c r="C432" s="16" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="D432" s="16" t="s">
-        <v>1536</v>
+        <v>1532</v>
       </c>
       <c r="E432" s="16" t="s">
-        <v>1533</v>
+        <v>1529</v>
       </c>
       <c r="F432" s="16" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="G432" s="12">
         <v>21379</v>
@@ -27783,16 +27943,16 @@
         <v>1</v>
       </c>
       <c r="C433" s="16" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="D433" s="16" t="s">
-        <v>1537</v>
+        <v>1533</v>
       </c>
       <c r="E433" s="16" t="s">
-        <v>1533</v>
+        <v>1529</v>
       </c>
       <c r="F433" s="16" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="G433" s="12">
         <v>21380</v>
@@ -27821,16 +27981,16 @@
         <v>1</v>
       </c>
       <c r="C434" s="16" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="D434" s="16" t="s">
-        <v>1538</v>
+        <v>1534</v>
       </c>
       <c r="E434" s="16" t="s">
-        <v>1533</v>
+        <v>1529</v>
       </c>
       <c r="F434" s="16" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="G434" s="12">
         <v>21381</v>
@@ -27859,13 +28019,13 @@
         <v>1</v>
       </c>
       <c r="C435" s="16" t="s">
-        <v>1554</v>
+        <v>1550</v>
       </c>
       <c r="D435" s="16" t="s">
-        <v>1555</v>
+        <v>1551</v>
       </c>
       <c r="E435" s="16" t="s">
-        <v>1586</v>
+        <v>1582</v>
       </c>
       <c r="F435" s="16" t="s">
         <v>855</v>
@@ -27897,13 +28057,13 @@
         <v>1</v>
       </c>
       <c r="C436" s="16" t="s">
-        <v>1554</v>
+        <v>1550</v>
       </c>
       <c r="D436" s="16" t="s">
-        <v>1642</v>
+        <v>1638</v>
       </c>
       <c r="E436" s="16" t="s">
-        <v>1556</v>
+        <v>1552</v>
       </c>
       <c r="F436" s="16" t="s">
         <v>855</v>
@@ -27935,13 +28095,13 @@
         <v>1</v>
       </c>
       <c r="C437" s="16" t="s">
-        <v>1554</v>
+        <v>1550</v>
       </c>
       <c r="D437" s="16" t="s">
-        <v>1561</v>
+        <v>1557</v>
       </c>
       <c r="E437" s="16" t="s">
-        <v>1569</v>
+        <v>1565</v>
       </c>
       <c r="F437" s="16" t="s">
         <v>855</v>
@@ -27973,13 +28133,13 @@
         <v>1</v>
       </c>
       <c r="C438" s="16" t="s">
-        <v>1554</v>
+        <v>1550</v>
       </c>
       <c r="D438" s="16" t="s">
-        <v>1562</v>
+        <v>1558</v>
       </c>
       <c r="E438" s="16" t="s">
-        <v>1569</v>
+        <v>1565</v>
       </c>
       <c r="F438" s="16" t="s">
         <v>855</v>
@@ -28011,13 +28171,13 @@
         <v>1</v>
       </c>
       <c r="C439" s="16" t="s">
-        <v>1554</v>
+        <v>1550</v>
       </c>
       <c r="D439" s="16" t="s">
-        <v>1563</v>
+        <v>1559</v>
       </c>
       <c r="E439" s="16" t="s">
-        <v>1569</v>
+        <v>1565</v>
       </c>
       <c r="F439" s="16" t="s">
         <v>855</v>
@@ -28049,13 +28209,13 @@
         <v>1</v>
       </c>
       <c r="C440" s="16" t="s">
-        <v>1554</v>
+        <v>1550</v>
       </c>
       <c r="D440" s="16" t="s">
-        <v>1564</v>
+        <v>1560</v>
       </c>
       <c r="E440" s="16" t="s">
-        <v>1569</v>
+        <v>1565</v>
       </c>
       <c r="F440" s="16" t="s">
         <v>855</v>
@@ -28087,13 +28247,13 @@
         <v>1</v>
       </c>
       <c r="C441" s="16" t="s">
-        <v>1585</v>
+        <v>1581</v>
       </c>
       <c r="D441" s="16" t="s">
+        <v>1561</v>
+      </c>
+      <c r="E441" s="16" t="s">
         <v>1565</v>
-      </c>
-      <c r="E441" s="16" t="s">
-        <v>1569</v>
       </c>
       <c r="F441" s="16" t="s">
         <v>855</v>
@@ -28125,13 +28285,13 @@
         <v>1</v>
       </c>
       <c r="C442" s="16" t="s">
-        <v>1554</v>
+        <v>1550</v>
       </c>
       <c r="D442" s="16" t="s">
-        <v>1566</v>
+        <v>1562</v>
       </c>
       <c r="E442" s="16" t="s">
-        <v>1569</v>
+        <v>1565</v>
       </c>
       <c r="F442" s="16" t="s">
         <v>855</v>
@@ -28163,13 +28323,13 @@
         <v>1</v>
       </c>
       <c r="C443" s="16" t="s">
-        <v>1554</v>
+        <v>1550</v>
       </c>
       <c r="D443" s="16" t="s">
-        <v>1567</v>
+        <v>1563</v>
       </c>
       <c r="E443" s="16" t="s">
-        <v>1569</v>
+        <v>1565</v>
       </c>
       <c r="F443" s="16" t="s">
         <v>855</v>
@@ -28201,13 +28361,13 @@
         <v>1</v>
       </c>
       <c r="C444" s="16" t="s">
-        <v>1554</v>
+        <v>1550</v>
       </c>
       <c r="D444" s="16" t="s">
-        <v>1568</v>
+        <v>1564</v>
       </c>
       <c r="E444" s="16" t="s">
-        <v>1569</v>
+        <v>1565</v>
       </c>
       <c r="F444" s="16" t="s">
         <v>855</v>
@@ -28239,13 +28399,13 @@
         <v>1</v>
       </c>
       <c r="C445" s="16" t="s">
-        <v>1588</v>
+        <v>1584</v>
       </c>
       <c r="D445" s="16" t="s">
-        <v>1589</v>
+        <v>1585</v>
       </c>
       <c r="E445" s="16" t="s">
-        <v>1591</v>
+        <v>1587</v>
       </c>
       <c r="F445" s="16" t="s">
         <v>855</v>
@@ -28277,13 +28437,13 @@
         <v>1</v>
       </c>
       <c r="C446" s="16" t="s">
-        <v>1588</v>
+        <v>1584</v>
       </c>
       <c r="D446" s="16" t="s">
-        <v>1590</v>
+        <v>1586</v>
       </c>
       <c r="E446" s="16" t="s">
-        <v>1591</v>
+        <v>1587</v>
       </c>
       <c r="F446" s="16" t="s">
         <v>855</v>
@@ -28315,13 +28475,13 @@
         <v>1</v>
       </c>
       <c r="C447" s="61" t="s">
-        <v>1607</v>
+        <v>1603</v>
       </c>
       <c r="D447" s="84" t="s">
-        <v>1608</v>
+        <v>1604</v>
       </c>
       <c r="E447" s="84" t="s">
-        <v>1639</v>
+        <v>1635</v>
       </c>
       <c r="F447" s="84" t="s">
         <v>855</v>
@@ -28353,13 +28513,13 @@
         <v>1</v>
       </c>
       <c r="C448" s="84" t="s">
-        <v>1613</v>
+        <v>1609</v>
       </c>
       <c r="D448" s="84" t="s">
-        <v>1614</v>
+        <v>1610</v>
       </c>
       <c r="E448" s="84" t="s">
-        <v>1609</v>
+        <v>1605</v>
       </c>
       <c r="F448" s="84" t="s">
         <v>855</v>
@@ -28391,13 +28551,13 @@
         <v>1</v>
       </c>
       <c r="C449" s="61" t="s">
-        <v>1607</v>
+        <v>1603</v>
       </c>
       <c r="D449" s="84" t="s">
-        <v>1615</v>
+        <v>1611</v>
       </c>
       <c r="E449" s="84" t="s">
-        <v>1623</v>
+        <v>1619</v>
       </c>
       <c r="F449" s="84" t="s">
         <v>855</v>
@@ -28429,13 +28589,13 @@
         <v>1</v>
       </c>
       <c r="C450" s="84" t="s">
-        <v>1613</v>
+        <v>1609</v>
       </c>
       <c r="D450" s="84" t="s">
-        <v>1616</v>
+        <v>1612</v>
       </c>
       <c r="E450" s="84" t="s">
-        <v>1623</v>
+        <v>1619</v>
       </c>
       <c r="F450" s="84" t="s">
         <v>855</v>
@@ -28467,13 +28627,13 @@
         <v>1</v>
       </c>
       <c r="C451" s="61" t="s">
-        <v>1607</v>
+        <v>1603</v>
       </c>
       <c r="D451" s="84" t="s">
-        <v>1617</v>
+        <v>1613</v>
       </c>
       <c r="E451" s="84" t="s">
-        <v>1638</v>
+        <v>1634</v>
       </c>
       <c r="F451" s="84" t="s">
         <v>855</v>
@@ -28505,13 +28665,13 @@
         <v>1</v>
       </c>
       <c r="C452" s="84" t="s">
-        <v>1613</v>
+        <v>1609</v>
       </c>
       <c r="D452" s="84" t="s">
-        <v>1618</v>
+        <v>1614</v>
       </c>
       <c r="E452" s="84" t="s">
-        <v>1623</v>
+        <v>1619</v>
       </c>
       <c r="F452" s="84" t="s">
         <v>855</v>
@@ -28543,13 +28703,13 @@
         <v>1</v>
       </c>
       <c r="C453" s="61" t="s">
-        <v>1607</v>
+        <v>1603</v>
       </c>
       <c r="D453" s="84" t="s">
+        <v>1615</v>
+      </c>
+      <c r="E453" s="84" t="s">
         <v>1619</v>
-      </c>
-      <c r="E453" s="84" t="s">
-        <v>1623</v>
       </c>
       <c r="F453" s="84" t="s">
         <v>855</v>
@@ -28581,13 +28741,13 @@
         <v>1</v>
       </c>
       <c r="C454" s="84" t="s">
-        <v>1613</v>
+        <v>1609</v>
       </c>
       <c r="D454" s="84" t="s">
-        <v>1620</v>
+        <v>1616</v>
       </c>
       <c r="E454" s="84" t="s">
-        <v>1623</v>
+        <v>1619</v>
       </c>
       <c r="F454" s="84" t="s">
         <v>855</v>
@@ -28619,13 +28779,13 @@
         <v>1</v>
       </c>
       <c r="C455" s="61" t="s">
-        <v>1607</v>
+        <v>1603</v>
       </c>
       <c r="D455" s="84" t="s">
-        <v>1621</v>
+        <v>1617</v>
       </c>
       <c r="E455" s="84" t="s">
-        <v>1623</v>
+        <v>1619</v>
       </c>
       <c r="F455" s="84" t="s">
         <v>855</v>
@@ -28657,13 +28817,13 @@
         <v>1</v>
       </c>
       <c r="C456" s="84" t="s">
-        <v>1613</v>
+        <v>1609</v>
       </c>
       <c r="D456" s="84" t="s">
-        <v>1622</v>
+        <v>1618</v>
       </c>
       <c r="E456" s="84" t="s">
-        <v>1623</v>
+        <v>1619</v>
       </c>
       <c r="F456" s="84" t="s">
         <v>855</v>
@@ -28695,16 +28855,16 @@
         <v>1</v>
       </c>
       <c r="C457" s="98" t="s">
-        <v>1644</v>
+        <v>1640</v>
       </c>
       <c r="D457" s="99" t="s">
+        <v>1705</v>
+      </c>
+      <c r="E457" s="98" t="s">
+        <v>1704</v>
+      </c>
+      <c r="F457" s="98" t="s">
         <v>1646</v>
-      </c>
-      <c r="E457" s="98" t="s">
-        <v>12</v>
-      </c>
-      <c r="F457" s="98" t="s">
-        <v>1653</v>
       </c>
       <c r="G457" s="97">
         <v>21404</v>
@@ -28733,16 +28893,16 @@
         <v>1</v>
       </c>
       <c r="C458" s="98" t="s">
-        <v>1645</v>
+        <v>1641</v>
       </c>
       <c r="D458" s="99" t="s">
-        <v>1647</v>
+        <v>1706</v>
       </c>
       <c r="E458" s="98" t="s">
-        <v>12</v>
+        <v>1704</v>
       </c>
       <c r="F458" s="98" t="s">
-        <v>1653</v>
+        <v>1646</v>
       </c>
       <c r="G458" s="97">
         <v>21405</v>
@@ -28771,16 +28931,16 @@
         <v>1</v>
       </c>
       <c r="C459" s="98" t="s">
-        <v>1644</v>
+        <v>1640</v>
       </c>
       <c r="D459" s="98" t="s">
-        <v>1648</v>
+        <v>1707</v>
       </c>
       <c r="E459" s="98" t="s">
-        <v>12</v>
+        <v>1719</v>
       </c>
       <c r="F459" s="98" t="s">
-        <v>1653</v>
+        <v>1646</v>
       </c>
       <c r="G459" s="97">
         <v>21406</v>
@@ -28809,16 +28969,16 @@
         <v>1</v>
       </c>
       <c r="C460" s="7" t="s">
-        <v>1656</v>
+        <v>1649</v>
       </c>
       <c r="D460" s="7" t="s">
-        <v>1659</v>
+        <v>1652</v>
       </c>
       <c r="E460" s="7" t="s">
-        <v>1655</v>
+        <v>1648</v>
       </c>
       <c r="F460" s="7" t="s">
-        <v>1654</v>
+        <v>1647</v>
       </c>
       <c r="G460" s="97">
         <v>21407</v>
@@ -28847,16 +29007,16 @@
         <v>1</v>
       </c>
       <c r="C461" s="7" t="s">
-        <v>1657</v>
+        <v>1650</v>
       </c>
       <c r="D461" s="7" t="s">
-        <v>1660</v>
+        <v>1653</v>
       </c>
       <c r="E461" s="7" t="s">
-        <v>1655</v>
-      </c>
-      <c r="F461" s="7" t="s">
-        <v>1654</v>
+        <v>1648</v>
+      </c>
+      <c r="F461" s="49" t="s">
+        <v>1647</v>
       </c>
       <c r="G461" s="97">
         <v>21408</v>
@@ -28885,16 +29045,16 @@
         <v>1</v>
       </c>
       <c r="C462" s="7" t="s">
-        <v>1658</v>
+        <v>1651</v>
       </c>
       <c r="D462" s="7" t="s">
-        <v>1661</v>
+        <v>1654</v>
       </c>
       <c r="E462" s="7" t="s">
-        <v>1655</v>
+        <v>1648</v>
       </c>
       <c r="F462" s="7" t="s">
-        <v>1654</v>
+        <v>1647</v>
       </c>
       <c r="G462" s="97">
         <v>21409</v>
@@ -28923,16 +29083,16 @@
         <v>1</v>
       </c>
       <c r="C463" s="51" t="s">
-        <v>1667</v>
+        <v>1660</v>
       </c>
       <c r="D463" s="51" t="s">
-        <v>1668</v>
+        <v>1675</v>
       </c>
       <c r="E463" s="51" t="s">
-        <v>1506</v>
+        <v>1676</v>
       </c>
       <c r="F463" s="51" t="s">
-        <v>1669</v>
+        <v>1661</v>
       </c>
       <c r="G463" s="51">
         <v>21410</v>
@@ -28950,6 +29110,310 @@
         <v>32503651200</v>
       </c>
       <c r="L463" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A464" s="61">
+        <v>1000053</v>
+      </c>
+      <c r="B464" s="97">
+        <v>1</v>
+      </c>
+      <c r="C464" s="98" t="s">
+        <v>1490</v>
+      </c>
+      <c r="D464" s="99" t="s">
+        <v>1681</v>
+      </c>
+      <c r="E464" s="98" t="s">
+        <v>1672</v>
+      </c>
+      <c r="F464" s="98" t="s">
+        <v>1491</v>
+      </c>
+      <c r="G464" s="97">
+        <v>21411</v>
+      </c>
+      <c r="H464" s="98" t="b">
+        <v>1</v>
+      </c>
+      <c r="I464" s="97">
+        <v>1</v>
+      </c>
+      <c r="J464" s="97">
+        <v>1593532800</v>
+      </c>
+      <c r="K464" s="97">
+        <v>32503651200</v>
+      </c>
+      <c r="L464" s="97">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="465" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A465" s="61">
+        <v>1000054</v>
+      </c>
+      <c r="B465" s="97">
+        <v>1</v>
+      </c>
+      <c r="C465" s="98" t="s">
+        <v>1490</v>
+      </c>
+      <c r="D465" s="99" t="s">
+        <v>1682</v>
+      </c>
+      <c r="E465" s="98" t="s">
+        <v>1672</v>
+      </c>
+      <c r="F465" s="98" t="s">
+        <v>1491</v>
+      </c>
+      <c r="G465" s="97">
+        <v>21412</v>
+      </c>
+      <c r="H465" s="98" t="b">
+        <v>1</v>
+      </c>
+      <c r="I465" s="97">
+        <v>1</v>
+      </c>
+      <c r="J465" s="97">
+        <v>1593532800</v>
+      </c>
+      <c r="K465" s="97">
+        <v>32503651200</v>
+      </c>
+      <c r="L465" s="97">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A466" s="61">
+        <v>1000055</v>
+      </c>
+      <c r="B466" s="97">
+        <v>1</v>
+      </c>
+      <c r="C466" s="98" t="s">
+        <v>1490</v>
+      </c>
+      <c r="D466" s="98" t="s">
+        <v>1683</v>
+      </c>
+      <c r="E466" s="98" t="s">
+        <v>1672</v>
+      </c>
+      <c r="F466" s="98" t="s">
+        <v>1491</v>
+      </c>
+      <c r="G466" s="97">
+        <v>21413</v>
+      </c>
+      <c r="H466" s="98" t="b">
+        <v>1</v>
+      </c>
+      <c r="I466" s="97">
+        <v>1</v>
+      </c>
+      <c r="J466" s="97">
+        <v>1593532800</v>
+      </c>
+      <c r="K466" s="97">
+        <v>32503651200</v>
+      </c>
+      <c r="L466" s="97">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A467" s="61">
+        <v>1000056</v>
+      </c>
+      <c r="B467" s="97">
+        <v>1</v>
+      </c>
+      <c r="C467" s="98" t="s">
+        <v>1490</v>
+      </c>
+      <c r="D467" s="98" t="s">
+        <v>1684</v>
+      </c>
+      <c r="E467" s="98" t="s">
+        <v>1672</v>
+      </c>
+      <c r="F467" s="98" t="s">
+        <v>1491</v>
+      </c>
+      <c r="G467" s="97">
+        <v>21414</v>
+      </c>
+      <c r="H467" s="98" t="b">
+        <v>1</v>
+      </c>
+      <c r="I467" s="97">
+        <v>1</v>
+      </c>
+      <c r="J467" s="97">
+        <v>1593532800</v>
+      </c>
+      <c r="K467" s="97">
+        <v>32503651200</v>
+      </c>
+      <c r="L467" s="97">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A468" s="9">
+        <v>1000057</v>
+      </c>
+      <c r="B468" s="9">
+        <v>1</v>
+      </c>
+      <c r="C468" s="51" t="s">
+        <v>1660</v>
+      </c>
+      <c r="D468" s="51" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E468" s="51" t="s">
+        <v>1678</v>
+      </c>
+      <c r="F468" s="51" t="s">
+        <v>1661</v>
+      </c>
+      <c r="G468" s="97">
+        <v>21415</v>
+      </c>
+      <c r="H468" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I468" s="9">
+        <v>1</v>
+      </c>
+      <c r="J468" s="9">
+        <v>946677600</v>
+      </c>
+      <c r="K468" s="9">
+        <v>32503651200</v>
+      </c>
+      <c r="L468" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A469" s="61">
+        <v>1000058</v>
+      </c>
+      <c r="B469" s="97">
+        <v>1</v>
+      </c>
+      <c r="C469" s="98" t="s">
+        <v>1640</v>
+      </c>
+      <c r="D469" s="99" t="s">
+        <v>1708</v>
+      </c>
+      <c r="E469" s="98" t="s">
+        <v>1711</v>
+      </c>
+      <c r="F469" s="98" t="s">
+        <v>1646</v>
+      </c>
+      <c r="G469" s="97">
+        <v>21416</v>
+      </c>
+      <c r="H469" s="98" t="b">
+        <v>1</v>
+      </c>
+      <c r="I469" s="97">
+        <v>1</v>
+      </c>
+      <c r="J469" s="97">
+        <v>1593532800</v>
+      </c>
+      <c r="K469" s="97">
+        <v>32503651200</v>
+      </c>
+      <c r="L469" s="97">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A470" s="61">
+        <v>1000059</v>
+      </c>
+      <c r="B470" s="97">
+        <v>1</v>
+      </c>
+      <c r="C470" s="98" t="s">
+        <v>1640</v>
+      </c>
+      <c r="D470" s="99" t="s">
+        <v>1709</v>
+      </c>
+      <c r="E470" s="98" t="s">
+        <v>1711</v>
+      </c>
+      <c r="F470" s="98" t="s">
+        <v>1646</v>
+      </c>
+      <c r="G470" s="97">
+        <v>21417</v>
+      </c>
+      <c r="H470" s="98" t="b">
+        <v>1</v>
+      </c>
+      <c r="I470" s="97">
+        <v>1</v>
+      </c>
+      <c r="J470" s="97">
+        <v>1593532800</v>
+      </c>
+      <c r="K470" s="97">
+        <v>32503651200</v>
+      </c>
+      <c r="L470" s="97">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="471" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A471" s="61">
+        <v>1000060</v>
+      </c>
+      <c r="B471" s="97">
+        <v>1</v>
+      </c>
+      <c r="C471" s="98" t="s">
+        <v>1640</v>
+      </c>
+      <c r="D471" s="98" t="s">
+        <v>1710</v>
+      </c>
+      <c r="E471" s="98" t="s">
+        <v>1711</v>
+      </c>
+      <c r="F471" s="98" t="s">
+        <v>1646</v>
+      </c>
+      <c r="G471" s="97">
+        <v>21418</v>
+      </c>
+      <c r="H471" s="98" t="b">
+        <v>1</v>
+      </c>
+      <c r="I471" s="97">
+        <v>1</v>
+      </c>
+      <c r="J471" s="97">
+        <v>1593532800</v>
+      </c>
+      <c r="K471" s="97">
+        <v>32503651200</v>
+      </c>
+      <c r="L471" s="97">
         <v>-1</v>
       </c>
     </row>
@@ -28964,13 +29428,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:K463"/>
+  <dimension ref="A1:K471"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C442" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C451" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D463" sqref="D463"/>
+      <selection pane="bottomRight" activeCell="A478" sqref="A478"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -29013,7 +29477,7 @@
         <v>917</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>1641</v>
+        <v>1637</v>
       </c>
       <c r="K1" s="38"/>
     </row>
@@ -39819,7 +40283,7 @@
       </c>
       <c r="G425" s="117"/>
       <c r="H425" s="118" t="s">
-        <v>1516</v>
+        <v>1512</v>
       </c>
       <c r="I425" s="119" t="s">
         <v>1435</v>
@@ -39845,7 +40309,7 @@
       </c>
       <c r="G426" s="117"/>
       <c r="H426" s="118" t="s">
-        <v>1516</v>
+        <v>1512</v>
       </c>
       <c r="I426" s="119" t="s">
         <v>1435</v>
@@ -39871,7 +40335,7 @@
       </c>
       <c r="G427" s="117"/>
       <c r="H427" s="118" t="s">
-        <v>1516</v>
+        <v>1512</v>
       </c>
       <c r="I427" s="119" t="s">
         <v>1435</v>
@@ -39891,11 +40355,11 @@
       <c r="D428" s="115"/>
       <c r="E428" s="115"/>
       <c r="F428" s="116" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
       <c r="G428" s="117"/>
       <c r="H428" s="118" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
       <c r="I428" s="119" t="s">
         <v>1435</v>
@@ -39914,11 +40378,11 @@
       </c>
       <c r="E429" s="60"/>
       <c r="F429" s="63" t="s">
-        <v>1525</v>
+        <v>1521</v>
       </c>
       <c r="G429" s="63"/>
       <c r="H429" s="121" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
       <c r="I429" s="60" t="s">
         <v>856</v>
@@ -39935,13 +40399,13 @@
         <v>424</v>
       </c>
       <c r="F430" s="111" t="s">
-        <v>1540</v>
+        <v>1536</v>
       </c>
       <c r="H430" s="65" t="s">
-        <v>1541</v>
+        <v>1537</v>
       </c>
       <c r="I430" s="14" t="s">
-        <v>1542</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="431" spans="1:10" x14ac:dyDescent="0.2">
@@ -39955,13 +40419,13 @@
         <v>425</v>
       </c>
       <c r="F431" s="111" t="s">
-        <v>1550</v>
+        <v>1546</v>
       </c>
       <c r="H431" s="65" t="s">
-        <v>1546</v>
+        <v>1542</v>
       </c>
       <c r="I431" s="14" t="s">
-        <v>1542</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="432" spans="1:10" x14ac:dyDescent="0.2">
@@ -39975,13 +40439,13 @@
         <v>426</v>
       </c>
       <c r="F432" s="111" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="H432" s="65" t="s">
-        <v>1547</v>
+        <v>1543</v>
       </c>
       <c r="I432" s="14" t="s">
-        <v>1542</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="433" spans="1:10" x14ac:dyDescent="0.2">
@@ -39995,13 +40459,13 @@
         <v>427</v>
       </c>
       <c r="F433" s="111" t="s">
-        <v>1552</v>
+        <v>1548</v>
       </c>
       <c r="H433" s="65" t="s">
-        <v>1548</v>
+        <v>1544</v>
       </c>
       <c r="I433" s="14" t="s">
-        <v>1542</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="434" spans="1:10" x14ac:dyDescent="0.2">
@@ -40015,13 +40479,13 @@
         <v>428</v>
       </c>
       <c r="F434" s="111" t="s">
-        <v>1553</v>
+        <v>1549</v>
       </c>
       <c r="H434" s="65" t="s">
-        <v>1549</v>
+        <v>1545</v>
       </c>
       <c r="I434" s="14" t="s">
-        <v>1542</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="435" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -40037,11 +40501,11 @@
       </c>
       <c r="E435" s="11"/>
       <c r="F435" s="40" t="s">
-        <v>1584</v>
+        <v>1580</v>
       </c>
       <c r="G435" s="35"/>
       <c r="H435" s="15" t="s">
-        <v>1558</v>
+        <v>1554</v>
       </c>
       <c r="I435" s="13" t="s">
         <v>1144</v>
@@ -40063,11 +40527,11 @@
       </c>
       <c r="E436" s="11"/>
       <c r="F436" s="40" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
       <c r="G436" s="35"/>
       <c r="H436" s="15" t="s">
-        <v>1572</v>
+        <v>1568</v>
       </c>
       <c r="I436" s="13" t="s">
         <v>1144</v>
@@ -40089,11 +40553,11 @@
       </c>
       <c r="E437" s="11"/>
       <c r="F437" s="40" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
       <c r="G437" s="35"/>
       <c r="H437" s="15" t="s">
-        <v>1573</v>
+        <v>1569</v>
       </c>
       <c r="I437" s="13" t="s">
         <v>1144</v>
@@ -40115,11 +40579,11 @@
       </c>
       <c r="E438" s="11"/>
       <c r="F438" s="40" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
       <c r="G438" s="35"/>
       <c r="H438" s="15" t="s">
-        <v>1574</v>
+        <v>1570</v>
       </c>
       <c r="I438" s="13" t="s">
         <v>1144</v>
@@ -40141,11 +40605,11 @@
       </c>
       <c r="E439" s="11"/>
       <c r="F439" s="40" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
       <c r="G439" s="35"/>
       <c r="H439" s="15" t="s">
-        <v>1575</v>
+        <v>1571</v>
       </c>
       <c r="I439" s="13" t="s">
         <v>1144</v>
@@ -40167,11 +40631,11 @@
       </c>
       <c r="E440" s="11"/>
       <c r="F440" s="40" t="s">
-        <v>1571</v>
+        <v>1567</v>
       </c>
       <c r="G440" s="35"/>
       <c r="H440" s="15" t="s">
-        <v>1576</v>
+        <v>1572</v>
       </c>
       <c r="I440" s="13" t="s">
         <v>1144</v>
@@ -40193,11 +40657,11 @@
       </c>
       <c r="E441" s="11"/>
       <c r="F441" s="40" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
       <c r="G441" s="35"/>
       <c r="H441" s="15" t="s">
-        <v>1577</v>
+        <v>1573</v>
       </c>
       <c r="I441" s="13" t="s">
         <v>1144</v>
@@ -40219,11 +40683,11 @@
       </c>
       <c r="E442" s="11"/>
       <c r="F442" s="40" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
       <c r="G442" s="35"/>
       <c r="H442" s="15" t="s">
-        <v>1578</v>
+        <v>1574</v>
       </c>
       <c r="I442" s="13" t="s">
         <v>1144</v>
@@ -40245,11 +40709,11 @@
       </c>
       <c r="E443" s="11"/>
       <c r="F443" s="40" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
       <c r="G443" s="35"/>
       <c r="H443" s="15" t="s">
-        <v>1579</v>
+        <v>1575</v>
       </c>
       <c r="I443" s="13" t="s">
         <v>1144</v>
@@ -40271,11 +40735,11 @@
       </c>
       <c r="E444" s="11"/>
       <c r="F444" s="40" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
       <c r="G444" s="35"/>
       <c r="H444" s="15" t="s">
-        <v>1580</v>
+        <v>1576</v>
       </c>
       <c r="I444" s="13" t="s">
         <v>1144</v>
@@ -40297,11 +40761,11 @@
       </c>
       <c r="E445" s="11"/>
       <c r="F445" s="40" t="s">
-        <v>1592</v>
+        <v>1588</v>
       </c>
       <c r="G445" s="35"/>
       <c r="H445" s="40" t="s">
-        <v>1602</v>
+        <v>1598</v>
       </c>
       <c r="I445" s="13" t="s">
         <v>856</v>
@@ -40320,11 +40784,11 @@
       </c>
       <c r="E446" s="11"/>
       <c r="F446" s="40" t="s">
-        <v>1593</v>
+        <v>1589</v>
       </c>
       <c r="G446" s="35"/>
       <c r="H446" s="15" t="s">
-        <v>1603</v>
+        <v>1599</v>
       </c>
       <c r="I446" s="13" t="s">
         <v>856</v>
@@ -40343,11 +40807,11 @@
       </c>
       <c r="E447" s="60"/>
       <c r="F447" s="62" t="s">
-        <v>1610</v>
+        <v>1606</v>
       </c>
       <c r="G447" s="63"/>
       <c r="H447" s="64" t="s">
-        <v>1611</v>
+        <v>1607</v>
       </c>
       <c r="I447" s="85" t="s">
         <v>856</v>
@@ -40369,11 +40833,11 @@
       </c>
       <c r="E448" s="60"/>
       <c r="F448" s="62" t="s">
-        <v>1624</v>
+        <v>1620</v>
       </c>
       <c r="G448" s="63"/>
       <c r="H448" s="64" t="s">
-        <v>1629</v>
+        <v>1625</v>
       </c>
       <c r="I448" s="85" t="s">
         <v>856</v>
@@ -40395,11 +40859,11 @@
       </c>
       <c r="E449" s="60"/>
       <c r="F449" s="62" t="s">
-        <v>1625</v>
+        <v>1621</v>
       </c>
       <c r="G449" s="63"/>
       <c r="H449" s="64" t="s">
-        <v>1630</v>
+        <v>1626</v>
       </c>
       <c r="I449" s="85" t="s">
         <v>856</v>
@@ -40421,11 +40885,11 @@
       </c>
       <c r="E450" s="60"/>
       <c r="F450" s="62" t="s">
-        <v>1626</v>
+        <v>1622</v>
       </c>
       <c r="G450" s="63"/>
       <c r="H450" s="64" t="s">
-        <v>1631</v>
+        <v>1627</v>
       </c>
       <c r="I450" s="85" t="s">
         <v>856</v>
@@ -40447,11 +40911,11 @@
       </c>
       <c r="E451" s="60"/>
       <c r="F451" s="62" t="s">
-        <v>1624</v>
+        <v>1620</v>
       </c>
       <c r="G451" s="63"/>
       <c r="H451" s="64" t="s">
-        <v>1632</v>
+        <v>1628</v>
       </c>
       <c r="I451" s="85" t="s">
         <v>856</v>
@@ -40473,11 +40937,11 @@
       </c>
       <c r="E452" s="60"/>
       <c r="F452" s="62" t="s">
-        <v>1627</v>
+        <v>1623</v>
       </c>
       <c r="G452" s="63"/>
       <c r="H452" s="64" t="s">
-        <v>1633</v>
+        <v>1629</v>
       </c>
       <c r="I452" s="85" t="s">
         <v>856</v>
@@ -40499,11 +40963,11 @@
       </c>
       <c r="E453" s="60"/>
       <c r="F453" s="62" t="s">
-        <v>1624</v>
+        <v>1620</v>
       </c>
       <c r="G453" s="63"/>
       <c r="H453" s="64" t="s">
-        <v>1634</v>
+        <v>1630</v>
       </c>
       <c r="I453" s="85" t="s">
         <v>856</v>
@@ -40525,11 +40989,11 @@
       </c>
       <c r="E454" s="60"/>
       <c r="F454" s="62" t="s">
-        <v>1625</v>
+        <v>1621</v>
       </c>
       <c r="G454" s="63"/>
       <c r="H454" s="64" t="s">
-        <v>1635</v>
+        <v>1631</v>
       </c>
       <c r="I454" s="85" t="s">
         <v>856</v>
@@ -40551,11 +41015,11 @@
       </c>
       <c r="E455" s="60"/>
       <c r="F455" s="62" t="s">
-        <v>1628</v>
+        <v>1624</v>
       </c>
       <c r="G455" s="63"/>
       <c r="H455" s="64" t="s">
-        <v>1636</v>
+        <v>1632</v>
       </c>
       <c r="I455" s="85" t="s">
         <v>856</v>
@@ -40577,11 +41041,11 @@
       </c>
       <c r="E456" s="60"/>
       <c r="F456" s="62" t="s">
-        <v>1624</v>
+        <v>1620</v>
       </c>
       <c r="G456" s="63"/>
       <c r="H456" s="64" t="s">
-        <v>1637</v>
+        <v>1633</v>
       </c>
       <c r="I456" s="85" t="s">
         <v>856</v>
@@ -40607,7 +41071,7 @@
       </c>
       <c r="G457" s="35"/>
       <c r="H457" s="15" t="s">
-        <v>1649</v>
+        <v>1642</v>
       </c>
       <c r="I457" s="13" t="s">
         <v>1197</v>
@@ -40630,7 +41094,7 @@
       </c>
       <c r="G458" s="35"/>
       <c r="H458" s="15" t="s">
-        <v>1650</v>
+        <v>1643</v>
       </c>
       <c r="I458" s="13" t="s">
         <v>1197</v>
@@ -40653,7 +41117,7 @@
       </c>
       <c r="G459" s="35"/>
       <c r="H459" s="15" t="s">
-        <v>1651</v>
+        <v>1644</v>
       </c>
       <c r="I459" s="13" t="s">
         <v>1197</v>
@@ -40667,13 +41131,13 @@
         <v>21407</v>
       </c>
       <c r="F460" s="111" t="s">
-        <v>1662</v>
+        <v>1655</v>
       </c>
       <c r="G460" s="111" t="s">
-        <v>1663</v>
+        <v>1656</v>
       </c>
       <c r="I460" s="14" t="s">
-        <v>1666</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="461" spans="1:10" x14ac:dyDescent="0.2">
@@ -40684,10 +41148,10 @@
         <v>21408</v>
       </c>
       <c r="F461" s="111" t="s">
-        <v>1662</v>
+        <v>1655</v>
       </c>
       <c r="G461" s="111" t="s">
-        <v>1664</v>
+        <v>1657</v>
       </c>
       <c r="I461" s="14" t="s">
         <v>856</v>
@@ -40701,10 +41165,10 @@
         <v>21409</v>
       </c>
       <c r="F462" s="111" t="s">
-        <v>1662</v>
+        <v>1655</v>
       </c>
       <c r="G462" s="111" t="s">
-        <v>1665</v>
+        <v>1658</v>
       </c>
       <c r="I462" s="14" t="s">
         <v>856</v>
@@ -40723,14 +41187,198 @@
       </c>
       <c r="E463" s="10"/>
       <c r="F463" s="82" t="s">
-        <v>1670</v>
+        <v>1662</v>
       </c>
       <c r="G463" s="79"/>
       <c r="H463" s="112" t="s">
-        <v>1671</v>
+        <v>1663</v>
       </c>
       <c r="I463" s="19" t="s">
-        <v>1672</v>
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="464" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A464" s="11">
+        <v>463</v>
+      </c>
+      <c r="B464" s="12">
+        <v>21411</v>
+      </c>
+      <c r="C464" s="11"/>
+      <c r="D464" s="11">
+        <v>455</v>
+      </c>
+      <c r="E464" s="11"/>
+      <c r="F464" s="40" t="s">
+        <v>1216</v>
+      </c>
+      <c r="G464" s="35"/>
+      <c r="H464" s="15" t="s">
+        <v>1680</v>
+      </c>
+      <c r="I464" s="13" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="465" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A465" s="11">
+        <v>464</v>
+      </c>
+      <c r="B465" s="12">
+        <v>21412</v>
+      </c>
+      <c r="C465" s="11"/>
+      <c r="D465" s="11">
+        <v>456</v>
+      </c>
+      <c r="E465" s="11"/>
+      <c r="F465" s="40" t="s">
+        <v>1217</v>
+      </c>
+      <c r="G465" s="35"/>
+      <c r="H465" s="15" t="s">
+        <v>1699</v>
+      </c>
+      <c r="I465" s="13" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="466" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A466" s="11">
+        <v>465</v>
+      </c>
+      <c r="B466" s="12">
+        <v>21413</v>
+      </c>
+      <c r="C466" s="11"/>
+      <c r="D466" s="11">
+        <v>457</v>
+      </c>
+      <c r="E466" s="11"/>
+      <c r="F466" s="40" t="s">
+        <v>1218</v>
+      </c>
+      <c r="G466" s="35"/>
+      <c r="H466" s="15" t="s">
+        <v>1700</v>
+      </c>
+      <c r="I466" s="13" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="467" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A467" s="11">
+        <v>466</v>
+      </c>
+      <c r="B467" s="12">
+        <v>21414</v>
+      </c>
+      <c r="C467" s="11"/>
+      <c r="D467" s="11">
+        <v>458</v>
+      </c>
+      <c r="E467" s="11"/>
+      <c r="F467" s="40" t="s">
+        <v>1219</v>
+      </c>
+      <c r="G467" s="35"/>
+      <c r="H467" s="15" t="s">
+        <v>1701</v>
+      </c>
+      <c r="I467" s="13" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="468" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A468" s="51">
+        <v>467</v>
+      </c>
+      <c r="B468" s="51">
+        <v>21415</v>
+      </c>
+      <c r="C468" s="10"/>
+      <c r="D468" s="51">
+        <v>459</v>
+      </c>
+      <c r="E468" s="10"/>
+      <c r="F468" s="82" t="s">
+        <v>1662</v>
+      </c>
+      <c r="G468" s="79"/>
+      <c r="H468" s="112" t="s">
+        <v>1703</v>
+      </c>
+      <c r="I468" s="19" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="469" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A469" s="11">
+        <v>468</v>
+      </c>
+      <c r="B469" s="12">
+        <v>21416</v>
+      </c>
+      <c r="C469" s="11"/>
+      <c r="D469" s="11">
+        <v>460</v>
+      </c>
+      <c r="E469" s="11"/>
+      <c r="F469" s="40" t="s">
+        <v>1217</v>
+      </c>
+      <c r="G469" s="35"/>
+      <c r="H469" s="15" t="s">
+        <v>1716</v>
+      </c>
+      <c r="I469" s="13" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="470" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A470" s="11">
+        <v>469</v>
+      </c>
+      <c r="B470" s="12">
+        <v>21417</v>
+      </c>
+      <c r="C470" s="11"/>
+      <c r="D470" s="11">
+        <v>461</v>
+      </c>
+      <c r="E470" s="11"/>
+      <c r="F470" s="40" t="s">
+        <v>1218</v>
+      </c>
+      <c r="G470" s="35"/>
+      <c r="H470" s="15" t="s">
+        <v>1717</v>
+      </c>
+      <c r="I470" s="13" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="471" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A471" s="11">
+        <v>470</v>
+      </c>
+      <c r="B471" s="12">
+        <v>21418</v>
+      </c>
+      <c r="C471" s="11"/>
+      <c r="D471" s="11">
+        <v>462</v>
+      </c>
+      <c r="E471" s="11"/>
+      <c r="F471" s="40" t="s">
+        <v>1219</v>
+      </c>
+      <c r="G471" s="35"/>
+      <c r="H471" s="15" t="s">
+        <v>1718</v>
+      </c>
+      <c r="I471" s="13" t="s">
+        <v>918</v>
       </c>
     </row>
   </sheetData>
@@ -40743,10 +41391,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I646"/>
+  <dimension ref="A1:I661"/>
   <sheetViews>
-    <sheetView topLeftCell="A616" workbookViewId="0">
-      <selection activeCell="A639" sqref="A639:E646"/>
+    <sheetView topLeftCell="A625" workbookViewId="0">
+      <selection activeCell="D661" sqref="D661"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -42260,7 +42908,7 @@
         <v>83</v>
       </c>
       <c r="C105" s="13" t="s">
-        <v>1511</v>
+        <v>1507</v>
       </c>
       <c r="D105" s="11">
         <v>49</v>
@@ -48435,7 +49083,7 @@
         <v>367</v>
       </c>
       <c r="C530" s="86" t="s">
-        <v>1643</v>
+        <v>1639</v>
       </c>
       <c r="D530" s="10">
         <v>253</v>
@@ -49265,7 +49913,7 @@
         <v>418</v>
       </c>
       <c r="C588" s="19" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
       <c r="D588" s="10">
         <v>0</v>
@@ -49279,7 +49927,7 @@
         <v>419</v>
       </c>
       <c r="C589" s="13" t="s">
-        <v>1543</v>
+        <v>1539</v>
       </c>
       <c r="D589" s="11">
         <v>285</v>
@@ -49293,7 +49941,7 @@
         <v>420</v>
       </c>
       <c r="C590" s="119" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
       <c r="D590" s="115">
         <v>286</v>
@@ -49307,7 +49955,7 @@
         <v>421</v>
       </c>
       <c r="C591" s="119" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
       <c r="D591" s="115">
         <v>287</v>
@@ -49321,7 +49969,7 @@
         <v>422</v>
       </c>
       <c r="C592" s="119" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
       <c r="D592" s="115">
         <v>288</v>
@@ -49349,7 +49997,7 @@
         <v>424</v>
       </c>
       <c r="C594" s="119" t="s">
-        <v>1545</v>
+        <v>1541</v>
       </c>
       <c r="D594" s="115">
         <v>290</v>
@@ -49363,7 +50011,7 @@
         <v>425</v>
       </c>
       <c r="C595" s="119" t="s">
-        <v>1545</v>
+        <v>1541</v>
       </c>
       <c r="D595" s="115">
         <v>291</v>
@@ -49377,7 +50025,7 @@
         <v>426</v>
       </c>
       <c r="C596" s="119" t="s">
-        <v>1545</v>
+        <v>1541</v>
       </c>
       <c r="D596" s="115">
         <v>292</v>
@@ -49391,7 +50039,7 @@
         <v>427</v>
       </c>
       <c r="C597" s="119" t="s">
-        <v>1545</v>
+        <v>1541</v>
       </c>
       <c r="D597" s="115">
         <v>293</v>
@@ -49405,7 +50053,7 @@
         <v>428</v>
       </c>
       <c r="C598" s="13" t="s">
-        <v>1545</v>
+        <v>1541</v>
       </c>
       <c r="D598" s="11">
         <v>294</v>
@@ -49527,7 +50175,7 @@
         <v>429</v>
       </c>
       <c r="C606" s="11" t="s">
-        <v>1582</v>
+        <v>1578</v>
       </c>
       <c r="D606" s="11">
         <v>0</v>
@@ -49677,7 +50325,7 @@
         <v>439</v>
       </c>
       <c r="C616" s="123" t="s">
-        <v>1594</v>
+        <v>1590</v>
       </c>
       <c r="D616" s="60">
         <v>304</v>
@@ -49692,7 +50340,7 @@
         <v>440</v>
       </c>
       <c r="C617" s="123" t="s">
-        <v>1595</v>
+        <v>1591</v>
       </c>
       <c r="D617" s="60">
         <v>305</v>
@@ -49707,7 +50355,7 @@
         <v>441</v>
       </c>
       <c r="C618" s="123" t="s">
-        <v>1612</v>
+        <v>1608</v>
       </c>
       <c r="D618" s="60">
         <v>0</v>
@@ -49831,7 +50479,7 @@
         <v>441</v>
       </c>
       <c r="C626" s="60" t="s">
-        <v>1582</v>
+        <v>1578</v>
       </c>
       <c r="D626" s="60">
         <v>0</v>
@@ -49981,7 +50629,7 @@
         <v>451</v>
       </c>
       <c r="C636" s="86" t="s">
-        <v>1652</v>
+        <v>1645</v>
       </c>
       <c r="D636" s="10">
         <v>315</v>
@@ -49995,7 +50643,7 @@
         <v>452</v>
       </c>
       <c r="C637" s="86" t="s">
-        <v>1652</v>
+        <v>1645</v>
       </c>
       <c r="D637" s="10">
         <v>316</v>
@@ -50009,7 +50657,7 @@
         <v>453</v>
       </c>
       <c r="C638" s="86" t="s">
-        <v>1652</v>
+        <v>1645</v>
       </c>
       <c r="D638" s="10">
         <v>317</v>
@@ -50113,7 +50761,7 @@
         <v>454</v>
       </c>
       <c r="C645" s="26" t="s">
-        <v>1673</v>
+        <v>1665</v>
       </c>
       <c r="D645" s="10">
         <v>0</v>
@@ -50130,12 +50778,232 @@
         <v>454</v>
       </c>
       <c r="C646" s="10" t="s">
-        <v>1674</v>
+        <v>1666</v>
       </c>
       <c r="D646" s="10">
         <v>0</v>
       </c>
       <c r="E646" s="10"/>
+    </row>
+    <row r="647" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A647" s="11">
+        <v>646</v>
+      </c>
+      <c r="B647" s="10">
+        <v>455</v>
+      </c>
+      <c r="C647" s="86" t="s">
+        <v>1639</v>
+      </c>
+      <c r="D647" s="10">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="648" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A648" s="11">
+        <v>647</v>
+      </c>
+      <c r="B648" s="10">
+        <v>456</v>
+      </c>
+      <c r="C648" s="86" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D648" s="10">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="649" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A649" s="11">
+        <v>648</v>
+      </c>
+      <c r="B649" s="10">
+        <v>457</v>
+      </c>
+      <c r="C649" s="86" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D649" s="10">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="650" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A650" s="11">
+        <v>649</v>
+      </c>
+      <c r="B650" s="10">
+        <v>458</v>
+      </c>
+      <c r="C650" s="86" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D650" s="10">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="651" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A651" s="11">
+        <v>650</v>
+      </c>
+      <c r="B651" s="29">
+        <v>459</v>
+      </c>
+      <c r="C651" s="26" t="s">
+        <v>393</v>
+      </c>
+      <c r="D651" s="10">
+        <v>0</v>
+      </c>
+      <c r="E651" s="10"/>
+    </row>
+    <row r="652" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A652" s="11">
+        <v>651</v>
+      </c>
+      <c r="B652" s="29">
+        <v>459</v>
+      </c>
+      <c r="C652" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="D652" s="10">
+        <v>0</v>
+      </c>
+      <c r="E652" s="10"/>
+    </row>
+    <row r="653" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A653" s="11">
+        <v>652</v>
+      </c>
+      <c r="B653" s="29">
+        <v>459</v>
+      </c>
+      <c r="C653" s="10" t="s">
+        <v>664</v>
+      </c>
+      <c r="D653" s="10">
+        <v>0</v>
+      </c>
+      <c r="E653" s="10"/>
+    </row>
+    <row r="654" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A654" s="11">
+        <v>653</v>
+      </c>
+      <c r="B654" s="29">
+        <v>459</v>
+      </c>
+      <c r="C654" s="10" t="s">
+        <v>665</v>
+      </c>
+      <c r="D654" s="10">
+        <v>0</v>
+      </c>
+      <c r="E654" s="10"/>
+    </row>
+    <row r="655" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A655" s="11">
+        <v>654</v>
+      </c>
+      <c r="B655" s="29">
+        <v>459</v>
+      </c>
+      <c r="C655" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="D655" s="10">
+        <v>0</v>
+      </c>
+      <c r="E655" s="10"/>
+    </row>
+    <row r="656" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A656" s="11">
+        <v>655</v>
+      </c>
+      <c r="B656" s="29">
+        <v>459</v>
+      </c>
+      <c r="C656" s="10" t="s">
+        <v>666</v>
+      </c>
+      <c r="D656" s="10">
+        <v>0</v>
+      </c>
+      <c r="E656" s="10"/>
+    </row>
+    <row r="657" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A657" s="11">
+        <v>656</v>
+      </c>
+      <c r="B657" s="29">
+        <v>459</v>
+      </c>
+      <c r="C657" s="26" t="s">
+        <v>1282</v>
+      </c>
+      <c r="D657" s="10">
+        <v>0</v>
+      </c>
+      <c r="E657" s="10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="658" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A658" s="11">
+        <v>657</v>
+      </c>
+      <c r="B658" s="29">
+        <v>459</v>
+      </c>
+      <c r="C658" s="10" t="s">
+        <v>1666</v>
+      </c>
+      <c r="D658" s="10">
+        <v>0</v>
+      </c>
+      <c r="E658" s="10"/>
+    </row>
+    <row r="659" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A659" s="11">
+        <v>658</v>
+      </c>
+      <c r="B659" s="10">
+        <v>460</v>
+      </c>
+      <c r="C659" s="86" t="s">
+        <v>1645</v>
+      </c>
+      <c r="D659" s="10">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="660" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A660" s="11">
+        <v>659</v>
+      </c>
+      <c r="B660" s="10">
+        <v>461</v>
+      </c>
+      <c r="C660" s="86" t="s">
+        <v>1645</v>
+      </c>
+      <c r="D660" s="10">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="661" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A661" s="11">
+        <v>660</v>
+      </c>
+      <c r="B661" s="10">
+        <v>462</v>
+      </c>
+      <c r="C661" s="86" t="s">
+        <v>1645</v>
+      </c>
+      <c r="D661" s="10">
+        <v>324</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
@@ -50147,13 +51015,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:M436"/>
+  <dimension ref="A1:M443"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C411" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C417" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E434" sqref="E434"/>
+      <selection pane="bottomRight" activeCell="D444" sqref="D444"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -57615,7 +58483,7 @@
         <v>681</v>
       </c>
       <c r="D402" s="112" t="s">
-        <v>1583</v>
+        <v>1579</v>
       </c>
       <c r="E402" s="10">
         <v>2</v>
@@ -57651,7 +58519,7 @@
         <v>700</v>
       </c>
       <c r="D404" s="119" t="s">
-        <v>1513</v>
+        <v>1509</v>
       </c>
       <c r="E404" s="115">
         <v>2</v>
@@ -57669,7 +58537,7 @@
         <v>700</v>
       </c>
       <c r="D405" s="119" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
       <c r="E405" s="115">
         <v>2</v>
@@ -57687,7 +58555,7 @@
         <v>700</v>
       </c>
       <c r="D406" s="119" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="E406" s="115">
         <v>2</v>
@@ -57702,10 +58570,10 @@
         <v>289</v>
       </c>
       <c r="C407" s="60" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
       <c r="D407" s="64" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
       <c r="E407" s="60">
         <v>2</v>
@@ -57805,7 +58673,7 @@
         <v>295</v>
       </c>
       <c r="C413" s="13" t="s">
-        <v>1581</v>
+        <v>1577</v>
       </c>
       <c r="D413" s="11">
         <v>1</v>
@@ -57822,7 +58690,7 @@
         <v>296</v>
       </c>
       <c r="C414" s="13" t="s">
-        <v>1581</v>
+        <v>1577</v>
       </c>
       <c r="D414" s="11">
         <v>2</v>
@@ -57839,7 +58707,7 @@
         <v>297</v>
       </c>
       <c r="C415" s="13" t="s">
-        <v>1581</v>
+        <v>1577</v>
       </c>
       <c r="D415" s="11">
         <v>3</v>
@@ -57856,7 +58724,7 @@
         <v>298</v>
       </c>
       <c r="C416" s="13" t="s">
-        <v>1581</v>
+        <v>1577</v>
       </c>
       <c r="D416" s="11">
         <v>4</v>
@@ -57873,7 +58741,7 @@
         <v>299</v>
       </c>
       <c r="C417" s="13" t="s">
-        <v>1581</v>
+        <v>1577</v>
       </c>
       <c r="D417" s="11">
         <v>5</v>
@@ -57890,7 +58758,7 @@
         <v>300</v>
       </c>
       <c r="C418" s="13" t="s">
-        <v>1581</v>
+        <v>1577</v>
       </c>
       <c r="D418" s="11">
         <v>111</v>
@@ -57907,7 +58775,7 @@
         <v>301</v>
       </c>
       <c r="C419" s="13" t="s">
-        <v>1581</v>
+        <v>1577</v>
       </c>
       <c r="D419" s="11">
         <v>6</v>
@@ -57924,7 +58792,7 @@
         <v>302</v>
       </c>
       <c r="C420" s="13" t="s">
-        <v>1604</v>
+        <v>1600</v>
       </c>
       <c r="D420" s="11">
         <v>108</v>
@@ -57941,7 +58809,7 @@
         <v>303</v>
       </c>
       <c r="C421" s="13" t="s">
-        <v>1581</v>
+        <v>1577</v>
       </c>
       <c r="D421" s="11">
         <v>110</v>
@@ -57958,10 +58826,10 @@
         <v>304</v>
       </c>
       <c r="C422" s="13" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
       <c r="D422" s="15" t="s">
-        <v>1599</v>
+        <v>1595</v>
       </c>
       <c r="E422" s="11">
         <v>2</v>
@@ -57975,10 +58843,10 @@
         <v>304</v>
       </c>
       <c r="C423" s="13" t="s">
-        <v>1597</v>
+        <v>1593</v>
       </c>
       <c r="D423" s="13" t="s">
-        <v>1600</v>
+        <v>1596</v>
       </c>
       <c r="E423" s="11">
         <v>2</v>
@@ -57992,10 +58860,10 @@
         <v>305</v>
       </c>
       <c r="C424" s="11" t="s">
-        <v>1605</v>
+        <v>1601</v>
       </c>
       <c r="D424" s="11" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
       <c r="E424" s="11">
         <v>2</v>
@@ -58202,6 +59070,125 @@
         <v>3</v>
       </c>
       <c r="E436" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A437" s="61">
+        <v>466</v>
+      </c>
+      <c r="B437" s="10">
+        <v>318</v>
+      </c>
+      <c r="C437" s="19" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D437" s="83" t="s">
+        <v>968</v>
+      </c>
+      <c r="E437" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A438" s="61">
+        <v>467</v>
+      </c>
+      <c r="B438" s="10">
+        <v>319</v>
+      </c>
+      <c r="C438" s="19" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D438" s="10">
+        <v>3</v>
+      </c>
+      <c r="E438" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A439" s="61">
+        <v>468</v>
+      </c>
+      <c r="B439" s="10">
+        <v>320</v>
+      </c>
+      <c r="C439" s="19" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D439" s="10">
+        <v>4</v>
+      </c>
+      <c r="E439" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A440" s="61">
+        <v>469</v>
+      </c>
+      <c r="B440" s="10">
+        <v>321</v>
+      </c>
+      <c r="C440" s="19" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D440" s="10">
+        <v>5</v>
+      </c>
+      <c r="E440" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A441" s="61">
+        <v>470</v>
+      </c>
+      <c r="B441" s="12">
+        <v>322</v>
+      </c>
+      <c r="C441" s="19" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D441" s="83" t="s">
+        <v>861</v>
+      </c>
+      <c r="E441" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A442" s="61">
+        <v>471</v>
+      </c>
+      <c r="B442" s="12">
+        <v>323</v>
+      </c>
+      <c r="C442" s="19" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D442" s="10">
+        <v>2</v>
+      </c>
+      <c r="E442" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A443" s="61">
+        <v>472</v>
+      </c>
+      <c r="B443" s="12">
+        <v>324</v>
+      </c>
+      <c r="C443" s="19" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D443" s="10">
+        <v>3</v>
+      </c>
+      <c r="E443" s="10">
         <v>2</v>
       </c>
     </row>
@@ -58215,13 +59202,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:W1003"/>
+  <dimension ref="A1:W1093"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C974" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C1058" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B997" sqref="B997"/>
+      <selection pane="bottomRight" activeCell="B1094" sqref="B1094"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -70668,7 +71655,7 @@
       </c>
       <c r="C591" s="13"/>
       <c r="D591" s="13" t="s">
-        <v>1519</v>
+        <v>1515</v>
       </c>
       <c r="E591" s="11">
         <v>88</v>
@@ -75175,7 +76162,7 @@
       </c>
       <c r="C813" s="11"/>
       <c r="D813" s="13" t="s">
-        <v>1510</v>
+        <v>1506</v>
       </c>
       <c r="E813" s="27">
         <v>1</v>
@@ -76429,7 +77416,7 @@
         <v>623</v>
       </c>
       <c r="D882" s="14" t="s">
-        <v>1601</v>
+        <v>1597</v>
       </c>
       <c r="E882" s="1">
         <v>20000</v>
@@ -76532,7 +77519,7 @@
       </c>
       <c r="C888" s="29"/>
       <c r="D888" s="14" t="s">
-        <v>1518</v>
+        <v>1514</v>
       </c>
       <c r="E888" s="29">
         <v>1</v>
@@ -76553,7 +77540,7 @@
       </c>
       <c r="C889" s="29"/>
       <c r="D889" s="14" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
       <c r="E889" s="29">
         <v>1000</v>
@@ -76611,7 +77598,7 @@
       </c>
       <c r="C892" s="29"/>
       <c r="D892" s="13" t="s">
-        <v>1587</v>
+        <v>1583</v>
       </c>
       <c r="E892" s="29">
         <v>100</v>
@@ -76649,7 +77636,7 @@
       </c>
       <c r="C894" s="29"/>
       <c r="D894" s="13" t="s">
-        <v>1587</v>
+        <v>1583</v>
       </c>
       <c r="E894" s="29">
         <v>300</v>
@@ -76687,7 +77674,7 @@
       </c>
       <c r="C896" s="29"/>
       <c r="D896" s="13" t="s">
-        <v>1587</v>
+        <v>1583</v>
       </c>
       <c r="E896" s="29">
         <v>900</v>
@@ -76707,7 +77694,7 @@
         <v>635</v>
       </c>
       <c r="D897" s="13" t="s">
-        <v>1598</v>
+        <v>1594</v>
       </c>
       <c r="E897" s="29">
         <v>3000</v>
@@ -76725,7 +77712,7 @@
       </c>
       <c r="C898" s="29"/>
       <c r="D898" s="13" t="s">
-        <v>1587</v>
+        <v>1583</v>
       </c>
       <c r="E898" s="29">
         <v>3000</v>
@@ -76763,7 +77750,7 @@
       </c>
       <c r="C900" s="29"/>
       <c r="D900" s="13" t="s">
-        <v>1587</v>
+        <v>1583</v>
       </c>
       <c r="E900" s="29">
         <v>8400</v>
@@ -76784,7 +77771,7 @@
       </c>
       <c r="C901" s="11"/>
       <c r="D901" s="13" t="s">
-        <v>1559</v>
+        <v>1555</v>
       </c>
       <c r="E901" s="11">
         <v>1</v>
@@ -76805,7 +77792,7 @@
       </c>
       <c r="C902" s="11"/>
       <c r="D902" s="13" t="s">
-        <v>1560</v>
+        <v>1556</v>
       </c>
       <c r="E902" s="11">
         <v>1</v>
@@ -76826,7 +77813,7 @@
       </c>
       <c r="C903" s="11"/>
       <c r="D903" s="13" t="s">
-        <v>1559</v>
+        <v>1555</v>
       </c>
       <c r="E903" s="11">
         <v>4</v>
@@ -76847,7 +77834,7 @@
       </c>
       <c r="C904" s="11"/>
       <c r="D904" s="13" t="s">
-        <v>1560</v>
+        <v>1556</v>
       </c>
       <c r="E904" s="11">
         <v>4</v>
@@ -76868,7 +77855,7 @@
       </c>
       <c r="C905" s="11"/>
       <c r="D905" s="13" t="s">
-        <v>1559</v>
+        <v>1555</v>
       </c>
       <c r="E905" s="11">
         <v>9</v>
@@ -76889,7 +77876,7 @@
       </c>
       <c r="C906" s="11"/>
       <c r="D906" s="13" t="s">
-        <v>1560</v>
+        <v>1556</v>
       </c>
       <c r="E906" s="11">
         <v>9</v>
@@ -76910,7 +77897,7 @@
       </c>
       <c r="C907" s="11"/>
       <c r="D907" s="13" t="s">
-        <v>1559</v>
+        <v>1555</v>
       </c>
       <c r="E907" s="11">
         <v>18</v>
@@ -76931,7 +77918,7 @@
       </c>
       <c r="C908" s="11"/>
       <c r="D908" s="13" t="s">
-        <v>1560</v>
+        <v>1556</v>
       </c>
       <c r="E908" s="11">
         <v>18</v>
@@ -76952,7 +77939,7 @@
       </c>
       <c r="C909" s="11"/>
       <c r="D909" s="13" t="s">
-        <v>1559</v>
+        <v>1555</v>
       </c>
       <c r="E909" s="11">
         <v>30</v>
@@ -76973,7 +77960,7 @@
       </c>
       <c r="C910" s="11"/>
       <c r="D910" s="13" t="s">
-        <v>1560</v>
+        <v>1556</v>
       </c>
       <c r="E910" s="11">
         <v>30</v>
@@ -76994,7 +77981,7 @@
       </c>
       <c r="C911" s="11"/>
       <c r="D911" s="13" t="s">
-        <v>1559</v>
+        <v>1555</v>
       </c>
       <c r="E911" s="11">
         <v>58</v>
@@ -77015,7 +78002,7 @@
       </c>
       <c r="C912" s="11"/>
       <c r="D912" s="13" t="s">
-        <v>1560</v>
+        <v>1556</v>
       </c>
       <c r="E912" s="11">
         <v>58</v>
@@ -77036,7 +78023,7 @@
       </c>
       <c r="C913" s="11"/>
       <c r="D913" s="13" t="s">
-        <v>1559</v>
+        <v>1555</v>
       </c>
       <c r="E913" s="11">
         <v>118</v>
@@ -77057,7 +78044,7 @@
       </c>
       <c r="C914" s="11"/>
       <c r="D914" s="13" t="s">
-        <v>1560</v>
+        <v>1556</v>
       </c>
       <c r="E914" s="11">
         <v>118</v>
@@ -77078,7 +78065,7 @@
       </c>
       <c r="C915" s="11"/>
       <c r="D915" s="13" t="s">
-        <v>1559</v>
+        <v>1555</v>
       </c>
       <c r="E915" s="11">
         <v>298</v>
@@ -77099,7 +78086,7 @@
       </c>
       <c r="C916" s="11"/>
       <c r="D916" s="13" t="s">
-        <v>1560</v>
+        <v>1556</v>
       </c>
       <c r="E916" s="11">
         <v>298</v>
@@ -77120,7 +78107,7 @@
       </c>
       <c r="C917" s="11"/>
       <c r="D917" s="13" t="s">
-        <v>1559</v>
+        <v>1555</v>
       </c>
       <c r="E917" s="11">
         <v>598</v>
@@ -77141,7 +78128,7 @@
       </c>
       <c r="C918" s="11"/>
       <c r="D918" s="13" t="s">
-        <v>1560</v>
+        <v>1556</v>
       </c>
       <c r="E918" s="11">
         <v>598</v>
@@ -77162,7 +78149,7 @@
       </c>
       <c r="C919" s="11"/>
       <c r="D919" s="13" t="s">
-        <v>1559</v>
+        <v>1555</v>
       </c>
       <c r="E919" s="11">
         <v>1498</v>
@@ -77183,7 +78170,7 @@
       </c>
       <c r="C920" s="11"/>
       <c r="D920" s="13" t="s">
-        <v>1560</v>
+        <v>1556</v>
       </c>
       <c r="E920" s="11">
         <v>1498</v>
@@ -77246,7 +78233,7 @@
       </c>
       <c r="C923" s="11"/>
       <c r="D923" s="13" t="s">
-        <v>1600</v>
+        <v>1596</v>
       </c>
       <c r="E923" s="11">
         <v>2</v>
@@ -77267,7 +78254,7 @@
       </c>
       <c r="C924" s="11"/>
       <c r="D924" s="13" t="s">
-        <v>1600</v>
+        <v>1596</v>
       </c>
       <c r="E924" s="11">
         <v>5</v>
@@ -77288,7 +78275,7 @@
       </c>
       <c r="C925" s="11"/>
       <c r="D925" s="13" t="s">
-        <v>1600</v>
+        <v>1596</v>
       </c>
       <c r="E925" s="11">
         <v>40</v>
@@ -77309,7 +78296,7 @@
       </c>
       <c r="C926" s="11"/>
       <c r="D926" s="13" t="s">
-        <v>1600</v>
+        <v>1596</v>
       </c>
       <c r="E926" s="11">
         <v>100</v>
@@ -77330,7 +78317,7 @@
       </c>
       <c r="C927" s="11"/>
       <c r="D927" s="13" t="s">
-        <v>1600</v>
+        <v>1596</v>
       </c>
       <c r="E927" s="11">
         <v>150</v>
@@ -77351,7 +78338,7 @@
       </c>
       <c r="C928" s="11"/>
       <c r="D928" s="13" t="s">
-        <v>1600</v>
+        <v>1596</v>
       </c>
       <c r="E928" s="11">
         <v>300</v>
@@ -77372,7 +78359,7 @@
       </c>
       <c r="C929" s="11"/>
       <c r="D929" s="13" t="s">
-        <v>1600</v>
+        <v>1596</v>
       </c>
       <c r="E929" s="11">
         <v>400</v>
@@ -77393,7 +78380,7 @@
       </c>
       <c r="C930" s="11"/>
       <c r="D930" s="13" t="s">
-        <v>1600</v>
+        <v>1596</v>
       </c>
       <c r="E930" s="11">
         <v>1000</v>
@@ -77414,7 +78401,7 @@
       </c>
       <c r="C931" s="11"/>
       <c r="D931" s="13" t="s">
-        <v>1600</v>
+        <v>1596</v>
       </c>
       <c r="E931" s="11">
         <v>2000</v>
@@ -77435,7 +78422,7 @@
       </c>
       <c r="C932" s="11"/>
       <c r="D932" s="13" t="s">
-        <v>1600</v>
+        <v>1596</v>
       </c>
       <c r="E932" s="11">
         <v>3500</v>
@@ -77456,7 +78443,7 @@
       </c>
       <c r="C933" s="11"/>
       <c r="D933" s="13" t="s">
-        <v>1600</v>
+        <v>1596</v>
       </c>
       <c r="E933" s="11">
         <v>17000</v>
@@ -77477,7 +78464,7 @@
       </c>
       <c r="C934" s="11"/>
       <c r="D934" s="13" t="s">
-        <v>1600</v>
+        <v>1596</v>
       </c>
       <c r="E934" s="11">
         <v>32500</v>
@@ -77498,7 +78485,7 @@
       </c>
       <c r="C935" s="11"/>
       <c r="D935" s="13" t="s">
-        <v>1600</v>
+        <v>1596</v>
       </c>
       <c r="E935" s="11">
         <v>30</v>
@@ -77519,7 +78506,7 @@
       </c>
       <c r="C936" s="11"/>
       <c r="D936" s="13" t="s">
-        <v>1600</v>
+        <v>1596</v>
       </c>
       <c r="E936" s="11">
         <v>180</v>
@@ -77540,7 +78527,7 @@
       </c>
       <c r="C937" s="11"/>
       <c r="D937" s="13" t="s">
-        <v>1600</v>
+        <v>1596</v>
       </c>
       <c r="E937" s="11">
         <v>700</v>
@@ -77561,7 +78548,7 @@
       </c>
       <c r="C938" s="11"/>
       <c r="D938" s="13" t="s">
-        <v>1600</v>
+        <v>1596</v>
       </c>
       <c r="E938" s="11">
         <v>1500</v>
@@ -77582,7 +78569,7 @@
       </c>
       <c r="C939" s="11"/>
       <c r="D939" s="13" t="s">
-        <v>1600</v>
+        <v>1596</v>
       </c>
       <c r="E939" s="11">
         <v>10000</v>
@@ -77603,7 +78590,7 @@
       </c>
       <c r="C940" s="60"/>
       <c r="D940" s="85" t="s">
-        <v>1640</v>
+        <v>1636</v>
       </c>
       <c r="E940" s="60">
         <v>1</v>
@@ -77621,7 +78608,7 @@
       </c>
       <c r="C941" s="60"/>
       <c r="D941" s="85" t="s">
-        <v>1640</v>
+        <v>1636</v>
       </c>
       <c r="E941" s="60">
         <v>5</v>
@@ -77639,7 +78626,7 @@
       </c>
       <c r="C942" s="60"/>
       <c r="D942" s="85" t="s">
-        <v>1640</v>
+        <v>1636</v>
       </c>
       <c r="E942" s="60">
         <v>12</v>
@@ -77657,7 +78644,7 @@
       </c>
       <c r="C943" s="60"/>
       <c r="D943" s="85" t="s">
-        <v>1640</v>
+        <v>1636</v>
       </c>
       <c r="E943" s="60">
         <v>25</v>
@@ -77675,7 +78662,7 @@
       </c>
       <c r="C944" s="60"/>
       <c r="D944" s="85" t="s">
-        <v>1640</v>
+        <v>1636</v>
       </c>
       <c r="E944" s="60">
         <v>38</v>
@@ -77693,7 +78680,7 @@
       </c>
       <c r="C945" s="60"/>
       <c r="D945" s="85" t="s">
-        <v>1640</v>
+        <v>1636</v>
       </c>
       <c r="E945" s="60">
         <v>78</v>
@@ -77711,7 +78698,7 @@
       </c>
       <c r="C946" s="60"/>
       <c r="D946" s="85" t="s">
-        <v>1640</v>
+        <v>1636</v>
       </c>
       <c r="E946" s="60">
         <v>158</v>
@@ -77729,7 +78716,7 @@
       </c>
       <c r="C947" s="60"/>
       <c r="D947" s="85" t="s">
-        <v>1640</v>
+        <v>1636</v>
       </c>
       <c r="E947" s="60">
         <v>398</v>
@@ -77747,7 +78734,7 @@
       </c>
       <c r="C948" s="60"/>
       <c r="D948" s="85" t="s">
-        <v>1640</v>
+        <v>1636</v>
       </c>
       <c r="E948" s="60">
         <v>798</v>
@@ -77765,7 +78752,7 @@
       </c>
       <c r="C949" s="60"/>
       <c r="D949" s="85" t="s">
-        <v>1640</v>
+        <v>1636</v>
       </c>
       <c r="E949" s="60">
         <v>1998</v>
@@ -78350,10 +79337,10 @@
       </c>
       <c r="C977" s="10"/>
       <c r="D977" s="19" t="s">
-        <v>1675</v>
+        <v>1667</v>
       </c>
       <c r="E977" s="83" t="s">
-        <v>1676</v>
+        <v>1668</v>
       </c>
       <c r="F977" s="10">
         <v>20</v>
@@ -78368,10 +79355,10 @@
       </c>
       <c r="C978" s="10"/>
       <c r="D978" s="19" t="s">
-        <v>1675</v>
+        <v>1667</v>
       </c>
       <c r="E978" s="83" t="s">
-        <v>1677</v>
+        <v>1669</v>
       </c>
       <c r="F978" s="10">
         <v>30</v>
@@ -78386,10 +79373,10 @@
       </c>
       <c r="C979" s="10"/>
       <c r="D979" s="19" t="s">
-        <v>1675</v>
+        <v>1667</v>
       </c>
       <c r="E979" s="83" t="s">
-        <v>1678</v>
+        <v>1670</v>
       </c>
       <c r="F979" s="10">
         <v>50</v>
@@ -78404,7 +79391,7 @@
       </c>
       <c r="C980" s="29"/>
       <c r="D980" s="19" t="s">
-        <v>1675</v>
+        <v>1667</v>
       </c>
       <c r="E980" s="29">
         <v>30</v>
@@ -78422,7 +79409,7 @@
       </c>
       <c r="C981" s="29"/>
       <c r="D981" s="19" t="s">
-        <v>1675</v>
+        <v>1667</v>
       </c>
       <c r="E981" s="29">
         <v>40</v>
@@ -78440,7 +79427,7 @@
       </c>
       <c r="C982" s="29"/>
       <c r="D982" s="19" t="s">
-        <v>1675</v>
+        <v>1667</v>
       </c>
       <c r="E982" s="29">
         <v>50</v>
@@ -78458,7 +79445,7 @@
       </c>
       <c r="C983" s="29"/>
       <c r="D983" s="19" t="s">
-        <v>1675</v>
+        <v>1667</v>
       </c>
       <c r="E983" s="29">
         <v>50</v>
@@ -78476,7 +79463,7 @@
       </c>
       <c r="C984" s="29"/>
       <c r="D984" s="19" t="s">
-        <v>1675</v>
+        <v>1667</v>
       </c>
       <c r="E984" s="29">
         <v>80</v>
@@ -78494,7 +79481,7 @@
       </c>
       <c r="C985" s="29"/>
       <c r="D985" s="19" t="s">
-        <v>1675</v>
+        <v>1667</v>
       </c>
       <c r="E985" s="29">
         <v>100</v>
@@ -78512,7 +79499,7 @@
       </c>
       <c r="C986" s="29"/>
       <c r="D986" s="19" t="s">
-        <v>1675</v>
+        <v>1667</v>
       </c>
       <c r="E986" s="29">
         <v>150</v>
@@ -78530,7 +79517,7 @@
       </c>
       <c r="C987" s="29"/>
       <c r="D987" s="19" t="s">
-        <v>1675</v>
+        <v>1667</v>
       </c>
       <c r="E987" s="29">
         <v>180</v>
@@ -78548,7 +79535,7 @@
       </c>
       <c r="C988" s="29"/>
       <c r="D988" s="19" t="s">
-        <v>1675</v>
+        <v>1667</v>
       </c>
       <c r="E988" s="29">
         <v>200</v>
@@ -78566,7 +79553,7 @@
       </c>
       <c r="C989" s="29"/>
       <c r="D989" s="19" t="s">
-        <v>1675</v>
+        <v>1667</v>
       </c>
       <c r="E989" s="29">
         <v>300</v>
@@ -78584,7 +79571,7 @@
       </c>
       <c r="C990" s="29"/>
       <c r="D990" s="19" t="s">
-        <v>1675</v>
+        <v>1667</v>
       </c>
       <c r="E990" s="29">
         <v>400</v>
@@ -78602,7 +79589,7 @@
       </c>
       <c r="C991" s="29"/>
       <c r="D991" s="19" t="s">
-        <v>1675</v>
+        <v>1667</v>
       </c>
       <c r="E991" s="29">
         <v>500</v>
@@ -78620,7 +79607,7 @@
       </c>
       <c r="C992" s="29"/>
       <c r="D992" s="19" t="s">
-        <v>1675</v>
+        <v>1667</v>
       </c>
       <c r="E992" s="29">
         <v>800</v>
@@ -78638,7 +79625,7 @@
       </c>
       <c r="C993" s="29"/>
       <c r="D993" s="19" t="s">
-        <v>1675</v>
+        <v>1667</v>
       </c>
       <c r="E993" s="29">
         <v>900</v>
@@ -78656,7 +79643,7 @@
       </c>
       <c r="C994" s="29"/>
       <c r="D994" s="19" t="s">
-        <v>1675</v>
+        <v>1667</v>
       </c>
       <c r="E994" s="29">
         <v>1000</v>
@@ -78674,7 +79661,7 @@
       </c>
       <c r="C995" s="29"/>
       <c r="D995" s="19" t="s">
-        <v>1675</v>
+        <v>1667</v>
       </c>
       <c r="E995" s="29">
         <v>4500</v>
@@ -78692,7 +79679,7 @@
       </c>
       <c r="C996" s="29"/>
       <c r="D996" s="19" t="s">
-        <v>1675</v>
+        <v>1667</v>
       </c>
       <c r="E996" s="29">
         <v>4800</v>
@@ -78710,7 +79697,7 @@
       </c>
       <c r="C997" s="29"/>
       <c r="D997" s="19" t="s">
-        <v>1675</v>
+        <v>1667</v>
       </c>
       <c r="E997" s="29">
         <v>5000</v>
@@ -78728,7 +79715,7 @@
       </c>
       <c r="C998" s="29"/>
       <c r="D998" s="19" t="s">
-        <v>1675</v>
+        <v>1667</v>
       </c>
       <c r="E998" s="29">
         <v>8000</v>
@@ -78746,7 +79733,7 @@
       </c>
       <c r="C999" s="29"/>
       <c r="D999" s="19" t="s">
-        <v>1679</v>
+        <v>1671</v>
       </c>
       <c r="E999" s="29">
         <v>9000</v>
@@ -78764,7 +79751,7 @@
       </c>
       <c r="C1000" s="29"/>
       <c r="D1000" s="19" t="s">
-        <v>1675</v>
+        <v>1667</v>
       </c>
       <c r="E1000" s="29">
         <v>10000</v>
@@ -78782,7 +79769,7 @@
       </c>
       <c r="C1001" s="29"/>
       <c r="D1001" s="19" t="s">
-        <v>1675</v>
+        <v>1667</v>
       </c>
       <c r="E1001" s="29">
         <v>15000</v>
@@ -78800,7 +79787,7 @@
       </c>
       <c r="C1002" s="29"/>
       <c r="D1002" s="19" t="s">
-        <v>1675</v>
+        <v>1667</v>
       </c>
       <c r="E1002" s="29">
         <v>18000</v>
@@ -78818,13 +79805,1714 @@
       </c>
       <c r="C1003" s="29"/>
       <c r="D1003" s="19" t="s">
-        <v>1675</v>
+        <v>1667</v>
       </c>
       <c r="E1003" s="29">
         <v>20000</v>
       </c>
       <c r="F1003" s="10">
         <v>50</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1004" s="61">
+        <v>1003</v>
+      </c>
+      <c r="B1004" s="60">
+        <v>694</v>
+      </c>
+      <c r="C1004" s="60"/>
+      <c r="D1004" s="85" t="s">
+        <v>877</v>
+      </c>
+      <c r="E1004" s="64" t="s">
+        <v>1679</v>
+      </c>
+      <c r="F1004" s="60">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1005" s="61">
+        <v>1004</v>
+      </c>
+      <c r="B1005" s="60">
+        <v>694</v>
+      </c>
+      <c r="C1005" s="60"/>
+      <c r="D1005" s="85" t="s">
+        <v>1688</v>
+      </c>
+      <c r="E1005" s="64" t="s">
+        <v>969</v>
+      </c>
+      <c r="F1005" s="60">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1006" s="61">
+        <v>1005</v>
+      </c>
+      <c r="B1006" s="60">
+        <v>694</v>
+      </c>
+      <c r="C1006" s="60"/>
+      <c r="D1006" s="85" t="s">
+        <v>1689</v>
+      </c>
+      <c r="E1006" s="64" t="s">
+        <v>970</v>
+      </c>
+      <c r="F1006" s="60">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1007" s="61">
+        <v>1006</v>
+      </c>
+      <c r="B1007" s="60">
+        <v>695</v>
+      </c>
+      <c r="C1007" s="60"/>
+      <c r="D1007" s="85" t="s">
+        <v>1691</v>
+      </c>
+      <c r="E1007" s="64" t="s">
+        <v>1690</v>
+      </c>
+      <c r="F1007" s="60">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1008" s="61">
+        <v>1007</v>
+      </c>
+      <c r="B1008" s="60">
+        <v>695</v>
+      </c>
+      <c r="C1008" s="60"/>
+      <c r="D1008" s="85" t="s">
+        <v>880</v>
+      </c>
+      <c r="E1008" s="64" t="s">
+        <v>1228</v>
+      </c>
+      <c r="F1008" s="60">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1009" s="61">
+        <v>1008</v>
+      </c>
+      <c r="B1009" s="60">
+        <v>695</v>
+      </c>
+      <c r="C1009" s="60"/>
+      <c r="D1009" s="85" t="s">
+        <v>880</v>
+      </c>
+      <c r="E1009" s="64" t="s">
+        <v>1229</v>
+      </c>
+      <c r="F1009" s="60">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1010" s="61">
+        <v>1009</v>
+      </c>
+      <c r="B1010" s="60">
+        <v>696</v>
+      </c>
+      <c r="C1010" s="60"/>
+      <c r="D1010" s="85" t="s">
+        <v>1693</v>
+      </c>
+      <c r="E1010" s="64" t="s">
+        <v>1692</v>
+      </c>
+      <c r="F1010" s="60">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1011" s="61">
+        <v>1010</v>
+      </c>
+      <c r="B1011" s="60">
+        <v>696</v>
+      </c>
+      <c r="C1011" s="60"/>
+      <c r="D1011" s="85" t="s">
+        <v>880</v>
+      </c>
+      <c r="E1011" s="64" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F1011" s="60">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1012" s="61">
+        <v>1011</v>
+      </c>
+      <c r="B1012" s="60">
+        <v>696</v>
+      </c>
+      <c r="C1012" s="60"/>
+      <c r="D1012" s="85" t="s">
+        <v>880</v>
+      </c>
+      <c r="E1012" s="64" t="s">
+        <v>1232</v>
+      </c>
+      <c r="F1012" s="60">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1013" s="61">
+        <v>1012</v>
+      </c>
+      <c r="B1013" s="10">
+        <v>697</v>
+      </c>
+      <c r="C1013" s="10"/>
+      <c r="D1013" s="19" t="s">
+        <v>1695</v>
+      </c>
+      <c r="E1013" s="83" t="s">
+        <v>1694</v>
+      </c>
+      <c r="F1013" s="10">
+        <v>333</v>
+      </c>
+      <c r="G1013" s="29"/>
+      <c r="H1013" s="29"/>
+      <c r="I1013" s="29"/>
+    </row>
+    <row r="1014" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1014" s="61">
+        <v>1013</v>
+      </c>
+      <c r="B1014" s="10">
+        <v>697</v>
+      </c>
+      <c r="C1014" s="10"/>
+      <c r="D1014" s="19" t="s">
+        <v>880</v>
+      </c>
+      <c r="E1014" s="83" t="s">
+        <v>1211</v>
+      </c>
+      <c r="F1014" s="10">
+        <v>333</v>
+      </c>
+      <c r="G1014" s="29"/>
+      <c r="H1014" s="29"/>
+      <c r="I1014" s="29"/>
+    </row>
+    <row r="1015" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1015" s="61">
+        <v>1014</v>
+      </c>
+      <c r="B1015" s="10">
+        <v>697</v>
+      </c>
+      <c r="C1015" s="10"/>
+      <c r="D1015" s="19" t="s">
+        <v>880</v>
+      </c>
+      <c r="E1015" s="83" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F1015" s="10">
+        <v>333</v>
+      </c>
+      <c r="G1015" s="29"/>
+      <c r="H1015" s="29"/>
+      <c r="I1015" s="29"/>
+    </row>
+    <row r="1016" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1016" s="61">
+        <v>1015</v>
+      </c>
+      <c r="B1016" s="10">
+        <v>698</v>
+      </c>
+      <c r="C1016" s="10"/>
+      <c r="D1016" s="19" t="s">
+        <v>877</v>
+      </c>
+      <c r="E1016" s="83" t="s">
+        <v>1696</v>
+      </c>
+      <c r="F1016" s="10">
+        <v>333</v>
+      </c>
+      <c r="G1016" s="29"/>
+      <c r="H1016" s="29"/>
+      <c r="I1016" s="29"/>
+    </row>
+    <row r="1017" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1017" s="61">
+        <v>1016</v>
+      </c>
+      <c r="B1017" s="10">
+        <v>698</v>
+      </c>
+      <c r="C1017" s="10"/>
+      <c r="D1017" s="19" t="s">
+        <v>880</v>
+      </c>
+      <c r="E1017" s="83" t="s">
+        <v>1234</v>
+      </c>
+      <c r="F1017" s="10">
+        <v>333</v>
+      </c>
+      <c r="G1017" s="29"/>
+      <c r="H1017" s="29"/>
+      <c r="I1017" s="29"/>
+    </row>
+    <row r="1018" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1018" s="61">
+        <v>1017</v>
+      </c>
+      <c r="B1018" s="10">
+        <v>698</v>
+      </c>
+      <c r="C1018" s="10"/>
+      <c r="D1018" s="19" t="s">
+        <v>880</v>
+      </c>
+      <c r="E1018" s="83">
+        <v>150</v>
+      </c>
+      <c r="F1018" s="10">
+        <v>333</v>
+      </c>
+      <c r="G1018" s="29"/>
+      <c r="H1018" s="29"/>
+      <c r="I1018" s="29"/>
+    </row>
+    <row r="1019" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1019" s="61">
+        <v>1018</v>
+      </c>
+      <c r="B1019" s="10">
+        <v>699</v>
+      </c>
+      <c r="C1019" s="10"/>
+      <c r="D1019" s="19" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E1019" s="9">
+        <v>400000</v>
+      </c>
+      <c r="F1019" s="10">
+        <v>333</v>
+      </c>
+      <c r="G1019" s="29"/>
+      <c r="H1019" s="29"/>
+      <c r="I1019" s="29"/>
+    </row>
+    <row r="1020" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1020" s="61">
+        <v>1019</v>
+      </c>
+      <c r="B1020" s="10">
+        <v>699</v>
+      </c>
+      <c r="C1020" s="10"/>
+      <c r="D1020" s="19" t="s">
+        <v>880</v>
+      </c>
+      <c r="E1020" s="9">
+        <v>500</v>
+      </c>
+      <c r="F1020" s="10">
+        <v>333</v>
+      </c>
+      <c r="G1020" s="29"/>
+      <c r="H1020" s="29"/>
+      <c r="I1020" s="29"/>
+    </row>
+    <row r="1021" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1021" s="61">
+        <v>1020</v>
+      </c>
+      <c r="B1021" s="10">
+        <v>699</v>
+      </c>
+      <c r="C1021" s="10"/>
+      <c r="D1021" s="19" t="s">
+        <v>880</v>
+      </c>
+      <c r="E1021" s="9">
+        <v>600</v>
+      </c>
+      <c r="F1021" s="10">
+        <v>333</v>
+      </c>
+      <c r="G1021" s="29"/>
+      <c r="H1021" s="29"/>
+      <c r="I1021" s="29"/>
+    </row>
+    <row r="1022" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1022" s="61">
+        <v>1021</v>
+      </c>
+      <c r="B1022" s="10">
+        <v>700</v>
+      </c>
+      <c r="C1022" s="10"/>
+      <c r="D1022" s="19" t="s">
+        <v>877</v>
+      </c>
+      <c r="E1022" s="9">
+        <v>100000</v>
+      </c>
+      <c r="F1022" s="10">
+        <v>333</v>
+      </c>
+      <c r="G1022" s="29"/>
+      <c r="H1022" s="29"/>
+      <c r="I1022" s="29"/>
+    </row>
+    <row r="1023" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1023" s="61">
+        <v>1022</v>
+      </c>
+      <c r="B1023" s="10">
+        <v>700</v>
+      </c>
+      <c r="C1023" s="10"/>
+      <c r="D1023" s="19" t="s">
+        <v>880</v>
+      </c>
+      <c r="E1023" s="9">
+        <v>300</v>
+      </c>
+      <c r="F1023" s="10">
+        <v>333</v>
+      </c>
+      <c r="G1023" s="29"/>
+      <c r="H1023" s="29"/>
+      <c r="I1023" s="29"/>
+    </row>
+    <row r="1024" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1024" s="61">
+        <v>1023</v>
+      </c>
+      <c r="B1024" s="10">
+        <v>700</v>
+      </c>
+      <c r="C1024" s="10"/>
+      <c r="D1024" s="19" t="s">
+        <v>880</v>
+      </c>
+      <c r="E1024" s="9">
+        <v>500</v>
+      </c>
+      <c r="F1024" s="10">
+        <v>333</v>
+      </c>
+      <c r="G1024" s="29"/>
+      <c r="H1024" s="29"/>
+      <c r="I1024" s="29"/>
+    </row>
+    <row r="1025" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1025" s="61">
+        <v>1024</v>
+      </c>
+      <c r="B1025" s="10">
+        <v>701</v>
+      </c>
+      <c r="C1025" s="10"/>
+      <c r="D1025" s="19" t="s">
+        <v>877</v>
+      </c>
+      <c r="E1025" s="9">
+        <v>500000</v>
+      </c>
+      <c r="F1025" s="10">
+        <v>333</v>
+      </c>
+      <c r="G1025" s="29"/>
+      <c r="H1025" s="29"/>
+      <c r="I1025" s="29"/>
+    </row>
+    <row r="1026" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1026" s="61">
+        <v>1025</v>
+      </c>
+      <c r="B1026" s="10">
+        <v>701</v>
+      </c>
+      <c r="C1026" s="10"/>
+      <c r="D1026" s="19" t="s">
+        <v>880</v>
+      </c>
+      <c r="E1026" s="9">
+        <v>1000</v>
+      </c>
+      <c r="F1026" s="10">
+        <v>333</v>
+      </c>
+      <c r="G1026" s="29"/>
+      <c r="H1026" s="29"/>
+      <c r="I1026" s="29"/>
+    </row>
+    <row r="1027" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1027" s="61">
+        <v>1026</v>
+      </c>
+      <c r="B1027" s="10">
+        <v>701</v>
+      </c>
+      <c r="C1027" s="10"/>
+      <c r="D1027" s="19" t="s">
+        <v>880</v>
+      </c>
+      <c r="E1027" s="9">
+        <v>1500</v>
+      </c>
+      <c r="F1027" s="10">
+        <v>333</v>
+      </c>
+      <c r="G1027" s="29"/>
+      <c r="H1027" s="29"/>
+      <c r="I1027" s="29"/>
+    </row>
+    <row r="1028" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1028" s="61">
+        <v>1027</v>
+      </c>
+      <c r="B1028" s="10">
+        <v>702</v>
+      </c>
+      <c r="C1028" s="10"/>
+      <c r="D1028" s="19" t="s">
+        <v>1693</v>
+      </c>
+      <c r="E1028" s="9">
+        <v>4000000</v>
+      </c>
+      <c r="F1028" s="10">
+        <v>333</v>
+      </c>
+      <c r="G1028" s="29"/>
+      <c r="H1028" s="29"/>
+      <c r="I1028" s="29"/>
+    </row>
+    <row r="1029" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1029" s="61">
+        <v>1028</v>
+      </c>
+      <c r="B1029" s="10">
+        <v>702</v>
+      </c>
+      <c r="C1029" s="10"/>
+      <c r="D1029" s="19" t="s">
+        <v>880</v>
+      </c>
+      <c r="E1029" s="9">
+        <v>5000</v>
+      </c>
+      <c r="F1029" s="10">
+        <v>333</v>
+      </c>
+      <c r="G1029" s="29"/>
+      <c r="H1029" s="29"/>
+      <c r="I1029" s="29"/>
+    </row>
+    <row r="1030" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1030" s="61">
+        <v>1029</v>
+      </c>
+      <c r="B1030" s="10">
+        <v>702</v>
+      </c>
+      <c r="C1030" s="10"/>
+      <c r="D1030" s="19" t="s">
+        <v>880</v>
+      </c>
+      <c r="E1030" s="9">
+        <v>6000</v>
+      </c>
+      <c r="F1030" s="10">
+        <v>333</v>
+      </c>
+      <c r="G1030" s="29"/>
+      <c r="H1030" s="29"/>
+      <c r="I1030" s="29"/>
+    </row>
+    <row r="1031" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1031" s="61">
+        <v>1030</v>
+      </c>
+      <c r="B1031" s="10">
+        <v>703</v>
+      </c>
+      <c r="C1031" s="10"/>
+      <c r="D1031" s="19" t="s">
+        <v>877</v>
+      </c>
+      <c r="E1031" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="F1031" s="10">
+        <v>333</v>
+      </c>
+      <c r="G1031" s="29"/>
+      <c r="H1031" s="29"/>
+      <c r="I1031" s="29"/>
+    </row>
+    <row r="1032" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1032" s="61">
+        <v>1031</v>
+      </c>
+      <c r="B1032" s="10">
+        <v>703</v>
+      </c>
+      <c r="C1032" s="10"/>
+      <c r="D1032" s="19" t="s">
+        <v>880</v>
+      </c>
+      <c r="E1032" s="9">
+        <v>3000</v>
+      </c>
+      <c r="F1032" s="10">
+        <v>333</v>
+      </c>
+      <c r="G1032" s="29"/>
+      <c r="H1032" s="29"/>
+      <c r="I1032" s="29"/>
+    </row>
+    <row r="1033" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1033" s="61">
+        <v>1032</v>
+      </c>
+      <c r="B1033" s="10">
+        <v>703</v>
+      </c>
+      <c r="C1033" s="10"/>
+      <c r="D1033" s="19" t="s">
+        <v>880</v>
+      </c>
+      <c r="E1033" s="9">
+        <v>5000</v>
+      </c>
+      <c r="F1033" s="10">
+        <v>333</v>
+      </c>
+      <c r="G1033" s="29"/>
+      <c r="H1033" s="29"/>
+      <c r="I1033" s="29"/>
+    </row>
+    <row r="1034" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1034" s="61">
+        <v>1033</v>
+      </c>
+      <c r="B1034" s="10">
+        <v>704</v>
+      </c>
+      <c r="C1034" s="10"/>
+      <c r="D1034" s="19" t="s">
+        <v>1698</v>
+      </c>
+      <c r="E1034" s="9">
+        <v>5000000</v>
+      </c>
+      <c r="F1034" s="10">
+        <v>333</v>
+      </c>
+      <c r="G1034" s="29"/>
+      <c r="H1034" s="29"/>
+      <c r="I1034" s="29"/>
+    </row>
+    <row r="1035" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1035" s="61">
+        <v>1034</v>
+      </c>
+      <c r="B1035" s="10">
+        <v>704</v>
+      </c>
+      <c r="C1035" s="10"/>
+      <c r="D1035" s="19" t="s">
+        <v>880</v>
+      </c>
+      <c r="E1035" s="9">
+        <v>10000</v>
+      </c>
+      <c r="F1035" s="10">
+        <v>333</v>
+      </c>
+      <c r="G1035" s="29"/>
+      <c r="H1035" s="29"/>
+      <c r="I1035" s="29"/>
+    </row>
+    <row r="1036" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1036" s="61">
+        <v>1035</v>
+      </c>
+      <c r="B1036" s="10">
+        <v>704</v>
+      </c>
+      <c r="C1036" s="10"/>
+      <c r="D1036" s="19" t="s">
+        <v>880</v>
+      </c>
+      <c r="E1036" s="9">
+        <v>15000</v>
+      </c>
+      <c r="F1036" s="10">
+        <v>333</v>
+      </c>
+      <c r="G1036" s="29"/>
+      <c r="H1036" s="29"/>
+      <c r="I1036" s="29"/>
+    </row>
+    <row r="1037" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1037" s="61">
+        <v>1036</v>
+      </c>
+      <c r="B1037" s="10">
+        <v>705</v>
+      </c>
+      <c r="C1037" s="10"/>
+      <c r="D1037" s="19" t="s">
+        <v>880</v>
+      </c>
+      <c r="E1037" s="9">
+        <v>40000000</v>
+      </c>
+      <c r="F1037" s="10">
+        <v>333</v>
+      </c>
+      <c r="G1037" s="29"/>
+      <c r="H1037" s="29"/>
+      <c r="I1037" s="29"/>
+    </row>
+    <row r="1038" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1038" s="61">
+        <v>1037</v>
+      </c>
+      <c r="B1038" s="10">
+        <v>705</v>
+      </c>
+      <c r="C1038" s="10"/>
+      <c r="D1038" s="19" t="s">
+        <v>880</v>
+      </c>
+      <c r="E1038" s="9">
+        <v>50000</v>
+      </c>
+      <c r="F1038" s="10">
+        <v>333</v>
+      </c>
+      <c r="G1038" s="29"/>
+      <c r="H1038" s="29"/>
+      <c r="I1038" s="29"/>
+    </row>
+    <row r="1039" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1039" s="61">
+        <v>1038</v>
+      </c>
+      <c r="B1039" s="10">
+        <v>705</v>
+      </c>
+      <c r="C1039" s="10"/>
+      <c r="D1039" s="19" t="s">
+        <v>880</v>
+      </c>
+      <c r="E1039" s="9">
+        <v>60000</v>
+      </c>
+      <c r="F1039" s="10">
+        <v>333</v>
+      </c>
+      <c r="G1039" s="29"/>
+      <c r="H1039" s="29"/>
+      <c r="I1039" s="29"/>
+    </row>
+    <row r="1040" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1040" s="61">
+        <v>1039</v>
+      </c>
+      <c r="B1040" s="10">
+        <v>706</v>
+      </c>
+      <c r="C1040" s="10"/>
+      <c r="D1040" s="19" t="s">
+        <v>877</v>
+      </c>
+      <c r="E1040" s="83" t="s">
+        <v>1702</v>
+      </c>
+      <c r="F1040" s="10">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1041" s="61">
+        <v>1040</v>
+      </c>
+      <c r="B1041" s="10">
+        <v>706</v>
+      </c>
+      <c r="C1041" s="10"/>
+      <c r="D1041" s="19" t="s">
+        <v>1296</v>
+      </c>
+      <c r="E1041" s="83" t="s">
+        <v>1669</v>
+      </c>
+      <c r="F1041" s="10">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1042" s="61">
+        <v>1041</v>
+      </c>
+      <c r="B1042" s="10">
+        <v>706</v>
+      </c>
+      <c r="C1042" s="10"/>
+      <c r="D1042" s="19" t="s">
+        <v>1296</v>
+      </c>
+      <c r="E1042" s="83" t="s">
+        <v>1670</v>
+      </c>
+      <c r="F1042" s="10">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1043" s="61">
+        <v>1042</v>
+      </c>
+      <c r="B1043" s="29">
+        <v>707</v>
+      </c>
+      <c r="C1043" s="29"/>
+      <c r="D1043" s="19" t="s">
+        <v>877</v>
+      </c>
+      <c r="E1043" s="29">
+        <v>30000</v>
+      </c>
+      <c r="F1043" s="10">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1044" s="61">
+        <v>1043</v>
+      </c>
+      <c r="B1044" s="29">
+        <v>707</v>
+      </c>
+      <c r="C1044" s="29"/>
+      <c r="D1044" s="19" t="s">
+        <v>1296</v>
+      </c>
+      <c r="E1044" s="29">
+        <v>40</v>
+      </c>
+      <c r="F1044" s="10">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1045" s="61">
+        <v>1044</v>
+      </c>
+      <c r="B1045" s="29">
+        <v>707</v>
+      </c>
+      <c r="C1045" s="29"/>
+      <c r="D1045" s="19" t="s">
+        <v>1296</v>
+      </c>
+      <c r="E1045" s="29">
+        <v>50</v>
+      </c>
+      <c r="F1045" s="10">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1046" s="61">
+        <v>1045</v>
+      </c>
+      <c r="B1046" s="29">
+        <v>708</v>
+      </c>
+      <c r="C1046" s="29"/>
+      <c r="D1046" s="19" t="s">
+        <v>877</v>
+      </c>
+      <c r="E1046" s="29">
+        <v>50000</v>
+      </c>
+      <c r="F1046" s="10">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1047" s="61">
+        <v>1046</v>
+      </c>
+      <c r="B1047" s="29">
+        <v>708</v>
+      </c>
+      <c r="C1047" s="29"/>
+      <c r="D1047" s="19" t="s">
+        <v>1296</v>
+      </c>
+      <c r="E1047" s="29">
+        <v>80</v>
+      </c>
+      <c r="F1047" s="10">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1048" s="61">
+        <v>1047</v>
+      </c>
+      <c r="B1048" s="29">
+        <v>708</v>
+      </c>
+      <c r="C1048" s="29"/>
+      <c r="D1048" s="19" t="s">
+        <v>1296</v>
+      </c>
+      <c r="E1048" s="29">
+        <v>100</v>
+      </c>
+      <c r="F1048" s="10">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1049" s="61">
+        <v>1048</v>
+      </c>
+      <c r="B1049" s="29">
+        <v>709</v>
+      </c>
+      <c r="C1049" s="29"/>
+      <c r="D1049" s="19" t="s">
+        <v>877</v>
+      </c>
+      <c r="E1049" s="29">
+        <v>150000</v>
+      </c>
+      <c r="F1049" s="10">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1050" s="61">
+        <v>1049</v>
+      </c>
+      <c r="B1050" s="29">
+        <v>709</v>
+      </c>
+      <c r="C1050" s="29"/>
+      <c r="D1050" s="19" t="s">
+        <v>1296</v>
+      </c>
+      <c r="E1050" s="29">
+        <v>180</v>
+      </c>
+      <c r="F1050" s="10">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1051" s="61">
+        <v>1050</v>
+      </c>
+      <c r="B1051" s="29">
+        <v>709</v>
+      </c>
+      <c r="C1051" s="29"/>
+      <c r="D1051" s="19" t="s">
+        <v>1296</v>
+      </c>
+      <c r="E1051" s="29">
+        <v>200</v>
+      </c>
+      <c r="F1051" s="10">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1052" s="61">
+        <v>1051</v>
+      </c>
+      <c r="B1052" s="29">
+        <v>710</v>
+      </c>
+      <c r="C1052" s="29"/>
+      <c r="D1052" s="19" t="s">
+        <v>1693</v>
+      </c>
+      <c r="E1052" s="29">
+        <v>300000</v>
+      </c>
+      <c r="F1052" s="10">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1053" s="61">
+        <v>1052</v>
+      </c>
+      <c r="B1053" s="29">
+        <v>710</v>
+      </c>
+      <c r="C1053" s="29"/>
+      <c r="D1053" s="19" t="s">
+        <v>1296</v>
+      </c>
+      <c r="E1053" s="29">
+        <v>400</v>
+      </c>
+      <c r="F1053" s="10">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1054" s="61">
+        <v>1053</v>
+      </c>
+      <c r="B1054" s="29">
+        <v>710</v>
+      </c>
+      <c r="C1054" s="29"/>
+      <c r="D1054" s="19" t="s">
+        <v>1296</v>
+      </c>
+      <c r="E1054" s="29">
+        <v>500</v>
+      </c>
+      <c r="F1054" s="10">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1055" s="61">
+        <v>1054</v>
+      </c>
+      <c r="B1055" s="29">
+        <v>711</v>
+      </c>
+      <c r="C1055" s="29"/>
+      <c r="D1055" s="19" t="s">
+        <v>877</v>
+      </c>
+      <c r="E1055" s="29">
+        <v>800000</v>
+      </c>
+      <c r="F1055" s="10">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1056" s="61">
+        <v>1055</v>
+      </c>
+      <c r="B1056" s="29">
+        <v>711</v>
+      </c>
+      <c r="C1056" s="29"/>
+      <c r="D1056" s="19" t="s">
+        <v>1296</v>
+      </c>
+      <c r="E1056" s="29">
+        <v>900</v>
+      </c>
+      <c r="F1056" s="10">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1057" s="61">
+        <v>1056</v>
+      </c>
+      <c r="B1057" s="29">
+        <v>711</v>
+      </c>
+      <c r="C1057" s="29"/>
+      <c r="D1057" s="19" t="s">
+        <v>1296</v>
+      </c>
+      <c r="E1057" s="29">
+        <v>1000</v>
+      </c>
+      <c r="F1057" s="10">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1058" s="61">
+        <v>1057</v>
+      </c>
+      <c r="B1058" s="29">
+        <v>712</v>
+      </c>
+      <c r="C1058" s="29"/>
+      <c r="D1058" s="19" t="s">
+        <v>877</v>
+      </c>
+      <c r="E1058" s="29">
+        <v>4500000</v>
+      </c>
+      <c r="F1058" s="10">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1059" s="61">
+        <v>1058</v>
+      </c>
+      <c r="B1059" s="29">
+        <v>712</v>
+      </c>
+      <c r="C1059" s="29"/>
+      <c r="D1059" s="19" t="s">
+        <v>1296</v>
+      </c>
+      <c r="E1059" s="29">
+        <v>4800</v>
+      </c>
+      <c r="F1059" s="10">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1060" s="61">
+        <v>1059</v>
+      </c>
+      <c r="B1060" s="29">
+        <v>712</v>
+      </c>
+      <c r="C1060" s="29"/>
+      <c r="D1060" s="19" t="s">
+        <v>1296</v>
+      </c>
+      <c r="E1060" s="29">
+        <v>5000</v>
+      </c>
+      <c r="F1060" s="10">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1061" s="61">
+        <v>1060</v>
+      </c>
+      <c r="B1061" s="29">
+        <v>713</v>
+      </c>
+      <c r="C1061" s="29"/>
+      <c r="D1061" s="19" t="s">
+        <v>877</v>
+      </c>
+      <c r="E1061" s="29">
+        <v>8000000</v>
+      </c>
+      <c r="F1061" s="10">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1062" s="61">
+        <v>1061</v>
+      </c>
+      <c r="B1062" s="29">
+        <v>713</v>
+      </c>
+      <c r="C1062" s="29"/>
+      <c r="D1062" s="19" t="s">
+        <v>1296</v>
+      </c>
+      <c r="E1062" s="29">
+        <v>9000</v>
+      </c>
+      <c r="F1062" s="10">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1063" s="61">
+        <v>1062</v>
+      </c>
+      <c r="B1063" s="29">
+        <v>713</v>
+      </c>
+      <c r="C1063" s="29"/>
+      <c r="D1063" s="19" t="s">
+        <v>1296</v>
+      </c>
+      <c r="E1063" s="29">
+        <v>10000</v>
+      </c>
+      <c r="F1063" s="10">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1064" s="61">
+        <v>1063</v>
+      </c>
+      <c r="B1064" s="29">
+        <v>714</v>
+      </c>
+      <c r="C1064" s="29"/>
+      <c r="D1064" s="19" t="s">
+        <v>877</v>
+      </c>
+      <c r="E1064" s="29">
+        <v>15000000</v>
+      </c>
+      <c r="F1064" s="10">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1065" s="61">
+        <v>1064</v>
+      </c>
+      <c r="B1065" s="29">
+        <v>714</v>
+      </c>
+      <c r="C1065" s="29"/>
+      <c r="D1065" s="19" t="s">
+        <v>1296</v>
+      </c>
+      <c r="E1065" s="29">
+        <v>18000</v>
+      </c>
+      <c r="F1065" s="10">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1066" s="61">
+        <v>1065</v>
+      </c>
+      <c r="B1066" s="29">
+        <v>714</v>
+      </c>
+      <c r="C1066" s="29"/>
+      <c r="D1066" s="19" t="s">
+        <v>1296</v>
+      </c>
+      <c r="E1066" s="29">
+        <v>20000</v>
+      </c>
+      <c r="F1066" s="10">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1067" s="61">
+        <v>1066</v>
+      </c>
+      <c r="B1067" s="10">
+        <v>715</v>
+      </c>
+      <c r="C1067" s="10"/>
+      <c r="D1067" s="19" t="s">
+        <v>1712</v>
+      </c>
+      <c r="E1067" s="83" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F1067" s="10">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1068" s="61">
+        <v>1067</v>
+      </c>
+      <c r="B1068" s="10">
+        <v>715</v>
+      </c>
+      <c r="C1068" s="10"/>
+      <c r="D1068" s="19" t="s">
+        <v>880</v>
+      </c>
+      <c r="E1068" s="83" t="s">
+        <v>1211</v>
+      </c>
+      <c r="F1068" s="10">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1069" s="61">
+        <v>1068</v>
+      </c>
+      <c r="B1069" s="10">
+        <v>715</v>
+      </c>
+      <c r="C1069" s="10"/>
+      <c r="D1069" s="19" t="s">
+        <v>880</v>
+      </c>
+      <c r="E1069" s="83" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F1069" s="10">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1070" s="61">
+        <v>1069</v>
+      </c>
+      <c r="B1070" s="10">
+        <v>716</v>
+      </c>
+      <c r="C1070" s="10"/>
+      <c r="D1070" s="19" t="s">
+        <v>1698</v>
+      </c>
+      <c r="E1070" s="83" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1070" s="10">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1071" s="61">
+        <v>1070</v>
+      </c>
+      <c r="B1071" s="10">
+        <v>716</v>
+      </c>
+      <c r="C1071" s="10"/>
+      <c r="D1071" s="19" t="s">
+        <v>880</v>
+      </c>
+      <c r="E1071" s="83" t="s">
+        <v>1234</v>
+      </c>
+      <c r="F1071" s="10">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1072" s="61">
+        <v>1071</v>
+      </c>
+      <c r="B1072" s="10">
+        <v>716</v>
+      </c>
+      <c r="C1072" s="10"/>
+      <c r="D1072" s="19" t="s">
+        <v>880</v>
+      </c>
+      <c r="E1072" s="83">
+        <v>150</v>
+      </c>
+      <c r="F1072" s="10">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1073" s="61">
+        <v>1072</v>
+      </c>
+      <c r="B1073" s="10">
+        <v>717</v>
+      </c>
+      <c r="C1073" s="10"/>
+      <c r="D1073" s="19" t="s">
+        <v>877</v>
+      </c>
+      <c r="E1073" s="9">
+        <v>400000</v>
+      </c>
+      <c r="F1073" s="10">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1074" s="61">
+        <v>1073</v>
+      </c>
+      <c r="B1074" s="10">
+        <v>717</v>
+      </c>
+      <c r="C1074" s="10"/>
+      <c r="D1074" s="19" t="s">
+        <v>880</v>
+      </c>
+      <c r="E1074" s="9">
+        <v>500</v>
+      </c>
+      <c r="F1074" s="10">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1075" s="61">
+        <v>1074</v>
+      </c>
+      <c r="B1075" s="10">
+        <v>717</v>
+      </c>
+      <c r="C1075" s="10"/>
+      <c r="D1075" s="19" t="s">
+        <v>880</v>
+      </c>
+      <c r="E1075" s="9">
+        <v>600</v>
+      </c>
+      <c r="F1075" s="10">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1076" s="61">
+        <v>1075</v>
+      </c>
+      <c r="B1076" s="10">
+        <v>718</v>
+      </c>
+      <c r="C1076" s="10"/>
+      <c r="D1076" s="19" t="s">
+        <v>877</v>
+      </c>
+      <c r="E1076" s="9">
+        <v>100000</v>
+      </c>
+      <c r="F1076" s="10">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1077" s="61">
+        <v>1076</v>
+      </c>
+      <c r="B1077" s="10">
+        <v>718</v>
+      </c>
+      <c r="C1077" s="10"/>
+      <c r="D1077" s="19" t="s">
+        <v>880</v>
+      </c>
+      <c r="E1077" s="9">
+        <v>300</v>
+      </c>
+      <c r="F1077" s="10">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1078" s="61">
+        <v>1077</v>
+      </c>
+      <c r="B1078" s="10">
+        <v>718</v>
+      </c>
+      <c r="C1078" s="10"/>
+      <c r="D1078" s="19" t="s">
+        <v>880</v>
+      </c>
+      <c r="E1078" s="9">
+        <v>500</v>
+      </c>
+      <c r="F1078" s="10">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1079" s="61">
+        <v>1078</v>
+      </c>
+      <c r="B1079" s="10">
+        <v>719</v>
+      </c>
+      <c r="C1079" s="10"/>
+      <c r="D1079" s="19" t="s">
+        <v>877</v>
+      </c>
+      <c r="E1079" s="9">
+        <v>500000</v>
+      </c>
+      <c r="F1079" s="10">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1080" s="61">
+        <v>1079</v>
+      </c>
+      <c r="B1080" s="10">
+        <v>719</v>
+      </c>
+      <c r="C1080" s="10"/>
+      <c r="D1080" s="19" t="s">
+        <v>880</v>
+      </c>
+      <c r="E1080" s="9">
+        <v>1000</v>
+      </c>
+      <c r="F1080" s="10">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1081" s="61">
+        <v>1080</v>
+      </c>
+      <c r="B1081" s="10">
+        <v>719</v>
+      </c>
+      <c r="C1081" s="10"/>
+      <c r="D1081" s="19" t="s">
+        <v>880</v>
+      </c>
+      <c r="E1081" s="9">
+        <v>1500</v>
+      </c>
+      <c r="F1081" s="10">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1082" s="61">
+        <v>1081</v>
+      </c>
+      <c r="B1082" s="10">
+        <v>720</v>
+      </c>
+      <c r="C1082" s="10"/>
+      <c r="D1082" s="19" t="s">
+        <v>877</v>
+      </c>
+      <c r="E1082" s="9">
+        <v>4000000</v>
+      </c>
+      <c r="F1082" s="10">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1083" s="61">
+        <v>1082</v>
+      </c>
+      <c r="B1083" s="10">
+        <v>720</v>
+      </c>
+      <c r="C1083" s="10"/>
+      <c r="D1083" s="19" t="s">
+        <v>880</v>
+      </c>
+      <c r="E1083" s="9">
+        <v>5000</v>
+      </c>
+      <c r="F1083" s="10">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1084" s="61">
+        <v>1083</v>
+      </c>
+      <c r="B1084" s="10">
+        <v>720</v>
+      </c>
+      <c r="C1084" s="10"/>
+      <c r="D1084" s="19" t="s">
+        <v>880</v>
+      </c>
+      <c r="E1084" s="9">
+        <v>6000</v>
+      </c>
+      <c r="F1084" s="10">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1085" s="61">
+        <v>1084</v>
+      </c>
+      <c r="B1085" s="10">
+        <v>721</v>
+      </c>
+      <c r="C1085" s="10"/>
+      <c r="D1085" s="19" t="s">
+        <v>877</v>
+      </c>
+      <c r="E1085" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="F1085" s="10">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1086" s="61">
+        <v>1085</v>
+      </c>
+      <c r="B1086" s="10">
+        <v>721</v>
+      </c>
+      <c r="C1086" s="10"/>
+      <c r="D1086" s="19" t="s">
+        <v>880</v>
+      </c>
+      <c r="E1086" s="9">
+        <v>3000</v>
+      </c>
+      <c r="F1086" s="10">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1087" s="61">
+        <v>1086</v>
+      </c>
+      <c r="B1087" s="10">
+        <v>721</v>
+      </c>
+      <c r="C1087" s="10"/>
+      <c r="D1087" s="19" t="s">
+        <v>880</v>
+      </c>
+      <c r="E1087" s="9">
+        <v>5000</v>
+      </c>
+      <c r="F1087" s="10">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1088" s="61">
+        <v>1087</v>
+      </c>
+      <c r="B1088" s="10">
+        <v>722</v>
+      </c>
+      <c r="C1088" s="10"/>
+      <c r="D1088" s="19" t="s">
+        <v>1715</v>
+      </c>
+      <c r="E1088" s="9">
+        <v>5000000</v>
+      </c>
+      <c r="F1088" s="10">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1089" s="61">
+        <v>1088</v>
+      </c>
+      <c r="B1089" s="10">
+        <v>722</v>
+      </c>
+      <c r="C1089" s="10"/>
+      <c r="D1089" s="19" t="s">
+        <v>880</v>
+      </c>
+      <c r="E1089" s="9">
+        <v>10000</v>
+      </c>
+      <c r="F1089" s="10">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1090" s="61">
+        <v>1089</v>
+      </c>
+      <c r="B1090" s="10">
+        <v>722</v>
+      </c>
+      <c r="C1090" s="10"/>
+      <c r="D1090" s="19" t="s">
+        <v>880</v>
+      </c>
+      <c r="E1090" s="9">
+        <v>15000</v>
+      </c>
+      <c r="F1090" s="10">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1091" s="61">
+        <v>1090</v>
+      </c>
+      <c r="B1091" s="10">
+        <v>723</v>
+      </c>
+      <c r="C1091" s="10"/>
+      <c r="D1091" s="19" t="s">
+        <v>1693</v>
+      </c>
+      <c r="E1091" s="9">
+        <v>40000000</v>
+      </c>
+      <c r="F1091" s="10">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1092" s="61">
+        <v>1091</v>
+      </c>
+      <c r="B1092" s="10">
+        <v>723</v>
+      </c>
+      <c r="C1092" s="10"/>
+      <c r="D1092" s="19" t="s">
+        <v>880</v>
+      </c>
+      <c r="E1092" s="9">
+        <v>50000</v>
+      </c>
+      <c r="F1092" s="10">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1093" s="61">
+        <v>1092</v>
+      </c>
+      <c r="B1093" s="10">
+        <v>723</v>
+      </c>
+      <c r="C1093" s="10"/>
+      <c r="D1093" s="19" t="s">
+        <v>880</v>
+      </c>
+      <c r="E1093" s="9">
+        <v>60000</v>
+      </c>
+      <c r="F1093" s="10">
+        <v>333</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/task_zajindan_server.xlsx
+++ b/config_debug/task_zajindan_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -10056,10 +10056,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>1000000,5000000,10000000,20000000,50000000,100000000,500000000,1000000000,2000000000,</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>685,686,687,688,689,690,691,692,693</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -10093,6 +10089,10 @@
   <si>
     <t>shop_gold_sum</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000,4000000,5000000,10000000,30000000,50000000,400000000,500000000,1000000000</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -28966,11 +28966,11 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K463"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C442" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="D448" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D463" sqref="D463"/>
+      <selection pane="bottomRight" activeCell="F463" sqref="F463"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -40723,14 +40723,14 @@
       </c>
       <c r="E463" s="10"/>
       <c r="F463" s="82" t="s">
-        <v>1670</v>
+        <v>1679</v>
       </c>
       <c r="G463" s="79"/>
       <c r="H463" s="112" t="s">
+        <v>1670</v>
+      </c>
+      <c r="I463" s="19" t="s">
         <v>1671</v>
-      </c>
-      <c r="I463" s="19" t="s">
-        <v>1672</v>
       </c>
     </row>
   </sheetData>
@@ -50113,7 +50113,7 @@
         <v>454</v>
       </c>
       <c r="C645" s="26" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="D645" s="10">
         <v>0</v>
@@ -50130,7 +50130,7 @@
         <v>454</v>
       </c>
       <c r="C646" s="10" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="D646" s="10">
         <v>0</v>
@@ -58217,7 +58217,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:W1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C974" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -78350,10 +78350,10 @@
       </c>
       <c r="C977" s="10"/>
       <c r="D977" s="19" t="s">
+        <v>1674</v>
+      </c>
+      <c r="E977" s="83" t="s">
         <v>1675</v>
-      </c>
-      <c r="E977" s="83" t="s">
-        <v>1676</v>
       </c>
       <c r="F977" s="10">
         <v>20</v>
@@ -78368,10 +78368,10 @@
       </c>
       <c r="C978" s="10"/>
       <c r="D978" s="19" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="E978" s="83" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="F978" s="10">
         <v>30</v>
@@ -78386,10 +78386,10 @@
       </c>
       <c r="C979" s="10"/>
       <c r="D979" s="19" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="E979" s="83" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="F979" s="10">
         <v>50</v>
@@ -78404,7 +78404,7 @@
       </c>
       <c r="C980" s="29"/>
       <c r="D980" s="19" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="E980" s="29">
         <v>30</v>
@@ -78422,7 +78422,7 @@
       </c>
       <c r="C981" s="29"/>
       <c r="D981" s="19" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="E981" s="29">
         <v>40</v>
@@ -78440,7 +78440,7 @@
       </c>
       <c r="C982" s="29"/>
       <c r="D982" s="19" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="E982" s="29">
         <v>50</v>
@@ -78458,7 +78458,7 @@
       </c>
       <c r="C983" s="29"/>
       <c r="D983" s="19" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="E983" s="29">
         <v>50</v>
@@ -78476,7 +78476,7 @@
       </c>
       <c r="C984" s="29"/>
       <c r="D984" s="19" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="E984" s="29">
         <v>80</v>
@@ -78494,7 +78494,7 @@
       </c>
       <c r="C985" s="29"/>
       <c r="D985" s="19" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="E985" s="29">
         <v>100</v>
@@ -78512,7 +78512,7 @@
       </c>
       <c r="C986" s="29"/>
       <c r="D986" s="19" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="E986" s="29">
         <v>150</v>
@@ -78530,7 +78530,7 @@
       </c>
       <c r="C987" s="29"/>
       <c r="D987" s="19" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="E987" s="29">
         <v>180</v>
@@ -78548,7 +78548,7 @@
       </c>
       <c r="C988" s="29"/>
       <c r="D988" s="19" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="E988" s="29">
         <v>200</v>
@@ -78566,7 +78566,7 @@
       </c>
       <c r="C989" s="29"/>
       <c r="D989" s="19" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="E989" s="29">
         <v>300</v>
@@ -78584,7 +78584,7 @@
       </c>
       <c r="C990" s="29"/>
       <c r="D990" s="19" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="E990" s="29">
         <v>400</v>
@@ -78602,7 +78602,7 @@
       </c>
       <c r="C991" s="29"/>
       <c r="D991" s="19" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="E991" s="29">
         <v>500</v>
@@ -78620,7 +78620,7 @@
       </c>
       <c r="C992" s="29"/>
       <c r="D992" s="19" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="E992" s="29">
         <v>800</v>
@@ -78638,7 +78638,7 @@
       </c>
       <c r="C993" s="29"/>
       <c r="D993" s="19" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="E993" s="29">
         <v>900</v>
@@ -78656,7 +78656,7 @@
       </c>
       <c r="C994" s="29"/>
       <c r="D994" s="19" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="E994" s="29">
         <v>1000</v>
@@ -78674,7 +78674,7 @@
       </c>
       <c r="C995" s="29"/>
       <c r="D995" s="19" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="E995" s="29">
         <v>4500</v>
@@ -78692,7 +78692,7 @@
       </c>
       <c r="C996" s="29"/>
       <c r="D996" s="19" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="E996" s="29">
         <v>4800</v>
@@ -78710,7 +78710,7 @@
       </c>
       <c r="C997" s="29"/>
       <c r="D997" s="19" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="E997" s="29">
         <v>5000</v>
@@ -78728,7 +78728,7 @@
       </c>
       <c r="C998" s="29"/>
       <c r="D998" s="19" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="E998" s="29">
         <v>8000</v>
@@ -78746,7 +78746,7 @@
       </c>
       <c r="C999" s="29"/>
       <c r="D999" s="19" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="E999" s="29">
         <v>9000</v>
@@ -78764,7 +78764,7 @@
       </c>
       <c r="C1000" s="29"/>
       <c r="D1000" s="19" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="E1000" s="29">
         <v>10000</v>
@@ -78782,7 +78782,7 @@
       </c>
       <c r="C1001" s="29"/>
       <c r="D1001" s="19" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="E1001" s="29">
         <v>15000</v>
@@ -78800,7 +78800,7 @@
       </c>
       <c r="C1002" s="29"/>
       <c r="D1002" s="19" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="E1002" s="29">
         <v>18000</v>
@@ -78818,7 +78818,7 @@
       </c>
       <c r="C1003" s="29"/>
       <c r="D1003" s="19" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="E1003" s="29">
         <v>20000</v>

--- a/config_debug/task_zajindan_server.xlsx
+++ b/config_debug/task_zajindan_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -10024,10 +10024,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>1000000,5000000,10000000,20000000,50000000,100000000,500000000,1000000000,2000000000,</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>685,686,687,688,689,690,691,692,693</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -10252,6 +10248,10 @@
   </si>
   <si>
     <t>p_jjkpshb_nor</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000,4000000,5000000,10000000,30000000,50000000,400000000,500000000,1000000000</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -11141,11 +11141,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T471"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="E446" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C479" sqref="C479"/>
+      <selection pane="bottomRight" activeCell="C468" sqref="C468"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -25476,10 +25476,10 @@
         <v>1490</v>
       </c>
       <c r="D368" s="99" t="s">
+        <v>1672</v>
+      </c>
+      <c r="E368" s="98" t="s">
         <v>1673</v>
-      </c>
-      <c r="E368" s="98" t="s">
-        <v>1674</v>
       </c>
       <c r="F368" s="98" t="s">
         <v>1491</v>
@@ -25514,10 +25514,10 @@
         <v>1490</v>
       </c>
       <c r="D369" s="99" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="E369" s="98" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="F369" s="98" t="s">
         <v>1491</v>
@@ -25552,10 +25552,10 @@
         <v>1490</v>
       </c>
       <c r="D370" s="98" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="E370" s="98" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="F370" s="98" t="s">
         <v>1491</v>
@@ -25590,10 +25590,10 @@
         <v>1492</v>
       </c>
       <c r="D371" s="98" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="E371" s="98" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="F371" s="98" t="s">
         <v>1491</v>
@@ -28858,10 +28858,10 @@
         <v>1640</v>
       </c>
       <c r="D457" s="99" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="E457" s="98" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="F457" s="98" t="s">
         <v>1646</v>
@@ -28896,10 +28896,10 @@
         <v>1641</v>
       </c>
       <c r="D458" s="99" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="E458" s="98" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="F458" s="98" t="s">
         <v>1646</v>
@@ -28934,10 +28934,10 @@
         <v>1640</v>
       </c>
       <c r="D459" s="98" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="E459" s="98" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="F459" s="98" t="s">
         <v>1646</v>
@@ -29086,10 +29086,10 @@
         <v>1660</v>
       </c>
       <c r="D463" s="51" t="s">
+        <v>1674</v>
+      </c>
+      <c r="E463" s="51" t="s">
         <v>1675</v>
-      </c>
-      <c r="E463" s="51" t="s">
-        <v>1676</v>
       </c>
       <c r="F463" s="51" t="s">
         <v>1661</v>
@@ -29124,10 +29124,10 @@
         <v>1490</v>
       </c>
       <c r="D464" s="99" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="E464" s="98" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="F464" s="98" t="s">
         <v>1491</v>
@@ -29162,10 +29162,10 @@
         <v>1490</v>
       </c>
       <c r="D465" s="99" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="E465" s="98" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="F465" s="98" t="s">
         <v>1491</v>
@@ -29200,10 +29200,10 @@
         <v>1490</v>
       </c>
       <c r="D466" s="98" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="E466" s="98" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="F466" s="98" t="s">
         <v>1491</v>
@@ -29238,10 +29238,10 @@
         <v>1490</v>
       </c>
       <c r="D467" s="98" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="E467" s="98" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="F467" s="98" t="s">
         <v>1491</v>
@@ -29276,10 +29276,10 @@
         <v>1660</v>
       </c>
       <c r="D468" s="51" t="s">
+        <v>1676</v>
+      </c>
+      <c r="E468" s="51" t="s">
         <v>1677</v>
-      </c>
-      <c r="E468" s="51" t="s">
-        <v>1678</v>
       </c>
       <c r="F468" s="51" t="s">
         <v>1661</v>
@@ -29314,10 +29314,10 @@
         <v>1640</v>
       </c>
       <c r="D469" s="99" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="E469" s="98" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="F469" s="98" t="s">
         <v>1646</v>
@@ -29352,10 +29352,10 @@
         <v>1640</v>
       </c>
       <c r="D470" s="99" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="E470" s="98" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="F470" s="98" t="s">
         <v>1646</v>
@@ -29390,10 +29390,10 @@
         <v>1640</v>
       </c>
       <c r="D471" s="98" t="s">
+        <v>1709</v>
+      </c>
+      <c r="E471" s="98" t="s">
         <v>1710</v>
-      </c>
-      <c r="E471" s="98" t="s">
-        <v>1711</v>
       </c>
       <c r="F471" s="98" t="s">
         <v>1646</v>
@@ -29430,11 +29430,11 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K471"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C451" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A478" sqref="A478"/>
+      <selection pane="bottomRight" activeCell="F468" sqref="F468"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -41187,14 +41187,14 @@
       </c>
       <c r="E463" s="10"/>
       <c r="F463" s="82" t="s">
-        <v>1662</v>
+        <v>1719</v>
       </c>
       <c r="G463" s="79"/>
       <c r="H463" s="112" t="s">
+        <v>1662</v>
+      </c>
+      <c r="I463" s="19" t="s">
         <v>1663</v>
-      </c>
-      <c r="I463" s="19" t="s">
-        <v>1664</v>
       </c>
     </row>
     <row r="464" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -41214,7 +41214,7 @@
       </c>
       <c r="G464" s="35"/>
       <c r="H464" s="15" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="I464" s="13" t="s">
         <v>918</v>
@@ -41237,7 +41237,7 @@
       </c>
       <c r="G465" s="35"/>
       <c r="H465" s="15" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="I465" s="13" t="s">
         <v>918</v>
@@ -41260,7 +41260,7 @@
       </c>
       <c r="G466" s="35"/>
       <c r="H466" s="15" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="I466" s="13" t="s">
         <v>918</v>
@@ -41283,7 +41283,7 @@
       </c>
       <c r="G467" s="35"/>
       <c r="H467" s="15" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="I467" s="13" t="s">
         <v>918</v>
@@ -41302,14 +41302,14 @@
       </c>
       <c r="E468" s="10"/>
       <c r="F468" s="82" t="s">
-        <v>1662</v>
+        <v>1719</v>
       </c>
       <c r="G468" s="79"/>
       <c r="H468" s="112" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="I468" s="19" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="469" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -41329,7 +41329,7 @@
       </c>
       <c r="G469" s="35"/>
       <c r="H469" s="15" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="I469" s="13" t="s">
         <v>918</v>
@@ -41352,7 +41352,7 @@
       </c>
       <c r="G470" s="35"/>
       <c r="H470" s="15" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="I470" s="13" t="s">
         <v>918</v>
@@ -41375,7 +41375,7 @@
       </c>
       <c r="G471" s="35"/>
       <c r="H471" s="15" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="I471" s="13" t="s">
         <v>918</v>
@@ -50761,7 +50761,7 @@
         <v>454</v>
       </c>
       <c r="C645" s="26" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="D645" s="10">
         <v>0</v>
@@ -50778,7 +50778,7 @@
         <v>454</v>
       </c>
       <c r="C646" s="10" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="D646" s="10">
         <v>0</v>
@@ -50956,7 +50956,7 @@
         <v>459</v>
       </c>
       <c r="C658" s="10" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="D658" s="10">
         <v>0</v>
@@ -79337,10 +79337,10 @@
       </c>
       <c r="C977" s="10"/>
       <c r="D977" s="19" t="s">
+        <v>1666</v>
+      </c>
+      <c r="E977" s="83" t="s">
         <v>1667</v>
-      </c>
-      <c r="E977" s="83" t="s">
-        <v>1668</v>
       </c>
       <c r="F977" s="10">
         <v>20</v>
@@ -79355,10 +79355,10 @@
       </c>
       <c r="C978" s="10"/>
       <c r="D978" s="19" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="E978" s="83" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="F978" s="10">
         <v>30</v>
@@ -79373,10 +79373,10 @@
       </c>
       <c r="C979" s="10"/>
       <c r="D979" s="19" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="E979" s="83" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="F979" s="10">
         <v>50</v>
@@ -79391,7 +79391,7 @@
       </c>
       <c r="C980" s="29"/>
       <c r="D980" s="19" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="E980" s="29">
         <v>30</v>
@@ -79409,7 +79409,7 @@
       </c>
       <c r="C981" s="29"/>
       <c r="D981" s="19" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="E981" s="29">
         <v>40</v>
@@ -79427,7 +79427,7 @@
       </c>
       <c r="C982" s="29"/>
       <c r="D982" s="19" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="E982" s="29">
         <v>50</v>
@@ -79445,7 +79445,7 @@
       </c>
       <c r="C983" s="29"/>
       <c r="D983" s="19" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="E983" s="29">
         <v>50</v>
@@ -79463,7 +79463,7 @@
       </c>
       <c r="C984" s="29"/>
       <c r="D984" s="19" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="E984" s="29">
         <v>80</v>
@@ -79481,7 +79481,7 @@
       </c>
       <c r="C985" s="29"/>
       <c r="D985" s="19" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="E985" s="29">
         <v>100</v>
@@ -79499,7 +79499,7 @@
       </c>
       <c r="C986" s="29"/>
       <c r="D986" s="19" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="E986" s="29">
         <v>150</v>
@@ -79517,7 +79517,7 @@
       </c>
       <c r="C987" s="29"/>
       <c r="D987" s="19" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="E987" s="29">
         <v>180</v>
@@ -79535,7 +79535,7 @@
       </c>
       <c r="C988" s="29"/>
       <c r="D988" s="19" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="E988" s="29">
         <v>200</v>
@@ -79553,7 +79553,7 @@
       </c>
       <c r="C989" s="29"/>
       <c r="D989" s="19" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="E989" s="29">
         <v>300</v>
@@ -79571,7 +79571,7 @@
       </c>
       <c r="C990" s="29"/>
       <c r="D990" s="19" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="E990" s="29">
         <v>400</v>
@@ -79589,7 +79589,7 @@
       </c>
       <c r="C991" s="29"/>
       <c r="D991" s="19" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="E991" s="29">
         <v>500</v>
@@ -79607,7 +79607,7 @@
       </c>
       <c r="C992" s="29"/>
       <c r="D992" s="19" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="E992" s="29">
         <v>800</v>
@@ -79625,7 +79625,7 @@
       </c>
       <c r="C993" s="29"/>
       <c r="D993" s="19" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="E993" s="29">
         <v>900</v>
@@ -79643,7 +79643,7 @@
       </c>
       <c r="C994" s="29"/>
       <c r="D994" s="19" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="E994" s="29">
         <v>1000</v>
@@ -79661,7 +79661,7 @@
       </c>
       <c r="C995" s="29"/>
       <c r="D995" s="19" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="E995" s="29">
         <v>4500</v>
@@ -79679,7 +79679,7 @@
       </c>
       <c r="C996" s="29"/>
       <c r="D996" s="19" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="E996" s="29">
         <v>4800</v>
@@ -79697,7 +79697,7 @@
       </c>
       <c r="C997" s="29"/>
       <c r="D997" s="19" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="E997" s="29">
         <v>5000</v>
@@ -79715,7 +79715,7 @@
       </c>
       <c r="C998" s="29"/>
       <c r="D998" s="19" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="E998" s="29">
         <v>8000</v>
@@ -79733,7 +79733,7 @@
       </c>
       <c r="C999" s="29"/>
       <c r="D999" s="19" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="E999" s="29">
         <v>9000</v>
@@ -79751,7 +79751,7 @@
       </c>
       <c r="C1000" s="29"/>
       <c r="D1000" s="19" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="E1000" s="29">
         <v>10000</v>
@@ -79769,7 +79769,7 @@
       </c>
       <c r="C1001" s="29"/>
       <c r="D1001" s="19" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="E1001" s="29">
         <v>15000</v>
@@ -79787,7 +79787,7 @@
       </c>
       <c r="C1002" s="29"/>
       <c r="D1002" s="19" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="E1002" s="29">
         <v>18000</v>
@@ -79805,7 +79805,7 @@
       </c>
       <c r="C1003" s="29"/>
       <c r="D1003" s="19" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="E1003" s="29">
         <v>20000</v>
@@ -79826,7 +79826,7 @@
         <v>877</v>
       </c>
       <c r="E1004" s="64" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="F1004" s="60">
         <v>333</v>
@@ -79841,7 +79841,7 @@
       </c>
       <c r="C1005" s="60"/>
       <c r="D1005" s="85" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="E1005" s="64" t="s">
         <v>969</v>
@@ -79859,7 +79859,7 @@
       </c>
       <c r="C1006" s="60"/>
       <c r="D1006" s="85" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="E1006" s="64" t="s">
         <v>970</v>
@@ -79877,10 +79877,10 @@
       </c>
       <c r="C1007" s="60"/>
       <c r="D1007" s="85" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="E1007" s="64" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="F1007" s="60">
         <v>333</v>
@@ -79931,10 +79931,10 @@
       </c>
       <c r="C1010" s="60"/>
       <c r="D1010" s="85" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="E1010" s="64" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="F1010" s="60">
         <v>333</v>
@@ -79985,10 +79985,10 @@
       </c>
       <c r="C1013" s="10"/>
       <c r="D1013" s="19" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="E1013" s="83" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="F1013" s="10">
         <v>333</v>
@@ -80051,7 +80051,7 @@
         <v>877</v>
       </c>
       <c r="E1016" s="83" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="F1016" s="10">
         <v>333</v>
@@ -80111,7 +80111,7 @@
       </c>
       <c r="C1019" s="10"/>
       <c r="D1019" s="19" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="E1019" s="9">
         <v>400000</v>
@@ -80300,7 +80300,7 @@
       </c>
       <c r="C1028" s="10"/>
       <c r="D1028" s="19" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="E1028" s="9">
         <v>4000000</v>
@@ -80426,7 +80426,7 @@
       </c>
       <c r="C1034" s="10"/>
       <c r="D1034" s="19" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="E1034" s="9">
         <v>5000000</v>
@@ -80555,7 +80555,7 @@
         <v>877</v>
       </c>
       <c r="E1040" s="83" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="F1040" s="10">
         <v>333</v>
@@ -80573,7 +80573,7 @@
         <v>1296</v>
       </c>
       <c r="E1041" s="83" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="F1041" s="10">
         <v>333</v>
@@ -80591,7 +80591,7 @@
         <v>1296</v>
       </c>
       <c r="E1042" s="83" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="F1042" s="10">
         <v>333</v>
@@ -80768,7 +80768,7 @@
       </c>
       <c r="C1052" s="29"/>
       <c r="D1052" s="19" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="E1052" s="29">
         <v>300000</v>
@@ -81038,10 +81038,10 @@
       </c>
       <c r="C1067" s="10"/>
       <c r="D1067" s="19" t="s">
+        <v>1711</v>
+      </c>
+      <c r="E1067" s="83" t="s">
         <v>1712</v>
-      </c>
-      <c r="E1067" s="83" t="s">
-        <v>1713</v>
       </c>
       <c r="F1067" s="10">
         <v>333</v>
@@ -81092,10 +81092,10 @@
       </c>
       <c r="C1070" s="10"/>
       <c r="D1070" s="19" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="E1070" s="83" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="F1070" s="10">
         <v>333</v>
@@ -81416,7 +81416,7 @@
       </c>
       <c r="C1088" s="10"/>
       <c r="D1088" s="19" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="E1088" s="9">
         <v>5000000</v>
@@ -81470,7 +81470,7 @@
       </c>
       <c r="C1091" s="10"/>
       <c r="D1091" s="19" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="E1091" s="9">
         <v>40000000</v>

--- a/config_debug/task_zajindan_server.xlsx
+++ b/config_debug/task_zajindan_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6024" uniqueCount="1720">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7339" uniqueCount="1721">
   <si>
     <t>id|任务id</t>
   </si>
@@ -10253,6 +10253,10 @@
   <si>
     <t>1000000,4000000,5000000,10000000,30000000,50000000,400000000,500000000,1000000000</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>jing_bi</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -29430,7 +29434,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K471"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C451" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -59204,11 +59208,11 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:W1093"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C1058" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C1010" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B1094" sqref="B1094"/>
+      <selection pane="bottomRight" activeCell="H1032" sqref="H1032"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -80489,7 +80493,7 @@
       </c>
       <c r="C1037" s="10"/>
       <c r="D1037" s="19" t="s">
-        <v>880</v>
+        <v>1720</v>
       </c>
       <c r="E1037" s="9">
         <v>40000000</v>

--- a/config_debug/task_zajindan_server.xlsx
+++ b/config_debug/task_zajindan_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7339" uniqueCount="1721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6024" uniqueCount="1720">
   <si>
     <t>id|任务id</t>
   </si>
@@ -10253,10 +10253,6 @@
   <si>
     <t>1000000,4000000,5000000,10000000,30000000,50000000,400000000,500000000,1000000000</t>
     <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>jing_bi</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -29434,7 +29430,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K471"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C451" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -59208,11 +59204,11 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:W1093"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C1010" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C1058" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H1032" sqref="H1032"/>
+      <selection pane="bottomRight" activeCell="B1094" sqref="B1094"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -80493,7 +80489,7 @@
       </c>
       <c r="C1037" s="10"/>
       <c r="D1037" s="19" t="s">
-        <v>1720</v>
+        <v>880</v>
       </c>
       <c r="E1037" s="9">
         <v>40000000</v>

--- a/config_debug/task_zajindan_server.xlsx
+++ b/config_debug/task_zajindan_server.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6024" uniqueCount="1720">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6084" uniqueCount="1757">
   <si>
     <t>id|任务id</t>
   </si>
@@ -8510,10 +8510,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>normal</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>task_21320</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -10253,6 +10249,179 @@
   <si>
     <t>1000000,4000000,5000000,10000000,30000000,50000000,400000000,500000000,1000000000</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>水浒消消乐使用1万及以上档次，累计召唤3个英雄</t>
+  </si>
+  <si>
+    <t>财神消消乐使用1万及以上档次，出现3次天女散花</t>
+  </si>
+  <si>
+    <t>敲敲乐财神模式中连续砸出2次财神</t>
+  </si>
+  <si>
+    <t>苹果大战中连胜2局</t>
+  </si>
+  <si>
+    <t>在苹果大战中种出1次金苹果</t>
+  </si>
+  <si>
+    <t>小游戏福利</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果消消乐使用1万及以上档次，出现1次幸运时刻</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>common</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>nor</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxl_lucky_award</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>bet_spend</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>nor</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>nor</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>sh_xxl_xc_num_hero</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaoxiaole_caishen_sky_girl</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>bet_spend</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero_num</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>敲敲乐普通模式中砸中1次金猪</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>nor</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>zajindan_game_num</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>award_value</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>award_id</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,3</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>or</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>zajindan_continuity_caishen_model</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>award_value</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>agent_guess_continuity_apple_award</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>guess_apple_award_kaijiang_type</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>kaijiang_type</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>jing_bi</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -10508,7 +10677,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -10855,6 +11024,9 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -11139,13 +11311,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:T471"/>
+  <dimension ref="A1:T478"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="E446" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C468" sqref="C468"/>
+      <selection pane="bottomRight" activeCell="G478" sqref="G478"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -25020,7 +25192,7 @@
         <v>1131</v>
       </c>
       <c r="D356" s="16" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="E356" s="16" t="s">
         <v>1126</v>
@@ -25476,10 +25648,10 @@
         <v>1490</v>
       </c>
       <c r="D368" s="99" t="s">
+        <v>1671</v>
+      </c>
+      <c r="E368" s="98" t="s">
         <v>1672</v>
-      </c>
-      <c r="E368" s="98" t="s">
-        <v>1673</v>
       </c>
       <c r="F368" s="98" t="s">
         <v>1491</v>
@@ -25514,10 +25686,10 @@
         <v>1490</v>
       </c>
       <c r="D369" s="99" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="E369" s="98" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="F369" s="98" t="s">
         <v>1491</v>
@@ -25552,10 +25724,10 @@
         <v>1490</v>
       </c>
       <c r="D370" s="98" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="E370" s="98" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="F370" s="98" t="s">
         <v>1491</v>
@@ -25590,10 +25762,10 @@
         <v>1492</v>
       </c>
       <c r="D371" s="98" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="E371" s="98" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="F371" s="98" t="s">
         <v>1491</v>
@@ -27224,7 +27396,7 @@
         <v>1428</v>
       </c>
       <c r="D414" s="49" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="E414" s="49" t="s">
         <v>1430</v>
@@ -27610,7 +27782,7 @@
         <v>1476</v>
       </c>
       <c r="F424" s="16" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="G424" s="12">
         <v>21371</v>
@@ -27648,7 +27820,7 @@
         <v>1503</v>
       </c>
       <c r="F425" s="114" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="G425" s="113">
         <v>21372</v>
@@ -27683,7 +27855,7 @@
         <v>1498</v>
       </c>
       <c r="E426" s="114" t="s">
-        <v>1504</v>
+        <v>1725</v>
       </c>
       <c r="F426" s="113" t="s">
         <v>855</v>
@@ -27759,7 +27931,7 @@
         <v>1501</v>
       </c>
       <c r="E428" s="114" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="F428" s="113" t="s">
         <v>855</v>
@@ -27791,13 +27963,13 @@
         <v>1</v>
       </c>
       <c r="C429" s="61" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="D429" s="61" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="E429" s="84" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="F429" s="61" t="s">
         <v>855</v>
@@ -27829,16 +28001,16 @@
         <v>1</v>
       </c>
       <c r="C430" s="16" t="s">
+        <v>1526</v>
+      </c>
+      <c r="D430" s="16" t="s">
         <v>1527</v>
       </c>
-      <c r="D430" s="16" t="s">
+      <c r="E430" s="16" t="s">
         <v>1528</v>
       </c>
-      <c r="E430" s="16" t="s">
-        <v>1529</v>
-      </c>
       <c r="F430" s="16" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="G430" s="12">
         <v>21377</v>
@@ -27867,13 +28039,13 @@
         <v>1</v>
       </c>
       <c r="C431" s="16" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="D431" s="16" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="E431" s="16" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="F431" s="16" t="s">
         <v>1493</v>
@@ -27905,13 +28077,13 @@
         <v>1</v>
       </c>
       <c r="C432" s="16" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="D432" s="16" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="E432" s="16" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="F432" s="16" t="s">
         <v>1493</v>
@@ -27943,13 +28115,13 @@
         <v>1</v>
       </c>
       <c r="C433" s="16" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="D433" s="16" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="E433" s="16" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="F433" s="16" t="s">
         <v>1493</v>
@@ -27981,13 +28153,13 @@
         <v>1</v>
       </c>
       <c r="C434" s="16" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="D434" s="16" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="E434" s="16" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="F434" s="16" t="s">
         <v>1493</v>
@@ -28019,13 +28191,13 @@
         <v>1</v>
       </c>
       <c r="C435" s="16" t="s">
+        <v>1549</v>
+      </c>
+      <c r="D435" s="16" t="s">
         <v>1550</v>
       </c>
-      <c r="D435" s="16" t="s">
-        <v>1551</v>
-      </c>
       <c r="E435" s="16" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="F435" s="16" t="s">
         <v>855</v>
@@ -28057,13 +28229,13 @@
         <v>1</v>
       </c>
       <c r="C436" s="16" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="D436" s="16" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="E436" s="16" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="F436" s="16" t="s">
         <v>855</v>
@@ -28095,13 +28267,13 @@
         <v>1</v>
       </c>
       <c r="C437" s="16" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="D437" s="16" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="E437" s="16" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="F437" s="16" t="s">
         <v>855</v>
@@ -28133,13 +28305,13 @@
         <v>1</v>
       </c>
       <c r="C438" s="16" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="D438" s="16" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="E438" s="16" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="F438" s="16" t="s">
         <v>855</v>
@@ -28171,13 +28343,13 @@
         <v>1</v>
       </c>
       <c r="C439" s="16" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="D439" s="16" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="E439" s="16" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="F439" s="16" t="s">
         <v>855</v>
@@ -28209,13 +28381,13 @@
         <v>1</v>
       </c>
       <c r="C440" s="16" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="D440" s="16" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="E440" s="16" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="F440" s="16" t="s">
         <v>855</v>
@@ -28247,13 +28419,13 @@
         <v>1</v>
       </c>
       <c r="C441" s="16" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="D441" s="16" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="E441" s="16" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="F441" s="16" t="s">
         <v>855</v>
@@ -28285,13 +28457,13 @@
         <v>1</v>
       </c>
       <c r="C442" s="16" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="D442" s="16" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="E442" s="16" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="F442" s="16" t="s">
         <v>855</v>
@@ -28323,13 +28495,13 @@
         <v>1</v>
       </c>
       <c r="C443" s="16" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="D443" s="16" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="E443" s="16" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="F443" s="16" t="s">
         <v>855</v>
@@ -28361,13 +28533,13 @@
         <v>1</v>
       </c>
       <c r="C444" s="16" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="D444" s="16" t="s">
+        <v>1563</v>
+      </c>
+      <c r="E444" s="16" t="s">
         <v>1564</v>
-      </c>
-      <c r="E444" s="16" t="s">
-        <v>1565</v>
       </c>
       <c r="F444" s="16" t="s">
         <v>855</v>
@@ -28399,13 +28571,13 @@
         <v>1</v>
       </c>
       <c r="C445" s="16" t="s">
+        <v>1583</v>
+      </c>
+      <c r="D445" s="16" t="s">
         <v>1584</v>
       </c>
-      <c r="D445" s="16" t="s">
-        <v>1585</v>
-      </c>
       <c r="E445" s="16" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="F445" s="16" t="s">
         <v>855</v>
@@ -28437,13 +28609,13 @@
         <v>1</v>
       </c>
       <c r="C446" s="16" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="D446" s="16" t="s">
+        <v>1585</v>
+      </c>
+      <c r="E446" s="16" t="s">
         <v>1586</v>
-      </c>
-      <c r="E446" s="16" t="s">
-        <v>1587</v>
       </c>
       <c r="F446" s="16" t="s">
         <v>855</v>
@@ -28475,13 +28647,13 @@
         <v>1</v>
       </c>
       <c r="C447" s="61" t="s">
+        <v>1602</v>
+      </c>
+      <c r="D447" s="84" t="s">
         <v>1603</v>
       </c>
-      <c r="D447" s="84" t="s">
-        <v>1604</v>
-      </c>
       <c r="E447" s="84" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="F447" s="84" t="s">
         <v>855</v>
@@ -28513,13 +28685,13 @@
         <v>1</v>
       </c>
       <c r="C448" s="84" t="s">
+        <v>1608</v>
+      </c>
+      <c r="D448" s="84" t="s">
         <v>1609</v>
       </c>
-      <c r="D448" s="84" t="s">
-        <v>1610</v>
-      </c>
       <c r="E448" s="84" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="F448" s="84" t="s">
         <v>855</v>
@@ -28551,13 +28723,13 @@
         <v>1</v>
       </c>
       <c r="C449" s="61" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="D449" s="84" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="E449" s="84" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="F449" s="84" t="s">
         <v>855</v>
@@ -28589,13 +28761,13 @@
         <v>1</v>
       </c>
       <c r="C450" s="84" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="D450" s="84" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="E450" s="84" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="F450" s="84" t="s">
         <v>855</v>
@@ -28627,13 +28799,13 @@
         <v>1</v>
       </c>
       <c r="C451" s="61" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="D451" s="84" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="E451" s="84" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="F451" s="84" t="s">
         <v>855</v>
@@ -28665,13 +28837,13 @@
         <v>1</v>
       </c>
       <c r="C452" s="84" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="D452" s="84" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="E452" s="84" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="F452" s="84" t="s">
         <v>855</v>
@@ -28703,13 +28875,13 @@
         <v>1</v>
       </c>
       <c r="C453" s="61" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="D453" s="84" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="E453" s="84" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="F453" s="84" t="s">
         <v>855</v>
@@ -28741,13 +28913,13 @@
         <v>1</v>
       </c>
       <c r="C454" s="84" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="D454" s="84" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="E454" s="84" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="F454" s="84" t="s">
         <v>855</v>
@@ -28779,13 +28951,13 @@
         <v>1</v>
       </c>
       <c r="C455" s="61" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="D455" s="84" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="E455" s="84" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="F455" s="84" t="s">
         <v>855</v>
@@ -28817,13 +28989,13 @@
         <v>1</v>
       </c>
       <c r="C456" s="84" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="D456" s="84" t="s">
+        <v>1617</v>
+      </c>
+      <c r="E456" s="84" t="s">
         <v>1618</v>
-      </c>
-      <c r="E456" s="84" t="s">
-        <v>1619</v>
       </c>
       <c r="F456" s="84" t="s">
         <v>855</v>
@@ -28855,16 +29027,16 @@
         <v>1</v>
       </c>
       <c r="C457" s="98" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="D457" s="99" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="E457" s="98" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="F457" s="98" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="G457" s="97">
         <v>21404</v>
@@ -28893,16 +29065,16 @@
         <v>1</v>
       </c>
       <c r="C458" s="98" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="D458" s="99" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="E458" s="98" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="F458" s="98" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="G458" s="97">
         <v>21405</v>
@@ -28931,16 +29103,16 @@
         <v>1</v>
       </c>
       <c r="C459" s="98" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="D459" s="98" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="E459" s="98" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="F459" s="98" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="G459" s="97">
         <v>21406</v>
@@ -28969,16 +29141,16 @@
         <v>1</v>
       </c>
       <c r="C460" s="7" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="D460" s="7" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="E460" s="7" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="F460" s="7" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="G460" s="97">
         <v>21407</v>
@@ -29007,16 +29179,16 @@
         <v>1</v>
       </c>
       <c r="C461" s="7" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="D461" s="7" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="E461" s="7" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="F461" s="49" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="G461" s="97">
         <v>21408</v>
@@ -29045,16 +29217,16 @@
         <v>1</v>
       </c>
       <c r="C462" s="7" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="D462" s="7" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="E462" s="7" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="F462" s="7" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="G462" s="97">
         <v>21409</v>
@@ -29083,16 +29255,16 @@
         <v>1</v>
       </c>
       <c r="C463" s="51" t="s">
+        <v>1659</v>
+      </c>
+      <c r="D463" s="51" t="s">
+        <v>1673</v>
+      </c>
+      <c r="E463" s="51" t="s">
+        <v>1674</v>
+      </c>
+      <c r="F463" s="51" t="s">
         <v>1660</v>
-      </c>
-      <c r="D463" s="51" t="s">
-        <v>1674</v>
-      </c>
-      <c r="E463" s="51" t="s">
-        <v>1675</v>
-      </c>
-      <c r="F463" s="51" t="s">
-        <v>1661</v>
       </c>
       <c r="G463" s="51">
         <v>21410</v>
@@ -29124,10 +29296,10 @@
         <v>1490</v>
       </c>
       <c r="D464" s="99" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="E464" s="98" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="F464" s="98" t="s">
         <v>1491</v>
@@ -29162,10 +29334,10 @@
         <v>1490</v>
       </c>
       <c r="D465" s="99" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="E465" s="98" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="F465" s="98" t="s">
         <v>1491</v>
@@ -29200,10 +29372,10 @@
         <v>1490</v>
       </c>
       <c r="D466" s="98" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="E466" s="98" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="F466" s="98" t="s">
         <v>1491</v>
@@ -29238,10 +29410,10 @@
         <v>1490</v>
       </c>
       <c r="D467" s="98" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="E467" s="98" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="F467" s="98" t="s">
         <v>1491</v>
@@ -29273,16 +29445,16 @@
         <v>1</v>
       </c>
       <c r="C468" s="51" t="s">
+        <v>1659</v>
+      </c>
+      <c r="D468" s="51" t="s">
+        <v>1675</v>
+      </c>
+      <c r="E468" s="51" t="s">
+        <v>1676</v>
+      </c>
+      <c r="F468" s="51" t="s">
         <v>1660</v>
-      </c>
-      <c r="D468" s="51" t="s">
-        <v>1676</v>
-      </c>
-      <c r="E468" s="51" t="s">
-        <v>1677</v>
-      </c>
-      <c r="F468" s="51" t="s">
-        <v>1661</v>
       </c>
       <c r="G468" s="97">
         <v>21415</v>
@@ -29311,16 +29483,16 @@
         <v>1</v>
       </c>
       <c r="C469" s="98" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="D469" s="99" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="E469" s="98" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="F469" s="98" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="G469" s="97">
         <v>21416</v>
@@ -29349,16 +29521,16 @@
         <v>1</v>
       </c>
       <c r="C470" s="98" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="D470" s="99" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="E470" s="98" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="F470" s="98" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="G470" s="97">
         <v>21417</v>
@@ -29387,16 +29559,16 @@
         <v>1</v>
       </c>
       <c r="C471" s="98" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="D471" s="98" t="s">
+        <v>1708</v>
+      </c>
+      <c r="E471" s="98" t="s">
         <v>1709</v>
       </c>
-      <c r="E471" s="98" t="s">
-        <v>1710</v>
-      </c>
       <c r="F471" s="98" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="G471" s="97">
         <v>21418</v>
@@ -29414,6 +29586,272 @@
         <v>32503651200</v>
       </c>
       <c r="L471" s="97">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="472" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A472" s="7">
+        <v>1000061</v>
+      </c>
+      <c r="B472" s="7">
+        <v>1</v>
+      </c>
+      <c r="C472" s="49" t="s">
+        <v>1724</v>
+      </c>
+      <c r="D472" s="49" t="s">
+        <v>1727</v>
+      </c>
+      <c r="E472" s="49" t="s">
+        <v>1726</v>
+      </c>
+      <c r="F472" s="49" t="s">
+        <v>1728</v>
+      </c>
+      <c r="G472" s="7">
+        <v>21419</v>
+      </c>
+      <c r="H472" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I472" s="12">
+        <v>1</v>
+      </c>
+      <c r="J472" s="12">
+        <v>1600704000</v>
+      </c>
+      <c r="K472" s="12">
+        <v>1601308799</v>
+      </c>
+      <c r="L472" s="12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="473" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A473" s="7">
+        <v>1000062</v>
+      </c>
+      <c r="B473" s="7">
+        <v>1</v>
+      </c>
+      <c r="C473" s="49" t="s">
+        <v>1724</v>
+      </c>
+      <c r="D473" s="7" t="s">
+        <v>1719</v>
+      </c>
+      <c r="E473" s="49" t="s">
+        <v>1726</v>
+      </c>
+      <c r="F473" s="49" t="s">
+        <v>1728</v>
+      </c>
+      <c r="G473" s="7">
+        <v>21420</v>
+      </c>
+      <c r="H473" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I473" s="12">
+        <v>1</v>
+      </c>
+      <c r="J473" s="12">
+        <v>1600704000</v>
+      </c>
+      <c r="K473" s="12">
+        <v>1601308799</v>
+      </c>
+      <c r="L473" s="12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A474" s="7">
+        <v>1000063</v>
+      </c>
+      <c r="B474" s="7">
+        <v>1</v>
+      </c>
+      <c r="C474" s="49" t="s">
+        <v>1724</v>
+      </c>
+      <c r="D474" s="7" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E474" s="49" t="s">
+        <v>1726</v>
+      </c>
+      <c r="F474" s="49" t="s">
+        <v>1728</v>
+      </c>
+      <c r="G474" s="7">
+        <v>21421</v>
+      </c>
+      <c r="H474" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I474" s="12">
+        <v>1</v>
+      </c>
+      <c r="J474" s="12">
+        <v>1600704000</v>
+      </c>
+      <c r="K474" s="12">
+        <v>1601308799</v>
+      </c>
+      <c r="L474" s="12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A475" s="7">
+        <v>1000064</v>
+      </c>
+      <c r="B475" s="7">
+        <v>1</v>
+      </c>
+      <c r="C475" s="49" t="s">
+        <v>1724</v>
+      </c>
+      <c r="D475" s="49" t="s">
+        <v>1740</v>
+      </c>
+      <c r="E475" s="49" t="s">
+        <v>1726</v>
+      </c>
+      <c r="F475" s="49" t="s">
+        <v>1728</v>
+      </c>
+      <c r="G475" s="7">
+        <v>21422</v>
+      </c>
+      <c r="H475" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I475" s="12">
+        <v>1</v>
+      </c>
+      <c r="J475" s="12">
+        <v>1600704000</v>
+      </c>
+      <c r="K475" s="12">
+        <v>1601308799</v>
+      </c>
+      <c r="L475" s="12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="476" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A476" s="7">
+        <v>1000065</v>
+      </c>
+      <c r="B476" s="7">
+        <v>1</v>
+      </c>
+      <c r="C476" s="49" t="s">
+        <v>1724</v>
+      </c>
+      <c r="D476" s="7" t="s">
+        <v>1721</v>
+      </c>
+      <c r="E476" s="49" t="s">
+        <v>1726</v>
+      </c>
+      <c r="F476" s="49" t="s">
+        <v>1728</v>
+      </c>
+      <c r="G476" s="7">
+        <v>21423</v>
+      </c>
+      <c r="H476" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I476" s="12">
+        <v>1</v>
+      </c>
+      <c r="J476" s="12">
+        <v>1600704000</v>
+      </c>
+      <c r="K476" s="12">
+        <v>1601308799</v>
+      </c>
+      <c r="L476" s="12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="477" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A477" s="7">
+        <v>1000066</v>
+      </c>
+      <c r="B477" s="7">
+        <v>1</v>
+      </c>
+      <c r="C477" s="49" t="s">
+        <v>1724</v>
+      </c>
+      <c r="D477" s="7" t="s">
+        <v>1722</v>
+      </c>
+      <c r="E477" s="49" t="s">
+        <v>1726</v>
+      </c>
+      <c r="F477" s="49" t="s">
+        <v>1728</v>
+      </c>
+      <c r="G477" s="7">
+        <v>21424</v>
+      </c>
+      <c r="H477" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I477" s="12">
+        <v>1</v>
+      </c>
+      <c r="J477" s="12">
+        <v>1600704000</v>
+      </c>
+      <c r="K477" s="12">
+        <v>1601308799</v>
+      </c>
+      <c r="L477" s="12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="478" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A478" s="7">
+        <v>1000067</v>
+      </c>
+      <c r="B478" s="7">
+        <v>1</v>
+      </c>
+      <c r="C478" s="49" t="s">
+        <v>1724</v>
+      </c>
+      <c r="D478" s="7" t="s">
+        <v>1723</v>
+      </c>
+      <c r="E478" s="49" t="s">
+        <v>1726</v>
+      </c>
+      <c r="F478" s="49" t="s">
+        <v>1728</v>
+      </c>
+      <c r="G478" s="7">
+        <v>21425</v>
+      </c>
+      <c r="H478" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I478" s="12">
+        <v>1</v>
+      </c>
+      <c r="J478" s="12">
+        <v>1600704000</v>
+      </c>
+      <c r="K478" s="12">
+        <v>1601308799</v>
+      </c>
+      <c r="L478" s="12">
         <v>-1</v>
       </c>
     </row>
@@ -29428,13 +29866,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:K471"/>
+  <dimension ref="A1:K481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C451" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E451" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F468" sqref="F468"/>
+      <selection pane="bottomRight" activeCell="H474" sqref="H474"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -29477,7 +29915,7 @@
         <v>917</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="K1" s="38"/>
     </row>
@@ -40283,7 +40721,7 @@
       </c>
       <c r="G425" s="117"/>
       <c r="H425" s="118" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="I425" s="119" t="s">
         <v>1435</v>
@@ -40309,7 +40747,7 @@
       </c>
       <c r="G426" s="117"/>
       <c r="H426" s="118" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="I426" s="119" t="s">
         <v>1435</v>
@@ -40335,7 +40773,7 @@
       </c>
       <c r="G427" s="117"/>
       <c r="H427" s="118" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="I427" s="119" t="s">
         <v>1435</v>
@@ -40355,11 +40793,11 @@
       <c r="D428" s="115"/>
       <c r="E428" s="115"/>
       <c r="F428" s="116" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="G428" s="117"/>
       <c r="H428" s="118" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="I428" s="119" t="s">
         <v>1435</v>
@@ -40378,11 +40816,11 @@
       </c>
       <c r="E429" s="60"/>
       <c r="F429" s="63" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="G429" s="63"/>
       <c r="H429" s="121" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="I429" s="60" t="s">
         <v>856</v>
@@ -40399,13 +40837,13 @@
         <v>424</v>
       </c>
       <c r="F430" s="111" t="s">
+        <v>1535</v>
+      </c>
+      <c r="H430" s="65" t="s">
         <v>1536</v>
       </c>
-      <c r="H430" s="65" t="s">
+      <c r="I430" s="14" t="s">
         <v>1537</v>
-      </c>
-      <c r="I430" s="14" t="s">
-        <v>1538</v>
       </c>
     </row>
     <row r="431" spans="1:10" x14ac:dyDescent="0.2">
@@ -40419,13 +40857,13 @@
         <v>425</v>
       </c>
       <c r="F431" s="111" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="H431" s="65" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="I431" s="14" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="432" spans="1:10" x14ac:dyDescent="0.2">
@@ -40439,13 +40877,13 @@
         <v>426</v>
       </c>
       <c r="F432" s="111" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="H432" s="65" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="I432" s="14" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="433" spans="1:10" x14ac:dyDescent="0.2">
@@ -40459,13 +40897,13 @@
         <v>427</v>
       </c>
       <c r="F433" s="111" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="H433" s="65" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="I433" s="14" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="434" spans="1:10" x14ac:dyDescent="0.2">
@@ -40479,13 +40917,13 @@
         <v>428</v>
       </c>
       <c r="F434" s="111" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="H434" s="65" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="I434" s="14" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="435" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -40501,11 +40939,11 @@
       </c>
       <c r="E435" s="11"/>
       <c r="F435" s="40" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="G435" s="35"/>
       <c r="H435" s="15" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="I435" s="13" t="s">
         <v>1144</v>
@@ -40527,11 +40965,11 @@
       </c>
       <c r="E436" s="11"/>
       <c r="F436" s="40" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="G436" s="35"/>
       <c r="H436" s="15" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="I436" s="13" t="s">
         <v>1144</v>
@@ -40553,11 +40991,11 @@
       </c>
       <c r="E437" s="11"/>
       <c r="F437" s="40" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="G437" s="35"/>
       <c r="H437" s="15" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="I437" s="13" t="s">
         <v>1144</v>
@@ -40579,11 +41017,11 @@
       </c>
       <c r="E438" s="11"/>
       <c r="F438" s="40" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="G438" s="35"/>
       <c r="H438" s="15" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="I438" s="13" t="s">
         <v>1144</v>
@@ -40605,11 +41043,11 @@
       </c>
       <c r="E439" s="11"/>
       <c r="F439" s="40" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="G439" s="35"/>
       <c r="H439" s="15" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="I439" s="13" t="s">
         <v>1144</v>
@@ -40631,11 +41069,11 @@
       </c>
       <c r="E440" s="11"/>
       <c r="F440" s="40" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="G440" s="35"/>
       <c r="H440" s="15" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="I440" s="13" t="s">
         <v>1144</v>
@@ -40657,11 +41095,11 @@
       </c>
       <c r="E441" s="11"/>
       <c r="F441" s="40" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="G441" s="35"/>
       <c r="H441" s="15" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="I441" s="13" t="s">
         <v>1144</v>
@@ -40683,11 +41121,11 @@
       </c>
       <c r="E442" s="11"/>
       <c r="F442" s="40" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="G442" s="35"/>
       <c r="H442" s="15" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="I442" s="13" t="s">
         <v>1144</v>
@@ -40709,11 +41147,11 @@
       </c>
       <c r="E443" s="11"/>
       <c r="F443" s="40" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="G443" s="35"/>
       <c r="H443" s="15" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="I443" s="13" t="s">
         <v>1144</v>
@@ -40735,11 +41173,11 @@
       </c>
       <c r="E444" s="11"/>
       <c r="F444" s="40" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="G444" s="35"/>
       <c r="H444" s="15" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="I444" s="13" t="s">
         <v>1144</v>
@@ -40761,11 +41199,11 @@
       </c>
       <c r="E445" s="11"/>
       <c r="F445" s="40" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="G445" s="35"/>
       <c r="H445" s="40" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="I445" s="13" t="s">
         <v>856</v>
@@ -40784,11 +41222,11 @@
       </c>
       <c r="E446" s="11"/>
       <c r="F446" s="40" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="G446" s="35"/>
       <c r="H446" s="15" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="I446" s="13" t="s">
         <v>856</v>
@@ -40807,11 +41245,11 @@
       </c>
       <c r="E447" s="60"/>
       <c r="F447" s="62" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="G447" s="63"/>
       <c r="H447" s="64" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="I447" s="85" t="s">
         <v>856</v>
@@ -40833,11 +41271,11 @@
       </c>
       <c r="E448" s="60"/>
       <c r="F448" s="62" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="G448" s="63"/>
       <c r="H448" s="64" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="I448" s="85" t="s">
         <v>856</v>
@@ -40859,11 +41297,11 @@
       </c>
       <c r="E449" s="60"/>
       <c r="F449" s="62" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="G449" s="63"/>
       <c r="H449" s="64" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="I449" s="85" t="s">
         <v>856</v>
@@ -40885,11 +41323,11 @@
       </c>
       <c r="E450" s="60"/>
       <c r="F450" s="62" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="G450" s="63"/>
       <c r="H450" s="64" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="I450" s="85" t="s">
         <v>856</v>
@@ -40911,11 +41349,11 @@
       </c>
       <c r="E451" s="60"/>
       <c r="F451" s="62" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="G451" s="63"/>
       <c r="H451" s="64" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="I451" s="85" t="s">
         <v>856</v>
@@ -40937,11 +41375,11 @@
       </c>
       <c r="E452" s="60"/>
       <c r="F452" s="62" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="G452" s="63"/>
       <c r="H452" s="64" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="I452" s="85" t="s">
         <v>856</v>
@@ -40963,11 +41401,11 @@
       </c>
       <c r="E453" s="60"/>
       <c r="F453" s="62" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="G453" s="63"/>
       <c r="H453" s="64" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="I453" s="85" t="s">
         <v>856</v>
@@ -40989,11 +41427,11 @@
       </c>
       <c r="E454" s="60"/>
       <c r="F454" s="62" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="G454" s="63"/>
       <c r="H454" s="64" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="I454" s="85" t="s">
         <v>856</v>
@@ -41015,11 +41453,11 @@
       </c>
       <c r="E455" s="60"/>
       <c r="F455" s="62" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="G455" s="63"/>
       <c r="H455" s="64" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="I455" s="85" t="s">
         <v>856</v>
@@ -41041,11 +41479,11 @@
       </c>
       <c r="E456" s="60"/>
       <c r="F456" s="62" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="G456" s="63"/>
       <c r="H456" s="64" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="I456" s="85" t="s">
         <v>856</v>
@@ -41071,7 +41509,7 @@
       </c>
       <c r="G457" s="35"/>
       <c r="H457" s="15" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="I457" s="13" t="s">
         <v>1197</v>
@@ -41094,7 +41532,7 @@
       </c>
       <c r="G458" s="35"/>
       <c r="H458" s="15" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="I458" s="13" t="s">
         <v>1197</v>
@@ -41117,7 +41555,7 @@
       </c>
       <c r="G459" s="35"/>
       <c r="H459" s="15" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="I459" s="13" t="s">
         <v>1197</v>
@@ -41131,13 +41569,13 @@
         <v>21407</v>
       </c>
       <c r="F460" s="111" t="s">
+        <v>1654</v>
+      </c>
+      <c r="G460" s="111" t="s">
         <v>1655</v>
       </c>
-      <c r="G460" s="111" t="s">
-        <v>1656</v>
-      </c>
       <c r="I460" s="14" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="461" spans="1:10" x14ac:dyDescent="0.2">
@@ -41148,10 +41586,10 @@
         <v>21408</v>
       </c>
       <c r="F461" s="111" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="G461" s="111" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="I461" s="14" t="s">
         <v>856</v>
@@ -41165,10 +41603,10 @@
         <v>21409</v>
       </c>
       <c r="F462" s="111" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="G462" s="111" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="I462" s="14" t="s">
         <v>856</v>
@@ -41187,14 +41625,14 @@
       </c>
       <c r="E463" s="10"/>
       <c r="F463" s="82" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="G463" s="79"/>
       <c r="H463" s="112" t="s">
+        <v>1661</v>
+      </c>
+      <c r="I463" s="19" t="s">
         <v>1662</v>
-      </c>
-      <c r="I463" s="19" t="s">
-        <v>1663</v>
       </c>
     </row>
     <row r="464" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -41214,7 +41652,7 @@
       </c>
       <c r="G464" s="35"/>
       <c r="H464" s="15" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="I464" s="13" t="s">
         <v>918</v>
@@ -41237,7 +41675,7 @@
       </c>
       <c r="G465" s="35"/>
       <c r="H465" s="15" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="I465" s="13" t="s">
         <v>918</v>
@@ -41260,7 +41698,7 @@
       </c>
       <c r="G466" s="35"/>
       <c r="H466" s="15" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="I466" s="13" t="s">
         <v>918</v>
@@ -41283,7 +41721,7 @@
       </c>
       <c r="G467" s="35"/>
       <c r="H467" s="15" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="I467" s="13" t="s">
         <v>918</v>
@@ -41302,14 +41740,14 @@
       </c>
       <c r="E468" s="10"/>
       <c r="F468" s="82" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="G468" s="79"/>
       <c r="H468" s="112" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="I468" s="19" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="469" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -41329,7 +41767,7 @@
       </c>
       <c r="G469" s="35"/>
       <c r="H469" s="15" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="I469" s="13" t="s">
         <v>918</v>
@@ -41352,7 +41790,7 @@
       </c>
       <c r="G470" s="35"/>
       <c r="H470" s="15" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="I470" s="13" t="s">
         <v>918</v>
@@ -41375,11 +41813,169 @@
       </c>
       <c r="G471" s="35"/>
       <c r="H471" s="15" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="I471" s="13" t="s">
         <v>918</v>
       </c>
+    </row>
+    <row r="472" spans="1:9" s="110" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A472" s="105">
+        <v>471</v>
+      </c>
+      <c r="B472" s="124">
+        <v>21419</v>
+      </c>
+      <c r="C472" s="105"/>
+      <c r="D472" s="105">
+        <v>463</v>
+      </c>
+      <c r="E472" s="105"/>
+      <c r="F472" s="107" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G472" s="108"/>
+      <c r="H472" s="105">
+        <v>724</v>
+      </c>
+      <c r="I472" s="106" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="473" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A473" s="11">
+        <v>472</v>
+      </c>
+      <c r="B473" s="12">
+        <v>21420</v>
+      </c>
+      <c r="C473" s="11"/>
+      <c r="D473" s="11">
+        <v>464</v>
+      </c>
+      <c r="E473" s="11"/>
+      <c r="F473" s="40" t="s">
+        <v>1733</v>
+      </c>
+      <c r="G473" s="35"/>
+      <c r="H473" s="105">
+        <v>724</v>
+      </c>
+      <c r="I473" s="13" t="s">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="474" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A474" s="11">
+        <v>473</v>
+      </c>
+      <c r="B474" s="12">
+        <v>21421</v>
+      </c>
+      <c r="C474" s="11"/>
+      <c r="D474" s="11">
+        <v>465</v>
+      </c>
+      <c r="E474" s="11"/>
+      <c r="F474" s="40" t="s">
+        <v>1262</v>
+      </c>
+      <c r="G474" s="35"/>
+      <c r="H474" s="105">
+        <v>724</v>
+      </c>
+      <c r="I474" s="13" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="475" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A475" s="11">
+        <v>474</v>
+      </c>
+      <c r="B475" s="14">
+        <v>21422</v>
+      </c>
+      <c r="D475" s="1">
+        <v>466</v>
+      </c>
+      <c r="F475" s="111" t="s">
+        <v>1741</v>
+      </c>
+      <c r="H475" s="105">
+        <v>724</v>
+      </c>
+      <c r="I475" s="14" t="s">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="476" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A476" s="11">
+        <v>475</v>
+      </c>
+      <c r="B476" s="1">
+        <v>21423</v>
+      </c>
+      <c r="D476" s="1">
+        <v>467</v>
+      </c>
+      <c r="F476" s="111" t="s">
+        <v>1751</v>
+      </c>
+      <c r="H476" s="105">
+        <v>724</v>
+      </c>
+      <c r="I476" s="14" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="477" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A477" s="11">
+        <v>476</v>
+      </c>
+      <c r="B477" s="1">
+        <v>21424</v>
+      </c>
+      <c r="D477" s="1">
+        <v>468</v>
+      </c>
+      <c r="F477" s="111" t="s">
+        <v>1753</v>
+      </c>
+      <c r="H477" s="105">
+        <v>724</v>
+      </c>
+      <c r="I477" s="14" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="478" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A478" s="11">
+        <v>477</v>
+      </c>
+      <c r="B478" s="1">
+        <v>21425</v>
+      </c>
+      <c r="D478" s="1">
+        <v>469</v>
+      </c>
+      <c r="F478" s="111" t="s">
+        <v>1747</v>
+      </c>
+      <c r="H478" s="105">
+        <v>724</v>
+      </c>
+      <c r="I478" s="14" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="479" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A479" s="11"/>
+    </row>
+    <row r="480" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A480" s="11"/>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A481" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
@@ -41391,10 +41987,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I661"/>
+  <dimension ref="A1:I671"/>
   <sheetViews>
-    <sheetView topLeftCell="A625" workbookViewId="0">
-      <selection activeCell="D661" sqref="D661"/>
+    <sheetView topLeftCell="A646" workbookViewId="0">
+      <selection activeCell="B662" sqref="B662:B668"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -42908,7 +43504,7 @@
         <v>83</v>
       </c>
       <c r="C105" s="13" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="D105" s="11">
         <v>49</v>
@@ -49083,7 +49679,7 @@
         <v>367</v>
       </c>
       <c r="C530" s="86" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="D530" s="10">
         <v>253</v>
@@ -49913,7 +50509,7 @@
         <v>418</v>
       </c>
       <c r="C588" s="19" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="D588" s="10">
         <v>0</v>
@@ -49927,7 +50523,7 @@
         <v>419</v>
       </c>
       <c r="C589" s="13" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="D589" s="11">
         <v>285</v>
@@ -49941,7 +50537,7 @@
         <v>420</v>
       </c>
       <c r="C590" s="119" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="D590" s="115">
         <v>286</v>
@@ -49955,7 +50551,7 @@
         <v>421</v>
       </c>
       <c r="C591" s="119" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="D591" s="115">
         <v>287</v>
@@ -49969,7 +50565,7 @@
         <v>422</v>
       </c>
       <c r="C592" s="119" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="D592" s="115">
         <v>288</v>
@@ -49997,7 +50593,7 @@
         <v>424</v>
       </c>
       <c r="C594" s="119" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="D594" s="115">
         <v>290</v>
@@ -50011,7 +50607,7 @@
         <v>425</v>
       </c>
       <c r="C595" s="119" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="D595" s="115">
         <v>291</v>
@@ -50025,7 +50621,7 @@
         <v>426</v>
       </c>
       <c r="C596" s="119" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="D596" s="115">
         <v>292</v>
@@ -50039,7 +50635,7 @@
         <v>427</v>
       </c>
       <c r="C597" s="119" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="D597" s="115">
         <v>293</v>
@@ -50053,7 +50649,7 @@
         <v>428</v>
       </c>
       <c r="C598" s="13" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="D598" s="11">
         <v>294</v>
@@ -50175,7 +50771,7 @@
         <v>429</v>
       </c>
       <c r="C606" s="11" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="D606" s="11">
         <v>0</v>
@@ -50325,7 +50921,7 @@
         <v>439</v>
       </c>
       <c r="C616" s="123" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="D616" s="60">
         <v>304</v>
@@ -50340,7 +50936,7 @@
         <v>440</v>
       </c>
       <c r="C617" s="123" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="D617" s="60">
         <v>305</v>
@@ -50355,7 +50951,7 @@
         <v>441</v>
       </c>
       <c r="C618" s="123" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="D618" s="60">
         <v>0</v>
@@ -50479,7 +51075,7 @@
         <v>441</v>
       </c>
       <c r="C626" s="60" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="D626" s="60">
         <v>0</v>
@@ -50629,7 +51225,7 @@
         <v>451</v>
       </c>
       <c r="C636" s="86" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="D636" s="10">
         <v>315</v>
@@ -50643,7 +51239,7 @@
         <v>452</v>
       </c>
       <c r="C637" s="86" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="D637" s="10">
         <v>316</v>
@@ -50657,7 +51253,7 @@
         <v>453</v>
       </c>
       <c r="C638" s="86" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="D638" s="10">
         <v>317</v>
@@ -50761,7 +51357,7 @@
         <v>454</v>
       </c>
       <c r="C645" s="26" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="D645" s="10">
         <v>0</v>
@@ -50778,7 +51374,7 @@
         <v>454</v>
       </c>
       <c r="C646" s="10" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="D646" s="10">
         <v>0</v>
@@ -50793,7 +51389,7 @@
         <v>455</v>
       </c>
       <c r="C647" s="86" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="D647" s="10">
         <v>318</v>
@@ -50956,7 +51552,7 @@
         <v>459</v>
       </c>
       <c r="C658" s="10" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="D658" s="10">
         <v>0</v>
@@ -50971,7 +51567,7 @@
         <v>460</v>
       </c>
       <c r="C659" s="86" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="D659" s="10">
         <v>322</v>
@@ -50985,7 +51581,7 @@
         <v>461</v>
       </c>
       <c r="C660" s="86" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="D660" s="10">
         <v>323</v>
@@ -50999,11 +51595,118 @@
         <v>462</v>
       </c>
       <c r="C661" s="86" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="D661" s="10">
         <v>324</v>
       </c>
+    </row>
+    <row r="662" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A662" s="11">
+        <v>661</v>
+      </c>
+      <c r="B662" s="11">
+        <v>463</v>
+      </c>
+      <c r="C662" s="23" t="s">
+        <v>1731</v>
+      </c>
+      <c r="D662" s="11">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="663" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A663" s="11">
+        <v>662</v>
+      </c>
+      <c r="B663" s="11">
+        <v>464</v>
+      </c>
+      <c r="C663" s="13" t="s">
+        <v>1736</v>
+      </c>
+      <c r="D663" s="12">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="664" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A664" s="11">
+        <v>663</v>
+      </c>
+      <c r="B664" s="11">
+        <v>465</v>
+      </c>
+      <c r="C664" s="13" t="s">
+        <v>1737</v>
+      </c>
+      <c r="D664" s="12">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="665" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A665" s="11">
+        <v>664</v>
+      </c>
+      <c r="B665" s="29">
+        <v>466</v>
+      </c>
+      <c r="C665" s="13" t="s">
+        <v>1743</v>
+      </c>
+      <c r="D665" s="12">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="666" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A666" s="11">
+        <v>665</v>
+      </c>
+      <c r="B666" s="29">
+        <v>467</v>
+      </c>
+      <c r="C666" s="13" t="s">
+        <v>1749</v>
+      </c>
+      <c r="D666" s="12">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="667" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A667" s="11">
+        <v>666</v>
+      </c>
+      <c r="B667" s="29">
+        <v>468</v>
+      </c>
+      <c r="C667" s="13" t="s">
+        <v>1752</v>
+      </c>
+      <c r="D667" s="12">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="668" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A668" s="11">
+        <v>667</v>
+      </c>
+      <c r="B668" s="29">
+        <v>469</v>
+      </c>
+      <c r="C668" s="13" t="s">
+        <v>1754</v>
+      </c>
+      <c r="D668" s="12">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="669" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A669" s="11"/>
+    </row>
+    <row r="670" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A670" s="11"/>
+    </row>
+    <row r="671" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A671" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
@@ -51015,13 +51718,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:M443"/>
+  <dimension ref="A1:M452"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C417" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C426" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D444" sqref="D444"/>
+      <selection pane="bottomRight" activeCell="B444" sqref="B444:B452"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -58483,7 +59186,7 @@
         <v>681</v>
       </c>
       <c r="D402" s="112" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="E402" s="10">
         <v>2</v>
@@ -58519,7 +59222,7 @@
         <v>700</v>
       </c>
       <c r="D404" s="119" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="E404" s="115">
         <v>2</v>
@@ -58537,7 +59240,7 @@
         <v>700</v>
       </c>
       <c r="D405" s="119" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="E405" s="115">
         <v>2</v>
@@ -58555,7 +59258,7 @@
         <v>700</v>
       </c>
       <c r="D406" s="119" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="E406" s="115">
         <v>2</v>
@@ -58570,10 +59273,10 @@
         <v>289</v>
       </c>
       <c r="C407" s="60" t="s">
+        <v>1522</v>
+      </c>
+      <c r="D407" s="64" t="s">
         <v>1523</v>
-      </c>
-      <c r="D407" s="64" t="s">
-        <v>1524</v>
       </c>
       <c r="E407" s="60">
         <v>2</v>
@@ -58673,7 +59376,7 @@
         <v>295</v>
       </c>
       <c r="C413" s="13" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="D413" s="11">
         <v>1</v>
@@ -58690,7 +59393,7 @@
         <v>296</v>
       </c>
       <c r="C414" s="13" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="D414" s="11">
         <v>2</v>
@@ -58707,7 +59410,7 @@
         <v>297</v>
       </c>
       <c r="C415" s="13" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="D415" s="11">
         <v>3</v>
@@ -58724,7 +59427,7 @@
         <v>298</v>
       </c>
       <c r="C416" s="13" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="D416" s="11">
         <v>4</v>
@@ -58741,7 +59444,7 @@
         <v>299</v>
       </c>
       <c r="C417" s="13" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="D417" s="11">
         <v>5</v>
@@ -58758,7 +59461,7 @@
         <v>300</v>
       </c>
       <c r="C418" s="13" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="D418" s="11">
         <v>111</v>
@@ -58775,7 +59478,7 @@
         <v>301</v>
       </c>
       <c r="C419" s="13" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="D419" s="11">
         <v>6</v>
@@ -58792,7 +59495,7 @@
         <v>302</v>
       </c>
       <c r="C420" s="13" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="D420" s="11">
         <v>108</v>
@@ -58809,7 +59512,7 @@
         <v>303</v>
       </c>
       <c r="C421" s="13" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="D421" s="11">
         <v>110</v>
@@ -58826,10 +59529,10 @@
         <v>304</v>
       </c>
       <c r="C422" s="13" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="D422" s="15" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="E422" s="11">
         <v>2</v>
@@ -58843,10 +59546,10 @@
         <v>304</v>
       </c>
       <c r="C423" s="13" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="D423" s="13" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="E423" s="11">
         <v>2</v>
@@ -58860,10 +59563,10 @@
         <v>305</v>
       </c>
       <c r="C424" s="11" t="s">
+        <v>1600</v>
+      </c>
+      <c r="D424" s="11" t="s">
         <v>1601</v>
-      </c>
-      <c r="D424" s="11" t="s">
-        <v>1602</v>
       </c>
       <c r="E424" s="11">
         <v>2</v>
@@ -59189,6 +59892,159 @@
         <v>3</v>
       </c>
       <c r="E443" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A444" s="12">
+        <v>473</v>
+      </c>
+      <c r="B444" s="12">
+        <v>325</v>
+      </c>
+      <c r="C444" s="13" t="s">
+        <v>1732</v>
+      </c>
+      <c r="D444" s="11">
+        <v>10000</v>
+      </c>
+      <c r="E444" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A445" s="12">
+        <v>474</v>
+      </c>
+      <c r="B445" s="12">
+        <v>326</v>
+      </c>
+      <c r="C445" s="13" t="s">
+        <v>1738</v>
+      </c>
+      <c r="D445" s="11">
+        <v>10000</v>
+      </c>
+      <c r="E445" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A446" s="12">
+        <v>475</v>
+      </c>
+      <c r="B446" s="12">
+        <v>326</v>
+      </c>
+      <c r="C446" s="13" t="s">
+        <v>1739</v>
+      </c>
+      <c r="D446" s="11">
+        <v>3</v>
+      </c>
+      <c r="E446" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A447" s="12">
+        <v>476</v>
+      </c>
+      <c r="B447" s="12">
+        <v>327</v>
+      </c>
+      <c r="C447" s="13" t="s">
+        <v>1738</v>
+      </c>
+      <c r="D447" s="11">
+        <v>10000</v>
+      </c>
+      <c r="E447" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A448" s="12">
+        <v>477</v>
+      </c>
+      <c r="B448" s="12">
+        <v>328</v>
+      </c>
+      <c r="C448" s="13" t="s">
+        <v>1744</v>
+      </c>
+      <c r="D448" s="11">
+        <v>1</v>
+      </c>
+      <c r="E448" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A449" s="12">
+        <v>478</v>
+      </c>
+      <c r="B449" s="12">
+        <v>328</v>
+      </c>
+      <c r="C449" s="13" t="s">
+        <v>1745</v>
+      </c>
+      <c r="D449" s="13" t="s">
+        <v>1746</v>
+      </c>
+      <c r="E449" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A450" s="12">
+        <v>479</v>
+      </c>
+      <c r="B450" s="12">
+        <v>329</v>
+      </c>
+      <c r="C450" s="13" t="s">
+        <v>1750</v>
+      </c>
+      <c r="D450" s="11">
+        <v>1</v>
+      </c>
+      <c r="E450" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A451" s="12">
+        <v>480</v>
+      </c>
+      <c r="B451" s="12">
+        <v>330</v>
+      </c>
+      <c r="C451" s="13" t="s">
+        <v>1744</v>
+      </c>
+      <c r="D451" s="11">
+        <v>1</v>
+      </c>
+      <c r="E451" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A452" s="12">
+        <v>481</v>
+      </c>
+      <c r="B452" s="12">
+        <v>331</v>
+      </c>
+      <c r="C452" s="13" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D452" s="11">
+        <v>2</v>
+      </c>
+      <c r="E452" s="11">
         <v>2</v>
       </c>
     </row>
@@ -59202,13 +60058,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:W1093"/>
+  <dimension ref="A1:W1100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C1058" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C1088" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B1094" sqref="B1094"/>
+      <selection pane="bottomRight" activeCell="B1102" sqref="B1102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -71655,7 +72511,7 @@
       </c>
       <c r="C591" s="13"/>
       <c r="D591" s="13" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="E591" s="11">
         <v>88</v>
@@ -76162,7 +77018,7 @@
       </c>
       <c r="C813" s="11"/>
       <c r="D813" s="13" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="E813" s="27">
         <v>1</v>
@@ -77416,7 +78272,7 @@
         <v>623</v>
       </c>
       <c r="D882" s="14" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="E882" s="1">
         <v>20000</v>
@@ -77519,7 +78375,7 @@
       </c>
       <c r="C888" s="29"/>
       <c r="D888" s="14" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="E888" s="29">
         <v>1</v>
@@ -77540,7 +78396,7 @@
       </c>
       <c r="C889" s="29"/>
       <c r="D889" s="14" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="E889" s="29">
         <v>1000</v>
@@ -77598,7 +78454,7 @@
       </c>
       <c r="C892" s="29"/>
       <c r="D892" s="13" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="E892" s="29">
         <v>100</v>
@@ -77636,7 +78492,7 @@
       </c>
       <c r="C894" s="29"/>
       <c r="D894" s="13" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="E894" s="29">
         <v>300</v>
@@ -77674,7 +78530,7 @@
       </c>
       <c r="C896" s="29"/>
       <c r="D896" s="13" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="E896" s="29">
         <v>900</v>
@@ -77694,7 +78550,7 @@
         <v>635</v>
       </c>
       <c r="D897" s="13" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="E897" s="29">
         <v>3000</v>
@@ -77712,7 +78568,7 @@
       </c>
       <c r="C898" s="29"/>
       <c r="D898" s="13" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="E898" s="29">
         <v>3000</v>
@@ -77750,7 +78606,7 @@
       </c>
       <c r="C900" s="29"/>
       <c r="D900" s="13" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="E900" s="29">
         <v>8400</v>
@@ -77771,7 +78627,7 @@
       </c>
       <c r="C901" s="11"/>
       <c r="D901" s="13" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="E901" s="11">
         <v>1</v>
@@ -77792,7 +78648,7 @@
       </c>
       <c r="C902" s="11"/>
       <c r="D902" s="13" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="E902" s="11">
         <v>1</v>
@@ -77813,7 +78669,7 @@
       </c>
       <c r="C903" s="11"/>
       <c r="D903" s="13" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="E903" s="11">
         <v>4</v>
@@ -77834,7 +78690,7 @@
       </c>
       <c r="C904" s="11"/>
       <c r="D904" s="13" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="E904" s="11">
         <v>4</v>
@@ -77855,7 +78711,7 @@
       </c>
       <c r="C905" s="11"/>
       <c r="D905" s="13" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="E905" s="11">
         <v>9</v>
@@ -77876,7 +78732,7 @@
       </c>
       <c r="C906" s="11"/>
       <c r="D906" s="13" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="E906" s="11">
         <v>9</v>
@@ -77897,7 +78753,7 @@
       </c>
       <c r="C907" s="11"/>
       <c r="D907" s="13" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="E907" s="11">
         <v>18</v>
@@ -77918,7 +78774,7 @@
       </c>
       <c r="C908" s="11"/>
       <c r="D908" s="13" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="E908" s="11">
         <v>18</v>
@@ -77939,7 +78795,7 @@
       </c>
       <c r="C909" s="11"/>
       <c r="D909" s="13" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="E909" s="11">
         <v>30</v>
@@ -77960,7 +78816,7 @@
       </c>
       <c r="C910" s="11"/>
       <c r="D910" s="13" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="E910" s="11">
         <v>30</v>
@@ -77981,7 +78837,7 @@
       </c>
       <c r="C911" s="11"/>
       <c r="D911" s="13" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="E911" s="11">
         <v>58</v>
@@ -78002,7 +78858,7 @@
       </c>
       <c r="C912" s="11"/>
       <c r="D912" s="13" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="E912" s="11">
         <v>58</v>
@@ -78023,7 +78879,7 @@
       </c>
       <c r="C913" s="11"/>
       <c r="D913" s="13" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="E913" s="11">
         <v>118</v>
@@ -78044,7 +78900,7 @@
       </c>
       <c r="C914" s="11"/>
       <c r="D914" s="13" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="E914" s="11">
         <v>118</v>
@@ -78065,7 +78921,7 @@
       </c>
       <c r="C915" s="11"/>
       <c r="D915" s="13" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="E915" s="11">
         <v>298</v>
@@ -78086,7 +78942,7 @@
       </c>
       <c r="C916" s="11"/>
       <c r="D916" s="13" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="E916" s="11">
         <v>298</v>
@@ -78107,7 +78963,7 @@
       </c>
       <c r="C917" s="11"/>
       <c r="D917" s="13" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="E917" s="11">
         <v>598</v>
@@ -78128,7 +78984,7 @@
       </c>
       <c r="C918" s="11"/>
       <c r="D918" s="13" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="E918" s="11">
         <v>598</v>
@@ -78149,7 +79005,7 @@
       </c>
       <c r="C919" s="11"/>
       <c r="D919" s="13" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="E919" s="11">
         <v>1498</v>
@@ -78170,7 +79026,7 @@
       </c>
       <c r="C920" s="11"/>
       <c r="D920" s="13" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="E920" s="11">
         <v>1498</v>
@@ -78233,7 +79089,7 @@
       </c>
       <c r="C923" s="11"/>
       <c r="D923" s="13" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="E923" s="11">
         <v>2</v>
@@ -78254,7 +79110,7 @@
       </c>
       <c r="C924" s="11"/>
       <c r="D924" s="13" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="E924" s="11">
         <v>5</v>
@@ -78275,7 +79131,7 @@
       </c>
       <c r="C925" s="11"/>
       <c r="D925" s="13" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="E925" s="11">
         <v>40</v>
@@ -78296,7 +79152,7 @@
       </c>
       <c r="C926" s="11"/>
       <c r="D926" s="13" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="E926" s="11">
         <v>100</v>
@@ -78317,7 +79173,7 @@
       </c>
       <c r="C927" s="11"/>
       <c r="D927" s="13" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="E927" s="11">
         <v>150</v>
@@ -78338,7 +79194,7 @@
       </c>
       <c r="C928" s="11"/>
       <c r="D928" s="13" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="E928" s="11">
         <v>300</v>
@@ -78359,7 +79215,7 @@
       </c>
       <c r="C929" s="11"/>
       <c r="D929" s="13" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="E929" s="11">
         <v>400</v>
@@ -78380,7 +79236,7 @@
       </c>
       <c r="C930" s="11"/>
       <c r="D930" s="13" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="E930" s="11">
         <v>1000</v>
@@ -78401,7 +79257,7 @@
       </c>
       <c r="C931" s="11"/>
       <c r="D931" s="13" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="E931" s="11">
         <v>2000</v>
@@ -78422,7 +79278,7 @@
       </c>
       <c r="C932" s="11"/>
       <c r="D932" s="13" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="E932" s="11">
         <v>3500</v>
@@ -78443,7 +79299,7 @@
       </c>
       <c r="C933" s="11"/>
       <c r="D933" s="13" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="E933" s="11">
         <v>17000</v>
@@ -78464,7 +79320,7 @@
       </c>
       <c r="C934" s="11"/>
       <c r="D934" s="13" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="E934" s="11">
         <v>32500</v>
@@ -78485,7 +79341,7 @@
       </c>
       <c r="C935" s="11"/>
       <c r="D935" s="13" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="E935" s="11">
         <v>30</v>
@@ -78506,7 +79362,7 @@
       </c>
       <c r="C936" s="11"/>
       <c r="D936" s="13" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="E936" s="11">
         <v>180</v>
@@ -78527,7 +79383,7 @@
       </c>
       <c r="C937" s="11"/>
       <c r="D937" s="13" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="E937" s="11">
         <v>700</v>
@@ -78548,7 +79404,7 @@
       </c>
       <c r="C938" s="11"/>
       <c r="D938" s="13" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="E938" s="11">
         <v>1500</v>
@@ -78569,7 +79425,7 @@
       </c>
       <c r="C939" s="11"/>
       <c r="D939" s="13" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="E939" s="11">
         <v>10000</v>
@@ -78590,7 +79446,7 @@
       </c>
       <c r="C940" s="60"/>
       <c r="D940" s="85" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="E940" s="60">
         <v>1</v>
@@ -78608,7 +79464,7 @@
       </c>
       <c r="C941" s="60"/>
       <c r="D941" s="85" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="E941" s="60">
         <v>5</v>
@@ -78626,7 +79482,7 @@
       </c>
       <c r="C942" s="60"/>
       <c r="D942" s="85" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="E942" s="60">
         <v>12</v>
@@ -78644,7 +79500,7 @@
       </c>
       <c r="C943" s="60"/>
       <c r="D943" s="85" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="E943" s="60">
         <v>25</v>
@@ -78662,7 +79518,7 @@
       </c>
       <c r="C944" s="60"/>
       <c r="D944" s="85" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="E944" s="60">
         <v>38</v>
@@ -78680,7 +79536,7 @@
       </c>
       <c r="C945" s="60"/>
       <c r="D945" s="85" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="E945" s="60">
         <v>78</v>
@@ -78698,7 +79554,7 @@
       </c>
       <c r="C946" s="60"/>
       <c r="D946" s="85" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="E946" s="60">
         <v>158</v>
@@ -78716,7 +79572,7 @@
       </c>
       <c r="C947" s="60"/>
       <c r="D947" s="85" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="E947" s="60">
         <v>398</v>
@@ -78734,7 +79590,7 @@
       </c>
       <c r="C948" s="60"/>
       <c r="D948" s="85" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="E948" s="60">
         <v>798</v>
@@ -78752,7 +79608,7 @@
       </c>
       <c r="C949" s="60"/>
       <c r="D949" s="85" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="E949" s="60">
         <v>1998</v>
@@ -79337,10 +80193,10 @@
       </c>
       <c r="C977" s="10"/>
       <c r="D977" s="19" t="s">
+        <v>1665</v>
+      </c>
+      <c r="E977" s="83" t="s">
         <v>1666</v>
-      </c>
-      <c r="E977" s="83" t="s">
-        <v>1667</v>
       </c>
       <c r="F977" s="10">
         <v>20</v>
@@ -79355,10 +80211,10 @@
       </c>
       <c r="C978" s="10"/>
       <c r="D978" s="19" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="E978" s="83" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="F978" s="10">
         <v>30</v>
@@ -79373,10 +80229,10 @@
       </c>
       <c r="C979" s="10"/>
       <c r="D979" s="19" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="E979" s="83" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="F979" s="10">
         <v>50</v>
@@ -79391,7 +80247,7 @@
       </c>
       <c r="C980" s="29"/>
       <c r="D980" s="19" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="E980" s="29">
         <v>30</v>
@@ -79409,7 +80265,7 @@
       </c>
       <c r="C981" s="29"/>
       <c r="D981" s="19" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="E981" s="29">
         <v>40</v>
@@ -79427,7 +80283,7 @@
       </c>
       <c r="C982" s="29"/>
       <c r="D982" s="19" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="E982" s="29">
         <v>50</v>
@@ -79445,7 +80301,7 @@
       </c>
       <c r="C983" s="29"/>
       <c r="D983" s="19" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="E983" s="29">
         <v>50</v>
@@ -79463,7 +80319,7 @@
       </c>
       <c r="C984" s="29"/>
       <c r="D984" s="19" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="E984" s="29">
         <v>80</v>
@@ -79481,7 +80337,7 @@
       </c>
       <c r="C985" s="29"/>
       <c r="D985" s="19" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="E985" s="29">
         <v>100</v>
@@ -79499,7 +80355,7 @@
       </c>
       <c r="C986" s="29"/>
       <c r="D986" s="19" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="E986" s="29">
         <v>150</v>
@@ -79517,7 +80373,7 @@
       </c>
       <c r="C987" s="29"/>
       <c r